--- a/raw_data/arabuko_sokoke_11.xlsx
+++ b/raw_data/arabuko_sokoke_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/Research/research_projects/arabuko_sokoke/ASF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DA760-15AB-3F4A-BE06-4E7F0BFF2A5E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B055DE0-0A61-CF4C-8D48-D11F3E5F491B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="460" windowWidth="26380" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41957,9 +41957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X642" sqref="X642"/>
+      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42105,28 +42105,28 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <f>(SUM(C2:F2))/4</f>
-        <v>9.75</v>
+        <f>((SUM(C2:F2))/4)*1.04</f>
+        <v>10.14</v>
       </c>
       <c r="R2">
-        <f>(SUM(C4:F4))/4</f>
-        <v>14.25</v>
+        <f>((SUM(C4:F4))/4)*1.04</f>
+        <v>14.82</v>
       </c>
       <c r="S2">
-        <f>(SUM(C6:F6))/4</f>
-        <v>6.25</v>
+        <f>((SUM(C6:F6))/4)*1.04</f>
+        <v>6.5</v>
       </c>
       <c r="T2">
-        <f>(SUM(C8:F8))/4</f>
-        <v>31.25</v>
+        <f>((SUM(C8:F8))/4)*1.04</f>
+        <v>32.5</v>
       </c>
       <c r="U2">
-        <f>(SUM(C10:F10))/4</f>
-        <v>49.5</v>
+        <f>((SUM(C10:F10))/4)*1.04</f>
+        <v>51.480000000000004</v>
       </c>
       <c r="V2">
-        <f>(SUM(C2:F10))/20</f>
-        <v>22.2</v>
+        <f>((SUM(C2:F10))/20)*1.04</f>
+        <v>23.088000000000001</v>
       </c>
       <c r="W2">
         <f>(SUM(G2:H10))/10</f>
@@ -42631,28 +42631,28 @@
         <v>60</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q74" si="1">(SUM(C11:F11))/4</f>
-        <v>5.25</v>
+        <f>((SUM(C11:F11))/4)*1.04</f>
+        <v>5.46</v>
       </c>
       <c r="R11">
-        <f>(SUM(C13:F13))/4</f>
-        <v>13.75</v>
+        <f>((SUM(C13:F13))/4)*1.04</f>
+        <v>14.3</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11" si="2">(SUM(C15:F15))/4</f>
-        <v>22.5</v>
+        <f>((SUM(C15:F15))/4)*1.04</f>
+        <v>23.400000000000002</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11" si="3">(SUM(C17:F17))/4</f>
-        <v>6.75</v>
+        <f>((SUM(C17:F17))/4)*1.04</f>
+        <v>7.0200000000000005</v>
       </c>
       <c r="U11">
-        <f>(SUM(C19:F19))/4</f>
-        <v>3.25</v>
+        <f>((SUM(C19:F19))/4)*1.04</f>
+        <v>3.38</v>
       </c>
       <c r="V11">
-        <f>(SUM(C11:F19))/20</f>
-        <v>10.3</v>
+        <f>((SUM(C11:F19))/20)*1.04</f>
+        <v>10.712000000000002</v>
       </c>
       <c r="W11">
         <f>(SUM(G11:H19))/10</f>
@@ -43157,28 +43157,28 @@
         <v>50</v>
       </c>
       <c r="Q20">
-        <f>(SUM(C20:F20))/4</f>
-        <v>10</v>
+        <f>((SUM(C20:F20))/4)*1.04</f>
+        <v>10.4</v>
       </c>
       <c r="R20">
-        <f>(SUM(C22:F22))/4</f>
-        <v>23.5</v>
+        <f>((SUM(C22:F22))/4)*1.04</f>
+        <v>24.44</v>
       </c>
       <c r="S20">
-        <f>(SUM(C24:F24))/4</f>
-        <v>18.5</v>
+        <f>((SUM(C24:F24))/4)*1.04</f>
+        <v>19.240000000000002</v>
       </c>
       <c r="T20">
-        <f t="shared" ref="T20" si="4">(SUM(C26:F26))/4</f>
-        <v>19.75</v>
+        <f>((SUM(C26:F26))/4)*1.04</f>
+        <v>20.54</v>
       </c>
       <c r="U20">
-        <f>(SUM(C28:F28))/4</f>
-        <v>7.5</v>
+        <f>((SUM(C28:F28))/4)*1.04</f>
+        <v>7.8000000000000007</v>
       </c>
       <c r="V20">
-        <f>(SUM(C20:F28))/20</f>
-        <v>15.85</v>
+        <f>((SUM(C20:F28))/20)*1.04</f>
+        <v>16.484000000000002</v>
       </c>
       <c r="W20">
         <f>(SUM(G20:H28))/10</f>
@@ -43683,43 +43683,43 @@
         <v>80</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q92" si="5">(SUM(C29:F29))/4</f>
-        <v>18.75</v>
+        <f>((SUM(C29:F29))/4)*1.04</f>
+        <v>19.5</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29" si="6">(SUM(C31:F31))/4</f>
-        <v>6.5</v>
+        <f>((SUM(C31:F31))/4)*1.04</f>
+        <v>6.76</v>
       </c>
       <c r="S29">
-        <f t="shared" ref="S29" si="7">(SUM(C33:F33))/4</f>
-        <v>9.75</v>
+        <f>((SUM(C33:F33))/4)*1.04</f>
+        <v>10.14</v>
       </c>
       <c r="T29">
-        <f t="shared" ref="T29" si="8">(SUM(C35:F35))/4</f>
-        <v>12.75</v>
+        <f>((SUM(C35:F35))/4)*1.04</f>
+        <v>13.26</v>
       </c>
       <c r="U29">
-        <f t="shared" ref="U29" si="9">(SUM(C37:F37))/4</f>
-        <v>4</v>
+        <f>((SUM(C37:F37))/4)*1.04</f>
+        <v>4.16</v>
       </c>
       <c r="V29">
-        <f t="shared" ref="V29" si="10">(SUM(C29:F37))/20</f>
-        <v>10.35</v>
+        <f>((SUM(C29:F37))/20)*1.04</f>
+        <v>10.763999999999999</v>
       </c>
       <c r="W29">
-        <f t="shared" ref="W29" si="11">(SUM(G29:H37))/10</f>
+        <f t="shared" ref="W29" si="1">(SUM(G29:H37))/10</f>
         <v>3.8</v>
       </c>
       <c r="X29">
-        <f t="shared" ref="X29" si="12">(SUM(I29:I37))/5</f>
+        <f t="shared" ref="X29" si="2">(SUM(I29:I37))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y29">
-        <f t="shared" ref="Y29" si="13">SUM(K29:K37)-Z29</f>
+        <f t="shared" ref="Y29" si="3">SUM(K29:K37)-Z29</f>
         <v>11</v>
       </c>
       <c r="Z29">
-        <f t="shared" ref="Z29" si="14">SUM(L29:L37)</f>
+        <f t="shared" ref="Z29" si="4">SUM(L29:L37)</f>
         <v>7</v>
       </c>
       <c r="AA29" t="s">
@@ -44209,43 +44209,43 @@
         <v>80</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q38:Q101" si="15">(SUM(C38:F38))/4</f>
-        <v>8</v>
+        <f t="shared" ref="Q38:Q101" si="5">((SUM(C38:F38))/4)*1.04</f>
+        <v>8.32</v>
       </c>
       <c r="R38">
-        <f t="shared" ref="R38" si="16">(SUM(C40:F40))/4</f>
-        <v>14.25</v>
+        <f t="shared" ref="R38" si="6">((SUM(C40:F40))/4)*1.04</f>
+        <v>14.82</v>
       </c>
       <c r="S38">
-        <f t="shared" ref="S38" si="17">(SUM(C42:F42))/4</f>
-        <v>12.25</v>
+        <f t="shared" ref="S38" si="7">((SUM(C42:F42))/4)*1.04</f>
+        <v>12.74</v>
       </c>
       <c r="T38">
-        <f t="shared" ref="T38" si="18">(SUM(C44:F44))/4</f>
-        <v>12.25</v>
+        <f t="shared" ref="T38" si="8">((SUM(C44:F44))/4)*1.04</f>
+        <v>12.74</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38" si="19">(SUM(C46:F46))/4</f>
-        <v>8.5</v>
+        <f t="shared" ref="U38" si="9">((SUM(C46:F46))/4)*1.04</f>
+        <v>8.84</v>
       </c>
       <c r="V38">
-        <f t="shared" ref="V38" si="20">(SUM(C38:F46))/20</f>
-        <v>11.05</v>
+        <f t="shared" ref="V38" si="10">((SUM(C38:F46))/20)*1.04</f>
+        <v>11.492000000000001</v>
       </c>
       <c r="W38">
-        <f t="shared" ref="W38" si="21">(SUM(G38:H46))/10</f>
+        <f t="shared" ref="W38" si="11">(SUM(G38:H46))/10</f>
         <v>1.6009999999999998</v>
       </c>
       <c r="X38">
-        <f t="shared" ref="X38" si="22">(SUM(I38:I46))/5</f>
+        <f t="shared" ref="X38" si="12">(SUM(I38:I46))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y38">
-        <f t="shared" ref="Y38" si="23">SUM(K38:K46)-Z38</f>
+        <f t="shared" ref="Y38" si="13">SUM(K38:K46)-Z38</f>
         <v>15</v>
       </c>
       <c r="Z38">
-        <f t="shared" ref="Z38" si="24">SUM(L38:L46)</f>
+        <f t="shared" ref="Z38" si="14">SUM(L38:L46)</f>
         <v>13</v>
       </c>
       <c r="AA38" t="s">
@@ -44735,43 +44735,43 @@
         <v>70</v>
       </c>
       <c r="Q47">
-        <f t="shared" ref="Q47:Q110" si="25">(SUM(C47:F47))/4</f>
-        <v>6.25</v>
+        <f t="shared" ref="Q47:Q110" si="15">((SUM(C47:F47))/4)*1.04</f>
+        <v>6.5</v>
       </c>
       <c r="R47">
-        <f t="shared" ref="R47" si="26">(SUM(C49:F49))/4</f>
-        <v>6</v>
+        <f t="shared" ref="R47" si="16">((SUM(C49:F49))/4)*1.04</f>
+        <v>6.24</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47" si="27">(SUM(C51:F51))/4</f>
-        <v>7.25</v>
+        <f t="shared" ref="S47" si="17">((SUM(C51:F51))/4)*1.04</f>
+        <v>7.54</v>
       </c>
       <c r="T47">
-        <f t="shared" ref="T47" si="28">(SUM(C53:F53))/4</f>
-        <v>8.75</v>
+        <f t="shared" ref="T47" si="18">((SUM(C53:F53))/4)*1.04</f>
+        <v>9.1</v>
       </c>
       <c r="U47">
-        <f t="shared" ref="U47" si="29">(SUM(C55:F55))/4</f>
-        <v>16.5</v>
+        <f t="shared" ref="U47" si="19">((SUM(C55:F55))/4)*1.04</f>
+        <v>17.16</v>
       </c>
       <c r="V47">
-        <f t="shared" ref="V47" si="30">(SUM(C47:F55))/20</f>
-        <v>8.9499999999999993</v>
+        <f t="shared" ref="V47" si="20">((SUM(C47:F55))/20)*1.04</f>
+        <v>9.3079999999999998</v>
       </c>
       <c r="W47">
-        <f t="shared" ref="W47" si="31">(SUM(G47:H55))/10</f>
+        <f t="shared" ref="W47" si="21">(SUM(G47:H55))/10</f>
         <v>2.1030000000000002</v>
       </c>
       <c r="X47">
-        <f t="shared" ref="X47" si="32">(SUM(I47:I55))/5</f>
+        <f t="shared" ref="X47" si="22">(SUM(I47:I55))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y47">
-        <f t="shared" ref="Y47" si="33">SUM(K47:K55)-Z47</f>
+        <f t="shared" ref="Y47" si="23">SUM(K47:K55)-Z47</f>
         <v>18</v>
       </c>
       <c r="Z47">
-        <f t="shared" ref="Z47" si="34">SUM(L47:L55)</f>
+        <f t="shared" ref="Z47" si="24">SUM(L47:L55)</f>
         <v>15</v>
       </c>
       <c r="AA47" t="s">
@@ -45261,43 +45261,43 @@
         <v>120</v>
       </c>
       <c r="Q56">
-        <f t="shared" ref="Q56:Q119" si="35">(SUM(C56:F56))/4</f>
-        <v>10.25</v>
+        <f t="shared" ref="Q56:Q119" si="25">((SUM(C56:F56))/4)*1.04</f>
+        <v>10.66</v>
       </c>
       <c r="R56">
-        <f t="shared" ref="R56" si="36">(SUM(C58:F58))/4</f>
-        <v>16.5</v>
+        <f t="shared" ref="R56" si="26">((SUM(C58:F58))/4)*1.04</f>
+        <v>17.16</v>
       </c>
       <c r="S56">
-        <f t="shared" ref="S56" si="37">(SUM(C60:F60))/4</f>
-        <v>16.5</v>
+        <f t="shared" ref="S56" si="27">((SUM(C60:F60))/4)*1.04</f>
+        <v>17.16</v>
       </c>
       <c r="T56">
-        <f t="shared" ref="T56" si="38">(SUM(C62:F62))/4</f>
-        <v>9.5</v>
+        <f t="shared" ref="T56" si="28">((SUM(C62:F62))/4)*1.04</f>
+        <v>9.8800000000000008</v>
       </c>
       <c r="U56">
-        <f t="shared" ref="U56" si="39">(SUM(C64:F64))/4</f>
-        <v>18.25</v>
+        <f t="shared" ref="U56" si="29">((SUM(C64:F64))/4)*1.04</f>
+        <v>18.98</v>
       </c>
       <c r="V56">
-        <f t="shared" ref="V56" si="40">(SUM(C56:F64))/20</f>
-        <v>14.2</v>
+        <f t="shared" ref="V56" si="30">((SUM(C56:F64))/20)*1.04</f>
+        <v>14.767999999999999</v>
       </c>
       <c r="W56">
-        <f t="shared" ref="W56" si="41">(SUM(G56:H64))/10</f>
+        <f t="shared" ref="W56" si="31">(SUM(G56:H64))/10</f>
         <v>18</v>
       </c>
       <c r="X56">
-        <f t="shared" ref="X56" si="42">(SUM(I56:I64))/5</f>
+        <f t="shared" ref="X56" si="32">(SUM(I56:I64))/5</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y56">
-        <f t="shared" ref="Y56" si="43">SUM(K56:K64)-Z56</f>
+        <f t="shared" ref="Y56" si="33">SUM(K56:K64)-Z56</f>
         <v>-2</v>
       </c>
       <c r="Z56">
-        <f t="shared" ref="Z56" si="44">SUM(L56:L64)</f>
+        <f t="shared" ref="Z56" si="34">SUM(L56:L64)</f>
         <v>7</v>
       </c>
       <c r="AA56" t="s">
@@ -45787,43 +45787,43 @@
         <v>80</v>
       </c>
       <c r="Q65">
-        <f t="shared" ref="Q65:Q128" si="45">(SUM(C65:F65))/4</f>
-        <v>15.25</v>
+        <f t="shared" ref="Q65:Q128" si="35">((SUM(C65:F65))/4)*1.04</f>
+        <v>15.860000000000001</v>
       </c>
       <c r="R65">
-        <f t="shared" ref="R65" si="46">(SUM(C67:F67))/4</f>
-        <v>18.5</v>
+        <f t="shared" ref="R65" si="36">((SUM(C67:F67))/4)*1.04</f>
+        <v>19.240000000000002</v>
       </c>
       <c r="S65">
-        <f t="shared" ref="S65" si="47">(SUM(C69:F69))/4</f>
-        <v>11.5</v>
+        <f t="shared" ref="S65" si="37">((SUM(C69:F69))/4)*1.04</f>
+        <v>11.96</v>
       </c>
       <c r="T65">
-        <f t="shared" ref="T65" si="48">(SUM(C71:F71))/4</f>
-        <v>30.25</v>
+        <f t="shared" ref="T65" si="38">((SUM(C71:F71))/4)*1.04</f>
+        <v>31.46</v>
       </c>
       <c r="U65">
-        <f t="shared" ref="U65" si="49">(SUM(C73:F73))/4</f>
-        <v>38</v>
+        <f t="shared" ref="U65" si="39">((SUM(C73:F73))/4)*1.04</f>
+        <v>39.520000000000003</v>
       </c>
       <c r="V65">
-        <f t="shared" ref="V65" si="50">(SUM(C65:F73))/20</f>
-        <v>22.7</v>
+        <f t="shared" ref="V65" si="40">((SUM(C65:F73))/20)*1.04</f>
+        <v>23.608000000000001</v>
       </c>
       <c r="W65">
-        <f t="shared" ref="W65" si="51">(SUM(G65:H73))/10</f>
+        <f t="shared" ref="W65" si="41">(SUM(G65:H73))/10</f>
         <v>13.3</v>
       </c>
       <c r="X65">
-        <f t="shared" ref="X65" si="52">(SUM(I65:I73))/5</f>
+        <f t="shared" ref="X65" si="42">(SUM(I65:I73))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y65">
-        <f t="shared" ref="Y65" si="53">SUM(K65:K73)-Z65</f>
+        <f t="shared" ref="Y65" si="43">SUM(K65:K73)-Z65</f>
         <v>4</v>
       </c>
       <c r="Z65">
-        <f t="shared" ref="Z65" si="54">SUM(L65:L73)</f>
+        <f t="shared" ref="Z65" si="44">SUM(L65:L73)</f>
         <v>11</v>
       </c>
       <c r="AA65" t="s">
@@ -45931,7 +45931,7 @@
         <v>30</v>
       </c>
       <c r="P67" t="e">
-        <f t="shared" ref="P67:P130" si="55">M67*10</f>
+        <f t="shared" ref="P67:P130" si="45">M67*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA67" t="s">
@@ -45985,7 +45985,7 @@
         <v>30</v>
       </c>
       <c r="P68" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA68" t="s">
@@ -46039,7 +46039,7 @@
         <v>30</v>
       </c>
       <c r="P69" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA69" t="s">
@@ -46093,7 +46093,7 @@
         <v>30</v>
       </c>
       <c r="P70" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA70" t="s">
@@ -46147,7 +46147,7 @@
         <v>30</v>
       </c>
       <c r="P71" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA71" t="s">
@@ -46201,7 +46201,7 @@
         <v>30</v>
       </c>
       <c r="P72" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA72" t="s">
@@ -46255,7 +46255,7 @@
         <v>30</v>
       </c>
       <c r="P73" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA73" t="s">
@@ -46309,47 +46309,47 @@
         <v>29</v>
       </c>
       <c r="P74">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>60</v>
       </c>
       <c r="Q74">
-        <f t="shared" ref="Q74:Q137" si="56">(SUM(C74:F74))/4</f>
-        <v>17.75</v>
+        <f t="shared" ref="Q74:Q137" si="46">((SUM(C74:F74))/4)*1.04</f>
+        <v>18.46</v>
       </c>
       <c r="R74">
-        <f t="shared" ref="R74" si="57">(SUM(C76:F76))/4</f>
-        <v>18</v>
+        <f t="shared" ref="R74" si="47">((SUM(C76:F76))/4)*1.04</f>
+        <v>18.72</v>
       </c>
       <c r="S74">
-        <f t="shared" ref="S74" si="58">(SUM(C78:F78))/4</f>
-        <v>13.5</v>
+        <f t="shared" ref="S74" si="48">((SUM(C78:F78))/4)*1.04</f>
+        <v>14.040000000000001</v>
       </c>
       <c r="T74">
-        <f t="shared" ref="T74" si="59">(SUM(C80:F80))/4</f>
-        <v>38.75</v>
+        <f t="shared" ref="T74" si="49">((SUM(C80:F80))/4)*1.04</f>
+        <v>40.300000000000004</v>
       </c>
       <c r="U74">
-        <f t="shared" ref="U74" si="60">(SUM(C82:F82))/4</f>
-        <v>33</v>
+        <f t="shared" ref="U74" si="50">((SUM(C82:F82))/4)*1.04</f>
+        <v>34.32</v>
       </c>
       <c r="V74">
-        <f t="shared" ref="V74" si="61">(SUM(C74:F82))/20</f>
-        <v>24.2</v>
+        <f t="shared" ref="V74" si="51">((SUM(C74:F82))/20)*1.04</f>
+        <v>25.167999999999999</v>
       </c>
       <c r="W74">
-        <f t="shared" ref="W74" si="62">(SUM(G74:H82))/10</f>
+        <f t="shared" ref="W74" si="52">(SUM(G74:H82))/10</f>
         <v>51</v>
       </c>
       <c r="X74">
-        <f t="shared" ref="X74" si="63">(SUM(I74:I82))/5</f>
+        <f t="shared" ref="X74" si="53">(SUM(I74:I82))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y74">
-        <f t="shared" ref="Y74" si="64">SUM(K74:K82)-Z74</f>
+        <f t="shared" ref="Y74" si="54">SUM(K74:K82)-Z74</f>
         <v>6</v>
       </c>
       <c r="Z74">
-        <f t="shared" ref="Z74" si="65">SUM(L74:L82)</f>
+        <f t="shared" ref="Z74" si="55">SUM(L74:L82)</f>
         <v>14</v>
       </c>
       <c r="AA74" t="s">
@@ -46403,7 +46403,7 @@
         <v>30</v>
       </c>
       <c r="P75" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA75" t="s">
@@ -46457,7 +46457,7 @@
         <v>30</v>
       </c>
       <c r="P76" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA76" t="s">
@@ -46511,7 +46511,7 @@
         <v>30</v>
       </c>
       <c r="P77" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA77" t="s">
@@ -46565,7 +46565,7 @@
         <v>30</v>
       </c>
       <c r="P78" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA78" t="s">
@@ -46619,7 +46619,7 @@
         <v>30</v>
       </c>
       <c r="P79" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA79" t="s">
@@ -46673,7 +46673,7 @@
         <v>30</v>
       </c>
       <c r="P80" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA80" t="s">
@@ -46727,7 +46727,7 @@
         <v>30</v>
       </c>
       <c r="P81" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA81" t="s">
@@ -46781,7 +46781,7 @@
         <v>30</v>
       </c>
       <c r="P82" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA82" t="s">
@@ -46835,47 +46835,47 @@
         <v>29</v>
       </c>
       <c r="P83">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>60</v>
       </c>
       <c r="Q83">
-        <f t="shared" ref="Q83:Q146" si="66">(SUM(C83:F83))/4</f>
-        <v>16.5</v>
+        <f t="shared" ref="Q83:Q146" si="56">((SUM(C83:F83))/4)*1.04</f>
+        <v>17.16</v>
       </c>
       <c r="R83">
-        <f t="shared" ref="R83" si="67">(SUM(C85:F85))/4</f>
-        <v>11.25</v>
+        <f t="shared" ref="R83" si="57">((SUM(C85:F85))/4)*1.04</f>
+        <v>11.700000000000001</v>
       </c>
       <c r="S83">
-        <f t="shared" ref="S83" si="68">(SUM(C87:F87))/4</f>
-        <v>10.5</v>
+        <f t="shared" ref="S83" si="58">((SUM(C87:F87))/4)*1.04</f>
+        <v>10.92</v>
       </c>
       <c r="T83">
-        <f t="shared" ref="T83" si="69">(SUM(C89:F89))/4</f>
-        <v>11.25</v>
+        <f t="shared" ref="T83" si="59">((SUM(C89:F89))/4)*1.04</f>
+        <v>11.700000000000001</v>
       </c>
       <c r="U83">
-        <f t="shared" ref="U83" si="70">(SUM(C91:F91))/4</f>
-        <v>12.25</v>
+        <f t="shared" ref="U83" si="60">((SUM(C91:F91))/4)*1.04</f>
+        <v>12.74</v>
       </c>
       <c r="V83">
-        <f t="shared" ref="V83" si="71">(SUM(C83:F91))/20</f>
-        <v>12.35</v>
+        <f t="shared" ref="V83" si="61">((SUM(C83:F91))/20)*1.04</f>
+        <v>12.843999999999999</v>
       </c>
       <c r="W83">
-        <f t="shared" ref="W83" si="72">(SUM(G83:H91))/10</f>
+        <f t="shared" ref="W83" si="62">(SUM(G83:H91))/10</f>
         <v>30.5</v>
       </c>
       <c r="X83">
-        <f t="shared" ref="X83" si="73">(SUM(I83:I91))/5</f>
+        <f t="shared" ref="X83" si="63">(SUM(I83:I91))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y83">
-        <f t="shared" ref="Y83" si="74">SUM(K83:K91)-Z83</f>
+        <f t="shared" ref="Y83" si="64">SUM(K83:K91)-Z83</f>
         <v>13</v>
       </c>
       <c r="Z83">
-        <f t="shared" ref="Z83" si="75">SUM(L83:L91)</f>
+        <f t="shared" ref="Z83" si="65">SUM(L83:L91)</f>
         <v>7</v>
       </c>
       <c r="AA83" t="s">
@@ -46929,7 +46929,7 @@
         <v>30</v>
       </c>
       <c r="P84" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA84" t="s">
@@ -46983,7 +46983,7 @@
         <v>30</v>
       </c>
       <c r="P85" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA85" t="s">
@@ -47037,7 +47037,7 @@
         <v>30</v>
       </c>
       <c r="P86" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA86" t="s">
@@ -47091,7 +47091,7 @@
         <v>30</v>
       </c>
       <c r="P87" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA87" t="s">
@@ -47145,7 +47145,7 @@
         <v>30</v>
       </c>
       <c r="P88" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA88" t="s">
@@ -47199,7 +47199,7 @@
         <v>30</v>
       </c>
       <c r="P89" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA89" t="s">
@@ -47253,7 +47253,7 @@
         <v>30</v>
       </c>
       <c r="P90" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA90" t="s">
@@ -47307,7 +47307,7 @@
         <v>30</v>
       </c>
       <c r="P91" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA91" t="s">
@@ -47361,47 +47361,47 @@
         <v>29</v>
       </c>
       <c r="P92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>70</v>
       </c>
       <c r="Q92">
-        <f t="shared" ref="Q92:Q155" si="76">(SUM(C92:F92))/4</f>
-        <v>21.25</v>
+        <f t="shared" ref="Q92:Q155" si="66">((SUM(C92:F92))/4)*1.04</f>
+        <v>22.1</v>
       </c>
       <c r="R92">
-        <f t="shared" ref="R92" si="77">(SUM(C94:F94))/4</f>
-        <v>22.5</v>
+        <f t="shared" ref="R92" si="67">((SUM(C94:F94))/4)*1.04</f>
+        <v>23.400000000000002</v>
       </c>
       <c r="S92">
-        <f t="shared" ref="S92" si="78">(SUM(C96:F96))/4</f>
-        <v>18</v>
+        <f t="shared" ref="S92" si="68">((SUM(C96:F96))/4)*1.04</f>
+        <v>18.72</v>
       </c>
       <c r="T92">
-        <f t="shared" ref="T92" si="79">(SUM(C98:F98))/4</f>
-        <v>21</v>
+        <f t="shared" ref="T92" si="69">((SUM(C98:F98))/4)*1.04</f>
+        <v>21.84</v>
       </c>
       <c r="U92">
-        <f t="shared" ref="U92" si="80">(SUM(C100:F100))/4</f>
-        <v>87</v>
+        <f t="shared" ref="U92" si="70">((SUM(C100:F100))/4)*1.04</f>
+        <v>90.48</v>
       </c>
       <c r="V92">
-        <f t="shared" ref="V92" si="81">(SUM(C92:F100))/20</f>
-        <v>33.950000000000003</v>
+        <f t="shared" ref="V92" si="71">((SUM(C92:F100))/20)*1.04</f>
+        <v>35.308000000000007</v>
       </c>
       <c r="W92">
-        <f t="shared" ref="W92" si="82">(SUM(G92:H100))/10</f>
+        <f t="shared" ref="W92" si="72">(SUM(G92:H100))/10</f>
         <v>15.5</v>
       </c>
       <c r="X92">
-        <f t="shared" ref="X92" si="83">(SUM(I92:I100))/5</f>
+        <f t="shared" ref="X92" si="73">(SUM(I92:I100))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y92">
-        <f t="shared" ref="Y92" si="84">SUM(K92:K100)-Z92</f>
+        <f t="shared" ref="Y92" si="74">SUM(K92:K100)-Z92</f>
         <v>16</v>
       </c>
       <c r="Z92">
-        <f t="shared" ref="Z92" si="85">SUM(L92:L100)</f>
+        <f t="shared" ref="Z92" si="75">SUM(L92:L100)</f>
         <v>4</v>
       </c>
       <c r="AA92" t="s">
@@ -47455,7 +47455,7 @@
         <v>30</v>
       </c>
       <c r="P93" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA93" t="s">
@@ -47509,7 +47509,7 @@
         <v>30</v>
       </c>
       <c r="P94" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA94" t="s">
@@ -47563,7 +47563,7 @@
         <v>30</v>
       </c>
       <c r="P95" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA95" t="s">
@@ -47617,7 +47617,7 @@
         <v>30</v>
       </c>
       <c r="P96" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA96" t="s">
@@ -47671,7 +47671,7 @@
         <v>30</v>
       </c>
       <c r="P97" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA97" t="s">
@@ -47725,7 +47725,7 @@
         <v>30</v>
       </c>
       <c r="P98" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA98" t="s">
@@ -47779,7 +47779,7 @@
         <v>30</v>
       </c>
       <c r="P99" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA99" t="s">
@@ -47833,7 +47833,7 @@
         <v>30</v>
       </c>
       <c r="P100" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA100" t="s">
@@ -47887,47 +47887,47 @@
         <v>29</v>
       </c>
       <c r="P101">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>60</v>
       </c>
       <c r="Q101">
-        <f t="shared" ref="Q101:Q164" si="86">(SUM(C101:F101))/4</f>
+        <f t="shared" ref="Q101:Q164" si="76">((SUM(C101:F101))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R101">
-        <f t="shared" ref="R101" si="87">(SUM(C103:F103))/4</f>
+        <f t="shared" ref="R101" si="77">((SUM(C103:F103))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S101">
-        <f t="shared" ref="S101" si="88">(SUM(C105:F105))/4</f>
+        <f t="shared" ref="S101" si="78">((SUM(C105:F105))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T101">
-        <f t="shared" ref="T101" si="89">(SUM(C107:F107))/4</f>
+        <f t="shared" ref="T101" si="79">((SUM(C107:F107))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U101">
-        <f t="shared" ref="U101" si="90">(SUM(C109:F109))/4</f>
+        <f t="shared" ref="U101" si="80">((SUM(C109:F109))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V101">
-        <f t="shared" ref="V101" si="91">(SUM(C101:F109))/20</f>
+        <f t="shared" ref="V101" si="81">((SUM(C101:F109))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W101">
-        <f t="shared" ref="W101" si="92">(SUM(G101:H109))/10</f>
+        <f t="shared" ref="W101" si="82">(SUM(G101:H109))/10</f>
         <v>31.6</v>
       </c>
       <c r="X101">
-        <f t="shared" ref="X101" si="93">(SUM(I101:I109))/5</f>
+        <f t="shared" ref="X101" si="83">(SUM(I101:I109))/5</f>
         <v>2</v>
       </c>
       <c r="Y101">
-        <f t="shared" ref="Y101" si="94">SUM(K101:K109)-Z101</f>
+        <f t="shared" ref="Y101" si="84">SUM(K101:K109)-Z101</f>
         <v>26</v>
       </c>
       <c r="Z101">
-        <f t="shared" ref="Z101" si="95">SUM(L101:L109)</f>
+        <f t="shared" ref="Z101" si="85">SUM(L101:L109)</f>
         <v>9</v>
       </c>
       <c r="AA101" t="s">
@@ -47981,7 +47981,7 @@
         <v>30</v>
       </c>
       <c r="P102" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA102" t="s">
@@ -48035,7 +48035,7 @@
         <v>30</v>
       </c>
       <c r="P103" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA103" t="s">
@@ -48089,7 +48089,7 @@
         <v>30</v>
       </c>
       <c r="P104" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA104" t="s">
@@ -48143,7 +48143,7 @@
         <v>30</v>
       </c>
       <c r="P105" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA105" t="s">
@@ -48197,7 +48197,7 @@
         <v>30</v>
       </c>
       <c r="P106" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA106" t="s">
@@ -48251,7 +48251,7 @@
         <v>30</v>
       </c>
       <c r="P107" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA107" t="s">
@@ -48305,7 +48305,7 @@
         <v>30</v>
       </c>
       <c r="P108" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA108" t="s">
@@ -48359,7 +48359,7 @@
         <v>30</v>
       </c>
       <c r="P109" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA109" t="s">
@@ -48413,47 +48413,47 @@
         <v>43</v>
       </c>
       <c r="P110">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>50</v>
       </c>
       <c r="Q110">
-        <f t="shared" ref="Q110:Q173" si="96">(SUM(C110:F110))/4</f>
+        <f t="shared" ref="Q110:Q173" si="86">((SUM(C110:F110))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="shared" ref="R110" si="97">(SUM(C112:F112))/4</f>
+        <f t="shared" ref="R110" si="87">((SUM(C112:F112))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S110">
-        <f t="shared" ref="S110" si="98">(SUM(C114:F114))/4</f>
+        <f t="shared" ref="S110" si="88">((SUM(C114:F114))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T110">
-        <f t="shared" ref="T110" si="99">(SUM(C116:F116))/4</f>
+        <f t="shared" ref="T110" si="89">((SUM(C116:F116))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U110">
-        <f t="shared" ref="U110" si="100">(SUM(C118:F118))/4</f>
+        <f t="shared" ref="U110" si="90">((SUM(C118:F118))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" ref="V110" si="101">(SUM(C110:F118))/20</f>
+        <f t="shared" ref="V110" si="91">((SUM(C110:F118))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W110">
-        <f t="shared" ref="W110" si="102">(SUM(G110:H118))/10</f>
+        <f t="shared" ref="W110" si="92">(SUM(G110:H118))/10</f>
         <v>23.5</v>
       </c>
       <c r="X110">
-        <f t="shared" ref="X110" si="103">(SUM(I110:I118))/5</f>
+        <f t="shared" ref="X110" si="93">(SUM(I110:I118))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y110">
-        <f t="shared" ref="Y110" si="104">SUM(K110:K118)-Z110</f>
+        <f t="shared" ref="Y110" si="94">SUM(K110:K118)-Z110</f>
         <v>27</v>
       </c>
       <c r="Z110">
-        <f t="shared" ref="Z110" si="105">SUM(L110:L118)</f>
+        <f t="shared" ref="Z110" si="95">SUM(L110:L118)</f>
         <v>0</v>
       </c>
       <c r="AA110" t="s">
@@ -48507,7 +48507,7 @@
         <v>30</v>
       </c>
       <c r="P111" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA111" t="s">
@@ -48561,7 +48561,7 @@
         <v>30</v>
       </c>
       <c r="P112" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA112" t="s">
@@ -48615,7 +48615,7 @@
         <v>30</v>
       </c>
       <c r="P113" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA113" t="s">
@@ -48669,7 +48669,7 @@
         <v>30</v>
       </c>
       <c r="P114" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA114" t="s">
@@ -48723,7 +48723,7 @@
         <v>30</v>
       </c>
       <c r="P115" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA115" t="s">
@@ -48777,7 +48777,7 @@
         <v>30</v>
       </c>
       <c r="P116" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA116" t="s">
@@ -48831,7 +48831,7 @@
         <v>30</v>
       </c>
       <c r="P117" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA117" t="s">
@@ -48885,7 +48885,7 @@
         <v>30</v>
       </c>
       <c r="P118" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA118" t="s">
@@ -48939,47 +48939,47 @@
         <v>29</v>
       </c>
       <c r="P119">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>50</v>
       </c>
       <c r="Q119">
-        <f t="shared" ref="Q119:Q182" si="106">(SUM(C119:F119))/4</f>
+        <f t="shared" ref="Q119:Q182" si="96">((SUM(C119:F119))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R119">
-        <f t="shared" ref="R119" si="107">(SUM(C121:F121))/4</f>
+        <f t="shared" ref="R119" si="97">((SUM(C121:F121))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S119">
-        <f t="shared" ref="S119" si="108">(SUM(C123:F123))/4</f>
+        <f t="shared" ref="S119" si="98">((SUM(C123:F123))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T119">
-        <f t="shared" ref="T119" si="109">(SUM(C125:F125))/4</f>
+        <f t="shared" ref="T119" si="99">((SUM(C125:F125))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U119">
-        <f t="shared" ref="U119" si="110">(SUM(C127:F127))/4</f>
+        <f t="shared" ref="U119" si="100">((SUM(C127:F127))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V119">
-        <f t="shared" ref="V119" si="111">(SUM(C119:F127))/20</f>
+        <f t="shared" ref="V119" si="101">((SUM(C119:F127))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W119">
-        <f t="shared" ref="W119" si="112">(SUM(G119:H127))/10</f>
+        <f t="shared" ref="W119" si="102">(SUM(G119:H127))/10</f>
         <v>30.5</v>
       </c>
       <c r="X119">
-        <f t="shared" ref="X119" si="113">(SUM(I119:I127))/5</f>
+        <f t="shared" ref="X119" si="103">(SUM(I119:I127))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y119">
-        <f t="shared" ref="Y119" si="114">SUM(K119:K127)-Z119</f>
+        <f t="shared" ref="Y119" si="104">SUM(K119:K127)-Z119</f>
         <v>69</v>
       </c>
       <c r="Z119">
-        <f t="shared" ref="Z119" si="115">SUM(L119:L127)</f>
+        <f t="shared" ref="Z119" si="105">SUM(L119:L127)</f>
         <v>2</v>
       </c>
       <c r="AA119" t="s">
@@ -49033,7 +49033,7 @@
         <v>30</v>
       </c>
       <c r="P120" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA120" t="s">
@@ -49087,7 +49087,7 @@
         <v>30</v>
       </c>
       <c r="P121" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA121" t="s">
@@ -49141,7 +49141,7 @@
         <v>30</v>
       </c>
       <c r="P122" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA122" t="s">
@@ -49195,7 +49195,7 @@
         <v>30</v>
       </c>
       <c r="P123" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA123" t="s">
@@ -49249,7 +49249,7 @@
         <v>30</v>
       </c>
       <c r="P124" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA124" t="s">
@@ -49303,7 +49303,7 @@
         <v>30</v>
       </c>
       <c r="P125" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA125" t="s">
@@ -49357,7 +49357,7 @@
         <v>30</v>
       </c>
       <c r="P126" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA126" t="s">
@@ -49411,7 +49411,7 @@
         <v>30</v>
       </c>
       <c r="P127" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA127" t="s">
@@ -49465,47 +49465,47 @@
         <v>29</v>
       </c>
       <c r="P128">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>80</v>
       </c>
       <c r="Q128">
-        <f t="shared" ref="Q128:Q191" si="116">(SUM(C128:F128))/4</f>
+        <f t="shared" ref="Q128:Q191" si="106">((SUM(C128:F128))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R128">
-        <f t="shared" ref="R128" si="117">(SUM(C130:F130))/4</f>
+        <f t="shared" ref="R128" si="107">((SUM(C130:F130))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S128">
-        <f t="shared" ref="S128" si="118">(SUM(C132:F132))/4</f>
+        <f t="shared" ref="S128" si="108">((SUM(C132:F132))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T128">
-        <f t="shared" ref="T128" si="119">(SUM(C134:F134))/4</f>
+        <f t="shared" ref="T128" si="109">((SUM(C134:F134))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U128">
-        <f t="shared" ref="U128" si="120">(SUM(C136:F136))/4</f>
+        <f t="shared" ref="U128" si="110">((SUM(C136:F136))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V128">
-        <f t="shared" ref="V128" si="121">(SUM(C128:F136))/20</f>
+        <f t="shared" ref="V128" si="111">((SUM(C128:F136))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W128">
-        <f t="shared" ref="W128" si="122">(SUM(G128:H136))/10</f>
+        <f t="shared" ref="W128" si="112">(SUM(G128:H136))/10</f>
         <v>24</v>
       </c>
       <c r="X128">
-        <f t="shared" ref="X128" si="123">(SUM(I128:I136))/5</f>
+        <f t="shared" ref="X128" si="113">(SUM(I128:I136))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y128">
-        <f t="shared" ref="Y128" si="124">SUM(K128:K136)-Z128</f>
+        <f t="shared" ref="Y128" si="114">SUM(K128:K136)-Z128</f>
         <v>76</v>
       </c>
       <c r="Z128">
-        <f t="shared" ref="Z128" si="125">SUM(L128:L136)</f>
+        <f t="shared" ref="Z128" si="115">SUM(L128:L136)</f>
         <v>3</v>
       </c>
       <c r="AA128" t="s">
@@ -49559,7 +49559,7 @@
         <v>30</v>
       </c>
       <c r="P129" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA129" t="s">
@@ -49613,7 +49613,7 @@
         <v>30</v>
       </c>
       <c r="P130" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA130" t="s">
@@ -49667,7 +49667,7 @@
         <v>30</v>
       </c>
       <c r="P131" t="e">
-        <f t="shared" ref="P131:P194" si="126">M131*10</f>
+        <f t="shared" ref="P131:P194" si="116">M131*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA131" t="s">
@@ -49721,7 +49721,7 @@
         <v>30</v>
       </c>
       <c r="P132" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA132" t="s">
@@ -49775,7 +49775,7 @@
         <v>30</v>
       </c>
       <c r="P133" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA133" t="s">
@@ -49829,7 +49829,7 @@
         <v>30</v>
       </c>
       <c r="P134" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA134" t="s">
@@ -49883,7 +49883,7 @@
         <v>30</v>
       </c>
       <c r="P135" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA135" t="s">
@@ -49937,7 +49937,7 @@
         <v>30</v>
       </c>
       <c r="P136" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA136" t="s">
@@ -49991,47 +49991,47 @@
         <v>43</v>
       </c>
       <c r="P137">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>30</v>
       </c>
       <c r="Q137">
-        <f t="shared" ref="Q137:Q200" si="127">(SUM(C137:F137))/4</f>
+        <f t="shared" ref="Q137:Q200" si="117">((SUM(C137:F137))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R137">
-        <f t="shared" ref="R137" si="128">(SUM(C139:F139))/4</f>
+        <f t="shared" ref="R137" si="118">((SUM(C139:F139))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S137">
-        <f t="shared" ref="S137" si="129">(SUM(C141:F141))/4</f>
+        <f t="shared" ref="S137" si="119">((SUM(C141:F141))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T137">
-        <f t="shared" ref="T137" si="130">(SUM(C143:F143))/4</f>
+        <f t="shared" ref="T137" si="120">((SUM(C143:F143))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U137">
-        <f t="shared" ref="U137" si="131">(SUM(C145:F145))/4</f>
+        <f t="shared" ref="U137" si="121">((SUM(C145:F145))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V137">
-        <f t="shared" ref="V137" si="132">(SUM(C137:F145))/20</f>
+        <f t="shared" ref="V137" si="122">((SUM(C137:F145))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W137">
-        <f t="shared" ref="W137" si="133">(SUM(G137:H145))/10</f>
+        <f t="shared" ref="W137" si="123">(SUM(G137:H145))/10</f>
         <v>27.6</v>
       </c>
       <c r="X137">
-        <f t="shared" ref="X137" si="134">(SUM(I137:I145))/5</f>
+        <f t="shared" ref="X137" si="124">(SUM(I137:I145))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y137">
-        <f t="shared" ref="Y137" si="135">SUM(K137:K145)-Z137</f>
+        <f t="shared" ref="Y137" si="125">SUM(K137:K145)-Z137</f>
         <v>21</v>
       </c>
       <c r="Z137">
-        <f t="shared" ref="Z137" si="136">SUM(L137:L145)</f>
+        <f t="shared" ref="Z137" si="126">SUM(L137:L145)</f>
         <v>3</v>
       </c>
       <c r="AA137" t="s">
@@ -50085,7 +50085,7 @@
         <v>30</v>
       </c>
       <c r="P138" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA138" t="s">
@@ -50139,7 +50139,7 @@
         <v>30</v>
       </c>
       <c r="P139" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA139" t="s">
@@ -50193,7 +50193,7 @@
         <v>30</v>
       </c>
       <c r="P140" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA140" t="s">
@@ -50247,7 +50247,7 @@
         <v>30</v>
       </c>
       <c r="P141" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA141" t="s">
@@ -50301,7 +50301,7 @@
         <v>30</v>
       </c>
       <c r="P142" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA142" t="s">
@@ -50355,7 +50355,7 @@
         <v>30</v>
       </c>
       <c r="P143" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA143" t="s">
@@ -50409,7 +50409,7 @@
         <v>30</v>
       </c>
       <c r="P144" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA144" t="s">
@@ -50463,7 +50463,7 @@
         <v>30</v>
       </c>
       <c r="P145" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA145" t="s">
@@ -50517,47 +50517,47 @@
         <v>29</v>
       </c>
       <c r="P146">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>60</v>
       </c>
       <c r="Q146">
-        <f t="shared" ref="Q146:Q209" si="137">(SUM(C146:F146))/4</f>
+        <f t="shared" ref="Q146:Q209" si="127">((SUM(C146:F146))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R146">
-        <f t="shared" ref="R146" si="138">(SUM(C148:F148))/4</f>
+        <f t="shared" ref="R146" si="128">((SUM(C148:F148))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S146">
-        <f t="shared" ref="S146" si="139">(SUM(C150:F150))/4</f>
+        <f t="shared" ref="S146" si="129">((SUM(C150:F150))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T146">
-        <f t="shared" ref="T146" si="140">(SUM(C152:F152))/4</f>
+        <f t="shared" ref="T146" si="130">((SUM(C152:F152))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U146">
-        <f t="shared" ref="U146" si="141">(SUM(C154:F154))/4</f>
+        <f t="shared" ref="U146" si="131">((SUM(C154:F154))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V146">
-        <f t="shared" ref="V146" si="142">(SUM(C146:F154))/20</f>
+        <f t="shared" ref="V146" si="132">((SUM(C146:F154))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W146">
-        <f t="shared" ref="W146" si="143">(SUM(G146:H154))/10</f>
+        <f t="shared" ref="W146" si="133">(SUM(G146:H154))/10</f>
         <v>3.8</v>
       </c>
       <c r="X146">
-        <f t="shared" ref="X146" si="144">(SUM(I146:I154))/5</f>
+        <f t="shared" ref="X146" si="134">(SUM(I146:I154))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y146">
-        <f t="shared" ref="Y146" si="145">SUM(K146:K154)-Z146</f>
+        <f t="shared" ref="Y146" si="135">SUM(K146:K154)-Z146</f>
         <v>3</v>
       </c>
       <c r="Z146">
-        <f t="shared" ref="Z146" si="146">SUM(L146:L154)</f>
+        <f t="shared" ref="Z146" si="136">SUM(L146:L154)</f>
         <v>3</v>
       </c>
       <c r="AA146" t="s">
@@ -50611,7 +50611,7 @@
         <v>30</v>
       </c>
       <c r="P147" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA147" t="s">
@@ -50665,7 +50665,7 @@
         <v>30</v>
       </c>
       <c r="P148" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA148" t="s">
@@ -50719,7 +50719,7 @@
         <v>30</v>
       </c>
       <c r="P149" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA149" t="s">
@@ -50773,7 +50773,7 @@
         <v>30</v>
       </c>
       <c r="P150" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA150" t="s">
@@ -50827,7 +50827,7 @@
         <v>30</v>
       </c>
       <c r="P151" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA151" t="s">
@@ -50881,7 +50881,7 @@
         <v>30</v>
       </c>
       <c r="P152" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA152" t="s">
@@ -50935,7 +50935,7 @@
         <v>30</v>
       </c>
       <c r="P153" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA153" t="s">
@@ -50989,7 +50989,7 @@
         <v>30</v>
       </c>
       <c r="P154" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA154" t="s">
@@ -51043,47 +51043,47 @@
         <v>29</v>
       </c>
       <c r="P155">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>120</v>
       </c>
       <c r="Q155">
-        <f t="shared" ref="Q155:Q218" si="147">(SUM(C155:F155))/4</f>
+        <f t="shared" ref="Q155:Q218" si="137">((SUM(C155:F155))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R155">
-        <f t="shared" ref="R155" si="148">(SUM(C157:F157))/4</f>
+        <f t="shared" ref="R155" si="138">((SUM(C157:F157))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S155">
-        <f t="shared" ref="S155" si="149">(SUM(C159:F159))/4</f>
+        <f t="shared" ref="S155" si="139">((SUM(C159:F159))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T155">
-        <f t="shared" ref="T155" si="150">(SUM(C161:F161))/4</f>
+        <f t="shared" ref="T155" si="140">((SUM(C161:F161))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U155">
-        <f t="shared" ref="U155" si="151">(SUM(C163:F163))/4</f>
+        <f t="shared" ref="U155" si="141">((SUM(C163:F163))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V155">
-        <f t="shared" ref="V155" si="152">(SUM(C155:F163))/20</f>
+        <f t="shared" ref="V155" si="142">((SUM(C155:F163))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W155">
-        <f t="shared" ref="W155" si="153">(SUM(G155:H163))/10</f>
+        <f t="shared" ref="W155" si="143">(SUM(G155:H163))/10</f>
         <v>3.05</v>
       </c>
       <c r="X155">
-        <f t="shared" ref="X155" si="154">(SUM(I155:I163))/5</f>
+        <f t="shared" ref="X155" si="144">(SUM(I155:I163))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y155">
-        <f t="shared" ref="Y155" si="155">SUM(K155:K163)-Z155</f>
+        <f t="shared" ref="Y155" si="145">SUM(K155:K163)-Z155</f>
         <v>6</v>
       </c>
       <c r="Z155">
-        <f t="shared" ref="Z155" si="156">SUM(L155:L163)</f>
+        <f t="shared" ref="Z155" si="146">SUM(L155:L163)</f>
         <v>7</v>
       </c>
       <c r="AA155" t="s">
@@ -51137,7 +51137,7 @@
         <v>30</v>
       </c>
       <c r="P156" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA156" t="s">
@@ -51191,7 +51191,7 @@
         <v>30</v>
       </c>
       <c r="P157" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA157" t="s">
@@ -51245,7 +51245,7 @@
         <v>30</v>
       </c>
       <c r="P158" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA158" t="s">
@@ -51299,7 +51299,7 @@
         <v>30</v>
       </c>
       <c r="P159" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA159" t="s">
@@ -51353,7 +51353,7 @@
         <v>30</v>
       </c>
       <c r="P160" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA160" t="s">
@@ -51407,7 +51407,7 @@
         <v>30</v>
       </c>
       <c r="P161" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA161" t="s">
@@ -51461,7 +51461,7 @@
         <v>30</v>
       </c>
       <c r="P162" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA162" t="s">
@@ -51515,7 +51515,7 @@
         <v>30</v>
       </c>
       <c r="P163" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA163" t="s">
@@ -51569,47 +51569,47 @@
         <v>29</v>
       </c>
       <c r="P164">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>130</v>
       </c>
       <c r="Q164">
-        <f t="shared" ref="Q164:Q227" si="157">(SUM(C164:F164))/4</f>
+        <f t="shared" ref="Q164:Q227" si="147">((SUM(C164:F164))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R164">
-        <f t="shared" ref="R164" si="158">(SUM(C166:F166))/4</f>
+        <f t="shared" ref="R164" si="148">((SUM(C166:F166))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S164">
-        <f t="shared" ref="S164" si="159">(SUM(C168:F168))/4</f>
+        <f t="shared" ref="S164" si="149">((SUM(C168:F168))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T164">
-        <f t="shared" ref="T164" si="160">(SUM(C170:F170))/4</f>
+        <f t="shared" ref="T164" si="150">((SUM(C170:F170))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U164">
-        <f t="shared" ref="U164" si="161">(SUM(C172:F172))/4</f>
+        <f t="shared" ref="U164" si="151">((SUM(C172:F172))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V164">
-        <f t="shared" ref="V164" si="162">(SUM(C164:F172))/20</f>
+        <f t="shared" ref="V164" si="152">((SUM(C164:F172))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W164">
-        <f t="shared" ref="W164" si="163">(SUM(G164:H172))/10</f>
+        <f t="shared" ref="W164" si="153">(SUM(G164:H172))/10</f>
         <v>7.8</v>
       </c>
       <c r="X164">
-        <f t="shared" ref="X164" si="164">(SUM(I164:I172))/5</f>
+        <f t="shared" ref="X164" si="154">(SUM(I164:I172))/5</f>
         <v>1</v>
       </c>
       <c r="Y164">
-        <f t="shared" ref="Y164" si="165">SUM(K164:K172)-Z164</f>
+        <f t="shared" ref="Y164" si="155">SUM(K164:K172)-Z164</f>
         <v>14</v>
       </c>
       <c r="Z164">
-        <f t="shared" ref="Z164" si="166">SUM(L164:L172)</f>
+        <f t="shared" ref="Z164" si="156">SUM(L164:L172)</f>
         <v>11</v>
       </c>
       <c r="AA164" t="s">
@@ -51663,7 +51663,7 @@
         <v>30</v>
       </c>
       <c r="P165" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA165" t="s">
@@ -51717,7 +51717,7 @@
         <v>30</v>
       </c>
       <c r="P166" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA166" t="s">
@@ -51771,7 +51771,7 @@
         <v>30</v>
       </c>
       <c r="P167" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA167" t="s">
@@ -51825,7 +51825,7 @@
         <v>30</v>
       </c>
       <c r="P168" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA168" t="s">
@@ -51879,7 +51879,7 @@
         <v>30</v>
       </c>
       <c r="P169" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA169" t="s">
@@ -51933,7 +51933,7 @@
         <v>30</v>
       </c>
       <c r="P170" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA170" t="s">
@@ -51987,7 +51987,7 @@
         <v>30</v>
       </c>
       <c r="P171" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA171" t="s">
@@ -52041,7 +52041,7 @@
         <v>30</v>
       </c>
       <c r="P172" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA172" t="s">
@@ -52095,47 +52095,47 @@
         <v>29</v>
       </c>
       <c r="P173">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>50</v>
       </c>
       <c r="Q173">
-        <f t="shared" ref="Q173:Q236" si="167">(SUM(C173:F173))/4</f>
+        <f t="shared" ref="Q173:Q236" si="157">((SUM(C173:F173))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R173">
-        <f t="shared" ref="R173" si="168">(SUM(C175:F175))/4</f>
+        <f t="shared" ref="R173" si="158">((SUM(C175:F175))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S173">
-        <f t="shared" ref="S173" si="169">(SUM(C177:F177))/4</f>
+        <f t="shared" ref="S173" si="159">((SUM(C177:F177))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T173">
-        <f t="shared" ref="T173" si="170">(SUM(C179:F179))/4</f>
+        <f t="shared" ref="T173" si="160">((SUM(C179:F179))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U173">
-        <f t="shared" ref="U173" si="171">(SUM(C181:F181))/4</f>
+        <f t="shared" ref="U173" si="161">((SUM(C181:F181))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V173">
-        <f t="shared" ref="V173" si="172">(SUM(C173:F181))/20</f>
+        <f t="shared" ref="V173" si="162">((SUM(C173:F181))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W173">
-        <f t="shared" ref="W173" si="173">(SUM(G173:H181))/10</f>
+        <f t="shared" ref="W173" si="163">(SUM(G173:H181))/10</f>
         <v>62.9</v>
       </c>
       <c r="X173">
-        <f t="shared" ref="X173" si="174">(SUM(I173:I181))/5</f>
+        <f t="shared" ref="X173" si="164">(SUM(I173:I181))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y173">
-        <f t="shared" ref="Y173" si="175">SUM(K173:K181)-Z173</f>
+        <f t="shared" ref="Y173" si="165">SUM(K173:K181)-Z173</f>
         <v>56</v>
       </c>
       <c r="Z173">
-        <f t="shared" ref="Z173" si="176">SUM(L173:L181)</f>
+        <f t="shared" ref="Z173" si="166">SUM(L173:L181)</f>
         <v>1</v>
       </c>
       <c r="AA173" t="s">
@@ -52189,7 +52189,7 @@
         <v>30</v>
       </c>
       <c r="P174" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA174" t="s">
@@ -52243,7 +52243,7 @@
         <v>30</v>
       </c>
       <c r="P175" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA175" t="s">
@@ -52297,7 +52297,7 @@
         <v>30</v>
       </c>
       <c r="P176" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA176" t="s">
@@ -52351,7 +52351,7 @@
         <v>30</v>
       </c>
       <c r="P177" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA177" t="s">
@@ -52405,7 +52405,7 @@
         <v>30</v>
       </c>
       <c r="P178" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA178" t="s">
@@ -52459,7 +52459,7 @@
         <v>30</v>
       </c>
       <c r="P179" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA179" t="s">
@@ -52513,7 +52513,7 @@
         <v>30</v>
       </c>
       <c r="P180" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA180" t="s">
@@ -52567,7 +52567,7 @@
         <v>30</v>
       </c>
       <c r="P181" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA181" t="s">
@@ -52621,47 +52621,47 @@
         <v>29</v>
       </c>
       <c r="P182">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>50</v>
       </c>
       <c r="Q182">
-        <f t="shared" ref="Q182:Q245" si="177">(SUM(C182:F182))/4</f>
+        <f t="shared" ref="Q182:Q245" si="167">((SUM(C182:F182))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R182">
-        <f t="shared" ref="R182" si="178">(SUM(C184:F184))/4</f>
+        <f t="shared" ref="R182" si="168">((SUM(C184:F184))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S182">
-        <f t="shared" ref="S182" si="179">(SUM(C186:F186))/4</f>
+        <f t="shared" ref="S182" si="169">((SUM(C186:F186))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T182">
-        <f t="shared" ref="T182" si="180">(SUM(C188:F188))/4</f>
+        <f t="shared" ref="T182" si="170">((SUM(C188:F188))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U182">
-        <f t="shared" ref="U182" si="181">(SUM(C190:F190))/4</f>
+        <f t="shared" ref="U182" si="171">((SUM(C190:F190))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V182">
-        <f t="shared" ref="V182" si="182">(SUM(C182:F190))/20</f>
+        <f t="shared" ref="V182" si="172">((SUM(C182:F190))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W182">
-        <f t="shared" ref="W182" si="183">(SUM(G182:H190))/10</f>
+        <f t="shared" ref="W182" si="173">(SUM(G182:H190))/10</f>
         <v>51</v>
       </c>
       <c r="X182">
-        <f t="shared" ref="X182" si="184">(SUM(I182:I190))/5</f>
+        <f t="shared" ref="X182" si="174">(SUM(I182:I190))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y182">
-        <f t="shared" ref="Y182" si="185">SUM(K182:K190)-Z182</f>
+        <f t="shared" ref="Y182" si="175">SUM(K182:K190)-Z182</f>
         <v>64</v>
       </c>
       <c r="Z182">
-        <f t="shared" ref="Z182" si="186">SUM(L182:L190)</f>
+        <f t="shared" ref="Z182" si="176">SUM(L182:L190)</f>
         <v>5</v>
       </c>
       <c r="AA182" t="s">
@@ -52715,7 +52715,7 @@
         <v>30</v>
       </c>
       <c r="P183" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA183" t="s">
@@ -52769,7 +52769,7 @@
         <v>30</v>
       </c>
       <c r="P184" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA184" t="s">
@@ -52823,7 +52823,7 @@
         <v>30</v>
       </c>
       <c r="P185" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA185" t="s">
@@ -52877,7 +52877,7 @@
         <v>30</v>
       </c>
       <c r="P186" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA186" t="s">
@@ -52931,7 +52931,7 @@
         <v>30</v>
       </c>
       <c r="P187" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA187" t="s">
@@ -52985,7 +52985,7 @@
         <v>30</v>
       </c>
       <c r="P188" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA188" t="s">
@@ -53039,7 +53039,7 @@
         <v>30</v>
       </c>
       <c r="P189" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA189" t="s">
@@ -53093,7 +53093,7 @@
         <v>30</v>
       </c>
       <c r="P190" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA190" t="s">
@@ -53147,47 +53147,47 @@
         <v>43</v>
       </c>
       <c r="P191">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>70</v>
       </c>
       <c r="Q191">
-        <f t="shared" ref="Q191:Q254" si="187">(SUM(C191:F191))/4</f>
+        <f t="shared" ref="Q191:Q254" si="177">((SUM(C191:F191))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R191">
-        <f t="shared" ref="R191" si="188">(SUM(C193:F193))/4</f>
+        <f t="shared" ref="R191" si="178">((SUM(C193:F193))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S191">
-        <f t="shared" ref="S191" si="189">(SUM(C195:F195))/4</f>
+        <f t="shared" ref="S191" si="179">((SUM(C195:F195))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T191">
-        <f t="shared" ref="T191" si="190">(SUM(C197:F197))/4</f>
+        <f t="shared" ref="T191" si="180">((SUM(C197:F197))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U191">
-        <f t="shared" ref="U191" si="191">(SUM(C199:F199))/4</f>
+        <f t="shared" ref="U191" si="181">((SUM(C199:F199))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V191">
-        <f t="shared" ref="V191" si="192">(SUM(C191:F199))/20</f>
+        <f t="shared" ref="V191" si="182">((SUM(C191:F199))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W191">
-        <f t="shared" ref="W191" si="193">(SUM(G191:H199))/10</f>
+        <f t="shared" ref="W191" si="183">(SUM(G191:H199))/10</f>
         <v>24.4</v>
       </c>
       <c r="X191">
-        <f t="shared" ref="X191" si="194">(SUM(I191:I199))/5</f>
+        <f t="shared" ref="X191" si="184">(SUM(I191:I199))/5</f>
         <v>3</v>
       </c>
       <c r="Y191">
-        <f t="shared" ref="Y191" si="195">SUM(K191:K199)-Z191</f>
+        <f t="shared" ref="Y191" si="185">SUM(K191:K199)-Z191</f>
         <v>35</v>
       </c>
       <c r="Z191">
-        <f t="shared" ref="Z191" si="196">SUM(L191:L199)</f>
+        <f t="shared" ref="Z191" si="186">SUM(L191:L199)</f>
         <v>5</v>
       </c>
       <c r="AA191" t="s">
@@ -53241,7 +53241,7 @@
         <v>30</v>
       </c>
       <c r="P192" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA192" t="s">
@@ -53295,7 +53295,7 @@
         <v>30</v>
       </c>
       <c r="P193" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA193" t="s">
@@ -53349,7 +53349,7 @@
         <v>30</v>
       </c>
       <c r="P194" t="e">
-        <f t="shared" si="126"/>
+        <f t="shared" si="116"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA194" t="s">
@@ -53403,7 +53403,7 @@
         <v>30</v>
       </c>
       <c r="P195" t="e">
-        <f t="shared" ref="P195:P258" si="197">M195*10</f>
+        <f t="shared" ref="P195:P258" si="187">M195*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA195" t="s">
@@ -53457,7 +53457,7 @@
         <v>30</v>
       </c>
       <c r="P196" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA196" t="s">
@@ -53511,7 +53511,7 @@
         <v>30</v>
       </c>
       <c r="P197" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA197" t="s">
@@ -53565,7 +53565,7 @@
         <v>30</v>
       </c>
       <c r="P198" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA198" t="s">
@@ -53619,7 +53619,7 @@
         <v>30</v>
       </c>
       <c r="P199" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA199" t="s">
@@ -53673,47 +53673,47 @@
         <v>29</v>
       </c>
       <c r="P200">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>70</v>
       </c>
       <c r="Q200">
-        <f t="shared" ref="Q200:Q263" si="198">(SUM(C200:F200))/4</f>
+        <f t="shared" ref="Q200:Q263" si="188">((SUM(C200:F200))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R200">
-        <f t="shared" ref="R200" si="199">(SUM(C202:F202))/4</f>
+        <f t="shared" ref="R200" si="189">((SUM(C202:F202))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S200">
-        <f t="shared" ref="S200" si="200">(SUM(C204:F204))/4</f>
+        <f t="shared" ref="S200" si="190">((SUM(C204:F204))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T200">
-        <f t="shared" ref="T200" si="201">(SUM(C206:F206))/4</f>
+        <f t="shared" ref="T200" si="191">((SUM(C206:F206))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U200">
-        <f t="shared" ref="U200" si="202">(SUM(C208:F208))/4</f>
+        <f t="shared" ref="U200" si="192">((SUM(C208:F208))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V200">
-        <f t="shared" ref="V200" si="203">(SUM(C200:F208))/20</f>
+        <f t="shared" ref="V200" si="193">((SUM(C200:F208))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W200">
-        <f t="shared" ref="W200" si="204">(SUM(G200:H208))/10</f>
+        <f t="shared" ref="W200" si="194">(SUM(G200:H208))/10</f>
         <v>30</v>
       </c>
       <c r="X200">
-        <f t="shared" ref="X200" si="205">(SUM(I200:I208))/5</f>
+        <f t="shared" ref="X200" si="195">(SUM(I200:I208))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y200">
-        <f t="shared" ref="Y200" si="206">SUM(K200:K208)-Z200</f>
+        <f t="shared" ref="Y200" si="196">SUM(K200:K208)-Z200</f>
         <v>66</v>
       </c>
       <c r="Z200">
-        <f t="shared" ref="Z200" si="207">SUM(L200:L208)</f>
+        <f t="shared" ref="Z200" si="197">SUM(L200:L208)</f>
         <v>2</v>
       </c>
       <c r="AA200" t="s">
@@ -53767,7 +53767,7 @@
         <v>30</v>
       </c>
       <c r="P201" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA201" t="s">
@@ -53821,7 +53821,7 @@
         <v>30</v>
       </c>
       <c r="P202" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA202" t="s">
@@ -53875,7 +53875,7 @@
         <v>30</v>
       </c>
       <c r="P203" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA203" t="s">
@@ -53929,7 +53929,7 @@
         <v>30</v>
       </c>
       <c r="P204" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA204" t="s">
@@ -53983,7 +53983,7 @@
         <v>30</v>
       </c>
       <c r="P205" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA205" t="s">
@@ -54037,7 +54037,7 @@
         <v>30</v>
       </c>
       <c r="P206" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA206" t="s">
@@ -54091,7 +54091,7 @@
         <v>30</v>
       </c>
       <c r="P207" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA207" t="s">
@@ -54145,7 +54145,7 @@
         <v>30</v>
       </c>
       <c r="P208" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA208" t="s">
@@ -54199,47 +54199,47 @@
         <v>29</v>
       </c>
       <c r="P209">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>110</v>
       </c>
       <c r="Q209">
-        <f t="shared" ref="Q209:Q272" si="208">(SUM(C209:F209))/4</f>
+        <f t="shared" ref="Q209:Q272" si="198">((SUM(C209:F209))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R209">
-        <f t="shared" ref="R209" si="209">(SUM(C211:F211))/4</f>
+        <f t="shared" ref="R209" si="199">((SUM(C211:F211))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S209">
-        <f t="shared" ref="S209" si="210">(SUM(C213:F213))/4</f>
+        <f t="shared" ref="S209" si="200">((SUM(C213:F213))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T209">
-        <f t="shared" ref="T209" si="211">(SUM(C215:F215))/4</f>
+        <f t="shared" ref="T209" si="201">((SUM(C215:F215))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U209">
-        <f t="shared" ref="U209" si="212">(SUM(C217:F217))/4</f>
+        <f t="shared" ref="U209" si="202">((SUM(C217:F217))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V209">
-        <f t="shared" ref="V209" si="213">(SUM(C209:F217))/20</f>
+        <f t="shared" ref="V209" si="203">((SUM(C209:F217))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W209">
-        <f t="shared" ref="W209" si="214">(SUM(G209:H217))/10</f>
+        <f t="shared" ref="W209" si="204">(SUM(G209:H217))/10</f>
         <v>0.3</v>
       </c>
       <c r="X209">
-        <f t="shared" ref="X209" si="215">(SUM(I209:I217))/5</f>
+        <f t="shared" ref="X209" si="205">(SUM(I209:I217))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y209">
-        <f t="shared" ref="Y209" si="216">SUM(K209:K217)-Z209</f>
+        <f t="shared" ref="Y209" si="206">SUM(K209:K217)-Z209</f>
         <v>35</v>
       </c>
       <c r="Z209">
-        <f t="shared" ref="Z209" si="217">SUM(L209:L217)</f>
+        <f t="shared" ref="Z209" si="207">SUM(L209:L217)</f>
         <v>19</v>
       </c>
       <c r="AA209" t="s">
@@ -54293,7 +54293,7 @@
         <v>30</v>
       </c>
       <c r="P210" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA210" t="s">
@@ -54347,7 +54347,7 @@
         <v>30</v>
       </c>
       <c r="P211" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA211" t="s">
@@ -54401,7 +54401,7 @@
         <v>30</v>
       </c>
       <c r="P212" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA212" t="s">
@@ -54455,7 +54455,7 @@
         <v>30</v>
       </c>
       <c r="P213" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA213" t="s">
@@ -54509,7 +54509,7 @@
         <v>30</v>
       </c>
       <c r="P214" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA214" t="s">
@@ -54563,7 +54563,7 @@
         <v>30</v>
       </c>
       <c r="P215" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA215" t="s">
@@ -54617,7 +54617,7 @@
         <v>30</v>
       </c>
       <c r="P216" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA216" t="s">
@@ -54671,7 +54671,7 @@
         <v>30</v>
       </c>
       <c r="P217" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA217" t="s">
@@ -54725,47 +54725,47 @@
         <v>29</v>
       </c>
       <c r="P218">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>80</v>
       </c>
       <c r="Q218">
-        <f t="shared" ref="Q218:Q281" si="218">(SUM(C218:F218))/4</f>
+        <f t="shared" ref="Q218:Q281" si="208">((SUM(C218:F218))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R218">
-        <f t="shared" ref="R218" si="219">(SUM(C220:F220))/4</f>
+        <f t="shared" ref="R218" si="209">((SUM(C220:F220))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S218">
-        <f t="shared" ref="S218" si="220">(SUM(C222:F222))/4</f>
+        <f t="shared" ref="S218" si="210">((SUM(C222:F222))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T218">
-        <f t="shared" ref="T218" si="221">(SUM(C224:F224))/4</f>
+        <f t="shared" ref="T218" si="211">((SUM(C224:F224))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U218">
-        <f t="shared" ref="U218" si="222">(SUM(C226:F226))/4</f>
+        <f t="shared" ref="U218" si="212">((SUM(C226:F226))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V218">
-        <f t="shared" ref="V218" si="223">(SUM(C218:F226))/20</f>
+        <f t="shared" ref="V218" si="213">((SUM(C218:F226))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W218">
-        <f t="shared" ref="W218" si="224">(SUM(G218:H226))/10</f>
+        <f t="shared" ref="W218" si="214">(SUM(G218:H226))/10</f>
         <v>0.4</v>
       </c>
       <c r="X218">
-        <f t="shared" ref="X218" si="225">(SUM(I218:I226))/5</f>
+        <f t="shared" ref="X218" si="215">(SUM(I218:I226))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y218">
-        <f t="shared" ref="Y218" si="226">SUM(K218:K226)-Z218</f>
+        <f t="shared" ref="Y218" si="216">SUM(K218:K226)-Z218</f>
         <v>10</v>
       </c>
       <c r="Z218">
-        <f t="shared" ref="Z218" si="227">SUM(L218:L226)</f>
+        <f t="shared" ref="Z218" si="217">SUM(L218:L226)</f>
         <v>7</v>
       </c>
       <c r="AA218" t="s">
@@ -54819,7 +54819,7 @@
         <v>30</v>
       </c>
       <c r="P219" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA219" t="s">
@@ -54873,7 +54873,7 @@
         <v>30</v>
       </c>
       <c r="P220" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA220" t="s">
@@ -54927,7 +54927,7 @@
         <v>30</v>
       </c>
       <c r="P221" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA221" t="s">
@@ -54981,7 +54981,7 @@
         <v>30</v>
       </c>
       <c r="P222" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA222" t="s">
@@ -55035,7 +55035,7 @@
         <v>30</v>
       </c>
       <c r="P223" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA223" t="s">
@@ -55089,7 +55089,7 @@
         <v>30</v>
       </c>
       <c r="P224" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA224" t="s">
@@ -55143,7 +55143,7 @@
         <v>30</v>
       </c>
       <c r="P225" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA225" t="s">
@@ -55197,7 +55197,7 @@
         <v>30</v>
       </c>
       <c r="P226" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA226" t="s">
@@ -55251,47 +55251,47 @@
         <v>29</v>
       </c>
       <c r="P227">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>40</v>
       </c>
       <c r="Q227">
-        <f t="shared" ref="Q227:Q290" si="228">(SUM(C227:F227))/4</f>
+        <f t="shared" ref="Q227:Q290" si="218">((SUM(C227:F227))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R227">
-        <f t="shared" ref="R227" si="229">(SUM(C229:F229))/4</f>
+        <f t="shared" ref="R227" si="219">((SUM(C229:F229))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S227">
-        <f t="shared" ref="S227" si="230">(SUM(C231:F231))/4</f>
+        <f t="shared" ref="S227" si="220">((SUM(C231:F231))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T227">
-        <f t="shared" ref="T227" si="231">(SUM(C233:F233))/4</f>
+        <f t="shared" ref="T227" si="221">((SUM(C233:F233))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U227">
-        <f t="shared" ref="U227" si="232">(SUM(C235:F235))/4</f>
+        <f t="shared" ref="U227" si="222">((SUM(C235:F235))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V227">
-        <f t="shared" ref="V227" si="233">(SUM(C227:F235))/20</f>
+        <f t="shared" ref="V227" si="223">((SUM(C227:F235))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W227">
-        <f t="shared" ref="W227" si="234">(SUM(G227:H235))/10</f>
+        <f t="shared" ref="W227" si="224">(SUM(G227:H235))/10</f>
         <v>34</v>
       </c>
       <c r="X227">
-        <f t="shared" ref="X227" si="235">(SUM(I227:I235))/5</f>
+        <f t="shared" ref="X227" si="225">(SUM(I227:I235))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y227">
-        <f t="shared" ref="Y227" si="236">SUM(K227:K235)-Z227</f>
+        <f t="shared" ref="Y227" si="226">SUM(K227:K235)-Z227</f>
         <v>1</v>
       </c>
       <c r="Z227">
-        <f t="shared" ref="Z227" si="237">SUM(L227:L235)</f>
+        <f t="shared" ref="Z227" si="227">SUM(L227:L235)</f>
         <v>6</v>
       </c>
       <c r="AA227" t="s">
@@ -55345,7 +55345,7 @@
         <v>30</v>
       </c>
       <c r="P228" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA228" t="s">
@@ -55399,7 +55399,7 @@
         <v>30</v>
       </c>
       <c r="P229" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA229" t="s">
@@ -55453,7 +55453,7 @@
         <v>30</v>
       </c>
       <c r="P230" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA230" t="s">
@@ -55507,7 +55507,7 @@
         <v>30</v>
       </c>
       <c r="P231" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA231" t="s">
@@ -55561,7 +55561,7 @@
         <v>30</v>
       </c>
       <c r="P232" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA232" t="s">
@@ -55615,7 +55615,7 @@
         <v>30</v>
       </c>
       <c r="P233" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA233" t="s">
@@ -55669,7 +55669,7 @@
         <v>30</v>
       </c>
       <c r="P234" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA234" t="s">
@@ -55723,7 +55723,7 @@
         <v>30</v>
       </c>
       <c r="P235" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA235" t="s">
@@ -55777,47 +55777,47 @@
         <v>29</v>
       </c>
       <c r="P236">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>70</v>
       </c>
       <c r="Q236">
-        <f t="shared" ref="Q236:Q299" si="238">(SUM(C236:F236))/4</f>
+        <f t="shared" ref="Q236:Q299" si="228">((SUM(C236:F236))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R236">
-        <f t="shared" ref="R236" si="239">(SUM(C238:F238))/4</f>
+        <f t="shared" ref="R236" si="229">((SUM(C238:F238))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S236">
-        <f t="shared" ref="S236" si="240">(SUM(C240:F240))/4</f>
+        <f t="shared" ref="S236" si="230">((SUM(C240:F240))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T236">
-        <f t="shared" ref="T236" si="241">(SUM(C242:F242))/4</f>
+        <f t="shared" ref="T236" si="231">((SUM(C242:F242))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U236">
-        <f t="shared" ref="U236" si="242">(SUM(C244:F244))/4</f>
+        <f t="shared" ref="U236" si="232">((SUM(C244:F244))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V236">
-        <f t="shared" ref="V236" si="243">(SUM(C236:F244))/20</f>
+        <f t="shared" ref="V236" si="233">((SUM(C236:F244))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W236">
-        <f t="shared" ref="W236" si="244">(SUM(G236:H244))/10</f>
+        <f t="shared" ref="W236" si="234">(SUM(G236:H244))/10</f>
         <v>48.5</v>
       </c>
       <c r="X236">
-        <f t="shared" ref="X236" si="245">(SUM(I236:I244))/5</f>
+        <f t="shared" ref="X236" si="235">(SUM(I236:I244))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y236">
-        <f t="shared" ref="Y236" si="246">SUM(K236:K244)-Z236</f>
+        <f t="shared" ref="Y236" si="236">SUM(K236:K244)-Z236</f>
         <v>6</v>
       </c>
       <c r="Z236">
-        <f t="shared" ref="Z236" si="247">SUM(L236:L244)</f>
+        <f t="shared" ref="Z236" si="237">SUM(L236:L244)</f>
         <v>6</v>
       </c>
       <c r="AA236" t="s">
@@ -55871,7 +55871,7 @@
         <v>30</v>
       </c>
       <c r="P237" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA237" t="s">
@@ -55925,7 +55925,7 @@
         <v>30</v>
       </c>
       <c r="P238" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA238" t="s">
@@ -55979,7 +55979,7 @@
         <v>30</v>
       </c>
       <c r="P239" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA239" t="s">
@@ -56033,7 +56033,7 @@
         <v>30</v>
       </c>
       <c r="P240" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA240" t="s">
@@ -56087,7 +56087,7 @@
         <v>30</v>
       </c>
       <c r="P241" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA241" t="s">
@@ -56141,7 +56141,7 @@
         <v>30</v>
       </c>
       <c r="P242" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA242" t="s">
@@ -56195,7 +56195,7 @@
         <v>30</v>
       </c>
       <c r="P243" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA243" t="s">
@@ -56249,7 +56249,7 @@
         <v>30</v>
       </c>
       <c r="P244" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA244" t="s">
@@ -56303,47 +56303,47 @@
         <v>29</v>
       </c>
       <c r="P245">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>100</v>
       </c>
       <c r="Q245">
-        <f t="shared" ref="Q245:Q308" si="248">(SUM(C245:F245))/4</f>
+        <f t="shared" ref="Q245:Q308" si="238">((SUM(C245:F245))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R245">
-        <f t="shared" ref="R245" si="249">(SUM(C247:F247))/4</f>
+        <f t="shared" ref="R245" si="239">((SUM(C247:F247))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S245">
-        <f t="shared" ref="S245" si="250">(SUM(C249:F249))/4</f>
+        <f t="shared" ref="S245" si="240">((SUM(C249:F249))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T245">
-        <f t="shared" ref="T245" si="251">(SUM(C251:F251))/4</f>
+        <f t="shared" ref="T245" si="241">((SUM(C251:F251))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U245">
-        <f t="shared" ref="U245" si="252">(SUM(C253:F253))/4</f>
+        <f t="shared" ref="U245" si="242">((SUM(C253:F253))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V245">
-        <f t="shared" ref="V245" si="253">(SUM(C245:F253))/20</f>
+        <f t="shared" ref="V245" si="243">((SUM(C245:F253))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W245">
-        <f t="shared" ref="W245" si="254">(SUM(G245:H253))/10</f>
+        <f t="shared" ref="W245" si="244">(SUM(G245:H253))/10</f>
         <v>1.7</v>
       </c>
       <c r="X245">
-        <f t="shared" ref="X245" si="255">(SUM(I245:I253))/5</f>
+        <f t="shared" ref="X245" si="245">(SUM(I245:I253))/5</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y245">
-        <f t="shared" ref="Y245" si="256">SUM(K245:K253)-Z245</f>
+        <f t="shared" ref="Y245" si="246">SUM(K245:K253)-Z245</f>
         <v>83</v>
       </c>
       <c r="Z245">
-        <f t="shared" ref="Z245" si="257">SUM(L245:L253)</f>
+        <f t="shared" ref="Z245" si="247">SUM(L245:L253)</f>
         <v>3</v>
       </c>
       <c r="AA245" t="s">
@@ -56397,7 +56397,7 @@
         <v>30</v>
       </c>
       <c r="P246" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA246" t="s">
@@ -56451,7 +56451,7 @@
         <v>30</v>
       </c>
       <c r="P247" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA247" t="s">
@@ -56505,7 +56505,7 @@
         <v>30</v>
       </c>
       <c r="P248" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA248" t="s">
@@ -56559,7 +56559,7 @@
         <v>30</v>
       </c>
       <c r="P249" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA249" t="s">
@@ -56613,7 +56613,7 @@
         <v>30</v>
       </c>
       <c r="P250" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA250" t="s">
@@ -56667,7 +56667,7 @@
         <v>30</v>
       </c>
       <c r="P251" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA251" t="s">
@@ -56721,7 +56721,7 @@
         <v>30</v>
       </c>
       <c r="P252" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA252" t="s">
@@ -56775,7 +56775,7 @@
         <v>30</v>
       </c>
       <c r="P253" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA253" t="s">
@@ -56829,47 +56829,47 @@
         <v>29</v>
       </c>
       <c r="P254">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>120</v>
       </c>
       <c r="Q254">
-        <f t="shared" ref="Q254:Q317" si="258">(SUM(C254:F254))/4</f>
+        <f t="shared" ref="Q254:Q317" si="248">((SUM(C254:F254))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R254">
-        <f t="shared" ref="R254" si="259">(SUM(C256:F256))/4</f>
+        <f t="shared" ref="R254" si="249">((SUM(C256:F256))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S254">
-        <f t="shared" ref="S254" si="260">(SUM(C258:F258))/4</f>
+        <f t="shared" ref="S254" si="250">((SUM(C258:F258))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T254">
-        <f t="shared" ref="T254" si="261">(SUM(C260:F260))/4</f>
+        <f t="shared" ref="T254" si="251">((SUM(C260:F260))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U254">
-        <f t="shared" ref="U254" si="262">(SUM(C262:F262))/4</f>
+        <f t="shared" ref="U254" si="252">((SUM(C262:F262))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V254">
-        <f t="shared" ref="V254" si="263">(SUM(C254:F262))/20</f>
+        <f t="shared" ref="V254" si="253">((SUM(C254:F262))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W254">
-        <f t="shared" ref="W254" si="264">(SUM(G254:H262))/10</f>
+        <f t="shared" ref="W254" si="254">(SUM(G254:H262))/10</f>
         <v>15.6</v>
       </c>
       <c r="X254">
-        <f t="shared" ref="X254" si="265">(SUM(I254:I262))/5</f>
+        <f t="shared" ref="X254" si="255">(SUM(I254:I262))/5</f>
         <v>2</v>
       </c>
       <c r="Y254">
-        <f t="shared" ref="Y254" si="266">SUM(K254:K262)-Z254</f>
+        <f t="shared" ref="Y254" si="256">SUM(K254:K262)-Z254</f>
         <v>58</v>
       </c>
       <c r="Z254">
-        <f t="shared" ref="Z254" si="267">SUM(L254:L262)</f>
+        <f t="shared" ref="Z254" si="257">SUM(L254:L262)</f>
         <v>12</v>
       </c>
       <c r="AA254" t="s">
@@ -56923,7 +56923,7 @@
         <v>30</v>
       </c>
       <c r="P255" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA255" t="s">
@@ -56977,7 +56977,7 @@
         <v>30</v>
       </c>
       <c r="P256" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA256" t="s">
@@ -57031,7 +57031,7 @@
         <v>30</v>
       </c>
       <c r="P257" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA257" t="s">
@@ -57085,7 +57085,7 @@
         <v>30</v>
       </c>
       <c r="P258" t="e">
-        <f t="shared" si="197"/>
+        <f t="shared" si="187"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA258" t="s">
@@ -57139,7 +57139,7 @@
         <v>30</v>
       </c>
       <c r="P259" t="e">
-        <f t="shared" ref="P259:P322" si="268">M259*10</f>
+        <f t="shared" ref="P259:P322" si="258">M259*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA259" t="s">
@@ -57193,7 +57193,7 @@
         <v>30</v>
       </c>
       <c r="P260" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA260" t="s">
@@ -57247,7 +57247,7 @@
         <v>30</v>
       </c>
       <c r="P261" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA261" t="s">
@@ -57301,7 +57301,7 @@
         <v>30</v>
       </c>
       <c r="P262" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA262" t="s">
@@ -57355,47 +57355,47 @@
         <v>240</v>
       </c>
       <c r="P263">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>60</v>
       </c>
       <c r="Q263">
-        <f t="shared" ref="Q263:Q326" si="269">(SUM(C263:F263))/4</f>
+        <f t="shared" ref="Q263:Q326" si="259">((SUM(C263:F263))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R263">
-        <f t="shared" ref="R263" si="270">(SUM(C265:F265))/4</f>
+        <f t="shared" ref="R263" si="260">((SUM(C265:F265))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S263">
-        <f t="shared" ref="S263" si="271">(SUM(C267:F267))/4</f>
+        <f t="shared" ref="S263" si="261">((SUM(C267:F267))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T263">
-        <f t="shared" ref="T263" si="272">(SUM(C269:F269))/4</f>
+        <f t="shared" ref="T263" si="262">((SUM(C269:F269))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U263">
-        <f t="shared" ref="U263" si="273">(SUM(C271:F271))/4</f>
+        <f t="shared" ref="U263" si="263">((SUM(C271:F271))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V263">
-        <f t="shared" ref="V263" si="274">(SUM(C263:F271))/20</f>
+        <f t="shared" ref="V263" si="264">((SUM(C263:F271))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W263">
-        <f t="shared" ref="W263" si="275">(SUM(G263:H271))/10</f>
+        <f t="shared" ref="W263" si="265">(SUM(G263:H271))/10</f>
         <v>4.5</v>
       </c>
       <c r="X263">
-        <f t="shared" ref="X263" si="276">(SUM(I263:I271))/5</f>
+        <f t="shared" ref="X263" si="266">(SUM(I263:I271))/5</f>
         <v>4</v>
       </c>
       <c r="Y263">
-        <f t="shared" ref="Y263" si="277">SUM(K263:K271)-Z263</f>
+        <f t="shared" ref="Y263" si="267">SUM(K263:K271)-Z263</f>
         <v>16</v>
       </c>
       <c r="Z263">
-        <f t="shared" ref="Z263" si="278">SUM(L263:L271)</f>
+        <f t="shared" ref="Z263" si="268">SUM(L263:L271)</f>
         <v>3</v>
       </c>
       <c r="AA263" t="s">
@@ -57449,7 +57449,7 @@
         <v>30</v>
       </c>
       <c r="P264" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA264" t="s">
@@ -57503,7 +57503,7 @@
         <v>30</v>
       </c>
       <c r="P265" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA265" t="s">
@@ -57557,7 +57557,7 @@
         <v>30</v>
       </c>
       <c r="P266" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA266" t="s">
@@ -57611,7 +57611,7 @@
         <v>30</v>
       </c>
       <c r="P267" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA267" t="s">
@@ -57665,7 +57665,7 @@
         <v>30</v>
       </c>
       <c r="P268" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA268" t="s">
@@ -57719,7 +57719,7 @@
         <v>30</v>
       </c>
       <c r="P269" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA269" t="s">
@@ -57773,7 +57773,7 @@
         <v>30</v>
       </c>
       <c r="P270" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA270" t="s">
@@ -57827,7 +57827,7 @@
         <v>30</v>
       </c>
       <c r="P271" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA271" t="s">
@@ -57881,47 +57881,47 @@
         <v>240</v>
       </c>
       <c r="P272">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>30</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q335" si="279">(SUM(C272:F272))/4</f>
+        <f t="shared" ref="Q272:Q335" si="269">((SUM(C272:F272))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272" si="280">(SUM(C274:F274))/4</f>
+        <f t="shared" ref="R272" si="270">((SUM(C274:F274))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272" si="281">(SUM(C276:F276))/4</f>
+        <f t="shared" ref="S272" si="271">((SUM(C276:F276))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272" si="282">(SUM(C278:F278))/4</f>
+        <f t="shared" ref="T272" si="272">((SUM(C278:F278))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272" si="283">(SUM(C280:F280))/4</f>
+        <f t="shared" ref="U272" si="273">((SUM(C280:F280))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V272">
-        <f t="shared" ref="V272" si="284">(SUM(C272:F280))/20</f>
+        <f t="shared" ref="V272" si="274">((SUM(C272:F280))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W272">
-        <f t="shared" ref="W272" si="285">(SUM(G272:H280))/10</f>
+        <f t="shared" ref="W272" si="275">(SUM(G272:H280))/10</f>
         <v>6</v>
       </c>
       <c r="X272">
-        <f t="shared" ref="X272" si="286">(SUM(I272:I280))/5</f>
+        <f t="shared" ref="X272" si="276">(SUM(I272:I280))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y272">
-        <f t="shared" ref="Y272" si="287">SUM(K272:K280)-Z272</f>
+        <f t="shared" ref="Y272" si="277">SUM(K272:K280)-Z272</f>
         <v>12</v>
       </c>
       <c r="Z272">
-        <f t="shared" ref="Z272" si="288">SUM(L272:L280)</f>
+        <f t="shared" ref="Z272" si="278">SUM(L272:L280)</f>
         <v>3</v>
       </c>
       <c r="AA272" t="s">
@@ -57975,7 +57975,7 @@
         <v>30</v>
       </c>
       <c r="P273" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA273" t="s">
@@ -58029,7 +58029,7 @@
         <v>30</v>
       </c>
       <c r="P274" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA274" t="s">
@@ -58083,7 +58083,7 @@
         <v>30</v>
       </c>
       <c r="P275" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA275" t="s">
@@ -58137,7 +58137,7 @@
         <v>30</v>
       </c>
       <c r="P276" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA276" t="s">
@@ -58191,7 +58191,7 @@
         <v>30</v>
       </c>
       <c r="P277" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA277" t="s">
@@ -58245,7 +58245,7 @@
         <v>30</v>
       </c>
       <c r="P278" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA278" t="s">
@@ -58299,7 +58299,7 @@
         <v>30</v>
       </c>
       <c r="P279" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA279" t="s">
@@ -58353,7 +58353,7 @@
         <v>30</v>
       </c>
       <c r="P280" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA280" t="s">
@@ -58407,47 +58407,47 @@
         <v>240</v>
       </c>
       <c r="P281">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>50</v>
       </c>
       <c r="Q281">
-        <f t="shared" ref="Q281:Q344" si="289">(SUM(C281:F281))/4</f>
+        <f t="shared" ref="Q281:Q344" si="279">((SUM(C281:F281))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R281">
-        <f t="shared" ref="R281" si="290">(SUM(C283:F283))/4</f>
+        <f t="shared" ref="R281" si="280">((SUM(C283:F283))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S281">
-        <f t="shared" ref="S281" si="291">(SUM(C285:F285))/4</f>
+        <f t="shared" ref="S281" si="281">((SUM(C285:F285))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T281">
-        <f t="shared" ref="T281" si="292">(SUM(C287:F287))/4</f>
+        <f t="shared" ref="T281" si="282">((SUM(C287:F287))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U281">
-        <f t="shared" ref="U281" si="293">(SUM(C289:F289))/4</f>
+        <f t="shared" ref="U281" si="283">((SUM(C289:F289))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V281">
-        <f t="shared" ref="V281" si="294">(SUM(C281:F289))/20</f>
+        <f t="shared" ref="V281" si="284">((SUM(C281:F289))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W281">
-        <f t="shared" ref="W281" si="295">(SUM(G281:H289))/10</f>
+        <f t="shared" ref="W281" si="285">(SUM(G281:H289))/10</f>
         <v>21</v>
       </c>
       <c r="X281">
-        <f t="shared" ref="X281" si="296">(SUM(I281:I289))/5</f>
+        <f t="shared" ref="X281" si="286">(SUM(I281:I289))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y281">
-        <f t="shared" ref="Y281" si="297">SUM(K281:K289)-Z281</f>
+        <f t="shared" ref="Y281" si="287">SUM(K281:K289)-Z281</f>
         <v>11</v>
       </c>
       <c r="Z281">
-        <f t="shared" ref="Z281" si="298">SUM(L281:L289)</f>
+        <f t="shared" ref="Z281" si="288">SUM(L281:L289)</f>
         <v>4</v>
       </c>
       <c r="AA281" t="s">
@@ -58501,7 +58501,7 @@
         <v>30</v>
       </c>
       <c r="P282" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA282" t="s">
@@ -58555,7 +58555,7 @@
         <v>30</v>
       </c>
       <c r="P283" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA283" t="s">
@@ -58609,7 +58609,7 @@
         <v>30</v>
       </c>
       <c r="P284" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA284" t="s">
@@ -58663,7 +58663,7 @@
         <v>30</v>
       </c>
       <c r="P285" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA285" t="s">
@@ -58717,7 +58717,7 @@
         <v>30</v>
       </c>
       <c r="P286" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA286" t="s">
@@ -58771,7 +58771,7 @@
         <v>30</v>
       </c>
       <c r="P287" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA287" t="s">
@@ -58825,7 +58825,7 @@
         <v>30</v>
       </c>
       <c r="P288" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA288" t="s">
@@ -58879,7 +58879,7 @@
         <v>30</v>
       </c>
       <c r="P289" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA289" t="s">
@@ -58933,47 +58933,47 @@
         <v>43</v>
       </c>
       <c r="P290">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>90</v>
       </c>
       <c r="Q290">
-        <f t="shared" ref="Q290:Q353" si="299">(SUM(C290:F290))/4</f>
+        <f t="shared" ref="Q290:Q353" si="289">((SUM(C290:F290))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R290">
-        <f t="shared" ref="R290" si="300">(SUM(C292:F292))/4</f>
+        <f t="shared" ref="R290" si="290">((SUM(C292:F292))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S290">
-        <f t="shared" ref="S290" si="301">(SUM(C294:F294))/4</f>
+        <f t="shared" ref="S290" si="291">((SUM(C294:F294))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T290">
-        <f t="shared" ref="T290" si="302">(SUM(C296:F296))/4</f>
+        <f t="shared" ref="T290" si="292">((SUM(C296:F296))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U290">
-        <f t="shared" ref="U290" si="303">(SUM(C298:F298))/4</f>
+        <f t="shared" ref="U290" si="293">((SUM(C298:F298))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V290">
-        <f t="shared" ref="V290" si="304">(SUM(C290:F298))/20</f>
+        <f t="shared" ref="V290" si="294">((SUM(C290:F298))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W290">
-        <f t="shared" ref="W290" si="305">(SUM(G290:H298))/10</f>
+        <f t="shared" ref="W290" si="295">(SUM(G290:H298))/10</f>
         <v>3.2</v>
       </c>
       <c r="X290">
-        <f t="shared" ref="X290" si="306">(SUM(I290:I298))/5</f>
+        <f t="shared" ref="X290" si="296">(SUM(I290:I298))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y290">
-        <f t="shared" ref="Y290" si="307">SUM(K290:K298)-Z290</f>
+        <f t="shared" ref="Y290" si="297">SUM(K290:K298)-Z290</f>
         <v>65</v>
       </c>
       <c r="Z290">
-        <f t="shared" ref="Z290" si="308">SUM(L290:L298)</f>
+        <f t="shared" ref="Z290" si="298">SUM(L290:L298)</f>
         <v>2</v>
       </c>
       <c r="AA290" t="s">
@@ -59027,7 +59027,7 @@
         <v>30</v>
       </c>
       <c r="P291" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA291" t="s">
@@ -59081,7 +59081,7 @@
         <v>30</v>
       </c>
       <c r="P292" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA292" t="s">
@@ -59135,7 +59135,7 @@
         <v>30</v>
       </c>
       <c r="P293" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA293" t="s">
@@ -59189,7 +59189,7 @@
         <v>30</v>
       </c>
       <c r="P294" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA294" t="s">
@@ -59243,7 +59243,7 @@
         <v>30</v>
       </c>
       <c r="P295" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA295" t="s">
@@ -59297,7 +59297,7 @@
         <v>30</v>
       </c>
       <c r="P296" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA296" t="s">
@@ -59351,7 +59351,7 @@
         <v>30</v>
       </c>
       <c r="P297" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA297" t="s">
@@ -59405,7 +59405,7 @@
         <v>30</v>
       </c>
       <c r="P298" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA298" t="s">
@@ -59459,47 +59459,47 @@
         <v>29</v>
       </c>
       <c r="P299">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>90</v>
       </c>
       <c r="Q299">
-        <f t="shared" ref="Q299:Q362" si="309">(SUM(C299:F299))/4</f>
+        <f t="shared" ref="Q299:Q362" si="299">((SUM(C299:F299))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R299">
-        <f t="shared" ref="R299" si="310">(SUM(C301:F301))/4</f>
+        <f t="shared" ref="R299" si="300">((SUM(C301:F301))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S299">
-        <f t="shared" ref="S299" si="311">(SUM(C303:F303))/4</f>
+        <f t="shared" ref="S299" si="301">((SUM(C303:F303))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T299">
-        <f t="shared" ref="T299" si="312">(SUM(C305:F305))/4</f>
+        <f t="shared" ref="T299" si="302">((SUM(C305:F305))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U299">
-        <f t="shared" ref="U299" si="313">(SUM(C307:F307))/4</f>
+        <f t="shared" ref="U299" si="303">((SUM(C307:F307))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V299">
-        <f t="shared" ref="V299" si="314">(SUM(C299:F307))/20</f>
+        <f t="shared" ref="V299" si="304">((SUM(C299:F307))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W299">
-        <f t="shared" ref="W299" si="315">(SUM(G299:H307))/10</f>
+        <f t="shared" ref="W299" si="305">(SUM(G299:H307))/10</f>
         <v>0.4</v>
       </c>
       <c r="X299">
-        <f t="shared" ref="X299" si="316">(SUM(I299:I307))/5</f>
+        <f t="shared" ref="X299" si="306">(SUM(I299:I307))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y299">
-        <f t="shared" ref="Y299" si="317">SUM(K299:K307)-Z299</f>
+        <f t="shared" ref="Y299" si="307">SUM(K299:K307)-Z299</f>
         <v>76</v>
       </c>
       <c r="Z299">
-        <f t="shared" ref="Z299" si="318">SUM(L299:L307)</f>
+        <f t="shared" ref="Z299" si="308">SUM(L299:L307)</f>
         <v>10</v>
       </c>
       <c r="AA299" t="s">
@@ -59553,7 +59553,7 @@
         <v>30</v>
       </c>
       <c r="P300" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA300" t="s">
@@ -59607,7 +59607,7 @@
         <v>30</v>
       </c>
       <c r="P301" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA301" t="s">
@@ -59661,7 +59661,7 @@
         <v>30</v>
       </c>
       <c r="P302" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA302" t="s">
@@ -59715,7 +59715,7 @@
         <v>30</v>
       </c>
       <c r="P303" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA303" t="s">
@@ -59769,7 +59769,7 @@
         <v>30</v>
       </c>
       <c r="P304" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA304" t="s">
@@ -59823,7 +59823,7 @@
         <v>30</v>
       </c>
       <c r="P305" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA305" t="s">
@@ -59877,7 +59877,7 @@
         <v>30</v>
       </c>
       <c r="P306" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA306" t="s">
@@ -59931,7 +59931,7 @@
         <v>30</v>
       </c>
       <c r="P307" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA307" t="s">
@@ -59985,47 +59985,47 @@
         <v>29</v>
       </c>
       <c r="P308">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>60</v>
       </c>
       <c r="Q308">
-        <f t="shared" ref="Q308:Q371" si="319">(SUM(C308:F308))/4</f>
+        <f t="shared" ref="Q308:Q371" si="309">((SUM(C308:F308))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R308">
-        <f t="shared" ref="R308" si="320">(SUM(C310:F310))/4</f>
+        <f t="shared" ref="R308" si="310">((SUM(C310:F310))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S308">
-        <f t="shared" ref="S308" si="321">(SUM(C312:F312))/4</f>
+        <f t="shared" ref="S308" si="311">((SUM(C312:F312))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T308">
-        <f t="shared" ref="T308" si="322">(SUM(C314:F314))/4</f>
+        <f t="shared" ref="T308" si="312">((SUM(C314:F314))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U308">
-        <f t="shared" ref="U308" si="323">(SUM(C316:F316))/4</f>
+        <f t="shared" ref="U308" si="313">((SUM(C316:F316))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V308">
-        <f t="shared" ref="V308" si="324">(SUM(C308:F316))/20</f>
+        <f t="shared" ref="V308" si="314">((SUM(C308:F316))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W308">
-        <f t="shared" ref="W308" si="325">(SUM(G308:H316))/10</f>
+        <f t="shared" ref="W308" si="315">(SUM(G308:H316))/10</f>
         <v>42.7</v>
       </c>
       <c r="X308">
-        <f t="shared" ref="X308" si="326">(SUM(I308:I316))/5</f>
+        <f t="shared" ref="X308" si="316">(SUM(I308:I316))/5</f>
         <v>2</v>
       </c>
       <c r="Y308">
-        <f t="shared" ref="Y308" si="327">SUM(K308:K316)-Z308</f>
+        <f t="shared" ref="Y308" si="317">SUM(K308:K316)-Z308</f>
         <v>80</v>
       </c>
       <c r="Z308">
-        <f t="shared" ref="Z308" si="328">SUM(L308:L316)</f>
+        <f t="shared" ref="Z308" si="318">SUM(L308:L316)</f>
         <v>5</v>
       </c>
       <c r="AA308" t="s">
@@ -60079,7 +60079,7 @@
         <v>30</v>
       </c>
       <c r="P309" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA309" t="s">
@@ -60133,7 +60133,7 @@
         <v>30</v>
       </c>
       <c r="P310" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA310" t="s">
@@ -60187,7 +60187,7 @@
         <v>30</v>
       </c>
       <c r="P311" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA311" t="s">
@@ -60241,7 +60241,7 @@
         <v>30</v>
       </c>
       <c r="P312" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA312" t="s">
@@ -60295,7 +60295,7 @@
         <v>30</v>
       </c>
       <c r="P313" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA313" t="s">
@@ -60349,7 +60349,7 @@
         <v>30</v>
       </c>
       <c r="P314" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA314" t="s">
@@ -60403,7 +60403,7 @@
         <v>30</v>
       </c>
       <c r="P315" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA315" t="s">
@@ -60457,7 +60457,7 @@
         <v>30</v>
       </c>
       <c r="P316" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA316" t="s">
@@ -60511,47 +60511,47 @@
         <v>240</v>
       </c>
       <c r="P317">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>60</v>
       </c>
       <c r="Q317">
-        <f t="shared" ref="Q317:Q380" si="329">(SUM(C317:F317))/4</f>
+        <f t="shared" ref="Q317:Q380" si="319">((SUM(C317:F317))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R317">
-        <f t="shared" ref="R317" si="330">(SUM(C319:F319))/4</f>
+        <f t="shared" ref="R317" si="320">((SUM(C319:F319))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S317">
-        <f t="shared" ref="S317" si="331">(SUM(C321:F321))/4</f>
+        <f t="shared" ref="S317" si="321">((SUM(C321:F321))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T317">
-        <f t="shared" ref="T317" si="332">(SUM(C323:F323))/4</f>
+        <f t="shared" ref="T317" si="322">((SUM(C323:F323))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U317">
-        <f t="shared" ref="U317" si="333">(SUM(C325:F325))/4</f>
+        <f t="shared" ref="U317" si="323">((SUM(C325:F325))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V317">
-        <f t="shared" ref="V317" si="334">(SUM(C317:F325))/20</f>
+        <f t="shared" ref="V317" si="324">((SUM(C317:F325))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W317">
-        <f t="shared" ref="W317" si="335">(SUM(G317:H325))/10</f>
+        <f t="shared" ref="W317" si="325">(SUM(G317:H325))/10</f>
         <v>16.5</v>
       </c>
       <c r="X317">
-        <f t="shared" ref="X317" si="336">(SUM(I317:I325))/5</f>
+        <f t="shared" ref="X317" si="326">(SUM(I317:I325))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y317">
-        <f t="shared" ref="Y317" si="337">SUM(K317:K325)-Z317</f>
+        <f t="shared" ref="Y317" si="327">SUM(K317:K325)-Z317</f>
         <v>19</v>
       </c>
       <c r="Z317">
-        <f t="shared" ref="Z317" si="338">SUM(L317:L325)</f>
+        <f t="shared" ref="Z317" si="328">SUM(L317:L325)</f>
         <v>2</v>
       </c>
       <c r="AA317" t="s">
@@ -60605,7 +60605,7 @@
         <v>30</v>
       </c>
       <c r="P318" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA318" t="s">
@@ -60659,7 +60659,7 @@
         <v>30</v>
       </c>
       <c r="P319" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA319" t="s">
@@ -60713,7 +60713,7 @@
         <v>30</v>
       </c>
       <c r="P320" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA320" t="s">
@@ -60767,7 +60767,7 @@
         <v>30</v>
       </c>
       <c r="P321" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA321" t="s">
@@ -60821,7 +60821,7 @@
         <v>30</v>
       </c>
       <c r="P322" t="e">
-        <f t="shared" si="268"/>
+        <f t="shared" si="258"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA322" t="s">
@@ -60875,7 +60875,7 @@
         <v>30</v>
       </c>
       <c r="P323" t="e">
-        <f t="shared" ref="P323:P386" si="339">M323*10</f>
+        <f t="shared" ref="P323:P386" si="329">M323*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA323" t="s">
@@ -60929,7 +60929,7 @@
         <v>30</v>
       </c>
       <c r="P324" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA324" t="s">
@@ -60983,7 +60983,7 @@
         <v>30</v>
       </c>
       <c r="P325" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA325" t="s">
@@ -61037,47 +61037,47 @@
         <v>43</v>
       </c>
       <c r="P326" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q326">
-        <f t="shared" ref="Q326:Q389" si="340">(SUM(C326:F326))/4</f>
+        <f t="shared" ref="Q326:Q389" si="330">((SUM(C326:F326))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R326">
-        <f t="shared" ref="R326" si="341">(SUM(C328:F328))/4</f>
+        <f t="shared" ref="R326" si="331">((SUM(C328:F328))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S326">
-        <f t="shared" ref="S326" si="342">(SUM(C330:F330))/4</f>
+        <f t="shared" ref="S326" si="332">((SUM(C330:F330))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T326">
-        <f t="shared" ref="T326" si="343">(SUM(C332:F332))/4</f>
+        <f t="shared" ref="T326" si="333">((SUM(C332:F332))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U326">
-        <f t="shared" ref="U326" si="344">(SUM(C334:F334))/4</f>
+        <f t="shared" ref="U326" si="334">((SUM(C334:F334))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V326">
-        <f t="shared" ref="V326" si="345">(SUM(C326:F334))/20</f>
+        <f t="shared" ref="V326" si="335">((SUM(C326:F334))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W326">
-        <f t="shared" ref="W326" si="346">(SUM(G326:H334))/10</f>
+        <f t="shared" ref="W326" si="336">(SUM(G326:H334))/10</f>
         <v>50.5</v>
       </c>
       <c r="X326">
-        <f t="shared" ref="X326" si="347">(SUM(I326:I334))/5</f>
+        <f t="shared" ref="X326" si="337">(SUM(I326:I334))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y326">
-        <f t="shared" ref="Y326" si="348">SUM(K326:K334)-Z326</f>
+        <f t="shared" ref="Y326" si="338">SUM(K326:K334)-Z326</f>
         <v>32</v>
       </c>
       <c r="Z326">
-        <f t="shared" ref="Z326" si="349">SUM(L326:L334)</f>
+        <f t="shared" ref="Z326" si="339">SUM(L326:L334)</f>
         <v>2</v>
       </c>
       <c r="AA326" t="s">
@@ -61131,7 +61131,7 @@
         <v>30</v>
       </c>
       <c r="P327" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA327" t="s">
@@ -61185,7 +61185,7 @@
         <v>30</v>
       </c>
       <c r="P328" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA328" t="s">
@@ -61239,7 +61239,7 @@
         <v>30</v>
       </c>
       <c r="P329" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA329" t="s">
@@ -61293,7 +61293,7 @@
         <v>30</v>
       </c>
       <c r="P330" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA330" t="s">
@@ -61347,7 +61347,7 @@
         <v>30</v>
       </c>
       <c r="P331" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA331" t="s">
@@ -61401,7 +61401,7 @@
         <v>30</v>
       </c>
       <c r="P332" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA332" t="s">
@@ -61455,7 +61455,7 @@
         <v>30</v>
       </c>
       <c r="P333" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA333" t="s">
@@ -61509,7 +61509,7 @@
         <v>30</v>
       </c>
       <c r="P334" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA334" t="s">
@@ -61563,47 +61563,47 @@
         <v>240</v>
       </c>
       <c r="P335" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q335">
-        <f t="shared" ref="Q335:Q398" si="350">(SUM(C335:F335))/4</f>
+        <f t="shared" ref="Q335:Q398" si="340">((SUM(C335:F335))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R335">
-        <f t="shared" ref="R335" si="351">(SUM(C337:F337))/4</f>
+        <f t="shared" ref="R335" si="341">((SUM(C337:F337))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S335">
-        <f t="shared" ref="S335" si="352">(SUM(C339:F339))/4</f>
+        <f t="shared" ref="S335" si="342">((SUM(C339:F339))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335" si="353">(SUM(C341:F341))/4</f>
+        <f t="shared" ref="T335" si="343">((SUM(C341:F341))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U335">
-        <f t="shared" ref="U335" si="354">(SUM(C343:F343))/4</f>
+        <f t="shared" ref="U335" si="344">((SUM(C343:F343))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V335">
-        <f t="shared" ref="V335" si="355">(SUM(C335:F343))/20</f>
+        <f t="shared" ref="V335" si="345">((SUM(C335:F343))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W335">
-        <f t="shared" ref="W335" si="356">(SUM(G335:H343))/10</f>
+        <f t="shared" ref="W335" si="346">(SUM(G335:H343))/10</f>
         <v>47</v>
       </c>
       <c r="X335">
-        <f t="shared" ref="X335" si="357">(SUM(I335:I343))/5</f>
+        <f t="shared" ref="X335" si="347">(SUM(I335:I343))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y335">
-        <f t="shared" ref="Y335" si="358">SUM(K335:K343)-Z335</f>
+        <f t="shared" ref="Y335" si="348">SUM(K335:K343)-Z335</f>
         <v>24</v>
       </c>
       <c r="Z335">
-        <f t="shared" ref="Z335" si="359">SUM(L335:L343)</f>
+        <f t="shared" ref="Z335" si="349">SUM(L335:L343)</f>
         <v>0</v>
       </c>
       <c r="AA335" t="s">
@@ -61657,7 +61657,7 @@
         <v>30</v>
       </c>
       <c r="P336" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA336" t="s">
@@ -61711,7 +61711,7 @@
         <v>30</v>
       </c>
       <c r="P337" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA337" t="s">
@@ -61765,7 +61765,7 @@
         <v>30</v>
       </c>
       <c r="P338" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA338" t="s">
@@ -61819,7 +61819,7 @@
         <v>30</v>
       </c>
       <c r="P339" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA339" t="s">
@@ -61873,7 +61873,7 @@
         <v>30</v>
       </c>
       <c r="P340" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA340" t="s">
@@ -61927,7 +61927,7 @@
         <v>30</v>
       </c>
       <c r="P341" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA341" t="s">
@@ -61981,7 +61981,7 @@
         <v>30</v>
       </c>
       <c r="P342" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA342" t="s">
@@ -62035,7 +62035,7 @@
         <v>30</v>
       </c>
       <c r="P343" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA343" t="s">
@@ -62089,47 +62089,47 @@
         <v>43</v>
       </c>
       <c r="P344">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>100</v>
       </c>
       <c r="Q344">
-        <f t="shared" ref="Q344:Q407" si="360">(SUM(C344:F344))/4</f>
+        <f t="shared" ref="Q344:Q407" si="350">((SUM(C344:F344))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R344">
-        <f t="shared" ref="R344" si="361">(SUM(C346:F346))/4</f>
+        <f t="shared" ref="R344" si="351">((SUM(C346:F346))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S344">
-        <f t="shared" ref="S344" si="362">(SUM(C348:F348))/4</f>
+        <f t="shared" ref="S344" si="352">((SUM(C348:F348))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T344">
-        <f t="shared" ref="T344" si="363">(SUM(C350:F350))/4</f>
+        <f t="shared" ref="T344" si="353">((SUM(C350:F350))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U344">
-        <f t="shared" ref="U344" si="364">(SUM(C352:F352))/4</f>
+        <f t="shared" ref="U344" si="354">((SUM(C352:F352))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V344">
-        <f t="shared" ref="V344" si="365">(SUM(C344:F352))/20</f>
+        <f t="shared" ref="V344" si="355">((SUM(C344:F352))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W344">
-        <f t="shared" ref="W344" si="366">(SUM(G344:H352))/10</f>
+        <f t="shared" ref="W344" si="356">(SUM(G344:H352))/10</f>
         <v>1.7</v>
       </c>
       <c r="X344">
-        <f t="shared" ref="X344" si="367">(SUM(I344:I352))/5</f>
+        <f t="shared" ref="X344" si="357">(SUM(I344:I352))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y344">
-        <f t="shared" ref="Y344" si="368">SUM(K344:K352)-Z344</f>
+        <f t="shared" ref="Y344" si="358">SUM(K344:K352)-Z344</f>
         <v>62</v>
       </c>
       <c r="Z344">
-        <f t="shared" ref="Z344" si="369">SUM(L344:L352)</f>
+        <f t="shared" ref="Z344" si="359">SUM(L344:L352)</f>
         <v>7</v>
       </c>
       <c r="AA344" t="s">
@@ -62183,7 +62183,7 @@
         <v>30</v>
       </c>
       <c r="P345" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA345" t="s">
@@ -62237,7 +62237,7 @@
         <v>30</v>
       </c>
       <c r="P346" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA346" t="s">
@@ -62291,7 +62291,7 @@
         <v>30</v>
       </c>
       <c r="P347" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA347" t="s">
@@ -62345,7 +62345,7 @@
         <v>30</v>
       </c>
       <c r="P348" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA348" t="s">
@@ -62399,7 +62399,7 @@
         <v>30</v>
       </c>
       <c r="P349" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA349" t="s">
@@ -62453,7 +62453,7 @@
         <v>30</v>
       </c>
       <c r="P350" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA350" t="s">
@@ -62507,7 +62507,7 @@
         <v>30</v>
       </c>
       <c r="P351" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA351" t="s">
@@ -62561,7 +62561,7 @@
         <v>30</v>
       </c>
       <c r="P352" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA352" t="s">
@@ -62615,47 +62615,47 @@
         <v>43</v>
       </c>
       <c r="P353">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>90</v>
       </c>
       <c r="Q353">
-        <f t="shared" ref="Q353:Q416" si="370">(SUM(C353:F353))/4</f>
+        <f t="shared" ref="Q353:Q416" si="360">((SUM(C353:F353))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R353">
-        <f t="shared" ref="R353" si="371">(SUM(C355:F355))/4</f>
+        <f t="shared" ref="R353" si="361">((SUM(C355:F355))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S353">
-        <f t="shared" ref="S353" si="372">(SUM(C357:F357))/4</f>
+        <f t="shared" ref="S353" si="362">((SUM(C357:F357))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T353">
-        <f t="shared" ref="T353" si="373">(SUM(C359:F359))/4</f>
+        <f t="shared" ref="T353" si="363">((SUM(C359:F359))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U353">
-        <f t="shared" ref="U353" si="374">(SUM(C361:F361))/4</f>
+        <f t="shared" ref="U353" si="364">((SUM(C361:F361))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V353">
-        <f t="shared" ref="V353" si="375">(SUM(C353:F361))/20</f>
+        <f t="shared" ref="V353" si="365">((SUM(C353:F361))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W353">
-        <f t="shared" ref="W353" si="376">(SUM(G353:H361))/10</f>
+        <f t="shared" ref="W353" si="366">(SUM(G353:H361))/10</f>
         <v>2.4</v>
       </c>
       <c r="X353">
-        <f t="shared" ref="X353" si="377">(SUM(I353:I361))/5</f>
+        <f t="shared" ref="X353" si="367">(SUM(I353:I361))/5</f>
         <v>3.8</v>
       </c>
       <c r="Y353">
-        <f t="shared" ref="Y353" si="378">SUM(K353:K361)-Z353</f>
+        <f t="shared" ref="Y353" si="368">SUM(K353:K361)-Z353</f>
         <v>54</v>
       </c>
       <c r="Z353">
-        <f t="shared" ref="Z353" si="379">SUM(L353:L361)</f>
+        <f t="shared" ref="Z353" si="369">SUM(L353:L361)</f>
         <v>6</v>
       </c>
       <c r="AA353" t="s">
@@ -62709,7 +62709,7 @@
         <v>30</v>
       </c>
       <c r="P354" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA354" t="s">
@@ -62763,7 +62763,7 @@
         <v>30</v>
       </c>
       <c r="P355" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA355" t="s">
@@ -62817,7 +62817,7 @@
         <v>30</v>
       </c>
       <c r="P356" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA356" t="s">
@@ -62871,7 +62871,7 @@
         <v>30</v>
       </c>
       <c r="P357" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA357" t="s">
@@ -62925,7 +62925,7 @@
         <v>30</v>
       </c>
       <c r="P358" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA358" t="s">
@@ -62979,7 +62979,7 @@
         <v>30</v>
       </c>
       <c r="P359" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA359" t="s">
@@ -63033,7 +63033,7 @@
         <v>30</v>
       </c>
       <c r="P360" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA360" t="s">
@@ -63087,7 +63087,7 @@
         <v>30</v>
       </c>
       <c r="P361" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA361" t="s">
@@ -63141,47 +63141,47 @@
         <v>29</v>
       </c>
       <c r="P362">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>50</v>
       </c>
       <c r="Q362">
-        <f t="shared" ref="Q362:Q425" si="380">(SUM(C362:F362))/4</f>
+        <f t="shared" ref="Q362:Q425" si="370">((SUM(C362:F362))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R362">
-        <f t="shared" ref="R362" si="381">(SUM(C364:F364))/4</f>
+        <f t="shared" ref="R362" si="371">((SUM(C364:F364))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S362">
-        <f t="shared" ref="S362" si="382">(SUM(C366:F366))/4</f>
+        <f t="shared" ref="S362" si="372">((SUM(C366:F366))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T362">
-        <f t="shared" ref="T362" si="383">(SUM(C368:F368))/4</f>
+        <f t="shared" ref="T362" si="373">((SUM(C368:F368))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U362">
-        <f t="shared" ref="U362" si="384">(SUM(C370:F370))/4</f>
+        <f t="shared" ref="U362" si="374">((SUM(C370:F370))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V362">
-        <f t="shared" ref="V362" si="385">(SUM(C362:F370))/20</f>
+        <f t="shared" ref="V362" si="375">((SUM(C362:F370))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W362">
-        <f t="shared" ref="W362" si="386">(SUM(G362:H370))/10</f>
+        <f t="shared" ref="W362" si="376">(SUM(G362:H370))/10</f>
         <v>18.100000000000001</v>
       </c>
       <c r="X362">
-        <f t="shared" ref="X362" si="387">(SUM(I362:I370))/5</f>
+        <f t="shared" ref="X362" si="377">(SUM(I362:I370))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y362">
-        <f t="shared" ref="Y362" si="388">SUM(K362:K370)-Z362</f>
+        <f t="shared" ref="Y362" si="378">SUM(K362:K370)-Z362</f>
         <v>60</v>
       </c>
       <c r="Z362">
-        <f t="shared" ref="Z362" si="389">SUM(L362:L370)</f>
+        <f t="shared" ref="Z362" si="379">SUM(L362:L370)</f>
         <v>8</v>
       </c>
       <c r="AA362" t="s">
@@ -63235,7 +63235,7 @@
         <v>30</v>
       </c>
       <c r="P363" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA363" t="s">
@@ -63289,7 +63289,7 @@
         <v>30</v>
       </c>
       <c r="P364" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA364" t="s">
@@ -63343,7 +63343,7 @@
         <v>30</v>
       </c>
       <c r="P365" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA365" t="s">
@@ -63397,7 +63397,7 @@
         <v>30</v>
       </c>
       <c r="P366" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA366" t="s">
@@ -63451,7 +63451,7 @@
         <v>30</v>
       </c>
       <c r="P367" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA367" t="s">
@@ -63505,7 +63505,7 @@
         <v>30</v>
       </c>
       <c r="P368" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA368" t="s">
@@ -63559,7 +63559,7 @@
         <v>30</v>
       </c>
       <c r="P369" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA369" t="s">
@@ -63613,7 +63613,7 @@
         <v>30</v>
       </c>
       <c r="P370" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA370" t="s">
@@ -63667,47 +63667,47 @@
         <v>29</v>
       </c>
       <c r="P371">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>100</v>
       </c>
       <c r="Q371">
-        <f t="shared" ref="Q371:Q434" si="390">(SUM(C371:F371))/4</f>
+        <f t="shared" ref="Q371:Q434" si="380">((SUM(C371:F371))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R371">
-        <f t="shared" ref="R371" si="391">(SUM(C373:F373))/4</f>
+        <f t="shared" ref="R371" si="381">((SUM(C373:F373))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S371">
-        <f t="shared" ref="S371" si="392">(SUM(C375:F375))/4</f>
+        <f t="shared" ref="S371" si="382">((SUM(C375:F375))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T371">
-        <f t="shared" ref="T371" si="393">(SUM(C377:F377))/4</f>
+        <f t="shared" ref="T371" si="383">((SUM(C377:F377))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U371">
-        <f t="shared" ref="U371" si="394">(SUM(C379:F379))/4</f>
+        <f t="shared" ref="U371" si="384">((SUM(C379:F379))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V371">
-        <f t="shared" ref="V371" si="395">(SUM(C371:F379))/20</f>
+        <f t="shared" ref="V371" si="385">((SUM(C371:F379))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W371">
-        <f t="shared" ref="W371" si="396">(SUM(G371:H379))/10</f>
+        <f t="shared" ref="W371" si="386">(SUM(G371:H379))/10</f>
         <v>88.7</v>
       </c>
       <c r="X371">
-        <f t="shared" ref="X371" si="397">(SUM(I371:I379))/5</f>
+        <f t="shared" ref="X371" si="387">(SUM(I371:I379))/5</f>
         <v>1</v>
       </c>
       <c r="Y371">
-        <f t="shared" ref="Y371" si="398">SUM(K371:K379)-Z371</f>
+        <f t="shared" ref="Y371" si="388">SUM(K371:K379)-Z371</f>
         <v>33</v>
       </c>
       <c r="Z371">
-        <f t="shared" ref="Z371" si="399">SUM(L371:L379)</f>
+        <f t="shared" ref="Z371" si="389">SUM(L371:L379)</f>
         <v>6</v>
       </c>
       <c r="AA371" t="s">
@@ -63761,7 +63761,7 @@
         <v>30</v>
       </c>
       <c r="P372" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA372" t="s">
@@ -63815,7 +63815,7 @@
         <v>30</v>
       </c>
       <c r="P373" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA373" t="s">
@@ -63869,7 +63869,7 @@
         <v>30</v>
       </c>
       <c r="P374" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA374" t="s">
@@ -63923,7 +63923,7 @@
         <v>30</v>
       </c>
       <c r="P375" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA375" t="s">
@@ -63977,7 +63977,7 @@
         <v>30</v>
       </c>
       <c r="P376" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA376" t="s">
@@ -64031,7 +64031,7 @@
         <v>30</v>
       </c>
       <c r="P377" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA377" t="s">
@@ -64085,7 +64085,7 @@
         <v>30</v>
       </c>
       <c r="P378" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA378" t="s">
@@ -64139,7 +64139,7 @@
         <v>30</v>
       </c>
       <c r="P379" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA379" t="s">
@@ -64193,47 +64193,47 @@
         <v>67</v>
       </c>
       <c r="P380">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>100</v>
       </c>
       <c r="Q380">
-        <f t="shared" ref="Q380:Q443" si="400">(SUM(C380:F380))/4</f>
+        <f t="shared" ref="Q380:Q443" si="390">((SUM(C380:F380))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R380">
-        <f t="shared" ref="R380" si="401">(SUM(C382:F382))/4</f>
+        <f t="shared" ref="R380" si="391">((SUM(C382:F382))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S380">
-        <f t="shared" ref="S380" si="402">(SUM(C384:F384))/4</f>
+        <f t="shared" ref="S380" si="392">((SUM(C384:F384))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T380">
-        <f t="shared" ref="T380" si="403">(SUM(C386:F386))/4</f>
+        <f t="shared" ref="T380" si="393">((SUM(C386:F386))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U380">
-        <f t="shared" ref="U380" si="404">(SUM(C388:F388))/4</f>
+        <f t="shared" ref="U380" si="394">((SUM(C388:F388))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V380">
-        <f t="shared" ref="V380" si="405">(SUM(C380:F388))/20</f>
+        <f t="shared" ref="V380" si="395">((SUM(C380:F388))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W380">
-        <f t="shared" ref="W380" si="406">(SUM(G380:H388))/10</f>
+        <f t="shared" ref="W380" si="396">(SUM(G380:H388))/10</f>
         <v>35.1</v>
       </c>
       <c r="X380">
-        <f t="shared" ref="X380" si="407">(SUM(I380:I388))/5</f>
+        <f t="shared" ref="X380" si="397">(SUM(I380:I388))/5</f>
         <v>2</v>
       </c>
       <c r="Y380">
-        <f t="shared" ref="Y380" si="408">SUM(K380:K388)-Z380</f>
+        <f t="shared" ref="Y380" si="398">SUM(K380:K388)-Z380</f>
         <v>57</v>
       </c>
       <c r="Z380">
-        <f t="shared" ref="Z380" si="409">SUM(L380:L388)</f>
+        <f t="shared" ref="Z380" si="399">SUM(L380:L388)</f>
         <v>5</v>
       </c>
       <c r="AA380" t="s">
@@ -64287,7 +64287,7 @@
         <v>30</v>
       </c>
       <c r="P381" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA381" t="s">
@@ -64341,7 +64341,7 @@
         <v>30</v>
       </c>
       <c r="P382" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA382" t="s">
@@ -64395,7 +64395,7 @@
         <v>30</v>
       </c>
       <c r="P383" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA383" t="s">
@@ -64449,7 +64449,7 @@
         <v>30</v>
       </c>
       <c r="P384" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA384" t="s">
@@ -64503,7 +64503,7 @@
         <v>30</v>
       </c>
       <c r="P385" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA385" t="s">
@@ -64557,7 +64557,7 @@
         <v>30</v>
       </c>
       <c r="P386" t="e">
-        <f t="shared" si="339"/>
+        <f t="shared" si="329"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA386" t="s">
@@ -64611,7 +64611,7 @@
         <v>30</v>
       </c>
       <c r="P387" t="e">
-        <f t="shared" ref="P387:P450" si="410">M387*10</f>
+        <f t="shared" ref="P387:P450" si="400">M387*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA387" t="s">
@@ -64665,7 +64665,7 @@
         <v>30</v>
       </c>
       <c r="P388" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA388" t="s">
@@ -64719,47 +64719,47 @@
         <v>29</v>
       </c>
       <c r="P389" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q389">
-        <f t="shared" ref="Q389:Q452" si="411">(SUM(C389:F389))/4</f>
+        <f t="shared" ref="Q389:Q452" si="401">((SUM(C389:F389))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R389">
-        <f t="shared" ref="R389" si="412">(SUM(C391:F391))/4</f>
+        <f t="shared" ref="R389" si="402">((SUM(C391:F391))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S389">
-        <f t="shared" ref="S389" si="413">(SUM(C393:F393))/4</f>
+        <f t="shared" ref="S389" si="403">((SUM(C393:F393))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T389">
-        <f t="shared" ref="T389" si="414">(SUM(C395:F395))/4</f>
+        <f t="shared" ref="T389" si="404">((SUM(C395:F395))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U389">
-        <f t="shared" ref="U389" si="415">(SUM(C397:F397))/4</f>
+        <f t="shared" ref="U389" si="405">((SUM(C397:F397))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V389">
-        <f t="shared" ref="V389" si="416">(SUM(C389:F397))/20</f>
+        <f t="shared" ref="V389" si="406">((SUM(C389:F397))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W389">
-        <f t="shared" ref="W389" si="417">(SUM(G389:H397))/10</f>
+        <f t="shared" ref="W389" si="407">(SUM(G389:H397))/10</f>
         <v>1.7</v>
       </c>
       <c r="X389">
-        <f t="shared" ref="X389" si="418">(SUM(I389:I397))/5</f>
+        <f t="shared" ref="X389" si="408">(SUM(I389:I397))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y389">
-        <f t="shared" ref="Y389" si="419">SUM(K389:K397)-Z389</f>
+        <f t="shared" ref="Y389" si="409">SUM(K389:K397)-Z389</f>
         <v>84</v>
       </c>
       <c r="Z389">
-        <f t="shared" ref="Z389" si="420">SUM(L389:L397)</f>
+        <f t="shared" ref="Z389" si="410">SUM(L389:L397)</f>
         <v>11</v>
       </c>
       <c r="AA389" t="s">
@@ -64813,7 +64813,7 @@
         <v>30</v>
       </c>
       <c r="P390" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA390" t="s">
@@ -64867,7 +64867,7 @@
         <v>30</v>
       </c>
       <c r="P391" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA391" t="s">
@@ -64921,7 +64921,7 @@
         <v>30</v>
       </c>
       <c r="P392" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA392" t="s">
@@ -64975,7 +64975,7 @@
         <v>30</v>
       </c>
       <c r="P393" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA393" t="s">
@@ -65029,7 +65029,7 @@
         <v>30</v>
       </c>
       <c r="P394" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA394" t="s">
@@ -65083,7 +65083,7 @@
         <v>30</v>
       </c>
       <c r="P395" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA395" t="s">
@@ -65137,7 +65137,7 @@
         <v>30</v>
       </c>
       <c r="P396" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA396" t="s">
@@ -65191,7 +65191,7 @@
         <v>30</v>
       </c>
       <c r="P397" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA397" t="s">
@@ -65245,47 +65245,47 @@
         <v>43</v>
       </c>
       <c r="P398">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>40</v>
       </c>
       <c r="Q398">
-        <f t="shared" ref="Q398:Q461" si="421">(SUM(C398:F398))/4</f>
+        <f t="shared" ref="Q398:Q461" si="411">((SUM(C398:F398))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R398">
-        <f t="shared" ref="R398" si="422">(SUM(C400:F400))/4</f>
+        <f t="shared" ref="R398" si="412">((SUM(C400:F400))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S398">
-        <f t="shared" ref="S398" si="423">(SUM(C402:F402))/4</f>
+        <f t="shared" ref="S398" si="413">((SUM(C402:F402))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T398">
-        <f t="shared" ref="T398" si="424">(SUM(C404:F404))/4</f>
+        <f t="shared" ref="T398" si="414">((SUM(C404:F404))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U398">
-        <f t="shared" ref="U398" si="425">(SUM(C406:F406))/4</f>
+        <f t="shared" ref="U398" si="415">((SUM(C406:F406))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V398">
-        <f t="shared" ref="V398" si="426">(SUM(C398:F406))/20</f>
+        <f t="shared" ref="V398" si="416">((SUM(C398:F406))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W398">
-        <f t="shared" ref="W398" si="427">(SUM(G398:H406))/10</f>
+        <f t="shared" ref="W398" si="417">(SUM(G398:H406))/10</f>
         <v>19.7</v>
       </c>
       <c r="X398">
-        <f t="shared" ref="X398" si="428">(SUM(I398:I406))/5</f>
+        <f t="shared" ref="X398" si="418">(SUM(I398:I406))/5</f>
         <v>3.6</v>
       </c>
       <c r="Y398">
-        <f t="shared" ref="Y398" si="429">SUM(K398:K406)-Z398</f>
+        <f t="shared" ref="Y398" si="419">SUM(K398:K406)-Z398</f>
         <v>68</v>
       </c>
       <c r="Z398">
-        <f t="shared" ref="Z398" si="430">SUM(L398:L406)</f>
+        <f t="shared" ref="Z398" si="420">SUM(L398:L406)</f>
         <v>2</v>
       </c>
       <c r="AA398" t="s">
@@ -65339,7 +65339,7 @@
         <v>30</v>
       </c>
       <c r="P399" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA399" t="s">
@@ -65393,7 +65393,7 @@
         <v>30</v>
       </c>
       <c r="P400" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA400" t="s">
@@ -65447,7 +65447,7 @@
         <v>30</v>
       </c>
       <c r="P401" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA401" t="s">
@@ -65501,7 +65501,7 @@
         <v>30</v>
       </c>
       <c r="P402" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA402" t="s">
@@ -65555,7 +65555,7 @@
         <v>30</v>
       </c>
       <c r="P403" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA403" t="s">
@@ -65609,7 +65609,7 @@
         <v>30</v>
       </c>
       <c r="P404" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA404" t="s">
@@ -65663,7 +65663,7 @@
         <v>30</v>
       </c>
       <c r="P405" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA405" t="s">
@@ -65717,7 +65717,7 @@
         <v>30</v>
       </c>
       <c r="P406" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA406" t="s">
@@ -65771,47 +65771,47 @@
         <v>67</v>
       </c>
       <c r="P407">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>40</v>
       </c>
       <c r="Q407">
-        <f t="shared" ref="Q407:Q470" si="431">(SUM(C407:F407))/4</f>
+        <f t="shared" ref="Q407:Q470" si="421">((SUM(C407:F407))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R407">
-        <f t="shared" ref="R407" si="432">(SUM(C409:F409))/4</f>
+        <f t="shared" ref="R407" si="422">((SUM(C409:F409))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S407">
-        <f t="shared" ref="S407" si="433">(SUM(C411:F411))/4</f>
+        <f t="shared" ref="S407" si="423">((SUM(C411:F411))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T407">
-        <f t="shared" ref="T407" si="434">(SUM(C413:F413))/4</f>
+        <f t="shared" ref="T407" si="424">((SUM(C413:F413))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U407">
-        <f t="shared" ref="U407" si="435">(SUM(C415:F415))/4</f>
+        <f t="shared" ref="U407" si="425">((SUM(C415:F415))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V407">
-        <f t="shared" ref="V407" si="436">(SUM(C407:F415))/20</f>
+        <f t="shared" ref="V407" si="426">((SUM(C407:F415))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W407">
-        <f t="shared" ref="W407" si="437">(SUM(G407:H415))/10</f>
+        <f t="shared" ref="W407" si="427">(SUM(G407:H415))/10</f>
         <v>41.3</v>
       </c>
       <c r="X407">
-        <f t="shared" ref="X407" si="438">(SUM(I407:I415))/5</f>
+        <f t="shared" ref="X407" si="428">(SUM(I407:I415))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y407">
-        <f t="shared" ref="Y407" si="439">SUM(K407:K415)-Z407</f>
+        <f t="shared" ref="Y407" si="429">SUM(K407:K415)-Z407</f>
         <v>81</v>
       </c>
       <c r="Z407">
-        <f t="shared" ref="Z407" si="440">SUM(L407:L415)</f>
+        <f t="shared" ref="Z407" si="430">SUM(L407:L415)</f>
         <v>12</v>
       </c>
       <c r="AA407" t="s">
@@ -65865,7 +65865,7 @@
         <v>30</v>
       </c>
       <c r="P408" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA408" t="s">
@@ -65919,7 +65919,7 @@
         <v>30</v>
       </c>
       <c r="P409" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA409" t="s">
@@ -65973,7 +65973,7 @@
         <v>30</v>
       </c>
       <c r="P410" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA410" t="s">
@@ -66027,7 +66027,7 @@
         <v>30</v>
       </c>
       <c r="P411" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA411" t="s">
@@ -66081,7 +66081,7 @@
         <v>30</v>
       </c>
       <c r="P412" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA412" t="s">
@@ -66135,7 +66135,7 @@
         <v>30</v>
       </c>
       <c r="P413" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA413" t="s">
@@ -66189,7 +66189,7 @@
         <v>30</v>
       </c>
       <c r="P414" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA414" t="s">
@@ -66243,7 +66243,7 @@
         <v>30</v>
       </c>
       <c r="P415" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA415" t="s">
@@ -66297,47 +66297,47 @@
         <v>560</v>
       </c>
       <c r="P416" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q416">
-        <f t="shared" ref="Q416:Q479" si="441">(SUM(C416:F416))/4</f>
-        <v>36.25</v>
+        <f t="shared" ref="Q416:Q479" si="431">((SUM(C416:F416))/4)*1.04</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="R416">
-        <f t="shared" ref="R416" si="442">(SUM(C418:F418))/4</f>
-        <v>17.75</v>
+        <f t="shared" ref="R416" si="432">((SUM(C418:F418))/4)*1.04</f>
+        <v>18.46</v>
       </c>
       <c r="S416">
-        <f t="shared" ref="S416" si="443">(SUM(C420:F420))/4</f>
-        <v>5</v>
+        <f t="shared" ref="S416" si="433">((SUM(C420:F420))/4)*1.04</f>
+        <v>5.2</v>
       </c>
       <c r="T416">
-        <f t="shared" ref="T416" si="444">(SUM(C422:F422))/4</f>
-        <v>7.5</v>
+        <f t="shared" ref="T416" si="434">((SUM(C422:F422))/4)*1.04</f>
+        <v>7.8000000000000007</v>
       </c>
       <c r="U416">
-        <f t="shared" ref="U416" si="445">(SUM(C424:F424))/4</f>
-        <v>11.5</v>
+        <f t="shared" ref="U416" si="435">((SUM(C424:F424))/4)*1.04</f>
+        <v>11.96</v>
       </c>
       <c r="V416">
-        <f t="shared" ref="V416" si="446">(SUM(C416:F424))/20</f>
-        <v>15.6</v>
+        <f t="shared" ref="V416" si="436">((SUM(C416:F424))/20)*1.04</f>
+        <v>16.224</v>
       </c>
       <c r="W416">
-        <f t="shared" ref="W416" si="447">(SUM(G416:H424))/10</f>
+        <f t="shared" ref="W416" si="437">(SUM(G416:H424))/10</f>
         <v>19.5</v>
       </c>
       <c r="X416">
-        <f t="shared" ref="X416" si="448">(SUM(I416:I424))/5</f>
+        <f t="shared" ref="X416" si="438">(SUM(I416:I424))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y416">
-        <f t="shared" ref="Y416" si="449">SUM(K416:K424)-Z416</f>
+        <f t="shared" ref="Y416" si="439">SUM(K416:K424)-Z416</f>
         <v>36</v>
       </c>
       <c r="Z416">
-        <f t="shared" ref="Z416" si="450">SUM(L416:L424)</f>
+        <f t="shared" ref="Z416" si="440">SUM(L416:L424)</f>
         <v>3</v>
       </c>
       <c r="AA416" t="s">
@@ -66391,7 +66391,7 @@
         <v>30</v>
       </c>
       <c r="P417" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA417" t="s">
@@ -66445,7 +66445,7 @@
         <v>30</v>
       </c>
       <c r="P418" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA418" t="s">
@@ -66499,7 +66499,7 @@
         <v>30</v>
       </c>
       <c r="P419" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA419" t="s">
@@ -66553,7 +66553,7 @@
         <v>30</v>
       </c>
       <c r="P420" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA420" t="s">
@@ -66607,7 +66607,7 @@
         <v>30</v>
       </c>
       <c r="P421" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA421" t="s">
@@ -66661,7 +66661,7 @@
         <v>30</v>
       </c>
       <c r="P422" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA422" t="s">
@@ -66715,7 +66715,7 @@
         <v>30</v>
       </c>
       <c r="P423" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA423" t="s">
@@ -66769,7 +66769,7 @@
         <v>30</v>
       </c>
       <c r="P424" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA424" t="s">
@@ -66823,47 +66823,47 @@
         <v>560</v>
       </c>
       <c r="P425" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q425">
-        <f t="shared" ref="Q425:Q488" si="451">(SUM(C425:F425))/4</f>
+        <f t="shared" ref="Q425:Q488" si="441">((SUM(C425:F425))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R425">
-        <f t="shared" ref="R425" si="452">(SUM(C427:F427))/4</f>
+        <f t="shared" ref="R425" si="442">((SUM(C427:F427))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S425">
-        <f t="shared" ref="S425" si="453">(SUM(C429:F429))/4</f>
+        <f t="shared" ref="S425" si="443">((SUM(C429:F429))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T425">
-        <f t="shared" ref="T425" si="454">(SUM(C431:F431))/4</f>
+        <f t="shared" ref="T425" si="444">((SUM(C431:F431))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U425">
-        <f t="shared" ref="U425" si="455">(SUM(C433:F433))/4</f>
+        <f t="shared" ref="U425" si="445">((SUM(C433:F433))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V425">
-        <f t="shared" ref="V425" si="456">(SUM(C425:F433))/20</f>
+        <f t="shared" ref="V425" si="446">((SUM(C425:F433))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W425">
-        <f t="shared" ref="W425" si="457">(SUM(G425:H433))/10</f>
+        <f t="shared" ref="W425" si="447">(SUM(G425:H433))/10</f>
         <v>26.2</v>
       </c>
       <c r="X425">
-        <f t="shared" ref="X425" si="458">(SUM(I425:I433))/5</f>
+        <f t="shared" ref="X425" si="448">(SUM(I425:I433))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y425">
-        <f t="shared" ref="Y425" si="459">SUM(K425:K433)-Z425</f>
+        <f t="shared" ref="Y425" si="449">SUM(K425:K433)-Z425</f>
         <v>32</v>
       </c>
       <c r="Z425">
-        <f t="shared" ref="Z425" si="460">SUM(L425:L433)</f>
+        <f t="shared" ref="Z425" si="450">SUM(L425:L433)</f>
         <v>1</v>
       </c>
       <c r="AA425" t="s">
@@ -66917,7 +66917,7 @@
         <v>30</v>
       </c>
       <c r="P426" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA426" t="s">
@@ -66971,7 +66971,7 @@
         <v>30</v>
       </c>
       <c r="P427" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA427" t="s">
@@ -67025,7 +67025,7 @@
         <v>30</v>
       </c>
       <c r="P428" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA428" t="s">
@@ -67079,7 +67079,7 @@
         <v>30</v>
       </c>
       <c r="P429" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA429" t="s">
@@ -67133,7 +67133,7 @@
         <v>30</v>
       </c>
       <c r="P430" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA430" t="s">
@@ -67187,7 +67187,7 @@
         <v>30</v>
       </c>
       <c r="P431" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA431" t="s">
@@ -67241,7 +67241,7 @@
         <v>30</v>
       </c>
       <c r="P432" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA432" t="s">
@@ -67295,7 +67295,7 @@
         <v>30</v>
       </c>
       <c r="P433" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA433" t="s">
@@ -67349,47 +67349,47 @@
         <v>240</v>
       </c>
       <c r="P434">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>20</v>
       </c>
       <c r="Q434">
-        <f t="shared" ref="Q434:Q497" si="461">(SUM(C434:F434))/4</f>
+        <f t="shared" ref="Q434:Q497" si="451">((SUM(C434:F434))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R434">
-        <f t="shared" ref="R434" si="462">(SUM(C436:F436))/4</f>
+        <f t="shared" ref="R434" si="452">((SUM(C436:F436))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S434">
-        <f t="shared" ref="S434" si="463">(SUM(C438:F438))/4</f>
+        <f t="shared" ref="S434" si="453">((SUM(C438:F438))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T434">
-        <f t="shared" ref="T434" si="464">(SUM(C440:F440))/4</f>
+        <f t="shared" ref="T434" si="454">((SUM(C440:F440))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U434">
-        <f t="shared" ref="U434" si="465">(SUM(C442:F442))/4</f>
+        <f t="shared" ref="U434" si="455">((SUM(C442:F442))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V434">
-        <f t="shared" ref="V434" si="466">(SUM(C434:F442))/20</f>
+        <f t="shared" ref="V434" si="456">((SUM(C434:F442))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W434">
-        <f t="shared" ref="W434" si="467">(SUM(G434:H442))/10</f>
+        <f t="shared" ref="W434" si="457">(SUM(G434:H442))/10</f>
         <v>10.5</v>
       </c>
       <c r="X434">
-        <f t="shared" ref="X434" si="468">(SUM(I434:I442))/5</f>
+        <f t="shared" ref="X434" si="458">(SUM(I434:I442))/5</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y434">
-        <f t="shared" ref="Y434" si="469">SUM(K434:K442)-Z434</f>
+        <f t="shared" ref="Y434" si="459">SUM(K434:K442)-Z434</f>
         <v>15</v>
       </c>
       <c r="Z434">
-        <f t="shared" ref="Z434" si="470">SUM(L434:L442)</f>
+        <f t="shared" ref="Z434" si="460">SUM(L434:L442)</f>
         <v>3</v>
       </c>
       <c r="AA434" t="s">
@@ -67443,7 +67443,7 @@
         <v>30</v>
       </c>
       <c r="P435" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA435" t="s">
@@ -67497,7 +67497,7 @@
         <v>30</v>
       </c>
       <c r="P436" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA436" t="s">
@@ -67551,7 +67551,7 @@
         <v>30</v>
       </c>
       <c r="P437" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA437" t="s">
@@ -67605,7 +67605,7 @@
         <v>30</v>
       </c>
       <c r="P438" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA438" t="s">
@@ -67659,7 +67659,7 @@
         <v>30</v>
       </c>
       <c r="P439" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA439" t="s">
@@ -67713,7 +67713,7 @@
         <v>30</v>
       </c>
       <c r="P440" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA440" t="s">
@@ -67767,7 +67767,7 @@
         <v>30</v>
       </c>
       <c r="P441" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA441" t="s">
@@ -67821,7 +67821,7 @@
         <v>30</v>
       </c>
       <c r="P442" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA442" t="s">
@@ -67875,47 +67875,47 @@
         <v>240</v>
       </c>
       <c r="P443">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>40</v>
       </c>
       <c r="Q443">
-        <f t="shared" ref="Q443:Q506" si="471">(SUM(C443:F443))/4</f>
+        <f t="shared" ref="Q443:Q506" si="461">((SUM(C443:F443))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R443">
-        <f t="shared" ref="R443" si="472">(SUM(C445:F445))/4</f>
+        <f t="shared" ref="R443" si="462">((SUM(C445:F445))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S443">
-        <f t="shared" ref="S443" si="473">(SUM(C447:F447))/4</f>
+        <f t="shared" ref="S443" si="463">((SUM(C447:F447))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T443">
-        <f t="shared" ref="T443" si="474">(SUM(C449:F449))/4</f>
+        <f t="shared" ref="T443" si="464">((SUM(C449:F449))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U443">
-        <f t="shared" ref="U443" si="475">(SUM(C451:F451))/4</f>
+        <f t="shared" ref="U443" si="465">((SUM(C451:F451))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V443">
-        <f t="shared" ref="V443" si="476">(SUM(C443:F451))/20</f>
+        <f t="shared" ref="V443" si="466">((SUM(C443:F451))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W443">
-        <f t="shared" ref="W443" si="477">(SUM(G443:H451))/10</f>
+        <f t="shared" ref="W443" si="467">(SUM(G443:H451))/10</f>
         <v>37.5</v>
       </c>
       <c r="X443">
-        <f t="shared" ref="X443" si="478">(SUM(I443:I451))/5</f>
+        <f t="shared" ref="X443" si="468">(SUM(I443:I451))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y443">
-        <f t="shared" ref="Y443" si="479">SUM(K443:K451)-Z443</f>
+        <f t="shared" ref="Y443" si="469">SUM(K443:K451)-Z443</f>
         <v>19</v>
       </c>
       <c r="Z443">
-        <f t="shared" ref="Z443" si="480">SUM(L443:L451)</f>
+        <f t="shared" ref="Z443" si="470">SUM(L443:L451)</f>
         <v>1</v>
       </c>
       <c r="AA443" t="s">
@@ -67969,7 +67969,7 @@
         <v>30</v>
       </c>
       <c r="P444" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA444" t="s">
@@ -68023,7 +68023,7 @@
         <v>30</v>
       </c>
       <c r="P445" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA445" t="s">
@@ -68077,7 +68077,7 @@
         <v>30</v>
       </c>
       <c r="P446" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA446" t="s">
@@ -68131,7 +68131,7 @@
         <v>30</v>
       </c>
       <c r="P447" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA447" t="s">
@@ -68185,7 +68185,7 @@
         <v>30</v>
       </c>
       <c r="P448" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA448" t="s">
@@ -68239,7 +68239,7 @@
         <v>30</v>
       </c>
       <c r="P449" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA449" t="s">
@@ -68293,7 +68293,7 @@
         <v>30</v>
       </c>
       <c r="P450" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="400"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA450" t="s">
@@ -68347,7 +68347,7 @@
         <v>30</v>
       </c>
       <c r="P451" t="e">
-        <f t="shared" ref="P451:P514" si="481">M451*10</f>
+        <f t="shared" ref="P451:P514" si="471">M451*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA451" t="s">
@@ -68401,47 +68401,47 @@
         <v>240</v>
       </c>
       <c r="P452">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>40</v>
       </c>
       <c r="Q452">
-        <f t="shared" ref="Q452:Q483" si="482">(SUM(C452:F452))/4</f>
+        <f t="shared" ref="Q452:Q483" si="472">((SUM(C452:F452))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R452">
-        <f t="shared" ref="R452" si="483">(SUM(C454:F454))/4</f>
+        <f t="shared" ref="R452" si="473">((SUM(C454:F454))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S452">
-        <f t="shared" ref="S452" si="484">(SUM(C456:F456))/4</f>
+        <f t="shared" ref="S452" si="474">((SUM(C456:F456))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T452">
-        <f t="shared" ref="T452" si="485">(SUM(C458:F458))/4</f>
+        <f t="shared" ref="T452" si="475">((SUM(C458:F458))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U452">
-        <f t="shared" ref="U452" si="486">(SUM(C460:F460))/4</f>
+        <f t="shared" ref="U452" si="476">((SUM(C460:F460))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V452">
-        <f t="shared" ref="V452" si="487">(SUM(C452:F460))/20</f>
+        <f t="shared" ref="V452" si="477">((SUM(C452:F460))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W452">
-        <f t="shared" ref="W452" si="488">(SUM(G452:H460))/10</f>
+        <f t="shared" ref="W452" si="478">(SUM(G452:H460))/10</f>
         <v>14</v>
       </c>
       <c r="X452">
-        <f t="shared" ref="X452" si="489">(SUM(I452:I460))/5</f>
+        <f t="shared" ref="X452" si="479">(SUM(I452:I460))/5</f>
         <v>3.2</v>
       </c>
       <c r="Y452">
-        <f t="shared" ref="Y452" si="490">SUM(K452:K460)-Z452</f>
+        <f t="shared" ref="Y452" si="480">SUM(K452:K460)-Z452</f>
         <v>16</v>
       </c>
       <c r="Z452">
-        <f t="shared" ref="Z452" si="491">SUM(L452:L460)</f>
+        <f t="shared" ref="Z452" si="481">SUM(L452:L460)</f>
         <v>4</v>
       </c>
       <c r="AA452" t="s">
@@ -68495,7 +68495,7 @@
         <v>30</v>
       </c>
       <c r="P453" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA453" t="s">
@@ -68549,7 +68549,7 @@
         <v>30</v>
       </c>
       <c r="P454" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA454" t="s">
@@ -68603,7 +68603,7 @@
         <v>30</v>
       </c>
       <c r="P455" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA455" t="s">
@@ -68657,7 +68657,7 @@
         <v>30</v>
       </c>
       <c r="P456" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA456" t="s">
@@ -68711,7 +68711,7 @@
         <v>30</v>
       </c>
       <c r="P457" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA457" t="s">
@@ -68765,7 +68765,7 @@
         <v>30</v>
       </c>
       <c r="P458" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA458" t="s">
@@ -68819,7 +68819,7 @@
         <v>30</v>
       </c>
       <c r="P459" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA459" t="s">
@@ -68873,7 +68873,7 @@
         <v>30</v>
       </c>
       <c r="P460" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA460" t="s">
@@ -68927,47 +68927,47 @@
         <v>240</v>
       </c>
       <c r="P461" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q461">
-        <f t="shared" ref="Q461:Q492" si="492">(SUM(C461:F461))/4</f>
+        <f t="shared" ref="Q461:Q492" si="482">((SUM(C461:F461))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R461">
-        <f t="shared" ref="R461" si="493">(SUM(C463:F463))/4</f>
+        <f t="shared" ref="R461" si="483">((SUM(C463:F463))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S461">
-        <f t="shared" ref="S461" si="494">(SUM(C465:F465))/4</f>
+        <f t="shared" ref="S461" si="484">((SUM(C465:F465))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T461">
-        <f t="shared" ref="T461" si="495">(SUM(C467:F467))/4</f>
+        <f t="shared" ref="T461" si="485">((SUM(C467:F467))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U461">
-        <f t="shared" ref="U461" si="496">(SUM(C469:F469))/4</f>
+        <f t="shared" ref="U461" si="486">((SUM(C469:F469))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V461">
-        <f t="shared" ref="V461" si="497">(SUM(C461:F469))/20</f>
+        <f t="shared" ref="V461" si="487">((SUM(C461:F469))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W461">
-        <f t="shared" ref="W461" si="498">(SUM(G461:H469))/10</f>
+        <f t="shared" ref="W461" si="488">(SUM(G461:H469))/10</f>
         <v>19</v>
       </c>
       <c r="X461">
-        <f t="shared" ref="X461" si="499">(SUM(I461:I469))/5</f>
+        <f t="shared" ref="X461" si="489">(SUM(I461:I469))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y461">
-        <f t="shared" ref="Y461" si="500">SUM(K461:K469)-Z461</f>
+        <f t="shared" ref="Y461" si="490">SUM(K461:K469)-Z461</f>
         <v>33</v>
       </c>
       <c r="Z461">
-        <f t="shared" ref="Z461" si="501">SUM(L461:L469)</f>
+        <f t="shared" ref="Z461" si="491">SUM(L461:L469)</f>
         <v>3</v>
       </c>
       <c r="AA461" t="s">
@@ -69021,7 +69021,7 @@
         <v>30</v>
       </c>
       <c r="P462" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA462" t="s">
@@ -69075,7 +69075,7 @@
         <v>30</v>
       </c>
       <c r="P463" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA463" t="s">
@@ -69129,7 +69129,7 @@
         <v>30</v>
       </c>
       <c r="P464" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA464" t="s">
@@ -69183,7 +69183,7 @@
         <v>30</v>
       </c>
       <c r="P465" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA465" t="s">
@@ -69237,7 +69237,7 @@
         <v>30</v>
       </c>
       <c r="P466" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA466" t="s">
@@ -69291,7 +69291,7 @@
         <v>30</v>
       </c>
       <c r="P467" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA467" t="s">
@@ -69345,7 +69345,7 @@
         <v>30</v>
       </c>
       <c r="P468" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA468" t="s">
@@ -69399,7 +69399,7 @@
         <v>30</v>
       </c>
       <c r="P469" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA469" t="s">
@@ -69453,47 +69453,47 @@
         <v>240</v>
       </c>
       <c r="P470" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q470">
-        <f t="shared" ref="Q470:Q501" si="502">(SUM(C470:F470))/4</f>
+        <f t="shared" ref="Q470:Q501" si="492">((SUM(C470:F470))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R470">
-        <f t="shared" ref="R470" si="503">(SUM(C472:F472))/4</f>
+        <f t="shared" ref="R470" si="493">((SUM(C472:F472))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S470">
-        <f t="shared" ref="S470" si="504">(SUM(C474:F474))/4</f>
+        <f t="shared" ref="S470" si="494">((SUM(C474:F474))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T470">
-        <f t="shared" ref="T470" si="505">(SUM(C476:F476))/4</f>
+        <f t="shared" ref="T470" si="495">((SUM(C476:F476))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U470">
-        <f t="shared" ref="U470" si="506">(SUM(C478:F478))/4</f>
+        <f t="shared" ref="U470" si="496">((SUM(C478:F478))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V470">
-        <f t="shared" ref="V470" si="507">(SUM(C470:F478))/20</f>
+        <f t="shared" ref="V470" si="497">((SUM(C470:F478))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W470">
-        <f t="shared" ref="W470" si="508">(SUM(G470:H478))/10</f>
+        <f t="shared" ref="W470" si="498">(SUM(G470:H478))/10</f>
         <v>31</v>
       </c>
       <c r="X470">
-        <f t="shared" ref="X470" si="509">(SUM(I470:I478))/5</f>
+        <f t="shared" ref="X470" si="499">(SUM(I470:I478))/5</f>
         <v>3.4</v>
       </c>
       <c r="Y470">
-        <f t="shared" ref="Y470" si="510">SUM(K470:K478)-Z470</f>
+        <f t="shared" ref="Y470" si="500">SUM(K470:K478)-Z470</f>
         <v>42</v>
       </c>
       <c r="Z470">
-        <f t="shared" ref="Z470" si="511">SUM(L470:L478)</f>
+        <f t="shared" ref="Z470" si="501">SUM(L470:L478)</f>
         <v>4</v>
       </c>
       <c r="AA470" t="s">
@@ -69547,7 +69547,7 @@
         <v>30</v>
       </c>
       <c r="P471" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA471" t="s">
@@ -69601,7 +69601,7 @@
         <v>30</v>
       </c>
       <c r="P472" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA472" t="s">
@@ -69655,7 +69655,7 @@
         <v>30</v>
       </c>
       <c r="P473" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA473" t="s">
@@ -69709,7 +69709,7 @@
         <v>30</v>
       </c>
       <c r="P474" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA474" t="s">
@@ -69763,7 +69763,7 @@
         <v>30</v>
       </c>
       <c r="P475" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA475" t="s">
@@ -69817,7 +69817,7 @@
         <v>30</v>
       </c>
       <c r="P476" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA476" t="s">
@@ -69871,7 +69871,7 @@
         <v>30</v>
       </c>
       <c r="P477" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA477" t="s">
@@ -69925,7 +69925,7 @@
         <v>30</v>
       </c>
       <c r="P478" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA478" t="s">
@@ -69979,47 +69979,47 @@
         <v>240</v>
       </c>
       <c r="P479" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q479">
-        <f t="shared" ref="Q479:Q510" si="512">(SUM(C479:F479))/4</f>
+        <f t="shared" ref="Q479:Q510" si="502">((SUM(C479:F479))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R479">
-        <f t="shared" ref="R479" si="513">(SUM(C481:F481))/4</f>
+        <f t="shared" ref="R479" si="503">((SUM(C481:F481))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S479">
-        <f t="shared" ref="S479" si="514">(SUM(C483:F483))/4</f>
+        <f t="shared" ref="S479" si="504">((SUM(C483:F483))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T479">
-        <f t="shared" ref="T479" si="515">(SUM(C485:F485))/4</f>
+        <f t="shared" ref="T479" si="505">((SUM(C485:F485))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U479">
-        <f t="shared" ref="U479" si="516">(SUM(C487:F487))/4</f>
+        <f t="shared" ref="U479" si="506">((SUM(C487:F487))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V479">
-        <f t="shared" ref="V479" si="517">(SUM(C479:F487))/20</f>
+        <f t="shared" ref="V479" si="507">((SUM(C479:F487))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W479">
-        <f t="shared" ref="W479" si="518">(SUM(G479:H487))/10</f>
+        <f t="shared" ref="W479" si="508">(SUM(G479:H487))/10</f>
         <v>7</v>
       </c>
       <c r="X479">
-        <f t="shared" ref="X479" si="519">(SUM(I479:I487))/5</f>
+        <f t="shared" ref="X479" si="509">(SUM(I479:I487))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y479">
-        <f t="shared" ref="Y479" si="520">SUM(K479:K487)-Z479</f>
+        <f t="shared" ref="Y479" si="510">SUM(K479:K487)-Z479</f>
         <v>26</v>
       </c>
       <c r="Z479">
-        <f t="shared" ref="Z479" si="521">SUM(L479:L487)</f>
+        <f t="shared" ref="Z479" si="511">SUM(L479:L487)</f>
         <v>2</v>
       </c>
       <c r="AA479" t="s">
@@ -70073,7 +70073,7 @@
         <v>30</v>
       </c>
       <c r="P480" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA480" t="s">
@@ -70127,7 +70127,7 @@
         <v>30</v>
       </c>
       <c r="P481" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA481" t="s">
@@ -70181,7 +70181,7 @@
         <v>30</v>
       </c>
       <c r="P482" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA482" t="s">
@@ -70235,7 +70235,7 @@
         <v>30</v>
       </c>
       <c r="P483" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA483" t="s">
@@ -70289,7 +70289,7 @@
         <v>30</v>
       </c>
       <c r="P484" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA484" t="s">
@@ -70343,7 +70343,7 @@
         <v>30</v>
       </c>
       <c r="P485" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA485" t="s">
@@ -70397,7 +70397,7 @@
         <v>30</v>
       </c>
       <c r="P486" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA486" t="s">
@@ -70451,7 +70451,7 @@
         <v>30</v>
       </c>
       <c r="P487" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA487" t="s">
@@ -70505,47 +70505,47 @@
         <v>29</v>
       </c>
       <c r="P488">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>80</v>
       </c>
       <c r="Q488">
-        <f t="shared" ref="Q488:Q519" si="522">(SUM(C488:F488))/4</f>
+        <f t="shared" ref="Q488:Q519" si="512">((SUM(C488:F488))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R488">
-        <f t="shared" ref="R488" si="523">(SUM(C490:F490))/4</f>
+        <f t="shared" ref="R488" si="513">((SUM(C490:F490))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S488">
-        <f t="shared" ref="S488" si="524">(SUM(C492:F492))/4</f>
+        <f t="shared" ref="S488" si="514">((SUM(C492:F492))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T488">
-        <f t="shared" ref="T488" si="525">(SUM(C494:F494))/4</f>
+        <f t="shared" ref="T488" si="515">((SUM(C494:F494))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U488">
-        <f t="shared" ref="U488" si="526">(SUM(C496:F496))/4</f>
+        <f t="shared" ref="U488" si="516">((SUM(C496:F496))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V488">
-        <f t="shared" ref="V488" si="527">(SUM(C488:F496))/20</f>
+        <f t="shared" ref="V488" si="517">((SUM(C488:F496))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W488">
-        <f t="shared" ref="W488" si="528">(SUM(G488:H496))/10</f>
+        <f t="shared" ref="W488" si="518">(SUM(G488:H496))/10</f>
         <v>43.5</v>
       </c>
       <c r="X488">
-        <f t="shared" ref="X488" si="529">(SUM(I488:I496))/5</f>
+        <f t="shared" ref="X488" si="519">(SUM(I488:I496))/5</f>
         <v>2</v>
       </c>
       <c r="Y488">
-        <f t="shared" ref="Y488" si="530">SUM(K488:K496)-Z488</f>
+        <f t="shared" ref="Y488" si="520">SUM(K488:K496)-Z488</f>
         <v>10</v>
       </c>
       <c r="Z488">
-        <f t="shared" ref="Z488" si="531">SUM(L488:L496)</f>
+        <f t="shared" ref="Z488" si="521">SUM(L488:L496)</f>
         <v>8</v>
       </c>
       <c r="AA488" t="s">
@@ -70599,7 +70599,7 @@
         <v>30</v>
       </c>
       <c r="P489" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA489" t="s">
@@ -70653,7 +70653,7 @@
         <v>30</v>
       </c>
       <c r="P490" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA490" t="s">
@@ -70707,7 +70707,7 @@
         <v>30</v>
       </c>
       <c r="P491" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA491" t="s">
@@ -70761,7 +70761,7 @@
         <v>30</v>
       </c>
       <c r="P492" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA492" t="s">
@@ -70815,7 +70815,7 @@
         <v>30</v>
       </c>
       <c r="P493" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA493" t="s">
@@ -70869,7 +70869,7 @@
         <v>30</v>
       </c>
       <c r="P494" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA494" t="s">
@@ -70923,7 +70923,7 @@
         <v>30</v>
       </c>
       <c r="P495" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA495" t="s">
@@ -70977,7 +70977,7 @@
         <v>30</v>
       </c>
       <c r="P496" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA496" t="s">
@@ -71031,47 +71031,47 @@
         <v>43</v>
       </c>
       <c r="P497">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>50</v>
       </c>
       <c r="Q497">
-        <f t="shared" ref="Q497:Q528" si="532">(SUM(C497:F497))/4</f>
+        <f t="shared" ref="Q497:Q528" si="522">((SUM(C497:F497))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R497">
-        <f t="shared" ref="R497" si="533">(SUM(C499:F499))/4</f>
+        <f t="shared" ref="R497" si="523">((SUM(C499:F499))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S497">
-        <f t="shared" ref="S497" si="534">(SUM(C501:F501))/4</f>
+        <f t="shared" ref="S497" si="524">((SUM(C501:F501))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T497">
-        <f t="shared" ref="T497" si="535">(SUM(C503:F503))/4</f>
+        <f t="shared" ref="T497" si="525">((SUM(C503:F503))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U497">
-        <f t="shared" ref="U497" si="536">(SUM(C505:F505))/4</f>
+        <f t="shared" ref="U497" si="526">((SUM(C505:F505))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V497">
-        <f t="shared" ref="V497" si="537">(SUM(C497:F505))/20</f>
+        <f t="shared" ref="V497" si="527">((SUM(C497:F505))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W497">
-        <f t="shared" ref="W497" si="538">(SUM(G497:H505))/10</f>
+        <f t="shared" ref="W497" si="528">(SUM(G497:H505))/10</f>
         <v>81</v>
       </c>
       <c r="X497">
-        <f t="shared" ref="X497" si="539">(SUM(I497:I505))/5</f>
+        <f t="shared" ref="X497" si="529">(SUM(I497:I505))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y497">
-        <f t="shared" ref="Y497" si="540">SUM(K497:K505)-Z497</f>
+        <f t="shared" ref="Y497" si="530">SUM(K497:K505)-Z497</f>
         <v>30</v>
       </c>
       <c r="Z497">
-        <f t="shared" ref="Z497" si="541">SUM(L497:L505)</f>
+        <f t="shared" ref="Z497" si="531">SUM(L497:L505)</f>
         <v>0</v>
       </c>
       <c r="AA497" t="s">
@@ -71125,7 +71125,7 @@
         <v>30</v>
       </c>
       <c r="P498" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA498" t="s">
@@ -71179,7 +71179,7 @@
         <v>30</v>
       </c>
       <c r="P499" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA499" t="s">
@@ -71233,7 +71233,7 @@
         <v>30</v>
       </c>
       <c r="P500" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA500" t="s">
@@ -71287,7 +71287,7 @@
         <v>30</v>
       </c>
       <c r="P501" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA501" t="s">
@@ -71341,7 +71341,7 @@
         <v>30</v>
       </c>
       <c r="P502" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA502" t="s">
@@ -71395,7 +71395,7 @@
         <v>30</v>
       </c>
       <c r="P503" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA503" t="s">
@@ -71449,7 +71449,7 @@
         <v>30</v>
       </c>
       <c r="P504" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA504" t="s">
@@ -71503,7 +71503,7 @@
         <v>30</v>
       </c>
       <c r="P505" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA505" t="s">
@@ -71557,47 +71557,47 @@
         <v>784</v>
       </c>
       <c r="P506">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>100</v>
       </c>
       <c r="Q506">
-        <f t="shared" ref="Q506:Q537" si="542">(SUM(C506:F506))/4</f>
+        <f t="shared" ref="Q506:Q537" si="532">((SUM(C506:F506))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R506">
-        <f t="shared" ref="R506" si="543">(SUM(C508:F508))/4</f>
+        <f t="shared" ref="R506" si="533">((SUM(C508:F508))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S506">
-        <f t="shared" ref="S506" si="544">(SUM(C510:F510))/4</f>
+        <f t="shared" ref="S506" si="534">((SUM(C510:F510))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T506">
-        <f t="shared" ref="T506" si="545">(SUM(C512:F512))/4</f>
+        <f t="shared" ref="T506" si="535">((SUM(C512:F512))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U506">
-        <f t="shared" ref="U506" si="546">(SUM(C514:F514))/4</f>
+        <f t="shared" ref="U506" si="536">((SUM(C514:F514))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V506">
-        <f t="shared" ref="V506" si="547">(SUM(C506:F514))/20</f>
+        <f t="shared" ref="V506" si="537">((SUM(C506:F514))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W506">
-        <f t="shared" ref="W506" si="548">(SUM(G506:H514))/10</f>
+        <f t="shared" ref="W506" si="538">(SUM(G506:H514))/10</f>
         <v>16.2</v>
       </c>
       <c r="X506">
-        <f t="shared" ref="X506" si="549">(SUM(I506:I514))/5</f>
+        <f t="shared" ref="X506" si="539">(SUM(I506:I514))/5</f>
         <v>2</v>
       </c>
       <c r="Y506">
-        <f t="shared" ref="Y506" si="550">SUM(K506:K514)-Z506</f>
+        <f t="shared" ref="Y506" si="540">SUM(K506:K514)-Z506</f>
         <v>69</v>
       </c>
       <c r="Z506">
-        <f t="shared" ref="Z506" si="551">SUM(L506:L514)</f>
+        <f t="shared" ref="Z506" si="541">SUM(L506:L514)</f>
         <v>10</v>
       </c>
       <c r="AA506" t="s">
@@ -71651,7 +71651,7 @@
         <v>30</v>
       </c>
       <c r="P507" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA507" t="s">
@@ -71705,7 +71705,7 @@
         <v>30</v>
       </c>
       <c r="P508" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA508" t="s">
@@ -71759,7 +71759,7 @@
         <v>30</v>
       </c>
       <c r="P509" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA509" t="s">
@@ -71813,7 +71813,7 @@
         <v>30</v>
       </c>
       <c r="P510" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA510" t="s">
@@ -71867,7 +71867,7 @@
         <v>30</v>
       </c>
       <c r="P511" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA511" t="s">
@@ -71921,7 +71921,7 @@
         <v>30</v>
       </c>
       <c r="P512" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA512" t="s">
@@ -71975,7 +71975,7 @@
         <v>30</v>
       </c>
       <c r="P513" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA513" t="s">
@@ -72029,7 +72029,7 @@
         <v>30</v>
       </c>
       <c r="P514" t="e">
-        <f t="shared" si="481"/>
+        <f t="shared" si="471"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA514" t="s">
@@ -72083,47 +72083,47 @@
         <v>240</v>
       </c>
       <c r="P515">
-        <f t="shared" ref="P515:P578" si="552">M515*10</f>
+        <f t="shared" ref="P515:P578" si="542">M515*10</f>
         <v>30</v>
       </c>
       <c r="Q515">
-        <f t="shared" ref="Q515:Q546" si="553">(SUM(C515:F515))/4</f>
+        <f t="shared" ref="Q515:Q546" si="543">((SUM(C515:F515))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R515">
-        <f t="shared" ref="R515" si="554">(SUM(C517:F517))/4</f>
+        <f t="shared" ref="R515" si="544">((SUM(C517:F517))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S515">
-        <f t="shared" ref="S515" si="555">(SUM(C519:F519))/4</f>
+        <f t="shared" ref="S515" si="545">((SUM(C519:F519))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T515">
-        <f t="shared" ref="T515" si="556">(SUM(C521:F521))/4</f>
+        <f t="shared" ref="T515" si="546">((SUM(C521:F521))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U515">
-        <f t="shared" ref="U515" si="557">(SUM(C523:F523))/4</f>
+        <f t="shared" ref="U515" si="547">((SUM(C523:F523))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V515">
-        <f t="shared" ref="V515" si="558">(SUM(C515:F523))/20</f>
+        <f t="shared" ref="V515" si="548">((SUM(C515:F523))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W515">
-        <f t="shared" ref="W515" si="559">(SUM(G515:H523))/10</f>
+        <f t="shared" ref="W515" si="549">(SUM(G515:H523))/10</f>
         <v>5.5</v>
       </c>
       <c r="X515">
-        <f t="shared" ref="X515" si="560">(SUM(I515:I523))/5</f>
+        <f t="shared" ref="X515" si="550">(SUM(I515:I523))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y515">
-        <f t="shared" ref="Y515" si="561">SUM(K515:K523)-Z515</f>
+        <f t="shared" ref="Y515" si="551">SUM(K515:K523)-Z515</f>
         <v>23</v>
       </c>
       <c r="Z515">
-        <f t="shared" ref="Z515" si="562">SUM(L515:L523)</f>
+        <f t="shared" ref="Z515" si="552">SUM(L515:L523)</f>
         <v>3</v>
       </c>
       <c r="AA515" t="s">
@@ -72177,7 +72177,7 @@
         <v>30</v>
       </c>
       <c r="P516" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA516" t="s">
@@ -72231,7 +72231,7 @@
         <v>30</v>
       </c>
       <c r="P517" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA517" t="s">
@@ -72285,7 +72285,7 @@
         <v>30</v>
       </c>
       <c r="P518" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA518" t="s">
@@ -72339,7 +72339,7 @@
         <v>30</v>
       </c>
       <c r="P519" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA519" t="s">
@@ -72393,7 +72393,7 @@
         <v>30</v>
       </c>
       <c r="P520" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA520" t="s">
@@ -72447,7 +72447,7 @@
         <v>30</v>
       </c>
       <c r="P521" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA521" t="s">
@@ -72501,7 +72501,7 @@
         <v>30</v>
       </c>
       <c r="P522" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA522" t="s">
@@ -72555,7 +72555,7 @@
         <v>30</v>
       </c>
       <c r="P523" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA523" t="s">
@@ -72609,47 +72609,47 @@
         <v>240</v>
       </c>
       <c r="P524">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>60</v>
       </c>
       <c r="Q524">
-        <f t="shared" ref="Q524:Q555" si="563">(SUM(C524:F524))/4</f>
+        <f t="shared" ref="Q524:Q555" si="553">((SUM(C524:F524))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R524">
-        <f t="shared" ref="R524" si="564">(SUM(C526:F526))/4</f>
+        <f t="shared" ref="R524" si="554">((SUM(C526:F526))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S524">
-        <f t="shared" ref="S524" si="565">(SUM(C528:F528))/4</f>
+        <f t="shared" ref="S524" si="555">((SUM(C528:F528))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T524">
-        <f t="shared" ref="T524" si="566">(SUM(C530:F530))/4</f>
+        <f t="shared" ref="T524" si="556">((SUM(C530:F530))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U524">
-        <f t="shared" ref="U524" si="567">(SUM(C532:F532))/4</f>
+        <f t="shared" ref="U524" si="557">((SUM(C532:F532))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V524">
-        <f t="shared" ref="V524" si="568">(SUM(C524:F532))/20</f>
+        <f t="shared" ref="V524" si="558">((SUM(C524:F532))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W524">
-        <f t="shared" ref="W524" si="569">(SUM(G524:H532))/10</f>
+        <f t="shared" ref="W524" si="559">(SUM(G524:H532))/10</f>
         <v>11</v>
       </c>
       <c r="X524">
-        <f t="shared" ref="X524" si="570">(SUM(I524:I532))/5</f>
+        <f t="shared" ref="X524" si="560">(SUM(I524:I532))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y524">
-        <f t="shared" ref="Y524" si="571">SUM(K524:K532)-Z524</f>
+        <f t="shared" ref="Y524" si="561">SUM(K524:K532)-Z524</f>
         <v>23</v>
       </c>
       <c r="Z524">
-        <f t="shared" ref="Z524" si="572">SUM(L524:L532)</f>
+        <f t="shared" ref="Z524" si="562">SUM(L524:L532)</f>
         <v>3</v>
       </c>
       <c r="AA524" t="s">
@@ -72703,7 +72703,7 @@
         <v>30</v>
       </c>
       <c r="P525" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA525" t="s">
@@ -72757,7 +72757,7 @@
         <v>30</v>
       </c>
       <c r="P526" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA526" t="s">
@@ -72811,7 +72811,7 @@
         <v>30</v>
       </c>
       <c r="P527" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA527" t="s">
@@ -72865,7 +72865,7 @@
         <v>30</v>
       </c>
       <c r="P528" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA528" t="s">
@@ -72919,7 +72919,7 @@
         <v>30</v>
       </c>
       <c r="P529" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA529" t="s">
@@ -72973,7 +72973,7 @@
         <v>30</v>
       </c>
       <c r="P530" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA530" t="s">
@@ -73027,7 +73027,7 @@
         <v>30</v>
       </c>
       <c r="P531" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA531" t="s">
@@ -73081,7 +73081,7 @@
         <v>30</v>
       </c>
       <c r="P532" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA532" t="s">
@@ -73135,47 +73135,47 @@
         <v>240</v>
       </c>
       <c r="P533">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>70</v>
       </c>
       <c r="Q533">
-        <f t="shared" ref="Q533:Q564" si="573">(SUM(C533:F533))/4</f>
+        <f t="shared" ref="Q533:Q564" si="563">((SUM(C533:F533))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R533">
-        <f t="shared" ref="R533" si="574">(SUM(C535:F535))/4</f>
+        <f t="shared" ref="R533" si="564">((SUM(C535:F535))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S533">
-        <f t="shared" ref="S533" si="575">(SUM(C537:F537))/4</f>
+        <f t="shared" ref="S533" si="565">((SUM(C537:F537))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T533">
-        <f t="shared" ref="T533" si="576">(SUM(C539:F539))/4</f>
+        <f t="shared" ref="T533" si="566">((SUM(C539:F539))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U533">
-        <f t="shared" ref="U533" si="577">(SUM(C541:F541))/4</f>
+        <f t="shared" ref="U533" si="567">((SUM(C541:F541))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V533">
-        <f t="shared" ref="V533" si="578">(SUM(C533:F541))/20</f>
+        <f t="shared" ref="V533" si="568">((SUM(C533:F541))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W533">
-        <f t="shared" ref="W533" si="579">(SUM(G533:H541))/10</f>
+        <f t="shared" ref="W533" si="569">(SUM(G533:H541))/10</f>
         <v>4.5</v>
       </c>
       <c r="X533">
-        <f t="shared" ref="X533" si="580">(SUM(I533:I541))/5</f>
+        <f t="shared" ref="X533" si="570">(SUM(I533:I541))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y533">
-        <f t="shared" ref="Y533" si="581">SUM(K533:K541)-Z533</f>
+        <f t="shared" ref="Y533" si="571">SUM(K533:K541)-Z533</f>
         <v>19</v>
       </c>
       <c r="Z533">
-        <f t="shared" ref="Z533" si="582">SUM(L533:L541)</f>
+        <f t="shared" ref="Z533" si="572">SUM(L533:L541)</f>
         <v>4</v>
       </c>
       <c r="AA533" t="s">
@@ -73229,7 +73229,7 @@
         <v>30</v>
       </c>
       <c r="P534" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA534" t="s">
@@ -73283,7 +73283,7 @@
         <v>30</v>
       </c>
       <c r="P535" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA535" t="s">
@@ -73337,7 +73337,7 @@
         <v>30</v>
       </c>
       <c r="P536" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA536" t="s">
@@ -73391,7 +73391,7 @@
         <v>30</v>
       </c>
       <c r="P537" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA537" t="s">
@@ -73445,7 +73445,7 @@
         <v>30</v>
       </c>
       <c r="P538" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA538" t="s">
@@ -73499,7 +73499,7 @@
         <v>30</v>
       </c>
       <c r="P539" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA539" t="s">
@@ -73553,7 +73553,7 @@
         <v>30</v>
       </c>
       <c r="P540" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA540" t="s">
@@ -73607,7 +73607,7 @@
         <v>30</v>
       </c>
       <c r="P541" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA541" t="s">
@@ -73661,47 +73661,47 @@
         <v>240</v>
       </c>
       <c r="P542">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>50</v>
       </c>
       <c r="Q542">
-        <f t="shared" ref="Q542:Q573" si="583">(SUM(C542:F542))/4</f>
+        <f t="shared" ref="Q542:Q573" si="573">((SUM(C542:F542))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R542">
-        <f t="shared" ref="R542" si="584">(SUM(C544:F544))/4</f>
+        <f t="shared" ref="R542" si="574">((SUM(C544:F544))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S542">
-        <f t="shared" ref="S542" si="585">(SUM(C546:F546))/4</f>
+        <f t="shared" ref="S542" si="575">((SUM(C546:F546))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T542">
-        <f t="shared" ref="T542" si="586">(SUM(C548:F548))/4</f>
+        <f t="shared" ref="T542" si="576">((SUM(C548:F548))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U542">
-        <f t="shared" ref="U542" si="587">(SUM(C550:F550))/4</f>
+        <f t="shared" ref="U542" si="577">((SUM(C550:F550))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V542">
-        <f t="shared" ref="V542" si="588">(SUM(C542:F550))/20</f>
+        <f t="shared" ref="V542" si="578">((SUM(C542:F550))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W542">
-        <f t="shared" ref="W542" si="589">(SUM(G542:H550))/10</f>
+        <f t="shared" ref="W542" si="579">(SUM(G542:H550))/10</f>
         <v>35.5</v>
       </c>
       <c r="X542">
-        <f t="shared" ref="X542" si="590">(SUM(I542:I550))/5</f>
+        <f t="shared" ref="X542" si="580">(SUM(I542:I550))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y542">
-        <f t="shared" ref="Y542" si="591">SUM(K542:K550)-Z542</f>
+        <f t="shared" ref="Y542" si="581">SUM(K542:K550)-Z542</f>
         <v>10</v>
       </c>
       <c r="Z542">
-        <f t="shared" ref="Z542" si="592">SUM(L542:L550)</f>
+        <f t="shared" ref="Z542" si="582">SUM(L542:L550)</f>
         <v>0</v>
       </c>
       <c r="AA542" t="s">
@@ -73755,7 +73755,7 @@
         <v>30</v>
       </c>
       <c r="P543" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA543" t="s">
@@ -73809,7 +73809,7 @@
         <v>30</v>
       </c>
       <c r="P544" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA544" t="s">
@@ -73863,7 +73863,7 @@
         <v>30</v>
       </c>
       <c r="P545" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA545" t="s">
@@ -73917,7 +73917,7 @@
         <v>30</v>
       </c>
       <c r="P546" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA546" t="s">
@@ -73971,7 +73971,7 @@
         <v>30</v>
       </c>
       <c r="P547" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA547" t="s">
@@ -74025,7 +74025,7 @@
         <v>30</v>
       </c>
       <c r="P548" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA548" t="s">
@@ -74079,7 +74079,7 @@
         <v>30</v>
       </c>
       <c r="P549" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA549" t="s">
@@ -74133,7 +74133,7 @@
         <v>30</v>
       </c>
       <c r="P550" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA550" t="s">
@@ -74187,47 +74187,47 @@
         <v>240</v>
       </c>
       <c r="P551">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>50</v>
       </c>
       <c r="Q551">
-        <f t="shared" ref="Q551:Q582" si="593">(SUM(C551:F551))/4</f>
+        <f t="shared" ref="Q551:Q582" si="583">((SUM(C551:F551))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R551">
-        <f t="shared" ref="R551" si="594">(SUM(C553:F553))/4</f>
+        <f t="shared" ref="R551" si="584">((SUM(C553:F553))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S551">
-        <f t="shared" ref="S551" si="595">(SUM(C555:F555))/4</f>
+        <f t="shared" ref="S551" si="585">((SUM(C555:F555))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T551">
-        <f t="shared" ref="T551" si="596">(SUM(C557:F557))/4</f>
+        <f t="shared" ref="T551" si="586">((SUM(C557:F557))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U551">
-        <f t="shared" ref="U551" si="597">(SUM(C559:F559))/4</f>
+        <f t="shared" ref="U551" si="587">((SUM(C559:F559))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V551">
-        <f t="shared" ref="V551" si="598">(SUM(C551:F559))/20</f>
+        <f t="shared" ref="V551" si="588">((SUM(C551:F559))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W551">
-        <f t="shared" ref="W551" si="599">(SUM(G551:H559))/10</f>
+        <f t="shared" ref="W551" si="589">(SUM(G551:H559))/10</f>
         <v>49</v>
       </c>
       <c r="X551">
-        <f t="shared" ref="X551" si="600">(SUM(I551:I559))/5</f>
+        <f t="shared" ref="X551" si="590">(SUM(I551:I559))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y551">
-        <f t="shared" ref="Y551" si="601">SUM(K551:K559)-Z551</f>
+        <f t="shared" ref="Y551" si="591">SUM(K551:K559)-Z551</f>
         <v>17</v>
       </c>
       <c r="Z551">
-        <f t="shared" ref="Z551" si="602">SUM(L551:L559)</f>
+        <f t="shared" ref="Z551" si="592">SUM(L551:L559)</f>
         <v>0</v>
       </c>
       <c r="AA551" t="s">
@@ -74281,7 +74281,7 @@
         <v>30</v>
       </c>
       <c r="P552" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA552" t="s">
@@ -74335,7 +74335,7 @@
         <v>30</v>
       </c>
       <c r="P553" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA553" t="s">
@@ -74389,7 +74389,7 @@
         <v>30</v>
       </c>
       <c r="P554" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA554" t="s">
@@ -74443,7 +74443,7 @@
         <v>30</v>
       </c>
       <c r="P555" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA555" t="s">
@@ -74497,7 +74497,7 @@
         <v>30</v>
       </c>
       <c r="P556" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA556" t="s">
@@ -74551,7 +74551,7 @@
         <v>30</v>
       </c>
       <c r="P557" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA557" t="s">
@@ -74605,7 +74605,7 @@
         <v>30</v>
       </c>
       <c r="P558" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA558" t="s">
@@ -74659,7 +74659,7 @@
         <v>30</v>
       </c>
       <c r="P559" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA559" t="s">
@@ -74713,47 +74713,47 @@
         <v>29</v>
       </c>
       <c r="P560">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>70</v>
       </c>
       <c r="Q560">
-        <f t="shared" ref="Q560:Q591" si="603">(SUM(C560:F560))/4</f>
+        <f t="shared" ref="Q560:Q591" si="593">((SUM(C560:F560))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R560">
-        <f t="shared" ref="R560" si="604">(SUM(C562:F562))/4</f>
+        <f t="shared" ref="R560" si="594">((SUM(C562:F562))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S560">
-        <f t="shared" ref="S560" si="605">(SUM(C564:F564))/4</f>
+        <f t="shared" ref="S560" si="595">((SUM(C564:F564))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T560">
-        <f t="shared" ref="T560" si="606">(SUM(C566:F566))/4</f>
+        <f t="shared" ref="T560" si="596">((SUM(C566:F566))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U560">
-        <f t="shared" ref="U560" si="607">(SUM(C568:F568))/4</f>
+        <f t="shared" ref="U560" si="597">((SUM(C568:F568))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V560">
-        <f t="shared" ref="V560" si="608">(SUM(C560:F568))/20</f>
+        <f t="shared" ref="V560" si="598">((SUM(C560:F568))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W560">
-        <f t="shared" ref="W560" si="609">(SUM(G560:H568))/10</f>
+        <f t="shared" ref="W560" si="599">(SUM(G560:H568))/10</f>
         <v>11.8</v>
       </c>
       <c r="X560">
-        <f t="shared" ref="X560" si="610">(SUM(I560:I568))/5</f>
+        <f t="shared" ref="X560" si="600">(SUM(I560:I568))/5</f>
         <v>2</v>
       </c>
       <c r="Y560">
-        <f t="shared" ref="Y560" si="611">SUM(K560:K568)-Z560</f>
+        <f t="shared" ref="Y560" si="601">SUM(K560:K568)-Z560</f>
         <v>10</v>
       </c>
       <c r="Z560">
-        <f t="shared" ref="Z560" si="612">SUM(L560:L568)</f>
+        <f t="shared" ref="Z560" si="602">SUM(L560:L568)</f>
         <v>7</v>
       </c>
       <c r="AA560" t="s">
@@ -74807,7 +74807,7 @@
         <v>30</v>
       </c>
       <c r="P561" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA561" t="s">
@@ -74861,7 +74861,7 @@
         <v>30</v>
       </c>
       <c r="P562" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA562" t="s">
@@ -74915,7 +74915,7 @@
         <v>30</v>
       </c>
       <c r="P563" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA563" t="s">
@@ -74969,7 +74969,7 @@
         <v>30</v>
       </c>
       <c r="P564" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA564" t="s">
@@ -75023,7 +75023,7 @@
         <v>30</v>
       </c>
       <c r="P565" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA565" t="s">
@@ -75077,7 +75077,7 @@
         <v>30</v>
       </c>
       <c r="P566" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA566" t="s">
@@ -75131,7 +75131,7 @@
         <v>30</v>
       </c>
       <c r="P567" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA567" t="s">
@@ -75185,7 +75185,7 @@
         <v>30</v>
       </c>
       <c r="P568" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA568" t="s">
@@ -75239,47 +75239,47 @@
         <v>29</v>
       </c>
       <c r="P569" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q569">
-        <f t="shared" ref="Q569:Q600" si="613">(SUM(C569:F569))/4</f>
+        <f t="shared" ref="Q569:Q600" si="603">((SUM(C569:F569))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R569">
-        <f t="shared" ref="R569" si="614">(SUM(C571:F571))/4</f>
+        <f t="shared" ref="R569" si="604">((SUM(C571:F571))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S569">
-        <f t="shared" ref="S569" si="615">(SUM(C573:F573))/4</f>
+        <f t="shared" ref="S569" si="605">((SUM(C573:F573))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T569">
-        <f t="shared" ref="T569" si="616">(SUM(C575:F575))/4</f>
+        <f t="shared" ref="T569" si="606">((SUM(C575:F575))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U569">
-        <f t="shared" ref="U569" si="617">(SUM(C577:F577))/4</f>
+        <f t="shared" ref="U569" si="607">((SUM(C577:F577))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V569">
-        <f t="shared" ref="V569" si="618">(SUM(C569:F577))/20</f>
+        <f t="shared" ref="V569" si="608">((SUM(C569:F577))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W569">
-        <f t="shared" ref="W569" si="619">(SUM(G569:H577))/10</f>
+        <f t="shared" ref="W569" si="609">(SUM(G569:H577))/10</f>
         <v>3</v>
       </c>
       <c r="X569">
-        <f t="shared" ref="X569" si="620">(SUM(I569:I577))/5</f>
+        <f t="shared" ref="X569" si="610">(SUM(I569:I577))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y569">
-        <f t="shared" ref="Y569" si="621">SUM(K569:K577)-Z569</f>
+        <f t="shared" ref="Y569" si="611">SUM(K569:K577)-Z569</f>
         <v>7</v>
       </c>
       <c r="Z569">
-        <f t="shared" ref="Z569" si="622">SUM(L569:L577)</f>
+        <f t="shared" ref="Z569" si="612">SUM(L569:L577)</f>
         <v>7</v>
       </c>
       <c r="AA569" t="s">
@@ -75333,7 +75333,7 @@
         <v>30</v>
       </c>
       <c r="P570" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA570" t="s">
@@ -75387,7 +75387,7 @@
         <v>30</v>
       </c>
       <c r="P571" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA571" t="s">
@@ -75441,7 +75441,7 @@
         <v>30</v>
       </c>
       <c r="P572" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA572" t="s">
@@ -75495,7 +75495,7 @@
         <v>30</v>
       </c>
       <c r="P573" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA573" t="s">
@@ -75549,7 +75549,7 @@
         <v>30</v>
       </c>
       <c r="P574" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA574" t="s">
@@ -75603,7 +75603,7 @@
         <v>30</v>
       </c>
       <c r="P575" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA575" t="s">
@@ -75657,7 +75657,7 @@
         <v>30</v>
       </c>
       <c r="P576" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA576" t="s">
@@ -75711,7 +75711,7 @@
         <v>30</v>
       </c>
       <c r="P577" t="e">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA577" t="s">
@@ -75765,47 +75765,47 @@
         <v>29</v>
       </c>
       <c r="P578">
-        <f t="shared" si="552"/>
+        <f t="shared" si="542"/>
         <v>120</v>
       </c>
       <c r="Q578">
-        <f t="shared" ref="Q578:Q609" si="623">(SUM(C578:F578))/4</f>
+        <f t="shared" ref="Q578:Q609" si="613">((SUM(C578:F578))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R578">
-        <f t="shared" ref="R578" si="624">(SUM(C580:F580))/4</f>
+        <f t="shared" ref="R578" si="614">((SUM(C580:F580))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S578">
-        <f t="shared" ref="S578" si="625">(SUM(C582:F582))/4</f>
+        <f t="shared" ref="S578" si="615">((SUM(C582:F582))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T578">
-        <f t="shared" ref="T578" si="626">(SUM(C584:F584))/4</f>
+        <f t="shared" ref="T578" si="616">((SUM(C584:F584))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U578">
-        <f t="shared" ref="U578" si="627">(SUM(C586:F586))/4</f>
+        <f t="shared" ref="U578" si="617">((SUM(C586:F586))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V578">
-        <f t="shared" ref="V578" si="628">(SUM(C578:F586))/20</f>
+        <f t="shared" ref="V578" si="618">((SUM(C578:F586))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W578">
-        <f t="shared" ref="W578" si="629">(SUM(G578:H586))/10</f>
+        <f t="shared" ref="W578" si="619">(SUM(G578:H586))/10</f>
         <v>0.3</v>
       </c>
       <c r="X578">
-        <f t="shared" ref="X578" si="630">(SUM(I578:I586))/5</f>
+        <f t="shared" ref="X578" si="620">(SUM(I578:I586))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y578">
-        <f t="shared" ref="Y578" si="631">SUM(K578:K586)-Z578</f>
+        <f t="shared" ref="Y578" si="621">SUM(K578:K586)-Z578</f>
         <v>77</v>
       </c>
       <c r="Z578">
-        <f t="shared" ref="Z578" si="632">SUM(L578:L586)</f>
+        <f t="shared" ref="Z578" si="622">SUM(L578:L586)</f>
         <v>10</v>
       </c>
       <c r="AA578" t="s">
@@ -75859,7 +75859,7 @@
         <v>30</v>
       </c>
       <c r="P579" t="e">
-        <f t="shared" ref="P579:P642" si="633">M579*10</f>
+        <f t="shared" ref="P579:P642" si="623">M579*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA579" t="s">
@@ -75913,7 +75913,7 @@
         <v>30</v>
       </c>
       <c r="P580" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA580" t="s">
@@ -75967,7 +75967,7 @@
         <v>30</v>
       </c>
       <c r="P581" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA581" t="s">
@@ -76021,7 +76021,7 @@
         <v>30</v>
       </c>
       <c r="P582" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA582" t="s">
@@ -76075,7 +76075,7 @@
         <v>30</v>
       </c>
       <c r="P583" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA583" t="s">
@@ -76129,7 +76129,7 @@
         <v>30</v>
       </c>
       <c r="P584" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA584" t="s">
@@ -76183,7 +76183,7 @@
         <v>30</v>
       </c>
       <c r="P585" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA585" t="s">
@@ -76237,7 +76237,7 @@
         <v>30</v>
       </c>
       <c r="P586" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA586" t="s">
@@ -76291,47 +76291,47 @@
         <v>29</v>
       </c>
       <c r="P587">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>160</v>
       </c>
       <c r="Q587">
-        <f t="shared" ref="Q587:Q618" si="634">(SUM(C587:F587))/4</f>
+        <f t="shared" ref="Q587:Q618" si="624">((SUM(C587:F587))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R587">
-        <f t="shared" ref="R587" si="635">(SUM(C589:F589))/4</f>
+        <f t="shared" ref="R587" si="625">((SUM(C589:F589))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S587">
-        <f t="shared" ref="S587" si="636">(SUM(C591:F591))/4</f>
+        <f t="shared" ref="S587" si="626">((SUM(C591:F591))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T587">
-        <f t="shared" ref="T587" si="637">(SUM(C593:F593))/4</f>
+        <f t="shared" ref="T587" si="627">((SUM(C593:F593))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U587">
-        <f t="shared" ref="U587" si="638">(SUM(C595:F595))/4</f>
+        <f t="shared" ref="U587" si="628">((SUM(C595:F595))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V587">
-        <f t="shared" ref="V587" si="639">(SUM(C587:F595))/20</f>
+        <f t="shared" ref="V587" si="629">((SUM(C587:F595))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W587">
-        <f t="shared" ref="W587" si="640">(SUM(G587:H595))/10</f>
+        <f t="shared" ref="W587" si="630">(SUM(G587:H595))/10</f>
         <v>0.5</v>
       </c>
       <c r="X587">
-        <f t="shared" ref="X587" si="641">(SUM(I587:I595))/5</f>
+        <f t="shared" ref="X587" si="631">(SUM(I587:I595))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y587">
-        <f t="shared" ref="Y587" si="642">SUM(K587:K595)-Z587</f>
+        <f t="shared" ref="Y587" si="632">SUM(K587:K595)-Z587</f>
         <v>62</v>
       </c>
       <c r="Z587">
-        <f t="shared" ref="Z587" si="643">SUM(L587:L595)</f>
+        <f t="shared" ref="Z587" si="633">SUM(L587:L595)</f>
         <v>14</v>
       </c>
       <c r="AA587" t="s">
@@ -76385,7 +76385,7 @@
         <v>30</v>
       </c>
       <c r="P588" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA588" t="s">
@@ -76439,7 +76439,7 @@
         <v>30</v>
       </c>
       <c r="P589" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA589" t="s">
@@ -76493,7 +76493,7 @@
         <v>30</v>
       </c>
       <c r="P590" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA590" t="s">
@@ -76547,7 +76547,7 @@
         <v>30</v>
       </c>
       <c r="P591" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA591" t="s">
@@ -76601,7 +76601,7 @@
         <v>30</v>
       </c>
       <c r="P592" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA592" t="s">
@@ -76655,7 +76655,7 @@
         <v>30</v>
       </c>
       <c r="P593" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA593" t="s">
@@ -76709,7 +76709,7 @@
         <v>30</v>
       </c>
       <c r="P594" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA594" t="s">
@@ -76763,7 +76763,7 @@
         <v>30</v>
       </c>
       <c r="P595" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA595" t="s">
@@ -76817,47 +76817,47 @@
         <v>29</v>
       </c>
       <c r="P596">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>150</v>
       </c>
       <c r="Q596">
-        <f t="shared" ref="Q596:Q627" si="644">(SUM(C596:F596))/4</f>
+        <f t="shared" ref="Q596:Q627" si="634">((SUM(C596:F596))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R596">
-        <f t="shared" ref="R596" si="645">(SUM(C598:F598))/4</f>
+        <f t="shared" ref="R596" si="635">((SUM(C598:F598))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S596">
-        <f t="shared" ref="S596" si="646">(SUM(C600:F600))/4</f>
+        <f t="shared" ref="S596" si="636">((SUM(C600:F600))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T596">
-        <f t="shared" ref="T596" si="647">(SUM(C602:F602))/4</f>
+        <f t="shared" ref="T596" si="637">((SUM(C602:F602))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U596">
-        <f t="shared" ref="U596" si="648">(SUM(C604:F604))/4</f>
+        <f t="shared" ref="U596" si="638">((SUM(C604:F604))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V596">
-        <f t="shared" ref="V596" si="649">(SUM(C596:F604))/20</f>
+        <f t="shared" ref="V596" si="639">((SUM(C596:F604))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W596">
-        <f t="shared" ref="W596" si="650">(SUM(G596:H604))/10</f>
+        <f t="shared" ref="W596" si="640">(SUM(G596:H604))/10</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="X596">
-        <f t="shared" ref="X596" si="651">(SUM(I596:I604))/5</f>
+        <f t="shared" ref="X596" si="641">(SUM(I596:I604))/5</f>
         <v>2</v>
       </c>
       <c r="Y596">
-        <f t="shared" ref="Y596" si="652">SUM(K596:K604)-Z596</f>
+        <f t="shared" ref="Y596" si="642">SUM(K596:K604)-Z596</f>
         <v>29</v>
       </c>
       <c r="Z596">
-        <f t="shared" ref="Z596" si="653">SUM(L596:L604)</f>
+        <f t="shared" ref="Z596" si="643">SUM(L596:L604)</f>
         <v>8</v>
       </c>
       <c r="AA596" t="s">
@@ -76911,7 +76911,7 @@
         <v>30</v>
       </c>
       <c r="P597" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA597" t="s">
@@ -76965,7 +76965,7 @@
         <v>30</v>
       </c>
       <c r="P598" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA598" t="s">
@@ -77019,7 +77019,7 @@
         <v>30</v>
       </c>
       <c r="P599" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA599" t="s">
@@ -77073,7 +77073,7 @@
         <v>30</v>
       </c>
       <c r="P600" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA600" t="s">
@@ -77127,7 +77127,7 @@
         <v>30</v>
       </c>
       <c r="P601" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA601" t="s">
@@ -77181,7 +77181,7 @@
         <v>30</v>
       </c>
       <c r="P602" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA602" t="s">
@@ -77235,7 +77235,7 @@
         <v>30</v>
       </c>
       <c r="P603" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA603" t="s">
@@ -77289,7 +77289,7 @@
         <v>30</v>
       </c>
       <c r="P604" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA604" t="s">
@@ -77343,47 +77343,47 @@
         <v>29</v>
       </c>
       <c r="P605">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>190</v>
       </c>
       <c r="Q605">
-        <f t="shared" ref="Q605:Q649" si="654">(SUM(C605:F605))/4</f>
+        <f t="shared" ref="Q605:Q649" si="644">((SUM(C605:F605))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R605">
-        <f t="shared" ref="R605" si="655">(SUM(C607:F607))/4</f>
+        <f t="shared" ref="R605" si="645">((SUM(C607:F607))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S605">
-        <f t="shared" ref="S605" si="656">(SUM(C609:F609))/4</f>
+        <f t="shared" ref="S605" si="646">((SUM(C609:F609))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T605">
-        <f t="shared" ref="T605" si="657">(SUM(C611:F611))/4</f>
+        <f t="shared" ref="T605" si="647">((SUM(C611:F611))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U605">
-        <f t="shared" ref="U605" si="658">(SUM(C613:F613))/4</f>
+        <f t="shared" ref="U605" si="648">((SUM(C613:F613))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V605">
-        <f t="shared" ref="V605" si="659">(SUM(C605:F613))/20</f>
+        <f t="shared" ref="V605" si="649">((SUM(C605:F613))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W605">
-        <f t="shared" ref="W605" si="660">(SUM(G605:H613))/10</f>
+        <f t="shared" ref="W605" si="650">(SUM(G605:H613))/10</f>
         <v>1.8</v>
       </c>
       <c r="X605">
-        <f t="shared" ref="X605" si="661">(SUM(I605:I613))/5</f>
+        <f t="shared" ref="X605" si="651">(SUM(I605:I613))/5</f>
         <v>3</v>
       </c>
       <c r="Y605">
-        <f t="shared" ref="Y605" si="662">SUM(K605:K613)-Z605</f>
+        <f t="shared" ref="Y605" si="652">SUM(K605:K613)-Z605</f>
         <v>93</v>
       </c>
       <c r="Z605">
-        <f t="shared" ref="Z605" si="663">SUM(L605:L613)</f>
+        <f t="shared" ref="Z605" si="653">SUM(L605:L613)</f>
         <v>2</v>
       </c>
       <c r="AA605" t="s">
@@ -77437,7 +77437,7 @@
         <v>30</v>
       </c>
       <c r="P606" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA606" t="s">
@@ -77491,7 +77491,7 @@
         <v>30</v>
       </c>
       <c r="P607" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA607" t="s">
@@ -77545,7 +77545,7 @@
         <v>30</v>
       </c>
       <c r="P608" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA608" t="s">
@@ -77599,7 +77599,7 @@
         <v>30</v>
       </c>
       <c r="P609" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA609" t="s">
@@ -77653,7 +77653,7 @@
         <v>30</v>
       </c>
       <c r="P610" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA610" t="s">
@@ -77707,7 +77707,7 @@
         <v>30</v>
       </c>
       <c r="P611" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA611" t="s">
@@ -77761,7 +77761,7 @@
         <v>30</v>
       </c>
       <c r="P612" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA612" t="s">
@@ -77815,7 +77815,7 @@
         <v>30</v>
       </c>
       <c r="P613" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA613" t="s">
@@ -77869,47 +77869,47 @@
         <v>29</v>
       </c>
       <c r="P614" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q614">
-        <f t="shared" ref="Q614:Q649" si="664">(SUM(C614:F614))/4</f>
+        <f t="shared" ref="Q614:Q649" si="654">((SUM(C614:F614))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R614">
-        <f t="shared" ref="R614" si="665">(SUM(C616:F616))/4</f>
+        <f t="shared" ref="R614" si="655">((SUM(C616:F616))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S614">
-        <f t="shared" ref="S614" si="666">(SUM(C618:F618))/4</f>
+        <f t="shared" ref="S614" si="656">((SUM(C618:F618))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T614">
-        <f t="shared" ref="T614" si="667">(SUM(C620:F620))/4</f>
+        <f t="shared" ref="T614" si="657">((SUM(C620:F620))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U614">
-        <f t="shared" ref="U614" si="668">(SUM(C622:F622))/4</f>
+        <f t="shared" ref="U614" si="658">((SUM(C622:F622))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V614">
-        <f t="shared" ref="V614" si="669">(SUM(C614:F622))/20</f>
+        <f t="shared" ref="V614" si="659">((SUM(C614:F622))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W614">
-        <f t="shared" ref="W614" si="670">(SUM(G614:H622))/10</f>
+        <f t="shared" ref="W614" si="660">(SUM(G614:H622))/10</f>
         <v>19.5</v>
       </c>
       <c r="X614">
-        <f t="shared" ref="X614" si="671">(SUM(I614:I622))/5</f>
+        <f t="shared" ref="X614" si="661">(SUM(I614:I622))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y614">
-        <f t="shared" ref="Y614" si="672">SUM(K614:K622)-Z614</f>
+        <f t="shared" ref="Y614" si="662">SUM(K614:K622)-Z614</f>
         <v>2</v>
       </c>
       <c r="Z614">
-        <f t="shared" ref="Z614" si="673">SUM(L614:L622)</f>
+        <f t="shared" ref="Z614" si="663">SUM(L614:L622)</f>
         <v>9</v>
       </c>
       <c r="AA614" t="s">
@@ -77963,7 +77963,7 @@
         <v>30</v>
       </c>
       <c r="P615" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA615" t="s">
@@ -78017,7 +78017,7 @@
         <v>30</v>
       </c>
       <c r="P616" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA616" t="s">
@@ -78071,7 +78071,7 @@
         <v>30</v>
       </c>
       <c r="P617" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA617" t="s">
@@ -78125,7 +78125,7 @@
         <v>30</v>
       </c>
       <c r="P618" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA618" t="s">
@@ -78179,7 +78179,7 @@
         <v>30</v>
       </c>
       <c r="P619" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA619" t="s">
@@ -78233,7 +78233,7 @@
         <v>30</v>
       </c>
       <c r="P620" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA620" t="s">
@@ -78287,7 +78287,7 @@
         <v>30</v>
       </c>
       <c r="P621" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA621" t="s">
@@ -78341,7 +78341,7 @@
         <v>30</v>
       </c>
       <c r="P622" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA622" t="s">
@@ -78395,47 +78395,47 @@
         <v>29</v>
       </c>
       <c r="P623">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>50</v>
       </c>
       <c r="Q623">
-        <f t="shared" ref="Q623:Q649" si="674">(SUM(C623:F623))/4</f>
+        <f t="shared" ref="Q623:Q649" si="664">((SUM(C623:F623))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R623">
-        <f t="shared" ref="R623" si="675">(SUM(C625:F625))/4</f>
+        <f t="shared" ref="R623" si="665">((SUM(C625:F625))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S623">
-        <f t="shared" ref="S623" si="676">(SUM(C627:F627))/4</f>
+        <f t="shared" ref="S623" si="666">((SUM(C627:F627))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T623">
-        <f t="shared" ref="T623" si="677">(SUM(C629:F629))/4</f>
+        <f t="shared" ref="T623" si="667">((SUM(C629:F629))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U623">
-        <f t="shared" ref="U623" si="678">(SUM(C631:F631))/4</f>
+        <f t="shared" ref="U623" si="668">((SUM(C631:F631))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V623">
-        <f t="shared" ref="V623" si="679">(SUM(C623:F631))/20</f>
+        <f t="shared" ref="V623" si="669">((SUM(C623:F631))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W623">
-        <f t="shared" ref="W623" si="680">(SUM(G623:H631))/10</f>
+        <f t="shared" ref="W623" si="670">(SUM(G623:H631))/10</f>
         <v>25.6</v>
       </c>
       <c r="X623">
-        <f t="shared" ref="X623" si="681">(SUM(I623:I631))/5</f>
+        <f t="shared" ref="X623" si="671">(SUM(I623:I631))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y623">
-        <f t="shared" ref="Y623" si="682">SUM(K623:K631)-Z623</f>
+        <f t="shared" ref="Y623" si="672">SUM(K623:K631)-Z623</f>
         <v>12</v>
       </c>
       <c r="Z623">
-        <f t="shared" ref="Z623" si="683">SUM(L623:L631)</f>
+        <f t="shared" ref="Z623" si="673">SUM(L623:L631)</f>
         <v>4</v>
       </c>
       <c r="AA623" t="s">
@@ -78489,7 +78489,7 @@
         <v>30</v>
       </c>
       <c r="P624" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA624" t="s">
@@ -78543,7 +78543,7 @@
         <v>30</v>
       </c>
       <c r="P625" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA625" t="s">
@@ -78597,7 +78597,7 @@
         <v>30</v>
       </c>
       <c r="P626" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA626" t="s">
@@ -78651,7 +78651,7 @@
         <v>30</v>
       </c>
       <c r="P627" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA627" t="s">
@@ -78705,7 +78705,7 @@
         <v>30</v>
       </c>
       <c r="P628" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA628" t="s">
@@ -78759,7 +78759,7 @@
         <v>30</v>
       </c>
       <c r="P629" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA629" t="s">
@@ -78813,7 +78813,7 @@
         <v>30</v>
       </c>
       <c r="P630" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA630" t="s">
@@ -78867,7 +78867,7 @@
         <v>30</v>
       </c>
       <c r="P631" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA631" t="s">
@@ -78921,47 +78921,47 @@
         <v>29</v>
       </c>
       <c r="P632">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>70</v>
       </c>
       <c r="Q632">
-        <f t="shared" ref="Q632:Q649" si="684">(SUM(C632:F632))/4</f>
+        <f t="shared" ref="Q632:Q649" si="674">((SUM(C632:F632))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R632">
-        <f t="shared" ref="R632" si="685">(SUM(C634:F634))/4</f>
+        <f t="shared" ref="R632" si="675">((SUM(C634:F634))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S632">
-        <f t="shared" ref="S632" si="686">(SUM(C636:F636))/4</f>
+        <f t="shared" ref="S632" si="676">((SUM(C636:F636))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T632">
-        <f t="shared" ref="T632" si="687">(SUM(C638:F638))/4</f>
+        <f t="shared" ref="T632" si="677">((SUM(C638:F638))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U632">
-        <f t="shared" ref="U632" si="688">(SUM(C640:F640))/4</f>
+        <f t="shared" ref="U632" si="678">((SUM(C640:F640))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V632">
-        <f t="shared" ref="V632" si="689">(SUM(C632:F640))/20</f>
+        <f t="shared" ref="V632" si="679">((SUM(C632:F640))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W632">
-        <f t="shared" ref="W632" si="690">(SUM(G632:H640))/10</f>
+        <f t="shared" ref="W632" si="680">(SUM(G632:H640))/10</f>
         <v>50</v>
       </c>
       <c r="X632">
-        <f t="shared" ref="X632" si="691">(SUM(I632:I640))/5</f>
+        <f t="shared" ref="X632" si="681">(SUM(I632:I640))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y632">
-        <f t="shared" ref="Y632" si="692">SUM(K632:K640)-Z632</f>
+        <f t="shared" ref="Y632" si="682">SUM(K632:K640)-Z632</f>
         <v>-2</v>
       </c>
       <c r="Z632">
-        <f t="shared" ref="Z632" si="693">SUM(L632:L640)</f>
+        <f t="shared" ref="Z632" si="683">SUM(L632:L640)</f>
         <v>6</v>
       </c>
       <c r="AA632" t="s">
@@ -79015,7 +79015,7 @@
         <v>30</v>
       </c>
       <c r="P633" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA633" t="s">
@@ -79069,7 +79069,7 @@
         <v>30</v>
       </c>
       <c r="P634" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA634" t="s">
@@ -79123,7 +79123,7 @@
         <v>30</v>
       </c>
       <c r="P635" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA635" t="s">
@@ -79177,7 +79177,7 @@
         <v>30</v>
       </c>
       <c r="P636" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA636" t="s">
@@ -79231,7 +79231,7 @@
         <v>30</v>
       </c>
       <c r="P637" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA637" t="s">
@@ -79285,7 +79285,7 @@
         <v>30</v>
       </c>
       <c r="P638" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA638" t="s">
@@ -79339,7 +79339,7 @@
         <v>30</v>
       </c>
       <c r="P639" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA639" t="s">
@@ -79393,7 +79393,7 @@
         <v>30</v>
       </c>
       <c r="P640" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA640" t="s">
@@ -79447,35 +79447,35 @@
         <v>29</v>
       </c>
       <c r="P641">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>40</v>
       </c>
       <c r="Q641">
-        <f t="shared" ref="Q641:Q649" si="694">(SUM(C641:F641))/4</f>
+        <f t="shared" ref="Q641:Q649" si="684">((SUM(C641:F641))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R641">
-        <f t="shared" ref="R641" si="695">(SUM(C643:F643))/4</f>
+        <f t="shared" ref="R641" si="685">((SUM(C643:F643))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S641">
-        <f t="shared" ref="S641" si="696">(SUM(C645:F645))/4</f>
+        <f t="shared" ref="S641" si="686">((SUM(C645:F645))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T641">
-        <f t="shared" ref="T641" si="697">(SUM(C647:F647))/4</f>
+        <f t="shared" ref="T641" si="687">((SUM(C647:F647))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U641">
-        <f t="shared" ref="U641" si="698">(SUM(C649:F649))/4</f>
+        <f t="shared" ref="U641" si="688">((SUM(C649:F649))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V641">
-        <f t="shared" ref="V641" si="699">(SUM(C641:F649))/20</f>
+        <f t="shared" ref="V641" si="689">((SUM(C641:F649))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W641">
-        <f t="shared" ref="W641" si="700">(SUM(G641:H649))/10</f>
+        <f t="shared" ref="W641" si="690">(SUM(G641:H649))/10</f>
         <v>10.5</v>
       </c>
       <c r="X641">
@@ -79483,11 +79483,11 @@
         <v>1.8</v>
       </c>
       <c r="Y641">
-        <f t="shared" ref="Y641" si="701">SUM(K641:K649)-Z641</f>
+        <f t="shared" ref="Y641" si="691">SUM(K641:K649)-Z641</f>
         <v>6</v>
       </c>
       <c r="Z641">
-        <f t="shared" ref="Z641" si="702">SUM(L641:L649)</f>
+        <f t="shared" ref="Z641" si="692">SUM(L641:L649)</f>
         <v>6</v>
       </c>
       <c r="AA641" t="s">
@@ -79541,7 +79541,7 @@
         <v>30</v>
       </c>
       <c r="P642" t="e">
-        <f t="shared" si="633"/>
+        <f t="shared" si="623"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA642" t="s">
@@ -79595,7 +79595,7 @@
         <v>30</v>
       </c>
       <c r="P643" t="e">
-        <f t="shared" ref="P643:P649" si="703">M643*10</f>
+        <f t="shared" ref="P643:P649" si="693">M643*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA643" t="s">
@@ -79649,7 +79649,7 @@
         <v>30</v>
       </c>
       <c r="P644" t="e">
-        <f t="shared" si="703"/>
+        <f t="shared" si="693"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA644" t="s">
@@ -79703,7 +79703,7 @@
         <v>30</v>
       </c>
       <c r="P645" t="e">
-        <f t="shared" si="703"/>
+        <f t="shared" si="693"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA645" t="s">
@@ -79757,7 +79757,7 @@
         <v>30</v>
       </c>
       <c r="P646" t="e">
-        <f t="shared" si="703"/>
+        <f t="shared" si="693"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA646" t="s">
@@ -79811,7 +79811,7 @@
         <v>30</v>
       </c>
       <c r="P647" t="e">
-        <f t="shared" si="703"/>
+        <f t="shared" si="693"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA647" t="s">
@@ -79865,7 +79865,7 @@
         <v>30</v>
       </c>
       <c r="P648" t="e">
-        <f t="shared" si="703"/>
+        <f t="shared" si="693"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA648" t="s">
@@ -79919,7 +79919,7 @@
         <v>30</v>
       </c>
       <c r="P649" t="e">
-        <f t="shared" si="703"/>
+        <f t="shared" si="693"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA649" t="s">

--- a/raw_data/arabuko_sokoke_11.xlsx
+++ b/raw_data/arabuko_sokoke_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/Research/research_projects/arabuko_sokoke/ASF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC61AB-FCB7-DB4F-B5D9-4578F49D2289}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D2A4F9-90B3-744E-8004-F944F9DDFD1E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="26380" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="780" windowWidth="27800" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Herps" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17789" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17679" uniqueCount="885">
   <si>
     <t>ind_numb</t>
   </si>
@@ -41962,8 +41962,8 @@
   <dimension ref="A1:AA649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49968,17 +49968,17 @@
       <c r="B146" t="s">
         <v>774</v>
       </c>
-      <c r="C146" t="s">
-        <v>30</v>
-      </c>
-      <c r="D146" t="s">
-        <v>30</v>
-      </c>
-      <c r="E146" t="s">
-        <v>30</v>
-      </c>
-      <c r="F146" t="s">
-        <v>30</v>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>11</v>
+      </c>
+      <c r="E146">
+        <v>17</v>
+      </c>
+      <c r="F146">
+        <v>11</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -50013,27 +50013,27 @@
       </c>
       <c r="Q146">
         <f t="shared" ref="Q146" si="137">((SUM(C146:F146))/4)*1.04</f>
-        <v>0</v>
+        <v>12.74</v>
       </c>
       <c r="R146">
         <f t="shared" ref="R146" si="138">((SUM(C148:F148))/4)*1.04</f>
-        <v>0</v>
+        <v>13.26</v>
       </c>
       <c r="S146">
         <f t="shared" ref="S146" si="139">((SUM(C150:F150))/4)*1.04</f>
-        <v>0</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="T146">
         <f t="shared" ref="T146" si="140">((SUM(C152:F152))/4)*1.04</f>
-        <v>0</v>
+        <v>20.54</v>
       </c>
       <c r="U146">
         <f t="shared" ref="U146" si="141">((SUM(C154:F154))/4)*1.04</f>
-        <v>0</v>
+        <v>15.08</v>
       </c>
       <c r="V146">
         <f t="shared" ref="V146" si="142">((SUM(C146:F154))/20)*1.04</f>
-        <v>0</v>
+        <v>17.004000000000001</v>
       </c>
       <c r="W146">
         <f t="shared" ref="W146" si="143">(SUM(G146:H154))/10</f>
@@ -50112,17 +50112,17 @@
       <c r="B148" t="s">
         <v>777</v>
       </c>
-      <c r="C148" t="s">
-        <v>30</v>
-      </c>
-      <c r="D148" t="s">
-        <v>30</v>
-      </c>
-      <c r="E148" t="s">
-        <v>30</v>
-      </c>
-      <c r="F148" t="s">
-        <v>30</v>
+      <c r="C148">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>11</v>
+      </c>
+      <c r="E148">
+        <v>26</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -50212,17 +50212,17 @@
       <c r="B150" t="s">
         <v>779</v>
       </c>
-      <c r="C150" t="s">
-        <v>30</v>
-      </c>
-      <c r="D150" t="s">
-        <v>30</v>
-      </c>
-      <c r="E150" t="s">
-        <v>30</v>
-      </c>
-      <c r="F150" t="s">
-        <v>30</v>
+      <c r="C150">
+        <v>23</v>
+      </c>
+      <c r="D150">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>22</v>
+      </c>
+      <c r="F150">
+        <v>26</v>
       </c>
       <c r="G150">
         <v>5</v>
@@ -50312,17 +50312,17 @@
       <c r="B152" t="s">
         <v>781</v>
       </c>
-      <c r="C152" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" t="s">
-        <v>30</v>
-      </c>
-      <c r="E152" t="s">
-        <v>30</v>
-      </c>
-      <c r="F152" t="s">
-        <v>30</v>
+      <c r="C152">
+        <v>19</v>
+      </c>
+      <c r="D152">
+        <v>13</v>
+      </c>
+      <c r="E152">
+        <v>20</v>
+      </c>
+      <c r="F152">
+        <v>27</v>
       </c>
       <c r="G152">
         <v>5</v>
@@ -50412,17 +50412,17 @@
       <c r="B154" t="s">
         <v>783</v>
       </c>
-      <c r="C154" t="s">
-        <v>30</v>
-      </c>
-      <c r="D154" t="s">
-        <v>30</v>
-      </c>
-      <c r="E154" t="s">
-        <v>30</v>
-      </c>
-      <c r="F154" t="s">
-        <v>30</v>
+      <c r="C154">
+        <v>28</v>
+      </c>
+      <c r="D154">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>9</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -50462,17 +50462,17 @@
       <c r="B155" t="s">
         <v>774</v>
       </c>
-      <c r="C155" t="s">
-        <v>30</v>
-      </c>
-      <c r="D155" t="s">
-        <v>30</v>
-      </c>
-      <c r="E155" t="s">
-        <v>30</v>
-      </c>
-      <c r="F155" t="s">
-        <v>30</v>
+      <c r="C155">
+        <v>15</v>
+      </c>
+      <c r="D155">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>15</v>
+      </c>
+      <c r="F155">
+        <v>13</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -50502,47 +50502,46 @@
         <v>29</v>
       </c>
       <c r="P155">
-        <f t="shared" ref="P155" si="147">M155*10</f>
+        <f>M155*10</f>
         <v>120</v>
       </c>
       <c r="Q155">
-        <f t="shared" ref="Q155" si="148">((SUM(C155:F155))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q155" si="147">((SUM(C155:F155))/4)*1.04</f>
+        <v>14.3</v>
       </c>
       <c r="R155">
-        <f t="shared" ref="R155" si="149">((SUM(C157:F157))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R155" si="148">((SUM(C157:F157))/4)*1.04</f>
+        <v>14.040000000000001</v>
       </c>
       <c r="S155">
-        <f t="shared" ref="S155" si="150">((SUM(C159:F159))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S155" si="149">((SUM(C159:F159))/4)*1.04</f>
+        <v>8.84</v>
       </c>
       <c r="T155">
-        <f t="shared" ref="T155" si="151">((SUM(C161:F161))/4)*1.04</f>
-        <v>0</v>
-      </c>
-      <c r="U155">
-        <f t="shared" ref="U155" si="152">((SUM(C163:F163))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T155" si="150">((SUM(C161:F161))/4)*1.04</f>
+        <v>15.08</v>
+      </c>
+      <c r="U155" t="s">
+        <v>30</v>
       </c>
       <c r="V155">
-        <f t="shared" ref="V155" si="153">((SUM(C155:F163))/20)*1.04</f>
-        <v>0</v>
+        <f>((SUM(C155:F163))/16)*1.04</f>
+        <v>13.065000000000001</v>
       </c>
       <c r="W155">
-        <f t="shared" ref="W155" si="154">(SUM(G155:H163))/10</f>
+        <f t="shared" ref="W155" si="151">(SUM(G155:H163))/10</f>
         <v>3.05</v>
       </c>
       <c r="X155">
-        <f t="shared" ref="X155" si="155">(SUM(I155:I163))/5</f>
+        <f t="shared" ref="X155" si="152">(SUM(I155:I163))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y155">
-        <f t="shared" ref="Y155" si="156">SUM(K155:K163)-Z155</f>
+        <f t="shared" ref="Y155" si="153">SUM(K155:K163)-Z155</f>
         <v>6</v>
       </c>
       <c r="Z155">
-        <f t="shared" ref="Z155" si="157">SUM(L155:L163)</f>
+        <f t="shared" ref="Z155" si="154">SUM(L155:L163)</f>
         <v>7</v>
       </c>
       <c r="AA155" t="s">
@@ -50606,17 +50605,17 @@
       <c r="B157" t="s">
         <v>777</v>
       </c>
-      <c r="C157" t="s">
-        <v>30</v>
-      </c>
-      <c r="D157" t="s">
-        <v>30</v>
-      </c>
-      <c r="E157" t="s">
-        <v>30</v>
-      </c>
-      <c r="F157" t="s">
-        <v>30</v>
+      <c r="C157">
+        <v>16</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>19</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -50706,17 +50705,17 @@
       <c r="B159" t="s">
         <v>779</v>
       </c>
-      <c r="C159" t="s">
-        <v>30</v>
-      </c>
-      <c r="D159" t="s">
-        <v>30</v>
-      </c>
-      <c r="E159" t="s">
-        <v>30</v>
-      </c>
-      <c r="F159" t="s">
-        <v>30</v>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159">
+        <v>25</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -50806,17 +50805,17 @@
       <c r="B161" t="s">
         <v>781</v>
       </c>
-      <c r="C161" t="s">
-        <v>30</v>
-      </c>
-      <c r="D161" t="s">
-        <v>30</v>
-      </c>
-      <c r="E161" t="s">
-        <v>30</v>
-      </c>
-      <c r="F161" t="s">
-        <v>30</v>
+      <c r="C161">
+        <v>16</v>
+      </c>
+      <c r="D161">
+        <v>17</v>
+      </c>
+      <c r="E161">
+        <v>20</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -50956,17 +50955,17 @@
       <c r="B164" t="s">
         <v>774</v>
       </c>
-      <c r="C164" t="s">
-        <v>30</v>
-      </c>
-      <c r="D164" t="s">
-        <v>30</v>
-      </c>
-      <c r="E164" t="s">
-        <v>30</v>
-      </c>
-      <c r="F164" t="s">
-        <v>30</v>
+      <c r="C164">
+        <v>23</v>
+      </c>
+      <c r="D164">
+        <v>17</v>
+      </c>
+      <c r="E164">
+        <v>25</v>
+      </c>
+      <c r="F164">
+        <v>29</v>
       </c>
       <c r="G164">
         <v>20</v>
@@ -50996,47 +50995,46 @@
         <v>29</v>
       </c>
       <c r="P164">
-        <f t="shared" ref="P164" si="158">M164*10</f>
+        <f t="shared" ref="P164" si="155">M164*10</f>
         <v>130</v>
       </c>
       <c r="Q164">
-        <f t="shared" ref="Q164" si="159">((SUM(C164:F164))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q164" si="156">((SUM(C164:F164))/4)*1.04</f>
+        <v>24.44</v>
       </c>
       <c r="R164">
-        <f t="shared" ref="R164" si="160">((SUM(C166:F166))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R164" si="157">((SUM(C166:F166))/4)*1.04</f>
+        <v>14.82</v>
       </c>
       <c r="S164">
-        <f t="shared" ref="S164" si="161">((SUM(C168:F168))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S164" si="158">((SUM(C168:F168))/4)*1.04</f>
+        <v>8.32</v>
       </c>
       <c r="T164">
-        <f t="shared" ref="T164" si="162">((SUM(C170:F170))/4)*1.04</f>
-        <v>0</v>
-      </c>
-      <c r="U164">
-        <f t="shared" ref="U164" si="163">((SUM(C172:F172))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T164" si="159">((SUM(C170:F170))/4)*1.04</f>
+        <v>13.26</v>
+      </c>
+      <c r="U164" t="s">
+        <v>30</v>
       </c>
       <c r="V164">
-        <f t="shared" ref="V164" si="164">((SUM(C164:F172))/20)*1.04</f>
-        <v>0</v>
+        <f>((SUM(C164:F172))/16)*1.04</f>
+        <v>15.21</v>
       </c>
       <c r="W164">
-        <f t="shared" ref="W164" si="165">(SUM(G164:H172))/10</f>
+        <f t="shared" ref="W164" si="160">(SUM(G164:H172))/10</f>
         <v>7.8</v>
       </c>
       <c r="X164">
-        <f t="shared" ref="X164" si="166">(SUM(I164:I172))/5</f>
+        <f t="shared" ref="X164" si="161">(SUM(I164:I172))/5</f>
         <v>1</v>
       </c>
       <c r="Y164">
-        <f t="shared" ref="Y164" si="167">SUM(K164:K172)-Z164</f>
+        <f t="shared" ref="Y164" si="162">SUM(K164:K172)-Z164</f>
         <v>14</v>
       </c>
       <c r="Z164">
-        <f t="shared" ref="Z164" si="168">SUM(L164:L172)</f>
+        <f t="shared" ref="Z164" si="163">SUM(L164:L172)</f>
         <v>11</v>
       </c>
       <c r="AA164" t="s">
@@ -51100,17 +51098,17 @@
       <c r="B166" t="s">
         <v>777</v>
       </c>
-      <c r="C166" t="s">
-        <v>30</v>
-      </c>
-      <c r="D166" t="s">
-        <v>30</v>
-      </c>
-      <c r="E166" t="s">
-        <v>30</v>
-      </c>
-      <c r="F166" t="s">
-        <v>30</v>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>14</v>
+      </c>
+      <c r="E166">
+        <v>7</v>
+      </c>
+      <c r="F166">
+        <v>24</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -51200,17 +51198,17 @@
       <c r="B168" t="s">
         <v>779</v>
       </c>
-      <c r="C168" t="s">
-        <v>30</v>
-      </c>
-      <c r="D168" t="s">
-        <v>30</v>
-      </c>
-      <c r="E168" t="s">
-        <v>30</v>
-      </c>
-      <c r="F168" t="s">
-        <v>30</v>
+      <c r="C168">
+        <v>18</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -51300,17 +51298,17 @@
       <c r="B170" t="s">
         <v>781</v>
       </c>
-      <c r="C170" t="s">
-        <v>30</v>
-      </c>
-      <c r="D170" t="s">
-        <v>30</v>
-      </c>
-      <c r="E170" t="s">
-        <v>30</v>
-      </c>
-      <c r="F170" t="s">
-        <v>30</v>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>4</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>40</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -51450,17 +51448,17 @@
       <c r="B173" t="s">
         <v>774</v>
       </c>
-      <c r="C173" t="s">
-        <v>30</v>
-      </c>
-      <c r="D173" t="s">
-        <v>30</v>
-      </c>
-      <c r="E173" t="s">
-        <v>30</v>
-      </c>
-      <c r="F173" t="s">
-        <v>30</v>
+      <c r="C173">
+        <v>26</v>
+      </c>
+      <c r="D173">
+        <v>19</v>
+      </c>
+      <c r="E173">
+        <v>28</v>
+      </c>
+      <c r="F173">
+        <v>5</v>
       </c>
       <c r="G173">
         <v>80</v>
@@ -51490,47 +51488,47 @@
         <v>29</v>
       </c>
       <c r="P173">
-        <f t="shared" ref="P173" si="169">M173*10</f>
+        <f t="shared" ref="P173" si="164">M173*10</f>
         <v>50</v>
       </c>
       <c r="Q173">
-        <f t="shared" ref="Q173" si="170">((SUM(C173:F173))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q173" si="165">((SUM(C173:F173))/4)*1.04</f>
+        <v>20.28</v>
       </c>
       <c r="R173">
-        <f t="shared" ref="R173" si="171">((SUM(C175:F175))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R173" si="166">((SUM(C175:F175))/4)*1.04</f>
+        <v>19.760000000000002</v>
       </c>
       <c r="S173">
-        <f t="shared" ref="S173" si="172">((SUM(C177:F177))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S173" si="167">((SUM(C177:F177))/4)*1.04</f>
+        <v>24.96</v>
       </c>
       <c r="T173">
-        <f t="shared" ref="T173" si="173">((SUM(C179:F179))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T173" si="168">((SUM(C179:F179))/4)*1.04</f>
+        <v>24.96</v>
       </c>
       <c r="U173">
-        <f t="shared" ref="U173" si="174">((SUM(C181:F181))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U173" si="169">((SUM(C181:F181))/4)*1.04</f>
+        <v>28.6</v>
       </c>
       <c r="V173">
-        <f t="shared" ref="V173" si="175">((SUM(C173:F181))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V173" si="170">((SUM(C173:F181))/20)*1.04</f>
+        <v>23.712000000000003</v>
       </c>
       <c r="W173">
-        <f t="shared" ref="W173" si="176">(SUM(G173:H181))/10</f>
+        <f t="shared" ref="W173" si="171">(SUM(G173:H181))/10</f>
         <v>62.9</v>
       </c>
       <c r="X173">
-        <f t="shared" ref="X173" si="177">(SUM(I173:I181))/5</f>
+        <f t="shared" ref="X173" si="172">(SUM(I173:I181))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y173">
-        <f t="shared" ref="Y173" si="178">SUM(K173:K181)-Z173</f>
+        <f t="shared" ref="Y173" si="173">SUM(K173:K181)-Z173</f>
         <v>56</v>
       </c>
       <c r="Z173">
-        <f t="shared" ref="Z173" si="179">SUM(L173:L181)</f>
+        <f t="shared" ref="Z173" si="174">SUM(L173:L181)</f>
         <v>1</v>
       </c>
       <c r="AA173" t="s">
@@ -51594,17 +51592,17 @@
       <c r="B175" t="s">
         <v>777</v>
       </c>
-      <c r="C175" t="s">
-        <v>30</v>
-      </c>
-      <c r="D175" t="s">
-        <v>30</v>
-      </c>
-      <c r="E175" t="s">
-        <v>30</v>
-      </c>
-      <c r="F175" t="s">
-        <v>30</v>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>24</v>
+      </c>
+      <c r="E175">
+        <v>17</v>
+      </c>
+      <c r="F175">
+        <v>31</v>
       </c>
       <c r="G175">
         <v>20</v>
@@ -51694,17 +51692,17 @@
       <c r="B177" t="s">
         <v>779</v>
       </c>
-      <c r="C177" t="s">
-        <v>30</v>
-      </c>
-      <c r="D177" t="s">
-        <v>30</v>
-      </c>
-      <c r="E177" t="s">
-        <v>30</v>
-      </c>
-      <c r="F177" t="s">
-        <v>30</v>
+      <c r="C177">
+        <v>27</v>
+      </c>
+      <c r="D177">
+        <v>28</v>
+      </c>
+      <c r="E177">
+        <v>15</v>
+      </c>
+      <c r="F177">
+        <v>26</v>
       </c>
       <c r="G177">
         <v>20</v>
@@ -51794,17 +51792,17 @@
       <c r="B179" t="s">
         <v>781</v>
       </c>
-      <c r="C179" t="s">
-        <v>30</v>
-      </c>
-      <c r="D179" t="s">
-        <v>30</v>
-      </c>
-      <c r="E179" t="s">
-        <v>30</v>
-      </c>
-      <c r="F179" t="s">
-        <v>30</v>
+      <c r="C179">
+        <v>20</v>
+      </c>
+      <c r="D179">
+        <v>25</v>
+      </c>
+      <c r="E179">
+        <v>33</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
       </c>
       <c r="G179">
         <v>80</v>
@@ -51894,17 +51892,17 @@
       <c r="B181" t="s">
         <v>783</v>
       </c>
-      <c r="C181" t="s">
-        <v>30</v>
-      </c>
-      <c r="D181" t="s">
-        <v>30</v>
-      </c>
-      <c r="E181" t="s">
-        <v>30</v>
-      </c>
-      <c r="F181" t="s">
-        <v>30</v>
+      <c r="C181">
+        <v>24</v>
+      </c>
+      <c r="D181">
+        <v>30</v>
+      </c>
+      <c r="E181">
+        <v>30</v>
+      </c>
+      <c r="F181">
+        <v>26</v>
       </c>
       <c r="G181">
         <v>95</v>
@@ -51944,17 +51942,17 @@
       <c r="B182" t="s">
         <v>774</v>
       </c>
-      <c r="C182" t="s">
-        <v>30</v>
-      </c>
-      <c r="D182" t="s">
-        <v>30</v>
-      </c>
-      <c r="E182" t="s">
-        <v>30</v>
-      </c>
-      <c r="F182" t="s">
-        <v>30</v>
+      <c r="C182">
+        <v>20</v>
+      </c>
+      <c r="D182">
+        <v>22</v>
+      </c>
+      <c r="E182">
+        <v>18</v>
+      </c>
+      <c r="F182">
+        <v>14</v>
       </c>
       <c r="G182">
         <v>45</v>
@@ -51984,47 +51982,47 @@
         <v>29</v>
       </c>
       <c r="P182">
-        <f t="shared" ref="P182" si="180">M182*10</f>
+        <f t="shared" ref="P182" si="175">M182*10</f>
         <v>50</v>
       </c>
       <c r="Q182">
-        <f t="shared" ref="Q182" si="181">((SUM(C182:F182))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q182" si="176">((SUM(C182:F182))/4)*1.04</f>
+        <v>19.240000000000002</v>
       </c>
       <c r="R182">
-        <f t="shared" ref="R182" si="182">((SUM(C184:F184))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R182" si="177">((SUM(C184:F184))/4)*1.04</f>
+        <v>18.72</v>
       </c>
       <c r="S182">
-        <f t="shared" ref="S182" si="183">((SUM(C186:F186))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S182" si="178">((SUM(C186:F186))/4)*1.04</f>
+        <v>11.96</v>
       </c>
       <c r="T182">
-        <f t="shared" ref="T182" si="184">((SUM(C188:F188))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T182" si="179">((SUM(C188:F188))/4)*1.04</f>
+        <v>24.18</v>
       </c>
       <c r="U182">
-        <f t="shared" ref="U182" si="185">((SUM(C190:F190))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U182" si="180">((SUM(C190:F190))/4)*1.04</f>
+        <v>44.2</v>
       </c>
       <c r="V182">
-        <f t="shared" ref="V182" si="186">((SUM(C182:F190))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V182" si="181">((SUM(C182:F190))/20)*1.04</f>
+        <v>23.66</v>
       </c>
       <c r="W182">
-        <f t="shared" ref="W182" si="187">(SUM(G182:H190))/10</f>
+        <f t="shared" ref="W182" si="182">(SUM(G182:H190))/10</f>
         <v>51</v>
       </c>
       <c r="X182">
-        <f t="shared" ref="X182" si="188">(SUM(I182:I190))/5</f>
+        <f t="shared" ref="X182" si="183">(SUM(I182:I190))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y182">
-        <f t="shared" ref="Y182" si="189">SUM(K182:K190)-Z182</f>
+        <f t="shared" ref="Y182" si="184">SUM(K182:K190)-Z182</f>
         <v>64</v>
       </c>
       <c r="Z182">
-        <f t="shared" ref="Z182" si="190">SUM(L182:L190)</f>
+        <f t="shared" ref="Z182" si="185">SUM(L182:L190)</f>
         <v>5</v>
       </c>
       <c r="AA182" t="s">
@@ -52088,17 +52086,17 @@
       <c r="B184" t="s">
         <v>777</v>
       </c>
-      <c r="C184" t="s">
-        <v>30</v>
-      </c>
-      <c r="D184" t="s">
-        <v>30</v>
-      </c>
-      <c r="E184" t="s">
-        <v>30</v>
-      </c>
-      <c r="F184" t="s">
-        <v>30</v>
+      <c r="C184">
+        <v>20</v>
+      </c>
+      <c r="D184">
+        <v>20</v>
+      </c>
+      <c r="E184">
+        <v>15</v>
+      </c>
+      <c r="F184">
+        <v>17</v>
       </c>
       <c r="G184">
         <v>50</v>
@@ -52188,17 +52186,17 @@
       <c r="B186" t="s">
         <v>779</v>
       </c>
-      <c r="C186" t="s">
-        <v>30</v>
-      </c>
-      <c r="D186" t="s">
-        <v>30</v>
-      </c>
-      <c r="E186" t="s">
-        <v>30</v>
-      </c>
-      <c r="F186" t="s">
-        <v>30</v>
+      <c r="C186">
+        <v>17</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>22</v>
       </c>
       <c r="G186">
         <v>25</v>
@@ -52288,17 +52286,17 @@
       <c r="B188" t="s">
         <v>781</v>
       </c>
-      <c r="C188" t="s">
-        <v>30</v>
-      </c>
-      <c r="D188" t="s">
-        <v>30</v>
-      </c>
-      <c r="E188" t="s">
-        <v>30</v>
-      </c>
-      <c r="F188" t="s">
-        <v>30</v>
+      <c r="C188">
+        <v>27</v>
+      </c>
+      <c r="D188">
+        <v>21</v>
+      </c>
+      <c r="E188">
+        <v>18</v>
+      </c>
+      <c r="F188">
+        <v>27</v>
       </c>
       <c r="G188">
         <v>50</v>
@@ -52388,17 +52386,17 @@
       <c r="B190" t="s">
         <v>783</v>
       </c>
-      <c r="C190" t="s">
-        <v>30</v>
-      </c>
-      <c r="D190" t="s">
-        <v>30</v>
-      </c>
-      <c r="E190" t="s">
-        <v>30</v>
-      </c>
-      <c r="F190" t="s">
-        <v>30</v>
+      <c r="C190">
+        <v>78</v>
+      </c>
+      <c r="D190">
+        <v>30</v>
+      </c>
+      <c r="E190">
+        <v>33</v>
+      </c>
+      <c r="F190">
+        <v>29</v>
       </c>
       <c r="G190">
         <v>55</v>
@@ -52438,17 +52436,17 @@
       <c r="B191" t="s">
         <v>774</v>
       </c>
-      <c r="C191" t="s">
-        <v>30</v>
-      </c>
-      <c r="D191" t="s">
-        <v>30</v>
-      </c>
-      <c r="E191" t="s">
-        <v>30</v>
-      </c>
-      <c r="F191" t="s">
-        <v>30</v>
+      <c r="C191">
+        <v>15</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>14</v>
+      </c>
+      <c r="F191">
+        <v>12</v>
       </c>
       <c r="G191">
         <v>30</v>
@@ -52478,47 +52476,47 @@
         <v>43</v>
       </c>
       <c r="P191">
-        <f t="shared" ref="P191" si="191">M191*10</f>
+        <f t="shared" ref="P191" si="186">M191*10</f>
         <v>70</v>
       </c>
       <c r="Q191">
-        <f t="shared" ref="Q191" si="192">((SUM(C191:F191))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q191" si="187">((SUM(C191:F191))/4)*1.04</f>
+        <v>12.48</v>
       </c>
       <c r="R191">
-        <f t="shared" ref="R191" si="193">((SUM(C193:F193))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R191" si="188">((SUM(C193:F193))/4)*1.04</f>
+        <v>11.440000000000001</v>
       </c>
       <c r="S191">
-        <f t="shared" ref="S191" si="194">((SUM(C195:F195))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S191" si="189">((SUM(C195:F195))/4)*1.04</f>
+        <v>13.52</v>
       </c>
       <c r="T191">
-        <f t="shared" ref="T191" si="195">((SUM(C197:F197))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T191" si="190">((SUM(C197:F197))/4)*1.04</f>
+        <v>12.74</v>
       </c>
       <c r="U191">
-        <f t="shared" ref="U191" si="196">((SUM(C199:F199))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U191" si="191">((SUM(C199:F199))/4)*1.04</f>
+        <v>22.62</v>
       </c>
       <c r="V191">
-        <f t="shared" ref="V191" si="197">((SUM(C191:F199))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V191" si="192">((SUM(C191:F199))/20)*1.04</f>
+        <v>14.56</v>
       </c>
       <c r="W191">
-        <f t="shared" ref="W191" si="198">(SUM(G191:H199))/10</f>
+        <f t="shared" ref="W191" si="193">(SUM(G191:H199))/10</f>
         <v>24.4</v>
       </c>
       <c r="X191">
-        <f t="shared" ref="X191" si="199">(SUM(I191:I199))/5</f>
+        <f t="shared" ref="X191" si="194">(SUM(I191:I199))/5</f>
         <v>3</v>
       </c>
       <c r="Y191">
-        <f t="shared" ref="Y191" si="200">SUM(K191:K199)-Z191</f>
+        <f t="shared" ref="Y191" si="195">SUM(K191:K199)-Z191</f>
         <v>35</v>
       </c>
       <c r="Z191">
-        <f t="shared" ref="Z191" si="201">SUM(L191:L199)</f>
+        <f t="shared" ref="Z191" si="196">SUM(L191:L199)</f>
         <v>5</v>
       </c>
       <c r="AA191" t="s">
@@ -52582,17 +52580,17 @@
       <c r="B193" t="s">
         <v>777</v>
       </c>
-      <c r="C193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D193" t="s">
-        <v>30</v>
-      </c>
-      <c r="E193" t="s">
-        <v>30</v>
-      </c>
-      <c r="F193" t="s">
-        <v>30</v>
+      <c r="C193">
+        <v>13</v>
+      </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <v>12</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
       </c>
       <c r="G193">
         <v>25</v>
@@ -52682,17 +52680,17 @@
       <c r="B195" t="s">
         <v>779</v>
       </c>
-      <c r="C195" t="s">
-        <v>30</v>
-      </c>
-      <c r="D195" t="s">
-        <v>30</v>
-      </c>
-      <c r="E195" t="s">
-        <v>30</v>
-      </c>
-      <c r="F195" t="s">
-        <v>30</v>
+      <c r="C195">
+        <v>23</v>
+      </c>
+      <c r="D195">
+        <v>7</v>
+      </c>
+      <c r="E195">
+        <v>18</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
       </c>
       <c r="G195">
         <v>10</v>
@@ -52782,17 +52780,17 @@
       <c r="B197" t="s">
         <v>781</v>
       </c>
-      <c r="C197" t="s">
-        <v>30</v>
-      </c>
-      <c r="D197" t="s">
-        <v>30</v>
-      </c>
-      <c r="E197" t="s">
-        <v>30</v>
-      </c>
-      <c r="F197" t="s">
-        <v>30</v>
+      <c r="C197">
+        <v>9</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+      <c r="E197">
+        <v>12</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
       </c>
       <c r="G197">
         <v>50</v>
@@ -52882,17 +52880,17 @@
       <c r="B199" t="s">
         <v>783</v>
       </c>
-      <c r="C199" t="s">
-        <v>30</v>
-      </c>
-      <c r="D199" t="s">
-        <v>30</v>
-      </c>
-      <c r="E199" t="s">
-        <v>30</v>
-      </c>
-      <c r="F199" t="s">
-        <v>30</v>
+      <c r="C199">
+        <v>15</v>
+      </c>
+      <c r="D199">
+        <v>26</v>
+      </c>
+      <c r="E199">
+        <v>20</v>
+      </c>
+      <c r="F199">
+        <v>26</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -52972,47 +52970,47 @@
         <v>29</v>
       </c>
       <c r="P200">
-        <f t="shared" ref="P200" si="202">M200*10</f>
+        <f t="shared" ref="P200" si="197">M200*10</f>
         <v>70</v>
       </c>
       <c r="Q200">
-        <f t="shared" ref="Q200" si="203">((SUM(C200:F200))/4)*1.04</f>
+        <f t="shared" ref="Q200" si="198">((SUM(C200:F200))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R200">
-        <f t="shared" ref="R200" si="204">((SUM(C202:F202))/4)*1.04</f>
+        <f t="shared" ref="R200" si="199">((SUM(C202:F202))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S200">
-        <f t="shared" ref="S200" si="205">((SUM(C204:F204))/4)*1.04</f>
+        <f t="shared" ref="S200" si="200">((SUM(C204:F204))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T200">
-        <f t="shared" ref="T200" si="206">((SUM(C206:F206))/4)*1.04</f>
+        <f t="shared" ref="T200" si="201">((SUM(C206:F206))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U200">
-        <f t="shared" ref="U200" si="207">((SUM(C208:F208))/4)*1.04</f>
+        <f t="shared" ref="U200" si="202">((SUM(C208:F208))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V200">
-        <f t="shared" ref="V200" si="208">((SUM(C200:F208))/20)*1.04</f>
+        <f t="shared" ref="V200" si="203">((SUM(C200:F208))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W200">
-        <f t="shared" ref="W200" si="209">(SUM(G200:H208))/10</f>
+        <f t="shared" ref="W200" si="204">(SUM(G200:H208))/10</f>
         <v>30</v>
       </c>
       <c r="X200">
-        <f t="shared" ref="X200" si="210">(SUM(I200:I208))/5</f>
+        <f t="shared" ref="X200" si="205">(SUM(I200:I208))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y200">
-        <f t="shared" ref="Y200" si="211">SUM(K200:K208)-Z200</f>
+        <f t="shared" ref="Y200" si="206">SUM(K200:K208)-Z200</f>
         <v>66</v>
       </c>
       <c r="Z200">
-        <f t="shared" ref="Z200" si="212">SUM(L200:L208)</f>
+        <f t="shared" ref="Z200" si="207">SUM(L200:L208)</f>
         <v>2</v>
       </c>
       <c r="AA200" t="s">
@@ -53466,47 +53464,47 @@
         <v>29</v>
       </c>
       <c r="P209">
-        <f t="shared" ref="P209" si="213">M209*10</f>
+        <f t="shared" ref="P209" si="208">M209*10</f>
         <v>110</v>
       </c>
       <c r="Q209">
-        <f t="shared" ref="Q209" si="214">((SUM(C209:F209))/4)*1.04</f>
+        <f t="shared" ref="Q209" si="209">((SUM(C209:F209))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R209">
-        <f t="shared" ref="R209" si="215">((SUM(C211:F211))/4)*1.04</f>
+        <f t="shared" ref="R209" si="210">((SUM(C211:F211))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S209">
-        <f t="shared" ref="S209" si="216">((SUM(C213:F213))/4)*1.04</f>
+        <f t="shared" ref="S209" si="211">((SUM(C213:F213))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T209">
-        <f t="shared" ref="T209" si="217">((SUM(C215:F215))/4)*1.04</f>
+        <f t="shared" ref="T209" si="212">((SUM(C215:F215))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U209">
-        <f t="shared" ref="U209" si="218">((SUM(C217:F217))/4)*1.04</f>
+        <f t="shared" ref="U209" si="213">((SUM(C217:F217))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V209">
-        <f t="shared" ref="V209" si="219">((SUM(C209:F217))/20)*1.04</f>
+        <f t="shared" ref="V209" si="214">((SUM(C209:F217))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W209">
-        <f t="shared" ref="W209" si="220">(SUM(G209:H217))/10</f>
+        <f t="shared" ref="W209" si="215">(SUM(G209:H217))/10</f>
         <v>0.3</v>
       </c>
       <c r="X209">
-        <f t="shared" ref="X209" si="221">(SUM(I209:I217))/5</f>
+        <f t="shared" ref="X209" si="216">(SUM(I209:I217))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y209">
-        <f t="shared" ref="Y209" si="222">SUM(K209:K217)-Z209</f>
+        <f t="shared" ref="Y209" si="217">SUM(K209:K217)-Z209</f>
         <v>35</v>
       </c>
       <c r="Z209">
-        <f t="shared" ref="Z209" si="223">SUM(L209:L217)</f>
+        <f t="shared" ref="Z209" si="218">SUM(L209:L217)</f>
         <v>19</v>
       </c>
       <c r="AA209" t="s">
@@ -53960,47 +53958,47 @@
         <v>29</v>
       </c>
       <c r="P218">
-        <f t="shared" ref="P218" si="224">M218*10</f>
+        <f t="shared" ref="P218" si="219">M218*10</f>
         <v>80</v>
       </c>
       <c r="Q218">
-        <f t="shared" ref="Q218" si="225">((SUM(C218:F218))/4)*1.04</f>
+        <f t="shared" ref="Q218" si="220">((SUM(C218:F218))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R218">
-        <f t="shared" ref="R218" si="226">((SUM(C220:F220))/4)*1.04</f>
+        <f t="shared" ref="R218" si="221">((SUM(C220:F220))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S218">
-        <f t="shared" ref="S218" si="227">((SUM(C222:F222))/4)*1.04</f>
+        <f t="shared" ref="S218" si="222">((SUM(C222:F222))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T218">
-        <f t="shared" ref="T218" si="228">((SUM(C224:F224))/4)*1.04</f>
+        <f t="shared" ref="T218" si="223">((SUM(C224:F224))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U218">
-        <f t="shared" ref="U218" si="229">((SUM(C226:F226))/4)*1.04</f>
+        <f t="shared" ref="U218" si="224">((SUM(C226:F226))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V218">
-        <f t="shared" ref="V218" si="230">((SUM(C218:F226))/20)*1.04</f>
+        <f t="shared" ref="V218" si="225">((SUM(C218:F226))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W218">
-        <f t="shared" ref="W218" si="231">(SUM(G218:H226))/10</f>
+        <f t="shared" ref="W218" si="226">(SUM(G218:H226))/10</f>
         <v>0.4</v>
       </c>
       <c r="X218">
-        <f t="shared" ref="X218" si="232">(SUM(I218:I226))/5</f>
+        <f t="shared" ref="X218" si="227">(SUM(I218:I226))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y218">
-        <f t="shared" ref="Y218" si="233">SUM(K218:K226)-Z218</f>
+        <f t="shared" ref="Y218" si="228">SUM(K218:K226)-Z218</f>
         <v>10</v>
       </c>
       <c r="Z218">
-        <f t="shared" ref="Z218" si="234">SUM(L218:L226)</f>
+        <f t="shared" ref="Z218" si="229">SUM(L218:L226)</f>
         <v>7</v>
       </c>
       <c r="AA218" t="s">
@@ -54454,47 +54452,47 @@
         <v>29</v>
       </c>
       <c r="P227">
-        <f t="shared" ref="P227" si="235">M227*10</f>
+        <f t="shared" ref="P227" si="230">M227*10</f>
         <v>40</v>
       </c>
       <c r="Q227">
-        <f t="shared" ref="Q227" si="236">((SUM(C227:F227))/4)*1.04</f>
+        <f t="shared" ref="Q227" si="231">((SUM(C227:F227))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R227">
-        <f t="shared" ref="R227" si="237">((SUM(C229:F229))/4)*1.04</f>
+        <f t="shared" ref="R227" si="232">((SUM(C229:F229))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S227">
-        <f t="shared" ref="S227" si="238">((SUM(C231:F231))/4)*1.04</f>
+        <f t="shared" ref="S227" si="233">((SUM(C231:F231))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T227">
-        <f t="shared" ref="T227" si="239">((SUM(C233:F233))/4)*1.04</f>
+        <f t="shared" ref="T227" si="234">((SUM(C233:F233))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U227">
-        <f t="shared" ref="U227" si="240">((SUM(C235:F235))/4)*1.04</f>
+        <f t="shared" ref="U227" si="235">((SUM(C235:F235))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V227">
-        <f t="shared" ref="V227" si="241">((SUM(C227:F235))/20)*1.04</f>
+        <f t="shared" ref="V227" si="236">((SUM(C227:F235))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W227">
-        <f t="shared" ref="W227" si="242">(SUM(G227:H235))/10</f>
+        <f t="shared" ref="W227" si="237">(SUM(G227:H235))/10</f>
         <v>34</v>
       </c>
       <c r="X227">
-        <f t="shared" ref="X227" si="243">(SUM(I227:I235))/5</f>
+        <f t="shared" ref="X227" si="238">(SUM(I227:I235))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y227">
-        <f t="shared" ref="Y227" si="244">SUM(K227:K235)-Z227</f>
+        <f t="shared" ref="Y227" si="239">SUM(K227:K235)-Z227</f>
         <v>1</v>
       </c>
       <c r="Z227">
-        <f t="shared" ref="Z227" si="245">SUM(L227:L235)</f>
+        <f t="shared" ref="Z227" si="240">SUM(L227:L235)</f>
         <v>6</v>
       </c>
       <c r="AA227" t="s">
@@ -54948,47 +54946,47 @@
         <v>29</v>
       </c>
       <c r="P236">
-        <f t="shared" ref="P236" si="246">M236*10</f>
+        <f t="shared" ref="P236" si="241">M236*10</f>
         <v>70</v>
       </c>
       <c r="Q236">
-        <f t="shared" ref="Q236" si="247">((SUM(C236:F236))/4)*1.04</f>
+        <f t="shared" ref="Q236" si="242">((SUM(C236:F236))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R236">
-        <f t="shared" ref="R236" si="248">((SUM(C238:F238))/4)*1.04</f>
+        <f t="shared" ref="R236" si="243">((SUM(C238:F238))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S236">
-        <f t="shared" ref="S236" si="249">((SUM(C240:F240))/4)*1.04</f>
+        <f t="shared" ref="S236" si="244">((SUM(C240:F240))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T236">
-        <f t="shared" ref="T236" si="250">((SUM(C242:F242))/4)*1.04</f>
+        <f t="shared" ref="T236" si="245">((SUM(C242:F242))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U236">
-        <f t="shared" ref="U236" si="251">((SUM(C244:F244))/4)*1.04</f>
+        <f t="shared" ref="U236" si="246">((SUM(C244:F244))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V236">
-        <f t="shared" ref="V236" si="252">((SUM(C236:F244))/20)*1.04</f>
+        <f t="shared" ref="V236" si="247">((SUM(C236:F244))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W236">
-        <f t="shared" ref="W236" si="253">(SUM(G236:H244))/10</f>
+        <f t="shared" ref="W236" si="248">(SUM(G236:H244))/10</f>
         <v>48.5</v>
       </c>
       <c r="X236">
-        <f t="shared" ref="X236" si="254">(SUM(I236:I244))/5</f>
+        <f t="shared" ref="X236" si="249">(SUM(I236:I244))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y236">
-        <f t="shared" ref="Y236" si="255">SUM(K236:K244)-Z236</f>
+        <f t="shared" ref="Y236" si="250">SUM(K236:K244)-Z236</f>
         <v>6</v>
       </c>
       <c r="Z236">
-        <f t="shared" ref="Z236" si="256">SUM(L236:L244)</f>
+        <f t="shared" ref="Z236" si="251">SUM(L236:L244)</f>
         <v>6</v>
       </c>
       <c r="AA236" t="s">
@@ -55442,47 +55440,47 @@
         <v>29</v>
       </c>
       <c r="P245">
-        <f t="shared" ref="P245" si="257">M245*10</f>
+        <f t="shared" ref="P245" si="252">M245*10</f>
         <v>100</v>
       </c>
       <c r="Q245">
-        <f t="shared" ref="Q245" si="258">((SUM(C245:F245))/4)*1.04</f>
+        <f t="shared" ref="Q245" si="253">((SUM(C245:F245))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R245">
-        <f t="shared" ref="R245" si="259">((SUM(C247:F247))/4)*1.04</f>
+        <f t="shared" ref="R245" si="254">((SUM(C247:F247))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S245">
-        <f t="shared" ref="S245" si="260">((SUM(C249:F249))/4)*1.04</f>
+        <f t="shared" ref="S245" si="255">((SUM(C249:F249))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T245">
-        <f t="shared" ref="T245" si="261">((SUM(C251:F251))/4)*1.04</f>
+        <f t="shared" ref="T245" si="256">((SUM(C251:F251))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U245">
-        <f t="shared" ref="U245" si="262">((SUM(C253:F253))/4)*1.04</f>
+        <f t="shared" ref="U245" si="257">((SUM(C253:F253))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V245">
-        <f t="shared" ref="V245" si="263">((SUM(C245:F253))/20)*1.04</f>
+        <f t="shared" ref="V245" si="258">((SUM(C245:F253))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W245">
-        <f t="shared" ref="W245" si="264">(SUM(G245:H253))/10</f>
+        <f t="shared" ref="W245" si="259">(SUM(G245:H253))/10</f>
         <v>1.7</v>
       </c>
       <c r="X245">
-        <f t="shared" ref="X245" si="265">(SUM(I245:I253))/5</f>
+        <f t="shared" ref="X245" si="260">(SUM(I245:I253))/5</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y245">
-        <f t="shared" ref="Y245" si="266">SUM(K245:K253)-Z245</f>
+        <f t="shared" ref="Y245" si="261">SUM(K245:K253)-Z245</f>
         <v>83</v>
       </c>
       <c r="Z245">
-        <f t="shared" ref="Z245" si="267">SUM(L245:L253)</f>
+        <f t="shared" ref="Z245" si="262">SUM(L245:L253)</f>
         <v>3</v>
       </c>
       <c r="AA245" t="s">
@@ -55936,47 +55934,47 @@
         <v>29</v>
       </c>
       <c r="P254">
-        <f t="shared" ref="P254" si="268">M254*10</f>
+        <f t="shared" ref="P254" si="263">M254*10</f>
         <v>120</v>
       </c>
       <c r="Q254">
-        <f t="shared" ref="Q254" si="269">((SUM(C254:F254))/4)*1.04</f>
+        <f t="shared" ref="Q254" si="264">((SUM(C254:F254))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R254">
-        <f t="shared" ref="R254" si="270">((SUM(C256:F256))/4)*1.04</f>
+        <f t="shared" ref="R254" si="265">((SUM(C256:F256))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S254">
-        <f t="shared" ref="S254" si="271">((SUM(C258:F258))/4)*1.04</f>
+        <f t="shared" ref="S254" si="266">((SUM(C258:F258))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T254">
-        <f t="shared" ref="T254" si="272">((SUM(C260:F260))/4)*1.04</f>
+        <f t="shared" ref="T254" si="267">((SUM(C260:F260))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U254">
-        <f t="shared" ref="U254" si="273">((SUM(C262:F262))/4)*1.04</f>
+        <f t="shared" ref="U254" si="268">((SUM(C262:F262))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V254">
-        <f t="shared" ref="V254" si="274">((SUM(C254:F262))/20)*1.04</f>
+        <f t="shared" ref="V254" si="269">((SUM(C254:F262))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W254">
-        <f t="shared" ref="W254" si="275">(SUM(G254:H262))/10</f>
+        <f t="shared" ref="W254" si="270">(SUM(G254:H262))/10</f>
         <v>15.6</v>
       </c>
       <c r="X254">
-        <f t="shared" ref="X254" si="276">(SUM(I254:I262))/5</f>
+        <f t="shared" ref="X254" si="271">(SUM(I254:I262))/5</f>
         <v>2</v>
       </c>
       <c r="Y254">
-        <f t="shared" ref="Y254" si="277">SUM(K254:K262)-Z254</f>
+        <f t="shared" ref="Y254" si="272">SUM(K254:K262)-Z254</f>
         <v>58</v>
       </c>
       <c r="Z254">
-        <f t="shared" ref="Z254" si="278">SUM(L254:L262)</f>
+        <f t="shared" ref="Z254" si="273">SUM(L254:L262)</f>
         <v>12</v>
       </c>
       <c r="AA254" t="s">
@@ -56430,47 +56428,47 @@
         <v>240</v>
       </c>
       <c r="P263">
-        <f t="shared" ref="P263" si="279">M263*10</f>
+        <f t="shared" ref="P263" si="274">M263*10</f>
         <v>60</v>
       </c>
       <c r="Q263">
-        <f t="shared" ref="Q263" si="280">((SUM(C263:F263))/4)*1.04</f>
+        <f t="shared" ref="Q263" si="275">((SUM(C263:F263))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R263">
-        <f t="shared" ref="R263" si="281">((SUM(C265:F265))/4)*1.04</f>
+        <f t="shared" ref="R263" si="276">((SUM(C265:F265))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S263">
-        <f t="shared" ref="S263" si="282">((SUM(C267:F267))/4)*1.04</f>
+        <f t="shared" ref="S263" si="277">((SUM(C267:F267))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T263">
-        <f t="shared" ref="T263" si="283">((SUM(C269:F269))/4)*1.04</f>
+        <f t="shared" ref="T263" si="278">((SUM(C269:F269))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U263">
-        <f t="shared" ref="U263" si="284">((SUM(C271:F271))/4)*1.04</f>
+        <f t="shared" ref="U263" si="279">((SUM(C271:F271))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V263">
-        <f t="shared" ref="V263" si="285">((SUM(C263:F271))/20)*1.04</f>
+        <f t="shared" ref="V263" si="280">((SUM(C263:F271))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W263">
-        <f t="shared" ref="W263" si="286">(SUM(G263:H271))/10</f>
+        <f t="shared" ref="W263" si="281">(SUM(G263:H271))/10</f>
         <v>4.5</v>
       </c>
       <c r="X263">
-        <f t="shared" ref="X263" si="287">(SUM(I263:I271))/5</f>
+        <f t="shared" ref="X263" si="282">(SUM(I263:I271))/5</f>
         <v>4</v>
       </c>
       <c r="Y263">
-        <f t="shared" ref="Y263" si="288">SUM(K263:K271)-Z263</f>
+        <f t="shared" ref="Y263" si="283">SUM(K263:K271)-Z263</f>
         <v>16</v>
       </c>
       <c r="Z263">
-        <f t="shared" ref="Z263" si="289">SUM(L263:L271)</f>
+        <f t="shared" ref="Z263" si="284">SUM(L263:L271)</f>
         <v>3</v>
       </c>
       <c r="AA263" t="s">
@@ -56924,47 +56922,47 @@
         <v>240</v>
       </c>
       <c r="P272">
-        <f t="shared" ref="P272" si="290">M272*10</f>
+        <f t="shared" ref="P272" si="285">M272*10</f>
         <v>30</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272" si="291">((SUM(C272:F272))/4)*1.04</f>
+        <f t="shared" ref="Q272" si="286">((SUM(C272:F272))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272" si="292">((SUM(C274:F274))/4)*1.04</f>
+        <f t="shared" ref="R272" si="287">((SUM(C274:F274))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272" si="293">((SUM(C276:F276))/4)*1.04</f>
+        <f t="shared" ref="S272" si="288">((SUM(C276:F276))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272" si="294">((SUM(C278:F278))/4)*1.04</f>
+        <f t="shared" ref="T272" si="289">((SUM(C278:F278))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272" si="295">((SUM(C280:F280))/4)*1.04</f>
+        <f t="shared" ref="U272" si="290">((SUM(C280:F280))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V272">
-        <f t="shared" ref="V272" si="296">((SUM(C272:F280))/20)*1.04</f>
+        <f t="shared" ref="V272" si="291">((SUM(C272:F280))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W272">
-        <f t="shared" ref="W272" si="297">(SUM(G272:H280))/10</f>
+        <f t="shared" ref="W272" si="292">(SUM(G272:H280))/10</f>
         <v>6</v>
       </c>
       <c r="X272">
-        <f t="shared" ref="X272" si="298">(SUM(I272:I280))/5</f>
+        <f t="shared" ref="X272" si="293">(SUM(I272:I280))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y272">
-        <f t="shared" ref="Y272" si="299">SUM(K272:K280)-Z272</f>
+        <f t="shared" ref="Y272" si="294">SUM(K272:K280)-Z272</f>
         <v>12</v>
       </c>
       <c r="Z272">
-        <f t="shared" ref="Z272" si="300">SUM(L272:L280)</f>
+        <f t="shared" ref="Z272" si="295">SUM(L272:L280)</f>
         <v>3</v>
       </c>
       <c r="AA272" t="s">
@@ -57418,47 +57416,47 @@
         <v>240</v>
       </c>
       <c r="P281">
-        <f t="shared" ref="P281" si="301">M281*10</f>
+        <f t="shared" ref="P281" si="296">M281*10</f>
         <v>50</v>
       </c>
       <c r="Q281">
-        <f t="shared" ref="Q281" si="302">((SUM(C281:F281))/4)*1.04</f>
+        <f t="shared" ref="Q281" si="297">((SUM(C281:F281))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R281">
-        <f t="shared" ref="R281" si="303">((SUM(C283:F283))/4)*1.04</f>
+        <f t="shared" ref="R281" si="298">((SUM(C283:F283))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S281">
-        <f t="shared" ref="S281" si="304">((SUM(C285:F285))/4)*1.04</f>
+        <f t="shared" ref="S281" si="299">((SUM(C285:F285))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T281">
-        <f t="shared" ref="T281" si="305">((SUM(C287:F287))/4)*1.04</f>
+        <f t="shared" ref="T281" si="300">((SUM(C287:F287))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U281">
-        <f t="shared" ref="U281" si="306">((SUM(C289:F289))/4)*1.04</f>
+        <f t="shared" ref="U281" si="301">((SUM(C289:F289))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V281">
-        <f t="shared" ref="V281" si="307">((SUM(C281:F289))/20)*1.04</f>
+        <f t="shared" ref="V281" si="302">((SUM(C281:F289))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W281">
-        <f t="shared" ref="W281" si="308">(SUM(G281:H289))/10</f>
+        <f t="shared" ref="W281" si="303">(SUM(G281:H289))/10</f>
         <v>21</v>
       </c>
       <c r="X281">
-        <f t="shared" ref="X281" si="309">(SUM(I281:I289))/5</f>
+        <f t="shared" ref="X281" si="304">(SUM(I281:I289))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y281">
-        <f t="shared" ref="Y281" si="310">SUM(K281:K289)-Z281</f>
+        <f t="shared" ref="Y281" si="305">SUM(K281:K289)-Z281</f>
         <v>11</v>
       </c>
       <c r="Z281">
-        <f t="shared" ref="Z281" si="311">SUM(L281:L289)</f>
+        <f t="shared" ref="Z281" si="306">SUM(L281:L289)</f>
         <v>4</v>
       </c>
       <c r="AA281" t="s">
@@ -57912,47 +57910,47 @@
         <v>43</v>
       </c>
       <c r="P290">
-        <f t="shared" ref="P290" si="312">M290*10</f>
+        <f t="shared" ref="P290" si="307">M290*10</f>
         <v>90</v>
       </c>
       <c r="Q290">
-        <f t="shared" ref="Q290" si="313">((SUM(C290:F290))/4)*1.04</f>
+        <f t="shared" ref="Q290" si="308">((SUM(C290:F290))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R290">
-        <f t="shared" ref="R290" si="314">((SUM(C292:F292))/4)*1.04</f>
+        <f t="shared" ref="R290" si="309">((SUM(C292:F292))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S290">
-        <f t="shared" ref="S290" si="315">((SUM(C294:F294))/4)*1.04</f>
+        <f t="shared" ref="S290" si="310">((SUM(C294:F294))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T290">
-        <f t="shared" ref="T290" si="316">((SUM(C296:F296))/4)*1.04</f>
+        <f t="shared" ref="T290" si="311">((SUM(C296:F296))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U290">
-        <f t="shared" ref="U290" si="317">((SUM(C298:F298))/4)*1.04</f>
+        <f t="shared" ref="U290" si="312">((SUM(C298:F298))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V290">
-        <f t="shared" ref="V290" si="318">((SUM(C290:F298))/20)*1.04</f>
+        <f t="shared" ref="V290" si="313">((SUM(C290:F298))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W290">
-        <f t="shared" ref="W290" si="319">(SUM(G290:H298))/10</f>
+        <f t="shared" ref="W290" si="314">(SUM(G290:H298))/10</f>
         <v>3.2</v>
       </c>
       <c r="X290">
-        <f t="shared" ref="X290" si="320">(SUM(I290:I298))/5</f>
+        <f t="shared" ref="X290" si="315">(SUM(I290:I298))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y290">
-        <f t="shared" ref="Y290" si="321">SUM(K290:K298)-Z290</f>
+        <f t="shared" ref="Y290" si="316">SUM(K290:K298)-Z290</f>
         <v>65</v>
       </c>
       <c r="Z290">
-        <f t="shared" ref="Z290" si="322">SUM(L290:L298)</f>
+        <f t="shared" ref="Z290" si="317">SUM(L290:L298)</f>
         <v>2</v>
       </c>
       <c r="AA290" t="s">
@@ -58406,47 +58404,47 @@
         <v>29</v>
       </c>
       <c r="P299">
-        <f t="shared" ref="P299" si="323">M299*10</f>
+        <f t="shared" ref="P299" si="318">M299*10</f>
         <v>90</v>
       </c>
       <c r="Q299">
-        <f t="shared" ref="Q299" si="324">((SUM(C299:F299))/4)*1.04</f>
+        <f t="shared" ref="Q299" si="319">((SUM(C299:F299))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R299">
-        <f t="shared" ref="R299" si="325">((SUM(C301:F301))/4)*1.04</f>
+        <f t="shared" ref="R299" si="320">((SUM(C301:F301))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S299">
-        <f t="shared" ref="S299" si="326">((SUM(C303:F303))/4)*1.04</f>
+        <f t="shared" ref="S299" si="321">((SUM(C303:F303))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T299">
-        <f t="shared" ref="T299" si="327">((SUM(C305:F305))/4)*1.04</f>
+        <f t="shared" ref="T299" si="322">((SUM(C305:F305))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U299">
-        <f t="shared" ref="U299" si="328">((SUM(C307:F307))/4)*1.04</f>
+        <f t="shared" ref="U299" si="323">((SUM(C307:F307))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V299">
-        <f t="shared" ref="V299" si="329">((SUM(C299:F307))/20)*1.04</f>
+        <f t="shared" ref="V299" si="324">((SUM(C299:F307))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W299">
-        <f t="shared" ref="W299" si="330">(SUM(G299:H307))/10</f>
+        <f t="shared" ref="W299" si="325">(SUM(G299:H307))/10</f>
         <v>0.4</v>
       </c>
       <c r="X299">
-        <f t="shared" ref="X299" si="331">(SUM(I299:I307))/5</f>
+        <f t="shared" ref="X299" si="326">(SUM(I299:I307))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y299">
-        <f t="shared" ref="Y299" si="332">SUM(K299:K307)-Z299</f>
+        <f t="shared" ref="Y299" si="327">SUM(K299:K307)-Z299</f>
         <v>76</v>
       </c>
       <c r="Z299">
-        <f t="shared" ref="Z299" si="333">SUM(L299:L307)</f>
+        <f t="shared" ref="Z299" si="328">SUM(L299:L307)</f>
         <v>10</v>
       </c>
       <c r="AA299" t="s">
@@ -58900,47 +58898,47 @@
         <v>29</v>
       </c>
       <c r="P308">
-        <f t="shared" ref="P308" si="334">M308*10</f>
+        <f t="shared" ref="P308" si="329">M308*10</f>
         <v>60</v>
       </c>
       <c r="Q308">
-        <f t="shared" ref="Q308" si="335">((SUM(C308:F308))/4)*1.04</f>
+        <f t="shared" ref="Q308" si="330">((SUM(C308:F308))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R308">
-        <f t="shared" ref="R308" si="336">((SUM(C310:F310))/4)*1.04</f>
+        <f t="shared" ref="R308" si="331">((SUM(C310:F310))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S308">
-        <f t="shared" ref="S308" si="337">((SUM(C312:F312))/4)*1.04</f>
+        <f t="shared" ref="S308" si="332">((SUM(C312:F312))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T308">
-        <f t="shared" ref="T308" si="338">((SUM(C314:F314))/4)*1.04</f>
+        <f t="shared" ref="T308" si="333">((SUM(C314:F314))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U308">
-        <f t="shared" ref="U308" si="339">((SUM(C316:F316))/4)*1.04</f>
+        <f t="shared" ref="U308" si="334">((SUM(C316:F316))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V308">
-        <f t="shared" ref="V308" si="340">((SUM(C308:F316))/20)*1.04</f>
+        <f t="shared" ref="V308" si="335">((SUM(C308:F316))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W308">
-        <f t="shared" ref="W308" si="341">(SUM(G308:H316))/10</f>
+        <f t="shared" ref="W308" si="336">(SUM(G308:H316))/10</f>
         <v>42.7</v>
       </c>
       <c r="X308">
-        <f t="shared" ref="X308" si="342">(SUM(I308:I316))/5</f>
+        <f t="shared" ref="X308" si="337">(SUM(I308:I316))/5</f>
         <v>2</v>
       </c>
       <c r="Y308">
-        <f t="shared" ref="Y308" si="343">SUM(K308:K316)-Z308</f>
+        <f t="shared" ref="Y308" si="338">SUM(K308:K316)-Z308</f>
         <v>80</v>
       </c>
       <c r="Z308">
-        <f t="shared" ref="Z308" si="344">SUM(L308:L316)</f>
+        <f t="shared" ref="Z308" si="339">SUM(L308:L316)</f>
         <v>5</v>
       </c>
       <c r="AA308" t="s">
@@ -59394,47 +59392,47 @@
         <v>240</v>
       </c>
       <c r="P317">
-        <f t="shared" ref="P317" si="345">M317*10</f>
+        <f t="shared" ref="P317" si="340">M317*10</f>
         <v>60</v>
       </c>
       <c r="Q317">
-        <f t="shared" ref="Q317" si="346">((SUM(C317:F317))/4)*1.04</f>
+        <f t="shared" ref="Q317" si="341">((SUM(C317:F317))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R317">
-        <f t="shared" ref="R317" si="347">((SUM(C319:F319))/4)*1.04</f>
+        <f t="shared" ref="R317" si="342">((SUM(C319:F319))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S317">
-        <f t="shared" ref="S317" si="348">((SUM(C321:F321))/4)*1.04</f>
+        <f t="shared" ref="S317" si="343">((SUM(C321:F321))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T317">
-        <f t="shared" ref="T317" si="349">((SUM(C323:F323))/4)*1.04</f>
+        <f t="shared" ref="T317" si="344">((SUM(C323:F323))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U317">
-        <f t="shared" ref="U317" si="350">((SUM(C325:F325))/4)*1.04</f>
+        <f t="shared" ref="U317" si="345">((SUM(C325:F325))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V317">
-        <f t="shared" ref="V317" si="351">((SUM(C317:F325))/20)*1.04</f>
+        <f t="shared" ref="V317" si="346">((SUM(C317:F325))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W317">
-        <f t="shared" ref="W317" si="352">(SUM(G317:H325))/10</f>
+        <f t="shared" ref="W317" si="347">(SUM(G317:H325))/10</f>
         <v>16.5</v>
       </c>
       <c r="X317">
-        <f t="shared" ref="X317" si="353">(SUM(I317:I325))/5</f>
+        <f t="shared" ref="X317" si="348">(SUM(I317:I325))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y317">
-        <f t="shared" ref="Y317" si="354">SUM(K317:K325)-Z317</f>
+        <f t="shared" ref="Y317" si="349">SUM(K317:K325)-Z317</f>
         <v>19</v>
       </c>
       <c r="Z317">
-        <f t="shared" ref="Z317" si="355">SUM(L317:L325)</f>
+        <f t="shared" ref="Z317" si="350">SUM(L317:L325)</f>
         <v>2</v>
       </c>
       <c r="AA317" t="s">
@@ -59888,47 +59886,47 @@
         <v>43</v>
       </c>
       <c r="P326" t="e">
-        <f t="shared" ref="P326" si="356">M326*10</f>
+        <f t="shared" ref="P326" si="351">M326*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q326">
-        <f t="shared" ref="Q326" si="357">((SUM(C326:F326))/4)*1.04</f>
+        <f t="shared" ref="Q326" si="352">((SUM(C326:F326))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R326">
-        <f t="shared" ref="R326" si="358">((SUM(C328:F328))/4)*1.04</f>
+        <f t="shared" ref="R326" si="353">((SUM(C328:F328))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S326">
-        <f t="shared" ref="S326" si="359">((SUM(C330:F330))/4)*1.04</f>
+        <f t="shared" ref="S326" si="354">((SUM(C330:F330))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T326">
-        <f t="shared" ref="T326" si="360">((SUM(C332:F332))/4)*1.04</f>
+        <f t="shared" ref="T326" si="355">((SUM(C332:F332))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U326">
-        <f t="shared" ref="U326" si="361">((SUM(C334:F334))/4)*1.04</f>
+        <f t="shared" ref="U326" si="356">((SUM(C334:F334))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V326">
-        <f t="shared" ref="V326" si="362">((SUM(C326:F334))/20)*1.04</f>
+        <f t="shared" ref="V326" si="357">((SUM(C326:F334))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W326">
-        <f t="shared" ref="W326" si="363">(SUM(G326:H334))/10</f>
+        <f t="shared" ref="W326" si="358">(SUM(G326:H334))/10</f>
         <v>50.5</v>
       </c>
       <c r="X326">
-        <f t="shared" ref="X326" si="364">(SUM(I326:I334))/5</f>
+        <f t="shared" ref="X326" si="359">(SUM(I326:I334))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y326">
-        <f t="shared" ref="Y326" si="365">SUM(K326:K334)-Z326</f>
+        <f t="shared" ref="Y326" si="360">SUM(K326:K334)-Z326</f>
         <v>32</v>
       </c>
       <c r="Z326">
-        <f t="shared" ref="Z326" si="366">SUM(L326:L334)</f>
+        <f t="shared" ref="Z326" si="361">SUM(L326:L334)</f>
         <v>2</v>
       </c>
       <c r="AA326" t="s">
@@ -60382,47 +60380,47 @@
         <v>240</v>
       </c>
       <c r="P335" t="e">
-        <f t="shared" ref="P335" si="367">M335*10</f>
+        <f t="shared" ref="P335" si="362">M335*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q335">
-        <f t="shared" ref="Q335" si="368">((SUM(C335:F335))/4)*1.04</f>
+        <f t="shared" ref="Q335" si="363">((SUM(C335:F335))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R335">
-        <f t="shared" ref="R335" si="369">((SUM(C337:F337))/4)*1.04</f>
+        <f t="shared" ref="R335" si="364">((SUM(C337:F337))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S335">
-        <f t="shared" ref="S335" si="370">((SUM(C339:F339))/4)*1.04</f>
+        <f t="shared" ref="S335" si="365">((SUM(C339:F339))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335" si="371">((SUM(C341:F341))/4)*1.04</f>
+        <f t="shared" ref="T335" si="366">((SUM(C341:F341))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U335">
-        <f t="shared" ref="U335" si="372">((SUM(C343:F343))/4)*1.04</f>
+        <f t="shared" ref="U335" si="367">((SUM(C343:F343))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V335">
-        <f t="shared" ref="V335" si="373">((SUM(C335:F343))/20)*1.04</f>
+        <f t="shared" ref="V335" si="368">((SUM(C335:F343))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W335">
-        <f t="shared" ref="W335" si="374">(SUM(G335:H343))/10</f>
+        <f t="shared" ref="W335" si="369">(SUM(G335:H343))/10</f>
         <v>47</v>
       </c>
       <c r="X335">
-        <f t="shared" ref="X335" si="375">(SUM(I335:I343))/5</f>
+        <f t="shared" ref="X335" si="370">(SUM(I335:I343))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y335">
-        <f t="shared" ref="Y335" si="376">SUM(K335:K343)-Z335</f>
+        <f t="shared" ref="Y335" si="371">SUM(K335:K343)-Z335</f>
         <v>24</v>
       </c>
       <c r="Z335">
-        <f t="shared" ref="Z335" si="377">SUM(L335:L343)</f>
+        <f t="shared" ref="Z335" si="372">SUM(L335:L343)</f>
         <v>0</v>
       </c>
       <c r="AA335" t="s">
@@ -60876,47 +60874,47 @@
         <v>43</v>
       </c>
       <c r="P344">
-        <f t="shared" ref="P344" si="378">M344*10</f>
+        <f t="shared" ref="P344" si="373">M344*10</f>
         <v>100</v>
       </c>
       <c r="Q344">
-        <f t="shared" ref="Q344" si="379">((SUM(C344:F344))/4)*1.04</f>
+        <f t="shared" ref="Q344" si="374">((SUM(C344:F344))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R344">
-        <f t="shared" ref="R344" si="380">((SUM(C346:F346))/4)*1.04</f>
+        <f t="shared" ref="R344" si="375">((SUM(C346:F346))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S344">
-        <f t="shared" ref="S344" si="381">((SUM(C348:F348))/4)*1.04</f>
+        <f t="shared" ref="S344" si="376">((SUM(C348:F348))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T344">
-        <f t="shared" ref="T344" si="382">((SUM(C350:F350))/4)*1.04</f>
+        <f t="shared" ref="T344" si="377">((SUM(C350:F350))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U344">
-        <f t="shared" ref="U344" si="383">((SUM(C352:F352))/4)*1.04</f>
+        <f t="shared" ref="U344" si="378">((SUM(C352:F352))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V344">
-        <f t="shared" ref="V344" si="384">((SUM(C344:F352))/20)*1.04</f>
+        <f t="shared" ref="V344" si="379">((SUM(C344:F352))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W344">
-        <f t="shared" ref="W344" si="385">(SUM(G344:H352))/10</f>
+        <f t="shared" ref="W344" si="380">(SUM(G344:H352))/10</f>
         <v>1.7</v>
       </c>
       <c r="X344">
-        <f t="shared" ref="X344" si="386">(SUM(I344:I352))/5</f>
+        <f t="shared" ref="X344" si="381">(SUM(I344:I352))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y344">
-        <f t="shared" ref="Y344" si="387">SUM(K344:K352)-Z344</f>
+        <f t="shared" ref="Y344" si="382">SUM(K344:K352)-Z344</f>
         <v>62</v>
       </c>
       <c r="Z344">
-        <f t="shared" ref="Z344" si="388">SUM(L344:L352)</f>
+        <f t="shared" ref="Z344" si="383">SUM(L344:L352)</f>
         <v>7</v>
       </c>
       <c r="AA344" t="s">
@@ -61370,47 +61368,47 @@
         <v>43</v>
       </c>
       <c r="P353">
-        <f t="shared" ref="P353" si="389">M353*10</f>
+        <f t="shared" ref="P353" si="384">M353*10</f>
         <v>90</v>
       </c>
       <c r="Q353">
-        <f t="shared" ref="Q353" si="390">((SUM(C353:F353))/4)*1.04</f>
+        <f t="shared" ref="Q353" si="385">((SUM(C353:F353))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R353">
-        <f t="shared" ref="R353" si="391">((SUM(C355:F355))/4)*1.04</f>
+        <f t="shared" ref="R353" si="386">((SUM(C355:F355))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S353">
-        <f t="shared" ref="S353" si="392">((SUM(C357:F357))/4)*1.04</f>
+        <f t="shared" ref="S353" si="387">((SUM(C357:F357))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T353">
-        <f t="shared" ref="T353" si="393">((SUM(C359:F359))/4)*1.04</f>
+        <f t="shared" ref="T353" si="388">((SUM(C359:F359))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U353">
-        <f t="shared" ref="U353" si="394">((SUM(C361:F361))/4)*1.04</f>
+        <f t="shared" ref="U353" si="389">((SUM(C361:F361))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V353">
-        <f t="shared" ref="V353" si="395">((SUM(C353:F361))/20)*1.04</f>
+        <f t="shared" ref="V353" si="390">((SUM(C353:F361))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W353">
-        <f t="shared" ref="W353" si="396">(SUM(G353:H361))/10</f>
+        <f t="shared" ref="W353" si="391">(SUM(G353:H361))/10</f>
         <v>2.4</v>
       </c>
       <c r="X353">
-        <f t="shared" ref="X353" si="397">(SUM(I353:I361))/5</f>
+        <f t="shared" ref="X353" si="392">(SUM(I353:I361))/5</f>
         <v>3.8</v>
       </c>
       <c r="Y353">
-        <f t="shared" ref="Y353" si="398">SUM(K353:K361)-Z353</f>
+        <f t="shared" ref="Y353" si="393">SUM(K353:K361)-Z353</f>
         <v>54</v>
       </c>
       <c r="Z353">
-        <f t="shared" ref="Z353" si="399">SUM(L353:L361)</f>
+        <f t="shared" ref="Z353" si="394">SUM(L353:L361)</f>
         <v>6</v>
       </c>
       <c r="AA353" t="s">
@@ -61864,47 +61862,47 @@
         <v>29</v>
       </c>
       <c r="P362">
-        <f t="shared" ref="P362" si="400">M362*10</f>
+        <f t="shared" ref="P362" si="395">M362*10</f>
         <v>50</v>
       </c>
       <c r="Q362">
-        <f t="shared" ref="Q362" si="401">((SUM(C362:F362))/4)*1.04</f>
+        <f t="shared" ref="Q362" si="396">((SUM(C362:F362))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R362">
-        <f t="shared" ref="R362" si="402">((SUM(C364:F364))/4)*1.04</f>
+        <f t="shared" ref="R362" si="397">((SUM(C364:F364))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S362">
-        <f t="shared" ref="S362" si="403">((SUM(C366:F366))/4)*1.04</f>
+        <f t="shared" ref="S362" si="398">((SUM(C366:F366))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T362">
-        <f t="shared" ref="T362" si="404">((SUM(C368:F368))/4)*1.04</f>
+        <f t="shared" ref="T362" si="399">((SUM(C368:F368))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U362">
-        <f t="shared" ref="U362" si="405">((SUM(C370:F370))/4)*1.04</f>
+        <f t="shared" ref="U362" si="400">((SUM(C370:F370))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V362">
-        <f t="shared" ref="V362" si="406">((SUM(C362:F370))/20)*1.04</f>
+        <f t="shared" ref="V362" si="401">((SUM(C362:F370))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W362">
-        <f t="shared" ref="W362" si="407">(SUM(G362:H370))/10</f>
+        <f t="shared" ref="W362" si="402">(SUM(G362:H370))/10</f>
         <v>18.100000000000001</v>
       </c>
       <c r="X362">
-        <f t="shared" ref="X362" si="408">(SUM(I362:I370))/5</f>
+        <f t="shared" ref="X362" si="403">(SUM(I362:I370))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y362">
-        <f t="shared" ref="Y362" si="409">SUM(K362:K370)-Z362</f>
+        <f t="shared" ref="Y362" si="404">SUM(K362:K370)-Z362</f>
         <v>60</v>
       </c>
       <c r="Z362">
-        <f t="shared" ref="Z362" si="410">SUM(L362:L370)</f>
+        <f t="shared" ref="Z362" si="405">SUM(L362:L370)</f>
         <v>8</v>
       </c>
       <c r="AA362" t="s">
@@ -62358,47 +62356,47 @@
         <v>29</v>
       </c>
       <c r="P371">
-        <f t="shared" ref="P371" si="411">M371*10</f>
+        <f t="shared" ref="P371" si="406">M371*10</f>
         <v>100</v>
       </c>
       <c r="Q371">
-        <f t="shared" ref="Q371" si="412">((SUM(C371:F371))/4)*1.04</f>
+        <f t="shared" ref="Q371" si="407">((SUM(C371:F371))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R371">
-        <f t="shared" ref="R371" si="413">((SUM(C373:F373))/4)*1.04</f>
+        <f t="shared" ref="R371" si="408">((SUM(C373:F373))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S371">
-        <f t="shared" ref="S371" si="414">((SUM(C375:F375))/4)*1.04</f>
+        <f t="shared" ref="S371" si="409">((SUM(C375:F375))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T371">
-        <f t="shared" ref="T371" si="415">((SUM(C377:F377))/4)*1.04</f>
+        <f t="shared" ref="T371" si="410">((SUM(C377:F377))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U371">
-        <f t="shared" ref="U371" si="416">((SUM(C379:F379))/4)*1.04</f>
+        <f t="shared" ref="U371" si="411">((SUM(C379:F379))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V371">
-        <f t="shared" ref="V371" si="417">((SUM(C371:F379))/20)*1.04</f>
+        <f t="shared" ref="V371" si="412">((SUM(C371:F379))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W371">
-        <f t="shared" ref="W371" si="418">(SUM(G371:H379))/10</f>
+        <f t="shared" ref="W371" si="413">(SUM(G371:H379))/10</f>
         <v>88.7</v>
       </c>
       <c r="X371">
-        <f t="shared" ref="X371" si="419">(SUM(I371:I379))/5</f>
+        <f t="shared" ref="X371" si="414">(SUM(I371:I379))/5</f>
         <v>1</v>
       </c>
       <c r="Y371">
-        <f t="shared" ref="Y371" si="420">SUM(K371:K379)-Z371</f>
+        <f t="shared" ref="Y371" si="415">SUM(K371:K379)-Z371</f>
         <v>33</v>
       </c>
       <c r="Z371">
-        <f t="shared" ref="Z371" si="421">SUM(L371:L379)</f>
+        <f t="shared" ref="Z371" si="416">SUM(L371:L379)</f>
         <v>6</v>
       </c>
       <c r="AA371" t="s">
@@ -62852,47 +62850,47 @@
         <v>67</v>
       </c>
       <c r="P380">
-        <f t="shared" ref="P380" si="422">M380*10</f>
+        <f t="shared" ref="P380" si="417">M380*10</f>
         <v>100</v>
       </c>
       <c r="Q380">
-        <f t="shared" ref="Q380" si="423">((SUM(C380:F380))/4)*1.04</f>
+        <f t="shared" ref="Q380" si="418">((SUM(C380:F380))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R380">
-        <f t="shared" ref="R380" si="424">((SUM(C382:F382))/4)*1.04</f>
+        <f t="shared" ref="R380" si="419">((SUM(C382:F382))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S380">
-        <f t="shared" ref="S380" si="425">((SUM(C384:F384))/4)*1.04</f>
+        <f t="shared" ref="S380" si="420">((SUM(C384:F384))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T380">
-        <f t="shared" ref="T380" si="426">((SUM(C386:F386))/4)*1.04</f>
+        <f t="shared" ref="T380" si="421">((SUM(C386:F386))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U380">
-        <f t="shared" ref="U380" si="427">((SUM(C388:F388))/4)*1.04</f>
+        <f t="shared" ref="U380" si="422">((SUM(C388:F388))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V380">
-        <f t="shared" ref="V380" si="428">((SUM(C380:F388))/20)*1.04</f>
+        <f t="shared" ref="V380" si="423">((SUM(C380:F388))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W380">
-        <f t="shared" ref="W380" si="429">(SUM(G380:H388))/10</f>
+        <f t="shared" ref="W380" si="424">(SUM(G380:H388))/10</f>
         <v>35.1</v>
       </c>
       <c r="X380">
-        <f t="shared" ref="X380" si="430">(SUM(I380:I388))/5</f>
+        <f t="shared" ref="X380" si="425">(SUM(I380:I388))/5</f>
         <v>2</v>
       </c>
       <c r="Y380">
-        <f t="shared" ref="Y380" si="431">SUM(K380:K388)-Z380</f>
+        <f t="shared" ref="Y380" si="426">SUM(K380:K388)-Z380</f>
         <v>57</v>
       </c>
       <c r="Z380">
-        <f t="shared" ref="Z380" si="432">SUM(L380:L388)</f>
+        <f t="shared" ref="Z380" si="427">SUM(L380:L388)</f>
         <v>5</v>
       </c>
       <c r="AA380" t="s">
@@ -63350,43 +63348,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q389">
-        <f t="shared" ref="Q389" si="433">((SUM(C389:F389))/4)*1.04</f>
+        <f t="shared" ref="Q389" si="428">((SUM(C389:F389))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R389">
-        <f t="shared" ref="R389" si="434">((SUM(C391:F391))/4)*1.04</f>
+        <f t="shared" ref="R389" si="429">((SUM(C391:F391))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S389">
-        <f t="shared" ref="S389" si="435">((SUM(C393:F393))/4)*1.04</f>
+        <f t="shared" ref="S389" si="430">((SUM(C393:F393))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T389">
-        <f t="shared" ref="T389" si="436">((SUM(C395:F395))/4)*1.04</f>
+        <f t="shared" ref="T389" si="431">((SUM(C395:F395))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U389">
-        <f t="shared" ref="U389" si="437">((SUM(C397:F397))/4)*1.04</f>
+        <f t="shared" ref="U389" si="432">((SUM(C397:F397))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V389">
-        <f t="shared" ref="V389" si="438">((SUM(C389:F397))/20)*1.04</f>
+        <f t="shared" ref="V389" si="433">((SUM(C389:F397))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W389">
-        <f t="shared" ref="W389" si="439">(SUM(G389:H397))/10</f>
+        <f t="shared" ref="W389" si="434">(SUM(G389:H397))/10</f>
         <v>1.7</v>
       </c>
       <c r="X389">
-        <f t="shared" ref="X389" si="440">(SUM(I389:I397))/5</f>
+        <f t="shared" ref="X389" si="435">(SUM(I389:I397))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y389">
-        <f t="shared" ref="Y389" si="441">SUM(K389:K397)-Z389</f>
+        <f t="shared" ref="Y389" si="436">SUM(K389:K397)-Z389</f>
         <v>84</v>
       </c>
       <c r="Z389">
-        <f t="shared" ref="Z389" si="442">SUM(L389:L397)</f>
+        <f t="shared" ref="Z389" si="437">SUM(L389:L397)</f>
         <v>11</v>
       </c>
       <c r="AA389" t="s">
@@ -63840,47 +63838,47 @@
         <v>43</v>
       </c>
       <c r="P398">
-        <f t="shared" ref="P398" si="443">M398*10</f>
+        <f t="shared" ref="P398" si="438">M398*10</f>
         <v>40</v>
       </c>
       <c r="Q398">
-        <f t="shared" ref="Q398" si="444">((SUM(C398:F398))/4)*1.04</f>
+        <f t="shared" ref="Q398" si="439">((SUM(C398:F398))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R398">
-        <f t="shared" ref="R398" si="445">((SUM(C400:F400))/4)*1.04</f>
+        <f t="shared" ref="R398" si="440">((SUM(C400:F400))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S398">
-        <f t="shared" ref="S398" si="446">((SUM(C402:F402))/4)*1.04</f>
+        <f t="shared" ref="S398" si="441">((SUM(C402:F402))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T398">
-        <f t="shared" ref="T398" si="447">((SUM(C404:F404))/4)*1.04</f>
+        <f t="shared" ref="T398" si="442">((SUM(C404:F404))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U398">
-        <f t="shared" ref="U398" si="448">((SUM(C406:F406))/4)*1.04</f>
+        <f t="shared" ref="U398" si="443">((SUM(C406:F406))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V398">
-        <f t="shared" ref="V398" si="449">((SUM(C398:F406))/20)*1.04</f>
+        <f t="shared" ref="V398" si="444">((SUM(C398:F406))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W398">
-        <f t="shared" ref="W398" si="450">(SUM(G398:H406))/10</f>
+        <f t="shared" ref="W398" si="445">(SUM(G398:H406))/10</f>
         <v>19.7</v>
       </c>
       <c r="X398">
-        <f t="shared" ref="X398" si="451">(SUM(I398:I406))/5</f>
+        <f t="shared" ref="X398" si="446">(SUM(I398:I406))/5</f>
         <v>3.6</v>
       </c>
       <c r="Y398">
-        <f t="shared" ref="Y398" si="452">SUM(K398:K406)-Z398</f>
+        <f t="shared" ref="Y398" si="447">SUM(K398:K406)-Z398</f>
         <v>68</v>
       </c>
       <c r="Z398">
-        <f t="shared" ref="Z398" si="453">SUM(L398:L406)</f>
+        <f t="shared" ref="Z398" si="448">SUM(L398:L406)</f>
         <v>2</v>
       </c>
       <c r="AA398" t="s">
@@ -64334,47 +64332,47 @@
         <v>67</v>
       </c>
       <c r="P407">
-        <f t="shared" ref="P407" si="454">M407*10</f>
+        <f t="shared" ref="P407" si="449">M407*10</f>
         <v>40</v>
       </c>
       <c r="Q407">
-        <f t="shared" ref="Q407" si="455">((SUM(C407:F407))/4)*1.04</f>
+        <f t="shared" ref="Q407" si="450">((SUM(C407:F407))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R407">
-        <f t="shared" ref="R407" si="456">((SUM(C409:F409))/4)*1.04</f>
+        <f t="shared" ref="R407" si="451">((SUM(C409:F409))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S407">
-        <f t="shared" ref="S407" si="457">((SUM(C411:F411))/4)*1.04</f>
+        <f t="shared" ref="S407" si="452">((SUM(C411:F411))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T407">
-        <f t="shared" ref="T407" si="458">((SUM(C413:F413))/4)*1.04</f>
+        <f t="shared" ref="T407" si="453">((SUM(C413:F413))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U407">
-        <f t="shared" ref="U407" si="459">((SUM(C415:F415))/4)*1.04</f>
+        <f t="shared" ref="U407" si="454">((SUM(C415:F415))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V407">
-        <f t="shared" ref="V407" si="460">((SUM(C407:F415))/20)*1.04</f>
+        <f t="shared" ref="V407" si="455">((SUM(C407:F415))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W407">
-        <f t="shared" ref="W407" si="461">(SUM(G407:H415))/10</f>
+        <f t="shared" ref="W407" si="456">(SUM(G407:H415))/10</f>
         <v>41.3</v>
       </c>
       <c r="X407">
-        <f t="shared" ref="X407" si="462">(SUM(I407:I415))/5</f>
+        <f t="shared" ref="X407" si="457">(SUM(I407:I415))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y407">
-        <f t="shared" ref="Y407" si="463">SUM(K407:K415)-Z407</f>
+        <f t="shared" ref="Y407" si="458">SUM(K407:K415)-Z407</f>
         <v>81</v>
       </c>
       <c r="Z407">
-        <f t="shared" ref="Z407" si="464">SUM(L407:L415)</f>
+        <f t="shared" ref="Z407" si="459">SUM(L407:L415)</f>
         <v>12</v>
       </c>
       <c r="AA407" t="s">
@@ -64828,47 +64826,47 @@
         <v>560</v>
       </c>
       <c r="P416" t="e">
-        <f t="shared" ref="P416" si="465">M416*10</f>
+        <f t="shared" ref="P416" si="460">M416*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q416">
-        <f t="shared" ref="Q416" si="466">((SUM(C416:F416))/4)*1.04</f>
+        <f t="shared" ref="Q416" si="461">((SUM(C416:F416))/4)*1.04</f>
         <v>37.700000000000003</v>
       </c>
       <c r="R416">
-        <f t="shared" ref="R416" si="467">((SUM(C418:F418))/4)*1.04</f>
+        <f t="shared" ref="R416" si="462">((SUM(C418:F418))/4)*1.04</f>
         <v>18.46</v>
       </c>
       <c r="S416">
-        <f t="shared" ref="S416" si="468">((SUM(C420:F420))/4)*1.04</f>
+        <f t="shared" ref="S416" si="463">((SUM(C420:F420))/4)*1.04</f>
         <v>5.2</v>
       </c>
       <c r="T416">
-        <f t="shared" ref="T416" si="469">((SUM(C422:F422))/4)*1.04</f>
+        <f t="shared" ref="T416" si="464">((SUM(C422:F422))/4)*1.04</f>
         <v>7.8000000000000007</v>
       </c>
       <c r="U416">
-        <f t="shared" ref="U416" si="470">((SUM(C424:F424))/4)*1.04</f>
+        <f t="shared" ref="U416" si="465">((SUM(C424:F424))/4)*1.04</f>
         <v>11.96</v>
       </c>
       <c r="V416">
-        <f t="shared" ref="V416" si="471">((SUM(C416:F424))/20)*1.04</f>
+        <f t="shared" ref="V416" si="466">((SUM(C416:F424))/20)*1.04</f>
         <v>16.224</v>
       </c>
       <c r="W416">
-        <f t="shared" ref="W416" si="472">(SUM(G416:H424))/10</f>
+        <f t="shared" ref="W416" si="467">(SUM(G416:H424))/10</f>
         <v>19.5</v>
       </c>
       <c r="X416">
-        <f t="shared" ref="X416" si="473">(SUM(I416:I424))/5</f>
+        <f t="shared" ref="X416" si="468">(SUM(I416:I424))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y416">
-        <f t="shared" ref="Y416" si="474">SUM(K416:K424)-Z416</f>
+        <f t="shared" ref="Y416" si="469">SUM(K416:K424)-Z416</f>
         <v>36</v>
       </c>
       <c r="Z416">
-        <f t="shared" ref="Z416" si="475">SUM(L416:L424)</f>
+        <f t="shared" ref="Z416" si="470">SUM(L416:L424)</f>
         <v>3</v>
       </c>
       <c r="AA416" t="s">
@@ -65322,47 +65320,47 @@
         <v>560</v>
       </c>
       <c r="P425" t="e">
-        <f t="shared" ref="P425" si="476">M425*10</f>
+        <f t="shared" ref="P425" si="471">M425*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q425">
-        <f t="shared" ref="Q425" si="477">((SUM(C425:F425))/4)*1.04</f>
+        <f t="shared" ref="Q425" si="472">((SUM(C425:F425))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R425">
-        <f t="shared" ref="R425" si="478">((SUM(C427:F427))/4)*1.04</f>
+        <f t="shared" ref="R425" si="473">((SUM(C427:F427))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S425">
-        <f t="shared" ref="S425" si="479">((SUM(C429:F429))/4)*1.04</f>
+        <f t="shared" ref="S425" si="474">((SUM(C429:F429))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T425">
-        <f t="shared" ref="T425" si="480">((SUM(C431:F431))/4)*1.04</f>
+        <f t="shared" ref="T425" si="475">((SUM(C431:F431))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U425">
-        <f t="shared" ref="U425" si="481">((SUM(C433:F433))/4)*1.04</f>
+        <f t="shared" ref="U425" si="476">((SUM(C433:F433))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V425">
-        <f t="shared" ref="V425" si="482">((SUM(C425:F433))/20)*1.04</f>
+        <f t="shared" ref="V425" si="477">((SUM(C425:F433))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W425">
-        <f t="shared" ref="W425" si="483">(SUM(G425:H433))/10</f>
+        <f t="shared" ref="W425" si="478">(SUM(G425:H433))/10</f>
         <v>26.2</v>
       </c>
       <c r="X425">
-        <f t="shared" ref="X425" si="484">(SUM(I425:I433))/5</f>
+        <f t="shared" ref="X425" si="479">(SUM(I425:I433))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y425">
-        <f t="shared" ref="Y425" si="485">SUM(K425:K433)-Z425</f>
+        <f t="shared" ref="Y425" si="480">SUM(K425:K433)-Z425</f>
         <v>32</v>
       </c>
       <c r="Z425">
-        <f t="shared" ref="Z425" si="486">SUM(L425:L433)</f>
+        <f t="shared" ref="Z425" si="481">SUM(L425:L433)</f>
         <v>1</v>
       </c>
       <c r="AA425" t="s">
@@ -65816,47 +65814,47 @@
         <v>240</v>
       </c>
       <c r="P434">
-        <f t="shared" ref="P434" si="487">M434*10</f>
+        <f t="shared" ref="P434" si="482">M434*10</f>
         <v>20</v>
       </c>
       <c r="Q434">
-        <f t="shared" ref="Q434" si="488">((SUM(C434:F434))/4)*1.04</f>
+        <f t="shared" ref="Q434" si="483">((SUM(C434:F434))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R434">
-        <f t="shared" ref="R434" si="489">((SUM(C436:F436))/4)*1.04</f>
+        <f t="shared" ref="R434" si="484">((SUM(C436:F436))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S434">
-        <f t="shared" ref="S434" si="490">((SUM(C438:F438))/4)*1.04</f>
+        <f t="shared" ref="S434" si="485">((SUM(C438:F438))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T434">
-        <f t="shared" ref="T434" si="491">((SUM(C440:F440))/4)*1.04</f>
+        <f t="shared" ref="T434" si="486">((SUM(C440:F440))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U434">
-        <f t="shared" ref="U434" si="492">((SUM(C442:F442))/4)*1.04</f>
+        <f t="shared" ref="U434" si="487">((SUM(C442:F442))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V434">
-        <f t="shared" ref="V434" si="493">((SUM(C434:F442))/20)*1.04</f>
+        <f t="shared" ref="V434" si="488">((SUM(C434:F442))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W434">
-        <f t="shared" ref="W434" si="494">(SUM(G434:H442))/10</f>
+        <f t="shared" ref="W434" si="489">(SUM(G434:H442))/10</f>
         <v>10.5</v>
       </c>
       <c r="X434">
-        <f t="shared" ref="X434" si="495">(SUM(I434:I442))/5</f>
+        <f t="shared" ref="X434" si="490">(SUM(I434:I442))/5</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y434">
-        <f t="shared" ref="Y434" si="496">SUM(K434:K442)-Z434</f>
+        <f t="shared" ref="Y434" si="491">SUM(K434:K442)-Z434</f>
         <v>15</v>
       </c>
       <c r="Z434">
-        <f t="shared" ref="Z434" si="497">SUM(L434:L442)</f>
+        <f t="shared" ref="Z434" si="492">SUM(L434:L442)</f>
         <v>3</v>
       </c>
       <c r="AA434" t="s">
@@ -66310,47 +66308,47 @@
         <v>240</v>
       </c>
       <c r="P443">
-        <f t="shared" ref="P443" si="498">M443*10</f>
+        <f t="shared" ref="P443" si="493">M443*10</f>
         <v>40</v>
       </c>
       <c r="Q443">
-        <f t="shared" ref="Q443" si="499">((SUM(C443:F443))/4)*1.04</f>
+        <f t="shared" ref="Q443" si="494">((SUM(C443:F443))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R443">
-        <f t="shared" ref="R443" si="500">((SUM(C445:F445))/4)*1.04</f>
+        <f t="shared" ref="R443" si="495">((SUM(C445:F445))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S443">
-        <f t="shared" ref="S443" si="501">((SUM(C447:F447))/4)*1.04</f>
+        <f t="shared" ref="S443" si="496">((SUM(C447:F447))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T443">
-        <f t="shared" ref="T443" si="502">((SUM(C449:F449))/4)*1.04</f>
+        <f t="shared" ref="T443" si="497">((SUM(C449:F449))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U443">
-        <f t="shared" ref="U443" si="503">((SUM(C451:F451))/4)*1.04</f>
+        <f t="shared" ref="U443" si="498">((SUM(C451:F451))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V443">
-        <f t="shared" ref="V443" si="504">((SUM(C443:F451))/20)*1.04</f>
+        <f t="shared" ref="V443" si="499">((SUM(C443:F451))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W443">
-        <f t="shared" ref="W443" si="505">(SUM(G443:H451))/10</f>
+        <f t="shared" ref="W443" si="500">(SUM(G443:H451))/10</f>
         <v>37.5</v>
       </c>
       <c r="X443">
-        <f t="shared" ref="X443" si="506">(SUM(I443:I451))/5</f>
+        <f t="shared" ref="X443" si="501">(SUM(I443:I451))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y443">
-        <f t="shared" ref="Y443" si="507">SUM(K443:K451)-Z443</f>
+        <f t="shared" ref="Y443" si="502">SUM(K443:K451)-Z443</f>
         <v>19</v>
       </c>
       <c r="Z443">
-        <f t="shared" ref="Z443" si="508">SUM(L443:L451)</f>
+        <f t="shared" ref="Z443" si="503">SUM(L443:L451)</f>
         <v>1</v>
       </c>
       <c r="AA443" t="s">
@@ -66804,47 +66802,47 @@
         <v>240</v>
       </c>
       <c r="P452">
-        <f t="shared" ref="P452" si="509">M452*10</f>
+        <f t="shared" ref="P452" si="504">M452*10</f>
         <v>40</v>
       </c>
       <c r="Q452">
-        <f t="shared" ref="Q452" si="510">((SUM(C452:F452))/4)*1.04</f>
+        <f t="shared" ref="Q452" si="505">((SUM(C452:F452))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R452">
-        <f t="shared" ref="R452" si="511">((SUM(C454:F454))/4)*1.04</f>
+        <f t="shared" ref="R452" si="506">((SUM(C454:F454))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S452">
-        <f t="shared" ref="S452" si="512">((SUM(C456:F456))/4)*1.04</f>
+        <f t="shared" ref="S452" si="507">((SUM(C456:F456))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T452">
-        <f t="shared" ref="T452" si="513">((SUM(C458:F458))/4)*1.04</f>
+        <f t="shared" ref="T452" si="508">((SUM(C458:F458))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U452">
-        <f t="shared" ref="U452" si="514">((SUM(C460:F460))/4)*1.04</f>
+        <f t="shared" ref="U452" si="509">((SUM(C460:F460))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V452">
-        <f t="shared" ref="V452" si="515">((SUM(C452:F460))/20)*1.04</f>
+        <f t="shared" ref="V452" si="510">((SUM(C452:F460))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W452">
-        <f t="shared" ref="W452" si="516">(SUM(G452:H460))/10</f>
+        <f t="shared" ref="W452" si="511">(SUM(G452:H460))/10</f>
         <v>14</v>
       </c>
       <c r="X452">
-        <f t="shared" ref="X452" si="517">(SUM(I452:I460))/5</f>
+        <f t="shared" ref="X452" si="512">(SUM(I452:I460))/5</f>
         <v>3.2</v>
       </c>
       <c r="Y452">
-        <f t="shared" ref="Y452" si="518">SUM(K452:K460)-Z452</f>
+        <f t="shared" ref="Y452" si="513">SUM(K452:K460)-Z452</f>
         <v>16</v>
       </c>
       <c r="Z452">
-        <f t="shared" ref="Z452" si="519">SUM(L452:L460)</f>
+        <f t="shared" ref="Z452" si="514">SUM(L452:L460)</f>
         <v>4</v>
       </c>
       <c r="AA452" t="s">
@@ -67298,47 +67296,47 @@
         <v>240</v>
       </c>
       <c r="P461" t="e">
-        <f t="shared" ref="P461" si="520">M461*10</f>
+        <f t="shared" ref="P461" si="515">M461*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q461">
-        <f t="shared" ref="Q461" si="521">((SUM(C461:F461))/4)*1.04</f>
+        <f t="shared" ref="Q461" si="516">((SUM(C461:F461))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R461">
-        <f t="shared" ref="R461" si="522">((SUM(C463:F463))/4)*1.04</f>
+        <f t="shared" ref="R461" si="517">((SUM(C463:F463))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S461">
-        <f t="shared" ref="S461" si="523">((SUM(C465:F465))/4)*1.04</f>
+        <f t="shared" ref="S461" si="518">((SUM(C465:F465))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T461">
-        <f t="shared" ref="T461" si="524">((SUM(C467:F467))/4)*1.04</f>
+        <f t="shared" ref="T461" si="519">((SUM(C467:F467))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U461">
-        <f t="shared" ref="U461" si="525">((SUM(C469:F469))/4)*1.04</f>
+        <f t="shared" ref="U461" si="520">((SUM(C469:F469))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V461">
-        <f t="shared" ref="V461" si="526">((SUM(C461:F469))/20)*1.04</f>
+        <f t="shared" ref="V461" si="521">((SUM(C461:F469))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W461">
-        <f t="shared" ref="W461" si="527">(SUM(G461:H469))/10</f>
+        <f t="shared" ref="W461" si="522">(SUM(G461:H469))/10</f>
         <v>19</v>
       </c>
       <c r="X461">
-        <f t="shared" ref="X461" si="528">(SUM(I461:I469))/5</f>
+        <f t="shared" ref="X461" si="523">(SUM(I461:I469))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y461">
-        <f t="shared" ref="Y461" si="529">SUM(K461:K469)-Z461</f>
+        <f t="shared" ref="Y461" si="524">SUM(K461:K469)-Z461</f>
         <v>33</v>
       </c>
       <c r="Z461">
-        <f t="shared" ref="Z461" si="530">SUM(L461:L469)</f>
+        <f t="shared" ref="Z461" si="525">SUM(L461:L469)</f>
         <v>3</v>
       </c>
       <c r="AA461" t="s">
@@ -67792,47 +67790,47 @@
         <v>240</v>
       </c>
       <c r="P470" t="e">
-        <f t="shared" ref="P470" si="531">M470*10</f>
+        <f t="shared" ref="P470" si="526">M470*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q470">
-        <f t="shared" ref="Q470" si="532">((SUM(C470:F470))/4)*1.04</f>
+        <f t="shared" ref="Q470" si="527">((SUM(C470:F470))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R470">
-        <f t="shared" ref="R470" si="533">((SUM(C472:F472))/4)*1.04</f>
+        <f t="shared" ref="R470" si="528">((SUM(C472:F472))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S470">
-        <f t="shared" ref="S470" si="534">((SUM(C474:F474))/4)*1.04</f>
+        <f t="shared" ref="S470" si="529">((SUM(C474:F474))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T470">
-        <f t="shared" ref="T470" si="535">((SUM(C476:F476))/4)*1.04</f>
+        <f t="shared" ref="T470" si="530">((SUM(C476:F476))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U470">
-        <f t="shared" ref="U470" si="536">((SUM(C478:F478))/4)*1.04</f>
+        <f t="shared" ref="U470" si="531">((SUM(C478:F478))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V470">
-        <f t="shared" ref="V470" si="537">((SUM(C470:F478))/20)*1.04</f>
+        <f t="shared" ref="V470" si="532">((SUM(C470:F478))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W470">
-        <f t="shared" ref="W470" si="538">(SUM(G470:H478))/10</f>
+        <f t="shared" ref="W470" si="533">(SUM(G470:H478))/10</f>
         <v>31</v>
       </c>
       <c r="X470">
-        <f t="shared" ref="X470" si="539">(SUM(I470:I478))/5</f>
+        <f t="shared" ref="X470" si="534">(SUM(I470:I478))/5</f>
         <v>3.4</v>
       </c>
       <c r="Y470">
-        <f t="shared" ref="Y470" si="540">SUM(K470:K478)-Z470</f>
+        <f t="shared" ref="Y470" si="535">SUM(K470:K478)-Z470</f>
         <v>42</v>
       </c>
       <c r="Z470">
-        <f t="shared" ref="Z470" si="541">SUM(L470:L478)</f>
+        <f t="shared" ref="Z470" si="536">SUM(L470:L478)</f>
         <v>4</v>
       </c>
       <c r="AA470" t="s">
@@ -68286,47 +68284,47 @@
         <v>240</v>
       </c>
       <c r="P479" t="e">
-        <f t="shared" ref="P479" si="542">M479*10</f>
+        <f t="shared" ref="P479" si="537">M479*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q479">
-        <f t="shared" ref="Q479" si="543">((SUM(C479:F479))/4)*1.04</f>
+        <f t="shared" ref="Q479" si="538">((SUM(C479:F479))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R479">
-        <f t="shared" ref="R479" si="544">((SUM(C481:F481))/4)*1.04</f>
+        <f t="shared" ref="R479" si="539">((SUM(C481:F481))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S479">
-        <f t="shared" ref="S479" si="545">((SUM(C483:F483))/4)*1.04</f>
+        <f t="shared" ref="S479" si="540">((SUM(C483:F483))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T479">
-        <f t="shared" ref="T479" si="546">((SUM(C485:F485))/4)*1.04</f>
+        <f t="shared" ref="T479" si="541">((SUM(C485:F485))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U479">
-        <f t="shared" ref="U479" si="547">((SUM(C487:F487))/4)*1.04</f>
+        <f t="shared" ref="U479" si="542">((SUM(C487:F487))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V479">
-        <f t="shared" ref="V479" si="548">((SUM(C479:F487))/20)*1.04</f>
+        <f t="shared" ref="V479" si="543">((SUM(C479:F487))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W479">
-        <f t="shared" ref="W479" si="549">(SUM(G479:H487))/10</f>
+        <f t="shared" ref="W479" si="544">(SUM(G479:H487))/10</f>
         <v>7</v>
       </c>
       <c r="X479">
-        <f t="shared" ref="X479" si="550">(SUM(I479:I487))/5</f>
+        <f t="shared" ref="X479" si="545">(SUM(I479:I487))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y479">
-        <f t="shared" ref="Y479" si="551">SUM(K479:K487)-Z479</f>
+        <f t="shared" ref="Y479" si="546">SUM(K479:K487)-Z479</f>
         <v>26</v>
       </c>
       <c r="Z479">
-        <f t="shared" ref="Z479" si="552">SUM(L479:L487)</f>
+        <f t="shared" ref="Z479" si="547">SUM(L479:L487)</f>
         <v>2</v>
       </c>
       <c r="AA479" t="s">
@@ -68780,47 +68778,47 @@
         <v>29</v>
       </c>
       <c r="P488">
-        <f t="shared" ref="P488" si="553">M488*10</f>
+        <f t="shared" ref="P488" si="548">M488*10</f>
         <v>80</v>
       </c>
       <c r="Q488">
-        <f t="shared" ref="Q488" si="554">((SUM(C488:F488))/4)*1.04</f>
+        <f t="shared" ref="Q488" si="549">((SUM(C488:F488))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R488">
-        <f t="shared" ref="R488" si="555">((SUM(C490:F490))/4)*1.04</f>
+        <f t="shared" ref="R488" si="550">((SUM(C490:F490))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S488">
-        <f t="shared" ref="S488" si="556">((SUM(C492:F492))/4)*1.04</f>
+        <f t="shared" ref="S488" si="551">((SUM(C492:F492))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T488">
-        <f t="shared" ref="T488" si="557">((SUM(C494:F494))/4)*1.04</f>
+        <f t="shared" ref="T488" si="552">((SUM(C494:F494))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U488">
-        <f t="shared" ref="U488" si="558">((SUM(C496:F496))/4)*1.04</f>
+        <f t="shared" ref="U488" si="553">((SUM(C496:F496))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V488">
-        <f t="shared" ref="V488" si="559">((SUM(C488:F496))/20)*1.04</f>
+        <f t="shared" ref="V488" si="554">((SUM(C488:F496))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W488">
-        <f t="shared" ref="W488" si="560">(SUM(G488:H496))/10</f>
+        <f t="shared" ref="W488" si="555">(SUM(G488:H496))/10</f>
         <v>43.5</v>
       </c>
       <c r="X488">
-        <f t="shared" ref="X488" si="561">(SUM(I488:I496))/5</f>
+        <f t="shared" ref="X488" si="556">(SUM(I488:I496))/5</f>
         <v>2</v>
       </c>
       <c r="Y488">
-        <f t="shared" ref="Y488" si="562">SUM(K488:K496)-Z488</f>
+        <f t="shared" ref="Y488" si="557">SUM(K488:K496)-Z488</f>
         <v>10</v>
       </c>
       <c r="Z488">
-        <f t="shared" ref="Z488" si="563">SUM(L488:L496)</f>
+        <f t="shared" ref="Z488" si="558">SUM(L488:L496)</f>
         <v>8</v>
       </c>
       <c r="AA488" t="s">
@@ -69274,47 +69272,47 @@
         <v>43</v>
       </c>
       <c r="P497">
-        <f t="shared" ref="P497" si="564">M497*10</f>
+        <f t="shared" ref="P497" si="559">M497*10</f>
         <v>50</v>
       </c>
       <c r="Q497">
-        <f t="shared" ref="Q497" si="565">((SUM(C497:F497))/4)*1.04</f>
+        <f t="shared" ref="Q497" si="560">((SUM(C497:F497))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R497">
-        <f t="shared" ref="R497" si="566">((SUM(C499:F499))/4)*1.04</f>
+        <f t="shared" ref="R497" si="561">((SUM(C499:F499))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S497">
-        <f t="shared" ref="S497" si="567">((SUM(C501:F501))/4)*1.04</f>
+        <f t="shared" ref="S497" si="562">((SUM(C501:F501))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T497">
-        <f t="shared" ref="T497" si="568">((SUM(C503:F503))/4)*1.04</f>
+        <f t="shared" ref="T497" si="563">((SUM(C503:F503))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U497">
-        <f t="shared" ref="U497" si="569">((SUM(C505:F505))/4)*1.04</f>
+        <f t="shared" ref="U497" si="564">((SUM(C505:F505))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V497">
-        <f t="shared" ref="V497" si="570">((SUM(C497:F505))/20)*1.04</f>
+        <f t="shared" ref="V497" si="565">((SUM(C497:F505))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W497">
-        <f t="shared" ref="W497" si="571">(SUM(G497:H505))/10</f>
+        <f t="shared" ref="W497" si="566">(SUM(G497:H505))/10</f>
         <v>81</v>
       </c>
       <c r="X497">
-        <f t="shared" ref="X497" si="572">(SUM(I497:I505))/5</f>
+        <f t="shared" ref="X497" si="567">(SUM(I497:I505))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y497">
-        <f t="shared" ref="Y497" si="573">SUM(K497:K505)-Z497</f>
+        <f t="shared" ref="Y497" si="568">SUM(K497:K505)-Z497</f>
         <v>30</v>
       </c>
       <c r="Z497">
-        <f t="shared" ref="Z497" si="574">SUM(L497:L505)</f>
+        <f t="shared" ref="Z497" si="569">SUM(L497:L505)</f>
         <v>0</v>
       </c>
       <c r="AA497" t="s">
@@ -69768,47 +69766,47 @@
         <v>784</v>
       </c>
       <c r="P506">
-        <f t="shared" ref="P506" si="575">M506*10</f>
+        <f t="shared" ref="P506" si="570">M506*10</f>
         <v>100</v>
       </c>
       <c r="Q506">
-        <f t="shared" ref="Q506" si="576">((SUM(C506:F506))/4)*1.04</f>
+        <f t="shared" ref="Q506" si="571">((SUM(C506:F506))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R506">
-        <f t="shared" ref="R506" si="577">((SUM(C508:F508))/4)*1.04</f>
+        <f t="shared" ref="R506" si="572">((SUM(C508:F508))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S506">
-        <f t="shared" ref="S506" si="578">((SUM(C510:F510))/4)*1.04</f>
+        <f t="shared" ref="S506" si="573">((SUM(C510:F510))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T506">
-        <f t="shared" ref="T506" si="579">((SUM(C512:F512))/4)*1.04</f>
+        <f t="shared" ref="T506" si="574">((SUM(C512:F512))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U506">
-        <f t="shared" ref="U506" si="580">((SUM(C514:F514))/4)*1.04</f>
+        <f t="shared" ref="U506" si="575">((SUM(C514:F514))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V506">
-        <f t="shared" ref="V506" si="581">((SUM(C506:F514))/20)*1.04</f>
+        <f t="shared" ref="V506" si="576">((SUM(C506:F514))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W506">
-        <f t="shared" ref="W506" si="582">(SUM(G506:H514))/10</f>
+        <f t="shared" ref="W506" si="577">(SUM(G506:H514))/10</f>
         <v>16.2</v>
       </c>
       <c r="X506">
-        <f t="shared" ref="X506" si="583">(SUM(I506:I514))/5</f>
+        <f t="shared" ref="X506" si="578">(SUM(I506:I514))/5</f>
         <v>2</v>
       </c>
       <c r="Y506">
-        <f t="shared" ref="Y506" si="584">SUM(K506:K514)-Z506</f>
+        <f t="shared" ref="Y506" si="579">SUM(K506:K514)-Z506</f>
         <v>69</v>
       </c>
       <c r="Z506">
-        <f t="shared" ref="Z506" si="585">SUM(L506:L514)</f>
+        <f t="shared" ref="Z506" si="580">SUM(L506:L514)</f>
         <v>10</v>
       </c>
       <c r="AA506" t="s">
@@ -70262,47 +70260,47 @@
         <v>240</v>
       </c>
       <c r="P515">
-        <f t="shared" ref="P515" si="586">M515*10</f>
+        <f t="shared" ref="P515" si="581">M515*10</f>
         <v>30</v>
       </c>
       <c r="Q515">
-        <f t="shared" ref="Q515" si="587">((SUM(C515:F515))/4)*1.04</f>
+        <f t="shared" ref="Q515" si="582">((SUM(C515:F515))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R515">
-        <f t="shared" ref="R515" si="588">((SUM(C517:F517))/4)*1.04</f>
+        <f t="shared" ref="R515" si="583">((SUM(C517:F517))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S515">
-        <f t="shared" ref="S515" si="589">((SUM(C519:F519))/4)*1.04</f>
+        <f t="shared" ref="S515" si="584">((SUM(C519:F519))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T515">
-        <f t="shared" ref="T515" si="590">((SUM(C521:F521))/4)*1.04</f>
+        <f t="shared" ref="T515" si="585">((SUM(C521:F521))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U515">
-        <f t="shared" ref="U515" si="591">((SUM(C523:F523))/4)*1.04</f>
+        <f t="shared" ref="U515" si="586">((SUM(C523:F523))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V515">
-        <f t="shared" ref="V515" si="592">((SUM(C515:F523))/20)*1.04</f>
+        <f t="shared" ref="V515" si="587">((SUM(C515:F523))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W515">
-        <f t="shared" ref="W515" si="593">(SUM(G515:H523))/10</f>
+        <f t="shared" ref="W515" si="588">(SUM(G515:H523))/10</f>
         <v>5.5</v>
       </c>
       <c r="X515">
-        <f t="shared" ref="X515" si="594">(SUM(I515:I523))/5</f>
+        <f t="shared" ref="X515" si="589">(SUM(I515:I523))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y515">
-        <f t="shared" ref="Y515" si="595">SUM(K515:K523)-Z515</f>
+        <f t="shared" ref="Y515" si="590">SUM(K515:K523)-Z515</f>
         <v>23</v>
       </c>
       <c r="Z515">
-        <f t="shared" ref="Z515" si="596">SUM(L515:L523)</f>
+        <f t="shared" ref="Z515" si="591">SUM(L515:L523)</f>
         <v>3</v>
       </c>
       <c r="AA515" t="s">
@@ -70756,47 +70754,47 @@
         <v>240</v>
       </c>
       <c r="P524">
-        <f t="shared" ref="P524" si="597">M524*10</f>
+        <f t="shared" ref="P524" si="592">M524*10</f>
         <v>60</v>
       </c>
       <c r="Q524">
-        <f t="shared" ref="Q524" si="598">((SUM(C524:F524))/4)*1.04</f>
+        <f t="shared" ref="Q524" si="593">((SUM(C524:F524))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R524">
-        <f t="shared" ref="R524" si="599">((SUM(C526:F526))/4)*1.04</f>
+        <f t="shared" ref="R524" si="594">((SUM(C526:F526))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S524">
-        <f t="shared" ref="S524" si="600">((SUM(C528:F528))/4)*1.04</f>
+        <f t="shared" ref="S524" si="595">((SUM(C528:F528))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T524">
-        <f t="shared" ref="T524" si="601">((SUM(C530:F530))/4)*1.04</f>
+        <f t="shared" ref="T524" si="596">((SUM(C530:F530))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U524">
-        <f t="shared" ref="U524" si="602">((SUM(C532:F532))/4)*1.04</f>
+        <f t="shared" ref="U524" si="597">((SUM(C532:F532))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V524">
-        <f t="shared" ref="V524" si="603">((SUM(C524:F532))/20)*1.04</f>
+        <f t="shared" ref="V524" si="598">((SUM(C524:F532))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W524">
-        <f t="shared" ref="W524" si="604">(SUM(G524:H532))/10</f>
+        <f t="shared" ref="W524" si="599">(SUM(G524:H532))/10</f>
         <v>11</v>
       </c>
       <c r="X524">
-        <f t="shared" ref="X524" si="605">(SUM(I524:I532))/5</f>
+        <f t="shared" ref="X524" si="600">(SUM(I524:I532))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y524">
-        <f t="shared" ref="Y524" si="606">SUM(K524:K532)-Z524</f>
+        <f t="shared" ref="Y524" si="601">SUM(K524:K532)-Z524</f>
         <v>23</v>
       </c>
       <c r="Z524">
-        <f t="shared" ref="Z524" si="607">SUM(L524:L532)</f>
+        <f t="shared" ref="Z524" si="602">SUM(L524:L532)</f>
         <v>3</v>
       </c>
       <c r="AA524" t="s">
@@ -71250,47 +71248,47 @@
         <v>240</v>
       </c>
       <c r="P533">
-        <f t="shared" ref="P533" si="608">M533*10</f>
+        <f t="shared" ref="P533" si="603">M533*10</f>
         <v>70</v>
       </c>
       <c r="Q533">
-        <f t="shared" ref="Q533" si="609">((SUM(C533:F533))/4)*1.04</f>
+        <f t="shared" ref="Q533" si="604">((SUM(C533:F533))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R533">
-        <f t="shared" ref="R533" si="610">((SUM(C535:F535))/4)*1.04</f>
+        <f t="shared" ref="R533" si="605">((SUM(C535:F535))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S533">
-        <f t="shared" ref="S533" si="611">((SUM(C537:F537))/4)*1.04</f>
+        <f t="shared" ref="S533" si="606">((SUM(C537:F537))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T533">
-        <f t="shared" ref="T533" si="612">((SUM(C539:F539))/4)*1.04</f>
+        <f t="shared" ref="T533" si="607">((SUM(C539:F539))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U533">
-        <f t="shared" ref="U533" si="613">((SUM(C541:F541))/4)*1.04</f>
+        <f t="shared" ref="U533" si="608">((SUM(C541:F541))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V533">
-        <f t="shared" ref="V533" si="614">((SUM(C533:F541))/20)*1.04</f>
+        <f t="shared" ref="V533" si="609">((SUM(C533:F541))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W533">
-        <f t="shared" ref="W533" si="615">(SUM(G533:H541))/10</f>
+        <f t="shared" ref="W533" si="610">(SUM(G533:H541))/10</f>
         <v>4.5</v>
       </c>
       <c r="X533">
-        <f t="shared" ref="X533" si="616">(SUM(I533:I541))/5</f>
+        <f t="shared" ref="X533" si="611">(SUM(I533:I541))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y533">
-        <f t="shared" ref="Y533" si="617">SUM(K533:K541)-Z533</f>
+        <f t="shared" ref="Y533" si="612">SUM(K533:K541)-Z533</f>
         <v>19</v>
       </c>
       <c r="Z533">
-        <f t="shared" ref="Z533" si="618">SUM(L533:L541)</f>
+        <f t="shared" ref="Z533" si="613">SUM(L533:L541)</f>
         <v>4</v>
       </c>
       <c r="AA533" t="s">
@@ -71744,47 +71742,47 @@
         <v>240</v>
       </c>
       <c r="P542">
-        <f t="shared" ref="P542" si="619">M542*10</f>
+        <f t="shared" ref="P542" si="614">M542*10</f>
         <v>50</v>
       </c>
       <c r="Q542">
-        <f t="shared" ref="Q542" si="620">((SUM(C542:F542))/4)*1.04</f>
+        <f t="shared" ref="Q542" si="615">((SUM(C542:F542))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R542">
-        <f t="shared" ref="R542" si="621">((SUM(C544:F544))/4)*1.04</f>
+        <f t="shared" ref="R542" si="616">((SUM(C544:F544))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S542">
-        <f t="shared" ref="S542" si="622">((SUM(C546:F546))/4)*1.04</f>
+        <f t="shared" ref="S542" si="617">((SUM(C546:F546))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T542">
-        <f t="shared" ref="T542" si="623">((SUM(C548:F548))/4)*1.04</f>
+        <f t="shared" ref="T542" si="618">((SUM(C548:F548))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U542">
-        <f t="shared" ref="U542" si="624">((SUM(C550:F550))/4)*1.04</f>
+        <f t="shared" ref="U542" si="619">((SUM(C550:F550))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V542">
-        <f t="shared" ref="V542" si="625">((SUM(C542:F550))/20)*1.04</f>
+        <f t="shared" ref="V542" si="620">((SUM(C542:F550))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W542">
-        <f t="shared" ref="W542" si="626">(SUM(G542:H550))/10</f>
+        <f t="shared" ref="W542" si="621">(SUM(G542:H550))/10</f>
         <v>35.5</v>
       </c>
       <c r="X542">
-        <f t="shared" ref="X542" si="627">(SUM(I542:I550))/5</f>
+        <f t="shared" ref="X542" si="622">(SUM(I542:I550))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y542">
-        <f t="shared" ref="Y542" si="628">SUM(K542:K550)-Z542</f>
+        <f t="shared" ref="Y542" si="623">SUM(K542:K550)-Z542</f>
         <v>10</v>
       </c>
       <c r="Z542">
-        <f t="shared" ref="Z542" si="629">SUM(L542:L550)</f>
+        <f t="shared" ref="Z542" si="624">SUM(L542:L550)</f>
         <v>0</v>
       </c>
       <c r="AA542" t="s">
@@ -72238,47 +72236,47 @@
         <v>240</v>
       </c>
       <c r="P551">
-        <f t="shared" ref="P551" si="630">M551*10</f>
+        <f t="shared" ref="P551" si="625">M551*10</f>
         <v>50</v>
       </c>
       <c r="Q551">
-        <f t="shared" ref="Q551" si="631">((SUM(C551:F551))/4)*1.04</f>
+        <f t="shared" ref="Q551" si="626">((SUM(C551:F551))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R551">
-        <f t="shared" ref="R551" si="632">((SUM(C553:F553))/4)*1.04</f>
+        <f t="shared" ref="R551" si="627">((SUM(C553:F553))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S551">
-        <f t="shared" ref="S551" si="633">((SUM(C555:F555))/4)*1.04</f>
+        <f t="shared" ref="S551" si="628">((SUM(C555:F555))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T551">
-        <f t="shared" ref="T551" si="634">((SUM(C557:F557))/4)*1.04</f>
+        <f t="shared" ref="T551" si="629">((SUM(C557:F557))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U551">
-        <f t="shared" ref="U551" si="635">((SUM(C559:F559))/4)*1.04</f>
+        <f t="shared" ref="U551" si="630">((SUM(C559:F559))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V551">
-        <f t="shared" ref="V551" si="636">((SUM(C551:F559))/20)*1.04</f>
+        <f t="shared" ref="V551" si="631">((SUM(C551:F559))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W551">
-        <f t="shared" ref="W551" si="637">(SUM(G551:H559))/10</f>
+        <f t="shared" ref="W551" si="632">(SUM(G551:H559))/10</f>
         <v>49</v>
       </c>
       <c r="X551">
-        <f t="shared" ref="X551" si="638">(SUM(I551:I559))/5</f>
+        <f t="shared" ref="X551" si="633">(SUM(I551:I559))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y551">
-        <f t="shared" ref="Y551" si="639">SUM(K551:K559)-Z551</f>
+        <f t="shared" ref="Y551" si="634">SUM(K551:K559)-Z551</f>
         <v>17</v>
       </c>
       <c r="Z551">
-        <f t="shared" ref="Z551" si="640">SUM(L551:L559)</f>
+        <f t="shared" ref="Z551" si="635">SUM(L551:L559)</f>
         <v>0</v>
       </c>
       <c r="AA551" t="s">
@@ -72732,47 +72730,47 @@
         <v>29</v>
       </c>
       <c r="P560">
-        <f t="shared" ref="P560" si="641">M560*10</f>
+        <f t="shared" ref="P560" si="636">M560*10</f>
         <v>70</v>
       </c>
       <c r="Q560">
-        <f t="shared" ref="Q560" si="642">((SUM(C560:F560))/4)*1.04</f>
+        <f t="shared" ref="Q560" si="637">((SUM(C560:F560))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R560">
-        <f t="shared" ref="R560" si="643">((SUM(C562:F562))/4)*1.04</f>
+        <f t="shared" ref="R560" si="638">((SUM(C562:F562))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S560">
-        <f t="shared" ref="S560" si="644">((SUM(C564:F564))/4)*1.04</f>
+        <f t="shared" ref="S560" si="639">((SUM(C564:F564))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T560">
-        <f t="shared" ref="T560" si="645">((SUM(C566:F566))/4)*1.04</f>
+        <f t="shared" ref="T560" si="640">((SUM(C566:F566))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U560">
-        <f t="shared" ref="U560" si="646">((SUM(C568:F568))/4)*1.04</f>
+        <f t="shared" ref="U560" si="641">((SUM(C568:F568))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V560">
-        <f t="shared" ref="V560" si="647">((SUM(C560:F568))/20)*1.04</f>
+        <f t="shared" ref="V560" si="642">((SUM(C560:F568))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W560">
-        <f t="shared" ref="W560" si="648">(SUM(G560:H568))/10</f>
+        <f t="shared" ref="W560" si="643">(SUM(G560:H568))/10</f>
         <v>11.8</v>
       </c>
       <c r="X560">
-        <f t="shared" ref="X560" si="649">(SUM(I560:I568))/5</f>
+        <f t="shared" ref="X560" si="644">(SUM(I560:I568))/5</f>
         <v>2</v>
       </c>
       <c r="Y560">
-        <f t="shared" ref="Y560" si="650">SUM(K560:K568)-Z560</f>
+        <f t="shared" ref="Y560" si="645">SUM(K560:K568)-Z560</f>
         <v>10</v>
       </c>
       <c r="Z560">
-        <f t="shared" ref="Z560" si="651">SUM(L560:L568)</f>
+        <f t="shared" ref="Z560" si="646">SUM(L560:L568)</f>
         <v>7</v>
       </c>
       <c r="AA560" t="s">
@@ -73226,47 +73224,47 @@
         <v>29</v>
       </c>
       <c r="P569" t="e">
-        <f t="shared" ref="P569" si="652">M569*10</f>
+        <f t="shared" ref="P569" si="647">M569*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q569">
-        <f t="shared" ref="Q569" si="653">((SUM(C569:F569))/4)*1.04</f>
+        <f t="shared" ref="Q569" si="648">((SUM(C569:F569))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R569">
-        <f t="shared" ref="R569" si="654">((SUM(C571:F571))/4)*1.04</f>
+        <f t="shared" ref="R569" si="649">((SUM(C571:F571))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S569">
-        <f t="shared" ref="S569" si="655">((SUM(C573:F573))/4)*1.04</f>
+        <f t="shared" ref="S569" si="650">((SUM(C573:F573))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T569">
-        <f t="shared" ref="T569" si="656">((SUM(C575:F575))/4)*1.04</f>
+        <f t="shared" ref="T569" si="651">((SUM(C575:F575))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U569">
-        <f t="shared" ref="U569" si="657">((SUM(C577:F577))/4)*1.04</f>
+        <f t="shared" ref="U569" si="652">((SUM(C577:F577))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V569">
-        <f t="shared" ref="V569" si="658">((SUM(C569:F577))/20)*1.04</f>
+        <f t="shared" ref="V569" si="653">((SUM(C569:F577))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W569">
-        <f t="shared" ref="W569" si="659">(SUM(G569:H577))/10</f>
+        <f t="shared" ref="W569" si="654">(SUM(G569:H577))/10</f>
         <v>3</v>
       </c>
       <c r="X569">
-        <f t="shared" ref="X569" si="660">(SUM(I569:I577))/5</f>
+        <f t="shared" ref="X569" si="655">(SUM(I569:I577))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y569">
-        <f t="shared" ref="Y569" si="661">SUM(K569:K577)-Z569</f>
+        <f t="shared" ref="Y569" si="656">SUM(K569:K577)-Z569</f>
         <v>7</v>
       </c>
       <c r="Z569">
-        <f t="shared" ref="Z569" si="662">SUM(L569:L577)</f>
+        <f t="shared" ref="Z569" si="657">SUM(L569:L577)</f>
         <v>7</v>
       </c>
       <c r="AA569" t="s">
@@ -73720,47 +73718,47 @@
         <v>29</v>
       </c>
       <c r="P578">
-        <f t="shared" ref="P578" si="663">M578*10</f>
+        <f t="shared" ref="P578" si="658">M578*10</f>
         <v>120</v>
       </c>
       <c r="Q578">
-        <f t="shared" ref="Q578" si="664">((SUM(C578:F578))/4)*1.04</f>
+        <f t="shared" ref="Q578" si="659">((SUM(C578:F578))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R578">
-        <f t="shared" ref="R578" si="665">((SUM(C580:F580))/4)*1.04</f>
+        <f t="shared" ref="R578" si="660">((SUM(C580:F580))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S578">
-        <f t="shared" ref="S578" si="666">((SUM(C582:F582))/4)*1.04</f>
+        <f t="shared" ref="S578" si="661">((SUM(C582:F582))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T578">
-        <f t="shared" ref="T578" si="667">((SUM(C584:F584))/4)*1.04</f>
+        <f t="shared" ref="T578" si="662">((SUM(C584:F584))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U578">
-        <f t="shared" ref="U578" si="668">((SUM(C586:F586))/4)*1.04</f>
+        <f t="shared" ref="U578" si="663">((SUM(C586:F586))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V578">
-        <f t="shared" ref="V578" si="669">((SUM(C578:F586))/20)*1.04</f>
+        <f t="shared" ref="V578" si="664">((SUM(C578:F586))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W578">
-        <f t="shared" ref="W578" si="670">(SUM(G578:H586))/10</f>
+        <f t="shared" ref="W578" si="665">(SUM(G578:H586))/10</f>
         <v>0.3</v>
       </c>
       <c r="X578">
-        <f t="shared" ref="X578" si="671">(SUM(I578:I586))/5</f>
+        <f t="shared" ref="X578" si="666">(SUM(I578:I586))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y578">
-        <f t="shared" ref="Y578" si="672">SUM(K578:K586)-Z578</f>
+        <f t="shared" ref="Y578" si="667">SUM(K578:K586)-Z578</f>
         <v>77</v>
       </c>
       <c r="Z578">
-        <f t="shared" ref="Z578" si="673">SUM(L578:L586)</f>
+        <f t="shared" ref="Z578" si="668">SUM(L578:L586)</f>
         <v>10</v>
       </c>
       <c r="AA578" t="s">
@@ -74214,47 +74212,47 @@
         <v>29</v>
       </c>
       <c r="P587">
-        <f t="shared" ref="P587" si="674">M587*10</f>
+        <f t="shared" ref="P587" si="669">M587*10</f>
         <v>160</v>
       </c>
       <c r="Q587">
-        <f t="shared" ref="Q587" si="675">((SUM(C587:F587))/4)*1.04</f>
+        <f t="shared" ref="Q587" si="670">((SUM(C587:F587))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R587">
-        <f t="shared" ref="R587" si="676">((SUM(C589:F589))/4)*1.04</f>
+        <f t="shared" ref="R587" si="671">((SUM(C589:F589))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S587">
-        <f t="shared" ref="S587" si="677">((SUM(C591:F591))/4)*1.04</f>
+        <f t="shared" ref="S587" si="672">((SUM(C591:F591))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T587">
-        <f t="shared" ref="T587" si="678">((SUM(C593:F593))/4)*1.04</f>
+        <f t="shared" ref="T587" si="673">((SUM(C593:F593))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U587">
-        <f t="shared" ref="U587" si="679">((SUM(C595:F595))/4)*1.04</f>
+        <f t="shared" ref="U587" si="674">((SUM(C595:F595))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V587">
-        <f t="shared" ref="V587" si="680">((SUM(C587:F595))/20)*1.04</f>
+        <f t="shared" ref="V587" si="675">((SUM(C587:F595))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W587">
-        <f t="shared" ref="W587" si="681">(SUM(G587:H595))/10</f>
+        <f t="shared" ref="W587" si="676">(SUM(G587:H595))/10</f>
         <v>0.5</v>
       </c>
       <c r="X587">
-        <f t="shared" ref="X587" si="682">(SUM(I587:I595))/5</f>
+        <f t="shared" ref="X587" si="677">(SUM(I587:I595))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y587">
-        <f t="shared" ref="Y587" si="683">SUM(K587:K595)-Z587</f>
+        <f t="shared" ref="Y587" si="678">SUM(K587:K595)-Z587</f>
         <v>62</v>
       </c>
       <c r="Z587">
-        <f t="shared" ref="Z587" si="684">SUM(L587:L595)</f>
+        <f t="shared" ref="Z587" si="679">SUM(L587:L595)</f>
         <v>14</v>
       </c>
       <c r="AA587" t="s">
@@ -74708,47 +74706,47 @@
         <v>29</v>
       </c>
       <c r="P596">
-        <f t="shared" ref="P596" si="685">M596*10</f>
+        <f t="shared" ref="P596" si="680">M596*10</f>
         <v>150</v>
       </c>
       <c r="Q596">
-        <f t="shared" ref="Q596" si="686">((SUM(C596:F596))/4)*1.04</f>
+        <f t="shared" ref="Q596" si="681">((SUM(C596:F596))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R596">
-        <f t="shared" ref="R596" si="687">((SUM(C598:F598))/4)*1.04</f>
+        <f t="shared" ref="R596" si="682">((SUM(C598:F598))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S596">
-        <f t="shared" ref="S596" si="688">((SUM(C600:F600))/4)*1.04</f>
+        <f t="shared" ref="S596" si="683">((SUM(C600:F600))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T596">
-        <f t="shared" ref="T596" si="689">((SUM(C602:F602))/4)*1.04</f>
+        <f t="shared" ref="T596" si="684">((SUM(C602:F602))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U596">
-        <f t="shared" ref="U596" si="690">((SUM(C604:F604))/4)*1.04</f>
+        <f t="shared" ref="U596" si="685">((SUM(C604:F604))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V596">
-        <f t="shared" ref="V596" si="691">((SUM(C596:F604))/20)*1.04</f>
+        <f t="shared" ref="V596" si="686">((SUM(C596:F604))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W596">
-        <f t="shared" ref="W596" si="692">(SUM(G596:H604))/10</f>
+        <f t="shared" ref="W596" si="687">(SUM(G596:H604))/10</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="X596">
-        <f t="shared" ref="X596" si="693">(SUM(I596:I604))/5</f>
+        <f t="shared" ref="X596" si="688">(SUM(I596:I604))/5</f>
         <v>2</v>
       </c>
       <c r="Y596">
-        <f t="shared" ref="Y596" si="694">SUM(K596:K604)-Z596</f>
+        <f t="shared" ref="Y596" si="689">SUM(K596:K604)-Z596</f>
         <v>29</v>
       </c>
       <c r="Z596">
-        <f t="shared" ref="Z596" si="695">SUM(L596:L604)</f>
+        <f t="shared" ref="Z596" si="690">SUM(L596:L604)</f>
         <v>8</v>
       </c>
       <c r="AA596" t="s">
@@ -75202,47 +75200,47 @@
         <v>29</v>
       </c>
       <c r="P605">
-        <f t="shared" ref="P605" si="696">M605*10</f>
+        <f t="shared" ref="P605" si="691">M605*10</f>
         <v>190</v>
       </c>
       <c r="Q605">
-        <f t="shared" ref="Q605" si="697">((SUM(C605:F605))/4)*1.04</f>
+        <f t="shared" ref="Q605" si="692">((SUM(C605:F605))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R605">
-        <f t="shared" ref="R605" si="698">((SUM(C607:F607))/4)*1.04</f>
+        <f t="shared" ref="R605" si="693">((SUM(C607:F607))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S605">
-        <f t="shared" ref="S605" si="699">((SUM(C609:F609))/4)*1.04</f>
+        <f t="shared" ref="S605" si="694">((SUM(C609:F609))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T605">
-        <f t="shared" ref="T605" si="700">((SUM(C611:F611))/4)*1.04</f>
+        <f t="shared" ref="T605" si="695">((SUM(C611:F611))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U605">
-        <f t="shared" ref="U605" si="701">((SUM(C613:F613))/4)*1.04</f>
+        <f t="shared" ref="U605" si="696">((SUM(C613:F613))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V605">
-        <f t="shared" ref="V605" si="702">((SUM(C605:F613))/20)*1.04</f>
+        <f t="shared" ref="V605" si="697">((SUM(C605:F613))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W605">
-        <f t="shared" ref="W605" si="703">(SUM(G605:H613))/10</f>
+        <f t="shared" ref="W605" si="698">(SUM(G605:H613))/10</f>
         <v>1.8</v>
       </c>
       <c r="X605">
-        <f t="shared" ref="X605" si="704">(SUM(I605:I613))/5</f>
+        <f t="shared" ref="X605" si="699">(SUM(I605:I613))/5</f>
         <v>3</v>
       </c>
       <c r="Y605">
-        <f t="shared" ref="Y605" si="705">SUM(K605:K613)-Z605</f>
+        <f t="shared" ref="Y605" si="700">SUM(K605:K613)-Z605</f>
         <v>93</v>
       </c>
       <c r="Z605">
-        <f t="shared" ref="Z605" si="706">SUM(L605:L613)</f>
+        <f t="shared" ref="Z605" si="701">SUM(L605:L613)</f>
         <v>2</v>
       </c>
       <c r="AA605" t="s">
@@ -75696,47 +75694,47 @@
         <v>29</v>
       </c>
       <c r="P614" t="e">
-        <f t="shared" ref="P614" si="707">M614*10</f>
+        <f t="shared" ref="P614" si="702">M614*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q614">
-        <f t="shared" ref="Q614" si="708">((SUM(C614:F614))/4)*1.04</f>
+        <f t="shared" ref="Q614" si="703">((SUM(C614:F614))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R614">
-        <f t="shared" ref="R614" si="709">((SUM(C616:F616))/4)*1.04</f>
+        <f t="shared" ref="R614" si="704">((SUM(C616:F616))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S614">
-        <f t="shared" ref="S614" si="710">((SUM(C618:F618))/4)*1.04</f>
+        <f t="shared" ref="S614" si="705">((SUM(C618:F618))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T614">
-        <f t="shared" ref="T614" si="711">((SUM(C620:F620))/4)*1.04</f>
+        <f t="shared" ref="T614" si="706">((SUM(C620:F620))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U614">
-        <f t="shared" ref="U614" si="712">((SUM(C622:F622))/4)*1.04</f>
+        <f t="shared" ref="U614" si="707">((SUM(C622:F622))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V614">
-        <f t="shared" ref="V614" si="713">((SUM(C614:F622))/20)*1.04</f>
+        <f t="shared" ref="V614" si="708">((SUM(C614:F622))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W614">
-        <f t="shared" ref="W614" si="714">(SUM(G614:H622))/10</f>
+        <f t="shared" ref="W614" si="709">(SUM(G614:H622))/10</f>
         <v>19.5</v>
       </c>
       <c r="X614">
-        <f t="shared" ref="X614" si="715">(SUM(I614:I622))/5</f>
+        <f t="shared" ref="X614" si="710">(SUM(I614:I622))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y614">
-        <f t="shared" ref="Y614" si="716">SUM(K614:K622)-Z614</f>
+        <f t="shared" ref="Y614" si="711">SUM(K614:K622)-Z614</f>
         <v>2</v>
       </c>
       <c r="Z614">
-        <f t="shared" ref="Z614" si="717">SUM(L614:L622)</f>
+        <f t="shared" ref="Z614" si="712">SUM(L614:L622)</f>
         <v>9</v>
       </c>
       <c r="AA614" t="s">
@@ -76190,47 +76188,47 @@
         <v>29</v>
       </c>
       <c r="P623">
-        <f t="shared" ref="P623" si="718">M623*10</f>
+        <f t="shared" ref="P623" si="713">M623*10</f>
         <v>50</v>
       </c>
       <c r="Q623">
-        <f t="shared" ref="Q623" si="719">((SUM(C623:F623))/4)*1.04</f>
+        <f t="shared" ref="Q623" si="714">((SUM(C623:F623))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R623">
-        <f t="shared" ref="R623" si="720">((SUM(C625:F625))/4)*1.04</f>
+        <f t="shared" ref="R623" si="715">((SUM(C625:F625))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S623">
-        <f t="shared" ref="S623" si="721">((SUM(C627:F627))/4)*1.04</f>
+        <f t="shared" ref="S623" si="716">((SUM(C627:F627))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T623">
-        <f t="shared" ref="T623" si="722">((SUM(C629:F629))/4)*1.04</f>
+        <f t="shared" ref="T623" si="717">((SUM(C629:F629))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U623">
-        <f t="shared" ref="U623" si="723">((SUM(C631:F631))/4)*1.04</f>
+        <f t="shared" ref="U623" si="718">((SUM(C631:F631))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V623">
-        <f t="shared" ref="V623" si="724">((SUM(C623:F631))/20)*1.04</f>
+        <f t="shared" ref="V623" si="719">((SUM(C623:F631))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W623">
-        <f t="shared" ref="W623" si="725">(SUM(G623:H631))/10</f>
+        <f t="shared" ref="W623" si="720">(SUM(G623:H631))/10</f>
         <v>25.6</v>
       </c>
       <c r="X623">
-        <f t="shared" ref="X623" si="726">(SUM(I623:I631))/5</f>
+        <f t="shared" ref="X623" si="721">(SUM(I623:I631))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y623">
-        <f t="shared" ref="Y623" si="727">SUM(K623:K631)-Z623</f>
+        <f t="shared" ref="Y623" si="722">SUM(K623:K631)-Z623</f>
         <v>12</v>
       </c>
       <c r="Z623">
-        <f t="shared" ref="Z623" si="728">SUM(L623:L631)</f>
+        <f t="shared" ref="Z623" si="723">SUM(L623:L631)</f>
         <v>4</v>
       </c>
       <c r="AA623" t="s">
@@ -76684,47 +76682,47 @@
         <v>29</v>
       </c>
       <c r="P632">
-        <f t="shared" ref="P632" si="729">M632*10</f>
+        <f t="shared" ref="P632" si="724">M632*10</f>
         <v>70</v>
       </c>
       <c r="Q632">
-        <f t="shared" ref="Q632" si="730">((SUM(C632:F632))/4)*1.04</f>
+        <f t="shared" ref="Q632" si="725">((SUM(C632:F632))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R632">
-        <f t="shared" ref="R632" si="731">((SUM(C634:F634))/4)*1.04</f>
+        <f t="shared" ref="R632" si="726">((SUM(C634:F634))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S632">
-        <f t="shared" ref="S632" si="732">((SUM(C636:F636))/4)*1.04</f>
+        <f t="shared" ref="S632" si="727">((SUM(C636:F636))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T632">
-        <f t="shared" ref="T632" si="733">((SUM(C638:F638))/4)*1.04</f>
+        <f t="shared" ref="T632" si="728">((SUM(C638:F638))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U632">
-        <f t="shared" ref="U632" si="734">((SUM(C640:F640))/4)*1.04</f>
+        <f t="shared" ref="U632" si="729">((SUM(C640:F640))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V632">
-        <f t="shared" ref="V632" si="735">((SUM(C632:F640))/20)*1.04</f>
+        <f t="shared" ref="V632" si="730">((SUM(C632:F640))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W632">
-        <f t="shared" ref="W632" si="736">(SUM(G632:H640))/10</f>
+        <f t="shared" ref="W632" si="731">(SUM(G632:H640))/10</f>
         <v>50</v>
       </c>
       <c r="X632">
-        <f t="shared" ref="X632" si="737">(SUM(I632:I640))/5</f>
+        <f t="shared" ref="X632" si="732">(SUM(I632:I640))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y632">
-        <f t="shared" ref="Y632" si="738">SUM(K632:K640)-Z632</f>
+        <f t="shared" ref="Y632" si="733">SUM(K632:K640)-Z632</f>
         <v>-2</v>
       </c>
       <c r="Z632">
-        <f t="shared" ref="Z632" si="739">SUM(L632:L640)</f>
+        <f t="shared" ref="Z632" si="734">SUM(L632:L640)</f>
         <v>6</v>
       </c>
       <c r="AA632" t="s">
@@ -77178,35 +77176,35 @@
         <v>29</v>
       </c>
       <c r="P641">
-        <f t="shared" ref="P641" si="740">M641*10</f>
+        <f t="shared" ref="P641" si="735">M641*10</f>
         <v>40</v>
       </c>
       <c r="Q641">
-        <f t="shared" ref="Q641" si="741">((SUM(C641:F641))/4)*1.04</f>
+        <f t="shared" ref="Q641" si="736">((SUM(C641:F641))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R641">
-        <f t="shared" ref="R641" si="742">((SUM(C643:F643))/4)*1.04</f>
+        <f t="shared" ref="R641" si="737">((SUM(C643:F643))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S641">
-        <f t="shared" ref="S641" si="743">((SUM(C645:F645))/4)*1.04</f>
+        <f t="shared" ref="S641" si="738">((SUM(C645:F645))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T641">
-        <f t="shared" ref="T641" si="744">((SUM(C647:F647))/4)*1.04</f>
+        <f t="shared" ref="T641" si="739">((SUM(C647:F647))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U641">
-        <f t="shared" ref="U641" si="745">((SUM(C649:F649))/4)*1.04</f>
+        <f t="shared" ref="U641" si="740">((SUM(C649:F649))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V641">
-        <f t="shared" ref="V641" si="746">((SUM(C641:F649))/20)*1.04</f>
+        <f t="shared" ref="V641" si="741">((SUM(C641:F649))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W641">
-        <f t="shared" ref="W641" si="747">(SUM(G641:H649))/10</f>
+        <f t="shared" ref="W641" si="742">(SUM(G641:H649))/10</f>
         <v>10.5</v>
       </c>
       <c r="X641">
@@ -77214,11 +77212,11 @@
         <v>1.8</v>
       </c>
       <c r="Y641">
-        <f t="shared" ref="Y641" si="748">SUM(K641:K649)-Z641</f>
+        <f t="shared" ref="Y641" si="743">SUM(K641:K649)-Z641</f>
         <v>6</v>
       </c>
       <c r="Z641">
-        <f t="shared" ref="Z641" si="749">SUM(L641:L649)</f>
+        <f t="shared" ref="Z641" si="744">SUM(L641:L649)</f>
         <v>6</v>
       </c>
       <c r="AA641" t="s">

--- a/raw_data/arabuko_sokoke_11.xlsx
+++ b/raw_data/arabuko_sokoke_11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/Research/research_projects/arabuko_sokoke/ASF/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/SCIENCE/RESEARCH/arabuko_sokoke/ASF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E372E-99DE-5C47-A84B-61E0E3D527C1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6E5F79-96AD-FC4A-A979-4C35F2CF897A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="780" windowWidth="27800" windowHeight="16600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="520" windowWidth="27800" windowHeight="16600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Herps" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17471" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17472" uniqueCount="886">
   <si>
     <t>ind_numb</t>
   </si>
@@ -2637,9 +2637,6 @@
     <t>500 = 500m ± 10m</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>MAT_1</t>
   </si>
   <si>
@@ -2674,6 +2671,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>hab_type</t>
+  </si>
+  <si>
+    <t>Canopy</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Soil</t>
   </si>
 </sst>
 </file>
@@ -37675,9 +37684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37760,7 +37769,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D3" t="s">
         <v>719</v>
@@ -38320,7 +38329,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D19" t="s">
         <v>719</v>
@@ -38355,7 +38364,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D20" t="s">
         <v>719</v>
@@ -38390,7 +38399,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="D21" t="s">
         <v>727</v>
@@ -38425,7 +38434,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="D22" t="s">
         <v>719</v>
@@ -38460,7 +38469,7 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="D23" t="s">
         <v>719</v>
@@ -38495,7 +38504,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D24" t="s">
         <v>719</v>
@@ -38530,7 +38539,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="D25" t="s">
         <v>719</v>
@@ -38565,7 +38574,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D26" t="s">
         <v>719</v>
@@ -38600,7 +38609,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="D27" t="s">
         <v>719</v>
@@ -38670,7 +38679,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D29" t="s">
         <v>719</v>
@@ -38810,7 +38819,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D33" t="s">
         <v>719</v>
@@ -39399,7 +39408,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
@@ -40140,7 +40149,7 @@
         <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D71" t="s">
         <v>736</v>
@@ -40175,7 +40184,7 @@
         <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D72" t="s">
         <v>736</v>
@@ -40210,7 +40219,7 @@
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D73" t="s">
         <v>735</v>
@@ -40245,7 +40254,7 @@
         <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="D74" t="s">
         <v>736</v>
@@ -40280,7 +40289,7 @@
         <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -40315,7 +40324,7 @@
         <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D76" t="s">
         <v>735</v>
@@ -40350,7 +40359,7 @@
         <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D77" t="s">
         <v>735</v>
@@ -40420,7 +40429,7 @@
         <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>718</v>
       </c>
       <c r="D79" t="s">
         <v>736</v>
@@ -40455,7 +40464,7 @@
         <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>723</v>
       </c>
       <c r="D80" t="s">
         <v>735</v>
@@ -41392,31 +41401,31 @@
         <v>768</v>
       </c>
       <c r="P1" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R1" t="s">
+        <v>876</v>
+      </c>
+      <c r="S1" t="s">
+        <v>877</v>
+      </c>
+      <c r="T1" t="s">
+        <v>878</v>
+      </c>
+      <c r="U1" t="s">
+        <v>879</v>
+      </c>
+      <c r="V1" t="s">
         <v>874</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>876</v>
-      </c>
-      <c r="R1" t="s">
-        <v>877</v>
-      </c>
-      <c r="S1" t="s">
-        <v>878</v>
-      </c>
-      <c r="T1" t="s">
-        <v>879</v>
-      </c>
-      <c r="U1" t="s">
-        <v>880</v>
-      </c>
-      <c r="V1" t="s">
-        <v>875</v>
       </c>
       <c r="W1" t="s">
         <v>769</v>
       </c>
       <c r="X1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Y1" t="s">
         <v>770</v>
@@ -62705,7 +62714,7 @@
         <v>30</v>
       </c>
       <c r="M389" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N389">
         <v>10</v>
@@ -77000,10 +77009,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -77011,7 +77020,7 @@
     <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -77033,13 +77042,16 @@
       <c r="G1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>883</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -77057,12 +77069,12 @@
         <v>0.65277777777777779</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>884</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -77080,12 +77092,12 @@
         <v>0.65277777777777779</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -77103,12 +77115,12 @@
         <v>0.65277777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>883</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -77126,12 +77138,12 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>884</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -77149,12 +77161,12 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>883</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -77172,12 +77184,12 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>884</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -77195,12 +77207,12 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>883</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -77218,12 +77230,12 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>884</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -77241,12 +77253,12 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -77264,12 +77276,12 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/raw_data/arabuko_sokoke_11.xlsx
+++ b/raw_data/arabuko_sokoke_11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/SCIENCE/RESEARCH/arabuko_sokoke/ASF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6E5F79-96AD-FC4A-A979-4C35F2CF897A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20EB8E4-D0D8-0640-91E4-C42ED824CCC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="520" windowWidth="27800" windowHeight="16600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="960" windowWidth="27800" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Herps" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17472" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17197" uniqueCount="886">
   <si>
     <t>ind_numb</t>
   </si>
@@ -41340,9 +41340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA649"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52309,17 +52309,17 @@
       <c r="B200" t="s">
         <v>772</v>
       </c>
-      <c r="C200" t="s">
-        <v>30</v>
-      </c>
-      <c r="D200" t="s">
-        <v>30</v>
-      </c>
-      <c r="E200" t="s">
-        <v>30</v>
-      </c>
-      <c r="F200" t="s">
-        <v>30</v>
+      <c r="C200">
+        <v>11</v>
+      </c>
+      <c r="D200">
+        <v>20</v>
+      </c>
+      <c r="E200">
+        <v>21</v>
+      </c>
+      <c r="F200">
+        <v>5</v>
       </c>
       <c r="G200">
         <v>20</v>
@@ -52354,27 +52354,27 @@
       </c>
       <c r="Q200">
         <f t="shared" ref="Q200" si="198">((SUM(C200:F200))/4)*1.04</f>
-        <v>0</v>
+        <v>14.82</v>
       </c>
       <c r="R200">
         <f t="shared" ref="R200" si="199">((SUM(C202:F202))/4)*1.04</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S200">
         <f t="shared" ref="S200" si="200">((SUM(C204:F204))/4)*1.04</f>
-        <v>0</v>
+        <v>26.78</v>
       </c>
       <c r="T200">
         <f t="shared" ref="T200" si="201">((SUM(C206:F206))/4)*1.04</f>
-        <v>0</v>
+        <v>10.14</v>
       </c>
       <c r="U200">
         <f t="shared" ref="U200" si="202">((SUM(C208:F208))/4)*1.04</f>
-        <v>0</v>
+        <v>20.54</v>
       </c>
       <c r="V200">
         <f t="shared" ref="V200" si="203">((SUM(C200:F208))/20)*1.04</f>
-        <v>0</v>
+        <v>17.055999999999997</v>
       </c>
       <c r="W200">
         <f t="shared" ref="W200" si="204">(SUM(G200:H208))/10</f>
@@ -52453,17 +52453,17 @@
       <c r="B202" t="s">
         <v>775</v>
       </c>
-      <c r="C202" t="s">
-        <v>30</v>
-      </c>
-      <c r="D202" t="s">
-        <v>30</v>
-      </c>
-      <c r="E202" t="s">
-        <v>30</v>
-      </c>
-      <c r="F202" t="s">
-        <v>30</v>
+      <c r="C202">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>26</v>
+      </c>
+      <c r="E202">
+        <v>12</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
       </c>
       <c r="G202">
         <v>35</v>
@@ -52553,17 +52553,17 @@
       <c r="B204" t="s">
         <v>777</v>
       </c>
-      <c r="C204" t="s">
-        <v>30</v>
-      </c>
-      <c r="D204" t="s">
-        <v>30</v>
-      </c>
-      <c r="E204" t="s">
-        <v>30</v>
-      </c>
-      <c r="F204" t="s">
-        <v>30</v>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>12</v>
+      </c>
+      <c r="E204">
+        <v>44</v>
+      </c>
+      <c r="F204">
+        <v>45</v>
       </c>
       <c r="G204">
         <v>15</v>
@@ -52653,17 +52653,17 @@
       <c r="B206" t="s">
         <v>779</v>
       </c>
-      <c r="C206" t="s">
-        <v>30</v>
-      </c>
-      <c r="D206" t="s">
-        <v>30</v>
-      </c>
-      <c r="E206" t="s">
-        <v>30</v>
-      </c>
-      <c r="F206" t="s">
-        <v>30</v>
+      <c r="C206">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206">
+        <v>21</v>
+      </c>
+      <c r="F206">
+        <v>7</v>
       </c>
       <c r="G206">
         <v>70</v>
@@ -52753,17 +52753,17 @@
       <c r="B208" t="s">
         <v>781</v>
       </c>
-      <c r="C208" t="s">
-        <v>30</v>
-      </c>
-      <c r="D208" t="s">
-        <v>30</v>
-      </c>
-      <c r="E208" t="s">
-        <v>30</v>
-      </c>
-      <c r="F208" t="s">
-        <v>30</v>
+      <c r="C208">
+        <v>9</v>
+      </c>
+      <c r="D208">
+        <v>26</v>
+      </c>
+      <c r="E208">
+        <v>30</v>
+      </c>
+      <c r="F208">
+        <v>14</v>
       </c>
       <c r="G208">
         <v>5</v>
@@ -52803,17 +52803,17 @@
       <c r="B209" t="s">
         <v>772</v>
       </c>
-      <c r="C209" t="s">
-        <v>30</v>
-      </c>
-      <c r="D209" t="s">
-        <v>30</v>
-      </c>
-      <c r="E209" t="s">
-        <v>30</v>
-      </c>
-      <c r="F209" t="s">
-        <v>30</v>
+      <c r="C209">
+        <v>8</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209">
+        <v>8</v>
+      </c>
+      <c r="F209">
+        <v>3</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -52848,27 +52848,27 @@
       </c>
       <c r="Q209">
         <f t="shared" ref="Q209" si="209">((SUM(C209:F209))/4)*1.04</f>
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="R209">
         <f t="shared" ref="R209" si="210">((SUM(C211:F211))/4)*1.04</f>
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="S209">
         <f t="shared" ref="S209" si="211">((SUM(C213:F213))/4)*1.04</f>
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="T209">
         <f t="shared" ref="T209" si="212">((SUM(C215:F215))/4)*1.04</f>
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="U209">
         <f t="shared" ref="U209" si="213">((SUM(C217:F217))/4)*1.04</f>
-        <v>0</v>
+        <v>8.84</v>
       </c>
       <c r="V209">
         <f t="shared" ref="V209" si="214">((SUM(C209:F217))/20)*1.04</f>
-        <v>0</v>
+        <v>9.3079999999999998</v>
       </c>
       <c r="W209">
         <f t="shared" ref="W209" si="215">(SUM(G209:H217))/10</f>
@@ -52947,17 +52947,17 @@
       <c r="B211" t="s">
         <v>775</v>
       </c>
-      <c r="C211" t="s">
-        <v>30</v>
-      </c>
-      <c r="D211" t="s">
-        <v>30</v>
-      </c>
-      <c r="E211" t="s">
-        <v>30</v>
-      </c>
-      <c r="F211" t="s">
-        <v>30</v>
+      <c r="C211">
+        <v>9</v>
+      </c>
+      <c r="D211">
+        <v>7</v>
+      </c>
+      <c r="E211">
+        <v>10</v>
+      </c>
+      <c r="F211">
+        <v>6</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -53047,17 +53047,17 @@
       <c r="B213" t="s">
         <v>777</v>
       </c>
-      <c r="C213" t="s">
-        <v>30</v>
-      </c>
-      <c r="D213" t="s">
-        <v>30</v>
-      </c>
-      <c r="E213" t="s">
-        <v>30</v>
-      </c>
-      <c r="F213" t="s">
-        <v>30</v>
+      <c r="C213">
+        <v>6</v>
+      </c>
+      <c r="D213">
+        <v>15</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213">
+        <v>14</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -53147,17 +53147,17 @@
       <c r="B215" t="s">
         <v>779</v>
       </c>
-      <c r="C215" t="s">
-        <v>30</v>
-      </c>
-      <c r="D215" t="s">
-        <v>30</v>
-      </c>
-      <c r="E215" t="s">
-        <v>30</v>
-      </c>
-      <c r="F215" t="s">
-        <v>30</v>
+      <c r="C215">
+        <v>6</v>
+      </c>
+      <c r="D215">
+        <v>20</v>
+      </c>
+      <c r="E215">
+        <v>16</v>
+      </c>
+      <c r="F215">
+        <v>5</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -53247,17 +53247,17 @@
       <c r="B217" t="s">
         <v>781</v>
       </c>
-      <c r="C217" t="s">
-        <v>30</v>
-      </c>
-      <c r="D217" t="s">
-        <v>30</v>
-      </c>
-      <c r="E217" t="s">
-        <v>30</v>
-      </c>
-      <c r="F217" t="s">
-        <v>30</v>
+      <c r="C217">
+        <v>9</v>
+      </c>
+      <c r="D217">
+        <v>8</v>
+      </c>
+      <c r="E217">
+        <v>8</v>
+      </c>
+      <c r="F217">
+        <v>9</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -53297,17 +53297,17 @@
       <c r="B218" t="s">
         <v>772</v>
       </c>
-      <c r="C218" t="s">
-        <v>30</v>
-      </c>
-      <c r="D218" t="s">
-        <v>30</v>
-      </c>
-      <c r="E218" t="s">
-        <v>30</v>
-      </c>
-      <c r="F218" t="s">
-        <v>30</v>
+      <c r="C218">
+        <v>9</v>
+      </c>
+      <c r="D218">
+        <v>6</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>4</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -53342,27 +53342,27 @@
       </c>
       <c r="Q218">
         <f t="shared" ref="Q218" si="220">((SUM(C218:F218))/4)*1.04</f>
-        <v>0</v>
+        <v>5.46</v>
       </c>
       <c r="R218">
         <f t="shared" ref="R218" si="221">((SUM(C220:F220))/4)*1.04</f>
-        <v>0</v>
+        <v>7.28</v>
       </c>
       <c r="S218">
         <f t="shared" ref="S218" si="222">((SUM(C222:F222))/4)*1.04</f>
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="T218">
         <f t="shared" ref="T218" si="223">((SUM(C224:F224))/4)*1.04</f>
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="U218">
         <f t="shared" ref="U218" si="224">((SUM(C226:F226))/4)*1.04</f>
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="V218">
         <f t="shared" ref="V218" si="225">((SUM(C218:F226))/20)*1.04</f>
-        <v>0</v>
+        <v>6.0839999999999996</v>
       </c>
       <c r="W218">
         <f t="shared" ref="W218" si="226">(SUM(G218:H226))/10</f>
@@ -53441,17 +53441,17 @@
       <c r="B220" t="s">
         <v>775</v>
       </c>
-      <c r="C220" t="s">
-        <v>30</v>
-      </c>
-      <c r="D220" t="s">
-        <v>30</v>
-      </c>
-      <c r="E220" t="s">
-        <v>30</v>
-      </c>
-      <c r="F220" t="s">
-        <v>30</v>
+      <c r="C220">
+        <v>12</v>
+      </c>
+      <c r="D220">
+        <v>10</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -53541,17 +53541,17 @@
       <c r="B222" t="s">
         <v>777</v>
       </c>
-      <c r="C222" t="s">
-        <v>30</v>
-      </c>
-      <c r="D222" t="s">
-        <v>30</v>
-      </c>
-      <c r="E222" t="s">
-        <v>30</v>
-      </c>
-      <c r="F222" t="s">
-        <v>30</v>
+      <c r="C222">
+        <v>6</v>
+      </c>
+      <c r="D222">
+        <v>4</v>
+      </c>
+      <c r="E222">
+        <v>3</v>
+      </c>
+      <c r="F222">
+        <v>5</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -53641,17 +53641,17 @@
       <c r="B224" t="s">
         <v>779</v>
       </c>
-      <c r="C224" t="s">
-        <v>30</v>
-      </c>
-      <c r="D224" t="s">
-        <v>30</v>
-      </c>
-      <c r="E224" t="s">
-        <v>30</v>
-      </c>
-      <c r="F224" t="s">
-        <v>30</v>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>10</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -53741,17 +53741,17 @@
       <c r="B226" t="s">
         <v>781</v>
       </c>
-      <c r="C226" t="s">
-        <v>30</v>
-      </c>
-      <c r="D226" t="s">
-        <v>30</v>
-      </c>
-      <c r="E226" t="s">
-        <v>30</v>
-      </c>
-      <c r="F226" t="s">
-        <v>30</v>
+      <c r="C226">
+        <v>5</v>
+      </c>
+      <c r="D226">
+        <v>4</v>
+      </c>
+      <c r="E226">
+        <v>6</v>
+      </c>
+      <c r="F226">
+        <v>9</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -53791,16 +53791,16 @@
       <c r="B227" t="s">
         <v>772</v>
       </c>
-      <c r="C227" t="s">
-        <v>30</v>
-      </c>
-      <c r="D227" t="s">
-        <v>30</v>
-      </c>
-      <c r="E227" t="s">
-        <v>30</v>
-      </c>
-      <c r="F227" t="s">
+      <c r="C227">
+        <v>6</v>
+      </c>
+      <c r="D227">
+        <v>12</v>
+      </c>
+      <c r="E227">
+        <v>16</v>
+      </c>
+      <c r="F227">
         <v>30</v>
       </c>
       <c r="G227">
@@ -53836,27 +53836,27 @@
       </c>
       <c r="Q227">
         <f t="shared" ref="Q227" si="231">((SUM(C227:F227))/4)*1.04</f>
-        <v>0</v>
+        <v>16.64</v>
       </c>
       <c r="R227">
         <f t="shared" ref="R227" si="232">((SUM(C229:F229))/4)*1.04</f>
-        <v>0</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="S227">
         <f t="shared" ref="S227" si="233">((SUM(C231:F231))/4)*1.04</f>
-        <v>0</v>
+        <v>10.14</v>
       </c>
       <c r="T227">
         <f t="shared" ref="T227" si="234">((SUM(C233:F233))/4)*1.04</f>
-        <v>0</v>
+        <v>24.18</v>
       </c>
       <c r="U227">
         <f t="shared" ref="U227" si="235">((SUM(C235:F235))/4)*1.04</f>
-        <v>0</v>
+        <v>40.04</v>
       </c>
       <c r="V227">
         <f t="shared" ref="V227" si="236">((SUM(C227:F235))/20)*1.04</f>
-        <v>0</v>
+        <v>20.175999999999998</v>
       </c>
       <c r="W227">
         <f t="shared" ref="W227" si="237">(SUM(G227:H235))/10</f>
@@ -53935,17 +53935,17 @@
       <c r="B229" t="s">
         <v>775</v>
       </c>
-      <c r="C229" t="s">
-        <v>30</v>
-      </c>
-      <c r="D229" t="s">
-        <v>30</v>
-      </c>
-      <c r="E229" t="s">
-        <v>30</v>
-      </c>
-      <c r="F229" t="s">
-        <v>30</v>
+      <c r="C229">
+        <v>6</v>
+      </c>
+      <c r="D229">
+        <v>20</v>
+      </c>
+      <c r="E229">
+        <v>9</v>
+      </c>
+      <c r="F229">
+        <v>3</v>
       </c>
       <c r="G229">
         <v>15</v>
@@ -54035,17 +54035,17 @@
       <c r="B231" t="s">
         <v>777</v>
       </c>
-      <c r="C231" t="s">
-        <v>30</v>
-      </c>
-      <c r="D231" t="s">
-        <v>30</v>
-      </c>
-      <c r="E231" t="s">
-        <v>30</v>
-      </c>
-      <c r="F231" t="s">
-        <v>30</v>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>10</v>
+      </c>
+      <c r="E231">
+        <v>13</v>
+      </c>
+      <c r="F231">
+        <v>14</v>
       </c>
       <c r="G231">
         <v>20</v>
@@ -54135,17 +54135,17 @@
       <c r="B233" t="s">
         <v>779</v>
       </c>
-      <c r="C233" t="s">
-        <v>30</v>
-      </c>
-      <c r="D233" t="s">
-        <v>30</v>
-      </c>
-      <c r="E233" t="s">
-        <v>30</v>
-      </c>
-      <c r="F233" t="s">
-        <v>30</v>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233">
+        <v>20</v>
+      </c>
+      <c r="E233">
+        <v>48</v>
+      </c>
+      <c r="F233">
+        <v>22</v>
       </c>
       <c r="G233">
         <v>20</v>
@@ -54235,17 +54235,17 @@
       <c r="B235" t="s">
         <v>781</v>
       </c>
-      <c r="C235" t="s">
-        <v>30</v>
-      </c>
-      <c r="D235" t="s">
-        <v>30</v>
-      </c>
-      <c r="E235" t="s">
-        <v>30</v>
-      </c>
-      <c r="F235" t="s">
-        <v>30</v>
+      <c r="C235">
+        <v>4</v>
+      </c>
+      <c r="D235">
+        <v>45</v>
+      </c>
+      <c r="E235">
+        <v>55</v>
+      </c>
+      <c r="F235">
+        <v>50</v>
       </c>
       <c r="G235">
         <v>55</v>
@@ -54285,17 +54285,17 @@
       <c r="B236" t="s">
         <v>772</v>
       </c>
-      <c r="C236" t="s">
-        <v>30</v>
-      </c>
-      <c r="D236" t="s">
-        <v>30</v>
-      </c>
-      <c r="E236" t="s">
-        <v>30</v>
-      </c>
-      <c r="F236" t="s">
-        <v>30</v>
+      <c r="C236">
+        <v>13</v>
+      </c>
+      <c r="D236">
+        <v>23</v>
+      </c>
+      <c r="E236">
+        <v>24</v>
+      </c>
+      <c r="F236">
+        <v>19</v>
       </c>
       <c r="G236">
         <v>15</v>
@@ -54330,27 +54330,27 @@
       </c>
       <c r="Q236">
         <f t="shared" ref="Q236" si="242">((SUM(C236:F236))/4)*1.04</f>
-        <v>0</v>
+        <v>20.54</v>
       </c>
       <c r="R236">
         <f t="shared" ref="R236" si="243">((SUM(C238:F238))/4)*1.04</f>
-        <v>0</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="S236">
         <f t="shared" ref="S236" si="244">((SUM(C240:F240))/4)*1.04</f>
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="T236">
         <f t="shared" ref="T236" si="245">((SUM(C242:F242))/4)*1.04</f>
-        <v>0</v>
+        <v>47.32</v>
       </c>
       <c r="U236">
         <f t="shared" ref="U236" si="246">((SUM(C244:F244))/4)*1.04</f>
-        <v>0</v>
+        <v>43.68</v>
       </c>
       <c r="V236">
         <f t="shared" ref="V236" si="247">((SUM(C236:F244))/20)*1.04</f>
-        <v>0</v>
+        <v>35.828000000000003</v>
       </c>
       <c r="W236">
         <f t="shared" ref="W236" si="248">(SUM(G236:H244))/10</f>
@@ -54429,17 +54429,17 @@
       <c r="B238" t="s">
         <v>775</v>
       </c>
-      <c r="C238" t="s">
-        <v>30</v>
-      </c>
-      <c r="D238" t="s">
-        <v>30</v>
-      </c>
-      <c r="E238" t="s">
-        <v>30</v>
-      </c>
-      <c r="F238" t="s">
-        <v>30</v>
+      <c r="C238">
+        <v>33</v>
+      </c>
+      <c r="D238">
+        <v>24</v>
+      </c>
+      <c r="E238">
+        <v>27</v>
+      </c>
+      <c r="F238">
+        <v>36</v>
       </c>
       <c r="G238">
         <v>75</v>
@@ -54529,17 +54529,17 @@
       <c r="B240" t="s">
         <v>777</v>
       </c>
-      <c r="C240" t="s">
-        <v>30</v>
-      </c>
-      <c r="D240" t="s">
-        <v>30</v>
-      </c>
-      <c r="E240" t="s">
-        <v>30</v>
-      </c>
-      <c r="F240" t="s">
-        <v>30</v>
+      <c r="C240">
+        <v>34</v>
+      </c>
+      <c r="D240">
+        <v>37</v>
+      </c>
+      <c r="E240">
+        <v>58</v>
+      </c>
+      <c r="F240">
+        <v>11</v>
       </c>
       <c r="G240">
         <v>55</v>
@@ -54629,17 +54629,17 @@
       <c r="B242" t="s">
         <v>779</v>
       </c>
-      <c r="C242" t="s">
-        <v>30</v>
-      </c>
-      <c r="D242" t="s">
-        <v>30</v>
-      </c>
-      <c r="E242" t="s">
-        <v>30</v>
-      </c>
-      <c r="F242" t="s">
-        <v>30</v>
+      <c r="C242">
+        <v>21</v>
+      </c>
+      <c r="D242">
+        <v>45</v>
+      </c>
+      <c r="E242">
+        <v>40</v>
+      </c>
+      <c r="F242">
+        <v>76</v>
       </c>
       <c r="G242">
         <v>25</v>
@@ -54729,17 +54729,17 @@
       <c r="B244" t="s">
         <v>781</v>
       </c>
-      <c r="C244" t="s">
-        <v>30</v>
-      </c>
-      <c r="D244" t="s">
-        <v>30</v>
-      </c>
-      <c r="E244" t="s">
-        <v>30</v>
-      </c>
-      <c r="F244" t="s">
-        <v>30</v>
+      <c r="C244">
+        <v>38</v>
+      </c>
+      <c r="D244">
+        <v>37</v>
+      </c>
+      <c r="E244">
+        <v>25</v>
+      </c>
+      <c r="F244">
+        <v>68</v>
       </c>
       <c r="G244">
         <v>80</v>
@@ -54779,17 +54779,17 @@
       <c r="B245" t="s">
         <v>772</v>
       </c>
-      <c r="C245" t="s">
-        <v>30</v>
-      </c>
-      <c r="D245" t="s">
-        <v>30</v>
-      </c>
-      <c r="E245" t="s">
-        <v>30</v>
-      </c>
-      <c r="F245" t="s">
-        <v>30</v>
+      <c r="C245">
+        <v>40</v>
+      </c>
+      <c r="D245">
+        <v>8</v>
+      </c>
+      <c r="E245">
+        <v>10</v>
+      </c>
+      <c r="F245">
+        <v>27</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -54824,27 +54824,27 @@
       </c>
       <c r="Q245">
         <f t="shared" ref="Q245" si="253">((SUM(C245:F245))/4)*1.04</f>
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="R245">
         <f t="shared" ref="R245" si="254">((SUM(C247:F247))/4)*1.04</f>
-        <v>0</v>
+        <v>18.72</v>
       </c>
       <c r="S245">
         <f t="shared" ref="S245" si="255">((SUM(C249:F249))/4)*1.04</f>
-        <v>0</v>
+        <v>26.52</v>
       </c>
       <c r="T245">
         <f t="shared" ref="T245" si="256">((SUM(C251:F251))/4)*1.04</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="U245">
         <f t="shared" ref="U245" si="257">((SUM(C253:F253))/4)*1.04</f>
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="V245">
         <f t="shared" ref="V245" si="258">((SUM(C245:F253))/20)*1.04</f>
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="W245">
         <f t="shared" ref="W245" si="259">(SUM(G245:H253))/10</f>
@@ -54923,17 +54923,17 @@
       <c r="B247" t="s">
         <v>775</v>
       </c>
-      <c r="C247" t="s">
-        <v>30</v>
-      </c>
-      <c r="D247" t="s">
-        <v>30</v>
-      </c>
-      <c r="E247" t="s">
-        <v>30</v>
-      </c>
-      <c r="F247" t="s">
-        <v>30</v>
+      <c r="C247">
+        <v>15</v>
+      </c>
+      <c r="D247">
+        <v>25</v>
+      </c>
+      <c r="E247">
+        <v>15</v>
+      </c>
+      <c r="F247">
+        <v>17</v>
       </c>
       <c r="G247">
         <v>10</v>
@@ -55023,16 +55023,16 @@
       <c r="B249" t="s">
         <v>777</v>
       </c>
-      <c r="C249" t="s">
-        <v>30</v>
-      </c>
-      <c r="D249" t="s">
-        <v>30</v>
-      </c>
-      <c r="E249" t="s">
-        <v>30</v>
-      </c>
-      <c r="F249" t="s">
+      <c r="C249">
+        <v>31</v>
+      </c>
+      <c r="D249">
+        <v>8</v>
+      </c>
+      <c r="E249">
+        <v>33</v>
+      </c>
+      <c r="F249">
         <v>30</v>
       </c>
       <c r="G249">
@@ -55123,17 +55123,17 @@
       <c r="B251" t="s">
         <v>779</v>
       </c>
-      <c r="C251" t="s">
-        <v>30</v>
-      </c>
-      <c r="D251" t="s">
-        <v>30</v>
-      </c>
-      <c r="E251" t="s">
-        <v>30</v>
-      </c>
-      <c r="F251" t="s">
-        <v>30</v>
+      <c r="C251">
+        <v>17</v>
+      </c>
+      <c r="D251">
+        <v>3</v>
+      </c>
+      <c r="E251">
+        <v>12</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -55223,17 +55223,17 @@
       <c r="B253" t="s">
         <v>781</v>
       </c>
-      <c r="C253" t="s">
-        <v>30</v>
-      </c>
-      <c r="D253" t="s">
-        <v>30</v>
-      </c>
-      <c r="E253" t="s">
-        <v>30</v>
-      </c>
-      <c r="F253" t="s">
-        <v>30</v>
+      <c r="C253">
+        <v>20</v>
+      </c>
+      <c r="D253">
+        <v>37</v>
+      </c>
+      <c r="E253">
+        <v>30</v>
+      </c>
+      <c r="F253">
+        <v>18</v>
       </c>
       <c r="G253">
         <v>3</v>
@@ -55273,17 +55273,17 @@
       <c r="B254" t="s">
         <v>772</v>
       </c>
-      <c r="C254" t="s">
-        <v>30</v>
-      </c>
-      <c r="D254" t="s">
-        <v>30</v>
-      </c>
-      <c r="E254" t="s">
-        <v>30</v>
-      </c>
-      <c r="F254" t="s">
-        <v>30</v>
+      <c r="C254">
+        <v>24</v>
+      </c>
+      <c r="D254">
+        <v>15</v>
+      </c>
+      <c r="E254">
+        <v>15</v>
+      </c>
+      <c r="F254">
+        <v>10</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -55318,42 +55318,41 @@
       </c>
       <c r="Q254">
         <f t="shared" ref="Q254" si="264">((SUM(C254:F254))/4)*1.04</f>
-        <v>0</v>
+        <v>16.64</v>
       </c>
       <c r="R254">
         <f t="shared" ref="R254" si="265">((SUM(C256:F256))/4)*1.04</f>
-        <v>0</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="S254">
         <f t="shared" ref="S254" si="266">((SUM(C258:F258))/4)*1.04</f>
-        <v>0</v>
+        <v>24.96</v>
       </c>
       <c r="T254">
         <f t="shared" ref="T254" si="267">((SUM(C260:F260))/4)*1.04</f>
-        <v>0</v>
-      </c>
-      <c r="U254">
-        <f t="shared" ref="U254" si="268">((SUM(C262:F262))/4)*1.04</f>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="U254" t="s">
+        <v>30</v>
       </c>
       <c r="V254">
-        <f t="shared" ref="V254" si="269">((SUM(C254:F262))/20)*1.04</f>
-        <v>0</v>
+        <f>((SUM(C254:F262))/16)*1.04</f>
+        <v>22.36</v>
       </c>
       <c r="W254">
-        <f t="shared" ref="W254" si="270">(SUM(G254:H262))/10</f>
+        <f t="shared" ref="W254" si="268">(SUM(G254:H262))/10</f>
         <v>15.6</v>
       </c>
       <c r="X254">
-        <f t="shared" ref="X254" si="271">(SUM(I254:I262))/5</f>
+        <f t="shared" ref="X254" si="269">(SUM(I254:I262))/5</f>
         <v>2</v>
       </c>
       <c r="Y254">
-        <f t="shared" ref="Y254" si="272">SUM(K254:K262)-Z254</f>
+        <f t="shared" ref="Y254" si="270">SUM(K254:K262)-Z254</f>
         <v>58</v>
       </c>
       <c r="Z254">
-        <f t="shared" ref="Z254" si="273">SUM(L254:L262)</f>
+        <f t="shared" ref="Z254" si="271">SUM(L254:L262)</f>
         <v>12</v>
       </c>
       <c r="AA254" t="s">
@@ -55417,17 +55416,17 @@
       <c r="B256" t="s">
         <v>775</v>
       </c>
-      <c r="C256" t="s">
-        <v>30</v>
-      </c>
-      <c r="D256" t="s">
-        <v>30</v>
-      </c>
-      <c r="E256" t="s">
-        <v>30</v>
-      </c>
-      <c r="F256" t="s">
-        <v>30</v>
+      <c r="C256">
+        <v>20</v>
+      </c>
+      <c r="D256">
+        <v>5</v>
+      </c>
+      <c r="E256">
+        <v>64</v>
+      </c>
+      <c r="F256">
+        <v>45</v>
       </c>
       <c r="G256">
         <v>15</v>
@@ -55517,16 +55516,16 @@
       <c r="B258" t="s">
         <v>777</v>
       </c>
-      <c r="C258" t="s">
-        <v>30</v>
-      </c>
-      <c r="D258" t="s">
-        <v>30</v>
-      </c>
-      <c r="E258" t="s">
-        <v>30</v>
-      </c>
-      <c r="F258" t="s">
+      <c r="C258">
+        <v>24</v>
+      </c>
+      <c r="D258">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <v>30</v>
+      </c>
+      <c r="F258">
         <v>30</v>
       </c>
       <c r="G258">
@@ -55617,17 +55616,17 @@
       <c r="B260" t="s">
         <v>779</v>
       </c>
-      <c r="C260" t="s">
-        <v>30</v>
-      </c>
-      <c r="D260" t="s">
-        <v>30</v>
-      </c>
-      <c r="E260" t="s">
-        <v>30</v>
-      </c>
-      <c r="F260" t="s">
-        <v>30</v>
+      <c r="C260">
+        <v>7</v>
+      </c>
+      <c r="D260">
+        <v>11</v>
+      </c>
+      <c r="E260">
+        <v>15</v>
+      </c>
+      <c r="F260">
+        <v>17</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -55767,17 +55766,17 @@
       <c r="B263" t="s">
         <v>772</v>
       </c>
-      <c r="C263" t="s">
-        <v>30</v>
-      </c>
-      <c r="D263" t="s">
-        <v>30</v>
-      </c>
-      <c r="E263" t="s">
-        <v>30</v>
-      </c>
-      <c r="F263" t="s">
-        <v>30</v>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>11</v>
+      </c>
+      <c r="E263">
+        <v>15</v>
+      </c>
+      <c r="F263">
+        <v>4</v>
       </c>
       <c r="G263">
         <v>5</v>
@@ -55807,47 +55806,47 @@
         <v>240</v>
       </c>
       <c r="P263">
-        <f t="shared" ref="P263" si="274">M263*10</f>
+        <f t="shared" ref="P263" si="272">M263*10</f>
         <v>60</v>
       </c>
       <c r="Q263">
-        <f t="shared" ref="Q263" si="275">((SUM(C263:F263))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q263" si="273">((SUM(C263:F263))/4)*1.04</f>
+        <v>8.58</v>
       </c>
       <c r="R263">
-        <f t="shared" ref="R263" si="276">((SUM(C265:F265))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R263" si="274">((SUM(C265:F265))/4)*1.04</f>
+        <v>25.48</v>
       </c>
       <c r="S263">
-        <f t="shared" ref="S263" si="277">((SUM(C267:F267))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S263" si="275">((SUM(C267:F267))/4)*1.04</f>
+        <v>7.0200000000000005</v>
       </c>
       <c r="T263">
-        <f t="shared" ref="T263" si="278">((SUM(C269:F269))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T263" si="276">((SUM(C269:F269))/4)*1.04</f>
+        <v>28.6</v>
       </c>
       <c r="U263">
-        <f t="shared" ref="U263" si="279">((SUM(C271:F271))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U263" si="277">((SUM(C271:F271))/4)*1.04</f>
+        <v>27.82</v>
       </c>
       <c r="V263">
-        <f t="shared" ref="V263" si="280">((SUM(C263:F271))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V263" si="278">((SUM(C263:F271))/20)*1.04</f>
+        <v>19.5</v>
       </c>
       <c r="W263">
-        <f t="shared" ref="W263" si="281">(SUM(G263:H271))/10</f>
+        <f t="shared" ref="W263" si="279">(SUM(G263:H271))/10</f>
         <v>4.5</v>
       </c>
       <c r="X263">
-        <f t="shared" ref="X263" si="282">(SUM(I263:I271))/5</f>
+        <f t="shared" ref="X263" si="280">(SUM(I263:I271))/5</f>
         <v>4</v>
       </c>
       <c r="Y263">
-        <f t="shared" ref="Y263" si="283">SUM(K263:K271)-Z263</f>
+        <f t="shared" ref="Y263" si="281">SUM(K263:K271)-Z263</f>
         <v>16</v>
       </c>
       <c r="Z263">
-        <f t="shared" ref="Z263" si="284">SUM(L263:L271)</f>
+        <f t="shared" ref="Z263" si="282">SUM(L263:L271)</f>
         <v>3</v>
       </c>
       <c r="AA263" t="s">
@@ -55911,17 +55910,17 @@
       <c r="B265" t="s">
         <v>775</v>
       </c>
-      <c r="C265" t="s">
-        <v>30</v>
-      </c>
-      <c r="D265" t="s">
-        <v>30</v>
-      </c>
-      <c r="E265" t="s">
-        <v>30</v>
-      </c>
-      <c r="F265" t="s">
-        <v>30</v>
+      <c r="C265">
+        <v>21</v>
+      </c>
+      <c r="D265">
+        <v>12</v>
+      </c>
+      <c r="E265">
+        <v>15</v>
+      </c>
+      <c r="F265">
+        <v>50</v>
       </c>
       <c r="G265">
         <v>5</v>
@@ -56011,17 +56010,17 @@
       <c r="B267" t="s">
         <v>777</v>
       </c>
-      <c r="C267" t="s">
-        <v>30</v>
-      </c>
-      <c r="D267" t="s">
-        <v>30</v>
-      </c>
-      <c r="E267" t="s">
-        <v>30</v>
-      </c>
-      <c r="F267" t="s">
-        <v>30</v>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
+      </c>
+      <c r="E267">
+        <v>4</v>
+      </c>
+      <c r="F267">
+        <v>6</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -56111,17 +56110,17 @@
       <c r="B269" t="s">
         <v>779</v>
       </c>
-      <c r="C269" t="s">
-        <v>30</v>
-      </c>
-      <c r="D269" t="s">
-        <v>30</v>
-      </c>
-      <c r="E269" t="s">
-        <v>30</v>
-      </c>
-      <c r="F269" t="s">
-        <v>30</v>
+      <c r="C269">
+        <v>35</v>
+      </c>
+      <c r="D269">
+        <v>37</v>
+      </c>
+      <c r="E269">
+        <v>11</v>
+      </c>
+      <c r="F269">
+        <v>27</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -56211,17 +56210,17 @@
       <c r="B271" t="s">
         <v>781</v>
       </c>
-      <c r="C271" t="s">
-        <v>30</v>
-      </c>
-      <c r="D271" t="s">
-        <v>30</v>
-      </c>
-      <c r="E271" t="s">
-        <v>30</v>
-      </c>
-      <c r="F271" t="s">
-        <v>30</v>
+      <c r="C271">
+        <v>35</v>
+      </c>
+      <c r="D271">
+        <v>40</v>
+      </c>
+      <c r="E271">
+        <v>14</v>
+      </c>
+      <c r="F271">
+        <v>18</v>
       </c>
       <c r="G271">
         <v>10</v>
@@ -56261,17 +56260,17 @@
       <c r="B272" t="s">
         <v>772</v>
       </c>
-      <c r="C272" t="s">
-        <v>30</v>
-      </c>
-      <c r="D272" t="s">
-        <v>30</v>
-      </c>
-      <c r="E272" t="s">
-        <v>30</v>
-      </c>
-      <c r="F272" t="s">
-        <v>30</v>
+      <c r="C272">
+        <v>21</v>
+      </c>
+      <c r="D272">
+        <v>15</v>
+      </c>
+      <c r="E272">
+        <v>19</v>
+      </c>
+      <c r="F272">
+        <v>11</v>
       </c>
       <c r="G272">
         <v>30</v>
@@ -56301,47 +56300,47 @@
         <v>240</v>
       </c>
       <c r="P272">
-        <f t="shared" ref="P272" si="285">M272*10</f>
+        <f t="shared" ref="P272" si="283">M272*10</f>
         <v>30</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272" si="286">((SUM(C272:F272))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q272" si="284">((SUM(C272:F272))/4)*1.04</f>
+        <v>17.16</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272" si="287">((SUM(C274:F274))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R272" si="285">((SUM(C274:F274))/4)*1.04</f>
+        <v>13</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272" si="288">((SUM(C276:F276))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S272" si="286">((SUM(C276:F276))/4)*1.04</f>
+        <v>16.64</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272" si="289">((SUM(C278:F278))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T272" si="287">((SUM(C278:F278))/4)*1.04</f>
+        <v>7.28</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272" si="290">((SUM(C280:F280))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U272" si="288">((SUM(C280:F280))/4)*1.04</f>
+        <v>12.22</v>
       </c>
       <c r="V272">
-        <f t="shared" ref="V272" si="291">((SUM(C272:F280))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V272" si="289">((SUM(C272:F280))/20)*1.04</f>
+        <v>13.26</v>
       </c>
       <c r="W272">
-        <f t="shared" ref="W272" si="292">(SUM(G272:H280))/10</f>
+        <f t="shared" ref="W272" si="290">(SUM(G272:H280))/10</f>
         <v>6</v>
       </c>
       <c r="X272">
-        <f t="shared" ref="X272" si="293">(SUM(I272:I280))/5</f>
+        <f t="shared" ref="X272" si="291">(SUM(I272:I280))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y272">
-        <f t="shared" ref="Y272" si="294">SUM(K272:K280)-Z272</f>
+        <f t="shared" ref="Y272" si="292">SUM(K272:K280)-Z272</f>
         <v>12</v>
       </c>
       <c r="Z272">
-        <f t="shared" ref="Z272" si="295">SUM(L272:L280)</f>
+        <f t="shared" ref="Z272" si="293">SUM(L272:L280)</f>
         <v>3</v>
       </c>
       <c r="AA272" t="s">
@@ -56405,17 +56404,17 @@
       <c r="B274" t="s">
         <v>775</v>
       </c>
-      <c r="C274" t="s">
-        <v>30</v>
-      </c>
-      <c r="D274" t="s">
-        <v>30</v>
-      </c>
-      <c r="E274" t="s">
-        <v>30</v>
-      </c>
-      <c r="F274" t="s">
-        <v>30</v>
+      <c r="C274">
+        <v>17</v>
+      </c>
+      <c r="D274">
+        <v>11</v>
+      </c>
+      <c r="E274">
+        <v>13</v>
+      </c>
+      <c r="F274">
+        <v>9</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -56505,17 +56504,17 @@
       <c r="B276" t="s">
         <v>777</v>
       </c>
-      <c r="C276" t="s">
-        <v>30</v>
-      </c>
-      <c r="D276" t="s">
-        <v>30</v>
-      </c>
-      <c r="E276" t="s">
-        <v>30</v>
-      </c>
-      <c r="F276" t="s">
-        <v>30</v>
+      <c r="C276">
+        <v>7</v>
+      </c>
+      <c r="D276">
+        <v>11</v>
+      </c>
+      <c r="E276">
+        <v>22</v>
+      </c>
+      <c r="F276">
+        <v>24</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -56605,17 +56604,17 @@
       <c r="B278" t="s">
         <v>779</v>
       </c>
-      <c r="C278" t="s">
-        <v>30</v>
-      </c>
-      <c r="D278" t="s">
-        <v>30</v>
-      </c>
-      <c r="E278" t="s">
-        <v>30</v>
-      </c>
-      <c r="F278" t="s">
-        <v>30</v>
+      <c r="C278">
+        <v>8</v>
+      </c>
+      <c r="D278">
+        <v>6</v>
+      </c>
+      <c r="E278">
+        <v>5</v>
+      </c>
+      <c r="F278">
+        <v>9</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -56705,17 +56704,17 @@
       <c r="B280" t="s">
         <v>781</v>
       </c>
-      <c r="C280" t="s">
-        <v>30</v>
-      </c>
-      <c r="D280" t="s">
-        <v>30</v>
-      </c>
-      <c r="E280" t="s">
-        <v>30</v>
-      </c>
-      <c r="F280" t="s">
-        <v>30</v>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>13</v>
+      </c>
+      <c r="E280">
+        <v>15</v>
+      </c>
+      <c r="F280">
+        <v>16</v>
       </c>
       <c r="G280">
         <v>10</v>
@@ -56755,17 +56754,17 @@
       <c r="B281" t="s">
         <v>772</v>
       </c>
-      <c r="C281" t="s">
-        <v>30</v>
-      </c>
-      <c r="D281" t="s">
-        <v>30</v>
-      </c>
-      <c r="E281" t="s">
-        <v>30</v>
-      </c>
-      <c r="F281" t="s">
-        <v>30</v>
+      <c r="C281">
+        <v>17</v>
+      </c>
+      <c r="D281">
+        <v>17</v>
+      </c>
+      <c r="E281">
+        <v>14</v>
+      </c>
+      <c r="F281">
+        <v>11</v>
       </c>
       <c r="G281">
         <v>40</v>
@@ -56795,47 +56794,47 @@
         <v>240</v>
       </c>
       <c r="P281">
-        <f t="shared" ref="P281" si="296">M281*10</f>
+        <f t="shared" ref="P281" si="294">M281*10</f>
         <v>50</v>
       </c>
       <c r="Q281">
-        <f t="shared" ref="Q281" si="297">((SUM(C281:F281))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q281" si="295">((SUM(C281:F281))/4)*1.04</f>
+        <v>15.34</v>
       </c>
       <c r="R281">
-        <f t="shared" ref="R281" si="298">((SUM(C283:F283))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R281" si="296">((SUM(C283:F283))/4)*1.04</f>
+        <v>24.96</v>
       </c>
       <c r="S281">
-        <f t="shared" ref="S281" si="299">((SUM(C285:F285))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S281" si="297">((SUM(C285:F285))/4)*1.04</f>
+        <v>21.060000000000002</v>
       </c>
       <c r="T281">
-        <f t="shared" ref="T281" si="300">((SUM(C287:F287))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T281" si="298">((SUM(C287:F287))/4)*1.04</f>
+        <v>19.5</v>
       </c>
       <c r="U281">
-        <f t="shared" ref="U281" si="301">((SUM(C289:F289))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U281" si="299">((SUM(C289:F289))/4)*1.04</f>
+        <v>17.16</v>
       </c>
       <c r="V281">
-        <f t="shared" ref="V281" si="302">((SUM(C281:F289))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V281" si="300">((SUM(C281:F289))/20)*1.04</f>
+        <v>19.604000000000003</v>
       </c>
       <c r="W281">
-        <f t="shared" ref="W281" si="303">(SUM(G281:H289))/10</f>
+        <f t="shared" ref="W281" si="301">(SUM(G281:H289))/10</f>
         <v>21</v>
       </c>
       <c r="X281">
-        <f t="shared" ref="X281" si="304">(SUM(I281:I289))/5</f>
+        <f t="shared" ref="X281" si="302">(SUM(I281:I289))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y281">
-        <f t="shared" ref="Y281" si="305">SUM(K281:K289)-Z281</f>
+        <f t="shared" ref="Y281" si="303">SUM(K281:K289)-Z281</f>
         <v>11</v>
       </c>
       <c r="Z281">
-        <f t="shared" ref="Z281" si="306">SUM(L281:L289)</f>
+        <f t="shared" ref="Z281" si="304">SUM(L281:L289)</f>
         <v>4</v>
       </c>
       <c r="AA281" t="s">
@@ -56899,17 +56898,17 @@
       <c r="B283" t="s">
         <v>775</v>
       </c>
-      <c r="C283" t="s">
-        <v>30</v>
-      </c>
-      <c r="D283" t="s">
-        <v>30</v>
-      </c>
-      <c r="E283" t="s">
-        <v>30</v>
-      </c>
-      <c r="F283" t="s">
-        <v>30</v>
+      <c r="C283">
+        <v>28</v>
+      </c>
+      <c r="D283">
+        <v>32</v>
+      </c>
+      <c r="E283">
+        <v>13</v>
+      </c>
+      <c r="F283">
+        <v>23</v>
       </c>
       <c r="G283">
         <v>20</v>
@@ -56999,17 +56998,17 @@
       <c r="B285" t="s">
         <v>777</v>
       </c>
-      <c r="C285" t="s">
-        <v>30</v>
-      </c>
-      <c r="D285" t="s">
-        <v>30</v>
-      </c>
-      <c r="E285" t="s">
-        <v>30</v>
-      </c>
-      <c r="F285" t="s">
-        <v>30</v>
+      <c r="C285">
+        <v>9</v>
+      </c>
+      <c r="D285">
+        <v>28</v>
+      </c>
+      <c r="E285">
+        <v>27</v>
+      </c>
+      <c r="F285">
+        <v>17</v>
       </c>
       <c r="G285">
         <v>50</v>
@@ -57099,17 +57098,17 @@
       <c r="B287" t="s">
         <v>779</v>
       </c>
-      <c r="C287" t="s">
-        <v>30</v>
-      </c>
-      <c r="D287" t="s">
-        <v>30</v>
-      </c>
-      <c r="E287" t="s">
-        <v>30</v>
-      </c>
-      <c r="F287" t="s">
-        <v>30</v>
+      <c r="C287">
+        <v>17</v>
+      </c>
+      <c r="D287">
+        <v>20</v>
+      </c>
+      <c r="E287">
+        <v>20</v>
+      </c>
+      <c r="F287">
+        <v>18</v>
       </c>
       <c r="G287">
         <v>5</v>
@@ -57199,17 +57198,17 @@
       <c r="B289" t="s">
         <v>781</v>
       </c>
-      <c r="C289" t="s">
-        <v>30</v>
-      </c>
-      <c r="D289" t="s">
-        <v>30</v>
-      </c>
-      <c r="E289" t="s">
-        <v>30</v>
-      </c>
-      <c r="F289" t="s">
-        <v>30</v>
+      <c r="C289">
+        <v>15</v>
+      </c>
+      <c r="D289">
+        <v>17</v>
+      </c>
+      <c r="E289">
+        <v>20</v>
+      </c>
+      <c r="F289">
+        <v>14</v>
       </c>
       <c r="G289">
         <v>20</v>
@@ -57249,17 +57248,17 @@
       <c r="B290" t="s">
         <v>772</v>
       </c>
-      <c r="C290" t="s">
-        <v>30</v>
-      </c>
-      <c r="D290" t="s">
-        <v>30</v>
-      </c>
-      <c r="E290" t="s">
-        <v>30</v>
-      </c>
-      <c r="F290" t="s">
-        <v>30</v>
+      <c r="C290">
+        <v>28</v>
+      </c>
+      <c r="D290">
+        <v>27</v>
+      </c>
+      <c r="E290">
+        <v>5</v>
+      </c>
+      <c r="F290">
+        <v>4</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -57289,47 +57288,47 @@
         <v>43</v>
       </c>
       <c r="P290">
-        <f t="shared" ref="P290" si="307">M290*10</f>
+        <f t="shared" ref="P290" si="305">M290*10</f>
         <v>90</v>
       </c>
       <c r="Q290">
-        <f t="shared" ref="Q290" si="308">((SUM(C290:F290))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q290" si="306">((SUM(C290:F290))/4)*1.04</f>
+        <v>16.64</v>
       </c>
       <c r="R290">
-        <f t="shared" ref="R290" si="309">((SUM(C292:F292))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R290" si="307">((SUM(C292:F292))/4)*1.04</f>
+        <v>15.08</v>
       </c>
       <c r="S290">
-        <f t="shared" ref="S290" si="310">((SUM(C294:F294))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S290" si="308">((SUM(C294:F294))/4)*1.04</f>
+        <v>15.860000000000001</v>
       </c>
       <c r="T290">
-        <f t="shared" ref="T290" si="311">((SUM(C296:F296))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T290" si="309">((SUM(C296:F296))/4)*1.04</f>
+        <v>14.3</v>
       </c>
       <c r="U290">
-        <f t="shared" ref="U290" si="312">((SUM(C298:F298))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U290" si="310">((SUM(C298:F298))/4)*1.04</f>
+        <v>13.26</v>
       </c>
       <c r="V290">
-        <f t="shared" ref="V290" si="313">((SUM(C290:F298))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V290" si="311">((SUM(C290:F298))/20)*1.04</f>
+        <v>15.028</v>
       </c>
       <c r="W290">
-        <f t="shared" ref="W290" si="314">(SUM(G290:H298))/10</f>
+        <f t="shared" ref="W290" si="312">(SUM(G290:H298))/10</f>
         <v>3.2</v>
       </c>
       <c r="X290">
-        <f t="shared" ref="X290" si="315">(SUM(I290:I298))/5</f>
+        <f t="shared" ref="X290" si="313">(SUM(I290:I298))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y290">
-        <f t="shared" ref="Y290" si="316">SUM(K290:K298)-Z290</f>
+        <f t="shared" ref="Y290" si="314">SUM(K290:K298)-Z290</f>
         <v>65</v>
       </c>
       <c r="Z290">
-        <f t="shared" ref="Z290" si="317">SUM(L290:L298)</f>
+        <f t="shared" ref="Z290" si="315">SUM(L290:L298)</f>
         <v>2</v>
       </c>
       <c r="AA290" t="s">
@@ -57393,17 +57392,17 @@
       <c r="B292" t="s">
         <v>775</v>
       </c>
-      <c r="C292" t="s">
-        <v>30</v>
-      </c>
-      <c r="D292" t="s">
-        <v>30</v>
-      </c>
-      <c r="E292" t="s">
-        <v>30</v>
-      </c>
-      <c r="F292" t="s">
-        <v>30</v>
+      <c r="C292">
+        <v>9</v>
+      </c>
+      <c r="D292">
+        <v>17</v>
+      </c>
+      <c r="E292">
+        <v>18</v>
+      </c>
+      <c r="F292">
+        <v>14</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -57493,17 +57492,17 @@
       <c r="B294" t="s">
         <v>777</v>
       </c>
-      <c r="C294" t="s">
-        <v>30</v>
-      </c>
-      <c r="D294" t="s">
-        <v>30</v>
-      </c>
-      <c r="E294" t="s">
-        <v>30</v>
-      </c>
-      <c r="F294" t="s">
-        <v>30</v>
+      <c r="C294">
+        <v>29</v>
+      </c>
+      <c r="D294">
+        <v>12</v>
+      </c>
+      <c r="E294">
+        <v>15</v>
+      </c>
+      <c r="F294">
+        <v>5</v>
       </c>
       <c r="G294">
         <v>2</v>
@@ -57593,17 +57592,17 @@
       <c r="B296" t="s">
         <v>779</v>
       </c>
-      <c r="C296" t="s">
-        <v>30</v>
-      </c>
-      <c r="D296" t="s">
-        <v>30</v>
-      </c>
-      <c r="E296" t="s">
-        <v>30</v>
-      </c>
-      <c r="F296" t="s">
-        <v>30</v>
+      <c r="C296">
+        <v>11</v>
+      </c>
+      <c r="D296">
+        <v>22</v>
+      </c>
+      <c r="E296">
+        <v>3</v>
+      </c>
+      <c r="F296">
+        <v>19</v>
       </c>
       <c r="G296">
         <v>4</v>
@@ -57693,17 +57692,17 @@
       <c r="B298" t="s">
         <v>781</v>
       </c>
-      <c r="C298" t="s">
-        <v>30</v>
-      </c>
-      <c r="D298" t="s">
-        <v>30</v>
-      </c>
-      <c r="E298" t="s">
-        <v>30</v>
-      </c>
-      <c r="F298" t="s">
-        <v>30</v>
+      <c r="C298">
+        <v>17</v>
+      </c>
+      <c r="D298">
+        <v>10</v>
+      </c>
+      <c r="E298">
+        <v>10</v>
+      </c>
+      <c r="F298">
+        <v>14</v>
       </c>
       <c r="G298">
         <v>10</v>
@@ -57743,17 +57742,17 @@
       <c r="B299" t="s">
         <v>772</v>
       </c>
-      <c r="C299" t="s">
-        <v>30</v>
-      </c>
-      <c r="D299" t="s">
-        <v>30</v>
-      </c>
-      <c r="E299" t="s">
-        <v>30</v>
-      </c>
-      <c r="F299" t="s">
-        <v>30</v>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>12</v>
+      </c>
+      <c r="E299">
+        <v>17</v>
+      </c>
+      <c r="F299">
+        <v>15</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -57783,47 +57782,47 @@
         <v>29</v>
       </c>
       <c r="P299">
-        <f t="shared" ref="P299" si="318">M299*10</f>
+        <f t="shared" ref="P299" si="316">M299*10</f>
         <v>90</v>
       </c>
       <c r="Q299">
-        <f t="shared" ref="Q299" si="319">((SUM(C299:F299))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q299" si="317">((SUM(C299:F299))/4)*1.04</f>
+        <v>12.74</v>
       </c>
       <c r="R299">
-        <f t="shared" ref="R299" si="320">((SUM(C301:F301))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R299" si="318">((SUM(C301:F301))/4)*1.04</f>
+        <v>15.600000000000001</v>
       </c>
       <c r="S299">
-        <f t="shared" ref="S299" si="321">((SUM(C303:F303))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S299" si="319">((SUM(C303:F303))/4)*1.04</f>
+        <v>5.98</v>
       </c>
       <c r="T299">
-        <f t="shared" ref="T299" si="322">((SUM(C305:F305))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T299" si="320">((SUM(C305:F305))/4)*1.04</f>
+        <v>11.440000000000001</v>
       </c>
       <c r="U299">
-        <f t="shared" ref="U299" si="323">((SUM(C307:F307))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U299" si="321">((SUM(C307:F307))/4)*1.04</f>
+        <v>8.58</v>
       </c>
       <c r="V299">
-        <f t="shared" ref="V299" si="324">((SUM(C299:F307))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V299" si="322">((SUM(C299:F307))/20)*1.04</f>
+        <v>10.868</v>
       </c>
       <c r="W299">
-        <f t="shared" ref="W299" si="325">(SUM(G299:H307))/10</f>
+        <f t="shared" ref="W299" si="323">(SUM(G299:H307))/10</f>
         <v>0.4</v>
       </c>
       <c r="X299">
-        <f t="shared" ref="X299" si="326">(SUM(I299:I307))/5</f>
+        <f t="shared" ref="X299" si="324">(SUM(I299:I307))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y299">
-        <f t="shared" ref="Y299" si="327">SUM(K299:K307)-Z299</f>
+        <f t="shared" ref="Y299" si="325">SUM(K299:K307)-Z299</f>
         <v>76</v>
       </c>
       <c r="Z299">
-        <f t="shared" ref="Z299" si="328">SUM(L299:L307)</f>
+        <f t="shared" ref="Z299" si="326">SUM(L299:L307)</f>
         <v>10</v>
       </c>
       <c r="AA299" t="s">
@@ -57887,17 +57886,17 @@
       <c r="B301" t="s">
         <v>775</v>
       </c>
-      <c r="C301" t="s">
-        <v>30</v>
-      </c>
-      <c r="D301" t="s">
-        <v>30</v>
-      </c>
-      <c r="E301" t="s">
-        <v>30</v>
-      </c>
-      <c r="F301" t="s">
-        <v>30</v>
+      <c r="C301">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <v>15</v>
+      </c>
+      <c r="E301">
+        <v>14</v>
+      </c>
+      <c r="F301">
+        <v>16</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -57987,17 +57986,17 @@
       <c r="B303" t="s">
         <v>777</v>
       </c>
-      <c r="C303" t="s">
-        <v>30</v>
-      </c>
-      <c r="D303" t="s">
-        <v>30</v>
-      </c>
-      <c r="E303" t="s">
-        <v>30</v>
-      </c>
-      <c r="F303" t="s">
-        <v>30</v>
+      <c r="C303">
+        <v>5</v>
+      </c>
+      <c r="D303">
+        <v>4</v>
+      </c>
+      <c r="E303">
+        <v>8</v>
+      </c>
+      <c r="F303">
+        <v>6</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -58087,17 +58086,17 @@
       <c r="B305" t="s">
         <v>779</v>
       </c>
-      <c r="C305" t="s">
-        <v>30</v>
-      </c>
-      <c r="D305" t="s">
-        <v>30</v>
-      </c>
-      <c r="E305" t="s">
-        <v>30</v>
-      </c>
-      <c r="F305" t="s">
-        <v>30</v>
+      <c r="C305">
+        <v>8</v>
+      </c>
+      <c r="D305">
+        <v>12</v>
+      </c>
+      <c r="E305">
+        <v>11</v>
+      </c>
+      <c r="F305">
+        <v>13</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -58187,17 +58186,17 @@
       <c r="B307" t="s">
         <v>781</v>
       </c>
-      <c r="C307" t="s">
-        <v>30</v>
-      </c>
-      <c r="D307" t="s">
-        <v>30</v>
-      </c>
-      <c r="E307" t="s">
-        <v>30</v>
-      </c>
-      <c r="F307" t="s">
-        <v>30</v>
+      <c r="C307">
+        <v>14</v>
+      </c>
+      <c r="D307">
+        <v>7</v>
+      </c>
+      <c r="E307">
+        <v>5</v>
+      </c>
+      <c r="F307">
+        <v>7</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -58237,17 +58236,17 @@
       <c r="B308" t="s">
         <v>772</v>
       </c>
-      <c r="C308" t="s">
-        <v>30</v>
-      </c>
-      <c r="D308" t="s">
-        <v>30</v>
-      </c>
-      <c r="E308" t="s">
-        <v>30</v>
-      </c>
-      <c r="F308" t="s">
-        <v>30</v>
+      <c r="C308">
+        <v>15</v>
+      </c>
+      <c r="D308">
+        <v>18</v>
+      </c>
+      <c r="E308">
+        <v>10</v>
+      </c>
+      <c r="F308">
+        <v>10</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -58277,47 +58276,47 @@
         <v>29</v>
       </c>
       <c r="P308">
-        <f t="shared" ref="P308" si="329">M308*10</f>
+        <f t="shared" ref="P308" si="327">M308*10</f>
         <v>60</v>
       </c>
       <c r="Q308">
-        <f t="shared" ref="Q308" si="330">((SUM(C308:F308))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q308" si="328">((SUM(C308:F308))/4)*1.04</f>
+        <v>13.780000000000001</v>
       </c>
       <c r="R308">
-        <f t="shared" ref="R308" si="331">((SUM(C310:F310))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R308" si="329">((SUM(C310:F310))/4)*1.04</f>
+        <v>10.66</v>
       </c>
       <c r="S308">
-        <f t="shared" ref="S308" si="332">((SUM(C312:F312))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S308" si="330">((SUM(C312:F312))/4)*1.04</f>
+        <v>8.06</v>
       </c>
       <c r="T308">
-        <f t="shared" ref="T308" si="333">((SUM(C314:F314))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T308" si="331">((SUM(C314:F314))/4)*1.04</f>
+        <v>10.4</v>
       </c>
       <c r="U308">
-        <f t="shared" ref="U308" si="334">((SUM(C316:F316))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U308" si="332">((SUM(C316:F316))/4)*1.04</f>
+        <v>18.98</v>
       </c>
       <c r="V308">
-        <f t="shared" ref="V308" si="335">((SUM(C308:F316))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V308" si="333">((SUM(C308:F316))/20)*1.04</f>
+        <v>12.376000000000001</v>
       </c>
       <c r="W308">
-        <f t="shared" ref="W308" si="336">(SUM(G308:H316))/10</f>
+        <f t="shared" ref="W308" si="334">(SUM(G308:H316))/10</f>
         <v>42.7</v>
       </c>
       <c r="X308">
-        <f t="shared" ref="X308" si="337">(SUM(I308:I316))/5</f>
+        <f t="shared" ref="X308" si="335">(SUM(I308:I316))/5</f>
         <v>2</v>
       </c>
       <c r="Y308">
-        <f t="shared" ref="Y308" si="338">SUM(K308:K316)-Z308</f>
+        <f t="shared" ref="Y308" si="336">SUM(K308:K316)-Z308</f>
         <v>80</v>
       </c>
       <c r="Z308">
-        <f t="shared" ref="Z308" si="339">SUM(L308:L316)</f>
+        <f t="shared" ref="Z308" si="337">SUM(L308:L316)</f>
         <v>5</v>
       </c>
       <c r="AA308" t="s">
@@ -58381,17 +58380,17 @@
       <c r="B310" t="s">
         <v>775</v>
       </c>
-      <c r="C310" t="s">
-        <v>30</v>
-      </c>
-      <c r="D310" t="s">
-        <v>30</v>
-      </c>
-      <c r="E310" t="s">
-        <v>30</v>
-      </c>
-      <c r="F310" t="s">
-        <v>30</v>
+      <c r="C310">
+        <v>17</v>
+      </c>
+      <c r="D310">
+        <v>4</v>
+      </c>
+      <c r="E310">
+        <v>8</v>
+      </c>
+      <c r="F310">
+        <v>12</v>
       </c>
       <c r="G310">
         <v>75</v>
@@ -58481,17 +58480,17 @@
       <c r="B312" t="s">
         <v>777</v>
       </c>
-      <c r="C312" t="s">
-        <v>30</v>
-      </c>
-      <c r="D312" t="s">
-        <v>30</v>
-      </c>
-      <c r="E312" t="s">
-        <v>30</v>
-      </c>
-      <c r="F312" t="s">
-        <v>30</v>
+      <c r="C312">
+        <v>5</v>
+      </c>
+      <c r="D312">
+        <v>11</v>
+      </c>
+      <c r="E312">
+        <v>5</v>
+      </c>
+      <c r="F312">
+        <v>10</v>
       </c>
       <c r="G312">
         <v>80</v>
@@ -58581,17 +58580,17 @@
       <c r="B314" t="s">
         <v>779</v>
       </c>
-      <c r="C314" t="s">
-        <v>30</v>
-      </c>
-      <c r="D314" t="s">
-        <v>30</v>
-      </c>
-      <c r="E314" t="s">
-        <v>30</v>
-      </c>
-      <c r="F314" t="s">
-        <v>30</v>
+      <c r="C314">
+        <v>8</v>
+      </c>
+      <c r="D314">
+        <v>10</v>
+      </c>
+      <c r="E314">
+        <v>8</v>
+      </c>
+      <c r="F314">
+        <v>14</v>
       </c>
       <c r="G314">
         <v>80</v>
@@ -58681,17 +58680,17 @@
       <c r="B316" t="s">
         <v>781</v>
       </c>
-      <c r="C316" t="s">
-        <v>30</v>
-      </c>
-      <c r="D316" t="s">
-        <v>30</v>
-      </c>
-      <c r="E316" t="s">
-        <v>30</v>
-      </c>
-      <c r="F316" t="s">
-        <v>30</v>
+      <c r="C316">
+        <v>16</v>
+      </c>
+      <c r="D316">
+        <v>16</v>
+      </c>
+      <c r="E316">
+        <v>19</v>
+      </c>
+      <c r="F316">
+        <v>22</v>
       </c>
       <c r="G316">
         <v>20</v>
@@ -58731,17 +58730,17 @@
       <c r="B317" t="s">
         <v>772</v>
       </c>
-      <c r="C317" t="s">
-        <v>30</v>
-      </c>
-      <c r="D317" t="s">
-        <v>30</v>
-      </c>
-      <c r="E317" t="s">
-        <v>30</v>
-      </c>
-      <c r="F317" t="s">
-        <v>30</v>
+      <c r="C317">
+        <v>15</v>
+      </c>
+      <c r="D317">
+        <v>27</v>
+      </c>
+      <c r="E317">
+        <v>20</v>
+      </c>
+      <c r="F317">
+        <v>25</v>
       </c>
       <c r="G317">
         <v>30</v>
@@ -58771,47 +58770,47 @@
         <v>240</v>
       </c>
       <c r="P317">
-        <f t="shared" ref="P317" si="340">M317*10</f>
+        <f t="shared" ref="P317" si="338">M317*10</f>
         <v>60</v>
       </c>
       <c r="Q317">
-        <f t="shared" ref="Q317" si="341">((SUM(C317:F317))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q317" si="339">((SUM(C317:F317))/4)*1.04</f>
+        <v>22.62</v>
       </c>
       <c r="R317">
-        <f t="shared" ref="R317" si="342">((SUM(C319:F319))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R317" si="340">((SUM(C319:F319))/4)*1.04</f>
+        <v>21.32</v>
       </c>
       <c r="S317">
-        <f t="shared" ref="S317" si="343">((SUM(C321:F321))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S317" si="341">((SUM(C321:F321))/4)*1.04</f>
+        <v>26.78</v>
       </c>
       <c r="T317">
-        <f t="shared" ref="T317" si="344">((SUM(C323:F323))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T317" si="342">((SUM(C323:F323))/4)*1.04</f>
+        <v>23.14</v>
       </c>
       <c r="U317">
-        <f t="shared" ref="U317" si="345">((SUM(C325:F325))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U317" si="343">((SUM(C325:F325))/4)*1.04</f>
+        <v>43.940000000000005</v>
       </c>
       <c r="V317">
-        <f t="shared" ref="V317" si="346">((SUM(C317:F325))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V317" si="344">((SUM(C317:F325))/20)*1.04</f>
+        <v>27.560000000000002</v>
       </c>
       <c r="W317">
-        <f t="shared" ref="W317" si="347">(SUM(G317:H325))/10</f>
+        <f t="shared" ref="W317" si="345">(SUM(G317:H325))/10</f>
         <v>16.5</v>
       </c>
       <c r="X317">
-        <f t="shared" ref="X317" si="348">(SUM(I317:I325))/5</f>
+        <f t="shared" ref="X317" si="346">(SUM(I317:I325))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y317">
-        <f t="shared" ref="Y317" si="349">SUM(K317:K325)-Z317</f>
+        <f t="shared" ref="Y317" si="347">SUM(K317:K325)-Z317</f>
         <v>19</v>
       </c>
       <c r="Z317">
-        <f t="shared" ref="Z317" si="350">SUM(L317:L325)</f>
+        <f t="shared" ref="Z317" si="348">SUM(L317:L325)</f>
         <v>2</v>
       </c>
       <c r="AA317" t="s">
@@ -58875,17 +58874,17 @@
       <c r="B319" t="s">
         <v>775</v>
       </c>
-      <c r="C319" t="s">
-        <v>30</v>
-      </c>
-      <c r="D319" t="s">
-        <v>30</v>
-      </c>
-      <c r="E319" t="s">
-        <v>30</v>
-      </c>
-      <c r="F319" t="s">
-        <v>30</v>
+      <c r="C319">
+        <v>22</v>
+      </c>
+      <c r="D319">
+        <v>29</v>
+      </c>
+      <c r="E319">
+        <v>16</v>
+      </c>
+      <c r="F319">
+        <v>15</v>
       </c>
       <c r="G319">
         <v>10</v>
@@ -58975,17 +58974,17 @@
       <c r="B321" t="s">
         <v>777</v>
       </c>
-      <c r="C321" t="s">
-        <v>30</v>
-      </c>
-      <c r="D321" t="s">
-        <v>30</v>
-      </c>
-      <c r="E321" t="s">
-        <v>30</v>
-      </c>
-      <c r="F321" t="s">
-        <v>30</v>
+      <c r="C321">
+        <v>35</v>
+      </c>
+      <c r="D321">
+        <v>37</v>
+      </c>
+      <c r="E321">
+        <v>6</v>
+      </c>
+      <c r="F321">
+        <v>25</v>
       </c>
       <c r="G321">
         <v>20</v>
@@ -59075,17 +59074,17 @@
       <c r="B323" t="s">
         <v>779</v>
       </c>
-      <c r="C323" t="s">
-        <v>30</v>
-      </c>
-      <c r="D323" t="s">
-        <v>30</v>
-      </c>
-      <c r="E323" t="s">
-        <v>30</v>
-      </c>
-      <c r="F323" t="s">
-        <v>30</v>
+      <c r="C323">
+        <v>34</v>
+      </c>
+      <c r="D323">
+        <v>18</v>
+      </c>
+      <c r="E323">
+        <v>17</v>
+      </c>
+      <c r="F323">
+        <v>20</v>
       </c>
       <c r="G323">
         <v>10</v>
@@ -59175,17 +59174,17 @@
       <c r="B325" t="s">
         <v>781</v>
       </c>
-      <c r="C325" t="s">
-        <v>30</v>
-      </c>
-      <c r="D325" t="s">
-        <v>30</v>
-      </c>
-      <c r="E325" t="s">
-        <v>30</v>
-      </c>
-      <c r="F325" t="s">
-        <v>30</v>
+      <c r="C325">
+        <v>45</v>
+      </c>
+      <c r="D325">
+        <v>42</v>
+      </c>
+      <c r="E325">
+        <v>40</v>
+      </c>
+      <c r="F325">
+        <v>42</v>
       </c>
       <c r="G325">
         <v>10</v>
@@ -59265,47 +59264,47 @@
         <v>43</v>
       </c>
       <c r="P326" t="e">
-        <f t="shared" ref="P326" si="351">M326*10</f>
+        <f t="shared" ref="P326" si="349">M326*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q326">
-        <f t="shared" ref="Q326" si="352">((SUM(C326:F326))/4)*1.04</f>
+        <f t="shared" ref="Q326" si="350">((SUM(C326:F326))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R326">
-        <f t="shared" ref="R326" si="353">((SUM(C328:F328))/4)*1.04</f>
+        <f t="shared" ref="R326" si="351">((SUM(C328:F328))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S326">
-        <f t="shared" ref="S326" si="354">((SUM(C330:F330))/4)*1.04</f>
+        <f t="shared" ref="S326" si="352">((SUM(C330:F330))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T326">
-        <f t="shared" ref="T326" si="355">((SUM(C332:F332))/4)*1.04</f>
+        <f t="shared" ref="T326" si="353">((SUM(C332:F332))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U326">
-        <f t="shared" ref="U326" si="356">((SUM(C334:F334))/4)*1.04</f>
+        <f t="shared" ref="U326" si="354">((SUM(C334:F334))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V326">
-        <f t="shared" ref="V326" si="357">((SUM(C326:F334))/20)*1.04</f>
+        <f t="shared" ref="V326" si="355">((SUM(C326:F334))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W326">
-        <f t="shared" ref="W326" si="358">(SUM(G326:H334))/10</f>
+        <f t="shared" ref="W326" si="356">(SUM(G326:H334))/10</f>
         <v>50.5</v>
       </c>
       <c r="X326">
-        <f t="shared" ref="X326" si="359">(SUM(I326:I334))/5</f>
+        <f t="shared" ref="X326" si="357">(SUM(I326:I334))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y326">
-        <f t="shared" ref="Y326" si="360">SUM(K326:K334)-Z326</f>
+        <f t="shared" ref="Y326" si="358">SUM(K326:K334)-Z326</f>
         <v>32</v>
       </c>
       <c r="Z326">
-        <f t="shared" ref="Z326" si="361">SUM(L326:L334)</f>
+        <f t="shared" ref="Z326" si="359">SUM(L326:L334)</f>
         <v>2</v>
       </c>
       <c r="AA326" t="s">
@@ -59759,47 +59758,47 @@
         <v>240</v>
       </c>
       <c r="P335" t="e">
-        <f t="shared" ref="P335" si="362">M335*10</f>
+        <f t="shared" ref="P335" si="360">M335*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q335">
-        <f t="shared" ref="Q335" si="363">((SUM(C335:F335))/4)*1.04</f>
+        <f t="shared" ref="Q335" si="361">((SUM(C335:F335))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R335">
-        <f t="shared" ref="R335" si="364">((SUM(C337:F337))/4)*1.04</f>
+        <f t="shared" ref="R335" si="362">((SUM(C337:F337))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S335">
-        <f t="shared" ref="S335" si="365">((SUM(C339:F339))/4)*1.04</f>
+        <f t="shared" ref="S335" si="363">((SUM(C339:F339))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335" si="366">((SUM(C341:F341))/4)*1.04</f>
+        <f t="shared" ref="T335" si="364">((SUM(C341:F341))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U335">
-        <f t="shared" ref="U335" si="367">((SUM(C343:F343))/4)*1.04</f>
+        <f t="shared" ref="U335" si="365">((SUM(C343:F343))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V335">
-        <f t="shared" ref="V335" si="368">((SUM(C335:F343))/20)*1.04</f>
+        <f t="shared" ref="V335" si="366">((SUM(C335:F343))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W335">
-        <f t="shared" ref="W335" si="369">(SUM(G335:H343))/10</f>
+        <f t="shared" ref="W335" si="367">(SUM(G335:H343))/10</f>
         <v>47</v>
       </c>
       <c r="X335">
-        <f t="shared" ref="X335" si="370">(SUM(I335:I343))/5</f>
+        <f t="shared" ref="X335" si="368">(SUM(I335:I343))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y335">
-        <f t="shared" ref="Y335" si="371">SUM(K335:K343)-Z335</f>
+        <f t="shared" ref="Y335" si="369">SUM(K335:K343)-Z335</f>
         <v>24</v>
       </c>
       <c r="Z335">
-        <f t="shared" ref="Z335" si="372">SUM(L335:L343)</f>
+        <f t="shared" ref="Z335" si="370">SUM(L335:L343)</f>
         <v>0</v>
       </c>
       <c r="AA335" t="s">
@@ -60253,47 +60252,47 @@
         <v>43</v>
       </c>
       <c r="P344">
-        <f t="shared" ref="P344" si="373">M344*10</f>
+        <f t="shared" ref="P344" si="371">M344*10</f>
         <v>100</v>
       </c>
       <c r="Q344">
-        <f t="shared" ref="Q344" si="374">((SUM(C344:F344))/4)*1.04</f>
+        <f t="shared" ref="Q344" si="372">((SUM(C344:F344))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R344">
-        <f t="shared" ref="R344" si="375">((SUM(C346:F346))/4)*1.04</f>
+        <f t="shared" ref="R344" si="373">((SUM(C346:F346))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S344">
-        <f t="shared" ref="S344" si="376">((SUM(C348:F348))/4)*1.04</f>
+        <f t="shared" ref="S344" si="374">((SUM(C348:F348))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T344">
-        <f t="shared" ref="T344" si="377">((SUM(C350:F350))/4)*1.04</f>
+        <f t="shared" ref="T344" si="375">((SUM(C350:F350))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U344">
-        <f t="shared" ref="U344" si="378">((SUM(C352:F352))/4)*1.04</f>
+        <f t="shared" ref="U344" si="376">((SUM(C352:F352))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V344">
-        <f t="shared" ref="V344" si="379">((SUM(C344:F352))/20)*1.04</f>
+        <f t="shared" ref="V344" si="377">((SUM(C344:F352))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W344">
-        <f t="shared" ref="W344" si="380">(SUM(G344:H352))/10</f>
+        <f t="shared" ref="W344" si="378">(SUM(G344:H352))/10</f>
         <v>1.7</v>
       </c>
       <c r="X344">
-        <f t="shared" ref="X344" si="381">(SUM(I344:I352))/5</f>
+        <f t="shared" ref="X344" si="379">(SUM(I344:I352))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y344">
-        <f t="shared" ref="Y344" si="382">SUM(K344:K352)-Z344</f>
+        <f t="shared" ref="Y344" si="380">SUM(K344:K352)-Z344</f>
         <v>62</v>
       </c>
       <c r="Z344">
-        <f t="shared" ref="Z344" si="383">SUM(L344:L352)</f>
+        <f t="shared" ref="Z344" si="381">SUM(L344:L352)</f>
         <v>7</v>
       </c>
       <c r="AA344" t="s">
@@ -60747,47 +60746,47 @@
         <v>43</v>
       </c>
       <c r="P353">
-        <f t="shared" ref="P353" si="384">M353*10</f>
+        <f t="shared" ref="P353" si="382">M353*10</f>
         <v>90</v>
       </c>
       <c r="Q353">
-        <f t="shared" ref="Q353" si="385">((SUM(C353:F353))/4)*1.04</f>
+        <f t="shared" ref="Q353" si="383">((SUM(C353:F353))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R353">
-        <f t="shared" ref="R353" si="386">((SUM(C355:F355))/4)*1.04</f>
+        <f t="shared" ref="R353" si="384">((SUM(C355:F355))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S353">
-        <f t="shared" ref="S353" si="387">((SUM(C357:F357))/4)*1.04</f>
+        <f t="shared" ref="S353" si="385">((SUM(C357:F357))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T353">
-        <f t="shared" ref="T353" si="388">((SUM(C359:F359))/4)*1.04</f>
+        <f t="shared" ref="T353" si="386">((SUM(C359:F359))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U353">
-        <f t="shared" ref="U353" si="389">((SUM(C361:F361))/4)*1.04</f>
+        <f t="shared" ref="U353" si="387">((SUM(C361:F361))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V353">
-        <f t="shared" ref="V353" si="390">((SUM(C353:F361))/20)*1.04</f>
+        <f t="shared" ref="V353" si="388">((SUM(C353:F361))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W353">
-        <f t="shared" ref="W353" si="391">(SUM(G353:H361))/10</f>
+        <f t="shared" ref="W353" si="389">(SUM(G353:H361))/10</f>
         <v>2.4</v>
       </c>
       <c r="X353">
-        <f t="shared" ref="X353" si="392">(SUM(I353:I361))/5</f>
+        <f t="shared" ref="X353" si="390">(SUM(I353:I361))/5</f>
         <v>3.8</v>
       </c>
       <c r="Y353">
-        <f t="shared" ref="Y353" si="393">SUM(K353:K361)-Z353</f>
+        <f t="shared" ref="Y353" si="391">SUM(K353:K361)-Z353</f>
         <v>54</v>
       </c>
       <c r="Z353">
-        <f t="shared" ref="Z353" si="394">SUM(L353:L361)</f>
+        <f t="shared" ref="Z353" si="392">SUM(L353:L361)</f>
         <v>6</v>
       </c>
       <c r="AA353" t="s">
@@ -61241,47 +61240,47 @@
         <v>29</v>
       </c>
       <c r="P362">
-        <f t="shared" ref="P362" si="395">M362*10</f>
+        <f t="shared" ref="P362" si="393">M362*10</f>
         <v>50</v>
       </c>
       <c r="Q362">
-        <f t="shared" ref="Q362" si="396">((SUM(C362:F362))/4)*1.04</f>
+        <f t="shared" ref="Q362" si="394">((SUM(C362:F362))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R362">
-        <f t="shared" ref="R362" si="397">((SUM(C364:F364))/4)*1.04</f>
+        <f t="shared" ref="R362" si="395">((SUM(C364:F364))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S362">
-        <f t="shared" ref="S362" si="398">((SUM(C366:F366))/4)*1.04</f>
+        <f t="shared" ref="S362" si="396">((SUM(C366:F366))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T362">
-        <f t="shared" ref="T362" si="399">((SUM(C368:F368))/4)*1.04</f>
+        <f t="shared" ref="T362" si="397">((SUM(C368:F368))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U362">
-        <f t="shared" ref="U362" si="400">((SUM(C370:F370))/4)*1.04</f>
+        <f t="shared" ref="U362" si="398">((SUM(C370:F370))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V362">
-        <f t="shared" ref="V362" si="401">((SUM(C362:F370))/20)*1.04</f>
+        <f t="shared" ref="V362" si="399">((SUM(C362:F370))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W362">
-        <f t="shared" ref="W362" si="402">(SUM(G362:H370))/10</f>
+        <f t="shared" ref="W362" si="400">(SUM(G362:H370))/10</f>
         <v>18.100000000000001</v>
       </c>
       <c r="X362">
-        <f t="shared" ref="X362" si="403">(SUM(I362:I370))/5</f>
+        <f t="shared" ref="X362" si="401">(SUM(I362:I370))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y362">
-        <f t="shared" ref="Y362" si="404">SUM(K362:K370)-Z362</f>
+        <f t="shared" ref="Y362" si="402">SUM(K362:K370)-Z362</f>
         <v>60</v>
       </c>
       <c r="Z362">
-        <f t="shared" ref="Z362" si="405">SUM(L362:L370)</f>
+        <f t="shared" ref="Z362" si="403">SUM(L362:L370)</f>
         <v>8</v>
       </c>
       <c r="AA362" t="s">
@@ -61735,47 +61734,47 @@
         <v>29</v>
       </c>
       <c r="P371">
-        <f t="shared" ref="P371" si="406">M371*10</f>
+        <f t="shared" ref="P371" si="404">M371*10</f>
         <v>100</v>
       </c>
       <c r="Q371">
-        <f t="shared" ref="Q371" si="407">((SUM(C371:F371))/4)*1.04</f>
+        <f t="shared" ref="Q371" si="405">((SUM(C371:F371))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R371">
-        <f t="shared" ref="R371" si="408">((SUM(C373:F373))/4)*1.04</f>
+        <f t="shared" ref="R371" si="406">((SUM(C373:F373))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S371">
-        <f t="shared" ref="S371" si="409">((SUM(C375:F375))/4)*1.04</f>
+        <f t="shared" ref="S371" si="407">((SUM(C375:F375))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T371">
-        <f t="shared" ref="T371" si="410">((SUM(C377:F377))/4)*1.04</f>
+        <f t="shared" ref="T371" si="408">((SUM(C377:F377))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U371">
-        <f t="shared" ref="U371" si="411">((SUM(C379:F379))/4)*1.04</f>
+        <f t="shared" ref="U371" si="409">((SUM(C379:F379))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V371">
-        <f t="shared" ref="V371" si="412">((SUM(C371:F379))/20)*1.04</f>
+        <f t="shared" ref="V371" si="410">((SUM(C371:F379))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W371">
-        <f t="shared" ref="W371" si="413">(SUM(G371:H379))/10</f>
+        <f t="shared" ref="W371" si="411">(SUM(G371:H379))/10</f>
         <v>88.7</v>
       </c>
       <c r="X371">
-        <f t="shared" ref="X371" si="414">(SUM(I371:I379))/5</f>
+        <f t="shared" ref="X371" si="412">(SUM(I371:I379))/5</f>
         <v>1</v>
       </c>
       <c r="Y371">
-        <f t="shared" ref="Y371" si="415">SUM(K371:K379)-Z371</f>
+        <f t="shared" ref="Y371" si="413">SUM(K371:K379)-Z371</f>
         <v>33</v>
       </c>
       <c r="Z371">
-        <f t="shared" ref="Z371" si="416">SUM(L371:L379)</f>
+        <f t="shared" ref="Z371" si="414">SUM(L371:L379)</f>
         <v>6</v>
       </c>
       <c r="AA371" t="s">
@@ -62229,47 +62228,47 @@
         <v>67</v>
       </c>
       <c r="P380">
-        <f t="shared" ref="P380" si="417">M380*10</f>
+        <f t="shared" ref="P380" si="415">M380*10</f>
         <v>100</v>
       </c>
       <c r="Q380">
-        <f t="shared" ref="Q380" si="418">((SUM(C380:F380))/4)*1.04</f>
+        <f t="shared" ref="Q380" si="416">((SUM(C380:F380))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R380">
-        <f t="shared" ref="R380" si="419">((SUM(C382:F382))/4)*1.04</f>
+        <f t="shared" ref="R380" si="417">((SUM(C382:F382))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S380">
-        <f t="shared" ref="S380" si="420">((SUM(C384:F384))/4)*1.04</f>
+        <f t="shared" ref="S380" si="418">((SUM(C384:F384))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T380">
-        <f t="shared" ref="T380" si="421">((SUM(C386:F386))/4)*1.04</f>
+        <f t="shared" ref="T380" si="419">((SUM(C386:F386))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U380">
-        <f t="shared" ref="U380" si="422">((SUM(C388:F388))/4)*1.04</f>
+        <f t="shared" ref="U380" si="420">((SUM(C388:F388))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V380">
-        <f t="shared" ref="V380" si="423">((SUM(C380:F388))/20)*1.04</f>
+        <f t="shared" ref="V380" si="421">((SUM(C380:F388))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W380">
-        <f t="shared" ref="W380" si="424">(SUM(G380:H388))/10</f>
+        <f t="shared" ref="W380" si="422">(SUM(G380:H388))/10</f>
         <v>35.1</v>
       </c>
       <c r="X380">
-        <f t="shared" ref="X380" si="425">(SUM(I380:I388))/5</f>
+        <f t="shared" ref="X380" si="423">(SUM(I380:I388))/5</f>
         <v>2</v>
       </c>
       <c r="Y380">
-        <f t="shared" ref="Y380" si="426">SUM(K380:K388)-Z380</f>
+        <f t="shared" ref="Y380" si="424">SUM(K380:K388)-Z380</f>
         <v>57</v>
       </c>
       <c r="Z380">
-        <f t="shared" ref="Z380" si="427">SUM(L380:L388)</f>
+        <f t="shared" ref="Z380" si="425">SUM(L380:L388)</f>
         <v>5</v>
       </c>
       <c r="AA380" t="s">
@@ -62727,43 +62726,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q389">
-        <f t="shared" ref="Q389" si="428">((SUM(C389:F389))/4)*1.04</f>
+        <f t="shared" ref="Q389" si="426">((SUM(C389:F389))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R389">
-        <f t="shared" ref="R389" si="429">((SUM(C391:F391))/4)*1.04</f>
+        <f t="shared" ref="R389" si="427">((SUM(C391:F391))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S389">
-        <f t="shared" ref="S389" si="430">((SUM(C393:F393))/4)*1.04</f>
+        <f t="shared" ref="S389" si="428">((SUM(C393:F393))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T389">
-        <f t="shared" ref="T389" si="431">((SUM(C395:F395))/4)*1.04</f>
+        <f t="shared" ref="T389" si="429">((SUM(C395:F395))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U389">
-        <f t="shared" ref="U389" si="432">((SUM(C397:F397))/4)*1.04</f>
+        <f t="shared" ref="U389" si="430">((SUM(C397:F397))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V389">
-        <f t="shared" ref="V389" si="433">((SUM(C389:F397))/20)*1.04</f>
+        <f t="shared" ref="V389" si="431">((SUM(C389:F397))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W389">
-        <f t="shared" ref="W389" si="434">(SUM(G389:H397))/10</f>
+        <f t="shared" ref="W389" si="432">(SUM(G389:H397))/10</f>
         <v>1.7</v>
       </c>
       <c r="X389">
-        <f t="shared" ref="X389" si="435">(SUM(I389:I397))/5</f>
+        <f t="shared" ref="X389" si="433">(SUM(I389:I397))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y389">
-        <f t="shared" ref="Y389" si="436">SUM(K389:K397)-Z389</f>
+        <f t="shared" ref="Y389" si="434">SUM(K389:K397)-Z389</f>
         <v>84</v>
       </c>
       <c r="Z389">
-        <f t="shared" ref="Z389" si="437">SUM(L389:L397)</f>
+        <f t="shared" ref="Z389" si="435">SUM(L389:L397)</f>
         <v>11</v>
       </c>
       <c r="AA389" t="s">
@@ -63217,47 +63216,47 @@
         <v>43</v>
       </c>
       <c r="P398">
-        <f t="shared" ref="P398" si="438">M398*10</f>
+        <f t="shared" ref="P398" si="436">M398*10</f>
         <v>40</v>
       </c>
       <c r="Q398">
-        <f t="shared" ref="Q398" si="439">((SUM(C398:F398))/4)*1.04</f>
+        <f t="shared" ref="Q398" si="437">((SUM(C398:F398))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R398">
-        <f t="shared" ref="R398" si="440">((SUM(C400:F400))/4)*1.04</f>
+        <f t="shared" ref="R398" si="438">((SUM(C400:F400))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S398">
-        <f t="shared" ref="S398" si="441">((SUM(C402:F402))/4)*1.04</f>
+        <f t="shared" ref="S398" si="439">((SUM(C402:F402))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T398">
-        <f t="shared" ref="T398" si="442">((SUM(C404:F404))/4)*1.04</f>
+        <f t="shared" ref="T398" si="440">((SUM(C404:F404))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U398">
-        <f t="shared" ref="U398" si="443">((SUM(C406:F406))/4)*1.04</f>
+        <f t="shared" ref="U398" si="441">((SUM(C406:F406))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V398">
-        <f t="shared" ref="V398" si="444">((SUM(C398:F406))/20)*1.04</f>
+        <f t="shared" ref="V398" si="442">((SUM(C398:F406))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W398">
-        <f t="shared" ref="W398" si="445">(SUM(G398:H406))/10</f>
+        <f t="shared" ref="W398" si="443">(SUM(G398:H406))/10</f>
         <v>19.7</v>
       </c>
       <c r="X398">
-        <f t="shared" ref="X398" si="446">(SUM(I398:I406))/5</f>
+        <f t="shared" ref="X398" si="444">(SUM(I398:I406))/5</f>
         <v>3.6</v>
       </c>
       <c r="Y398">
-        <f t="shared" ref="Y398" si="447">SUM(K398:K406)-Z398</f>
+        <f t="shared" ref="Y398" si="445">SUM(K398:K406)-Z398</f>
         <v>68</v>
       </c>
       <c r="Z398">
-        <f t="shared" ref="Z398" si="448">SUM(L398:L406)</f>
+        <f t="shared" ref="Z398" si="446">SUM(L398:L406)</f>
         <v>2</v>
       </c>
       <c r="AA398" t="s">
@@ -63711,47 +63710,47 @@
         <v>67</v>
       </c>
       <c r="P407">
-        <f t="shared" ref="P407" si="449">M407*10</f>
+        <f t="shared" ref="P407" si="447">M407*10</f>
         <v>40</v>
       </c>
       <c r="Q407">
-        <f t="shared" ref="Q407" si="450">((SUM(C407:F407))/4)*1.04</f>
+        <f t="shared" ref="Q407" si="448">((SUM(C407:F407))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R407">
-        <f t="shared" ref="R407" si="451">((SUM(C409:F409))/4)*1.04</f>
+        <f t="shared" ref="R407" si="449">((SUM(C409:F409))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S407">
-        <f t="shared" ref="S407" si="452">((SUM(C411:F411))/4)*1.04</f>
+        <f t="shared" ref="S407" si="450">((SUM(C411:F411))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T407">
-        <f t="shared" ref="T407" si="453">((SUM(C413:F413))/4)*1.04</f>
+        <f t="shared" ref="T407" si="451">((SUM(C413:F413))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U407">
-        <f t="shared" ref="U407" si="454">((SUM(C415:F415))/4)*1.04</f>
+        <f t="shared" ref="U407" si="452">((SUM(C415:F415))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V407">
-        <f t="shared" ref="V407" si="455">((SUM(C407:F415))/20)*1.04</f>
+        <f t="shared" ref="V407" si="453">((SUM(C407:F415))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W407">
-        <f t="shared" ref="W407" si="456">(SUM(G407:H415))/10</f>
+        <f t="shared" ref="W407" si="454">(SUM(G407:H415))/10</f>
         <v>41.3</v>
       </c>
       <c r="X407">
-        <f t="shared" ref="X407" si="457">(SUM(I407:I415))/5</f>
+        <f t="shared" ref="X407" si="455">(SUM(I407:I415))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y407">
-        <f t="shared" ref="Y407" si="458">SUM(K407:K415)-Z407</f>
+        <f t="shared" ref="Y407" si="456">SUM(K407:K415)-Z407</f>
         <v>81</v>
       </c>
       <c r="Z407">
-        <f t="shared" ref="Z407" si="459">SUM(L407:L415)</f>
+        <f t="shared" ref="Z407" si="457">SUM(L407:L415)</f>
         <v>12</v>
       </c>
       <c r="AA407" t="s">
@@ -64205,47 +64204,47 @@
         <v>560</v>
       </c>
       <c r="P416" t="e">
-        <f t="shared" ref="P416" si="460">M416*10</f>
+        <f t="shared" ref="P416" si="458">M416*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q416">
-        <f t="shared" ref="Q416" si="461">((SUM(C416:F416))/4)*1.04</f>
+        <f t="shared" ref="Q416" si="459">((SUM(C416:F416))/4)*1.04</f>
         <v>37.700000000000003</v>
       </c>
       <c r="R416">
-        <f t="shared" ref="R416" si="462">((SUM(C418:F418))/4)*1.04</f>
+        <f t="shared" ref="R416" si="460">((SUM(C418:F418))/4)*1.04</f>
         <v>18.46</v>
       </c>
       <c r="S416">
-        <f t="shared" ref="S416" si="463">((SUM(C420:F420))/4)*1.04</f>
+        <f t="shared" ref="S416" si="461">((SUM(C420:F420))/4)*1.04</f>
         <v>5.2</v>
       </c>
       <c r="T416">
-        <f t="shared" ref="T416" si="464">((SUM(C422:F422))/4)*1.04</f>
+        <f t="shared" ref="T416" si="462">((SUM(C422:F422))/4)*1.04</f>
         <v>7.8000000000000007</v>
       </c>
       <c r="U416">
-        <f t="shared" ref="U416" si="465">((SUM(C424:F424))/4)*1.04</f>
+        <f t="shared" ref="U416" si="463">((SUM(C424:F424))/4)*1.04</f>
         <v>11.96</v>
       </c>
       <c r="V416">
-        <f t="shared" ref="V416" si="466">((SUM(C416:F424))/20)*1.04</f>
+        <f t="shared" ref="V416" si="464">((SUM(C416:F424))/20)*1.04</f>
         <v>16.224</v>
       </c>
       <c r="W416">
-        <f t="shared" ref="W416" si="467">(SUM(G416:H424))/10</f>
+        <f t="shared" ref="W416" si="465">(SUM(G416:H424))/10</f>
         <v>19.5</v>
       </c>
       <c r="X416">
-        <f t="shared" ref="X416" si="468">(SUM(I416:I424))/5</f>
+        <f t="shared" ref="X416" si="466">(SUM(I416:I424))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y416">
-        <f t="shared" ref="Y416" si="469">SUM(K416:K424)-Z416</f>
+        <f t="shared" ref="Y416" si="467">SUM(K416:K424)-Z416</f>
         <v>36</v>
       </c>
       <c r="Z416">
-        <f t="shared" ref="Z416" si="470">SUM(L416:L424)</f>
+        <f t="shared" ref="Z416" si="468">SUM(L416:L424)</f>
         <v>3</v>
       </c>
       <c r="AA416" t="s">
@@ -64699,47 +64698,47 @@
         <v>560</v>
       </c>
       <c r="P425" t="e">
-        <f t="shared" ref="P425" si="471">M425*10</f>
+        <f t="shared" ref="P425" si="469">M425*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q425">
-        <f t="shared" ref="Q425" si="472">((SUM(C425:F425))/4)*1.04</f>
+        <f t="shared" ref="Q425" si="470">((SUM(C425:F425))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R425">
-        <f t="shared" ref="R425" si="473">((SUM(C427:F427))/4)*1.04</f>
+        <f t="shared" ref="R425" si="471">((SUM(C427:F427))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S425">
-        <f t="shared" ref="S425" si="474">((SUM(C429:F429))/4)*1.04</f>
+        <f t="shared" ref="S425" si="472">((SUM(C429:F429))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T425">
-        <f t="shared" ref="T425" si="475">((SUM(C431:F431))/4)*1.04</f>
+        <f t="shared" ref="T425" si="473">((SUM(C431:F431))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U425">
-        <f t="shared" ref="U425" si="476">((SUM(C433:F433))/4)*1.04</f>
+        <f t="shared" ref="U425" si="474">((SUM(C433:F433))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V425">
-        <f t="shared" ref="V425" si="477">((SUM(C425:F433))/20)*1.04</f>
+        <f t="shared" ref="V425" si="475">((SUM(C425:F433))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W425">
-        <f t="shared" ref="W425" si="478">(SUM(G425:H433))/10</f>
+        <f t="shared" ref="W425" si="476">(SUM(G425:H433))/10</f>
         <v>26.2</v>
       </c>
       <c r="X425">
-        <f t="shared" ref="X425" si="479">(SUM(I425:I433))/5</f>
+        <f t="shared" ref="X425" si="477">(SUM(I425:I433))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y425">
-        <f t="shared" ref="Y425" si="480">SUM(K425:K433)-Z425</f>
+        <f t="shared" ref="Y425" si="478">SUM(K425:K433)-Z425</f>
         <v>32</v>
       </c>
       <c r="Z425">
-        <f t="shared" ref="Z425" si="481">SUM(L425:L433)</f>
+        <f t="shared" ref="Z425" si="479">SUM(L425:L433)</f>
         <v>1</v>
       </c>
       <c r="AA425" t="s">
@@ -65193,47 +65192,47 @@
         <v>240</v>
       </c>
       <c r="P434">
-        <f t="shared" ref="P434" si="482">M434*10</f>
+        <f t="shared" ref="P434" si="480">M434*10</f>
         <v>20</v>
       </c>
       <c r="Q434">
-        <f t="shared" ref="Q434" si="483">((SUM(C434:F434))/4)*1.04</f>
+        <f t="shared" ref="Q434" si="481">((SUM(C434:F434))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R434">
-        <f t="shared" ref="R434" si="484">((SUM(C436:F436))/4)*1.04</f>
+        <f t="shared" ref="R434" si="482">((SUM(C436:F436))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S434">
-        <f t="shared" ref="S434" si="485">((SUM(C438:F438))/4)*1.04</f>
+        <f t="shared" ref="S434" si="483">((SUM(C438:F438))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T434">
-        <f t="shared" ref="T434" si="486">((SUM(C440:F440))/4)*1.04</f>
+        <f t="shared" ref="T434" si="484">((SUM(C440:F440))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U434">
-        <f t="shared" ref="U434" si="487">((SUM(C442:F442))/4)*1.04</f>
+        <f t="shared" ref="U434" si="485">((SUM(C442:F442))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V434">
-        <f t="shared" ref="V434" si="488">((SUM(C434:F442))/20)*1.04</f>
+        <f t="shared" ref="V434" si="486">((SUM(C434:F442))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W434">
-        <f t="shared" ref="W434" si="489">(SUM(G434:H442))/10</f>
+        <f t="shared" ref="W434" si="487">(SUM(G434:H442))/10</f>
         <v>10.5</v>
       </c>
       <c r="X434">
-        <f t="shared" ref="X434" si="490">(SUM(I434:I442))/5</f>
+        <f t="shared" ref="X434" si="488">(SUM(I434:I442))/5</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y434">
-        <f t="shared" ref="Y434" si="491">SUM(K434:K442)-Z434</f>
+        <f t="shared" ref="Y434" si="489">SUM(K434:K442)-Z434</f>
         <v>15</v>
       </c>
       <c r="Z434">
-        <f t="shared" ref="Z434" si="492">SUM(L434:L442)</f>
+        <f t="shared" ref="Z434" si="490">SUM(L434:L442)</f>
         <v>3</v>
       </c>
       <c r="AA434" t="s">
@@ -65687,47 +65686,47 @@
         <v>240</v>
       </c>
       <c r="P443">
-        <f t="shared" ref="P443" si="493">M443*10</f>
+        <f t="shared" ref="P443" si="491">M443*10</f>
         <v>40</v>
       </c>
       <c r="Q443">
-        <f t="shared" ref="Q443" si="494">((SUM(C443:F443))/4)*1.04</f>
+        <f t="shared" ref="Q443" si="492">((SUM(C443:F443))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R443">
-        <f t="shared" ref="R443" si="495">((SUM(C445:F445))/4)*1.04</f>
+        <f t="shared" ref="R443" si="493">((SUM(C445:F445))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S443">
-        <f t="shared" ref="S443" si="496">((SUM(C447:F447))/4)*1.04</f>
+        <f t="shared" ref="S443" si="494">((SUM(C447:F447))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T443">
-        <f t="shared" ref="T443" si="497">((SUM(C449:F449))/4)*1.04</f>
+        <f t="shared" ref="T443" si="495">((SUM(C449:F449))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U443">
-        <f t="shared" ref="U443" si="498">((SUM(C451:F451))/4)*1.04</f>
+        <f t="shared" ref="U443" si="496">((SUM(C451:F451))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V443">
-        <f t="shared" ref="V443" si="499">((SUM(C443:F451))/20)*1.04</f>
+        <f t="shared" ref="V443" si="497">((SUM(C443:F451))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W443">
-        <f t="shared" ref="W443" si="500">(SUM(G443:H451))/10</f>
+        <f t="shared" ref="W443" si="498">(SUM(G443:H451))/10</f>
         <v>37.5</v>
       </c>
       <c r="X443">
-        <f t="shared" ref="X443" si="501">(SUM(I443:I451))/5</f>
+        <f t="shared" ref="X443" si="499">(SUM(I443:I451))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y443">
-        <f t="shared" ref="Y443" si="502">SUM(K443:K451)-Z443</f>
+        <f t="shared" ref="Y443" si="500">SUM(K443:K451)-Z443</f>
         <v>19</v>
       </c>
       <c r="Z443">
-        <f t="shared" ref="Z443" si="503">SUM(L443:L451)</f>
+        <f t="shared" ref="Z443" si="501">SUM(L443:L451)</f>
         <v>1</v>
       </c>
       <c r="AA443" t="s">
@@ -66181,47 +66180,47 @@
         <v>240</v>
       </c>
       <c r="P452">
-        <f t="shared" ref="P452" si="504">M452*10</f>
+        <f t="shared" ref="P452" si="502">M452*10</f>
         <v>40</v>
       </c>
       <c r="Q452">
-        <f t="shared" ref="Q452" si="505">((SUM(C452:F452))/4)*1.04</f>
+        <f t="shared" ref="Q452" si="503">((SUM(C452:F452))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R452">
-        <f t="shared" ref="R452" si="506">((SUM(C454:F454))/4)*1.04</f>
+        <f t="shared" ref="R452" si="504">((SUM(C454:F454))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S452">
-        <f t="shared" ref="S452" si="507">((SUM(C456:F456))/4)*1.04</f>
+        <f t="shared" ref="S452" si="505">((SUM(C456:F456))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T452">
-        <f t="shared" ref="T452" si="508">((SUM(C458:F458))/4)*1.04</f>
+        <f t="shared" ref="T452" si="506">((SUM(C458:F458))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U452">
-        <f t="shared" ref="U452" si="509">((SUM(C460:F460))/4)*1.04</f>
+        <f t="shared" ref="U452" si="507">((SUM(C460:F460))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V452">
-        <f t="shared" ref="V452" si="510">((SUM(C452:F460))/20)*1.04</f>
+        <f t="shared" ref="V452" si="508">((SUM(C452:F460))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W452">
-        <f t="shared" ref="W452" si="511">(SUM(G452:H460))/10</f>
+        <f t="shared" ref="W452" si="509">(SUM(G452:H460))/10</f>
         <v>14</v>
       </c>
       <c r="X452">
-        <f t="shared" ref="X452" si="512">(SUM(I452:I460))/5</f>
+        <f t="shared" ref="X452" si="510">(SUM(I452:I460))/5</f>
         <v>3.2</v>
       </c>
       <c r="Y452">
-        <f t="shared" ref="Y452" si="513">SUM(K452:K460)-Z452</f>
+        <f t="shared" ref="Y452" si="511">SUM(K452:K460)-Z452</f>
         <v>16</v>
       </c>
       <c r="Z452">
-        <f t="shared" ref="Z452" si="514">SUM(L452:L460)</f>
+        <f t="shared" ref="Z452" si="512">SUM(L452:L460)</f>
         <v>4</v>
       </c>
       <c r="AA452" t="s">
@@ -66675,47 +66674,47 @@
         <v>240</v>
       </c>
       <c r="P461" t="e">
-        <f t="shared" ref="P461" si="515">M461*10</f>
+        <f t="shared" ref="P461" si="513">M461*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q461">
-        <f t="shared" ref="Q461" si="516">((SUM(C461:F461))/4)*1.04</f>
+        <f t="shared" ref="Q461" si="514">((SUM(C461:F461))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R461">
-        <f t="shared" ref="R461" si="517">((SUM(C463:F463))/4)*1.04</f>
+        <f t="shared" ref="R461" si="515">((SUM(C463:F463))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S461">
-        <f t="shared" ref="S461" si="518">((SUM(C465:F465))/4)*1.04</f>
+        <f t="shared" ref="S461" si="516">((SUM(C465:F465))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T461">
-        <f t="shared" ref="T461" si="519">((SUM(C467:F467))/4)*1.04</f>
+        <f t="shared" ref="T461" si="517">((SUM(C467:F467))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U461">
-        <f t="shared" ref="U461" si="520">((SUM(C469:F469))/4)*1.04</f>
+        <f t="shared" ref="U461" si="518">((SUM(C469:F469))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V461">
-        <f t="shared" ref="V461" si="521">((SUM(C461:F469))/20)*1.04</f>
+        <f t="shared" ref="V461" si="519">((SUM(C461:F469))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W461">
-        <f t="shared" ref="W461" si="522">(SUM(G461:H469))/10</f>
+        <f t="shared" ref="W461" si="520">(SUM(G461:H469))/10</f>
         <v>19</v>
       </c>
       <c r="X461">
-        <f t="shared" ref="X461" si="523">(SUM(I461:I469))/5</f>
+        <f t="shared" ref="X461" si="521">(SUM(I461:I469))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y461">
-        <f t="shared" ref="Y461" si="524">SUM(K461:K469)-Z461</f>
+        <f t="shared" ref="Y461" si="522">SUM(K461:K469)-Z461</f>
         <v>33</v>
       </c>
       <c r="Z461">
-        <f t="shared" ref="Z461" si="525">SUM(L461:L469)</f>
+        <f t="shared" ref="Z461" si="523">SUM(L461:L469)</f>
         <v>3</v>
       </c>
       <c r="AA461" t="s">
@@ -67169,47 +67168,47 @@
         <v>240</v>
       </c>
       <c r="P470" t="e">
-        <f t="shared" ref="P470" si="526">M470*10</f>
+        <f t="shared" ref="P470" si="524">M470*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q470">
-        <f t="shared" ref="Q470" si="527">((SUM(C470:F470))/4)*1.04</f>
+        <f t="shared" ref="Q470" si="525">((SUM(C470:F470))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R470">
-        <f t="shared" ref="R470" si="528">((SUM(C472:F472))/4)*1.04</f>
+        <f t="shared" ref="R470" si="526">((SUM(C472:F472))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S470">
-        <f t="shared" ref="S470" si="529">((SUM(C474:F474))/4)*1.04</f>
+        <f t="shared" ref="S470" si="527">((SUM(C474:F474))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T470">
-        <f t="shared" ref="T470" si="530">((SUM(C476:F476))/4)*1.04</f>
+        <f t="shared" ref="T470" si="528">((SUM(C476:F476))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U470">
-        <f t="shared" ref="U470" si="531">((SUM(C478:F478))/4)*1.04</f>
+        <f t="shared" ref="U470" si="529">((SUM(C478:F478))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V470">
-        <f t="shared" ref="V470" si="532">((SUM(C470:F478))/20)*1.04</f>
+        <f t="shared" ref="V470" si="530">((SUM(C470:F478))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W470">
-        <f t="shared" ref="W470" si="533">(SUM(G470:H478))/10</f>
+        <f t="shared" ref="W470" si="531">(SUM(G470:H478))/10</f>
         <v>31</v>
       </c>
       <c r="X470">
-        <f t="shared" ref="X470" si="534">(SUM(I470:I478))/5</f>
+        <f t="shared" ref="X470" si="532">(SUM(I470:I478))/5</f>
         <v>3.4</v>
       </c>
       <c r="Y470">
-        <f t="shared" ref="Y470" si="535">SUM(K470:K478)-Z470</f>
+        <f t="shared" ref="Y470" si="533">SUM(K470:K478)-Z470</f>
         <v>42</v>
       </c>
       <c r="Z470">
-        <f t="shared" ref="Z470" si="536">SUM(L470:L478)</f>
+        <f t="shared" ref="Z470" si="534">SUM(L470:L478)</f>
         <v>4</v>
       </c>
       <c r="AA470" t="s">
@@ -67663,47 +67662,47 @@
         <v>240</v>
       </c>
       <c r="P479" t="e">
-        <f t="shared" ref="P479" si="537">M479*10</f>
+        <f t="shared" ref="P479" si="535">M479*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q479">
-        <f t="shared" ref="Q479" si="538">((SUM(C479:F479))/4)*1.04</f>
+        <f t="shared" ref="Q479" si="536">((SUM(C479:F479))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R479">
-        <f t="shared" ref="R479" si="539">((SUM(C481:F481))/4)*1.04</f>
+        <f t="shared" ref="R479" si="537">((SUM(C481:F481))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S479">
-        <f t="shared" ref="S479" si="540">((SUM(C483:F483))/4)*1.04</f>
+        <f t="shared" ref="S479" si="538">((SUM(C483:F483))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T479">
-        <f t="shared" ref="T479" si="541">((SUM(C485:F485))/4)*1.04</f>
+        <f t="shared" ref="T479" si="539">((SUM(C485:F485))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U479">
-        <f t="shared" ref="U479" si="542">((SUM(C487:F487))/4)*1.04</f>
+        <f t="shared" ref="U479" si="540">((SUM(C487:F487))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V479">
-        <f t="shared" ref="V479" si="543">((SUM(C479:F487))/20)*1.04</f>
+        <f t="shared" ref="V479" si="541">((SUM(C479:F487))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W479">
-        <f t="shared" ref="W479" si="544">(SUM(G479:H487))/10</f>
+        <f t="shared" ref="W479" si="542">(SUM(G479:H487))/10</f>
         <v>7</v>
       </c>
       <c r="X479">
-        <f t="shared" ref="X479" si="545">(SUM(I479:I487))/5</f>
+        <f t="shared" ref="X479" si="543">(SUM(I479:I487))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y479">
-        <f t="shared" ref="Y479" si="546">SUM(K479:K487)-Z479</f>
+        <f t="shared" ref="Y479" si="544">SUM(K479:K487)-Z479</f>
         <v>26</v>
       </c>
       <c r="Z479">
-        <f t="shared" ref="Z479" si="547">SUM(L479:L487)</f>
+        <f t="shared" ref="Z479" si="545">SUM(L479:L487)</f>
         <v>2</v>
       </c>
       <c r="AA479" t="s">
@@ -68157,47 +68156,47 @@
         <v>29</v>
       </c>
       <c r="P488">
-        <f t="shared" ref="P488" si="548">M488*10</f>
+        <f t="shared" ref="P488" si="546">M488*10</f>
         <v>80</v>
       </c>
       <c r="Q488">
-        <f t="shared" ref="Q488" si="549">((SUM(C488:F488))/4)*1.04</f>
+        <f t="shared" ref="Q488" si="547">((SUM(C488:F488))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R488">
-        <f t="shared" ref="R488" si="550">((SUM(C490:F490))/4)*1.04</f>
+        <f t="shared" ref="R488" si="548">((SUM(C490:F490))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S488">
-        <f t="shared" ref="S488" si="551">((SUM(C492:F492))/4)*1.04</f>
+        <f t="shared" ref="S488" si="549">((SUM(C492:F492))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T488">
-        <f t="shared" ref="T488" si="552">((SUM(C494:F494))/4)*1.04</f>
+        <f t="shared" ref="T488" si="550">((SUM(C494:F494))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U488">
-        <f t="shared" ref="U488" si="553">((SUM(C496:F496))/4)*1.04</f>
+        <f t="shared" ref="U488" si="551">((SUM(C496:F496))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V488">
-        <f t="shared" ref="V488" si="554">((SUM(C488:F496))/20)*1.04</f>
+        <f t="shared" ref="V488" si="552">((SUM(C488:F496))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W488">
-        <f t="shared" ref="W488" si="555">(SUM(G488:H496))/10</f>
+        <f t="shared" ref="W488" si="553">(SUM(G488:H496))/10</f>
         <v>43.5</v>
       </c>
       <c r="X488">
-        <f t="shared" ref="X488" si="556">(SUM(I488:I496))/5</f>
+        <f t="shared" ref="X488" si="554">(SUM(I488:I496))/5</f>
         <v>2</v>
       </c>
       <c r="Y488">
-        <f t="shared" ref="Y488" si="557">SUM(K488:K496)-Z488</f>
+        <f t="shared" ref="Y488" si="555">SUM(K488:K496)-Z488</f>
         <v>10</v>
       </c>
       <c r="Z488">
-        <f t="shared" ref="Z488" si="558">SUM(L488:L496)</f>
+        <f t="shared" ref="Z488" si="556">SUM(L488:L496)</f>
         <v>8</v>
       </c>
       <c r="AA488" t="s">
@@ -68651,47 +68650,47 @@
         <v>43</v>
       </c>
       <c r="P497">
-        <f t="shared" ref="P497" si="559">M497*10</f>
+        <f t="shared" ref="P497" si="557">M497*10</f>
         <v>50</v>
       </c>
       <c r="Q497">
-        <f t="shared" ref="Q497" si="560">((SUM(C497:F497))/4)*1.04</f>
+        <f t="shared" ref="Q497" si="558">((SUM(C497:F497))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R497">
-        <f t="shared" ref="R497" si="561">((SUM(C499:F499))/4)*1.04</f>
+        <f t="shared" ref="R497" si="559">((SUM(C499:F499))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S497">
-        <f t="shared" ref="S497" si="562">((SUM(C501:F501))/4)*1.04</f>
+        <f t="shared" ref="S497" si="560">((SUM(C501:F501))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T497">
-        <f t="shared" ref="T497" si="563">((SUM(C503:F503))/4)*1.04</f>
+        <f t="shared" ref="T497" si="561">((SUM(C503:F503))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U497">
-        <f t="shared" ref="U497" si="564">((SUM(C505:F505))/4)*1.04</f>
+        <f t="shared" ref="U497" si="562">((SUM(C505:F505))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V497">
-        <f t="shared" ref="V497" si="565">((SUM(C497:F505))/20)*1.04</f>
+        <f t="shared" ref="V497" si="563">((SUM(C497:F505))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W497">
-        <f t="shared" ref="W497" si="566">(SUM(G497:H505))/10</f>
+        <f t="shared" ref="W497" si="564">(SUM(G497:H505))/10</f>
         <v>81</v>
       </c>
       <c r="X497">
-        <f t="shared" ref="X497" si="567">(SUM(I497:I505))/5</f>
+        <f t="shared" ref="X497" si="565">(SUM(I497:I505))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y497">
-        <f t="shared" ref="Y497" si="568">SUM(K497:K505)-Z497</f>
+        <f t="shared" ref="Y497" si="566">SUM(K497:K505)-Z497</f>
         <v>30</v>
       </c>
       <c r="Z497">
-        <f t="shared" ref="Z497" si="569">SUM(L497:L505)</f>
+        <f t="shared" ref="Z497" si="567">SUM(L497:L505)</f>
         <v>0</v>
       </c>
       <c r="AA497" t="s">
@@ -69145,47 +69144,47 @@
         <v>782</v>
       </c>
       <c r="P506">
-        <f t="shared" ref="P506" si="570">M506*10</f>
+        <f t="shared" ref="P506" si="568">M506*10</f>
         <v>100</v>
       </c>
       <c r="Q506">
-        <f t="shared" ref="Q506" si="571">((SUM(C506:F506))/4)*1.04</f>
+        <f t="shared" ref="Q506" si="569">((SUM(C506:F506))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R506">
-        <f t="shared" ref="R506" si="572">((SUM(C508:F508))/4)*1.04</f>
+        <f t="shared" ref="R506" si="570">((SUM(C508:F508))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S506">
-        <f t="shared" ref="S506" si="573">((SUM(C510:F510))/4)*1.04</f>
+        <f t="shared" ref="S506" si="571">((SUM(C510:F510))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T506">
-        <f t="shared" ref="T506" si="574">((SUM(C512:F512))/4)*1.04</f>
+        <f t="shared" ref="T506" si="572">((SUM(C512:F512))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U506">
-        <f t="shared" ref="U506" si="575">((SUM(C514:F514))/4)*1.04</f>
+        <f t="shared" ref="U506" si="573">((SUM(C514:F514))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V506">
-        <f t="shared" ref="V506" si="576">((SUM(C506:F514))/20)*1.04</f>
+        <f t="shared" ref="V506" si="574">((SUM(C506:F514))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W506">
-        <f t="shared" ref="W506" si="577">(SUM(G506:H514))/10</f>
+        <f t="shared" ref="W506" si="575">(SUM(G506:H514))/10</f>
         <v>16.2</v>
       </c>
       <c r="X506">
-        <f t="shared" ref="X506" si="578">(SUM(I506:I514))/5</f>
+        <f t="shared" ref="X506" si="576">(SUM(I506:I514))/5</f>
         <v>2</v>
       </c>
       <c r="Y506">
-        <f t="shared" ref="Y506" si="579">SUM(K506:K514)-Z506</f>
+        <f t="shared" ref="Y506" si="577">SUM(K506:K514)-Z506</f>
         <v>69</v>
       </c>
       <c r="Z506">
-        <f t="shared" ref="Z506" si="580">SUM(L506:L514)</f>
+        <f t="shared" ref="Z506" si="578">SUM(L506:L514)</f>
         <v>10</v>
       </c>
       <c r="AA506" t="s">
@@ -69639,47 +69638,47 @@
         <v>240</v>
       </c>
       <c r="P515">
-        <f t="shared" ref="P515" si="581">M515*10</f>
+        <f t="shared" ref="P515" si="579">M515*10</f>
         <v>30</v>
       </c>
       <c r="Q515">
-        <f t="shared" ref="Q515" si="582">((SUM(C515:F515))/4)*1.04</f>
+        <f t="shared" ref="Q515" si="580">((SUM(C515:F515))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R515">
-        <f t="shared" ref="R515" si="583">((SUM(C517:F517))/4)*1.04</f>
+        <f t="shared" ref="R515" si="581">((SUM(C517:F517))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S515">
-        <f t="shared" ref="S515" si="584">((SUM(C519:F519))/4)*1.04</f>
+        <f t="shared" ref="S515" si="582">((SUM(C519:F519))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T515">
-        <f t="shared" ref="T515" si="585">((SUM(C521:F521))/4)*1.04</f>
+        <f t="shared" ref="T515" si="583">((SUM(C521:F521))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U515">
-        <f t="shared" ref="U515" si="586">((SUM(C523:F523))/4)*1.04</f>
+        <f t="shared" ref="U515" si="584">((SUM(C523:F523))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V515">
-        <f t="shared" ref="V515" si="587">((SUM(C515:F523))/20)*1.04</f>
+        <f t="shared" ref="V515" si="585">((SUM(C515:F523))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W515">
-        <f t="shared" ref="W515" si="588">(SUM(G515:H523))/10</f>
+        <f t="shared" ref="W515" si="586">(SUM(G515:H523))/10</f>
         <v>5.5</v>
       </c>
       <c r="X515">
-        <f t="shared" ref="X515" si="589">(SUM(I515:I523))/5</f>
+        <f t="shared" ref="X515" si="587">(SUM(I515:I523))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y515">
-        <f t="shared" ref="Y515" si="590">SUM(K515:K523)-Z515</f>
+        <f t="shared" ref="Y515" si="588">SUM(K515:K523)-Z515</f>
         <v>23</v>
       </c>
       <c r="Z515">
-        <f t="shared" ref="Z515" si="591">SUM(L515:L523)</f>
+        <f t="shared" ref="Z515" si="589">SUM(L515:L523)</f>
         <v>3</v>
       </c>
       <c r="AA515" t="s">
@@ -70133,47 +70132,47 @@
         <v>240</v>
       </c>
       <c r="P524">
-        <f t="shared" ref="P524" si="592">M524*10</f>
+        <f t="shared" ref="P524" si="590">M524*10</f>
         <v>60</v>
       </c>
       <c r="Q524">
-        <f t="shared" ref="Q524" si="593">((SUM(C524:F524))/4)*1.04</f>
+        <f t="shared" ref="Q524" si="591">((SUM(C524:F524))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R524">
-        <f t="shared" ref="R524" si="594">((SUM(C526:F526))/4)*1.04</f>
+        <f t="shared" ref="R524" si="592">((SUM(C526:F526))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S524">
-        <f t="shared" ref="S524" si="595">((SUM(C528:F528))/4)*1.04</f>
+        <f t="shared" ref="S524" si="593">((SUM(C528:F528))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T524">
-        <f t="shared" ref="T524" si="596">((SUM(C530:F530))/4)*1.04</f>
+        <f t="shared" ref="T524" si="594">((SUM(C530:F530))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U524">
-        <f t="shared" ref="U524" si="597">((SUM(C532:F532))/4)*1.04</f>
+        <f t="shared" ref="U524" si="595">((SUM(C532:F532))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V524">
-        <f t="shared" ref="V524" si="598">((SUM(C524:F532))/20)*1.04</f>
+        <f t="shared" ref="V524" si="596">((SUM(C524:F532))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W524">
-        <f t="shared" ref="W524" si="599">(SUM(G524:H532))/10</f>
+        <f t="shared" ref="W524" si="597">(SUM(G524:H532))/10</f>
         <v>11</v>
       </c>
       <c r="X524">
-        <f t="shared" ref="X524" si="600">(SUM(I524:I532))/5</f>
+        <f t="shared" ref="X524" si="598">(SUM(I524:I532))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y524">
-        <f t="shared" ref="Y524" si="601">SUM(K524:K532)-Z524</f>
+        <f t="shared" ref="Y524" si="599">SUM(K524:K532)-Z524</f>
         <v>23</v>
       </c>
       <c r="Z524">
-        <f t="shared" ref="Z524" si="602">SUM(L524:L532)</f>
+        <f t="shared" ref="Z524" si="600">SUM(L524:L532)</f>
         <v>3</v>
       </c>
       <c r="AA524" t="s">
@@ -70627,47 +70626,47 @@
         <v>240</v>
       </c>
       <c r="P533">
-        <f t="shared" ref="P533" si="603">M533*10</f>
+        <f t="shared" ref="P533" si="601">M533*10</f>
         <v>70</v>
       </c>
       <c r="Q533">
-        <f t="shared" ref="Q533" si="604">((SUM(C533:F533))/4)*1.04</f>
+        <f t="shared" ref="Q533" si="602">((SUM(C533:F533))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R533">
-        <f t="shared" ref="R533" si="605">((SUM(C535:F535))/4)*1.04</f>
+        <f t="shared" ref="R533" si="603">((SUM(C535:F535))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S533">
-        <f t="shared" ref="S533" si="606">((SUM(C537:F537))/4)*1.04</f>
+        <f t="shared" ref="S533" si="604">((SUM(C537:F537))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T533">
-        <f t="shared" ref="T533" si="607">((SUM(C539:F539))/4)*1.04</f>
+        <f t="shared" ref="T533" si="605">((SUM(C539:F539))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U533">
-        <f t="shared" ref="U533" si="608">((SUM(C541:F541))/4)*1.04</f>
+        <f t="shared" ref="U533" si="606">((SUM(C541:F541))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V533">
-        <f t="shared" ref="V533" si="609">((SUM(C533:F541))/20)*1.04</f>
+        <f t="shared" ref="V533" si="607">((SUM(C533:F541))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W533">
-        <f t="shared" ref="W533" si="610">(SUM(G533:H541))/10</f>
+        <f t="shared" ref="W533" si="608">(SUM(G533:H541))/10</f>
         <v>4.5</v>
       </c>
       <c r="X533">
-        <f t="shared" ref="X533" si="611">(SUM(I533:I541))/5</f>
+        <f t="shared" ref="X533" si="609">(SUM(I533:I541))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y533">
-        <f t="shared" ref="Y533" si="612">SUM(K533:K541)-Z533</f>
+        <f t="shared" ref="Y533" si="610">SUM(K533:K541)-Z533</f>
         <v>19</v>
       </c>
       <c r="Z533">
-        <f t="shared" ref="Z533" si="613">SUM(L533:L541)</f>
+        <f t="shared" ref="Z533" si="611">SUM(L533:L541)</f>
         <v>4</v>
       </c>
       <c r="AA533" t="s">
@@ -71121,47 +71120,47 @@
         <v>240</v>
       </c>
       <c r="P542">
-        <f t="shared" ref="P542" si="614">M542*10</f>
+        <f t="shared" ref="P542" si="612">M542*10</f>
         <v>50</v>
       </c>
       <c r="Q542">
-        <f t="shared" ref="Q542" si="615">((SUM(C542:F542))/4)*1.04</f>
+        <f t="shared" ref="Q542" si="613">((SUM(C542:F542))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R542">
-        <f t="shared" ref="R542" si="616">((SUM(C544:F544))/4)*1.04</f>
+        <f t="shared" ref="R542" si="614">((SUM(C544:F544))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S542">
-        <f t="shared" ref="S542" si="617">((SUM(C546:F546))/4)*1.04</f>
+        <f t="shared" ref="S542" si="615">((SUM(C546:F546))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T542">
-        <f t="shared" ref="T542" si="618">((SUM(C548:F548))/4)*1.04</f>
+        <f t="shared" ref="T542" si="616">((SUM(C548:F548))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U542">
-        <f t="shared" ref="U542" si="619">((SUM(C550:F550))/4)*1.04</f>
+        <f t="shared" ref="U542" si="617">((SUM(C550:F550))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V542">
-        <f t="shared" ref="V542" si="620">((SUM(C542:F550))/20)*1.04</f>
+        <f t="shared" ref="V542" si="618">((SUM(C542:F550))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W542">
-        <f t="shared" ref="W542" si="621">(SUM(G542:H550))/10</f>
+        <f t="shared" ref="W542" si="619">(SUM(G542:H550))/10</f>
         <v>35.5</v>
       </c>
       <c r="X542">
-        <f t="shared" ref="X542" si="622">(SUM(I542:I550))/5</f>
+        <f t="shared" ref="X542" si="620">(SUM(I542:I550))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y542">
-        <f t="shared" ref="Y542" si="623">SUM(K542:K550)-Z542</f>
+        <f t="shared" ref="Y542" si="621">SUM(K542:K550)-Z542</f>
         <v>10</v>
       </c>
       <c r="Z542">
-        <f t="shared" ref="Z542" si="624">SUM(L542:L550)</f>
+        <f t="shared" ref="Z542" si="622">SUM(L542:L550)</f>
         <v>0</v>
       </c>
       <c r="AA542" t="s">
@@ -71615,47 +71614,47 @@
         <v>240</v>
       </c>
       <c r="P551">
-        <f t="shared" ref="P551" si="625">M551*10</f>
+        <f t="shared" ref="P551" si="623">M551*10</f>
         <v>50</v>
       </c>
       <c r="Q551">
-        <f t="shared" ref="Q551" si="626">((SUM(C551:F551))/4)*1.04</f>
+        <f t="shared" ref="Q551" si="624">((SUM(C551:F551))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R551">
-        <f t="shared" ref="R551" si="627">((SUM(C553:F553))/4)*1.04</f>
+        <f t="shared" ref="R551" si="625">((SUM(C553:F553))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S551">
-        <f t="shared" ref="S551" si="628">((SUM(C555:F555))/4)*1.04</f>
+        <f t="shared" ref="S551" si="626">((SUM(C555:F555))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T551">
-        <f t="shared" ref="T551" si="629">((SUM(C557:F557))/4)*1.04</f>
+        <f t="shared" ref="T551" si="627">((SUM(C557:F557))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U551">
-        <f t="shared" ref="U551" si="630">((SUM(C559:F559))/4)*1.04</f>
+        <f t="shared" ref="U551" si="628">((SUM(C559:F559))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V551">
-        <f t="shared" ref="V551" si="631">((SUM(C551:F559))/20)*1.04</f>
+        <f t="shared" ref="V551" si="629">((SUM(C551:F559))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W551">
-        <f t="shared" ref="W551" si="632">(SUM(G551:H559))/10</f>
+        <f t="shared" ref="W551" si="630">(SUM(G551:H559))/10</f>
         <v>49</v>
       </c>
       <c r="X551">
-        <f t="shared" ref="X551" si="633">(SUM(I551:I559))/5</f>
+        <f t="shared" ref="X551" si="631">(SUM(I551:I559))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y551">
-        <f t="shared" ref="Y551" si="634">SUM(K551:K559)-Z551</f>
+        <f t="shared" ref="Y551" si="632">SUM(K551:K559)-Z551</f>
         <v>17</v>
       </c>
       <c r="Z551">
-        <f t="shared" ref="Z551" si="635">SUM(L551:L559)</f>
+        <f t="shared" ref="Z551" si="633">SUM(L551:L559)</f>
         <v>0</v>
       </c>
       <c r="AA551" t="s">
@@ -72109,47 +72108,47 @@
         <v>29</v>
       </c>
       <c r="P560">
-        <f t="shared" ref="P560" si="636">M560*10</f>
+        <f t="shared" ref="P560" si="634">M560*10</f>
         <v>70</v>
       </c>
       <c r="Q560">
-        <f t="shared" ref="Q560" si="637">((SUM(C560:F560))/4)*1.04</f>
+        <f t="shared" ref="Q560" si="635">((SUM(C560:F560))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R560">
-        <f t="shared" ref="R560" si="638">((SUM(C562:F562))/4)*1.04</f>
+        <f t="shared" ref="R560" si="636">((SUM(C562:F562))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S560">
-        <f t="shared" ref="S560" si="639">((SUM(C564:F564))/4)*1.04</f>
+        <f t="shared" ref="S560" si="637">((SUM(C564:F564))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T560">
-        <f t="shared" ref="T560" si="640">((SUM(C566:F566))/4)*1.04</f>
+        <f t="shared" ref="T560" si="638">((SUM(C566:F566))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U560">
-        <f t="shared" ref="U560" si="641">((SUM(C568:F568))/4)*1.04</f>
+        <f t="shared" ref="U560" si="639">((SUM(C568:F568))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V560">
-        <f t="shared" ref="V560" si="642">((SUM(C560:F568))/20)*1.04</f>
+        <f t="shared" ref="V560" si="640">((SUM(C560:F568))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W560">
-        <f t="shared" ref="W560" si="643">(SUM(G560:H568))/10</f>
+        <f t="shared" ref="W560" si="641">(SUM(G560:H568))/10</f>
         <v>11.8</v>
       </c>
       <c r="X560">
-        <f t="shared" ref="X560" si="644">(SUM(I560:I568))/5</f>
+        <f t="shared" ref="X560" si="642">(SUM(I560:I568))/5</f>
         <v>2</v>
       </c>
       <c r="Y560">
-        <f t="shared" ref="Y560" si="645">SUM(K560:K568)-Z560</f>
+        <f t="shared" ref="Y560" si="643">SUM(K560:K568)-Z560</f>
         <v>10</v>
       </c>
       <c r="Z560">
-        <f t="shared" ref="Z560" si="646">SUM(L560:L568)</f>
+        <f t="shared" ref="Z560" si="644">SUM(L560:L568)</f>
         <v>7</v>
       </c>
       <c r="AA560" t="s">
@@ -72603,47 +72602,47 @@
         <v>29</v>
       </c>
       <c r="P569" t="e">
-        <f t="shared" ref="P569" si="647">M569*10</f>
+        <f t="shared" ref="P569" si="645">M569*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q569">
-        <f t="shared" ref="Q569" si="648">((SUM(C569:F569))/4)*1.04</f>
+        <f t="shared" ref="Q569" si="646">((SUM(C569:F569))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R569">
-        <f t="shared" ref="R569" si="649">((SUM(C571:F571))/4)*1.04</f>
+        <f t="shared" ref="R569" si="647">((SUM(C571:F571))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S569">
-        <f t="shared" ref="S569" si="650">((SUM(C573:F573))/4)*1.04</f>
+        <f t="shared" ref="S569" si="648">((SUM(C573:F573))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T569">
-        <f t="shared" ref="T569" si="651">((SUM(C575:F575))/4)*1.04</f>
+        <f t="shared" ref="T569" si="649">((SUM(C575:F575))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U569">
-        <f t="shared" ref="U569" si="652">((SUM(C577:F577))/4)*1.04</f>
+        <f t="shared" ref="U569" si="650">((SUM(C577:F577))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V569">
-        <f t="shared" ref="V569" si="653">((SUM(C569:F577))/20)*1.04</f>
+        <f t="shared" ref="V569" si="651">((SUM(C569:F577))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W569">
-        <f t="shared" ref="W569" si="654">(SUM(G569:H577))/10</f>
+        <f t="shared" ref="W569" si="652">(SUM(G569:H577))/10</f>
         <v>3</v>
       </c>
       <c r="X569">
-        <f t="shared" ref="X569" si="655">(SUM(I569:I577))/5</f>
+        <f t="shared" ref="X569" si="653">(SUM(I569:I577))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y569">
-        <f t="shared" ref="Y569" si="656">SUM(K569:K577)-Z569</f>
+        <f t="shared" ref="Y569" si="654">SUM(K569:K577)-Z569</f>
         <v>7</v>
       </c>
       <c r="Z569">
-        <f t="shared" ref="Z569" si="657">SUM(L569:L577)</f>
+        <f t="shared" ref="Z569" si="655">SUM(L569:L577)</f>
         <v>7</v>
       </c>
       <c r="AA569" t="s">
@@ -73097,47 +73096,47 @@
         <v>29</v>
       </c>
       <c r="P578">
-        <f t="shared" ref="P578" si="658">M578*10</f>
+        <f t="shared" ref="P578" si="656">M578*10</f>
         <v>120</v>
       </c>
       <c r="Q578">
-        <f t="shared" ref="Q578" si="659">((SUM(C578:F578))/4)*1.04</f>
+        <f t="shared" ref="Q578" si="657">((SUM(C578:F578))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R578">
-        <f t="shared" ref="R578" si="660">((SUM(C580:F580))/4)*1.04</f>
+        <f t="shared" ref="R578" si="658">((SUM(C580:F580))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S578">
-        <f t="shared" ref="S578" si="661">((SUM(C582:F582))/4)*1.04</f>
+        <f t="shared" ref="S578" si="659">((SUM(C582:F582))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T578">
-        <f t="shared" ref="T578" si="662">((SUM(C584:F584))/4)*1.04</f>
+        <f t="shared" ref="T578" si="660">((SUM(C584:F584))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U578">
-        <f t="shared" ref="U578" si="663">((SUM(C586:F586))/4)*1.04</f>
+        <f t="shared" ref="U578" si="661">((SUM(C586:F586))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V578">
-        <f t="shared" ref="V578" si="664">((SUM(C578:F586))/20)*1.04</f>
+        <f t="shared" ref="V578" si="662">((SUM(C578:F586))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W578">
-        <f t="shared" ref="W578" si="665">(SUM(G578:H586))/10</f>
+        <f t="shared" ref="W578" si="663">(SUM(G578:H586))/10</f>
         <v>0.3</v>
       </c>
       <c r="X578">
-        <f t="shared" ref="X578" si="666">(SUM(I578:I586))/5</f>
+        <f t="shared" ref="X578" si="664">(SUM(I578:I586))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y578">
-        <f t="shared" ref="Y578" si="667">SUM(K578:K586)-Z578</f>
+        <f t="shared" ref="Y578" si="665">SUM(K578:K586)-Z578</f>
         <v>77</v>
       </c>
       <c r="Z578">
-        <f t="shared" ref="Z578" si="668">SUM(L578:L586)</f>
+        <f t="shared" ref="Z578" si="666">SUM(L578:L586)</f>
         <v>10</v>
       </c>
       <c r="AA578" t="s">
@@ -73591,47 +73590,47 @@
         <v>29</v>
       </c>
       <c r="P587">
-        <f t="shared" ref="P587" si="669">M587*10</f>
+        <f t="shared" ref="P587" si="667">M587*10</f>
         <v>160</v>
       </c>
       <c r="Q587">
-        <f t="shared" ref="Q587" si="670">((SUM(C587:F587))/4)*1.04</f>
+        <f t="shared" ref="Q587" si="668">((SUM(C587:F587))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R587">
-        <f t="shared" ref="R587" si="671">((SUM(C589:F589))/4)*1.04</f>
+        <f t="shared" ref="R587" si="669">((SUM(C589:F589))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S587">
-        <f t="shared" ref="S587" si="672">((SUM(C591:F591))/4)*1.04</f>
+        <f t="shared" ref="S587" si="670">((SUM(C591:F591))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T587">
-        <f t="shared" ref="T587" si="673">((SUM(C593:F593))/4)*1.04</f>
+        <f t="shared" ref="T587" si="671">((SUM(C593:F593))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U587">
-        <f t="shared" ref="U587" si="674">((SUM(C595:F595))/4)*1.04</f>
+        <f t="shared" ref="U587" si="672">((SUM(C595:F595))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V587">
-        <f t="shared" ref="V587" si="675">((SUM(C587:F595))/20)*1.04</f>
+        <f t="shared" ref="V587" si="673">((SUM(C587:F595))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W587">
-        <f t="shared" ref="W587" si="676">(SUM(G587:H595))/10</f>
+        <f t="shared" ref="W587" si="674">(SUM(G587:H595))/10</f>
         <v>0.5</v>
       </c>
       <c r="X587">
-        <f t="shared" ref="X587" si="677">(SUM(I587:I595))/5</f>
+        <f t="shared" ref="X587" si="675">(SUM(I587:I595))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y587">
-        <f t="shared" ref="Y587" si="678">SUM(K587:K595)-Z587</f>
+        <f t="shared" ref="Y587" si="676">SUM(K587:K595)-Z587</f>
         <v>62</v>
       </c>
       <c r="Z587">
-        <f t="shared" ref="Z587" si="679">SUM(L587:L595)</f>
+        <f t="shared" ref="Z587" si="677">SUM(L587:L595)</f>
         <v>14</v>
       </c>
       <c r="AA587" t="s">
@@ -74085,47 +74084,47 @@
         <v>29</v>
       </c>
       <c r="P596">
-        <f t="shared" ref="P596" si="680">M596*10</f>
+        <f t="shared" ref="P596" si="678">M596*10</f>
         <v>150</v>
       </c>
       <c r="Q596">
-        <f t="shared" ref="Q596" si="681">((SUM(C596:F596))/4)*1.04</f>
+        <f t="shared" ref="Q596" si="679">((SUM(C596:F596))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R596">
-        <f t="shared" ref="R596" si="682">((SUM(C598:F598))/4)*1.04</f>
+        <f t="shared" ref="R596" si="680">((SUM(C598:F598))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S596">
-        <f t="shared" ref="S596" si="683">((SUM(C600:F600))/4)*1.04</f>
+        <f t="shared" ref="S596" si="681">((SUM(C600:F600))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T596">
-        <f t="shared" ref="T596" si="684">((SUM(C602:F602))/4)*1.04</f>
+        <f t="shared" ref="T596" si="682">((SUM(C602:F602))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U596">
-        <f t="shared" ref="U596" si="685">((SUM(C604:F604))/4)*1.04</f>
+        <f t="shared" ref="U596" si="683">((SUM(C604:F604))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V596">
-        <f t="shared" ref="V596" si="686">((SUM(C596:F604))/20)*1.04</f>
+        <f t="shared" ref="V596" si="684">((SUM(C596:F604))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W596">
-        <f t="shared" ref="W596" si="687">(SUM(G596:H604))/10</f>
+        <f t="shared" ref="W596" si="685">(SUM(G596:H604))/10</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="X596">
-        <f t="shared" ref="X596" si="688">(SUM(I596:I604))/5</f>
+        <f t="shared" ref="X596" si="686">(SUM(I596:I604))/5</f>
         <v>2</v>
       </c>
       <c r="Y596">
-        <f t="shared" ref="Y596" si="689">SUM(K596:K604)-Z596</f>
+        <f t="shared" ref="Y596" si="687">SUM(K596:K604)-Z596</f>
         <v>29</v>
       </c>
       <c r="Z596">
-        <f t="shared" ref="Z596" si="690">SUM(L596:L604)</f>
+        <f t="shared" ref="Z596" si="688">SUM(L596:L604)</f>
         <v>8</v>
       </c>
       <c r="AA596" t="s">
@@ -74579,47 +74578,47 @@
         <v>29</v>
       </c>
       <c r="P605">
-        <f t="shared" ref="P605" si="691">M605*10</f>
+        <f t="shared" ref="P605" si="689">M605*10</f>
         <v>190</v>
       </c>
       <c r="Q605">
-        <f t="shared" ref="Q605" si="692">((SUM(C605:F605))/4)*1.04</f>
+        <f t="shared" ref="Q605" si="690">((SUM(C605:F605))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R605">
-        <f t="shared" ref="R605" si="693">((SUM(C607:F607))/4)*1.04</f>
+        <f t="shared" ref="R605" si="691">((SUM(C607:F607))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S605">
-        <f t="shared" ref="S605" si="694">((SUM(C609:F609))/4)*1.04</f>
+        <f t="shared" ref="S605" si="692">((SUM(C609:F609))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T605">
-        <f t="shared" ref="T605" si="695">((SUM(C611:F611))/4)*1.04</f>
+        <f t="shared" ref="T605" si="693">((SUM(C611:F611))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U605">
-        <f t="shared" ref="U605" si="696">((SUM(C613:F613))/4)*1.04</f>
+        <f t="shared" ref="U605" si="694">((SUM(C613:F613))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V605">
-        <f t="shared" ref="V605" si="697">((SUM(C605:F613))/20)*1.04</f>
+        <f t="shared" ref="V605" si="695">((SUM(C605:F613))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W605">
-        <f t="shared" ref="W605" si="698">(SUM(G605:H613))/10</f>
+        <f t="shared" ref="W605" si="696">(SUM(G605:H613))/10</f>
         <v>1.8</v>
       </c>
       <c r="X605">
-        <f t="shared" ref="X605" si="699">(SUM(I605:I613))/5</f>
+        <f t="shared" ref="X605" si="697">(SUM(I605:I613))/5</f>
         <v>3</v>
       </c>
       <c r="Y605">
-        <f t="shared" ref="Y605" si="700">SUM(K605:K613)-Z605</f>
+        <f t="shared" ref="Y605" si="698">SUM(K605:K613)-Z605</f>
         <v>93</v>
       </c>
       <c r="Z605">
-        <f t="shared" ref="Z605" si="701">SUM(L605:L613)</f>
+        <f t="shared" ref="Z605" si="699">SUM(L605:L613)</f>
         <v>2</v>
       </c>
       <c r="AA605" t="s">
@@ -75073,47 +75072,47 @@
         <v>29</v>
       </c>
       <c r="P614" t="e">
-        <f t="shared" ref="P614" si="702">M614*10</f>
+        <f t="shared" ref="P614" si="700">M614*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q614">
-        <f t="shared" ref="Q614" si="703">((SUM(C614:F614))/4)*1.04</f>
+        <f t="shared" ref="Q614" si="701">((SUM(C614:F614))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R614">
-        <f t="shared" ref="R614" si="704">((SUM(C616:F616))/4)*1.04</f>
+        <f t="shared" ref="R614" si="702">((SUM(C616:F616))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S614">
-        <f t="shared" ref="S614" si="705">((SUM(C618:F618))/4)*1.04</f>
+        <f t="shared" ref="S614" si="703">((SUM(C618:F618))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T614">
-        <f t="shared" ref="T614" si="706">((SUM(C620:F620))/4)*1.04</f>
+        <f t="shared" ref="T614" si="704">((SUM(C620:F620))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U614">
-        <f t="shared" ref="U614" si="707">((SUM(C622:F622))/4)*1.04</f>
+        <f t="shared" ref="U614" si="705">((SUM(C622:F622))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V614">
-        <f t="shared" ref="V614" si="708">((SUM(C614:F622))/20)*1.04</f>
+        <f t="shared" ref="V614" si="706">((SUM(C614:F622))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W614">
-        <f t="shared" ref="W614" si="709">(SUM(G614:H622))/10</f>
+        <f t="shared" ref="W614" si="707">(SUM(G614:H622))/10</f>
         <v>19.5</v>
       </c>
       <c r="X614">
-        <f t="shared" ref="X614" si="710">(SUM(I614:I622))/5</f>
+        <f t="shared" ref="X614" si="708">(SUM(I614:I622))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y614">
-        <f t="shared" ref="Y614" si="711">SUM(K614:K622)-Z614</f>
+        <f t="shared" ref="Y614" si="709">SUM(K614:K622)-Z614</f>
         <v>2</v>
       </c>
       <c r="Z614">
-        <f t="shared" ref="Z614" si="712">SUM(L614:L622)</f>
+        <f t="shared" ref="Z614" si="710">SUM(L614:L622)</f>
         <v>9</v>
       </c>
       <c r="AA614" t="s">
@@ -75567,47 +75566,47 @@
         <v>29</v>
       </c>
       <c r="P623">
-        <f t="shared" ref="P623" si="713">M623*10</f>
+        <f t="shared" ref="P623" si="711">M623*10</f>
         <v>50</v>
       </c>
       <c r="Q623">
-        <f t="shared" ref="Q623" si="714">((SUM(C623:F623))/4)*1.04</f>
+        <f t="shared" ref="Q623" si="712">((SUM(C623:F623))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R623">
-        <f t="shared" ref="R623" si="715">((SUM(C625:F625))/4)*1.04</f>
+        <f t="shared" ref="R623" si="713">((SUM(C625:F625))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S623">
-        <f t="shared" ref="S623" si="716">((SUM(C627:F627))/4)*1.04</f>
+        <f t="shared" ref="S623" si="714">((SUM(C627:F627))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T623">
-        <f t="shared" ref="T623" si="717">((SUM(C629:F629))/4)*1.04</f>
+        <f t="shared" ref="T623" si="715">((SUM(C629:F629))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U623">
-        <f t="shared" ref="U623" si="718">((SUM(C631:F631))/4)*1.04</f>
+        <f t="shared" ref="U623" si="716">((SUM(C631:F631))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V623">
-        <f t="shared" ref="V623" si="719">((SUM(C623:F631))/20)*1.04</f>
+        <f t="shared" ref="V623" si="717">((SUM(C623:F631))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W623">
-        <f t="shared" ref="W623" si="720">(SUM(G623:H631))/10</f>
+        <f t="shared" ref="W623" si="718">(SUM(G623:H631))/10</f>
         <v>25.6</v>
       </c>
       <c r="X623">
-        <f t="shared" ref="X623" si="721">(SUM(I623:I631))/5</f>
+        <f t="shared" ref="X623" si="719">(SUM(I623:I631))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y623">
-        <f t="shared" ref="Y623" si="722">SUM(K623:K631)-Z623</f>
+        <f t="shared" ref="Y623" si="720">SUM(K623:K631)-Z623</f>
         <v>12</v>
       </c>
       <c r="Z623">
-        <f t="shared" ref="Z623" si="723">SUM(L623:L631)</f>
+        <f t="shared" ref="Z623" si="721">SUM(L623:L631)</f>
         <v>4</v>
       </c>
       <c r="AA623" t="s">
@@ -76061,47 +76060,47 @@
         <v>29</v>
       </c>
       <c r="P632">
-        <f t="shared" ref="P632" si="724">M632*10</f>
+        <f t="shared" ref="P632" si="722">M632*10</f>
         <v>70</v>
       </c>
       <c r="Q632">
-        <f t="shared" ref="Q632" si="725">((SUM(C632:F632))/4)*1.04</f>
+        <f t="shared" ref="Q632" si="723">((SUM(C632:F632))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R632">
-        <f t="shared" ref="R632" si="726">((SUM(C634:F634))/4)*1.04</f>
+        <f t="shared" ref="R632" si="724">((SUM(C634:F634))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S632">
-        <f t="shared" ref="S632" si="727">((SUM(C636:F636))/4)*1.04</f>
+        <f t="shared" ref="S632" si="725">((SUM(C636:F636))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T632">
-        <f t="shared" ref="T632" si="728">((SUM(C638:F638))/4)*1.04</f>
+        <f t="shared" ref="T632" si="726">((SUM(C638:F638))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U632">
-        <f t="shared" ref="U632" si="729">((SUM(C640:F640))/4)*1.04</f>
+        <f t="shared" ref="U632" si="727">((SUM(C640:F640))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V632">
-        <f t="shared" ref="V632" si="730">((SUM(C632:F640))/20)*1.04</f>
+        <f t="shared" ref="V632" si="728">((SUM(C632:F640))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W632">
-        <f t="shared" ref="W632" si="731">(SUM(G632:H640))/10</f>
+        <f t="shared" ref="W632" si="729">(SUM(G632:H640))/10</f>
         <v>50</v>
       </c>
       <c r="X632">
-        <f t="shared" ref="X632" si="732">(SUM(I632:I640))/5</f>
+        <f t="shared" ref="X632" si="730">(SUM(I632:I640))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y632">
-        <f t="shared" ref="Y632" si="733">SUM(K632:K640)-Z632</f>
+        <f t="shared" ref="Y632" si="731">SUM(K632:K640)-Z632</f>
         <v>-2</v>
       </c>
       <c r="Z632">
-        <f t="shared" ref="Z632" si="734">SUM(L632:L640)</f>
+        <f t="shared" ref="Z632" si="732">SUM(L632:L640)</f>
         <v>6</v>
       </c>
       <c r="AA632" t="s">
@@ -76555,35 +76554,35 @@
         <v>29</v>
       </c>
       <c r="P641">
-        <f t="shared" ref="P641" si="735">M641*10</f>
+        <f t="shared" ref="P641" si="733">M641*10</f>
         <v>40</v>
       </c>
       <c r="Q641">
-        <f t="shared" ref="Q641" si="736">((SUM(C641:F641))/4)*1.04</f>
+        <f t="shared" ref="Q641" si="734">((SUM(C641:F641))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R641">
-        <f t="shared" ref="R641" si="737">((SUM(C643:F643))/4)*1.04</f>
+        <f t="shared" ref="R641" si="735">((SUM(C643:F643))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S641">
-        <f t="shared" ref="S641" si="738">((SUM(C645:F645))/4)*1.04</f>
+        <f t="shared" ref="S641" si="736">((SUM(C645:F645))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T641">
-        <f t="shared" ref="T641" si="739">((SUM(C647:F647))/4)*1.04</f>
+        <f t="shared" ref="T641" si="737">((SUM(C647:F647))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U641">
-        <f t="shared" ref="U641" si="740">((SUM(C649:F649))/4)*1.04</f>
+        <f t="shared" ref="U641" si="738">((SUM(C649:F649))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V641">
-        <f t="shared" ref="V641" si="741">((SUM(C641:F649))/20)*1.04</f>
+        <f t="shared" ref="V641" si="739">((SUM(C641:F649))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W641">
-        <f t="shared" ref="W641" si="742">(SUM(G641:H649))/10</f>
+        <f t="shared" ref="W641" si="740">(SUM(G641:H649))/10</f>
         <v>10.5</v>
       </c>
       <c r="X641">
@@ -76591,11 +76590,11 @@
         <v>1.8</v>
       </c>
       <c r="Y641">
-        <f t="shared" ref="Y641" si="743">SUM(K641:K649)-Z641</f>
+        <f t="shared" ref="Y641" si="741">SUM(K641:K649)-Z641</f>
         <v>6</v>
       </c>
       <c r="Z641">
-        <f t="shared" ref="Z641" si="744">SUM(L641:L649)</f>
+        <f t="shared" ref="Z641" si="742">SUM(L641:L649)</f>
         <v>6</v>
       </c>
       <c r="AA641" t="s">
@@ -77011,7 +77010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/raw_data/arabuko_sokoke_11.xlsx
+++ b/raw_data/arabuko_sokoke_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/SCIENCE/RESEARCH/arabuko_sokoke/ASF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20EB8E4-D0D8-0640-91E4-C42ED824CCC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46633C02-E9DA-8A45-BC1C-7C96987863AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="960" windowWidth="27800" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41341,8 +41341,8 @@
   <dimension ref="A1:AA649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B325" sqref="B325"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P345" sqref="P345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60252,47 +60252,47 @@
         <v>43</v>
       </c>
       <c r="P344">
-        <f t="shared" ref="P344" si="371">M344*10</f>
+        <f>M344*10</f>
         <v>100</v>
       </c>
       <c r="Q344">
-        <f t="shared" ref="Q344" si="372">((SUM(C344:F344))/4)*1.04</f>
+        <f t="shared" ref="Q344" si="371">((SUM(C344:F344))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R344">
-        <f t="shared" ref="R344" si="373">((SUM(C346:F346))/4)*1.04</f>
+        <f t="shared" ref="R344" si="372">((SUM(C346:F346))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S344">
-        <f t="shared" ref="S344" si="374">((SUM(C348:F348))/4)*1.04</f>
+        <f t="shared" ref="S344" si="373">((SUM(C348:F348))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T344">
-        <f t="shared" ref="T344" si="375">((SUM(C350:F350))/4)*1.04</f>
+        <f t="shared" ref="T344" si="374">((SUM(C350:F350))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U344">
-        <f t="shared" ref="U344" si="376">((SUM(C352:F352))/4)*1.04</f>
+        <f t="shared" ref="U344" si="375">((SUM(C352:F352))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V344">
-        <f t="shared" ref="V344" si="377">((SUM(C344:F352))/20)*1.04</f>
+        <f t="shared" ref="V344" si="376">((SUM(C344:F352))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W344">
-        <f t="shared" ref="W344" si="378">(SUM(G344:H352))/10</f>
+        <f t="shared" ref="W344" si="377">(SUM(G344:H352))/10</f>
         <v>1.7</v>
       </c>
       <c r="X344">
-        <f t="shared" ref="X344" si="379">(SUM(I344:I352))/5</f>
+        <f t="shared" ref="X344" si="378">(SUM(I344:I352))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y344">
-        <f t="shared" ref="Y344" si="380">SUM(K344:K352)-Z344</f>
+        <f t="shared" ref="Y344" si="379">SUM(K344:K352)-Z344</f>
         <v>62</v>
       </c>
       <c r="Z344">
-        <f t="shared" ref="Z344" si="381">SUM(L344:L352)</f>
+        <f t="shared" ref="Z344" si="380">SUM(L344:L352)</f>
         <v>7</v>
       </c>
       <c r="AA344" t="s">
@@ -60746,47 +60746,47 @@
         <v>43</v>
       </c>
       <c r="P353">
-        <f t="shared" ref="P353" si="382">M353*10</f>
+        <f t="shared" ref="P353" si="381">M353*10</f>
         <v>90</v>
       </c>
       <c r="Q353">
-        <f t="shared" ref="Q353" si="383">((SUM(C353:F353))/4)*1.04</f>
+        <f t="shared" ref="Q353" si="382">((SUM(C353:F353))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R353">
-        <f t="shared" ref="R353" si="384">((SUM(C355:F355))/4)*1.04</f>
+        <f t="shared" ref="R353" si="383">((SUM(C355:F355))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S353">
-        <f t="shared" ref="S353" si="385">((SUM(C357:F357))/4)*1.04</f>
+        <f t="shared" ref="S353" si="384">((SUM(C357:F357))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T353">
-        <f t="shared" ref="T353" si="386">((SUM(C359:F359))/4)*1.04</f>
+        <f t="shared" ref="T353" si="385">((SUM(C359:F359))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U353">
-        <f t="shared" ref="U353" si="387">((SUM(C361:F361))/4)*1.04</f>
+        <f t="shared" ref="U353" si="386">((SUM(C361:F361))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V353">
-        <f t="shared" ref="V353" si="388">((SUM(C353:F361))/20)*1.04</f>
+        <f t="shared" ref="V353" si="387">((SUM(C353:F361))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W353">
-        <f t="shared" ref="W353" si="389">(SUM(G353:H361))/10</f>
+        <f t="shared" ref="W353" si="388">(SUM(G353:H361))/10</f>
         <v>2.4</v>
       </c>
       <c r="X353">
-        <f t="shared" ref="X353" si="390">(SUM(I353:I361))/5</f>
+        <f t="shared" ref="X353" si="389">(SUM(I353:I361))/5</f>
         <v>3.8</v>
       </c>
       <c r="Y353">
-        <f t="shared" ref="Y353" si="391">SUM(K353:K361)-Z353</f>
+        <f t="shared" ref="Y353" si="390">SUM(K353:K361)-Z353</f>
         <v>54</v>
       </c>
       <c r="Z353">
-        <f t="shared" ref="Z353" si="392">SUM(L353:L361)</f>
+        <f t="shared" ref="Z353" si="391">SUM(L353:L361)</f>
         <v>6</v>
       </c>
       <c r="AA353" t="s">
@@ -61240,47 +61240,47 @@
         <v>29</v>
       </c>
       <c r="P362">
-        <f t="shared" ref="P362" si="393">M362*10</f>
+        <f t="shared" ref="P362" si="392">M362*10</f>
         <v>50</v>
       </c>
       <c r="Q362">
-        <f t="shared" ref="Q362" si="394">((SUM(C362:F362))/4)*1.04</f>
+        <f t="shared" ref="Q362" si="393">((SUM(C362:F362))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R362">
-        <f t="shared" ref="R362" si="395">((SUM(C364:F364))/4)*1.04</f>
+        <f t="shared" ref="R362" si="394">((SUM(C364:F364))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S362">
-        <f t="shared" ref="S362" si="396">((SUM(C366:F366))/4)*1.04</f>
+        <f t="shared" ref="S362" si="395">((SUM(C366:F366))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T362">
-        <f t="shared" ref="T362" si="397">((SUM(C368:F368))/4)*1.04</f>
+        <f t="shared" ref="T362" si="396">((SUM(C368:F368))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U362">
-        <f t="shared" ref="U362" si="398">((SUM(C370:F370))/4)*1.04</f>
+        <f t="shared" ref="U362" si="397">((SUM(C370:F370))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V362">
-        <f t="shared" ref="V362" si="399">((SUM(C362:F370))/20)*1.04</f>
+        <f t="shared" ref="V362" si="398">((SUM(C362:F370))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W362">
-        <f t="shared" ref="W362" si="400">(SUM(G362:H370))/10</f>
+        <f t="shared" ref="W362" si="399">(SUM(G362:H370))/10</f>
         <v>18.100000000000001</v>
       </c>
       <c r="X362">
-        <f t="shared" ref="X362" si="401">(SUM(I362:I370))/5</f>
+        <f t="shared" ref="X362" si="400">(SUM(I362:I370))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y362">
-        <f t="shared" ref="Y362" si="402">SUM(K362:K370)-Z362</f>
+        <f t="shared" ref="Y362" si="401">SUM(K362:K370)-Z362</f>
         <v>60</v>
       </c>
       <c r="Z362">
-        <f t="shared" ref="Z362" si="403">SUM(L362:L370)</f>
+        <f t="shared" ref="Z362" si="402">SUM(L362:L370)</f>
         <v>8</v>
       </c>
       <c r="AA362" t="s">
@@ -61734,47 +61734,47 @@
         <v>29</v>
       </c>
       <c r="P371">
-        <f t="shared" ref="P371" si="404">M371*10</f>
+        <f t="shared" ref="P371" si="403">M371*10</f>
         <v>100</v>
       </c>
       <c r="Q371">
-        <f t="shared" ref="Q371" si="405">((SUM(C371:F371))/4)*1.04</f>
+        <f t="shared" ref="Q371" si="404">((SUM(C371:F371))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R371">
-        <f t="shared" ref="R371" si="406">((SUM(C373:F373))/4)*1.04</f>
+        <f t="shared" ref="R371" si="405">((SUM(C373:F373))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S371">
-        <f t="shared" ref="S371" si="407">((SUM(C375:F375))/4)*1.04</f>
+        <f t="shared" ref="S371" si="406">((SUM(C375:F375))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T371">
-        <f t="shared" ref="T371" si="408">((SUM(C377:F377))/4)*1.04</f>
+        <f t="shared" ref="T371" si="407">((SUM(C377:F377))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U371">
-        <f t="shared" ref="U371" si="409">((SUM(C379:F379))/4)*1.04</f>
+        <f t="shared" ref="U371" si="408">((SUM(C379:F379))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V371">
-        <f t="shared" ref="V371" si="410">((SUM(C371:F379))/20)*1.04</f>
+        <f t="shared" ref="V371" si="409">((SUM(C371:F379))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W371">
-        <f t="shared" ref="W371" si="411">(SUM(G371:H379))/10</f>
+        <f t="shared" ref="W371" si="410">(SUM(G371:H379))/10</f>
         <v>88.7</v>
       </c>
       <c r="X371">
-        <f t="shared" ref="X371" si="412">(SUM(I371:I379))/5</f>
+        <f t="shared" ref="X371" si="411">(SUM(I371:I379))/5</f>
         <v>1</v>
       </c>
       <c r="Y371">
-        <f t="shared" ref="Y371" si="413">SUM(K371:K379)-Z371</f>
+        <f t="shared" ref="Y371" si="412">SUM(K371:K379)-Z371</f>
         <v>33</v>
       </c>
       <c r="Z371">
-        <f t="shared" ref="Z371" si="414">SUM(L371:L379)</f>
+        <f t="shared" ref="Z371" si="413">SUM(L371:L379)</f>
         <v>6</v>
       </c>
       <c r="AA371" t="s">
@@ -62228,47 +62228,47 @@
         <v>67</v>
       </c>
       <c r="P380">
-        <f t="shared" ref="P380" si="415">M380*10</f>
+        <f t="shared" ref="P380" si="414">M380*10</f>
         <v>100</v>
       </c>
       <c r="Q380">
-        <f t="shared" ref="Q380" si="416">((SUM(C380:F380))/4)*1.04</f>
+        <f t="shared" ref="Q380" si="415">((SUM(C380:F380))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R380">
-        <f t="shared" ref="R380" si="417">((SUM(C382:F382))/4)*1.04</f>
+        <f t="shared" ref="R380" si="416">((SUM(C382:F382))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S380">
-        <f t="shared" ref="S380" si="418">((SUM(C384:F384))/4)*1.04</f>
+        <f t="shared" ref="S380" si="417">((SUM(C384:F384))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T380">
-        <f t="shared" ref="T380" si="419">((SUM(C386:F386))/4)*1.04</f>
+        <f t="shared" ref="T380" si="418">((SUM(C386:F386))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U380">
-        <f t="shared" ref="U380" si="420">((SUM(C388:F388))/4)*1.04</f>
+        <f t="shared" ref="U380" si="419">((SUM(C388:F388))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V380">
-        <f t="shared" ref="V380" si="421">((SUM(C380:F388))/20)*1.04</f>
+        <f t="shared" ref="V380" si="420">((SUM(C380:F388))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W380">
-        <f t="shared" ref="W380" si="422">(SUM(G380:H388))/10</f>
+        <f t="shared" ref="W380" si="421">(SUM(G380:H388))/10</f>
         <v>35.1</v>
       </c>
       <c r="X380">
-        <f t="shared" ref="X380" si="423">(SUM(I380:I388))/5</f>
+        <f t="shared" ref="X380" si="422">(SUM(I380:I388))/5</f>
         <v>2</v>
       </c>
       <c r="Y380">
-        <f t="shared" ref="Y380" si="424">SUM(K380:K388)-Z380</f>
+        <f t="shared" ref="Y380" si="423">SUM(K380:K388)-Z380</f>
         <v>57</v>
       </c>
       <c r="Z380">
-        <f t="shared" ref="Z380" si="425">SUM(L380:L388)</f>
+        <f t="shared" ref="Z380" si="424">SUM(L380:L388)</f>
         <v>5</v>
       </c>
       <c r="AA380" t="s">
@@ -62726,43 +62726,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q389">
-        <f t="shared" ref="Q389" si="426">((SUM(C389:F389))/4)*1.04</f>
+        <f t="shared" ref="Q389" si="425">((SUM(C389:F389))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R389">
-        <f t="shared" ref="R389" si="427">((SUM(C391:F391))/4)*1.04</f>
+        <f t="shared" ref="R389" si="426">((SUM(C391:F391))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S389">
-        <f t="shared" ref="S389" si="428">((SUM(C393:F393))/4)*1.04</f>
+        <f t="shared" ref="S389" si="427">((SUM(C393:F393))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T389">
-        <f t="shared" ref="T389" si="429">((SUM(C395:F395))/4)*1.04</f>
+        <f t="shared" ref="T389" si="428">((SUM(C395:F395))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U389">
-        <f t="shared" ref="U389" si="430">((SUM(C397:F397))/4)*1.04</f>
+        <f t="shared" ref="U389" si="429">((SUM(C397:F397))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V389">
-        <f t="shared" ref="V389" si="431">((SUM(C389:F397))/20)*1.04</f>
+        <f t="shared" ref="V389" si="430">((SUM(C389:F397))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W389">
-        <f t="shared" ref="W389" si="432">(SUM(G389:H397))/10</f>
+        <f t="shared" ref="W389" si="431">(SUM(G389:H397))/10</f>
         <v>1.7</v>
       </c>
       <c r="X389">
-        <f t="shared" ref="X389" si="433">(SUM(I389:I397))/5</f>
+        <f t="shared" ref="X389" si="432">(SUM(I389:I397))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y389">
-        <f t="shared" ref="Y389" si="434">SUM(K389:K397)-Z389</f>
+        <f t="shared" ref="Y389" si="433">SUM(K389:K397)-Z389</f>
         <v>84</v>
       </c>
       <c r="Z389">
-        <f t="shared" ref="Z389" si="435">SUM(L389:L397)</f>
+        <f t="shared" ref="Z389" si="434">SUM(L389:L397)</f>
         <v>11</v>
       </c>
       <c r="AA389" t="s">
@@ -63216,47 +63216,47 @@
         <v>43</v>
       </c>
       <c r="P398">
-        <f t="shared" ref="P398" si="436">M398*10</f>
+        <f t="shared" ref="P398" si="435">M398*10</f>
         <v>40</v>
       </c>
       <c r="Q398">
-        <f t="shared" ref="Q398" si="437">((SUM(C398:F398))/4)*1.04</f>
+        <f t="shared" ref="Q398" si="436">((SUM(C398:F398))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R398">
-        <f t="shared" ref="R398" si="438">((SUM(C400:F400))/4)*1.04</f>
+        <f t="shared" ref="R398" si="437">((SUM(C400:F400))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S398">
-        <f t="shared" ref="S398" si="439">((SUM(C402:F402))/4)*1.04</f>
+        <f t="shared" ref="S398" si="438">((SUM(C402:F402))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T398">
-        <f t="shared" ref="T398" si="440">((SUM(C404:F404))/4)*1.04</f>
+        <f t="shared" ref="T398" si="439">((SUM(C404:F404))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U398">
-        <f t="shared" ref="U398" si="441">((SUM(C406:F406))/4)*1.04</f>
+        <f t="shared" ref="U398" si="440">((SUM(C406:F406))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V398">
-        <f t="shared" ref="V398" si="442">((SUM(C398:F406))/20)*1.04</f>
+        <f t="shared" ref="V398" si="441">((SUM(C398:F406))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W398">
-        <f t="shared" ref="W398" si="443">(SUM(G398:H406))/10</f>
+        <f t="shared" ref="W398" si="442">(SUM(G398:H406))/10</f>
         <v>19.7</v>
       </c>
       <c r="X398">
-        <f t="shared" ref="X398" si="444">(SUM(I398:I406))/5</f>
+        <f t="shared" ref="X398" si="443">(SUM(I398:I406))/5</f>
         <v>3.6</v>
       </c>
       <c r="Y398">
-        <f t="shared" ref="Y398" si="445">SUM(K398:K406)-Z398</f>
+        <f t="shared" ref="Y398" si="444">SUM(K398:K406)-Z398</f>
         <v>68</v>
       </c>
       <c r="Z398">
-        <f t="shared" ref="Z398" si="446">SUM(L398:L406)</f>
+        <f t="shared" ref="Z398" si="445">SUM(L398:L406)</f>
         <v>2</v>
       </c>
       <c r="AA398" t="s">
@@ -63710,47 +63710,47 @@
         <v>67</v>
       </c>
       <c r="P407">
-        <f t="shared" ref="P407" si="447">M407*10</f>
+        <f t="shared" ref="P407" si="446">M407*10</f>
         <v>40</v>
       </c>
       <c r="Q407">
-        <f t="shared" ref="Q407" si="448">((SUM(C407:F407))/4)*1.04</f>
+        <f t="shared" ref="Q407" si="447">((SUM(C407:F407))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R407">
-        <f t="shared" ref="R407" si="449">((SUM(C409:F409))/4)*1.04</f>
+        <f t="shared" ref="R407" si="448">((SUM(C409:F409))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S407">
-        <f t="shared" ref="S407" si="450">((SUM(C411:F411))/4)*1.04</f>
+        <f t="shared" ref="S407" si="449">((SUM(C411:F411))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T407">
-        <f t="shared" ref="T407" si="451">((SUM(C413:F413))/4)*1.04</f>
+        <f t="shared" ref="T407" si="450">((SUM(C413:F413))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U407">
-        <f t="shared" ref="U407" si="452">((SUM(C415:F415))/4)*1.04</f>
+        <f t="shared" ref="U407" si="451">((SUM(C415:F415))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V407">
-        <f t="shared" ref="V407" si="453">((SUM(C407:F415))/20)*1.04</f>
+        <f t="shared" ref="V407" si="452">((SUM(C407:F415))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W407">
-        <f t="shared" ref="W407" si="454">(SUM(G407:H415))/10</f>
+        <f t="shared" ref="W407" si="453">(SUM(G407:H415))/10</f>
         <v>41.3</v>
       </c>
       <c r="X407">
-        <f t="shared" ref="X407" si="455">(SUM(I407:I415))/5</f>
+        <f t="shared" ref="X407" si="454">(SUM(I407:I415))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y407">
-        <f t="shared" ref="Y407" si="456">SUM(K407:K415)-Z407</f>
+        <f t="shared" ref="Y407" si="455">SUM(K407:K415)-Z407</f>
         <v>81</v>
       </c>
       <c r="Z407">
-        <f t="shared" ref="Z407" si="457">SUM(L407:L415)</f>
+        <f t="shared" ref="Z407" si="456">SUM(L407:L415)</f>
         <v>12</v>
       </c>
       <c r="AA407" t="s">
@@ -64204,47 +64204,47 @@
         <v>560</v>
       </c>
       <c r="P416" t="e">
-        <f t="shared" ref="P416" si="458">M416*10</f>
+        <f t="shared" ref="P416" si="457">M416*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q416">
-        <f t="shared" ref="Q416" si="459">((SUM(C416:F416))/4)*1.04</f>
+        <f t="shared" ref="Q416" si="458">((SUM(C416:F416))/4)*1.04</f>
         <v>37.700000000000003</v>
       </c>
       <c r="R416">
-        <f t="shared" ref="R416" si="460">((SUM(C418:F418))/4)*1.04</f>
+        <f t="shared" ref="R416" si="459">((SUM(C418:F418))/4)*1.04</f>
         <v>18.46</v>
       </c>
       <c r="S416">
-        <f t="shared" ref="S416" si="461">((SUM(C420:F420))/4)*1.04</f>
+        <f t="shared" ref="S416" si="460">((SUM(C420:F420))/4)*1.04</f>
         <v>5.2</v>
       </c>
       <c r="T416">
-        <f t="shared" ref="T416" si="462">((SUM(C422:F422))/4)*1.04</f>
+        <f t="shared" ref="T416" si="461">((SUM(C422:F422))/4)*1.04</f>
         <v>7.8000000000000007</v>
       </c>
       <c r="U416">
-        <f t="shared" ref="U416" si="463">((SUM(C424:F424))/4)*1.04</f>
+        <f t="shared" ref="U416" si="462">((SUM(C424:F424))/4)*1.04</f>
         <v>11.96</v>
       </c>
       <c r="V416">
-        <f t="shared" ref="V416" si="464">((SUM(C416:F424))/20)*1.04</f>
+        <f t="shared" ref="V416" si="463">((SUM(C416:F424))/20)*1.04</f>
         <v>16.224</v>
       </c>
       <c r="W416">
-        <f t="shared" ref="W416" si="465">(SUM(G416:H424))/10</f>
+        <f t="shared" ref="W416" si="464">(SUM(G416:H424))/10</f>
         <v>19.5</v>
       </c>
       <c r="X416">
-        <f t="shared" ref="X416" si="466">(SUM(I416:I424))/5</f>
+        <f t="shared" ref="X416" si="465">(SUM(I416:I424))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y416">
-        <f t="shared" ref="Y416" si="467">SUM(K416:K424)-Z416</f>
+        <f t="shared" ref="Y416" si="466">SUM(K416:K424)-Z416</f>
         <v>36</v>
       </c>
       <c r="Z416">
-        <f t="shared" ref="Z416" si="468">SUM(L416:L424)</f>
+        <f t="shared" ref="Z416" si="467">SUM(L416:L424)</f>
         <v>3</v>
       </c>
       <c r="AA416" t="s">
@@ -64698,47 +64698,47 @@
         <v>560</v>
       </c>
       <c r="P425" t="e">
-        <f t="shared" ref="P425" si="469">M425*10</f>
+        <f t="shared" ref="P425" si="468">M425*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q425">
-        <f t="shared" ref="Q425" si="470">((SUM(C425:F425))/4)*1.04</f>
+        <f t="shared" ref="Q425" si="469">((SUM(C425:F425))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R425">
-        <f t="shared" ref="R425" si="471">((SUM(C427:F427))/4)*1.04</f>
+        <f t="shared" ref="R425" si="470">((SUM(C427:F427))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S425">
-        <f t="shared" ref="S425" si="472">((SUM(C429:F429))/4)*1.04</f>
+        <f t="shared" ref="S425" si="471">((SUM(C429:F429))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T425">
-        <f t="shared" ref="T425" si="473">((SUM(C431:F431))/4)*1.04</f>
+        <f t="shared" ref="T425" si="472">((SUM(C431:F431))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U425">
-        <f t="shared" ref="U425" si="474">((SUM(C433:F433))/4)*1.04</f>
+        <f t="shared" ref="U425" si="473">((SUM(C433:F433))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V425">
-        <f t="shared" ref="V425" si="475">((SUM(C425:F433))/20)*1.04</f>
+        <f t="shared" ref="V425" si="474">((SUM(C425:F433))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W425">
-        <f t="shared" ref="W425" si="476">(SUM(G425:H433))/10</f>
+        <f t="shared" ref="W425" si="475">(SUM(G425:H433))/10</f>
         <v>26.2</v>
       </c>
       <c r="X425">
-        <f t="shared" ref="X425" si="477">(SUM(I425:I433))/5</f>
+        <f t="shared" ref="X425" si="476">(SUM(I425:I433))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y425">
-        <f t="shared" ref="Y425" si="478">SUM(K425:K433)-Z425</f>
+        <f t="shared" ref="Y425" si="477">SUM(K425:K433)-Z425</f>
         <v>32</v>
       </c>
       <c r="Z425">
-        <f t="shared" ref="Z425" si="479">SUM(L425:L433)</f>
+        <f t="shared" ref="Z425" si="478">SUM(L425:L433)</f>
         <v>1</v>
       </c>
       <c r="AA425" t="s">
@@ -65192,47 +65192,47 @@
         <v>240</v>
       </c>
       <c r="P434">
-        <f t="shared" ref="P434" si="480">M434*10</f>
+        <f t="shared" ref="P434" si="479">M434*10</f>
         <v>20</v>
       </c>
       <c r="Q434">
-        <f t="shared" ref="Q434" si="481">((SUM(C434:F434))/4)*1.04</f>
+        <f t="shared" ref="Q434" si="480">((SUM(C434:F434))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R434">
-        <f t="shared" ref="R434" si="482">((SUM(C436:F436))/4)*1.04</f>
+        <f t="shared" ref="R434" si="481">((SUM(C436:F436))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S434">
-        <f t="shared" ref="S434" si="483">((SUM(C438:F438))/4)*1.04</f>
+        <f t="shared" ref="S434" si="482">((SUM(C438:F438))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T434">
-        <f t="shared" ref="T434" si="484">((SUM(C440:F440))/4)*1.04</f>
+        <f t="shared" ref="T434" si="483">((SUM(C440:F440))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U434">
-        <f t="shared" ref="U434" si="485">((SUM(C442:F442))/4)*1.04</f>
+        <f t="shared" ref="U434" si="484">((SUM(C442:F442))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V434">
-        <f t="shared" ref="V434" si="486">((SUM(C434:F442))/20)*1.04</f>
+        <f t="shared" ref="V434" si="485">((SUM(C434:F442))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W434">
-        <f t="shared" ref="W434" si="487">(SUM(G434:H442))/10</f>
+        <f t="shared" ref="W434" si="486">(SUM(G434:H442))/10</f>
         <v>10.5</v>
       </c>
       <c r="X434">
-        <f t="shared" ref="X434" si="488">(SUM(I434:I442))/5</f>
+        <f t="shared" ref="X434" si="487">(SUM(I434:I442))/5</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y434">
-        <f t="shared" ref="Y434" si="489">SUM(K434:K442)-Z434</f>
+        <f t="shared" ref="Y434" si="488">SUM(K434:K442)-Z434</f>
         <v>15</v>
       </c>
       <c r="Z434">
-        <f t="shared" ref="Z434" si="490">SUM(L434:L442)</f>
+        <f t="shared" ref="Z434" si="489">SUM(L434:L442)</f>
         <v>3</v>
       </c>
       <c r="AA434" t="s">
@@ -65686,47 +65686,47 @@
         <v>240</v>
       </c>
       <c r="P443">
-        <f t="shared" ref="P443" si="491">M443*10</f>
+        <f t="shared" ref="P443" si="490">M443*10</f>
         <v>40</v>
       </c>
       <c r="Q443">
-        <f t="shared" ref="Q443" si="492">((SUM(C443:F443))/4)*1.04</f>
+        <f t="shared" ref="Q443" si="491">((SUM(C443:F443))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R443">
-        <f t="shared" ref="R443" si="493">((SUM(C445:F445))/4)*1.04</f>
+        <f t="shared" ref="R443" si="492">((SUM(C445:F445))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S443">
-        <f t="shared" ref="S443" si="494">((SUM(C447:F447))/4)*1.04</f>
+        <f t="shared" ref="S443" si="493">((SUM(C447:F447))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T443">
-        <f t="shared" ref="T443" si="495">((SUM(C449:F449))/4)*1.04</f>
+        <f t="shared" ref="T443" si="494">((SUM(C449:F449))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U443">
-        <f t="shared" ref="U443" si="496">((SUM(C451:F451))/4)*1.04</f>
+        <f t="shared" ref="U443" si="495">((SUM(C451:F451))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V443">
-        <f t="shared" ref="V443" si="497">((SUM(C443:F451))/20)*1.04</f>
+        <f t="shared" ref="V443" si="496">((SUM(C443:F451))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W443">
-        <f t="shared" ref="W443" si="498">(SUM(G443:H451))/10</f>
+        <f t="shared" ref="W443" si="497">(SUM(G443:H451))/10</f>
         <v>37.5</v>
       </c>
       <c r="X443">
-        <f t="shared" ref="X443" si="499">(SUM(I443:I451))/5</f>
+        <f t="shared" ref="X443" si="498">(SUM(I443:I451))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y443">
-        <f t="shared" ref="Y443" si="500">SUM(K443:K451)-Z443</f>
+        <f t="shared" ref="Y443" si="499">SUM(K443:K451)-Z443</f>
         <v>19</v>
       </c>
       <c r="Z443">
-        <f t="shared" ref="Z443" si="501">SUM(L443:L451)</f>
+        <f t="shared" ref="Z443" si="500">SUM(L443:L451)</f>
         <v>1</v>
       </c>
       <c r="AA443" t="s">
@@ -66180,47 +66180,47 @@
         <v>240</v>
       </c>
       <c r="P452">
-        <f t="shared" ref="P452" si="502">M452*10</f>
+        <f t="shared" ref="P452" si="501">M452*10</f>
         <v>40</v>
       </c>
       <c r="Q452">
-        <f t="shared" ref="Q452" si="503">((SUM(C452:F452))/4)*1.04</f>
+        <f t="shared" ref="Q452" si="502">((SUM(C452:F452))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R452">
-        <f t="shared" ref="R452" si="504">((SUM(C454:F454))/4)*1.04</f>
+        <f t="shared" ref="R452" si="503">((SUM(C454:F454))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S452">
-        <f t="shared" ref="S452" si="505">((SUM(C456:F456))/4)*1.04</f>
+        <f t="shared" ref="S452" si="504">((SUM(C456:F456))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T452">
-        <f t="shared" ref="T452" si="506">((SUM(C458:F458))/4)*1.04</f>
+        <f t="shared" ref="T452" si="505">((SUM(C458:F458))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U452">
-        <f t="shared" ref="U452" si="507">((SUM(C460:F460))/4)*1.04</f>
+        <f t="shared" ref="U452" si="506">((SUM(C460:F460))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V452">
-        <f t="shared" ref="V452" si="508">((SUM(C452:F460))/20)*1.04</f>
+        <f t="shared" ref="V452" si="507">((SUM(C452:F460))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W452">
-        <f t="shared" ref="W452" si="509">(SUM(G452:H460))/10</f>
+        <f t="shared" ref="W452" si="508">(SUM(G452:H460))/10</f>
         <v>14</v>
       </c>
       <c r="X452">
-        <f t="shared" ref="X452" si="510">(SUM(I452:I460))/5</f>
+        <f t="shared" ref="X452" si="509">(SUM(I452:I460))/5</f>
         <v>3.2</v>
       </c>
       <c r="Y452">
-        <f t="shared" ref="Y452" si="511">SUM(K452:K460)-Z452</f>
+        <f t="shared" ref="Y452" si="510">SUM(K452:K460)-Z452</f>
         <v>16</v>
       </c>
       <c r="Z452">
-        <f t="shared" ref="Z452" si="512">SUM(L452:L460)</f>
+        <f t="shared" ref="Z452" si="511">SUM(L452:L460)</f>
         <v>4</v>
       </c>
       <c r="AA452" t="s">
@@ -66674,47 +66674,47 @@
         <v>240</v>
       </c>
       <c r="P461" t="e">
-        <f t="shared" ref="P461" si="513">M461*10</f>
+        <f t="shared" ref="P461" si="512">M461*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q461">
-        <f t="shared" ref="Q461" si="514">((SUM(C461:F461))/4)*1.04</f>
+        <f t="shared" ref="Q461" si="513">((SUM(C461:F461))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R461">
-        <f t="shared" ref="R461" si="515">((SUM(C463:F463))/4)*1.04</f>
+        <f t="shared" ref="R461" si="514">((SUM(C463:F463))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S461">
-        <f t="shared" ref="S461" si="516">((SUM(C465:F465))/4)*1.04</f>
+        <f t="shared" ref="S461" si="515">((SUM(C465:F465))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T461">
-        <f t="shared" ref="T461" si="517">((SUM(C467:F467))/4)*1.04</f>
+        <f t="shared" ref="T461" si="516">((SUM(C467:F467))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U461">
-        <f t="shared" ref="U461" si="518">((SUM(C469:F469))/4)*1.04</f>
+        <f t="shared" ref="U461" si="517">((SUM(C469:F469))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V461">
-        <f t="shared" ref="V461" si="519">((SUM(C461:F469))/20)*1.04</f>
+        <f t="shared" ref="V461" si="518">((SUM(C461:F469))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W461">
-        <f t="shared" ref="W461" si="520">(SUM(G461:H469))/10</f>
+        <f t="shared" ref="W461" si="519">(SUM(G461:H469))/10</f>
         <v>19</v>
       </c>
       <c r="X461">
-        <f t="shared" ref="X461" si="521">(SUM(I461:I469))/5</f>
+        <f t="shared" ref="X461" si="520">(SUM(I461:I469))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y461">
-        <f t="shared" ref="Y461" si="522">SUM(K461:K469)-Z461</f>
+        <f t="shared" ref="Y461" si="521">SUM(K461:K469)-Z461</f>
         <v>33</v>
       </c>
       <c r="Z461">
-        <f t="shared" ref="Z461" si="523">SUM(L461:L469)</f>
+        <f t="shared" ref="Z461" si="522">SUM(L461:L469)</f>
         <v>3</v>
       </c>
       <c r="AA461" t="s">
@@ -67168,47 +67168,47 @@
         <v>240</v>
       </c>
       <c r="P470" t="e">
-        <f t="shared" ref="P470" si="524">M470*10</f>
+        <f t="shared" ref="P470" si="523">M470*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q470">
-        <f t="shared" ref="Q470" si="525">((SUM(C470:F470))/4)*1.04</f>
+        <f t="shared" ref="Q470" si="524">((SUM(C470:F470))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R470">
-        <f t="shared" ref="R470" si="526">((SUM(C472:F472))/4)*1.04</f>
+        <f t="shared" ref="R470" si="525">((SUM(C472:F472))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S470">
-        <f t="shared" ref="S470" si="527">((SUM(C474:F474))/4)*1.04</f>
+        <f t="shared" ref="S470" si="526">((SUM(C474:F474))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T470">
-        <f t="shared" ref="T470" si="528">((SUM(C476:F476))/4)*1.04</f>
+        <f t="shared" ref="T470" si="527">((SUM(C476:F476))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U470">
-        <f t="shared" ref="U470" si="529">((SUM(C478:F478))/4)*1.04</f>
+        <f t="shared" ref="U470" si="528">((SUM(C478:F478))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V470">
-        <f t="shared" ref="V470" si="530">((SUM(C470:F478))/20)*1.04</f>
+        <f t="shared" ref="V470" si="529">((SUM(C470:F478))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W470">
-        <f t="shared" ref="W470" si="531">(SUM(G470:H478))/10</f>
+        <f t="shared" ref="W470" si="530">(SUM(G470:H478))/10</f>
         <v>31</v>
       </c>
       <c r="X470">
-        <f t="shared" ref="X470" si="532">(SUM(I470:I478))/5</f>
+        <f t="shared" ref="X470" si="531">(SUM(I470:I478))/5</f>
         <v>3.4</v>
       </c>
       <c r="Y470">
-        <f t="shared" ref="Y470" si="533">SUM(K470:K478)-Z470</f>
+        <f t="shared" ref="Y470" si="532">SUM(K470:K478)-Z470</f>
         <v>42</v>
       </c>
       <c r="Z470">
-        <f t="shared" ref="Z470" si="534">SUM(L470:L478)</f>
+        <f t="shared" ref="Z470" si="533">SUM(L470:L478)</f>
         <v>4</v>
       </c>
       <c r="AA470" t="s">
@@ -67662,47 +67662,47 @@
         <v>240</v>
       </c>
       <c r="P479" t="e">
-        <f t="shared" ref="P479" si="535">M479*10</f>
+        <f t="shared" ref="P479" si="534">M479*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q479">
-        <f t="shared" ref="Q479" si="536">((SUM(C479:F479))/4)*1.04</f>
+        <f t="shared" ref="Q479" si="535">((SUM(C479:F479))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R479">
-        <f t="shared" ref="R479" si="537">((SUM(C481:F481))/4)*1.04</f>
+        <f t="shared" ref="R479" si="536">((SUM(C481:F481))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S479">
-        <f t="shared" ref="S479" si="538">((SUM(C483:F483))/4)*1.04</f>
+        <f t="shared" ref="S479" si="537">((SUM(C483:F483))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T479">
-        <f t="shared" ref="T479" si="539">((SUM(C485:F485))/4)*1.04</f>
+        <f t="shared" ref="T479" si="538">((SUM(C485:F485))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U479">
-        <f t="shared" ref="U479" si="540">((SUM(C487:F487))/4)*1.04</f>
+        <f t="shared" ref="U479" si="539">((SUM(C487:F487))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V479">
-        <f t="shared" ref="V479" si="541">((SUM(C479:F487))/20)*1.04</f>
+        <f t="shared" ref="V479" si="540">((SUM(C479:F487))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W479">
-        <f t="shared" ref="W479" si="542">(SUM(G479:H487))/10</f>
+        <f t="shared" ref="W479" si="541">(SUM(G479:H487))/10</f>
         <v>7</v>
       </c>
       <c r="X479">
-        <f t="shared" ref="X479" si="543">(SUM(I479:I487))/5</f>
+        <f t="shared" ref="X479" si="542">(SUM(I479:I487))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y479">
-        <f t="shared" ref="Y479" si="544">SUM(K479:K487)-Z479</f>
+        <f t="shared" ref="Y479" si="543">SUM(K479:K487)-Z479</f>
         <v>26</v>
       </c>
       <c r="Z479">
-        <f t="shared" ref="Z479" si="545">SUM(L479:L487)</f>
+        <f t="shared" ref="Z479" si="544">SUM(L479:L487)</f>
         <v>2</v>
       </c>
       <c r="AA479" t="s">
@@ -68156,47 +68156,47 @@
         <v>29</v>
       </c>
       <c r="P488">
-        <f t="shared" ref="P488" si="546">M488*10</f>
+        <f t="shared" ref="P488" si="545">M488*10</f>
         <v>80</v>
       </c>
       <c r="Q488">
-        <f t="shared" ref="Q488" si="547">((SUM(C488:F488))/4)*1.04</f>
+        <f t="shared" ref="Q488" si="546">((SUM(C488:F488))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R488">
-        <f t="shared" ref="R488" si="548">((SUM(C490:F490))/4)*1.04</f>
+        <f t="shared" ref="R488" si="547">((SUM(C490:F490))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S488">
-        <f t="shared" ref="S488" si="549">((SUM(C492:F492))/4)*1.04</f>
+        <f t="shared" ref="S488" si="548">((SUM(C492:F492))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T488">
-        <f t="shared" ref="T488" si="550">((SUM(C494:F494))/4)*1.04</f>
+        <f t="shared" ref="T488" si="549">((SUM(C494:F494))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U488">
-        <f t="shared" ref="U488" si="551">((SUM(C496:F496))/4)*1.04</f>
+        <f t="shared" ref="U488" si="550">((SUM(C496:F496))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V488">
-        <f t="shared" ref="V488" si="552">((SUM(C488:F496))/20)*1.04</f>
+        <f t="shared" ref="V488" si="551">((SUM(C488:F496))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W488">
-        <f t="shared" ref="W488" si="553">(SUM(G488:H496))/10</f>
+        <f t="shared" ref="W488" si="552">(SUM(G488:H496))/10</f>
         <v>43.5</v>
       </c>
       <c r="X488">
-        <f t="shared" ref="X488" si="554">(SUM(I488:I496))/5</f>
+        <f t="shared" ref="X488" si="553">(SUM(I488:I496))/5</f>
         <v>2</v>
       </c>
       <c r="Y488">
-        <f t="shared" ref="Y488" si="555">SUM(K488:K496)-Z488</f>
+        <f t="shared" ref="Y488" si="554">SUM(K488:K496)-Z488</f>
         <v>10</v>
       </c>
       <c r="Z488">
-        <f t="shared" ref="Z488" si="556">SUM(L488:L496)</f>
+        <f t="shared" ref="Z488" si="555">SUM(L488:L496)</f>
         <v>8</v>
       </c>
       <c r="AA488" t="s">
@@ -68650,47 +68650,47 @@
         <v>43</v>
       </c>
       <c r="P497">
-        <f t="shared" ref="P497" si="557">M497*10</f>
+        <f t="shared" ref="P497" si="556">M497*10</f>
         <v>50</v>
       </c>
       <c r="Q497">
-        <f t="shared" ref="Q497" si="558">((SUM(C497:F497))/4)*1.04</f>
+        <f t="shared" ref="Q497" si="557">((SUM(C497:F497))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R497">
-        <f t="shared" ref="R497" si="559">((SUM(C499:F499))/4)*1.04</f>
+        <f t="shared" ref="R497" si="558">((SUM(C499:F499))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S497">
-        <f t="shared" ref="S497" si="560">((SUM(C501:F501))/4)*1.04</f>
+        <f t="shared" ref="S497" si="559">((SUM(C501:F501))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T497">
-        <f t="shared" ref="T497" si="561">((SUM(C503:F503))/4)*1.04</f>
+        <f t="shared" ref="T497" si="560">((SUM(C503:F503))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U497">
-        <f t="shared" ref="U497" si="562">((SUM(C505:F505))/4)*1.04</f>
+        <f t="shared" ref="U497" si="561">((SUM(C505:F505))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V497">
-        <f t="shared" ref="V497" si="563">((SUM(C497:F505))/20)*1.04</f>
+        <f t="shared" ref="V497" si="562">((SUM(C497:F505))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W497">
-        <f t="shared" ref="W497" si="564">(SUM(G497:H505))/10</f>
+        <f t="shared" ref="W497" si="563">(SUM(G497:H505))/10</f>
         <v>81</v>
       </c>
       <c r="X497">
-        <f t="shared" ref="X497" si="565">(SUM(I497:I505))/5</f>
+        <f t="shared" ref="X497" si="564">(SUM(I497:I505))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y497">
-        <f t="shared" ref="Y497" si="566">SUM(K497:K505)-Z497</f>
+        <f t="shared" ref="Y497" si="565">SUM(K497:K505)-Z497</f>
         <v>30</v>
       </c>
       <c r="Z497">
-        <f t="shared" ref="Z497" si="567">SUM(L497:L505)</f>
+        <f t="shared" ref="Z497" si="566">SUM(L497:L505)</f>
         <v>0</v>
       </c>
       <c r="AA497" t="s">
@@ -69144,47 +69144,47 @@
         <v>782</v>
       </c>
       <c r="P506">
-        <f t="shared" ref="P506" si="568">M506*10</f>
+        <f t="shared" ref="P506" si="567">M506*10</f>
         <v>100</v>
       </c>
       <c r="Q506">
-        <f t="shared" ref="Q506" si="569">((SUM(C506:F506))/4)*1.04</f>
+        <f t="shared" ref="Q506" si="568">((SUM(C506:F506))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R506">
-        <f t="shared" ref="R506" si="570">((SUM(C508:F508))/4)*1.04</f>
+        <f t="shared" ref="R506" si="569">((SUM(C508:F508))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S506">
-        <f t="shared" ref="S506" si="571">((SUM(C510:F510))/4)*1.04</f>
+        <f t="shared" ref="S506" si="570">((SUM(C510:F510))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T506">
-        <f t="shared" ref="T506" si="572">((SUM(C512:F512))/4)*1.04</f>
+        <f t="shared" ref="T506" si="571">((SUM(C512:F512))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U506">
-        <f t="shared" ref="U506" si="573">((SUM(C514:F514))/4)*1.04</f>
+        <f t="shared" ref="U506" si="572">((SUM(C514:F514))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V506">
-        <f t="shared" ref="V506" si="574">((SUM(C506:F514))/20)*1.04</f>
+        <f t="shared" ref="V506" si="573">((SUM(C506:F514))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W506">
-        <f t="shared" ref="W506" si="575">(SUM(G506:H514))/10</f>
+        <f t="shared" ref="W506" si="574">(SUM(G506:H514))/10</f>
         <v>16.2</v>
       </c>
       <c r="X506">
-        <f t="shared" ref="X506" si="576">(SUM(I506:I514))/5</f>
+        <f t="shared" ref="X506" si="575">(SUM(I506:I514))/5</f>
         <v>2</v>
       </c>
       <c r="Y506">
-        <f t="shared" ref="Y506" si="577">SUM(K506:K514)-Z506</f>
+        <f t="shared" ref="Y506" si="576">SUM(K506:K514)-Z506</f>
         <v>69</v>
       </c>
       <c r="Z506">
-        <f t="shared" ref="Z506" si="578">SUM(L506:L514)</f>
+        <f t="shared" ref="Z506" si="577">SUM(L506:L514)</f>
         <v>10</v>
       </c>
       <c r="AA506" t="s">
@@ -69638,47 +69638,47 @@
         <v>240</v>
       </c>
       <c r="P515">
-        <f t="shared" ref="P515" si="579">M515*10</f>
+        <f t="shared" ref="P515" si="578">M515*10</f>
         <v>30</v>
       </c>
       <c r="Q515">
-        <f t="shared" ref="Q515" si="580">((SUM(C515:F515))/4)*1.04</f>
+        <f t="shared" ref="Q515" si="579">((SUM(C515:F515))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R515">
-        <f t="shared" ref="R515" si="581">((SUM(C517:F517))/4)*1.04</f>
+        <f t="shared" ref="R515" si="580">((SUM(C517:F517))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S515">
-        <f t="shared" ref="S515" si="582">((SUM(C519:F519))/4)*1.04</f>
+        <f t="shared" ref="S515" si="581">((SUM(C519:F519))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T515">
-        <f t="shared" ref="T515" si="583">((SUM(C521:F521))/4)*1.04</f>
+        <f t="shared" ref="T515" si="582">((SUM(C521:F521))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U515">
-        <f t="shared" ref="U515" si="584">((SUM(C523:F523))/4)*1.04</f>
+        <f t="shared" ref="U515" si="583">((SUM(C523:F523))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V515">
-        <f t="shared" ref="V515" si="585">((SUM(C515:F523))/20)*1.04</f>
+        <f t="shared" ref="V515" si="584">((SUM(C515:F523))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W515">
-        <f t="shared" ref="W515" si="586">(SUM(G515:H523))/10</f>
+        <f t="shared" ref="W515" si="585">(SUM(G515:H523))/10</f>
         <v>5.5</v>
       </c>
       <c r="X515">
-        <f t="shared" ref="X515" si="587">(SUM(I515:I523))/5</f>
+        <f t="shared" ref="X515" si="586">(SUM(I515:I523))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y515">
-        <f t="shared" ref="Y515" si="588">SUM(K515:K523)-Z515</f>
+        <f t="shared" ref="Y515" si="587">SUM(K515:K523)-Z515</f>
         <v>23</v>
       </c>
       <c r="Z515">
-        <f t="shared" ref="Z515" si="589">SUM(L515:L523)</f>
+        <f t="shared" ref="Z515" si="588">SUM(L515:L523)</f>
         <v>3</v>
       </c>
       <c r="AA515" t="s">
@@ -70132,47 +70132,47 @@
         <v>240</v>
       </c>
       <c r="P524">
-        <f t="shared" ref="P524" si="590">M524*10</f>
+        <f t="shared" ref="P524" si="589">M524*10</f>
         <v>60</v>
       </c>
       <c r="Q524">
-        <f t="shared" ref="Q524" si="591">((SUM(C524:F524))/4)*1.04</f>
+        <f t="shared" ref="Q524" si="590">((SUM(C524:F524))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R524">
-        <f t="shared" ref="R524" si="592">((SUM(C526:F526))/4)*1.04</f>
+        <f t="shared" ref="R524" si="591">((SUM(C526:F526))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S524">
-        <f t="shared" ref="S524" si="593">((SUM(C528:F528))/4)*1.04</f>
+        <f t="shared" ref="S524" si="592">((SUM(C528:F528))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T524">
-        <f t="shared" ref="T524" si="594">((SUM(C530:F530))/4)*1.04</f>
+        <f t="shared" ref="T524" si="593">((SUM(C530:F530))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U524">
-        <f t="shared" ref="U524" si="595">((SUM(C532:F532))/4)*1.04</f>
+        <f t="shared" ref="U524" si="594">((SUM(C532:F532))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V524">
-        <f t="shared" ref="V524" si="596">((SUM(C524:F532))/20)*1.04</f>
+        <f t="shared" ref="V524" si="595">((SUM(C524:F532))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W524">
-        <f t="shared" ref="W524" si="597">(SUM(G524:H532))/10</f>
+        <f t="shared" ref="W524" si="596">(SUM(G524:H532))/10</f>
         <v>11</v>
       </c>
       <c r="X524">
-        <f t="shared" ref="X524" si="598">(SUM(I524:I532))/5</f>
+        <f t="shared" ref="X524" si="597">(SUM(I524:I532))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y524">
-        <f t="shared" ref="Y524" si="599">SUM(K524:K532)-Z524</f>
+        <f t="shared" ref="Y524" si="598">SUM(K524:K532)-Z524</f>
         <v>23</v>
       </c>
       <c r="Z524">
-        <f t="shared" ref="Z524" si="600">SUM(L524:L532)</f>
+        <f t="shared" ref="Z524" si="599">SUM(L524:L532)</f>
         <v>3</v>
       </c>
       <c r="AA524" t="s">
@@ -70626,47 +70626,47 @@
         <v>240</v>
       </c>
       <c r="P533">
-        <f t="shared" ref="P533" si="601">M533*10</f>
+        <f t="shared" ref="P533" si="600">M533*10</f>
         <v>70</v>
       </c>
       <c r="Q533">
-        <f t="shared" ref="Q533" si="602">((SUM(C533:F533))/4)*1.04</f>
+        <f t="shared" ref="Q533" si="601">((SUM(C533:F533))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R533">
-        <f t="shared" ref="R533" si="603">((SUM(C535:F535))/4)*1.04</f>
+        <f t="shared" ref="R533" si="602">((SUM(C535:F535))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S533">
-        <f t="shared" ref="S533" si="604">((SUM(C537:F537))/4)*1.04</f>
+        <f t="shared" ref="S533" si="603">((SUM(C537:F537))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T533">
-        <f t="shared" ref="T533" si="605">((SUM(C539:F539))/4)*1.04</f>
+        <f t="shared" ref="T533" si="604">((SUM(C539:F539))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U533">
-        <f t="shared" ref="U533" si="606">((SUM(C541:F541))/4)*1.04</f>
+        <f t="shared" ref="U533" si="605">((SUM(C541:F541))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V533">
-        <f t="shared" ref="V533" si="607">((SUM(C533:F541))/20)*1.04</f>
+        <f t="shared" ref="V533" si="606">((SUM(C533:F541))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W533">
-        <f t="shared" ref="W533" si="608">(SUM(G533:H541))/10</f>
+        <f t="shared" ref="W533" si="607">(SUM(G533:H541))/10</f>
         <v>4.5</v>
       </c>
       <c r="X533">
-        <f t="shared" ref="X533" si="609">(SUM(I533:I541))/5</f>
+        <f t="shared" ref="X533" si="608">(SUM(I533:I541))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y533">
-        <f t="shared" ref="Y533" si="610">SUM(K533:K541)-Z533</f>
+        <f t="shared" ref="Y533" si="609">SUM(K533:K541)-Z533</f>
         <v>19</v>
       </c>
       <c r="Z533">
-        <f t="shared" ref="Z533" si="611">SUM(L533:L541)</f>
+        <f t="shared" ref="Z533" si="610">SUM(L533:L541)</f>
         <v>4</v>
       </c>
       <c r="AA533" t="s">
@@ -71120,47 +71120,47 @@
         <v>240</v>
       </c>
       <c r="P542">
-        <f t="shared" ref="P542" si="612">M542*10</f>
+        <f t="shared" ref="P542" si="611">M542*10</f>
         <v>50</v>
       </c>
       <c r="Q542">
-        <f t="shared" ref="Q542" si="613">((SUM(C542:F542))/4)*1.04</f>
+        <f t="shared" ref="Q542" si="612">((SUM(C542:F542))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R542">
-        <f t="shared" ref="R542" si="614">((SUM(C544:F544))/4)*1.04</f>
+        <f t="shared" ref="R542" si="613">((SUM(C544:F544))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S542">
-        <f t="shared" ref="S542" si="615">((SUM(C546:F546))/4)*1.04</f>
+        <f t="shared" ref="S542" si="614">((SUM(C546:F546))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T542">
-        <f t="shared" ref="T542" si="616">((SUM(C548:F548))/4)*1.04</f>
+        <f t="shared" ref="T542" si="615">((SUM(C548:F548))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U542">
-        <f t="shared" ref="U542" si="617">((SUM(C550:F550))/4)*1.04</f>
+        <f t="shared" ref="U542" si="616">((SUM(C550:F550))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V542">
-        <f t="shared" ref="V542" si="618">((SUM(C542:F550))/20)*1.04</f>
+        <f t="shared" ref="V542" si="617">((SUM(C542:F550))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W542">
-        <f t="shared" ref="W542" si="619">(SUM(G542:H550))/10</f>
+        <f t="shared" ref="W542" si="618">(SUM(G542:H550))/10</f>
         <v>35.5</v>
       </c>
       <c r="X542">
-        <f t="shared" ref="X542" si="620">(SUM(I542:I550))/5</f>
+        <f t="shared" ref="X542" si="619">(SUM(I542:I550))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y542">
-        <f t="shared" ref="Y542" si="621">SUM(K542:K550)-Z542</f>
+        <f t="shared" ref="Y542" si="620">SUM(K542:K550)-Z542</f>
         <v>10</v>
       </c>
       <c r="Z542">
-        <f t="shared" ref="Z542" si="622">SUM(L542:L550)</f>
+        <f t="shared" ref="Z542" si="621">SUM(L542:L550)</f>
         <v>0</v>
       </c>
       <c r="AA542" t="s">
@@ -71614,47 +71614,47 @@
         <v>240</v>
       </c>
       <c r="P551">
-        <f t="shared" ref="P551" si="623">M551*10</f>
+        <f t="shared" ref="P551" si="622">M551*10</f>
         <v>50</v>
       </c>
       <c r="Q551">
-        <f t="shared" ref="Q551" si="624">((SUM(C551:F551))/4)*1.04</f>
+        <f t="shared" ref="Q551" si="623">((SUM(C551:F551))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R551">
-        <f t="shared" ref="R551" si="625">((SUM(C553:F553))/4)*1.04</f>
+        <f t="shared" ref="R551" si="624">((SUM(C553:F553))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S551">
-        <f t="shared" ref="S551" si="626">((SUM(C555:F555))/4)*1.04</f>
+        <f t="shared" ref="S551" si="625">((SUM(C555:F555))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T551">
-        <f t="shared" ref="T551" si="627">((SUM(C557:F557))/4)*1.04</f>
+        <f t="shared" ref="T551" si="626">((SUM(C557:F557))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U551">
-        <f t="shared" ref="U551" si="628">((SUM(C559:F559))/4)*1.04</f>
+        <f t="shared" ref="U551" si="627">((SUM(C559:F559))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V551">
-        <f t="shared" ref="V551" si="629">((SUM(C551:F559))/20)*1.04</f>
+        <f t="shared" ref="V551" si="628">((SUM(C551:F559))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W551">
-        <f t="shared" ref="W551" si="630">(SUM(G551:H559))/10</f>
+        <f t="shared" ref="W551" si="629">(SUM(G551:H559))/10</f>
         <v>49</v>
       </c>
       <c r="X551">
-        <f t="shared" ref="X551" si="631">(SUM(I551:I559))/5</f>
+        <f t="shared" ref="X551" si="630">(SUM(I551:I559))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y551">
-        <f t="shared" ref="Y551" si="632">SUM(K551:K559)-Z551</f>
+        <f t="shared" ref="Y551" si="631">SUM(K551:K559)-Z551</f>
         <v>17</v>
       </c>
       <c r="Z551">
-        <f t="shared" ref="Z551" si="633">SUM(L551:L559)</f>
+        <f t="shared" ref="Z551" si="632">SUM(L551:L559)</f>
         <v>0</v>
       </c>
       <c r="AA551" t="s">
@@ -72108,47 +72108,47 @@
         <v>29</v>
       </c>
       <c r="P560">
-        <f t="shared" ref="P560" si="634">M560*10</f>
+        <f t="shared" ref="P560" si="633">M560*10</f>
         <v>70</v>
       </c>
       <c r="Q560">
-        <f t="shared" ref="Q560" si="635">((SUM(C560:F560))/4)*1.04</f>
+        <f t="shared" ref="Q560" si="634">((SUM(C560:F560))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R560">
-        <f t="shared" ref="R560" si="636">((SUM(C562:F562))/4)*1.04</f>
+        <f t="shared" ref="R560" si="635">((SUM(C562:F562))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S560">
-        <f t="shared" ref="S560" si="637">((SUM(C564:F564))/4)*1.04</f>
+        <f t="shared" ref="S560" si="636">((SUM(C564:F564))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T560">
-        <f t="shared" ref="T560" si="638">((SUM(C566:F566))/4)*1.04</f>
+        <f t="shared" ref="T560" si="637">((SUM(C566:F566))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U560">
-        <f t="shared" ref="U560" si="639">((SUM(C568:F568))/4)*1.04</f>
+        <f t="shared" ref="U560" si="638">((SUM(C568:F568))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V560">
-        <f t="shared" ref="V560" si="640">((SUM(C560:F568))/20)*1.04</f>
+        <f t="shared" ref="V560" si="639">((SUM(C560:F568))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W560">
-        <f t="shared" ref="W560" si="641">(SUM(G560:H568))/10</f>
+        <f t="shared" ref="W560" si="640">(SUM(G560:H568))/10</f>
         <v>11.8</v>
       </c>
       <c r="X560">
-        <f t="shared" ref="X560" si="642">(SUM(I560:I568))/5</f>
+        <f t="shared" ref="X560" si="641">(SUM(I560:I568))/5</f>
         <v>2</v>
       </c>
       <c r="Y560">
-        <f t="shared" ref="Y560" si="643">SUM(K560:K568)-Z560</f>
+        <f t="shared" ref="Y560" si="642">SUM(K560:K568)-Z560</f>
         <v>10</v>
       </c>
       <c r="Z560">
-        <f t="shared" ref="Z560" si="644">SUM(L560:L568)</f>
+        <f t="shared" ref="Z560" si="643">SUM(L560:L568)</f>
         <v>7</v>
       </c>
       <c r="AA560" t="s">
@@ -72602,47 +72602,47 @@
         <v>29</v>
       </c>
       <c r="P569" t="e">
-        <f t="shared" ref="P569" si="645">M569*10</f>
+        <f t="shared" ref="P569" si="644">M569*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q569">
-        <f t="shared" ref="Q569" si="646">((SUM(C569:F569))/4)*1.04</f>
+        <f t="shared" ref="Q569" si="645">((SUM(C569:F569))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R569">
-        <f t="shared" ref="R569" si="647">((SUM(C571:F571))/4)*1.04</f>
+        <f t="shared" ref="R569" si="646">((SUM(C571:F571))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S569">
-        <f t="shared" ref="S569" si="648">((SUM(C573:F573))/4)*1.04</f>
+        <f t="shared" ref="S569" si="647">((SUM(C573:F573))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T569">
-        <f t="shared" ref="T569" si="649">((SUM(C575:F575))/4)*1.04</f>
+        <f t="shared" ref="T569" si="648">((SUM(C575:F575))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U569">
-        <f t="shared" ref="U569" si="650">((SUM(C577:F577))/4)*1.04</f>
+        <f t="shared" ref="U569" si="649">((SUM(C577:F577))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V569">
-        <f t="shared" ref="V569" si="651">((SUM(C569:F577))/20)*1.04</f>
+        <f t="shared" ref="V569" si="650">((SUM(C569:F577))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W569">
-        <f t="shared" ref="W569" si="652">(SUM(G569:H577))/10</f>
+        <f t="shared" ref="W569" si="651">(SUM(G569:H577))/10</f>
         <v>3</v>
       </c>
       <c r="X569">
-        <f t="shared" ref="X569" si="653">(SUM(I569:I577))/5</f>
+        <f t="shared" ref="X569" si="652">(SUM(I569:I577))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y569">
-        <f t="shared" ref="Y569" si="654">SUM(K569:K577)-Z569</f>
+        <f t="shared" ref="Y569" si="653">SUM(K569:K577)-Z569</f>
         <v>7</v>
       </c>
       <c r="Z569">
-        <f t="shared" ref="Z569" si="655">SUM(L569:L577)</f>
+        <f t="shared" ref="Z569" si="654">SUM(L569:L577)</f>
         <v>7</v>
       </c>
       <c r="AA569" t="s">
@@ -73096,47 +73096,47 @@
         <v>29</v>
       </c>
       <c r="P578">
-        <f t="shared" ref="P578" si="656">M578*10</f>
+        <f t="shared" ref="P578" si="655">M578*10</f>
         <v>120</v>
       </c>
       <c r="Q578">
-        <f t="shared" ref="Q578" si="657">((SUM(C578:F578))/4)*1.04</f>
+        <f t="shared" ref="Q578" si="656">((SUM(C578:F578))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R578">
-        <f t="shared" ref="R578" si="658">((SUM(C580:F580))/4)*1.04</f>
+        <f t="shared" ref="R578" si="657">((SUM(C580:F580))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S578">
-        <f t="shared" ref="S578" si="659">((SUM(C582:F582))/4)*1.04</f>
+        <f t="shared" ref="S578" si="658">((SUM(C582:F582))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T578">
-        <f t="shared" ref="T578" si="660">((SUM(C584:F584))/4)*1.04</f>
+        <f t="shared" ref="T578" si="659">((SUM(C584:F584))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U578">
-        <f t="shared" ref="U578" si="661">((SUM(C586:F586))/4)*1.04</f>
+        <f t="shared" ref="U578" si="660">((SUM(C586:F586))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V578">
-        <f t="shared" ref="V578" si="662">((SUM(C578:F586))/20)*1.04</f>
+        <f t="shared" ref="V578" si="661">((SUM(C578:F586))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W578">
-        <f t="shared" ref="W578" si="663">(SUM(G578:H586))/10</f>
+        <f t="shared" ref="W578" si="662">(SUM(G578:H586))/10</f>
         <v>0.3</v>
       </c>
       <c r="X578">
-        <f t="shared" ref="X578" si="664">(SUM(I578:I586))/5</f>
+        <f t="shared" ref="X578" si="663">(SUM(I578:I586))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y578">
-        <f t="shared" ref="Y578" si="665">SUM(K578:K586)-Z578</f>
+        <f t="shared" ref="Y578" si="664">SUM(K578:K586)-Z578</f>
         <v>77</v>
       </c>
       <c r="Z578">
-        <f t="shared" ref="Z578" si="666">SUM(L578:L586)</f>
+        <f t="shared" ref="Z578" si="665">SUM(L578:L586)</f>
         <v>10</v>
       </c>
       <c r="AA578" t="s">
@@ -73590,47 +73590,47 @@
         <v>29</v>
       </c>
       <c r="P587">
-        <f t="shared" ref="P587" si="667">M587*10</f>
+        <f t="shared" ref="P587" si="666">M587*10</f>
         <v>160</v>
       </c>
       <c r="Q587">
-        <f t="shared" ref="Q587" si="668">((SUM(C587:F587))/4)*1.04</f>
+        <f t="shared" ref="Q587" si="667">((SUM(C587:F587))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R587">
-        <f t="shared" ref="R587" si="669">((SUM(C589:F589))/4)*1.04</f>
+        <f t="shared" ref="R587" si="668">((SUM(C589:F589))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S587">
-        <f t="shared" ref="S587" si="670">((SUM(C591:F591))/4)*1.04</f>
+        <f t="shared" ref="S587" si="669">((SUM(C591:F591))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T587">
-        <f t="shared" ref="T587" si="671">((SUM(C593:F593))/4)*1.04</f>
+        <f t="shared" ref="T587" si="670">((SUM(C593:F593))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U587">
-        <f t="shared" ref="U587" si="672">((SUM(C595:F595))/4)*1.04</f>
+        <f t="shared" ref="U587" si="671">((SUM(C595:F595))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V587">
-        <f t="shared" ref="V587" si="673">((SUM(C587:F595))/20)*1.04</f>
+        <f t="shared" ref="V587" si="672">((SUM(C587:F595))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W587">
-        <f t="shared" ref="W587" si="674">(SUM(G587:H595))/10</f>
+        <f t="shared" ref="W587" si="673">(SUM(G587:H595))/10</f>
         <v>0.5</v>
       </c>
       <c r="X587">
-        <f t="shared" ref="X587" si="675">(SUM(I587:I595))/5</f>
+        <f t="shared" ref="X587" si="674">(SUM(I587:I595))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y587">
-        <f t="shared" ref="Y587" si="676">SUM(K587:K595)-Z587</f>
+        <f t="shared" ref="Y587" si="675">SUM(K587:K595)-Z587</f>
         <v>62</v>
       </c>
       <c r="Z587">
-        <f t="shared" ref="Z587" si="677">SUM(L587:L595)</f>
+        <f t="shared" ref="Z587" si="676">SUM(L587:L595)</f>
         <v>14</v>
       </c>
       <c r="AA587" t="s">
@@ -74084,47 +74084,47 @@
         <v>29</v>
       </c>
       <c r="P596">
-        <f t="shared" ref="P596" si="678">M596*10</f>
+        <f t="shared" ref="P596" si="677">M596*10</f>
         <v>150</v>
       </c>
       <c r="Q596">
-        <f t="shared" ref="Q596" si="679">((SUM(C596:F596))/4)*1.04</f>
+        <f t="shared" ref="Q596" si="678">((SUM(C596:F596))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R596">
-        <f t="shared" ref="R596" si="680">((SUM(C598:F598))/4)*1.04</f>
+        <f t="shared" ref="R596" si="679">((SUM(C598:F598))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S596">
-        <f t="shared" ref="S596" si="681">((SUM(C600:F600))/4)*1.04</f>
+        <f t="shared" ref="S596" si="680">((SUM(C600:F600))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T596">
-        <f t="shared" ref="T596" si="682">((SUM(C602:F602))/4)*1.04</f>
+        <f t="shared" ref="T596" si="681">((SUM(C602:F602))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U596">
-        <f t="shared" ref="U596" si="683">((SUM(C604:F604))/4)*1.04</f>
+        <f t="shared" ref="U596" si="682">((SUM(C604:F604))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V596">
-        <f t="shared" ref="V596" si="684">((SUM(C596:F604))/20)*1.04</f>
+        <f t="shared" ref="V596" si="683">((SUM(C596:F604))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W596">
-        <f t="shared" ref="W596" si="685">(SUM(G596:H604))/10</f>
+        <f t="shared" ref="W596" si="684">(SUM(G596:H604))/10</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="X596">
-        <f t="shared" ref="X596" si="686">(SUM(I596:I604))/5</f>
+        <f t="shared" ref="X596" si="685">(SUM(I596:I604))/5</f>
         <v>2</v>
       </c>
       <c r="Y596">
-        <f t="shared" ref="Y596" si="687">SUM(K596:K604)-Z596</f>
+        <f t="shared" ref="Y596" si="686">SUM(K596:K604)-Z596</f>
         <v>29</v>
       </c>
       <c r="Z596">
-        <f t="shared" ref="Z596" si="688">SUM(L596:L604)</f>
+        <f t="shared" ref="Z596" si="687">SUM(L596:L604)</f>
         <v>8</v>
       </c>
       <c r="AA596" t="s">
@@ -74578,47 +74578,47 @@
         <v>29</v>
       </c>
       <c r="P605">
-        <f t="shared" ref="P605" si="689">M605*10</f>
+        <f t="shared" ref="P605" si="688">M605*10</f>
         <v>190</v>
       </c>
       <c r="Q605">
-        <f t="shared" ref="Q605" si="690">((SUM(C605:F605))/4)*1.04</f>
+        <f t="shared" ref="Q605" si="689">((SUM(C605:F605))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R605">
-        <f t="shared" ref="R605" si="691">((SUM(C607:F607))/4)*1.04</f>
+        <f t="shared" ref="R605" si="690">((SUM(C607:F607))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S605">
-        <f t="shared" ref="S605" si="692">((SUM(C609:F609))/4)*1.04</f>
+        <f t="shared" ref="S605" si="691">((SUM(C609:F609))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T605">
-        <f t="shared" ref="T605" si="693">((SUM(C611:F611))/4)*1.04</f>
+        <f t="shared" ref="T605" si="692">((SUM(C611:F611))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U605">
-        <f t="shared" ref="U605" si="694">((SUM(C613:F613))/4)*1.04</f>
+        <f t="shared" ref="U605" si="693">((SUM(C613:F613))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V605">
-        <f t="shared" ref="V605" si="695">((SUM(C605:F613))/20)*1.04</f>
+        <f t="shared" ref="V605" si="694">((SUM(C605:F613))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W605">
-        <f t="shared" ref="W605" si="696">(SUM(G605:H613))/10</f>
+        <f t="shared" ref="W605" si="695">(SUM(G605:H613))/10</f>
         <v>1.8</v>
       </c>
       <c r="X605">
-        <f t="shared" ref="X605" si="697">(SUM(I605:I613))/5</f>
+        <f t="shared" ref="X605" si="696">(SUM(I605:I613))/5</f>
         <v>3</v>
       </c>
       <c r="Y605">
-        <f t="shared" ref="Y605" si="698">SUM(K605:K613)-Z605</f>
+        <f t="shared" ref="Y605" si="697">SUM(K605:K613)-Z605</f>
         <v>93</v>
       </c>
       <c r="Z605">
-        <f t="shared" ref="Z605" si="699">SUM(L605:L613)</f>
+        <f t="shared" ref="Z605" si="698">SUM(L605:L613)</f>
         <v>2</v>
       </c>
       <c r="AA605" t="s">
@@ -75072,47 +75072,47 @@
         <v>29</v>
       </c>
       <c r="P614" t="e">
-        <f t="shared" ref="P614" si="700">M614*10</f>
+        <f t="shared" ref="P614" si="699">M614*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q614">
-        <f t="shared" ref="Q614" si="701">((SUM(C614:F614))/4)*1.04</f>
+        <f t="shared" ref="Q614" si="700">((SUM(C614:F614))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R614">
-        <f t="shared" ref="R614" si="702">((SUM(C616:F616))/4)*1.04</f>
+        <f t="shared" ref="R614" si="701">((SUM(C616:F616))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S614">
-        <f t="shared" ref="S614" si="703">((SUM(C618:F618))/4)*1.04</f>
+        <f t="shared" ref="S614" si="702">((SUM(C618:F618))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T614">
-        <f t="shared" ref="T614" si="704">((SUM(C620:F620))/4)*1.04</f>
+        <f t="shared" ref="T614" si="703">((SUM(C620:F620))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U614">
-        <f t="shared" ref="U614" si="705">((SUM(C622:F622))/4)*1.04</f>
+        <f t="shared" ref="U614" si="704">((SUM(C622:F622))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V614">
-        <f t="shared" ref="V614" si="706">((SUM(C614:F622))/20)*1.04</f>
+        <f t="shared" ref="V614" si="705">((SUM(C614:F622))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W614">
-        <f t="shared" ref="W614" si="707">(SUM(G614:H622))/10</f>
+        <f t="shared" ref="W614" si="706">(SUM(G614:H622))/10</f>
         <v>19.5</v>
       </c>
       <c r="X614">
-        <f t="shared" ref="X614" si="708">(SUM(I614:I622))/5</f>
+        <f t="shared" ref="X614" si="707">(SUM(I614:I622))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y614">
-        <f t="shared" ref="Y614" si="709">SUM(K614:K622)-Z614</f>
+        <f t="shared" ref="Y614" si="708">SUM(K614:K622)-Z614</f>
         <v>2</v>
       </c>
       <c r="Z614">
-        <f t="shared" ref="Z614" si="710">SUM(L614:L622)</f>
+        <f t="shared" ref="Z614" si="709">SUM(L614:L622)</f>
         <v>9</v>
       </c>
       <c r="AA614" t="s">
@@ -75566,47 +75566,47 @@
         <v>29</v>
       </c>
       <c r="P623">
-        <f t="shared" ref="P623" si="711">M623*10</f>
+        <f t="shared" ref="P623" si="710">M623*10</f>
         <v>50</v>
       </c>
       <c r="Q623">
-        <f t="shared" ref="Q623" si="712">((SUM(C623:F623))/4)*1.04</f>
+        <f t="shared" ref="Q623" si="711">((SUM(C623:F623))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R623">
-        <f t="shared" ref="R623" si="713">((SUM(C625:F625))/4)*1.04</f>
+        <f t="shared" ref="R623" si="712">((SUM(C625:F625))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S623">
-        <f t="shared" ref="S623" si="714">((SUM(C627:F627))/4)*1.04</f>
+        <f t="shared" ref="S623" si="713">((SUM(C627:F627))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T623">
-        <f t="shared" ref="T623" si="715">((SUM(C629:F629))/4)*1.04</f>
+        <f t="shared" ref="T623" si="714">((SUM(C629:F629))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U623">
-        <f t="shared" ref="U623" si="716">((SUM(C631:F631))/4)*1.04</f>
+        <f t="shared" ref="U623" si="715">((SUM(C631:F631))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V623">
-        <f t="shared" ref="V623" si="717">((SUM(C623:F631))/20)*1.04</f>
+        <f t="shared" ref="V623" si="716">((SUM(C623:F631))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W623">
-        <f t="shared" ref="W623" si="718">(SUM(G623:H631))/10</f>
+        <f t="shared" ref="W623" si="717">(SUM(G623:H631))/10</f>
         <v>25.6</v>
       </c>
       <c r="X623">
-        <f t="shared" ref="X623" si="719">(SUM(I623:I631))/5</f>
+        <f t="shared" ref="X623" si="718">(SUM(I623:I631))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y623">
-        <f t="shared" ref="Y623" si="720">SUM(K623:K631)-Z623</f>
+        <f t="shared" ref="Y623" si="719">SUM(K623:K631)-Z623</f>
         <v>12</v>
       </c>
       <c r="Z623">
-        <f t="shared" ref="Z623" si="721">SUM(L623:L631)</f>
+        <f t="shared" ref="Z623" si="720">SUM(L623:L631)</f>
         <v>4</v>
       </c>
       <c r="AA623" t="s">
@@ -76060,47 +76060,47 @@
         <v>29</v>
       </c>
       <c r="P632">
-        <f t="shared" ref="P632" si="722">M632*10</f>
+        <f t="shared" ref="P632" si="721">M632*10</f>
         <v>70</v>
       </c>
       <c r="Q632">
-        <f t="shared" ref="Q632" si="723">((SUM(C632:F632))/4)*1.04</f>
+        <f t="shared" ref="Q632" si="722">((SUM(C632:F632))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R632">
-        <f t="shared" ref="R632" si="724">((SUM(C634:F634))/4)*1.04</f>
+        <f t="shared" ref="R632" si="723">((SUM(C634:F634))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S632">
-        <f t="shared" ref="S632" si="725">((SUM(C636:F636))/4)*1.04</f>
+        <f t="shared" ref="S632" si="724">((SUM(C636:F636))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T632">
-        <f t="shared" ref="T632" si="726">((SUM(C638:F638))/4)*1.04</f>
+        <f t="shared" ref="T632" si="725">((SUM(C638:F638))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U632">
-        <f t="shared" ref="U632" si="727">((SUM(C640:F640))/4)*1.04</f>
+        <f t="shared" ref="U632" si="726">((SUM(C640:F640))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V632">
-        <f t="shared" ref="V632" si="728">((SUM(C632:F640))/20)*1.04</f>
+        <f t="shared" ref="V632" si="727">((SUM(C632:F640))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W632">
-        <f t="shared" ref="W632" si="729">(SUM(G632:H640))/10</f>
+        <f t="shared" ref="W632" si="728">(SUM(G632:H640))/10</f>
         <v>50</v>
       </c>
       <c r="X632">
-        <f t="shared" ref="X632" si="730">(SUM(I632:I640))/5</f>
+        <f t="shared" ref="X632" si="729">(SUM(I632:I640))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y632">
-        <f t="shared" ref="Y632" si="731">SUM(K632:K640)-Z632</f>
+        <f t="shared" ref="Y632" si="730">SUM(K632:K640)-Z632</f>
         <v>-2</v>
       </c>
       <c r="Z632">
-        <f t="shared" ref="Z632" si="732">SUM(L632:L640)</f>
+        <f t="shared" ref="Z632" si="731">SUM(L632:L640)</f>
         <v>6</v>
       </c>
       <c r="AA632" t="s">
@@ -76554,35 +76554,35 @@
         <v>29</v>
       </c>
       <c r="P641">
-        <f t="shared" ref="P641" si="733">M641*10</f>
+        <f t="shared" ref="P641" si="732">M641*10</f>
         <v>40</v>
       </c>
       <c r="Q641">
-        <f t="shared" ref="Q641" si="734">((SUM(C641:F641))/4)*1.04</f>
+        <f t="shared" ref="Q641" si="733">((SUM(C641:F641))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="R641">
-        <f t="shared" ref="R641" si="735">((SUM(C643:F643))/4)*1.04</f>
+        <f t="shared" ref="R641" si="734">((SUM(C643:F643))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="S641">
-        <f t="shared" ref="S641" si="736">((SUM(C645:F645))/4)*1.04</f>
+        <f t="shared" ref="S641" si="735">((SUM(C645:F645))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="T641">
-        <f t="shared" ref="T641" si="737">((SUM(C647:F647))/4)*1.04</f>
+        <f t="shared" ref="T641" si="736">((SUM(C647:F647))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="U641">
-        <f t="shared" ref="U641" si="738">((SUM(C649:F649))/4)*1.04</f>
+        <f t="shared" ref="U641" si="737">((SUM(C649:F649))/4)*1.04</f>
         <v>0</v>
       </c>
       <c r="V641">
-        <f t="shared" ref="V641" si="739">((SUM(C641:F649))/20)*1.04</f>
+        <f t="shared" ref="V641" si="738">((SUM(C641:F649))/20)*1.04</f>
         <v>0</v>
       </c>
       <c r="W641">
-        <f t="shared" ref="W641" si="740">(SUM(G641:H649))/10</f>
+        <f t="shared" ref="W641" si="739">(SUM(G641:H649))/10</f>
         <v>10.5</v>
       </c>
       <c r="X641">
@@ -76590,11 +76590,11 @@
         <v>1.8</v>
       </c>
       <c r="Y641">
-        <f t="shared" ref="Y641" si="741">SUM(K641:K649)-Z641</f>
+        <f t="shared" ref="Y641" si="740">SUM(K641:K649)-Z641</f>
         <v>6</v>
       </c>
       <c r="Z641">
-        <f t="shared" ref="Z641" si="742">SUM(L641:L649)</f>
+        <f t="shared" ref="Z641" si="741">SUM(L641:L649)</f>
         <v>6</v>
       </c>
       <c r="AA641" t="s">

--- a/raw_data/arabuko_sokoke_11.xlsx
+++ b/raw_data/arabuko_sokoke_11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/SCIENCE/RESEARCH/arabuko_sokoke/ASF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46633C02-E9DA-8A45-BC1C-7C96987863AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0232ACDF-A706-FA40-884C-EE8578D1D369}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="960" windowWidth="27800" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="540" windowWidth="27800" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Herps" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <sheet name="Loggers" sheetId="5" r:id="rId5"/>
     <sheet name="Key" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17197" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16517" uniqueCount="886">
   <si>
     <t>ind_numb</t>
   </si>
@@ -41340,9 +41348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA649"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P345" sqref="P345"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V506" sqref="V506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59224,17 +59232,17 @@
       <c r="B326" t="s">
         <v>772</v>
       </c>
-      <c r="C326" t="s">
-        <v>30</v>
-      </c>
-      <c r="D326" t="s">
-        <v>30</v>
-      </c>
-      <c r="E326" t="s">
-        <v>30</v>
-      </c>
-      <c r="F326" t="s">
-        <v>30</v>
+      <c r="C326">
+        <v>34</v>
+      </c>
+      <c r="D326">
+        <v>24</v>
+      </c>
+      <c r="E326">
+        <v>28</v>
+      </c>
+      <c r="F326">
+        <v>63</v>
       </c>
       <c r="G326">
         <v>95</v>
@@ -59269,27 +59277,27 @@
       </c>
       <c r="Q326">
         <f t="shared" ref="Q326" si="350">((SUM(C326:F326))/4)*1.04</f>
-        <v>0</v>
+        <v>38.74</v>
       </c>
       <c r="R326">
         <f t="shared" ref="R326" si="351">((SUM(C328:F328))/4)*1.04</f>
-        <v>0</v>
+        <v>34.58</v>
       </c>
       <c r="S326">
         <f t="shared" ref="S326" si="352">((SUM(C330:F330))/4)*1.04</f>
-        <v>0</v>
+        <v>30.94</v>
       </c>
       <c r="T326">
         <f t="shared" ref="T326" si="353">((SUM(C332:F332))/4)*1.04</f>
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="U326">
         <f t="shared" ref="U326" si="354">((SUM(C334:F334))/4)*1.04</f>
-        <v>0</v>
+        <v>30.94</v>
       </c>
       <c r="V326">
         <f t="shared" ref="V326" si="355">((SUM(C326:F334))/20)*1.04</f>
-        <v>0</v>
+        <v>32.76</v>
       </c>
       <c r="W326">
         <f t="shared" ref="W326" si="356">(SUM(G326:H334))/10</f>
@@ -59368,17 +59376,17 @@
       <c r="B328" t="s">
         <v>775</v>
       </c>
-      <c r="C328" t="s">
-        <v>30</v>
-      </c>
-      <c r="D328" t="s">
-        <v>30</v>
-      </c>
-      <c r="E328" t="s">
-        <v>30</v>
-      </c>
-      <c r="F328" t="s">
-        <v>30</v>
+      <c r="C328">
+        <v>41</v>
+      </c>
+      <c r="D328">
+        <v>34</v>
+      </c>
+      <c r="E328">
+        <v>39</v>
+      </c>
+      <c r="F328">
+        <v>19</v>
       </c>
       <c r="G328">
         <v>10</v>
@@ -59468,17 +59476,17 @@
       <c r="B330" t="s">
         <v>777</v>
       </c>
-      <c r="C330" t="s">
-        <v>30</v>
-      </c>
-      <c r="D330" t="s">
-        <v>30</v>
-      </c>
-      <c r="E330" t="s">
-        <v>30</v>
-      </c>
-      <c r="F330" t="s">
-        <v>30</v>
+      <c r="C330">
+        <v>26</v>
+      </c>
+      <c r="D330">
+        <v>28</v>
+      </c>
+      <c r="E330">
+        <v>45</v>
+      </c>
+      <c r="F330">
+        <v>20</v>
       </c>
       <c r="G330">
         <v>70</v>
@@ -59568,17 +59576,17 @@
       <c r="B332" t="s">
         <v>779</v>
       </c>
-      <c r="C332" t="s">
-        <v>30</v>
-      </c>
-      <c r="D332" t="s">
-        <v>30</v>
-      </c>
-      <c r="E332" t="s">
-        <v>30</v>
-      </c>
-      <c r="F332" t="s">
-        <v>30</v>
+      <c r="C332">
+        <v>24</v>
+      </c>
+      <c r="D332">
+        <v>44</v>
+      </c>
+      <c r="E332">
+        <v>28</v>
+      </c>
+      <c r="F332">
+        <v>14</v>
       </c>
       <c r="G332">
         <v>75</v>
@@ -59668,17 +59676,17 @@
       <c r="B334" t="s">
         <v>781</v>
       </c>
-      <c r="C334" t="s">
-        <v>30</v>
-      </c>
-      <c r="D334" t="s">
-        <v>30</v>
-      </c>
-      <c r="E334" t="s">
-        <v>30</v>
-      </c>
-      <c r="F334" t="s">
-        <v>30</v>
+      <c r="C334">
+        <v>33</v>
+      </c>
+      <c r="D334">
+        <v>39</v>
+      </c>
+      <c r="E334">
+        <v>24</v>
+      </c>
+      <c r="F334">
+        <v>23</v>
       </c>
       <c r="G334">
         <v>95</v>
@@ -59718,17 +59726,17 @@
       <c r="B335" t="s">
         <v>772</v>
       </c>
-      <c r="C335" t="s">
-        <v>30</v>
-      </c>
-      <c r="D335" t="s">
-        <v>30</v>
-      </c>
-      <c r="E335" t="s">
-        <v>30</v>
-      </c>
-      <c r="F335" t="s">
-        <v>30</v>
+      <c r="C335">
+        <v>13</v>
+      </c>
+      <c r="D335">
+        <v>53</v>
+      </c>
+      <c r="E335">
+        <v>48</v>
+      </c>
+      <c r="F335">
+        <v>14</v>
       </c>
       <c r="G335">
         <v>30</v>
@@ -59763,27 +59771,27 @@
       </c>
       <c r="Q335">
         <f t="shared" ref="Q335" si="361">((SUM(C335:F335))/4)*1.04</f>
-        <v>0</v>
+        <v>33.28</v>
       </c>
       <c r="R335">
         <f t="shared" ref="R335" si="362">((SUM(C337:F337))/4)*1.04</f>
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="S335">
         <f t="shared" ref="S335" si="363">((SUM(C339:F339))/4)*1.04</f>
-        <v>0</v>
+        <v>31.98</v>
       </c>
       <c r="T335">
         <f t="shared" ref="T335" si="364">((SUM(C341:F341))/4)*1.04</f>
-        <v>0</v>
+        <v>22.880000000000003</v>
       </c>
       <c r="U335">
         <f t="shared" ref="U335" si="365">((SUM(C343:F343))/4)*1.04</f>
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="V335">
         <f t="shared" ref="V335" si="366">((SUM(C335:F343))/20)*1.04</f>
-        <v>0</v>
+        <v>26.728000000000002</v>
       </c>
       <c r="W335">
         <f t="shared" ref="W335" si="367">(SUM(G335:H343))/10</f>
@@ -59862,17 +59870,17 @@
       <c r="B337" t="s">
         <v>775</v>
       </c>
-      <c r="C337" t="s">
-        <v>30</v>
-      </c>
-      <c r="D337" t="s">
-        <v>30</v>
-      </c>
-      <c r="E337" t="s">
-        <v>30</v>
-      </c>
-      <c r="F337" t="s">
-        <v>30</v>
+      <c r="C337">
+        <v>22</v>
+      </c>
+      <c r="D337">
+        <v>45</v>
+      </c>
+      <c r="E337">
+        <v>60</v>
+      </c>
+      <c r="F337">
+        <v>8</v>
       </c>
       <c r="G337">
         <v>40</v>
@@ -59962,17 +59970,17 @@
       <c r="B339" t="s">
         <v>777</v>
       </c>
-      <c r="C339" t="s">
-        <v>30</v>
-      </c>
-      <c r="D339" t="s">
-        <v>30</v>
-      </c>
-      <c r="E339" t="s">
-        <v>30</v>
-      </c>
-      <c r="F339" t="s">
-        <v>30</v>
+      <c r="C339">
+        <v>30</v>
+      </c>
+      <c r="D339">
+        <v>14</v>
+      </c>
+      <c r="E339">
+        <v>47</v>
+      </c>
+      <c r="F339">
+        <v>32</v>
       </c>
       <c r="G339">
         <v>80</v>
@@ -60062,17 +60070,17 @@
       <c r="B341" t="s">
         <v>779</v>
       </c>
-      <c r="C341" t="s">
-        <v>30</v>
-      </c>
-      <c r="D341" t="s">
-        <v>30</v>
-      </c>
-      <c r="E341" t="s">
-        <v>30</v>
-      </c>
-      <c r="F341" t="s">
-        <v>30</v>
+      <c r="C341">
+        <v>10</v>
+      </c>
+      <c r="D341">
+        <v>46</v>
+      </c>
+      <c r="E341">
+        <v>19</v>
+      </c>
+      <c r="F341">
+        <v>13</v>
       </c>
       <c r="G341">
         <v>90</v>
@@ -60162,17 +60170,17 @@
       <c r="B343" t="s">
         <v>781</v>
       </c>
-      <c r="C343" t="s">
-        <v>30</v>
-      </c>
-      <c r="D343" t="s">
-        <v>30</v>
-      </c>
-      <c r="E343" t="s">
-        <v>30</v>
-      </c>
-      <c r="F343" t="s">
-        <v>30</v>
+      <c r="C343">
+        <v>7</v>
+      </c>
+      <c r="D343">
+        <v>9</v>
+      </c>
+      <c r="E343">
+        <v>15</v>
+      </c>
+      <c r="F343">
+        <v>9</v>
       </c>
       <c r="G343">
         <v>80</v>
@@ -60212,17 +60220,17 @@
       <c r="B344" t="s">
         <v>772</v>
       </c>
-      <c r="C344" t="s">
-        <v>30</v>
-      </c>
-      <c r="D344" t="s">
-        <v>30</v>
-      </c>
-      <c r="E344" t="s">
-        <v>30</v>
-      </c>
-      <c r="F344" t="s">
-        <v>30</v>
+      <c r="C344">
+        <v>22</v>
+      </c>
+      <c r="D344">
+        <v>12</v>
+      </c>
+      <c r="E344">
+        <v>15</v>
+      </c>
+      <c r="F344">
+        <v>18</v>
       </c>
       <c r="G344">
         <v>2</v>
@@ -60257,27 +60265,27 @@
       </c>
       <c r="Q344">
         <f t="shared" ref="Q344" si="371">((SUM(C344:F344))/4)*1.04</f>
-        <v>0</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="R344">
         <f t="shared" ref="R344" si="372">((SUM(C346:F346))/4)*1.04</f>
-        <v>0</v>
+        <v>14.040000000000001</v>
       </c>
       <c r="S344">
         <f t="shared" ref="S344" si="373">((SUM(C348:F348))/4)*1.04</f>
-        <v>0</v>
+        <v>20.54</v>
       </c>
       <c r="T344">
         <f t="shared" ref="T344" si="374">((SUM(C350:F350))/4)*1.04</f>
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U344">
         <f t="shared" ref="U344" si="375">((SUM(C352:F352))/4)*1.04</f>
-        <v>0</v>
+        <v>21.580000000000002</v>
       </c>
       <c r="V344">
         <f t="shared" ref="V344" si="376">((SUM(C344:F352))/20)*1.04</f>
-        <v>0</v>
+        <v>18.875999999999998</v>
       </c>
       <c r="W344">
         <f t="shared" ref="W344" si="377">(SUM(G344:H352))/10</f>
@@ -60356,17 +60364,17 @@
       <c r="B346" t="s">
         <v>775</v>
       </c>
-      <c r="C346" t="s">
-        <v>30</v>
-      </c>
-      <c r="D346" t="s">
-        <v>30</v>
-      </c>
-      <c r="E346" t="s">
-        <v>30</v>
-      </c>
-      <c r="F346" t="s">
-        <v>30</v>
+      <c r="C346">
+        <v>12</v>
+      </c>
+      <c r="D346">
+        <v>8</v>
+      </c>
+      <c r="E346">
+        <v>17</v>
+      </c>
+      <c r="F346">
+        <v>17</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -60456,17 +60464,17 @@
       <c r="B348" t="s">
         <v>777</v>
       </c>
-      <c r="C348" t="s">
-        <v>30</v>
-      </c>
-      <c r="D348" t="s">
-        <v>30</v>
-      </c>
-      <c r="E348" t="s">
-        <v>30</v>
-      </c>
-      <c r="F348" t="s">
-        <v>30</v>
+      <c r="C348">
+        <v>19</v>
+      </c>
+      <c r="D348">
+        <v>18</v>
+      </c>
+      <c r="E348">
+        <v>22</v>
+      </c>
+      <c r="F348">
+        <v>20</v>
       </c>
       <c r="G348">
         <v>0</v>
@@ -60556,17 +60564,17 @@
       <c r="B350" t="s">
         <v>779</v>
       </c>
-      <c r="C350" t="s">
-        <v>30</v>
-      </c>
-      <c r="D350" t="s">
-        <v>30</v>
-      </c>
-      <c r="E350" t="s">
-        <v>30</v>
-      </c>
-      <c r="F350" t="s">
-        <v>30</v>
+      <c r="C350">
+        <v>27</v>
+      </c>
+      <c r="D350">
+        <v>25</v>
+      </c>
+      <c r="E350">
+        <v>17</v>
+      </c>
+      <c r="F350">
+        <v>11</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -60656,17 +60664,17 @@
       <c r="B352" t="s">
         <v>781</v>
       </c>
-      <c r="C352" t="s">
-        <v>30</v>
-      </c>
-      <c r="D352" t="s">
-        <v>30</v>
-      </c>
-      <c r="E352" t="s">
-        <v>30</v>
-      </c>
-      <c r="F352" t="s">
-        <v>30</v>
+      <c r="C352">
+        <v>15</v>
+      </c>
+      <c r="D352">
+        <v>20</v>
+      </c>
+      <c r="E352">
+        <v>30</v>
+      </c>
+      <c r="F352">
+        <v>18</v>
       </c>
       <c r="G352">
         <v>2</v>
@@ -60706,17 +60714,17 @@
       <c r="B353" t="s">
         <v>772</v>
       </c>
-      <c r="C353" t="s">
-        <v>30</v>
-      </c>
-      <c r="D353" t="s">
-        <v>30</v>
-      </c>
-      <c r="E353" t="s">
-        <v>30</v>
-      </c>
-      <c r="F353" t="s">
-        <v>30</v>
+      <c r="C353">
+        <v>15</v>
+      </c>
+      <c r="D353">
+        <v>28</v>
+      </c>
+      <c r="E353">
+        <v>18</v>
+      </c>
+      <c r="F353">
+        <v>22</v>
       </c>
       <c r="G353">
         <v>0</v>
@@ -60751,27 +60759,27 @@
       </c>
       <c r="Q353">
         <f t="shared" ref="Q353" si="382">((SUM(C353:F353))/4)*1.04</f>
-        <v>0</v>
+        <v>21.580000000000002</v>
       </c>
       <c r="R353">
         <f t="shared" ref="R353" si="383">((SUM(C355:F355))/4)*1.04</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S353">
         <f t="shared" ref="S353" si="384">((SUM(C357:F357))/4)*1.04</f>
-        <v>0</v>
+        <v>14.82</v>
       </c>
       <c r="T353">
         <f t="shared" ref="T353" si="385">((SUM(C359:F359))/4)*1.04</f>
-        <v>0</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="U353">
         <f t="shared" ref="U353" si="386">((SUM(C361:F361))/4)*1.04</f>
-        <v>0</v>
+        <v>13.26</v>
       </c>
       <c r="V353">
         <f t="shared" ref="V353" si="387">((SUM(C353:F361))/20)*1.04</f>
-        <v>0</v>
+        <v>14.507999999999999</v>
       </c>
       <c r="W353">
         <f t="shared" ref="W353" si="388">(SUM(G353:H361))/10</f>
@@ -60850,17 +60858,17 @@
       <c r="B355" t="s">
         <v>775</v>
       </c>
-      <c r="C355" t="s">
-        <v>30</v>
-      </c>
-      <c r="D355" t="s">
-        <v>30</v>
-      </c>
-      <c r="E355" t="s">
-        <v>30</v>
-      </c>
-      <c r="F355" t="s">
-        <v>30</v>
+      <c r="C355">
+        <v>12</v>
+      </c>
+      <c r="D355">
+        <v>17</v>
+      </c>
+      <c r="E355">
+        <v>10</v>
+      </c>
+      <c r="F355">
+        <v>11</v>
       </c>
       <c r="G355">
         <v>4</v>
@@ -60950,17 +60958,17 @@
       <c r="B357" t="s">
         <v>777</v>
       </c>
-      <c r="C357" t="s">
-        <v>30</v>
-      </c>
-      <c r="D357" t="s">
-        <v>30</v>
-      </c>
-      <c r="E357" t="s">
-        <v>30</v>
-      </c>
-      <c r="F357" t="s">
-        <v>30</v>
+      <c r="C357">
+        <v>6</v>
+      </c>
+      <c r="D357">
+        <v>28</v>
+      </c>
+      <c r="E357">
+        <v>17</v>
+      </c>
+      <c r="F357">
+        <v>6</v>
       </c>
       <c r="G357">
         <v>2</v>
@@ -61050,17 +61058,17 @@
       <c r="B359" t="s">
         <v>779</v>
       </c>
-      <c r="C359" t="s">
-        <v>30</v>
-      </c>
-      <c r="D359" t="s">
-        <v>30</v>
-      </c>
-      <c r="E359" t="s">
-        <v>30</v>
-      </c>
-      <c r="F359" t="s">
-        <v>30</v>
+      <c r="C359">
+        <v>11</v>
+      </c>
+      <c r="D359">
+        <v>5</v>
+      </c>
+      <c r="E359">
+        <v>10</v>
+      </c>
+      <c r="F359">
+        <v>12</v>
       </c>
       <c r="G359">
         <v>3</v>
@@ -61150,17 +61158,17 @@
       <c r="B361" t="s">
         <v>781</v>
       </c>
-      <c r="C361" t="s">
-        <v>30</v>
-      </c>
-      <c r="D361" t="s">
-        <v>30</v>
-      </c>
-      <c r="E361" t="s">
-        <v>30</v>
-      </c>
-      <c r="F361" t="s">
-        <v>30</v>
+      <c r="C361">
+        <v>17</v>
+      </c>
+      <c r="D361">
+        <v>18</v>
+      </c>
+      <c r="E361">
+        <v>6</v>
+      </c>
+      <c r="F361">
+        <v>10</v>
       </c>
       <c r="G361">
         <v>5</v>
@@ -61200,17 +61208,17 @@
       <c r="B362" t="s">
         <v>772</v>
       </c>
-      <c r="C362" t="s">
-        <v>30</v>
-      </c>
-      <c r="D362" t="s">
-        <v>30</v>
-      </c>
-      <c r="E362" t="s">
-        <v>30</v>
-      </c>
-      <c r="F362" t="s">
-        <v>30</v>
+      <c r="C362">
+        <v>16</v>
+      </c>
+      <c r="D362">
+        <v>18</v>
+      </c>
+      <c r="E362">
+        <v>11</v>
+      </c>
+      <c r="F362">
+        <v>31</v>
       </c>
       <c r="G362">
         <v>20</v>
@@ -61245,27 +61253,27 @@
       </c>
       <c r="Q362">
         <f t="shared" ref="Q362" si="393">((SUM(C362:F362))/4)*1.04</f>
-        <v>0</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="R362">
         <f t="shared" ref="R362" si="394">((SUM(C364:F364))/4)*1.04</f>
-        <v>0</v>
+        <v>37.18</v>
       </c>
       <c r="S362">
         <f t="shared" ref="S362" si="395">((SUM(C366:F366))/4)*1.04</f>
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="T362">
         <f t="shared" ref="T362" si="396">((SUM(C368:F368))/4)*1.04</f>
-        <v>0</v>
+        <v>13.780000000000001</v>
       </c>
       <c r="U362">
         <f t="shared" ref="U362" si="397">((SUM(C370:F370))/4)*1.04</f>
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="V362">
         <f t="shared" ref="V362" si="398">((SUM(C362:F370))/20)*1.04</f>
-        <v>0</v>
+        <v>24.024000000000001</v>
       </c>
       <c r="W362">
         <f t="shared" ref="W362" si="399">(SUM(G362:H370))/10</f>
@@ -61344,17 +61352,17 @@
       <c r="B364" t="s">
         <v>775</v>
       </c>
-      <c r="C364" t="s">
-        <v>30</v>
-      </c>
-      <c r="D364" t="s">
-        <v>30</v>
-      </c>
-      <c r="E364" t="s">
-        <v>30</v>
-      </c>
-      <c r="F364" t="s">
-        <v>30</v>
+      <c r="C364">
+        <v>21</v>
+      </c>
+      <c r="D364">
+        <v>86</v>
+      </c>
+      <c r="E364">
+        <v>8</v>
+      </c>
+      <c r="F364">
+        <v>28</v>
       </c>
       <c r="G364">
         <v>25</v>
@@ -61444,17 +61452,17 @@
       <c r="B366" t="s">
         <v>777</v>
       </c>
-      <c r="C366" t="s">
-        <v>30</v>
-      </c>
-      <c r="D366" t="s">
-        <v>30</v>
-      </c>
-      <c r="E366" t="s">
-        <v>30</v>
-      </c>
-      <c r="F366" t="s">
-        <v>30</v>
+      <c r="C366">
+        <v>7</v>
+      </c>
+      <c r="D366">
+        <v>6</v>
+      </c>
+      <c r="E366">
+        <v>31</v>
+      </c>
+      <c r="F366">
+        <v>51</v>
       </c>
       <c r="G366">
         <v>10</v>
@@ -61544,17 +61552,17 @@
       <c r="B368" t="s">
         <v>779</v>
       </c>
-      <c r="C368" t="s">
-        <v>30</v>
-      </c>
-      <c r="D368" t="s">
-        <v>30</v>
-      </c>
-      <c r="E368" t="s">
-        <v>30</v>
-      </c>
-      <c r="F368" t="s">
-        <v>30</v>
+      <c r="C368">
+        <v>5</v>
+      </c>
+      <c r="D368">
+        <v>17</v>
+      </c>
+      <c r="E368">
+        <v>15</v>
+      </c>
+      <c r="F368">
+        <v>16</v>
       </c>
       <c r="G368">
         <v>5</v>
@@ -61644,17 +61652,17 @@
       <c r="B370" t="s">
         <v>781</v>
       </c>
-      <c r="C370" t="s">
-        <v>30</v>
-      </c>
-      <c r="D370" t="s">
-        <v>30</v>
-      </c>
-      <c r="E370" t="s">
-        <v>30</v>
-      </c>
-      <c r="F370" t="s">
-        <v>30</v>
+      <c r="C370">
+        <v>12</v>
+      </c>
+      <c r="D370">
+        <v>28</v>
+      </c>
+      <c r="E370">
+        <v>32</v>
+      </c>
+      <c r="F370">
+        <v>23</v>
       </c>
       <c r="G370">
         <v>30</v>
@@ -61694,17 +61702,17 @@
       <c r="B371" t="s">
         <v>772</v>
       </c>
-      <c r="C371" t="s">
-        <v>30</v>
-      </c>
-      <c r="D371" t="s">
-        <v>30</v>
-      </c>
-      <c r="E371" t="s">
-        <v>30</v>
-      </c>
-      <c r="F371" t="s">
-        <v>30</v>
+      <c r="C371">
+        <v>39</v>
+      </c>
+      <c r="D371">
+        <v>41</v>
+      </c>
+      <c r="E371">
+        <v>56</v>
+      </c>
+      <c r="F371">
+        <v>32</v>
       </c>
       <c r="G371">
         <v>99</v>
@@ -61739,27 +61747,27 @@
       </c>
       <c r="Q371">
         <f t="shared" ref="Q371" si="404">((SUM(C371:F371))/4)*1.04</f>
-        <v>0</v>
+        <v>43.68</v>
       </c>
       <c r="R371">
         <f t="shared" ref="R371" si="405">((SUM(C373:F373))/4)*1.04</f>
-        <v>0</v>
+        <v>51.22</v>
       </c>
       <c r="S371">
         <f t="shared" ref="S371" si="406">((SUM(C375:F375))/4)*1.04</f>
-        <v>0</v>
+        <v>43.160000000000004</v>
       </c>
       <c r="T371">
         <f t="shared" ref="T371" si="407">((SUM(C377:F377))/4)*1.04</f>
-        <v>0</v>
+        <v>44.46</v>
       </c>
       <c r="U371">
         <f t="shared" ref="U371" si="408">((SUM(C379:F379))/4)*1.04</f>
-        <v>0</v>
+        <v>50.96</v>
       </c>
       <c r="V371">
         <f t="shared" ref="V371" si="409">((SUM(C371:F379))/20)*1.04</f>
-        <v>0</v>
+        <v>46.695999999999998</v>
       </c>
       <c r="W371">
         <f t="shared" ref="W371" si="410">(SUM(G371:H379))/10</f>
@@ -61838,17 +61846,17 @@
       <c r="B373" t="s">
         <v>775</v>
       </c>
-      <c r="C373" t="s">
-        <v>30</v>
-      </c>
-      <c r="D373" t="s">
-        <v>30</v>
-      </c>
-      <c r="E373" t="s">
-        <v>30</v>
-      </c>
-      <c r="F373" t="s">
-        <v>30</v>
+      <c r="C373">
+        <v>49</v>
+      </c>
+      <c r="D373">
+        <v>50</v>
+      </c>
+      <c r="E373">
+        <v>46</v>
+      </c>
+      <c r="F373">
+        <v>52</v>
       </c>
       <c r="G373">
         <v>80</v>
@@ -61938,17 +61946,17 @@
       <c r="B375" t="s">
         <v>777</v>
       </c>
-      <c r="C375" t="s">
-        <v>30</v>
-      </c>
-      <c r="D375" t="s">
-        <v>30</v>
-      </c>
-      <c r="E375" t="s">
-        <v>30</v>
-      </c>
-      <c r="F375" t="s">
-        <v>30</v>
+      <c r="C375">
+        <v>46</v>
+      </c>
+      <c r="D375">
+        <v>11</v>
+      </c>
+      <c r="E375">
+        <v>53</v>
+      </c>
+      <c r="F375">
+        <v>56</v>
       </c>
       <c r="G375">
         <v>85</v>
@@ -62038,17 +62046,17 @@
       <c r="B377" t="s">
         <v>779</v>
       </c>
-      <c r="C377" t="s">
-        <v>30</v>
-      </c>
-      <c r="D377" t="s">
-        <v>30</v>
-      </c>
-      <c r="E377" t="s">
-        <v>30</v>
-      </c>
-      <c r="F377" t="s">
-        <v>30</v>
+      <c r="C377">
+        <v>39</v>
+      </c>
+      <c r="D377">
+        <v>25</v>
+      </c>
+      <c r="E377">
+        <v>37</v>
+      </c>
+      <c r="F377">
+        <v>70</v>
       </c>
       <c r="G377">
         <v>75</v>
@@ -62138,17 +62146,17 @@
       <c r="B379" t="s">
         <v>781</v>
       </c>
-      <c r="C379" t="s">
-        <v>30</v>
-      </c>
-      <c r="D379" t="s">
-        <v>30</v>
-      </c>
-      <c r="E379" t="s">
-        <v>30</v>
-      </c>
-      <c r="F379" t="s">
-        <v>30</v>
+      <c r="C379">
+        <v>50</v>
+      </c>
+      <c r="D379">
+        <v>60</v>
+      </c>
+      <c r="E379">
+        <v>54</v>
+      </c>
+      <c r="F379">
+        <v>32</v>
       </c>
       <c r="G379">
         <v>90</v>
@@ -62188,17 +62196,17 @@
       <c r="B380" t="s">
         <v>772</v>
       </c>
-      <c r="C380" t="s">
-        <v>30</v>
-      </c>
-      <c r="D380" t="s">
-        <v>30</v>
-      </c>
-      <c r="E380" t="s">
-        <v>30</v>
-      </c>
-      <c r="F380" t="s">
-        <v>30</v>
+      <c r="C380">
+        <v>19</v>
+      </c>
+      <c r="D380">
+        <v>12</v>
+      </c>
+      <c r="E380">
+        <v>10</v>
+      </c>
+      <c r="F380">
+        <v>6</v>
       </c>
       <c r="G380">
         <v>2</v>
@@ -62233,27 +62241,27 @@
       </c>
       <c r="Q380">
         <f t="shared" ref="Q380" si="415">((SUM(C380:F380))/4)*1.04</f>
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="R380">
         <f t="shared" ref="R380" si="416">((SUM(C382:F382))/4)*1.04</f>
-        <v>0</v>
+        <v>20.28</v>
       </c>
       <c r="S380">
         <f t="shared" ref="S380" si="417">((SUM(C384:F384))/4)*1.04</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T380">
         <f t="shared" ref="T380" si="418">((SUM(C386:F386))/4)*1.04</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="U380">
         <f t="shared" ref="U380" si="419">((SUM(C388:F388))/4)*1.04</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="V380">
         <f t="shared" ref="V380" si="420">((SUM(C380:F388))/20)*1.04</f>
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="W380">
         <f t="shared" ref="W380" si="421">(SUM(G380:H388))/10</f>
@@ -62332,17 +62340,17 @@
       <c r="B382" t="s">
         <v>775</v>
       </c>
-      <c r="C382" t="s">
-        <v>30</v>
-      </c>
-      <c r="D382" t="s">
-        <v>30</v>
-      </c>
-      <c r="E382" t="s">
-        <v>30</v>
-      </c>
-      <c r="F382" t="s">
-        <v>30</v>
+      <c r="C382">
+        <v>17</v>
+      </c>
+      <c r="D382">
+        <v>22</v>
+      </c>
+      <c r="E382">
+        <v>18</v>
+      </c>
+      <c r="F382">
+        <v>21</v>
       </c>
       <c r="G382">
         <v>15</v>
@@ -62432,17 +62440,17 @@
       <c r="B384" t="s">
         <v>777</v>
       </c>
-      <c r="C384" t="s">
-        <v>30</v>
-      </c>
-      <c r="D384" t="s">
-        <v>30</v>
-      </c>
-      <c r="E384" t="s">
-        <v>30</v>
-      </c>
-      <c r="F384" t="s">
-        <v>30</v>
+      <c r="C384">
+        <v>34</v>
+      </c>
+      <c r="D384">
+        <v>30</v>
+      </c>
+      <c r="E384">
+        <v>15</v>
+      </c>
+      <c r="F384">
+        <v>21</v>
       </c>
       <c r="G384">
         <v>1</v>
@@ -62532,17 +62540,17 @@
       <c r="B386" t="s">
         <v>779</v>
       </c>
-      <c r="C386" t="s">
-        <v>30</v>
-      </c>
-      <c r="D386" t="s">
-        <v>30</v>
-      </c>
-      <c r="E386" t="s">
-        <v>30</v>
-      </c>
-      <c r="F386" t="s">
-        <v>30</v>
+      <c r="C386">
+        <v>41</v>
+      </c>
+      <c r="D386">
+        <v>46</v>
+      </c>
+      <c r="E386">
+        <v>29</v>
+      </c>
+      <c r="F386">
+        <v>9</v>
       </c>
       <c r="G386">
         <v>85</v>
@@ -62632,17 +62640,17 @@
       <c r="B388" t="s">
         <v>781</v>
       </c>
-      <c r="C388" t="s">
-        <v>30</v>
-      </c>
-      <c r="D388" t="s">
-        <v>30</v>
-      </c>
-      <c r="E388" t="s">
-        <v>30</v>
-      </c>
-      <c r="F388" t="s">
-        <v>30</v>
+      <c r="C388">
+        <v>41</v>
+      </c>
+      <c r="D388">
+        <v>46</v>
+      </c>
+      <c r="E388">
+        <v>29</v>
+      </c>
+      <c r="F388">
+        <v>9</v>
       </c>
       <c r="G388">
         <v>90</v>
@@ -62682,17 +62690,17 @@
       <c r="B389" t="s">
         <v>772</v>
       </c>
-      <c r="C389" t="s">
-        <v>30</v>
-      </c>
-      <c r="D389" t="s">
-        <v>30</v>
-      </c>
-      <c r="E389" t="s">
-        <v>30</v>
-      </c>
-      <c r="F389" t="s">
-        <v>30</v>
+      <c r="C389">
+        <v>28</v>
+      </c>
+      <c r="D389">
+        <v>29</v>
+      </c>
+      <c r="E389">
+        <v>12</v>
+      </c>
+      <c r="F389">
+        <v>15</v>
       </c>
       <c r="G389">
         <v>2</v>
@@ -62727,27 +62735,27 @@
       </c>
       <c r="Q389">
         <f t="shared" ref="Q389" si="425">((SUM(C389:F389))/4)*1.04</f>
-        <v>0</v>
+        <v>21.84</v>
       </c>
       <c r="R389">
         <f t="shared" ref="R389" si="426">((SUM(C391:F391))/4)*1.04</f>
-        <v>0</v>
+        <v>16.12</v>
       </c>
       <c r="S389">
         <f t="shared" ref="S389" si="427">((SUM(C393:F393))/4)*1.04</f>
-        <v>0</v>
+        <v>26.78</v>
       </c>
       <c r="T389">
         <f t="shared" ref="T389" si="428">((SUM(C395:F395))/4)*1.04</f>
-        <v>0</v>
+        <v>26.26</v>
       </c>
       <c r="U389">
         <f t="shared" ref="U389" si="429">((SUM(C397:F397))/4)*1.04</f>
-        <v>0</v>
+        <v>27.04</v>
       </c>
       <c r="V389">
         <f t="shared" ref="V389" si="430">((SUM(C389:F397))/20)*1.04</f>
-        <v>0</v>
+        <v>23.608000000000001</v>
       </c>
       <c r="W389">
         <f t="shared" ref="W389" si="431">(SUM(G389:H397))/10</f>
@@ -62826,17 +62834,17 @@
       <c r="B391" t="s">
         <v>775</v>
       </c>
-      <c r="C391" t="s">
-        <v>30</v>
-      </c>
-      <c r="D391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E391" t="s">
-        <v>30</v>
-      </c>
-      <c r="F391" t="s">
-        <v>30</v>
+      <c r="C391">
+        <v>22</v>
+      </c>
+      <c r="D391">
+        <v>8</v>
+      </c>
+      <c r="E391">
+        <v>12</v>
+      </c>
+      <c r="F391">
+        <v>20</v>
       </c>
       <c r="G391">
         <v>5</v>
@@ -62926,17 +62934,17 @@
       <c r="B393" t="s">
         <v>777</v>
       </c>
-      <c r="C393" t="s">
-        <v>30</v>
-      </c>
-      <c r="D393" t="s">
-        <v>30</v>
-      </c>
-      <c r="E393" t="s">
-        <v>30</v>
-      </c>
-      <c r="F393" t="s">
-        <v>30</v>
+      <c r="C393">
+        <v>25</v>
+      </c>
+      <c r="D393">
+        <v>22</v>
+      </c>
+      <c r="E393">
+        <v>48</v>
+      </c>
+      <c r="F393">
+        <v>8</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -63026,17 +63034,17 @@
       <c r="B395" t="s">
         <v>779</v>
       </c>
-      <c r="C395" t="s">
-        <v>30</v>
-      </c>
-      <c r="D395" t="s">
-        <v>30</v>
-      </c>
-      <c r="E395" t="s">
-        <v>30</v>
-      </c>
-      <c r="F395" t="s">
-        <v>30</v>
+      <c r="C395">
+        <v>10</v>
+      </c>
+      <c r="D395">
+        <v>12</v>
+      </c>
+      <c r="E395">
+        <v>52</v>
+      </c>
+      <c r="F395">
+        <v>27</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -63126,17 +63134,17 @@
       <c r="B397" t="s">
         <v>781</v>
       </c>
-      <c r="C397" t="s">
-        <v>30</v>
-      </c>
-      <c r="D397" t="s">
-        <v>30</v>
-      </c>
-      <c r="E397" t="s">
-        <v>30</v>
-      </c>
-      <c r="F397" t="s">
-        <v>30</v>
+      <c r="C397">
+        <v>29</v>
+      </c>
+      <c r="D397">
+        <v>12</v>
+      </c>
+      <c r="E397">
+        <v>10</v>
+      </c>
+      <c r="F397">
+        <v>53</v>
       </c>
       <c r="G397">
         <v>2</v>
@@ -63176,17 +63184,17 @@
       <c r="B398" t="s">
         <v>772</v>
       </c>
-      <c r="C398" t="s">
-        <v>30</v>
-      </c>
-      <c r="D398" t="s">
-        <v>30</v>
-      </c>
-      <c r="E398" t="s">
-        <v>30</v>
-      </c>
-      <c r="F398" t="s">
-        <v>30</v>
+      <c r="C398">
+        <v>25</v>
+      </c>
+      <c r="D398">
+        <v>34</v>
+      </c>
+      <c r="E398">
+        <v>8</v>
+      </c>
+      <c r="F398">
+        <v>28</v>
       </c>
       <c r="G398">
         <v>30</v>
@@ -63221,27 +63229,27 @@
       </c>
       <c r="Q398">
         <f t="shared" ref="Q398" si="436">((SUM(C398:F398))/4)*1.04</f>
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="R398">
         <f t="shared" ref="R398" si="437">((SUM(C400:F400))/4)*1.04</f>
-        <v>0</v>
+        <v>33.28</v>
       </c>
       <c r="S398">
         <f t="shared" ref="S398" si="438">((SUM(C402:F402))/4)*1.04</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="T398">
         <f t="shared" ref="T398" si="439">((SUM(C404:F404))/4)*1.04</f>
-        <v>0</v>
+        <v>22.62</v>
       </c>
       <c r="U398">
         <f t="shared" ref="U398" si="440">((SUM(C406:F406))/4)*1.04</f>
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="V398">
         <f t="shared" ref="V398" si="441">((SUM(C398:F406))/20)*1.04</f>
-        <v>0</v>
+        <v>24.855999999999998</v>
       </c>
       <c r="W398">
         <f t="shared" ref="W398" si="442">(SUM(G398:H406))/10</f>
@@ -63320,17 +63328,17 @@
       <c r="B400" t="s">
         <v>775</v>
       </c>
-      <c r="C400" t="s">
-        <v>30</v>
-      </c>
-      <c r="D400" t="s">
-        <v>30</v>
-      </c>
-      <c r="E400" t="s">
-        <v>30</v>
-      </c>
-      <c r="F400" t="s">
-        <v>30</v>
+      <c r="C400">
+        <v>48</v>
+      </c>
+      <c r="D400">
+        <v>31</v>
+      </c>
+      <c r="E400">
+        <v>24</v>
+      </c>
+      <c r="F400">
+        <v>25</v>
       </c>
       <c r="G400">
         <v>5</v>
@@ -63420,17 +63428,17 @@
       <c r="B402" t="s">
         <v>777</v>
       </c>
-      <c r="C402" t="s">
-        <v>30</v>
-      </c>
-      <c r="D402" t="s">
-        <v>30</v>
-      </c>
-      <c r="E402" t="s">
-        <v>30</v>
-      </c>
-      <c r="F402" t="s">
-        <v>30</v>
+      <c r="C402">
+        <v>12</v>
+      </c>
+      <c r="D402">
+        <v>22</v>
+      </c>
+      <c r="E402">
+        <v>26</v>
+      </c>
+      <c r="F402">
+        <v>13</v>
       </c>
       <c r="G402">
         <v>10</v>
@@ -63520,17 +63528,17 @@
       <c r="B404" t="s">
         <v>779</v>
       </c>
-      <c r="C404" t="s">
-        <v>30</v>
-      </c>
-      <c r="D404" t="s">
-        <v>30</v>
-      </c>
-      <c r="E404" t="s">
-        <v>30</v>
-      </c>
-      <c r="F404" t="s">
-        <v>30</v>
+      <c r="C404">
+        <v>15</v>
+      </c>
+      <c r="D404">
+        <v>14</v>
+      </c>
+      <c r="E404">
+        <v>15</v>
+      </c>
+      <c r="F404">
+        <v>43</v>
       </c>
       <c r="G404">
         <v>20</v>
@@ -63620,17 +63628,17 @@
       <c r="B406" t="s">
         <v>781</v>
       </c>
-      <c r="C406" t="s">
-        <v>30</v>
-      </c>
-      <c r="D406" t="s">
-        <v>30</v>
-      </c>
-      <c r="E406" t="s">
-        <v>30</v>
-      </c>
-      <c r="F406" t="s">
-        <v>30</v>
+      <c r="C406">
+        <v>15</v>
+      </c>
+      <c r="D406">
+        <v>29</v>
+      </c>
+      <c r="E406">
+        <v>36</v>
+      </c>
+      <c r="F406">
+        <v>15</v>
       </c>
       <c r="G406">
         <v>40</v>
@@ -63670,17 +63678,17 @@
       <c r="B407" t="s">
         <v>772</v>
       </c>
-      <c r="C407" t="s">
-        <v>30</v>
-      </c>
-      <c r="D407" t="s">
-        <v>30</v>
-      </c>
-      <c r="E407" t="s">
-        <v>30</v>
-      </c>
-      <c r="F407" t="s">
-        <v>30</v>
+      <c r="C407">
+        <v>16</v>
+      </c>
+      <c r="D407">
+        <v>7</v>
+      </c>
+      <c r="E407">
+        <v>6</v>
+      </c>
+      <c r="F407">
+        <v>8</v>
       </c>
       <c r="G407">
         <v>20</v>
@@ -63715,27 +63723,27 @@
       </c>
       <c r="Q407">
         <f t="shared" ref="Q407" si="447">((SUM(C407:F407))/4)*1.04</f>
-        <v>0</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="R407">
         <f t="shared" ref="R407" si="448">((SUM(C409:F409))/4)*1.04</f>
-        <v>0</v>
+        <v>25.48</v>
       </c>
       <c r="S407">
         <f t="shared" ref="S407" si="449">((SUM(C411:F411))/4)*1.04</f>
-        <v>0</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="T407">
         <f t="shared" ref="T407" si="450">((SUM(C413:F413))/4)*1.04</f>
-        <v>0</v>
+        <v>13.26</v>
       </c>
       <c r="U407">
         <f t="shared" ref="U407" si="451">((SUM(C415:F415))/4)*1.04</f>
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="V407">
         <f t="shared" ref="V407" si="452">((SUM(C407:F415))/20)*1.04</f>
-        <v>0</v>
+        <v>13.832000000000001</v>
       </c>
       <c r="W407">
         <f t="shared" ref="W407" si="453">(SUM(G407:H415))/10</f>
@@ -63814,17 +63822,17 @@
       <c r="B409" t="s">
         <v>775</v>
       </c>
-      <c r="C409" t="s">
-        <v>30</v>
-      </c>
-      <c r="D409" t="s">
-        <v>30</v>
-      </c>
-      <c r="E409" t="s">
-        <v>30</v>
-      </c>
-      <c r="F409" t="s">
-        <v>30</v>
+      <c r="C409">
+        <v>20</v>
+      </c>
+      <c r="D409">
+        <v>38</v>
+      </c>
+      <c r="E409">
+        <v>17</v>
+      </c>
+      <c r="F409">
+        <v>23</v>
       </c>
       <c r="G409">
         <v>15</v>
@@ -63914,17 +63922,17 @@
       <c r="B411" t="s">
         <v>777</v>
       </c>
-      <c r="C411" t="s">
-        <v>30</v>
-      </c>
-      <c r="D411" t="s">
-        <v>30</v>
-      </c>
-      <c r="E411" t="s">
-        <v>30</v>
-      </c>
-      <c r="F411" t="s">
-        <v>30</v>
+      <c r="C411">
+        <v>9</v>
+      </c>
+      <c r="D411">
+        <v>14</v>
+      </c>
+      <c r="E411">
+        <v>13</v>
+      </c>
+      <c r="F411">
+        <v>9</v>
       </c>
       <c r="G411">
         <v>1</v>
@@ -64014,17 +64022,17 @@
       <c r="B413" t="s">
         <v>779</v>
       </c>
-      <c r="C413" t="s">
-        <v>30</v>
-      </c>
-      <c r="D413" t="s">
-        <v>30</v>
-      </c>
-      <c r="E413" t="s">
-        <v>30</v>
-      </c>
-      <c r="F413" t="s">
-        <v>30</v>
+      <c r="C413">
+        <v>13</v>
+      </c>
+      <c r="D413">
+        <v>17</v>
+      </c>
+      <c r="E413">
+        <v>12</v>
+      </c>
+      <c r="F413">
+        <v>9</v>
       </c>
       <c r="G413">
         <v>95</v>
@@ -64114,17 +64122,17 @@
       <c r="B415" t="s">
         <v>781</v>
       </c>
-      <c r="C415" t="s">
-        <v>30</v>
-      </c>
-      <c r="D415" t="s">
-        <v>30</v>
-      </c>
-      <c r="E415" t="s">
-        <v>30</v>
-      </c>
-      <c r="F415" t="s">
-        <v>30</v>
+      <c r="C415">
+        <v>8</v>
+      </c>
+      <c r="D415">
+        <v>12</v>
+      </c>
+      <c r="E415">
+        <v>10</v>
+      </c>
+      <c r="F415">
+        <v>5</v>
       </c>
       <c r="G415">
         <v>90</v>
@@ -64204,47 +64212,47 @@
         <v>560</v>
       </c>
       <c r="P416" t="e">
-        <f t="shared" ref="P416" si="457">M416*10</f>
+        <f>M416*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q416">
-        <f t="shared" ref="Q416" si="458">((SUM(C416:F416))/4)*1.04</f>
+        <f t="shared" ref="Q416" si="457">((SUM(C416:F416))/4)*1.04</f>
         <v>37.700000000000003</v>
       </c>
       <c r="R416">
-        <f t="shared" ref="R416" si="459">((SUM(C418:F418))/4)*1.04</f>
+        <f t="shared" ref="R416" si="458">((SUM(C418:F418))/4)*1.04</f>
         <v>18.46</v>
       </c>
       <c r="S416">
-        <f t="shared" ref="S416" si="460">((SUM(C420:F420))/4)*1.04</f>
+        <f t="shared" ref="S416" si="459">((SUM(C420:F420))/4)*1.04</f>
         <v>5.2</v>
       </c>
       <c r="T416">
-        <f t="shared" ref="T416" si="461">((SUM(C422:F422))/4)*1.04</f>
+        <f t="shared" ref="T416" si="460">((SUM(C422:F422))/4)*1.04</f>
         <v>7.8000000000000007</v>
       </c>
       <c r="U416">
-        <f t="shared" ref="U416" si="462">((SUM(C424:F424))/4)*1.04</f>
+        <f t="shared" ref="U416" si="461">((SUM(C424:F424))/4)*1.04</f>
         <v>11.96</v>
       </c>
       <c r="V416">
-        <f t="shared" ref="V416" si="463">((SUM(C416:F424))/20)*1.04</f>
+        <f t="shared" ref="V416" si="462">((SUM(C416:F424))/20)*1.04</f>
         <v>16.224</v>
       </c>
       <c r="W416">
-        <f t="shared" ref="W416" si="464">(SUM(G416:H424))/10</f>
+        <f t="shared" ref="W416" si="463">(SUM(G416:H424))/10</f>
         <v>19.5</v>
       </c>
       <c r="X416">
-        <f t="shared" ref="X416" si="465">(SUM(I416:I424))/5</f>
+        <f t="shared" ref="X416" si="464">(SUM(I416:I424))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y416">
-        <f t="shared" ref="Y416" si="466">SUM(K416:K424)-Z416</f>
+        <f t="shared" ref="Y416" si="465">SUM(K416:K424)-Z416</f>
         <v>36</v>
       </c>
       <c r="Z416">
-        <f t="shared" ref="Z416" si="467">SUM(L416:L424)</f>
+        <f t="shared" ref="Z416" si="466">SUM(L416:L424)</f>
         <v>3</v>
       </c>
       <c r="AA416" t="s">
@@ -64658,17 +64666,17 @@
       <c r="B425" t="s">
         <v>772</v>
       </c>
-      <c r="C425" t="s">
-        <v>30</v>
-      </c>
-      <c r="D425" t="s">
-        <v>30</v>
-      </c>
-      <c r="E425" t="s">
-        <v>30</v>
-      </c>
-      <c r="F425" t="s">
-        <v>30</v>
+      <c r="C425">
+        <v>20</v>
+      </c>
+      <c r="D425">
+        <v>16</v>
+      </c>
+      <c r="E425">
+        <v>20</v>
+      </c>
+      <c r="F425">
+        <v>14</v>
       </c>
       <c r="G425">
         <v>20</v>
@@ -64698,47 +64706,47 @@
         <v>560</v>
       </c>
       <c r="P425" t="e">
-        <f t="shared" ref="P425" si="468">M425*10</f>
+        <f t="shared" ref="P425" si="467">M425*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q425">
-        <f t="shared" ref="Q425" si="469">((SUM(C425:F425))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q425" si="468">((SUM(C425:F425))/4)*1.04</f>
+        <v>18.2</v>
       </c>
       <c r="R425">
-        <f t="shared" ref="R425" si="470">((SUM(C427:F427))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R425" si="469">((SUM(C427:F427))/4)*1.04</f>
+        <v>16.64</v>
       </c>
       <c r="S425">
-        <f t="shared" ref="S425" si="471">((SUM(C429:F429))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S425" si="470">((SUM(C429:F429))/4)*1.04</f>
+        <v>18.2</v>
       </c>
       <c r="T425">
-        <f t="shared" ref="T425" si="472">((SUM(C431:F431))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T425" si="471">((SUM(C431:F431))/4)*1.04</f>
+        <v>24.7</v>
       </c>
       <c r="U425">
-        <f t="shared" ref="U425" si="473">((SUM(C433:F433))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U425" si="472">((SUM(C433:F433))/4)*1.04</f>
+        <v>28.6</v>
       </c>
       <c r="V425">
-        <f t="shared" ref="V425" si="474">((SUM(C425:F433))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V425" si="473">((SUM(C425:F433))/20)*1.04</f>
+        <v>21.268000000000001</v>
       </c>
       <c r="W425">
-        <f t="shared" ref="W425" si="475">(SUM(G425:H433))/10</f>
+        <f t="shared" ref="W425" si="474">(SUM(G425:H433))/10</f>
         <v>26.2</v>
       </c>
       <c r="X425">
-        <f t="shared" ref="X425" si="476">(SUM(I425:I433))/5</f>
+        <f t="shared" ref="X425" si="475">(SUM(I425:I433))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y425">
-        <f t="shared" ref="Y425" si="477">SUM(K425:K433)-Z425</f>
+        <f t="shared" ref="Y425" si="476">SUM(K425:K433)-Z425</f>
         <v>32</v>
       </c>
       <c r="Z425">
-        <f t="shared" ref="Z425" si="478">SUM(L425:L433)</f>
+        <f t="shared" ref="Z425" si="477">SUM(L425:L433)</f>
         <v>1</v>
       </c>
       <c r="AA425" t="s">
@@ -64802,17 +64810,17 @@
       <c r="B427" t="s">
         <v>775</v>
       </c>
-      <c r="C427" t="s">
-        <v>30</v>
-      </c>
-      <c r="D427" t="s">
-        <v>30</v>
-      </c>
-      <c r="E427" t="s">
-        <v>30</v>
-      </c>
-      <c r="F427" t="s">
-        <v>30</v>
+      <c r="C427">
+        <v>26</v>
+      </c>
+      <c r="D427">
+        <v>16</v>
+      </c>
+      <c r="E427">
+        <v>11</v>
+      </c>
+      <c r="F427">
+        <v>11</v>
       </c>
       <c r="G427">
         <v>5</v>
@@ -64902,17 +64910,17 @@
       <c r="B429" t="s">
         <v>777</v>
       </c>
-      <c r="C429" t="s">
-        <v>30</v>
-      </c>
-      <c r="D429" t="s">
-        <v>30</v>
-      </c>
-      <c r="E429" t="s">
-        <v>30</v>
-      </c>
-      <c r="F429" t="s">
-        <v>30</v>
+      <c r="C429">
+        <v>26</v>
+      </c>
+      <c r="D429">
+        <v>23</v>
+      </c>
+      <c r="E429">
+        <v>10</v>
+      </c>
+      <c r="F429">
+        <v>11</v>
       </c>
       <c r="G429">
         <v>40</v>
@@ -65002,17 +65010,17 @@
       <c r="B431" t="s">
         <v>779</v>
       </c>
-      <c r="C431" t="s">
-        <v>30</v>
-      </c>
-      <c r="D431" t="s">
-        <v>30</v>
-      </c>
-      <c r="E431" t="s">
-        <v>30</v>
-      </c>
-      <c r="F431" t="s">
-        <v>30</v>
+      <c r="C431">
+        <v>24</v>
+      </c>
+      <c r="D431">
+        <v>22</v>
+      </c>
+      <c r="E431">
+        <v>28</v>
+      </c>
+      <c r="F431">
+        <v>21</v>
       </c>
       <c r="G431">
         <v>2</v>
@@ -65102,17 +65110,17 @@
       <c r="B433" t="s">
         <v>781</v>
       </c>
-      <c r="C433" t="s">
-        <v>30</v>
-      </c>
-      <c r="D433" t="s">
-        <v>30</v>
-      </c>
-      <c r="E433" t="s">
-        <v>30</v>
-      </c>
-      <c r="F433" t="s">
-        <v>30</v>
+      <c r="C433">
+        <v>53</v>
+      </c>
+      <c r="D433">
+        <v>15</v>
+      </c>
+      <c r="E433">
+        <v>16</v>
+      </c>
+      <c r="F433">
+        <v>26</v>
       </c>
       <c r="G433">
         <v>30</v>
@@ -65152,17 +65160,17 @@
       <c r="B434" t="s">
         <v>772</v>
       </c>
-      <c r="C434" t="s">
-        <v>30</v>
-      </c>
-      <c r="D434" t="s">
-        <v>30</v>
-      </c>
-      <c r="E434" t="s">
-        <v>30</v>
-      </c>
-      <c r="F434" t="s">
-        <v>30</v>
+      <c r="C434">
+        <v>16</v>
+      </c>
+      <c r="D434">
+        <v>10</v>
+      </c>
+      <c r="E434">
+        <v>23</v>
+      </c>
+      <c r="F434">
+        <v>4</v>
       </c>
       <c r="G434">
         <v>20</v>
@@ -65192,47 +65200,47 @@
         <v>240</v>
       </c>
       <c r="P434">
-        <f t="shared" ref="P434" si="479">M434*10</f>
+        <f t="shared" ref="P434" si="478">M434*10</f>
         <v>20</v>
       </c>
       <c r="Q434">
-        <f t="shared" ref="Q434" si="480">((SUM(C434:F434))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q434" si="479">((SUM(C434:F434))/4)*1.04</f>
+        <v>13.780000000000001</v>
       </c>
       <c r="R434">
-        <f t="shared" ref="R434" si="481">((SUM(C436:F436))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R434" si="480">((SUM(C436:F436))/4)*1.04</f>
+        <v>12.74</v>
       </c>
       <c r="S434">
-        <f t="shared" ref="S434" si="482">((SUM(C438:F438))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S434" si="481">((SUM(C438:F438))/4)*1.04</f>
+        <v>11.700000000000001</v>
       </c>
       <c r="T434">
-        <f t="shared" ref="T434" si="483">((SUM(C440:F440))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T434" si="482">((SUM(C440:F440))/4)*1.04</f>
+        <v>30.42</v>
       </c>
       <c r="U434">
-        <f t="shared" ref="U434" si="484">((SUM(C442:F442))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U434" si="483">((SUM(C442:F442))/4)*1.04</f>
+        <v>27.04</v>
       </c>
       <c r="V434">
-        <f t="shared" ref="V434" si="485">((SUM(C434:F442))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V434" si="484">((SUM(C434:F442))/20)*1.04</f>
+        <v>19.135999999999999</v>
       </c>
       <c r="W434">
-        <f t="shared" ref="W434" si="486">(SUM(G434:H442))/10</f>
+        <f t="shared" ref="W434" si="485">(SUM(G434:H442))/10</f>
         <v>10.5</v>
       </c>
       <c r="X434">
-        <f t="shared" ref="X434" si="487">(SUM(I434:I442))/5</f>
+        <f t="shared" ref="X434" si="486">(SUM(I434:I442))/5</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Y434">
-        <f t="shared" ref="Y434" si="488">SUM(K434:K442)-Z434</f>
+        <f t="shared" ref="Y434" si="487">SUM(K434:K442)-Z434</f>
         <v>15</v>
       </c>
       <c r="Z434">
-        <f t="shared" ref="Z434" si="489">SUM(L434:L442)</f>
+        <f t="shared" ref="Z434" si="488">SUM(L434:L442)</f>
         <v>3</v>
       </c>
       <c r="AA434" t="s">
@@ -65296,17 +65304,17 @@
       <c r="B436" t="s">
         <v>775</v>
       </c>
-      <c r="C436" t="s">
-        <v>30</v>
-      </c>
-      <c r="D436" t="s">
-        <v>30</v>
-      </c>
-      <c r="E436" t="s">
-        <v>30</v>
-      </c>
-      <c r="F436" t="s">
-        <v>30</v>
+      <c r="C436">
+        <v>5</v>
+      </c>
+      <c r="D436">
+        <v>20</v>
+      </c>
+      <c r="E436">
+        <v>20</v>
+      </c>
+      <c r="F436">
+        <v>4</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -65396,17 +65404,17 @@
       <c r="B438" t="s">
         <v>777</v>
       </c>
-      <c r="C438" t="s">
-        <v>30</v>
-      </c>
-      <c r="D438" t="s">
-        <v>30</v>
-      </c>
-      <c r="E438" t="s">
-        <v>30</v>
-      </c>
-      <c r="F438" t="s">
-        <v>30</v>
+      <c r="C438">
+        <v>7</v>
+      </c>
+      <c r="D438">
+        <v>21</v>
+      </c>
+      <c r="E438">
+        <v>8</v>
+      </c>
+      <c r="F438">
+        <v>9</v>
       </c>
       <c r="G438">
         <v>5</v>
@@ -65496,17 +65504,17 @@
       <c r="B440" t="s">
         <v>779</v>
       </c>
-      <c r="C440" t="s">
-        <v>30</v>
-      </c>
-      <c r="D440" t="s">
-        <v>30</v>
-      </c>
-      <c r="E440" t="s">
-        <v>30</v>
-      </c>
-      <c r="F440" t="s">
-        <v>30</v>
+      <c r="C440">
+        <v>32</v>
+      </c>
+      <c r="D440">
+        <v>38</v>
+      </c>
+      <c r="E440">
+        <v>9</v>
+      </c>
+      <c r="F440">
+        <v>38</v>
       </c>
       <c r="G440">
         <v>10</v>
@@ -65596,17 +65604,17 @@
       <c r="B442" t="s">
         <v>781</v>
       </c>
-      <c r="C442" t="s">
-        <v>30</v>
-      </c>
-      <c r="D442" t="s">
-        <v>30</v>
-      </c>
-      <c r="E442" t="s">
-        <v>30</v>
-      </c>
-      <c r="F442" t="s">
-        <v>30</v>
+      <c r="C442">
+        <v>19</v>
+      </c>
+      <c r="D442">
+        <v>31</v>
+      </c>
+      <c r="E442">
+        <v>37</v>
+      </c>
+      <c r="F442">
+        <v>17</v>
       </c>
       <c r="G442">
         <v>5</v>
@@ -65646,17 +65654,17 @@
       <c r="B443" t="s">
         <v>772</v>
       </c>
-      <c r="C443" t="s">
-        <v>30</v>
-      </c>
-      <c r="D443" t="s">
-        <v>30</v>
-      </c>
-      <c r="E443" t="s">
-        <v>30</v>
-      </c>
-      <c r="F443" t="s">
-        <v>30</v>
+      <c r="C443">
+        <v>54</v>
+      </c>
+      <c r="D443">
+        <v>33</v>
+      </c>
+      <c r="E443">
+        <v>34</v>
+      </c>
+      <c r="F443">
+        <v>41</v>
       </c>
       <c r="G443">
         <v>100</v>
@@ -65686,47 +65694,47 @@
         <v>240</v>
       </c>
       <c r="P443">
-        <f t="shared" ref="P443" si="490">M443*10</f>
+        <f t="shared" ref="P443" si="489">M443*10</f>
         <v>40</v>
       </c>
       <c r="Q443">
-        <f t="shared" ref="Q443" si="491">((SUM(C443:F443))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q443" si="490">((SUM(C443:F443))/4)*1.04</f>
+        <v>42.120000000000005</v>
       </c>
       <c r="R443">
-        <f t="shared" ref="R443" si="492">((SUM(C445:F445))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R443" si="491">((SUM(C445:F445))/4)*1.04</f>
+        <v>73.320000000000007</v>
       </c>
       <c r="S443">
-        <f t="shared" ref="S443" si="493">((SUM(C447:F447))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S443" si="492">((SUM(C447:F447))/4)*1.04</f>
+        <v>42.38</v>
       </c>
       <c r="T443">
-        <f t="shared" ref="T443" si="494">((SUM(C449:F449))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T443" si="493">((SUM(C449:F449))/4)*1.04</f>
+        <v>51.74</v>
       </c>
       <c r="U443">
-        <f t="shared" ref="U443" si="495">((SUM(C451:F451))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U443" si="494">((SUM(C451:F451))/4)*1.04</f>
+        <v>28.86</v>
       </c>
       <c r="V443">
-        <f t="shared" ref="V443" si="496">((SUM(C443:F451))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V443" si="495">((SUM(C443:F451))/20)*1.04</f>
+        <v>47.684000000000005</v>
       </c>
       <c r="W443">
-        <f t="shared" ref="W443" si="497">(SUM(G443:H451))/10</f>
+        <f t="shared" ref="W443" si="496">(SUM(G443:H451))/10</f>
         <v>37.5</v>
       </c>
       <c r="X443">
-        <f t="shared" ref="X443" si="498">(SUM(I443:I451))/5</f>
+        <f t="shared" ref="X443" si="497">(SUM(I443:I451))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y443">
-        <f t="shared" ref="Y443" si="499">SUM(K443:K451)-Z443</f>
+        <f t="shared" ref="Y443" si="498">SUM(K443:K451)-Z443</f>
         <v>19</v>
       </c>
       <c r="Z443">
-        <f t="shared" ref="Z443" si="500">SUM(L443:L451)</f>
+        <f t="shared" ref="Z443" si="499">SUM(L443:L451)</f>
         <v>1</v>
       </c>
       <c r="AA443" t="s">
@@ -65790,17 +65798,17 @@
       <c r="B445" t="s">
         <v>775</v>
       </c>
-      <c r="C445" t="s">
-        <v>30</v>
-      </c>
-      <c r="D445" t="s">
-        <v>30</v>
-      </c>
-      <c r="E445" t="s">
-        <v>30</v>
-      </c>
-      <c r="F445" t="s">
-        <v>30</v>
+      <c r="C445">
+        <v>46</v>
+      </c>
+      <c r="D445">
+        <v>94</v>
+      </c>
+      <c r="E445">
+        <v>86</v>
+      </c>
+      <c r="F445">
+        <v>56</v>
       </c>
       <c r="G445">
         <v>80</v>
@@ -65890,17 +65898,17 @@
       <c r="B447" t="s">
         <v>777</v>
       </c>
-      <c r="C447" t="s">
-        <v>30</v>
-      </c>
-      <c r="D447" t="s">
-        <v>30</v>
-      </c>
-      <c r="E447" t="s">
-        <v>30</v>
-      </c>
-      <c r="F447" t="s">
-        <v>30</v>
+      <c r="C447">
+        <v>78</v>
+      </c>
+      <c r="D447">
+        <v>22</v>
+      </c>
+      <c r="E447">
+        <v>47</v>
+      </c>
+      <c r="F447">
+        <v>16</v>
       </c>
       <c r="G447">
         <v>30</v>
@@ -65990,17 +65998,17 @@
       <c r="B449" t="s">
         <v>779</v>
       </c>
-      <c r="C449" t="s">
-        <v>30</v>
-      </c>
-      <c r="D449" t="s">
-        <v>30</v>
-      </c>
-      <c r="E449" t="s">
-        <v>30</v>
-      </c>
-      <c r="F449" t="s">
-        <v>30</v>
+      <c r="C449">
+        <v>61</v>
+      </c>
+      <c r="D449">
+        <v>32</v>
+      </c>
+      <c r="E449">
+        <v>19</v>
+      </c>
+      <c r="F449">
+        <v>87</v>
       </c>
       <c r="G449">
         <v>0</v>
@@ -66090,17 +66098,17 @@
       <c r="B451" t="s">
         <v>781</v>
       </c>
-      <c r="C451" t="s">
-        <v>30</v>
-      </c>
-      <c r="D451" t="s">
-        <v>30</v>
-      </c>
-      <c r="E451" t="s">
-        <v>30</v>
-      </c>
-      <c r="F451" t="s">
-        <v>30</v>
+      <c r="C451">
+        <v>43</v>
+      </c>
+      <c r="D451">
+        <v>5</v>
+      </c>
+      <c r="E451">
+        <v>44</v>
+      </c>
+      <c r="F451">
+        <v>19</v>
       </c>
       <c r="G451">
         <v>10</v>
@@ -66140,17 +66148,17 @@
       <c r="B452" t="s">
         <v>772</v>
       </c>
-      <c r="C452" t="s">
-        <v>30</v>
-      </c>
-      <c r="D452" t="s">
-        <v>30</v>
-      </c>
-      <c r="E452" t="s">
-        <v>30</v>
-      </c>
-      <c r="F452" t="s">
-        <v>30</v>
+      <c r="C452">
+        <v>12</v>
+      </c>
+      <c r="D452">
+        <v>36</v>
+      </c>
+      <c r="E452">
+        <v>33</v>
+      </c>
+      <c r="F452">
+        <v>5</v>
       </c>
       <c r="G452">
         <v>5</v>
@@ -66180,47 +66188,47 @@
         <v>240</v>
       </c>
       <c r="P452">
-        <f t="shared" ref="P452" si="501">M452*10</f>
+        <f t="shared" ref="P452" si="500">M452*10</f>
         <v>40</v>
       </c>
       <c r="Q452">
-        <f t="shared" ref="Q452" si="502">((SUM(C452:F452))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q452" si="501">((SUM(C452:F452))/4)*1.04</f>
+        <v>22.36</v>
       </c>
       <c r="R452">
-        <f t="shared" ref="R452" si="503">((SUM(C454:F454))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R452" si="502">((SUM(C454:F454))/4)*1.04</f>
+        <v>30.42</v>
       </c>
       <c r="S452">
-        <f t="shared" ref="S452" si="504">((SUM(C456:F456))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S452" si="503">((SUM(C456:F456))/4)*1.04</f>
+        <v>13.52</v>
       </c>
       <c r="T452">
-        <f t="shared" ref="T452" si="505">((SUM(C458:F458))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T452" si="504">((SUM(C458:F458))/4)*1.04</f>
+        <v>9.36</v>
       </c>
       <c r="U452">
-        <f t="shared" ref="U452" si="506">((SUM(C460:F460))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U452" si="505">((SUM(C460:F460))/4)*1.04</f>
+        <v>8.32</v>
       </c>
       <c r="V452">
-        <f t="shared" ref="V452" si="507">((SUM(C452:F460))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V452" si="506">((SUM(C452:F460))/20)*1.04</f>
+        <v>16.795999999999999</v>
       </c>
       <c r="W452">
-        <f t="shared" ref="W452" si="508">(SUM(G452:H460))/10</f>
+        <f t="shared" ref="W452" si="507">(SUM(G452:H460))/10</f>
         <v>14</v>
       </c>
       <c r="X452">
-        <f t="shared" ref="X452" si="509">(SUM(I452:I460))/5</f>
+        <f t="shared" ref="X452" si="508">(SUM(I452:I460))/5</f>
         <v>3.2</v>
       </c>
       <c r="Y452">
-        <f t="shared" ref="Y452" si="510">SUM(K452:K460)-Z452</f>
+        <f t="shared" ref="Y452" si="509">SUM(K452:K460)-Z452</f>
         <v>16</v>
       </c>
       <c r="Z452">
-        <f t="shared" ref="Z452" si="511">SUM(L452:L460)</f>
+        <f t="shared" ref="Z452" si="510">SUM(L452:L460)</f>
         <v>4</v>
       </c>
       <c r="AA452" t="s">
@@ -66284,17 +66292,17 @@
       <c r="B454" t="s">
         <v>775</v>
       </c>
-      <c r="C454" t="s">
-        <v>30</v>
-      </c>
-      <c r="D454" t="s">
-        <v>30</v>
-      </c>
-      <c r="E454" t="s">
-        <v>30</v>
-      </c>
-      <c r="F454" t="s">
-        <v>30</v>
+      <c r="C454">
+        <v>17</v>
+      </c>
+      <c r="D454">
+        <v>44</v>
+      </c>
+      <c r="E454">
+        <v>35</v>
+      </c>
+      <c r="F454">
+        <v>21</v>
       </c>
       <c r="G454">
         <v>40</v>
@@ -66384,17 +66392,17 @@
       <c r="B456" t="s">
         <v>777</v>
       </c>
-      <c r="C456" t="s">
-        <v>30</v>
-      </c>
-      <c r="D456" t="s">
-        <v>30</v>
-      </c>
-      <c r="E456" t="s">
-        <v>30</v>
-      </c>
-      <c r="F456" t="s">
-        <v>30</v>
+      <c r="C456">
+        <v>15</v>
+      </c>
+      <c r="D456">
+        <v>24</v>
+      </c>
+      <c r="E456">
+        <v>4</v>
+      </c>
+      <c r="F456">
+        <v>9</v>
       </c>
       <c r="G456">
         <v>20</v>
@@ -66484,17 +66492,17 @@
       <c r="B458" t="s">
         <v>779</v>
       </c>
-      <c r="C458" t="s">
-        <v>30</v>
-      </c>
-      <c r="D458" t="s">
-        <v>30</v>
-      </c>
-      <c r="E458" t="s">
-        <v>30</v>
-      </c>
-      <c r="F458" t="s">
-        <v>30</v>
+      <c r="C458">
+        <v>9</v>
+      </c>
+      <c r="D458">
+        <v>8</v>
+      </c>
+      <c r="E458">
+        <v>15</v>
+      </c>
+      <c r="F458">
+        <v>4</v>
       </c>
       <c r="G458">
         <v>5</v>
@@ -66584,17 +66592,17 @@
       <c r="B460" t="s">
         <v>781</v>
       </c>
-      <c r="C460" t="s">
-        <v>30</v>
-      </c>
-      <c r="D460" t="s">
-        <v>30</v>
-      </c>
-      <c r="E460" t="s">
-        <v>30</v>
-      </c>
-      <c r="F460" t="s">
-        <v>30</v>
+      <c r="C460">
+        <v>10</v>
+      </c>
+      <c r="D460">
+        <v>7</v>
+      </c>
+      <c r="E460">
+        <v>9</v>
+      </c>
+      <c r="F460">
+        <v>6</v>
       </c>
       <c r="G460">
         <v>0</v>
@@ -66634,17 +66642,17 @@
       <c r="B461" t="s">
         <v>772</v>
       </c>
-      <c r="C461" t="s">
-        <v>30</v>
-      </c>
-      <c r="D461" t="s">
-        <v>30</v>
-      </c>
-      <c r="E461" t="s">
-        <v>30</v>
-      </c>
-      <c r="F461" t="s">
-        <v>30</v>
+      <c r="C461">
+        <v>26</v>
+      </c>
+      <c r="D461">
+        <v>17</v>
+      </c>
+      <c r="E461">
+        <v>20</v>
+      </c>
+      <c r="F461">
+        <v>24</v>
       </c>
       <c r="G461">
         <v>40</v>
@@ -66674,47 +66682,47 @@
         <v>240</v>
       </c>
       <c r="P461" t="e">
-        <f t="shared" ref="P461" si="512">M461*10</f>
+        <f t="shared" ref="P461" si="511">M461*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q461">
-        <f t="shared" ref="Q461" si="513">((SUM(C461:F461))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q461" si="512">((SUM(C461:F461))/4)*1.04</f>
+        <v>22.62</v>
       </c>
       <c r="R461">
-        <f t="shared" ref="R461" si="514">((SUM(C463:F463))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R461" si="513">((SUM(C463:F463))/4)*1.04</f>
+        <v>20.02</v>
       </c>
       <c r="S461">
-        <f t="shared" ref="S461" si="515">((SUM(C465:F465))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S461" si="514">((SUM(C465:F465))/4)*1.04</f>
+        <v>27.560000000000002</v>
       </c>
       <c r="T461">
-        <f t="shared" ref="T461" si="516">((SUM(C467:F467))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T461" si="515">((SUM(C467:F467))/4)*1.04</f>
+        <v>24.96</v>
       </c>
       <c r="U461">
-        <f t="shared" ref="U461" si="517">((SUM(C469:F469))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U461" si="516">((SUM(C469:F469))/4)*1.04</f>
+        <v>34.06</v>
       </c>
       <c r="V461">
-        <f t="shared" ref="V461" si="518">((SUM(C461:F469))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V461" si="517">((SUM(C461:F469))/20)*1.04</f>
+        <v>25.844000000000001</v>
       </c>
       <c r="W461">
-        <f t="shared" ref="W461" si="519">(SUM(G461:H469))/10</f>
+        <f t="shared" ref="W461" si="518">(SUM(G461:H469))/10</f>
         <v>19</v>
       </c>
       <c r="X461">
-        <f t="shared" ref="X461" si="520">(SUM(I461:I469))/5</f>
+        <f t="shared" ref="X461" si="519">(SUM(I461:I469))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y461">
-        <f t="shared" ref="Y461" si="521">SUM(K461:K469)-Z461</f>
+        <f t="shared" ref="Y461" si="520">SUM(K461:K469)-Z461</f>
         <v>33</v>
       </c>
       <c r="Z461">
-        <f t="shared" ref="Z461" si="522">SUM(L461:L469)</f>
+        <f t="shared" ref="Z461" si="521">SUM(L461:L469)</f>
         <v>3</v>
       </c>
       <c r="AA461" t="s">
@@ -66778,17 +66786,17 @@
       <c r="B463" t="s">
         <v>775</v>
       </c>
-      <c r="C463" t="s">
-        <v>30</v>
-      </c>
-      <c r="D463" t="s">
-        <v>30</v>
-      </c>
-      <c r="E463" t="s">
-        <v>30</v>
-      </c>
-      <c r="F463" t="s">
-        <v>30</v>
+      <c r="C463">
+        <v>19</v>
+      </c>
+      <c r="D463">
+        <v>21</v>
+      </c>
+      <c r="E463">
+        <v>15</v>
+      </c>
+      <c r="F463">
+        <v>22</v>
       </c>
       <c r="G463">
         <v>10</v>
@@ -66878,17 +66886,17 @@
       <c r="B465" t="s">
         <v>777</v>
       </c>
-      <c r="C465" t="s">
-        <v>30</v>
-      </c>
-      <c r="D465" t="s">
-        <v>30</v>
-      </c>
-      <c r="E465" t="s">
-        <v>30</v>
-      </c>
-      <c r="F465" t="s">
-        <v>30</v>
+      <c r="C465">
+        <v>33</v>
+      </c>
+      <c r="D465">
+        <v>38</v>
+      </c>
+      <c r="E465">
+        <v>20</v>
+      </c>
+      <c r="F465">
+        <v>15</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -66978,17 +66986,17 @@
       <c r="B467" t="s">
         <v>779</v>
       </c>
-      <c r="C467" t="s">
-        <v>30</v>
-      </c>
-      <c r="D467" t="s">
-        <v>30</v>
-      </c>
-      <c r="E467" t="s">
-        <v>30</v>
-      </c>
-      <c r="F467" t="s">
-        <v>30</v>
+      <c r="C467">
+        <v>17</v>
+      </c>
+      <c r="D467">
+        <v>27</v>
+      </c>
+      <c r="E467">
+        <v>32</v>
+      </c>
+      <c r="F467">
+        <v>20</v>
       </c>
       <c r="G467">
         <v>10</v>
@@ -67078,17 +67086,17 @@
       <c r="B469" t="s">
         <v>781</v>
       </c>
-      <c r="C469" t="s">
-        <v>30</v>
-      </c>
-      <c r="D469" t="s">
-        <v>30</v>
-      </c>
-      <c r="E469" t="s">
-        <v>30</v>
-      </c>
-      <c r="F469" t="s">
-        <v>30</v>
+      <c r="C469">
+        <v>18</v>
+      </c>
+      <c r="D469">
+        <v>40</v>
+      </c>
+      <c r="E469">
+        <v>35</v>
+      </c>
+      <c r="F469">
+        <v>38</v>
       </c>
       <c r="G469">
         <v>80</v>
@@ -67128,17 +67136,17 @@
       <c r="B470" t="s">
         <v>772</v>
       </c>
-      <c r="C470" t="s">
-        <v>30</v>
-      </c>
-      <c r="D470" t="s">
-        <v>30</v>
-      </c>
-      <c r="E470" t="s">
-        <v>30</v>
-      </c>
-      <c r="F470" t="s">
-        <v>30</v>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>10</v>
+      </c>
+      <c r="E470">
+        <v>26</v>
+      </c>
+      <c r="F470">
+        <v>9</v>
       </c>
       <c r="G470">
         <v>90</v>
@@ -67168,47 +67176,47 @@
         <v>240</v>
       </c>
       <c r="P470" t="e">
-        <f t="shared" ref="P470" si="523">M470*10</f>
+        <f t="shared" ref="P470" si="522">M470*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q470">
-        <f t="shared" ref="Q470" si="524">((SUM(C470:F470))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q470" si="523">((SUM(C470:F470))/4)*1.04</f>
+        <v>11.700000000000001</v>
       </c>
       <c r="R470">
-        <f t="shared" ref="R470" si="525">((SUM(C472:F472))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R470" si="524">((SUM(C472:F472))/4)*1.04</f>
+        <v>15.08</v>
       </c>
       <c r="S470">
-        <f t="shared" ref="S470" si="526">((SUM(C474:F474))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S470" si="525">((SUM(C474:F474))/4)*1.04</f>
+        <v>14.82</v>
       </c>
       <c r="T470">
-        <f t="shared" ref="T470" si="527">((SUM(C476:F476))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T470" si="526">((SUM(C476:F476))/4)*1.04</f>
+        <v>18.72</v>
       </c>
       <c r="U470">
-        <f t="shared" ref="U470" si="528">((SUM(C478:F478))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U470" si="527">((SUM(C478:F478))/4)*1.04</f>
+        <v>18.46</v>
       </c>
       <c r="V470">
-        <f t="shared" ref="V470" si="529">((SUM(C470:F478))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V470" si="528">((SUM(C470:F478))/20)*1.04</f>
+        <v>15.756</v>
       </c>
       <c r="W470">
-        <f t="shared" ref="W470" si="530">(SUM(G470:H478))/10</f>
+        <f t="shared" ref="W470" si="529">(SUM(G470:H478))/10</f>
         <v>31</v>
       </c>
       <c r="X470">
-        <f t="shared" ref="X470" si="531">(SUM(I470:I478))/5</f>
+        <f t="shared" ref="X470" si="530">(SUM(I470:I478))/5</f>
         <v>3.4</v>
       </c>
       <c r="Y470">
-        <f t="shared" ref="Y470" si="532">SUM(K470:K478)-Z470</f>
+        <f t="shared" ref="Y470" si="531">SUM(K470:K478)-Z470</f>
         <v>42</v>
       </c>
       <c r="Z470">
-        <f t="shared" ref="Z470" si="533">SUM(L470:L478)</f>
+        <f t="shared" ref="Z470" si="532">SUM(L470:L478)</f>
         <v>4</v>
       </c>
       <c r="AA470" t="s">
@@ -67272,17 +67280,17 @@
       <c r="B472" t="s">
         <v>775</v>
       </c>
-      <c r="C472" t="s">
-        <v>30</v>
-      </c>
-      <c r="D472" t="s">
-        <v>30</v>
-      </c>
-      <c r="E472" t="s">
-        <v>30</v>
-      </c>
-      <c r="F472" t="s">
-        <v>30</v>
+      <c r="C472">
+        <v>8</v>
+      </c>
+      <c r="D472">
+        <v>11</v>
+      </c>
+      <c r="E472">
+        <v>20</v>
+      </c>
+      <c r="F472">
+        <v>19</v>
       </c>
       <c r="G472">
         <v>20</v>
@@ -67372,17 +67380,17 @@
       <c r="B474" t="s">
         <v>777</v>
       </c>
-      <c r="C474" t="s">
-        <v>30</v>
-      </c>
-      <c r="D474" t="s">
-        <v>30</v>
-      </c>
-      <c r="E474" t="s">
-        <v>30</v>
-      </c>
-      <c r="F474" t="s">
-        <v>30</v>
+      <c r="C474">
+        <v>18</v>
+      </c>
+      <c r="D474">
+        <v>15</v>
+      </c>
+      <c r="E474">
+        <v>20</v>
+      </c>
+      <c r="F474">
+        <v>4</v>
       </c>
       <c r="G474">
         <v>20</v>
@@ -67472,17 +67480,17 @@
       <c r="B476" t="s">
         <v>779</v>
       </c>
-      <c r="C476" t="s">
-        <v>30</v>
-      </c>
-      <c r="D476" t="s">
-        <v>30</v>
-      </c>
-      <c r="E476" t="s">
-        <v>30</v>
-      </c>
-      <c r="F476" t="s">
-        <v>30</v>
+      <c r="C476">
+        <v>21</v>
+      </c>
+      <c r="D476">
+        <v>13</v>
+      </c>
+      <c r="E476">
+        <v>11</v>
+      </c>
+      <c r="F476">
+        <v>27</v>
       </c>
       <c r="G476">
         <v>40</v>
@@ -67572,17 +67580,17 @@
       <c r="B478" t="s">
         <v>781</v>
       </c>
-      <c r="C478" t="s">
-        <v>30</v>
-      </c>
-      <c r="D478" t="s">
-        <v>30</v>
-      </c>
-      <c r="E478" t="s">
-        <v>30</v>
-      </c>
-      <c r="F478" t="s">
-        <v>30</v>
+      <c r="C478">
+        <v>14</v>
+      </c>
+      <c r="D478">
+        <v>22</v>
+      </c>
+      <c r="E478">
+        <v>19</v>
+      </c>
+      <c r="F478">
+        <v>16</v>
       </c>
       <c r="G478">
         <v>40</v>
@@ -67622,17 +67630,17 @@
       <c r="B479" t="s">
         <v>772</v>
       </c>
-      <c r="C479" t="s">
-        <v>30</v>
-      </c>
-      <c r="D479" t="s">
-        <v>30</v>
-      </c>
-      <c r="E479" t="s">
-        <v>30</v>
-      </c>
-      <c r="F479" t="s">
-        <v>30</v>
+      <c r="C479">
+        <v>15</v>
+      </c>
+      <c r="D479">
+        <v>22</v>
+      </c>
+      <c r="E479">
+        <v>26</v>
+      </c>
+      <c r="F479">
+        <v>18</v>
       </c>
       <c r="G479">
         <v>10</v>
@@ -67662,47 +67670,47 @@
         <v>240</v>
       </c>
       <c r="P479" t="e">
-        <f t="shared" ref="P479" si="534">M479*10</f>
+        <f t="shared" ref="P479" si="533">M479*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q479">
-        <f t="shared" ref="Q479" si="535">((SUM(C479:F479))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q479" si="534">((SUM(C479:F479))/4)*1.04</f>
+        <v>21.060000000000002</v>
       </c>
       <c r="R479">
-        <f t="shared" ref="R479" si="536">((SUM(C481:F481))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R479" si="535">((SUM(C481:F481))/4)*1.04</f>
+        <v>17.16</v>
       </c>
       <c r="S479">
-        <f t="shared" ref="S479" si="537">((SUM(C483:F483))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S479" si="536">((SUM(C483:F483))/4)*1.04</f>
+        <v>38.22</v>
       </c>
       <c r="T479">
-        <f t="shared" ref="T479" si="538">((SUM(C485:F485))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T479" si="537">((SUM(C485:F485))/4)*1.04</f>
+        <v>38.22</v>
       </c>
       <c r="U479">
-        <f t="shared" ref="U479" si="539">((SUM(C487:F487))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U479" si="538">((SUM(C487:F487))/4)*1.04</f>
+        <v>34.840000000000003</v>
       </c>
       <c r="V479">
-        <f t="shared" ref="V479" si="540">((SUM(C479:F487))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V479" si="539">((SUM(C479:F487))/20)*1.04</f>
+        <v>29.900000000000002</v>
       </c>
       <c r="W479">
-        <f t="shared" ref="W479" si="541">(SUM(G479:H487))/10</f>
+        <f t="shared" ref="W479" si="540">(SUM(G479:H487))/10</f>
         <v>7</v>
       </c>
       <c r="X479">
-        <f t="shared" ref="X479" si="542">(SUM(I479:I487))/5</f>
+        <f t="shared" ref="X479" si="541">(SUM(I479:I487))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y479">
-        <f t="shared" ref="Y479" si="543">SUM(K479:K487)-Z479</f>
+        <f t="shared" ref="Y479" si="542">SUM(K479:K487)-Z479</f>
         <v>26</v>
       </c>
       <c r="Z479">
-        <f t="shared" ref="Z479" si="544">SUM(L479:L487)</f>
+        <f t="shared" ref="Z479" si="543">SUM(L479:L487)</f>
         <v>2</v>
       </c>
       <c r="AA479" t="s">
@@ -67766,17 +67774,17 @@
       <c r="B481" t="s">
         <v>775</v>
       </c>
-      <c r="C481" t="s">
-        <v>30</v>
-      </c>
-      <c r="D481" t="s">
-        <v>30</v>
-      </c>
-      <c r="E481" t="s">
-        <v>30</v>
-      </c>
-      <c r="F481" t="s">
-        <v>30</v>
+      <c r="C481">
+        <v>16</v>
+      </c>
+      <c r="D481">
+        <v>28</v>
+      </c>
+      <c r="E481">
+        <v>19</v>
+      </c>
+      <c r="F481">
+        <v>3</v>
       </c>
       <c r="G481">
         <v>20</v>
@@ -67866,16 +67874,16 @@
       <c r="B483" t="s">
         <v>777</v>
       </c>
-      <c r="C483" t="s">
-        <v>30</v>
-      </c>
-      <c r="D483" t="s">
-        <v>30</v>
-      </c>
-      <c r="E483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F483" t="s">
+      <c r="C483">
+        <v>27</v>
+      </c>
+      <c r="D483">
+        <v>49</v>
+      </c>
+      <c r="E483">
+        <v>41</v>
+      </c>
+      <c r="F483">
         <v>30</v>
       </c>
       <c r="G483">
@@ -67966,16 +67974,16 @@
       <c r="B485" t="s">
         <v>779</v>
       </c>
-      <c r="C485" t="s">
-        <v>30</v>
-      </c>
-      <c r="D485" t="s">
-        <v>30</v>
-      </c>
-      <c r="E485" t="s">
-        <v>30</v>
-      </c>
-      <c r="F485" t="s">
+      <c r="C485">
+        <v>27</v>
+      </c>
+      <c r="D485">
+        <v>49</v>
+      </c>
+      <c r="E485">
+        <v>41</v>
+      </c>
+      <c r="F485">
         <v>30</v>
       </c>
       <c r="G485">
@@ -68066,17 +68074,17 @@
       <c r="B487" t="s">
         <v>781</v>
       </c>
-      <c r="C487" t="s">
-        <v>30</v>
-      </c>
-      <c r="D487" t="s">
-        <v>30</v>
-      </c>
-      <c r="E487" t="s">
-        <v>30</v>
-      </c>
-      <c r="F487" t="s">
-        <v>30</v>
+      <c r="C487">
+        <v>23</v>
+      </c>
+      <c r="D487">
+        <v>25</v>
+      </c>
+      <c r="E487">
+        <v>40</v>
+      </c>
+      <c r="F487">
+        <v>46</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -68116,17 +68124,17 @@
       <c r="B488" t="s">
         <v>772</v>
       </c>
-      <c r="C488" t="s">
-        <v>30</v>
-      </c>
-      <c r="D488" t="s">
-        <v>30</v>
-      </c>
-      <c r="E488" t="s">
-        <v>30</v>
-      </c>
-      <c r="F488" t="s">
-        <v>30</v>
+      <c r="C488">
+        <v>23</v>
+      </c>
+      <c r="D488">
+        <v>34</v>
+      </c>
+      <c r="E488">
+        <v>17</v>
+      </c>
+      <c r="F488">
+        <v>19</v>
       </c>
       <c r="G488">
         <v>80</v>
@@ -68156,47 +68164,47 @@
         <v>29</v>
       </c>
       <c r="P488">
-        <f t="shared" ref="P488" si="545">M488*10</f>
+        <f t="shared" ref="P488" si="544">M488*10</f>
         <v>80</v>
       </c>
       <c r="Q488">
-        <f t="shared" ref="Q488" si="546">((SUM(C488:F488))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q488" si="545">((SUM(C488:F488))/4)*1.04</f>
+        <v>24.18</v>
       </c>
       <c r="R488">
-        <f t="shared" ref="R488" si="547">((SUM(C490:F490))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R488" si="546">((SUM(C490:F490))/4)*1.04</f>
+        <v>25.48</v>
       </c>
       <c r="S488">
-        <f t="shared" ref="S488" si="548">((SUM(C492:F492))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S488" si="547">((SUM(C492:F492))/4)*1.04</f>
+        <v>20.54</v>
       </c>
       <c r="T488">
-        <f t="shared" ref="T488" si="549">((SUM(C494:F494))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T488" si="548">((SUM(C494:F494))/4)*1.04</f>
+        <v>24.18</v>
       </c>
       <c r="U488">
-        <f t="shared" ref="U488" si="550">((SUM(C496:F496))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U488" si="549">((SUM(C496:F496))/4)*1.04</f>
+        <v>46.54</v>
       </c>
       <c r="V488">
-        <f t="shared" ref="V488" si="551">((SUM(C488:F496))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V488" si="550">((SUM(C488:F496))/20)*1.04</f>
+        <v>28.184000000000001</v>
       </c>
       <c r="W488">
-        <f t="shared" ref="W488" si="552">(SUM(G488:H496))/10</f>
+        <f t="shared" ref="W488" si="551">(SUM(G488:H496))/10</f>
         <v>43.5</v>
       </c>
       <c r="X488">
-        <f t="shared" ref="X488" si="553">(SUM(I488:I496))/5</f>
+        <f t="shared" ref="X488" si="552">(SUM(I488:I496))/5</f>
         <v>2</v>
       </c>
       <c r="Y488">
-        <f t="shared" ref="Y488" si="554">SUM(K488:K496)-Z488</f>
+        <f t="shared" ref="Y488" si="553">SUM(K488:K496)-Z488</f>
         <v>10</v>
       </c>
       <c r="Z488">
-        <f t="shared" ref="Z488" si="555">SUM(L488:L496)</f>
+        <f t="shared" ref="Z488" si="554">SUM(L488:L496)</f>
         <v>8</v>
       </c>
       <c r="AA488" t="s">
@@ -68260,17 +68268,17 @@
       <c r="B490" t="s">
         <v>775</v>
       </c>
-      <c r="C490" t="s">
-        <v>30</v>
-      </c>
-      <c r="D490" t="s">
-        <v>30</v>
-      </c>
-      <c r="E490" t="s">
-        <v>30</v>
-      </c>
-      <c r="F490" t="s">
-        <v>30</v>
+      <c r="C490">
+        <v>21</v>
+      </c>
+      <c r="D490">
+        <v>30</v>
+      </c>
+      <c r="E490">
+        <v>22</v>
+      </c>
+      <c r="F490">
+        <v>25</v>
       </c>
       <c r="G490">
         <v>50</v>
@@ -68360,17 +68368,17 @@
       <c r="B492" t="s">
         <v>777</v>
       </c>
-      <c r="C492" t="s">
-        <v>30</v>
-      </c>
-      <c r="D492" t="s">
-        <v>30</v>
-      </c>
-      <c r="E492" t="s">
-        <v>30</v>
-      </c>
-      <c r="F492" t="s">
-        <v>30</v>
+      <c r="C492">
+        <v>21</v>
+      </c>
+      <c r="D492">
+        <v>22</v>
+      </c>
+      <c r="E492">
+        <v>21</v>
+      </c>
+      <c r="F492">
+        <v>15</v>
       </c>
       <c r="G492">
         <v>25</v>
@@ -68460,17 +68468,17 @@
       <c r="B494" t="s">
         <v>779</v>
       </c>
-      <c r="C494" t="s">
-        <v>30</v>
-      </c>
-      <c r="D494" t="s">
-        <v>30</v>
-      </c>
-      <c r="E494" t="s">
-        <v>30</v>
-      </c>
-      <c r="F494" t="s">
-        <v>30</v>
+      <c r="C494">
+        <v>26</v>
+      </c>
+      <c r="D494">
+        <v>17</v>
+      </c>
+      <c r="E494">
+        <v>29</v>
+      </c>
+      <c r="F494">
+        <v>21</v>
       </c>
       <c r="G494">
         <v>30</v>
@@ -68560,17 +68568,17 @@
       <c r="B496" t="s">
         <v>781</v>
       </c>
-      <c r="C496" t="s">
-        <v>30</v>
-      </c>
-      <c r="D496" t="s">
-        <v>30</v>
-      </c>
-      <c r="E496" t="s">
-        <v>30</v>
-      </c>
-      <c r="F496" t="s">
-        <v>30</v>
+      <c r="C496">
+        <v>14</v>
+      </c>
+      <c r="D496">
+        <v>69</v>
+      </c>
+      <c r="E496">
+        <v>62</v>
+      </c>
+      <c r="F496">
+        <v>34</v>
       </c>
       <c r="G496">
         <v>80</v>
@@ -68610,17 +68618,17 @@
       <c r="B497" t="s">
         <v>772</v>
       </c>
-      <c r="C497" t="s">
-        <v>30</v>
-      </c>
-      <c r="D497" t="s">
-        <v>30</v>
-      </c>
-      <c r="E497" t="s">
-        <v>30</v>
-      </c>
-      <c r="F497" t="s">
-        <v>30</v>
+      <c r="C497">
+        <v>31</v>
+      </c>
+      <c r="D497">
+        <v>32</v>
+      </c>
+      <c r="E497">
+        <v>24</v>
+      </c>
+      <c r="F497">
+        <v>22</v>
       </c>
       <c r="G497">
         <v>95</v>
@@ -68650,47 +68658,47 @@
         <v>43</v>
       </c>
       <c r="P497">
-        <f t="shared" ref="P497" si="556">M497*10</f>
+        <f t="shared" ref="P497" si="555">M497*10</f>
         <v>50</v>
       </c>
       <c r="Q497">
-        <f t="shared" ref="Q497" si="557">((SUM(C497:F497))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q497" si="556">((SUM(C497:F497))/4)*1.04</f>
+        <v>28.34</v>
       </c>
       <c r="R497">
-        <f t="shared" ref="R497" si="558">((SUM(C499:F499))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R497" si="557">((SUM(C499:F499))/4)*1.04</f>
+        <v>41.08</v>
       </c>
       <c r="S497">
-        <f t="shared" ref="S497" si="559">((SUM(C501:F501))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S497" si="558">((SUM(C501:F501))/4)*1.04</f>
+        <v>34.840000000000003</v>
       </c>
       <c r="T497">
-        <f t="shared" ref="T497" si="560">((SUM(C503:F503))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T497" si="559">((SUM(C503:F503))/4)*1.04</f>
+        <v>30.68</v>
       </c>
       <c r="U497">
-        <f t="shared" ref="U497" si="561">((SUM(C505:F505))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U497" si="560">((SUM(C505:F505))/4)*1.04</f>
+        <v>27.82</v>
       </c>
       <c r="V497">
-        <f t="shared" ref="V497" si="562">((SUM(C497:F505))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V497" si="561">((SUM(C497:F505))/20)*1.04</f>
+        <v>32.552</v>
       </c>
       <c r="W497">
-        <f t="shared" ref="W497" si="563">(SUM(G497:H505))/10</f>
+        <f t="shared" ref="W497" si="562">(SUM(G497:H505))/10</f>
         <v>81</v>
       </c>
       <c r="X497">
-        <f t="shared" ref="X497" si="564">(SUM(I497:I505))/5</f>
+        <f t="shared" ref="X497" si="563">(SUM(I497:I505))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y497">
-        <f t="shared" ref="Y497" si="565">SUM(K497:K505)-Z497</f>
+        <f t="shared" ref="Y497" si="564">SUM(K497:K505)-Z497</f>
         <v>30</v>
       </c>
       <c r="Z497">
-        <f t="shared" ref="Z497" si="566">SUM(L497:L505)</f>
+        <f t="shared" ref="Z497" si="565">SUM(L497:L505)</f>
         <v>0</v>
       </c>
       <c r="AA497" t="s">
@@ -68754,17 +68762,17 @@
       <c r="B499" t="s">
         <v>775</v>
       </c>
-      <c r="C499" t="s">
-        <v>30</v>
-      </c>
-      <c r="D499" t="s">
-        <v>30</v>
-      </c>
-      <c r="E499" t="s">
-        <v>30</v>
-      </c>
-      <c r="F499" t="s">
-        <v>30</v>
+      <c r="C499">
+        <v>36</v>
+      </c>
+      <c r="D499">
+        <v>47</v>
+      </c>
+      <c r="E499">
+        <v>39</v>
+      </c>
+      <c r="F499">
+        <v>36</v>
       </c>
       <c r="G499">
         <v>85</v>
@@ -68854,17 +68862,17 @@
       <c r="B501" t="s">
         <v>777</v>
       </c>
-      <c r="C501" t="s">
-        <v>30</v>
-      </c>
-      <c r="D501" t="s">
-        <v>30</v>
-      </c>
-      <c r="E501" t="s">
-        <v>30</v>
-      </c>
-      <c r="F501" t="s">
-        <v>30</v>
+      <c r="C501">
+        <v>23</v>
+      </c>
+      <c r="D501">
+        <v>41</v>
+      </c>
+      <c r="E501">
+        <v>44</v>
+      </c>
+      <c r="F501">
+        <v>26</v>
       </c>
       <c r="G501">
         <v>50</v>
@@ -68954,17 +68962,17 @@
       <c r="B503" t="s">
         <v>779</v>
       </c>
-      <c r="C503" t="s">
-        <v>30</v>
-      </c>
-      <c r="D503" t="s">
-        <v>30</v>
-      </c>
-      <c r="E503" t="s">
-        <v>30</v>
-      </c>
-      <c r="F503" t="s">
-        <v>30</v>
+      <c r="C503">
+        <v>27</v>
+      </c>
+      <c r="D503">
+        <v>41</v>
+      </c>
+      <c r="E503">
+        <v>24</v>
+      </c>
+      <c r="F503">
+        <v>26</v>
       </c>
       <c r="G503">
         <v>80</v>
@@ -69054,17 +69062,17 @@
       <c r="B505" t="s">
         <v>781</v>
       </c>
-      <c r="C505" t="s">
-        <v>30</v>
-      </c>
-      <c r="D505" t="s">
-        <v>30</v>
-      </c>
-      <c r="E505" t="s">
-        <v>30</v>
-      </c>
-      <c r="F505" t="s">
-        <v>30</v>
+      <c r="C505">
+        <v>14</v>
+      </c>
+      <c r="D505">
+        <v>31</v>
+      </c>
+      <c r="E505">
+        <v>33</v>
+      </c>
+      <c r="F505">
+        <v>29</v>
       </c>
       <c r="G505">
         <v>99</v>
@@ -69144,47 +69152,23 @@
         <v>782</v>
       </c>
       <c r="P506">
-        <f t="shared" ref="P506" si="567">M506*10</f>
+        <f t="shared" ref="P506" si="566">M506*10</f>
         <v>100</v>
       </c>
-      <c r="Q506">
-        <f t="shared" ref="Q506" si="568">((SUM(C506:F506))/4)*1.04</f>
-        <v>0</v>
-      </c>
-      <c r="R506">
-        <f t="shared" ref="R506" si="569">((SUM(C508:F508))/4)*1.04</f>
-        <v>0</v>
-      </c>
-      <c r="S506">
-        <f t="shared" ref="S506" si="570">((SUM(C510:F510))/4)*1.04</f>
-        <v>0</v>
-      </c>
-      <c r="T506">
-        <f t="shared" ref="T506" si="571">((SUM(C512:F512))/4)*1.04</f>
-        <v>0</v>
-      </c>
-      <c r="U506">
-        <f t="shared" ref="U506" si="572">((SUM(C514:F514))/4)*1.04</f>
-        <v>0</v>
-      </c>
-      <c r="V506">
-        <f t="shared" ref="V506" si="573">((SUM(C506:F514))/20)*1.04</f>
-        <v>0</v>
-      </c>
       <c r="W506">
-        <f t="shared" ref="W506" si="574">(SUM(G506:H514))/10</f>
+        <f t="shared" ref="W506" si="567">(SUM(G506:H514))/10</f>
         <v>16.2</v>
       </c>
       <c r="X506">
-        <f t="shared" ref="X506" si="575">(SUM(I506:I514))/5</f>
+        <f t="shared" ref="X506" si="568">(SUM(I506:I514))/5</f>
         <v>2</v>
       </c>
       <c r="Y506">
-        <f t="shared" ref="Y506" si="576">SUM(K506:K514)-Z506</f>
+        <f t="shared" ref="Y506" si="569">SUM(K506:K514)-Z506</f>
         <v>69</v>
       </c>
       <c r="Z506">
-        <f t="shared" ref="Z506" si="577">SUM(L506:L514)</f>
+        <f t="shared" ref="Z506" si="570">SUM(L506:L514)</f>
         <v>10</v>
       </c>
       <c r="AA506" t="s">
@@ -69598,17 +69582,17 @@
       <c r="B515" t="s">
         <v>772</v>
       </c>
-      <c r="C515" t="s">
-        <v>30</v>
-      </c>
-      <c r="D515" t="s">
-        <v>30</v>
-      </c>
-      <c r="E515" t="s">
-        <v>30</v>
-      </c>
-      <c r="F515" t="s">
-        <v>30</v>
+      <c r="C515">
+        <v>33</v>
+      </c>
+      <c r="D515">
+        <v>19</v>
+      </c>
+      <c r="E515">
+        <v>19</v>
+      </c>
+      <c r="F515">
+        <v>19</v>
       </c>
       <c r="G515">
         <v>5</v>
@@ -69638,47 +69622,47 @@
         <v>240</v>
       </c>
       <c r="P515">
-        <f t="shared" ref="P515" si="578">M515*10</f>
+        <f t="shared" ref="P515" si="571">M515*10</f>
         <v>30</v>
       </c>
       <c r="Q515">
-        <f t="shared" ref="Q515" si="579">((SUM(C515:F515))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q515" si="572">((SUM(C515:F515))/4)*1.04</f>
+        <v>23.400000000000002</v>
       </c>
       <c r="R515">
-        <f t="shared" ref="R515" si="580">((SUM(C517:F517))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R515" si="573">((SUM(C517:F517))/4)*1.04</f>
+        <v>17.940000000000001</v>
       </c>
       <c r="S515">
-        <f t="shared" ref="S515" si="581">((SUM(C519:F519))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S515" si="574">((SUM(C519:F519))/4)*1.04</f>
+        <v>19.760000000000002</v>
       </c>
       <c r="T515">
-        <f t="shared" ref="T515" si="582">((SUM(C521:F521))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T515" si="575">((SUM(C521:F521))/4)*1.04</f>
+        <v>20.8</v>
       </c>
       <c r="U515">
-        <f t="shared" ref="U515" si="583">((SUM(C523:F523))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U515" si="576">((SUM(C523:F523))/4)*1.04</f>
+        <v>29.64</v>
       </c>
       <c r="V515">
-        <f t="shared" ref="V515" si="584">((SUM(C515:F523))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V515" si="577">((SUM(C515:F523))/20)*1.04</f>
+        <v>22.308</v>
       </c>
       <c r="W515">
-        <f t="shared" ref="W515" si="585">(SUM(G515:H523))/10</f>
+        <f t="shared" ref="W515" si="578">(SUM(G515:H523))/10</f>
         <v>5.5</v>
       </c>
       <c r="X515">
-        <f t="shared" ref="X515" si="586">(SUM(I515:I523))/5</f>
+        <f t="shared" ref="X515" si="579">(SUM(I515:I523))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y515">
-        <f t="shared" ref="Y515" si="587">SUM(K515:K523)-Z515</f>
+        <f t="shared" ref="Y515" si="580">SUM(K515:K523)-Z515</f>
         <v>23</v>
       </c>
       <c r="Z515">
-        <f t="shared" ref="Z515" si="588">SUM(L515:L523)</f>
+        <f t="shared" ref="Z515" si="581">SUM(L515:L523)</f>
         <v>3</v>
       </c>
       <c r="AA515" t="s">
@@ -69742,17 +69726,17 @@
       <c r="B517" t="s">
         <v>775</v>
       </c>
-      <c r="C517" t="s">
-        <v>30</v>
-      </c>
-      <c r="D517" t="s">
-        <v>30</v>
-      </c>
-      <c r="E517" t="s">
-        <v>30</v>
-      </c>
-      <c r="F517" t="s">
-        <v>30</v>
+      <c r="C517">
+        <v>21</v>
+      </c>
+      <c r="D517">
+        <v>14</v>
+      </c>
+      <c r="E517">
+        <v>14</v>
+      </c>
+      <c r="F517">
+        <v>20</v>
       </c>
       <c r="G517">
         <v>5</v>
@@ -69842,17 +69826,17 @@
       <c r="B519" t="s">
         <v>777</v>
       </c>
-      <c r="C519" t="s">
-        <v>30</v>
-      </c>
-      <c r="D519" t="s">
-        <v>30</v>
-      </c>
-      <c r="E519" t="s">
-        <v>30</v>
-      </c>
-      <c r="F519" t="s">
-        <v>30</v>
+      <c r="C519">
+        <v>17</v>
+      </c>
+      <c r="D519">
+        <v>8</v>
+      </c>
+      <c r="E519">
+        <v>24</v>
+      </c>
+      <c r="F519">
+        <v>27</v>
       </c>
       <c r="G519">
         <v>5</v>
@@ -69942,17 +69926,17 @@
       <c r="B521" t="s">
         <v>779</v>
       </c>
-      <c r="C521" t="s">
-        <v>30</v>
-      </c>
-      <c r="D521" t="s">
-        <v>30</v>
-      </c>
-      <c r="E521" t="s">
-        <v>30</v>
-      </c>
-      <c r="F521" t="s">
-        <v>30</v>
+      <c r="C521">
+        <v>31</v>
+      </c>
+      <c r="D521">
+        <v>16</v>
+      </c>
+      <c r="E521">
+        <v>18</v>
+      </c>
+      <c r="F521">
+        <v>15</v>
       </c>
       <c r="G521">
         <v>0</v>
@@ -70042,17 +70026,17 @@
       <c r="B523" t="s">
         <v>781</v>
       </c>
-      <c r="C523" t="s">
-        <v>30</v>
-      </c>
-      <c r="D523" t="s">
-        <v>30</v>
-      </c>
-      <c r="E523" t="s">
-        <v>30</v>
-      </c>
-      <c r="F523" t="s">
-        <v>30</v>
+      <c r="C523">
+        <v>20</v>
+      </c>
+      <c r="D523">
+        <v>38</v>
+      </c>
+      <c r="E523">
+        <v>30</v>
+      </c>
+      <c r="F523">
+        <v>26</v>
       </c>
       <c r="G523">
         <v>10</v>
@@ -70092,17 +70076,17 @@
       <c r="B524" t="s">
         <v>772</v>
       </c>
-      <c r="C524" t="s">
-        <v>30</v>
-      </c>
-      <c r="D524" t="s">
-        <v>30</v>
-      </c>
-      <c r="E524" t="s">
-        <v>30</v>
-      </c>
-      <c r="F524" t="s">
-        <v>30</v>
+      <c r="C524">
+        <v>20</v>
+      </c>
+      <c r="D524">
+        <v>25</v>
+      </c>
+      <c r="E524">
+        <v>28</v>
+      </c>
+      <c r="F524">
+        <v>24</v>
       </c>
       <c r="G524">
         <v>5</v>
@@ -70132,47 +70116,47 @@
         <v>240</v>
       </c>
       <c r="P524">
-        <f t="shared" ref="P524" si="589">M524*10</f>
+        <f t="shared" ref="P524" si="582">M524*10</f>
         <v>60</v>
       </c>
       <c r="Q524">
-        <f t="shared" ref="Q524" si="590">((SUM(C524:F524))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q524" si="583">((SUM(C524:F524))/4)*1.04</f>
+        <v>25.220000000000002</v>
       </c>
       <c r="R524">
-        <f t="shared" ref="R524" si="591">((SUM(C526:F526))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R524" si="584">((SUM(C526:F526))/4)*1.04</f>
+        <v>27.82</v>
       </c>
       <c r="S524">
-        <f t="shared" ref="S524" si="592">((SUM(C528:F528))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S524" si="585">((SUM(C528:F528))/4)*1.04</f>
+        <v>22.62</v>
       </c>
       <c r="T524">
-        <f t="shared" ref="T524" si="593">((SUM(C530:F530))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T524" si="586">((SUM(C530:F530))/4)*1.04</f>
+        <v>32.76</v>
       </c>
       <c r="U524">
-        <f t="shared" ref="U524" si="594">((SUM(C532:F532))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U524" si="587">((SUM(C532:F532))/4)*1.04</f>
+        <v>35.620000000000005</v>
       </c>
       <c r="V524">
-        <f t="shared" ref="V524" si="595">((SUM(C524:F532))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V524" si="588">((SUM(C524:F532))/20)*1.04</f>
+        <v>28.808</v>
       </c>
       <c r="W524">
-        <f t="shared" ref="W524" si="596">(SUM(G524:H532))/10</f>
+        <f t="shared" ref="W524" si="589">(SUM(G524:H532))/10</f>
         <v>11</v>
       </c>
       <c r="X524">
-        <f t="shared" ref="X524" si="597">(SUM(I524:I532))/5</f>
+        <f t="shared" ref="X524" si="590">(SUM(I524:I532))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y524">
-        <f t="shared" ref="Y524" si="598">SUM(K524:K532)-Z524</f>
+        <f t="shared" ref="Y524" si="591">SUM(K524:K532)-Z524</f>
         <v>23</v>
       </c>
       <c r="Z524">
-        <f t="shared" ref="Z524" si="599">SUM(L524:L532)</f>
+        <f t="shared" ref="Z524" si="592">SUM(L524:L532)</f>
         <v>3</v>
       </c>
       <c r="AA524" t="s">
@@ -70236,17 +70220,17 @@
       <c r="B526" t="s">
         <v>775</v>
       </c>
-      <c r="C526" t="s">
-        <v>30</v>
-      </c>
-      <c r="D526" t="s">
-        <v>30</v>
-      </c>
-      <c r="E526" t="s">
-        <v>30</v>
-      </c>
-      <c r="F526" t="s">
-        <v>30</v>
+      <c r="C526">
+        <v>29</v>
+      </c>
+      <c r="D526">
+        <v>18</v>
+      </c>
+      <c r="E526">
+        <v>24</v>
+      </c>
+      <c r="F526">
+        <v>36</v>
       </c>
       <c r="G526">
         <v>5</v>
@@ -70336,17 +70320,17 @@
       <c r="B528" t="s">
         <v>777</v>
       </c>
-      <c r="C528" t="s">
-        <v>30</v>
-      </c>
-      <c r="D528" t="s">
-        <v>30</v>
-      </c>
-      <c r="E528" t="s">
-        <v>30</v>
-      </c>
-      <c r="F528" t="s">
-        <v>30</v>
+      <c r="C528">
+        <v>30</v>
+      </c>
+      <c r="D528">
+        <v>21</v>
+      </c>
+      <c r="E528">
+        <v>18</v>
+      </c>
+      <c r="F528">
+        <v>18</v>
       </c>
       <c r="G528">
         <v>0</v>
@@ -70436,17 +70420,17 @@
       <c r="B530" t="s">
         <v>779</v>
       </c>
-      <c r="C530" t="s">
-        <v>30</v>
-      </c>
-      <c r="D530" t="s">
-        <v>30</v>
-      </c>
-      <c r="E530" t="s">
-        <v>30</v>
-      </c>
-      <c r="F530" t="s">
-        <v>30</v>
+      <c r="C530">
+        <v>29</v>
+      </c>
+      <c r="D530">
+        <v>36</v>
+      </c>
+      <c r="E530">
+        <v>29</v>
+      </c>
+      <c r="F530">
+        <v>32</v>
       </c>
       <c r="G530">
         <v>5</v>
@@ -70536,17 +70520,17 @@
       <c r="B532" t="s">
         <v>781</v>
       </c>
-      <c r="C532" t="s">
-        <v>30</v>
-      </c>
-      <c r="D532" t="s">
-        <v>30</v>
-      </c>
-      <c r="E532" t="s">
-        <v>30</v>
-      </c>
-      <c r="F532" t="s">
-        <v>30</v>
+      <c r="C532">
+        <v>32</v>
+      </c>
+      <c r="D532">
+        <v>33</v>
+      </c>
+      <c r="E532">
+        <v>36</v>
+      </c>
+      <c r="F532">
+        <v>36</v>
       </c>
       <c r="G532">
         <v>30</v>
@@ -70586,17 +70570,17 @@
       <c r="B533" t="s">
         <v>772</v>
       </c>
-      <c r="C533" t="s">
-        <v>30</v>
-      </c>
-      <c r="D533" t="s">
-        <v>30</v>
-      </c>
-      <c r="E533" t="s">
-        <v>30</v>
-      </c>
-      <c r="F533" t="s">
-        <v>30</v>
+      <c r="C533">
+        <v>16</v>
+      </c>
+      <c r="D533">
+        <v>27</v>
+      </c>
+      <c r="E533">
+        <v>55</v>
+      </c>
+      <c r="F533">
+        <v>37</v>
       </c>
       <c r="G533">
         <v>5</v>
@@ -70626,47 +70610,47 @@
         <v>240</v>
       </c>
       <c r="P533">
-        <f t="shared" ref="P533" si="600">M533*10</f>
+        <f t="shared" ref="P533" si="593">M533*10</f>
         <v>70</v>
       </c>
       <c r="Q533">
-        <f t="shared" ref="Q533" si="601">((SUM(C533:F533))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q533" si="594">((SUM(C533:F533))/4)*1.04</f>
+        <v>35.1</v>
       </c>
       <c r="R533">
-        <f t="shared" ref="R533" si="602">((SUM(C535:F535))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R533" si="595">((SUM(C535:F535))/4)*1.04</f>
+        <v>22.36</v>
       </c>
       <c r="S533">
-        <f t="shared" ref="S533" si="603">((SUM(C537:F537))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S533" si="596">((SUM(C537:F537))/4)*1.04</f>
+        <v>24.18</v>
       </c>
       <c r="T533">
-        <f t="shared" ref="T533" si="604">((SUM(C539:F539))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T533" si="597">((SUM(C539:F539))/4)*1.04</f>
+        <v>22.62</v>
       </c>
       <c r="U533">
-        <f t="shared" ref="U533" si="605">((SUM(C541:F541))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U533" si="598">((SUM(C541:F541))/4)*1.04</f>
+        <v>29.900000000000002</v>
       </c>
       <c r="V533">
-        <f t="shared" ref="V533" si="606">((SUM(C533:F541))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V533" si="599">((SUM(C533:F541))/20)*1.04</f>
+        <v>26.832000000000001</v>
       </c>
       <c r="W533">
-        <f t="shared" ref="W533" si="607">(SUM(G533:H541))/10</f>
+        <f t="shared" ref="W533" si="600">(SUM(G533:H541))/10</f>
         <v>4.5</v>
       </c>
       <c r="X533">
-        <f t="shared" ref="X533" si="608">(SUM(I533:I541))/5</f>
+        <f t="shared" ref="X533" si="601">(SUM(I533:I541))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y533">
-        <f t="shared" ref="Y533" si="609">SUM(K533:K541)-Z533</f>
+        <f t="shared" ref="Y533" si="602">SUM(K533:K541)-Z533</f>
         <v>19</v>
       </c>
       <c r="Z533">
-        <f t="shared" ref="Z533" si="610">SUM(L533:L541)</f>
+        <f t="shared" ref="Z533" si="603">SUM(L533:L541)</f>
         <v>4</v>
       </c>
       <c r="AA533" t="s">
@@ -70730,17 +70714,17 @@
       <c r="B535" t="s">
         <v>775</v>
       </c>
-      <c r="C535" t="s">
-        <v>30</v>
-      </c>
-      <c r="D535" t="s">
-        <v>30</v>
-      </c>
-      <c r="E535" t="s">
-        <v>30</v>
-      </c>
-      <c r="F535" t="s">
-        <v>30</v>
+      <c r="C535">
+        <v>14</v>
+      </c>
+      <c r="D535">
+        <v>24</v>
+      </c>
+      <c r="E535">
+        <v>33</v>
+      </c>
+      <c r="F535">
+        <v>15</v>
       </c>
       <c r="G535">
         <v>5</v>
@@ -70830,17 +70814,17 @@
       <c r="B537" t="s">
         <v>777</v>
       </c>
-      <c r="C537" t="s">
-        <v>30</v>
-      </c>
-      <c r="D537" t="s">
-        <v>30</v>
-      </c>
-      <c r="E537" t="s">
-        <v>30</v>
-      </c>
-      <c r="F537" t="s">
-        <v>30</v>
+      <c r="C537">
+        <v>22</v>
+      </c>
+      <c r="D537">
+        <v>27</v>
+      </c>
+      <c r="E537">
+        <v>6</v>
+      </c>
+      <c r="F537">
+        <v>38</v>
       </c>
       <c r="G537">
         <v>0</v>
@@ -70930,17 +70914,17 @@
       <c r="B539" t="s">
         <v>779</v>
       </c>
-      <c r="C539" t="s">
-        <v>30</v>
-      </c>
-      <c r="D539" t="s">
-        <v>30</v>
-      </c>
-      <c r="E539" t="s">
-        <v>30</v>
-      </c>
-      <c r="F539" t="s">
-        <v>30</v>
+      <c r="C539">
+        <v>33</v>
+      </c>
+      <c r="D539">
+        <v>19</v>
+      </c>
+      <c r="E539">
+        <v>19</v>
+      </c>
+      <c r="F539">
+        <v>16</v>
       </c>
       <c r="G539">
         <v>10</v>
@@ -71030,17 +71014,17 @@
       <c r="B541" t="s">
         <v>781</v>
       </c>
-      <c r="C541" t="s">
-        <v>30</v>
-      </c>
-      <c r="D541" t="s">
-        <v>30</v>
-      </c>
-      <c r="E541" t="s">
-        <v>30</v>
-      </c>
-      <c r="F541" t="s">
-        <v>30</v>
+      <c r="C541">
+        <v>21</v>
+      </c>
+      <c r="D541">
+        <v>32</v>
+      </c>
+      <c r="E541">
+        <v>16</v>
+      </c>
+      <c r="F541">
+        <v>46</v>
       </c>
       <c r="G541">
         <v>10</v>
@@ -71080,17 +71064,17 @@
       <c r="B542" t="s">
         <v>772</v>
       </c>
-      <c r="C542" t="s">
-        <v>30</v>
-      </c>
-      <c r="D542" t="s">
-        <v>30</v>
-      </c>
-      <c r="E542" t="s">
-        <v>30</v>
-      </c>
-      <c r="F542" t="s">
-        <v>30</v>
+      <c r="C542">
+        <v>30</v>
+      </c>
+      <c r="D542">
+        <v>39</v>
+      </c>
+      <c r="E542">
+        <v>21</v>
+      </c>
+      <c r="F542">
+        <v>18</v>
       </c>
       <c r="G542">
         <v>40</v>
@@ -71120,47 +71104,47 @@
         <v>240</v>
       </c>
       <c r="P542">
-        <f t="shared" ref="P542" si="611">M542*10</f>
+        <f t="shared" ref="P542" si="604">M542*10</f>
         <v>50</v>
       </c>
       <c r="Q542">
-        <f t="shared" ref="Q542" si="612">((SUM(C542:F542))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q542" si="605">((SUM(C542:F542))/4)*1.04</f>
+        <v>28.080000000000002</v>
       </c>
       <c r="R542">
-        <f t="shared" ref="R542" si="613">((SUM(C544:F544))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R542" si="606">((SUM(C544:F544))/4)*1.04</f>
+        <v>22.1</v>
       </c>
       <c r="S542">
-        <f t="shared" ref="S542" si="614">((SUM(C546:F546))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S542" si="607">((SUM(C546:F546))/4)*1.04</f>
+        <v>12.74</v>
       </c>
       <c r="T542">
-        <f t="shared" ref="T542" si="615">((SUM(C548:F548))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T542" si="608">((SUM(C548:F548))/4)*1.04</f>
+        <v>39.26</v>
       </c>
       <c r="U542">
-        <f t="shared" ref="U542" si="616">((SUM(C550:F550))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U542" si="609">((SUM(C550:F550))/4)*1.04</f>
+        <v>39.520000000000003</v>
       </c>
       <c r="V542">
-        <f t="shared" ref="V542" si="617">((SUM(C542:F550))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V542" si="610">((SUM(C542:F550))/20)*1.04</f>
+        <v>28.34</v>
       </c>
       <c r="W542">
-        <f t="shared" ref="W542" si="618">(SUM(G542:H550))/10</f>
+        <f t="shared" ref="W542" si="611">(SUM(G542:H550))/10</f>
         <v>35.5</v>
       </c>
       <c r="X542">
-        <f t="shared" ref="X542" si="619">(SUM(I542:I550))/5</f>
+        <f t="shared" ref="X542" si="612">(SUM(I542:I550))/5</f>
         <v>1.8</v>
       </c>
       <c r="Y542">
-        <f t="shared" ref="Y542" si="620">SUM(K542:K550)-Z542</f>
+        <f t="shared" ref="Y542" si="613">SUM(K542:K550)-Z542</f>
         <v>10</v>
       </c>
       <c r="Z542">
-        <f t="shared" ref="Z542" si="621">SUM(L542:L550)</f>
+        <f t="shared" ref="Z542" si="614">SUM(L542:L550)</f>
         <v>0</v>
       </c>
       <c r="AA542" t="s">
@@ -71224,17 +71208,17 @@
       <c r="B544" t="s">
         <v>775</v>
       </c>
-      <c r="C544" t="s">
-        <v>30</v>
-      </c>
-      <c r="D544" t="s">
-        <v>30</v>
-      </c>
-      <c r="E544" t="s">
-        <v>30</v>
-      </c>
-      <c r="F544" t="s">
-        <v>30</v>
+      <c r="C544">
+        <v>10</v>
+      </c>
+      <c r="D544">
+        <v>21</v>
+      </c>
+      <c r="E544">
+        <v>28</v>
+      </c>
+      <c r="F544">
+        <v>26</v>
       </c>
       <c r="G544">
         <v>80</v>
@@ -71324,17 +71308,17 @@
       <c r="B546" t="s">
         <v>777</v>
       </c>
-      <c r="C546" t="s">
-        <v>30</v>
-      </c>
-      <c r="D546" t="s">
-        <v>30</v>
-      </c>
-      <c r="E546" t="s">
-        <v>30</v>
-      </c>
-      <c r="F546" t="s">
-        <v>30</v>
+      <c r="C546">
+        <v>15</v>
+      </c>
+      <c r="D546">
+        <v>18</v>
+      </c>
+      <c r="E546">
+        <v>11</v>
+      </c>
+      <c r="F546">
+        <v>5</v>
       </c>
       <c r="G546">
         <v>20</v>
@@ -71424,17 +71408,17 @@
       <c r="B548" t="s">
         <v>779</v>
       </c>
-      <c r="C548" t="s">
-        <v>30</v>
-      </c>
-      <c r="D548" t="s">
-        <v>30</v>
-      </c>
-      <c r="E548" t="s">
-        <v>30</v>
-      </c>
-      <c r="F548" t="s">
-        <v>30</v>
+      <c r="C548">
+        <v>52</v>
+      </c>
+      <c r="D548">
+        <v>36</v>
+      </c>
+      <c r="E548">
+        <v>25</v>
+      </c>
+      <c r="F548">
+        <v>38</v>
       </c>
       <c r="G548">
         <v>20</v>
@@ -71524,17 +71508,17 @@
       <c r="B550" t="s">
         <v>781</v>
       </c>
-      <c r="C550" t="s">
-        <v>30</v>
-      </c>
-      <c r="D550" t="s">
-        <v>30</v>
-      </c>
-      <c r="E550" t="s">
-        <v>30</v>
-      </c>
-      <c r="F550" t="s">
-        <v>30</v>
+      <c r="C550">
+        <v>55</v>
+      </c>
+      <c r="D550">
+        <v>35</v>
+      </c>
+      <c r="E550">
+        <v>38</v>
+      </c>
+      <c r="F550">
+        <v>24</v>
       </c>
       <c r="G550">
         <v>30</v>
@@ -71574,17 +71558,17 @@
       <c r="B551" t="s">
         <v>772</v>
       </c>
-      <c r="C551" t="s">
-        <v>30</v>
-      </c>
-      <c r="D551" t="s">
-        <v>30</v>
-      </c>
-      <c r="E551" t="s">
-        <v>30</v>
-      </c>
-      <c r="F551" t="s">
-        <v>30</v>
+      <c r="C551">
+        <v>23</v>
+      </c>
+      <c r="D551">
+        <v>17</v>
+      </c>
+      <c r="E551">
+        <v>17</v>
+      </c>
+      <c r="F551">
+        <v>23</v>
       </c>
       <c r="G551">
         <v>10</v>
@@ -71614,47 +71598,47 @@
         <v>240</v>
       </c>
       <c r="P551">
-        <f t="shared" ref="P551" si="622">M551*10</f>
+        <f t="shared" ref="P551" si="615">M551*10</f>
         <v>50</v>
       </c>
       <c r="Q551">
-        <f t="shared" ref="Q551" si="623">((SUM(C551:F551))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q551" si="616">((SUM(C551:F551))/4)*1.04</f>
+        <v>20.8</v>
       </c>
       <c r="R551">
-        <f t="shared" ref="R551" si="624">((SUM(C553:F553))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R551" si="617">((SUM(C553:F553))/4)*1.04</f>
+        <v>25.48</v>
       </c>
       <c r="S551">
-        <f t="shared" ref="S551" si="625">((SUM(C555:F555))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S551" si="618">((SUM(C555:F555))/4)*1.04</f>
+        <v>18.2</v>
       </c>
       <c r="T551">
-        <f t="shared" ref="T551" si="626">((SUM(C557:F557))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T551" si="619">((SUM(C557:F557))/4)*1.04</f>
+        <v>20.8</v>
       </c>
       <c r="U551">
-        <f t="shared" ref="U551" si="627">((SUM(C559:F559))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U551" si="620">((SUM(C559:F559))/4)*1.04</f>
+        <v>15.08</v>
       </c>
       <c r="V551">
-        <f t="shared" ref="V551" si="628">((SUM(C551:F559))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V551" si="621">((SUM(C551:F559))/20)*1.04</f>
+        <v>20.072000000000003</v>
       </c>
       <c r="W551">
-        <f t="shared" ref="W551" si="629">(SUM(G551:H559))/10</f>
+        <f t="shared" ref="W551" si="622">(SUM(G551:H559))/10</f>
         <v>49</v>
       </c>
       <c r="X551">
-        <f t="shared" ref="X551" si="630">(SUM(I551:I559))/5</f>
+        <f t="shared" ref="X551" si="623">(SUM(I551:I559))/5</f>
         <v>2.6</v>
       </c>
       <c r="Y551">
-        <f t="shared" ref="Y551" si="631">SUM(K551:K559)-Z551</f>
+        <f t="shared" ref="Y551" si="624">SUM(K551:K559)-Z551</f>
         <v>17</v>
       </c>
       <c r="Z551">
-        <f t="shared" ref="Z551" si="632">SUM(L551:L559)</f>
+        <f t="shared" ref="Z551" si="625">SUM(L551:L559)</f>
         <v>0</v>
       </c>
       <c r="AA551" t="s">
@@ -71718,17 +71702,17 @@
       <c r="B553" t="s">
         <v>775</v>
       </c>
-      <c r="C553" t="s">
-        <v>30</v>
-      </c>
-      <c r="D553" t="s">
-        <v>30</v>
-      </c>
-      <c r="E553" t="s">
-        <v>30</v>
-      </c>
-      <c r="F553" t="s">
-        <v>30</v>
+      <c r="C553">
+        <v>8</v>
+      </c>
+      <c r="D553">
+        <v>35</v>
+      </c>
+      <c r="E553">
+        <v>42</v>
+      </c>
+      <c r="F553">
+        <v>13</v>
       </c>
       <c r="G553">
         <v>90</v>
@@ -71818,17 +71802,17 @@
       <c r="B555" t="s">
         <v>777</v>
       </c>
-      <c r="C555" t="s">
-        <v>30</v>
-      </c>
-      <c r="D555" t="s">
-        <v>30</v>
-      </c>
-      <c r="E555" t="s">
-        <v>30</v>
-      </c>
-      <c r="F555" t="s">
-        <v>30</v>
+      <c r="C555">
+        <v>8</v>
+      </c>
+      <c r="D555">
+        <v>17</v>
+      </c>
+      <c r="E555">
+        <v>23</v>
+      </c>
+      <c r="F555">
+        <v>22</v>
       </c>
       <c r="G555">
         <v>60</v>
@@ -71918,17 +71902,17 @@
       <c r="B557" t="s">
         <v>779</v>
       </c>
-      <c r="C557" t="s">
-        <v>30</v>
-      </c>
-      <c r="D557" t="s">
-        <v>30</v>
-      </c>
-      <c r="E557" t="s">
-        <v>30</v>
-      </c>
-      <c r="F557" t="s">
-        <v>30</v>
+      <c r="C557">
+        <v>23</v>
+      </c>
+      <c r="D557">
+        <v>23</v>
+      </c>
+      <c r="E557">
+        <v>18</v>
+      </c>
+      <c r="F557">
+        <v>16</v>
       </c>
       <c r="G557">
         <v>30</v>
@@ -72018,17 +72002,17 @@
       <c r="B559" t="s">
         <v>781</v>
       </c>
-      <c r="C559" t="s">
-        <v>30</v>
-      </c>
-      <c r="D559" t="s">
-        <v>30</v>
-      </c>
-      <c r="E559" t="s">
-        <v>30</v>
-      </c>
-      <c r="F559" t="s">
-        <v>30</v>
+      <c r="C559">
+        <v>8</v>
+      </c>
+      <c r="D559">
+        <v>6</v>
+      </c>
+      <c r="E559">
+        <v>21</v>
+      </c>
+      <c r="F559">
+        <v>23</v>
       </c>
       <c r="G559">
         <v>40</v>
@@ -72068,17 +72052,17 @@
       <c r="B560" t="s">
         <v>772</v>
       </c>
-      <c r="C560" t="s">
-        <v>30</v>
-      </c>
-      <c r="D560" t="s">
-        <v>30</v>
-      </c>
-      <c r="E560" t="s">
-        <v>30</v>
-      </c>
-      <c r="F560" t="s">
-        <v>30</v>
+      <c r="C560">
+        <v>36</v>
+      </c>
+      <c r="D560">
+        <v>15</v>
+      </c>
+      <c r="E560">
+        <v>51</v>
+      </c>
+      <c r="F560">
+        <v>17</v>
       </c>
       <c r="G560">
         <v>30</v>
@@ -72108,47 +72092,47 @@
         <v>29</v>
       </c>
       <c r="P560">
-        <f t="shared" ref="P560" si="633">M560*10</f>
+        <f t="shared" ref="P560" si="626">M560*10</f>
         <v>70</v>
       </c>
       <c r="Q560">
-        <f t="shared" ref="Q560" si="634">((SUM(C560:F560))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q560" si="627">((SUM(C560:F560))/4)*1.04</f>
+        <v>30.94</v>
       </c>
       <c r="R560">
-        <f t="shared" ref="R560" si="635">((SUM(C562:F562))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R560" si="628">((SUM(C562:F562))/4)*1.04</f>
+        <v>27.3</v>
       </c>
       <c r="S560">
-        <f t="shared" ref="S560" si="636">((SUM(C564:F564))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S560" si="629">((SUM(C564:F564))/4)*1.04</f>
+        <v>31.200000000000003</v>
       </c>
       <c r="T560">
-        <f t="shared" ref="T560" si="637">((SUM(C566:F566))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T560" si="630">((SUM(C566:F566))/4)*1.04</f>
+        <v>46.28</v>
       </c>
       <c r="U560">
-        <f t="shared" ref="U560" si="638">((SUM(C568:F568))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U560" si="631">((SUM(C568:F568))/4)*1.04</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="V560">
-        <f t="shared" ref="V560" si="639">((SUM(C560:F568))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V560" si="632">((SUM(C560:F568))/20)*1.04</f>
+        <v>34.684000000000005</v>
       </c>
       <c r="W560">
-        <f t="shared" ref="W560" si="640">(SUM(G560:H568))/10</f>
+        <f t="shared" ref="W560" si="633">(SUM(G560:H568))/10</f>
         <v>11.8</v>
       </c>
       <c r="X560">
-        <f t="shared" ref="X560" si="641">(SUM(I560:I568))/5</f>
+        <f t="shared" ref="X560" si="634">(SUM(I560:I568))/5</f>
         <v>2</v>
       </c>
       <c r="Y560">
-        <f t="shared" ref="Y560" si="642">SUM(K560:K568)-Z560</f>
+        <f t="shared" ref="Y560" si="635">SUM(K560:K568)-Z560</f>
         <v>10</v>
       </c>
       <c r="Z560">
-        <f t="shared" ref="Z560" si="643">SUM(L560:L568)</f>
+        <f t="shared" ref="Z560" si="636">SUM(L560:L568)</f>
         <v>7</v>
       </c>
       <c r="AA560" t="s">
@@ -72212,17 +72196,17 @@
       <c r="B562" t="s">
         <v>775</v>
       </c>
-      <c r="C562" t="s">
-        <v>30</v>
-      </c>
-      <c r="D562" t="s">
-        <v>30</v>
-      </c>
-      <c r="E562" t="s">
-        <v>30</v>
-      </c>
-      <c r="F562" t="s">
-        <v>30</v>
+      <c r="C562">
+        <v>47</v>
+      </c>
+      <c r="D562">
+        <v>15</v>
+      </c>
+      <c r="E562">
+        <v>18</v>
+      </c>
+      <c r="F562">
+        <v>25</v>
       </c>
       <c r="G562">
         <v>2</v>
@@ -72312,17 +72296,17 @@
       <c r="B564" t="s">
         <v>777</v>
       </c>
-      <c r="C564" t="s">
-        <v>30</v>
-      </c>
-      <c r="D564" t="s">
-        <v>30</v>
-      </c>
-      <c r="E564" t="s">
-        <v>30</v>
-      </c>
-      <c r="F564" t="s">
-        <v>30</v>
+      <c r="C564">
+        <v>20</v>
+      </c>
+      <c r="D564">
+        <v>18</v>
+      </c>
+      <c r="E564">
+        <v>42</v>
+      </c>
+      <c r="F564">
+        <v>40</v>
       </c>
       <c r="G564">
         <v>2</v>
@@ -72412,17 +72396,17 @@
       <c r="B566" t="s">
         <v>779</v>
       </c>
-      <c r="C566" t="s">
-        <v>30</v>
-      </c>
-      <c r="D566" t="s">
-        <v>30</v>
-      </c>
-      <c r="E566" t="s">
-        <v>30</v>
-      </c>
-      <c r="F566" t="s">
-        <v>30</v>
+      <c r="C566">
+        <v>32</v>
+      </c>
+      <c r="D566">
+        <v>55</v>
+      </c>
+      <c r="E566">
+        <v>35</v>
+      </c>
+      <c r="F566">
+        <v>56</v>
       </c>
       <c r="G566">
         <v>2</v>
@@ -72512,17 +72496,17 @@
       <c r="B568" t="s">
         <v>781</v>
       </c>
-      <c r="C568" t="s">
-        <v>30</v>
-      </c>
-      <c r="D568" t="s">
-        <v>30</v>
-      </c>
-      <c r="E568" t="s">
-        <v>30</v>
-      </c>
-      <c r="F568" t="s">
-        <v>30</v>
+      <c r="C568">
+        <v>24</v>
+      </c>
+      <c r="D568">
+        <v>18</v>
+      </c>
+      <c r="E568">
+        <v>50</v>
+      </c>
+      <c r="F568">
+        <v>53</v>
       </c>
       <c r="G568">
         <v>20</v>
@@ -72562,17 +72546,17 @@
       <c r="B569" t="s">
         <v>772</v>
       </c>
-      <c r="C569" t="s">
-        <v>30</v>
-      </c>
-      <c r="D569" t="s">
-        <v>30</v>
-      </c>
-      <c r="E569" t="s">
-        <v>30</v>
-      </c>
-      <c r="F569" t="s">
-        <v>30</v>
+      <c r="C569">
+        <v>18</v>
+      </c>
+      <c r="D569">
+        <v>17</v>
+      </c>
+      <c r="E569">
+        <v>9</v>
+      </c>
+      <c r="F569">
+        <v>28</v>
       </c>
       <c r="G569">
         <v>1</v>
@@ -72602,47 +72586,47 @@
         <v>29</v>
       </c>
       <c r="P569" t="e">
-        <f t="shared" ref="P569" si="644">M569*10</f>
+        <f t="shared" ref="P569" si="637">M569*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q569">
-        <f t="shared" ref="Q569" si="645">((SUM(C569:F569))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q569" si="638">((SUM(C569:F569))/4)*1.04</f>
+        <v>18.72</v>
       </c>
       <c r="R569">
-        <f t="shared" ref="R569" si="646">((SUM(C571:F571))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R569" si="639">((SUM(C571:F571))/4)*1.04</f>
+        <v>18.72</v>
       </c>
       <c r="S569">
-        <f t="shared" ref="S569" si="647">((SUM(C573:F573))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S569" si="640">((SUM(C573:F573))/4)*1.04</f>
+        <v>26</v>
       </c>
       <c r="T569">
-        <f t="shared" ref="T569" si="648">((SUM(C575:F575))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T569" si="641">((SUM(C575:F575))/4)*1.04</f>
+        <v>13.780000000000001</v>
       </c>
       <c r="U569">
-        <f t="shared" ref="U569" si="649">((SUM(C577:F577))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U569" si="642">((SUM(C577:F577))/4)*1.04</f>
+        <v>19.240000000000002</v>
       </c>
       <c r="V569">
-        <f t="shared" ref="V569" si="650">((SUM(C569:F577))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V569" si="643">((SUM(C569:F577))/20)*1.04</f>
+        <v>19.292000000000002</v>
       </c>
       <c r="W569">
-        <f t="shared" ref="W569" si="651">(SUM(G569:H577))/10</f>
+        <f t="shared" ref="W569" si="644">(SUM(G569:H577))/10</f>
         <v>3</v>
       </c>
       <c r="X569">
-        <f t="shared" ref="X569" si="652">(SUM(I569:I577))/5</f>
+        <f t="shared" ref="X569" si="645">(SUM(I569:I577))/5</f>
         <v>2.4</v>
       </c>
       <c r="Y569">
-        <f t="shared" ref="Y569" si="653">SUM(K569:K577)-Z569</f>
+        <f t="shared" ref="Y569" si="646">SUM(K569:K577)-Z569</f>
         <v>7</v>
       </c>
       <c r="Z569">
-        <f t="shared" ref="Z569" si="654">SUM(L569:L577)</f>
+        <f t="shared" ref="Z569" si="647">SUM(L569:L577)</f>
         <v>7</v>
       </c>
       <c r="AA569" t="s">
@@ -72706,17 +72690,17 @@
       <c r="B571" t="s">
         <v>775</v>
       </c>
-      <c r="C571" t="s">
-        <v>30</v>
-      </c>
-      <c r="D571" t="s">
-        <v>30</v>
-      </c>
-      <c r="E571" t="s">
-        <v>30</v>
-      </c>
-      <c r="F571" t="s">
-        <v>30</v>
+      <c r="C571">
+        <v>24</v>
+      </c>
+      <c r="D571">
+        <v>14</v>
+      </c>
+      <c r="E571">
+        <v>13</v>
+      </c>
+      <c r="F571">
+        <v>21</v>
       </c>
       <c r="G571">
         <v>1</v>
@@ -72806,17 +72790,17 @@
       <c r="B573" t="s">
         <v>777</v>
       </c>
-      <c r="C573" t="s">
-        <v>30</v>
-      </c>
-      <c r="D573" t="s">
-        <v>30</v>
-      </c>
-      <c r="E573" t="s">
-        <v>30</v>
-      </c>
-      <c r="F573" t="s">
-        <v>30</v>
+      <c r="C573">
+        <v>35</v>
+      </c>
+      <c r="D573">
+        <v>4</v>
+      </c>
+      <c r="E573">
+        <v>37</v>
+      </c>
+      <c r="F573">
+        <v>24</v>
       </c>
       <c r="G573">
         <v>2</v>
@@ -72906,17 +72890,17 @@
       <c r="B575" t="s">
         <v>779</v>
       </c>
-      <c r="C575" t="s">
-        <v>30</v>
-      </c>
-      <c r="D575" t="s">
-        <v>30</v>
-      </c>
-      <c r="E575" t="s">
-        <v>30</v>
-      </c>
-      <c r="F575" t="s">
-        <v>30</v>
+      <c r="C575">
+        <v>10</v>
+      </c>
+      <c r="D575">
+        <v>9</v>
+      </c>
+      <c r="E575">
+        <v>28</v>
+      </c>
+      <c r="F575">
+        <v>6</v>
       </c>
       <c r="G575">
         <v>3</v>
@@ -73006,17 +72990,17 @@
       <c r="B577" t="s">
         <v>781</v>
       </c>
-      <c r="C577" t="s">
-        <v>30</v>
-      </c>
-      <c r="D577" t="s">
-        <v>30</v>
-      </c>
-      <c r="E577" t="s">
-        <v>30</v>
-      </c>
-      <c r="F577" t="s">
-        <v>30</v>
+      <c r="C577">
+        <v>10</v>
+      </c>
+      <c r="D577">
+        <v>13</v>
+      </c>
+      <c r="E577">
+        <v>24</v>
+      </c>
+      <c r="F577">
+        <v>27</v>
       </c>
       <c r="G577">
         <v>1</v>
@@ -73056,17 +73040,17 @@
       <c r="B578" t="s">
         <v>772</v>
       </c>
-      <c r="C578" t="s">
-        <v>30</v>
-      </c>
-      <c r="D578" t="s">
-        <v>30</v>
-      </c>
-      <c r="E578" t="s">
-        <v>30</v>
-      </c>
-      <c r="F578" t="s">
-        <v>30</v>
+      <c r="C578">
+        <v>2</v>
+      </c>
+      <c r="D578">
+        <v>3</v>
+      </c>
+      <c r="E578">
+        <v>35</v>
+      </c>
+      <c r="F578">
+        <v>9</v>
       </c>
       <c r="G578">
         <v>0</v>
@@ -73096,47 +73080,47 @@
         <v>29</v>
       </c>
       <c r="P578">
-        <f t="shared" ref="P578" si="655">M578*10</f>
+        <f t="shared" ref="P578" si="648">M578*10</f>
         <v>120</v>
       </c>
       <c r="Q578">
-        <f t="shared" ref="Q578" si="656">((SUM(C578:F578))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q578" si="649">((SUM(C578:F578))/4)*1.04</f>
+        <v>12.74</v>
       </c>
       <c r="R578">
-        <f t="shared" ref="R578" si="657">((SUM(C580:F580))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R578" si="650">((SUM(C580:F580))/4)*1.04</f>
+        <v>17.420000000000002</v>
       </c>
       <c r="S578">
-        <f t="shared" ref="S578" si="658">((SUM(C582:F582))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S578" si="651">((SUM(C582:F582))/4)*1.04</f>
+        <v>7.54</v>
       </c>
       <c r="T578">
-        <f t="shared" ref="T578" si="659">((SUM(C584:F584))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T578" si="652">((SUM(C584:F584))/4)*1.04</f>
+        <v>14.040000000000001</v>
       </c>
       <c r="U578">
-        <f t="shared" ref="U578" si="660">((SUM(C586:F586))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U578" si="653">((SUM(C586:F586))/4)*1.04</f>
+        <v>9.620000000000001</v>
       </c>
       <c r="V578">
-        <f t="shared" ref="V578" si="661">((SUM(C578:F586))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V578" si="654">((SUM(C578:F586))/20)*1.04</f>
+        <v>12.272000000000002</v>
       </c>
       <c r="W578">
-        <f t="shared" ref="W578" si="662">(SUM(G578:H586))/10</f>
+        <f t="shared" ref="W578" si="655">(SUM(G578:H586))/10</f>
         <v>0.3</v>
       </c>
       <c r="X578">
-        <f t="shared" ref="X578" si="663">(SUM(I578:I586))/5</f>
+        <f t="shared" ref="X578" si="656">(SUM(I578:I586))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y578">
-        <f t="shared" ref="Y578" si="664">SUM(K578:K586)-Z578</f>
+        <f t="shared" ref="Y578" si="657">SUM(K578:K586)-Z578</f>
         <v>77</v>
       </c>
       <c r="Z578">
-        <f t="shared" ref="Z578" si="665">SUM(L578:L586)</f>
+        <f t="shared" ref="Z578" si="658">SUM(L578:L586)</f>
         <v>10</v>
       </c>
       <c r="AA578" t="s">
@@ -73200,17 +73184,17 @@
       <c r="B580" t="s">
         <v>775</v>
       </c>
-      <c r="C580" t="s">
-        <v>30</v>
-      </c>
-      <c r="D580" t="s">
-        <v>30</v>
-      </c>
-      <c r="E580" t="s">
-        <v>30</v>
-      </c>
-      <c r="F580" t="s">
-        <v>30</v>
+      <c r="C580">
+        <v>24</v>
+      </c>
+      <c r="D580">
+        <v>23</v>
+      </c>
+      <c r="E580">
+        <v>4</v>
+      </c>
+      <c r="F580">
+        <v>16</v>
       </c>
       <c r="G580">
         <v>0</v>
@@ -73300,17 +73284,17 @@
       <c r="B582" t="s">
         <v>777</v>
       </c>
-      <c r="C582" t="s">
-        <v>30</v>
-      </c>
-      <c r="D582" t="s">
-        <v>30</v>
-      </c>
-      <c r="E582" t="s">
-        <v>30</v>
-      </c>
-      <c r="F582" t="s">
-        <v>30</v>
+      <c r="C582">
+        <v>6</v>
+      </c>
+      <c r="D582">
+        <v>4</v>
+      </c>
+      <c r="E582">
+        <v>8</v>
+      </c>
+      <c r="F582">
+        <v>11</v>
       </c>
       <c r="G582">
         <v>0</v>
@@ -73400,17 +73384,17 @@
       <c r="B584" t="s">
         <v>779</v>
       </c>
-      <c r="C584" t="s">
-        <v>30</v>
-      </c>
-      <c r="D584" t="s">
-        <v>30</v>
-      </c>
-      <c r="E584" t="s">
-        <v>30</v>
-      </c>
-      <c r="F584" t="s">
-        <v>30</v>
+      <c r="C584">
+        <v>13</v>
+      </c>
+      <c r="D584">
+        <v>3</v>
+      </c>
+      <c r="E584">
+        <v>22</v>
+      </c>
+      <c r="F584">
+        <v>16</v>
       </c>
       <c r="G584">
         <v>0</v>
@@ -73500,17 +73484,17 @@
       <c r="B586" t="s">
         <v>781</v>
       </c>
-      <c r="C586" t="s">
-        <v>30</v>
-      </c>
-      <c r="D586" t="s">
-        <v>30</v>
-      </c>
-      <c r="E586" t="s">
-        <v>30</v>
-      </c>
-      <c r="F586" t="s">
-        <v>30</v>
+      <c r="C586">
+        <v>4</v>
+      </c>
+      <c r="D586">
+        <v>8</v>
+      </c>
+      <c r="E586">
+        <v>13</v>
+      </c>
+      <c r="F586">
+        <v>12</v>
       </c>
       <c r="G586">
         <v>0</v>
@@ -73550,17 +73534,17 @@
       <c r="B587" t="s">
         <v>772</v>
       </c>
-      <c r="C587" t="s">
-        <v>30</v>
-      </c>
-      <c r="D587" t="s">
-        <v>30</v>
-      </c>
-      <c r="E587" t="s">
-        <v>30</v>
-      </c>
-      <c r="F587" t="s">
-        <v>30</v>
+      <c r="C587">
+        <v>28</v>
+      </c>
+      <c r="D587">
+        <v>13</v>
+      </c>
+      <c r="E587">
+        <v>48</v>
+      </c>
+      <c r="F587">
+        <v>26</v>
       </c>
       <c r="G587">
         <v>2</v>
@@ -73590,47 +73574,47 @@
         <v>29</v>
       </c>
       <c r="P587">
-        <f t="shared" ref="P587" si="666">M587*10</f>
+        <f t="shared" ref="P587" si="659">M587*10</f>
         <v>160</v>
       </c>
       <c r="Q587">
-        <f t="shared" ref="Q587" si="667">((SUM(C587:F587))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q587" si="660">((SUM(C587:F587))/4)*1.04</f>
+        <v>29.900000000000002</v>
       </c>
       <c r="R587">
-        <f t="shared" ref="R587" si="668">((SUM(C589:F589))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R587" si="661">((SUM(C589:F589))/4)*1.04</f>
+        <v>9.1</v>
       </c>
       <c r="S587">
-        <f t="shared" ref="S587" si="669">((SUM(C591:F591))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S587" si="662">((SUM(C591:F591))/4)*1.04</f>
+        <v>13.26</v>
       </c>
       <c r="T587">
-        <f t="shared" ref="T587" si="670">((SUM(C593:F593))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T587" si="663">((SUM(C593:F593))/4)*1.04</f>
+        <v>29.900000000000002</v>
       </c>
       <c r="U587">
-        <f t="shared" ref="U587" si="671">((SUM(C595:F595))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U587" si="664">((SUM(C595:F595))/4)*1.04</f>
+        <v>9.1</v>
       </c>
       <c r="V587">
-        <f t="shared" ref="V587" si="672">((SUM(C587:F595))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V587" si="665">((SUM(C587:F595))/20)*1.04</f>
+        <v>18.252000000000002</v>
       </c>
       <c r="W587">
-        <f t="shared" ref="W587" si="673">(SUM(G587:H595))/10</f>
+        <f t="shared" ref="W587" si="666">(SUM(G587:H595))/10</f>
         <v>0.5</v>
       </c>
       <c r="X587">
-        <f t="shared" ref="X587" si="674">(SUM(I587:I595))/5</f>
+        <f t="shared" ref="X587" si="667">(SUM(I587:I595))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y587">
-        <f t="shared" ref="Y587" si="675">SUM(K587:K595)-Z587</f>
+        <f t="shared" ref="Y587" si="668">SUM(K587:K595)-Z587</f>
         <v>62</v>
       </c>
       <c r="Z587">
-        <f t="shared" ref="Z587" si="676">SUM(L587:L595)</f>
+        <f t="shared" ref="Z587" si="669">SUM(L587:L595)</f>
         <v>14</v>
       </c>
       <c r="AA587" t="s">
@@ -73694,17 +73678,17 @@
       <c r="B589" t="s">
         <v>775</v>
       </c>
-      <c r="C589" t="s">
-        <v>30</v>
-      </c>
-      <c r="D589" t="s">
-        <v>30</v>
-      </c>
-      <c r="E589" t="s">
-        <v>30</v>
-      </c>
-      <c r="F589" t="s">
-        <v>30</v>
+      <c r="C589">
+        <v>3</v>
+      </c>
+      <c r="D589">
+        <v>10</v>
+      </c>
+      <c r="E589">
+        <v>17</v>
+      </c>
+      <c r="F589">
+        <v>5</v>
       </c>
       <c r="G589">
         <v>0</v>
@@ -73794,17 +73778,17 @@
       <c r="B591" t="s">
         <v>777</v>
       </c>
-      <c r="C591" t="s">
-        <v>30</v>
-      </c>
-      <c r="D591" t="s">
-        <v>30</v>
-      </c>
-      <c r="E591" t="s">
-        <v>30</v>
-      </c>
-      <c r="F591" t="s">
-        <v>30</v>
+      <c r="C591">
+        <v>9</v>
+      </c>
+      <c r="D591">
+        <v>12</v>
+      </c>
+      <c r="E591">
+        <v>15</v>
+      </c>
+      <c r="F591">
+        <v>15</v>
       </c>
       <c r="G591">
         <v>0</v>
@@ -73894,17 +73878,17 @@
       <c r="B593" t="s">
         <v>779</v>
       </c>
-      <c r="C593" t="s">
-        <v>30</v>
-      </c>
-      <c r="D593" t="s">
-        <v>30</v>
-      </c>
-      <c r="E593" t="s">
-        <v>30</v>
-      </c>
-      <c r="F593" t="s">
-        <v>30</v>
+      <c r="C593">
+        <v>28</v>
+      </c>
+      <c r="D593">
+        <v>13</v>
+      </c>
+      <c r="E593">
+        <v>48</v>
+      </c>
+      <c r="F593">
+        <v>26</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -73994,17 +73978,17 @@
       <c r="B595" t="s">
         <v>781</v>
       </c>
-      <c r="C595" t="s">
-        <v>30</v>
-      </c>
-      <c r="D595" t="s">
-        <v>30</v>
-      </c>
-      <c r="E595" t="s">
-        <v>30</v>
-      </c>
-      <c r="F595" t="s">
-        <v>30</v>
+      <c r="C595">
+        <v>3</v>
+      </c>
+      <c r="D595">
+        <v>10</v>
+      </c>
+      <c r="E595">
+        <v>17</v>
+      </c>
+      <c r="F595">
+        <v>5</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -74044,17 +74028,17 @@
       <c r="B596" t="s">
         <v>772</v>
       </c>
-      <c r="C596" t="s">
-        <v>30</v>
-      </c>
-      <c r="D596" t="s">
-        <v>30</v>
-      </c>
-      <c r="E596" t="s">
-        <v>30</v>
-      </c>
-      <c r="F596" t="s">
-        <v>30</v>
+      <c r="C596">
+        <v>7</v>
+      </c>
+      <c r="D596">
+        <v>7</v>
+      </c>
+      <c r="E596">
+        <v>3</v>
+      </c>
+      <c r="F596">
+        <v>5</v>
       </c>
       <c r="G596">
         <v>5</v>
@@ -74084,47 +74068,47 @@
         <v>29</v>
       </c>
       <c r="P596">
-        <f t="shared" ref="P596" si="677">M596*10</f>
+        <f t="shared" ref="P596" si="670">M596*10</f>
         <v>150</v>
       </c>
       <c r="Q596">
-        <f t="shared" ref="Q596" si="678">((SUM(C596:F596))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q596" si="671">((SUM(C596:F596))/4)*1.04</f>
+        <v>5.7200000000000006</v>
       </c>
       <c r="R596">
-        <f t="shared" ref="R596" si="679">((SUM(C598:F598))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R596" si="672">((SUM(C598:F598))/4)*1.04</f>
+        <v>11.96</v>
       </c>
       <c r="S596">
-        <f t="shared" ref="S596" si="680">((SUM(C600:F600))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S596" si="673">((SUM(C600:F600))/4)*1.04</f>
+        <v>11.96</v>
       </c>
       <c r="T596">
-        <f t="shared" ref="T596" si="681">((SUM(C602:F602))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T596" si="674">((SUM(C602:F602))/4)*1.04</f>
+        <v>14.040000000000001</v>
       </c>
       <c r="U596">
-        <f t="shared" ref="U596" si="682">((SUM(C604:F604))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U596" si="675">((SUM(C604:F604))/4)*1.04</f>
+        <v>12.22</v>
       </c>
       <c r="V596">
-        <f t="shared" ref="V596" si="683">((SUM(C596:F604))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V596" si="676">((SUM(C596:F604))/20)*1.04</f>
+        <v>11.18</v>
       </c>
       <c r="W596">
-        <f t="shared" ref="W596" si="684">(SUM(G596:H604))/10</f>
+        <f t="shared" ref="W596" si="677">(SUM(G596:H604))/10</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="X596">
-        <f t="shared" ref="X596" si="685">(SUM(I596:I604))/5</f>
+        <f t="shared" ref="X596" si="678">(SUM(I596:I604))/5</f>
         <v>2</v>
       </c>
       <c r="Y596">
-        <f t="shared" ref="Y596" si="686">SUM(K596:K604)-Z596</f>
+        <f t="shared" ref="Y596" si="679">SUM(K596:K604)-Z596</f>
         <v>29</v>
       </c>
       <c r="Z596">
-        <f t="shared" ref="Z596" si="687">SUM(L596:L604)</f>
+        <f t="shared" ref="Z596" si="680">SUM(L596:L604)</f>
         <v>8</v>
       </c>
       <c r="AA596" t="s">
@@ -74188,17 +74172,17 @@
       <c r="B598" t="s">
         <v>775</v>
       </c>
-      <c r="C598" t="s">
-        <v>30</v>
-      </c>
-      <c r="D598" t="s">
-        <v>30</v>
-      </c>
-      <c r="E598" t="s">
-        <v>30</v>
-      </c>
-      <c r="F598" t="s">
-        <v>30</v>
+      <c r="C598">
+        <v>5</v>
+      </c>
+      <c r="D598">
+        <v>16</v>
+      </c>
+      <c r="E598">
+        <v>15</v>
+      </c>
+      <c r="F598">
+        <v>10</v>
       </c>
       <c r="G598">
         <v>2</v>
@@ -74288,17 +74272,17 @@
       <c r="B600" t="s">
         <v>777</v>
       </c>
-      <c r="C600" t="s">
-        <v>30</v>
-      </c>
-      <c r="D600" t="s">
-        <v>30</v>
-      </c>
-      <c r="E600" t="s">
-        <v>30</v>
-      </c>
-      <c r="F600" t="s">
-        <v>30</v>
+      <c r="C600">
+        <v>15</v>
+      </c>
+      <c r="D600">
+        <v>11</v>
+      </c>
+      <c r="E600">
+        <v>13</v>
+      </c>
+      <c r="F600">
+        <v>7</v>
       </c>
       <c r="G600">
         <v>5</v>
@@ -74388,17 +74372,17 @@
       <c r="B602" t="s">
         <v>779</v>
       </c>
-      <c r="C602" t="s">
-        <v>30</v>
-      </c>
-      <c r="D602" t="s">
-        <v>30</v>
-      </c>
-      <c r="E602" t="s">
-        <v>30</v>
-      </c>
-      <c r="F602" t="s">
-        <v>30</v>
+      <c r="C602">
+        <v>20</v>
+      </c>
+      <c r="D602">
+        <v>10</v>
+      </c>
+      <c r="E602">
+        <v>18</v>
+      </c>
+      <c r="F602">
+        <v>6</v>
       </c>
       <c r="G602">
         <v>2</v>
@@ -74488,17 +74472,17 @@
       <c r="B604" t="s">
         <v>781</v>
       </c>
-      <c r="C604" t="s">
-        <v>30</v>
-      </c>
-      <c r="D604" t="s">
-        <v>30</v>
-      </c>
-      <c r="E604" t="s">
-        <v>30</v>
-      </c>
-      <c r="F604" t="s">
-        <v>30</v>
+      <c r="C604">
+        <v>7</v>
+      </c>
+      <c r="D604">
+        <v>2</v>
+      </c>
+      <c r="E604">
+        <v>18</v>
+      </c>
+      <c r="F604">
+        <v>20</v>
       </c>
       <c r="G604">
         <v>20</v>
@@ -74538,17 +74522,17 @@
       <c r="B605" t="s">
         <v>772</v>
       </c>
-      <c r="C605" t="s">
-        <v>30</v>
-      </c>
-      <c r="D605" t="s">
-        <v>30</v>
-      </c>
-      <c r="E605" t="s">
-        <v>30</v>
-      </c>
-      <c r="F605" t="s">
-        <v>30</v>
+      <c r="C605">
+        <v>15</v>
+      </c>
+      <c r="D605">
+        <v>15</v>
+      </c>
+      <c r="E605">
+        <v>24</v>
+      </c>
+      <c r="F605">
+        <v>22</v>
       </c>
       <c r="G605">
         <v>2</v>
@@ -74578,47 +74562,47 @@
         <v>29</v>
       </c>
       <c r="P605">
-        <f t="shared" ref="P605" si="688">M605*10</f>
+        <f t="shared" ref="P605" si="681">M605*10</f>
         <v>190</v>
       </c>
       <c r="Q605">
-        <f t="shared" ref="Q605" si="689">((SUM(C605:F605))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q605" si="682">((SUM(C605:F605))/4)*1.04</f>
+        <v>19.760000000000002</v>
       </c>
       <c r="R605">
-        <f t="shared" ref="R605" si="690">((SUM(C607:F607))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R605" si="683">((SUM(C607:F607))/4)*1.04</f>
+        <v>16.12</v>
       </c>
       <c r="S605">
-        <f t="shared" ref="S605" si="691">((SUM(C609:F609))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S605" si="684">((SUM(C609:F609))/4)*1.04</f>
+        <v>22.880000000000003</v>
       </c>
       <c r="T605">
-        <f t="shared" ref="T605" si="692">((SUM(C611:F611))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T605" si="685">((SUM(C611:F611))/4)*1.04</f>
+        <v>7.54</v>
       </c>
       <c r="U605">
-        <f t="shared" ref="U605" si="693">((SUM(C613:F613))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U605" si="686">((SUM(C613:F613))/4)*1.04</f>
+        <v>21.580000000000002</v>
       </c>
       <c r="V605">
-        <f t="shared" ref="V605" si="694">((SUM(C605:F613))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V605" si="687">((SUM(C605:F613))/20)*1.04</f>
+        <v>17.576000000000001</v>
       </c>
       <c r="W605">
-        <f t="shared" ref="W605" si="695">(SUM(G605:H613))/10</f>
+        <f t="shared" ref="W605" si="688">(SUM(G605:H613))/10</f>
         <v>1.8</v>
       </c>
       <c r="X605">
-        <f t="shared" ref="X605" si="696">(SUM(I605:I613))/5</f>
+        <f t="shared" ref="X605" si="689">(SUM(I605:I613))/5</f>
         <v>3</v>
       </c>
       <c r="Y605">
-        <f t="shared" ref="Y605" si="697">SUM(K605:K613)-Z605</f>
+        <f t="shared" ref="Y605" si="690">SUM(K605:K613)-Z605</f>
         <v>93</v>
       </c>
       <c r="Z605">
-        <f t="shared" ref="Z605" si="698">SUM(L605:L613)</f>
+        <f t="shared" ref="Z605" si="691">SUM(L605:L613)</f>
         <v>2</v>
       </c>
       <c r="AA605" t="s">
@@ -74682,17 +74666,17 @@
       <c r="B607" t="s">
         <v>775</v>
       </c>
-      <c r="C607" t="s">
-        <v>30</v>
-      </c>
-      <c r="D607" t="s">
-        <v>30</v>
-      </c>
-      <c r="E607" t="s">
-        <v>30</v>
-      </c>
-      <c r="F607" t="s">
-        <v>30</v>
+      <c r="C607">
+        <v>7</v>
+      </c>
+      <c r="D607">
+        <v>23</v>
+      </c>
+      <c r="E607">
+        <v>22</v>
+      </c>
+      <c r="F607">
+        <v>10</v>
       </c>
       <c r="G607">
         <v>5</v>
@@ -74782,16 +74766,16 @@
       <c r="B609" t="s">
         <v>777</v>
       </c>
-      <c r="C609" t="s">
-        <v>30</v>
-      </c>
-      <c r="D609" t="s">
-        <v>30</v>
-      </c>
-      <c r="E609" t="s">
-        <v>30</v>
-      </c>
-      <c r="F609" t="s">
+      <c r="C609">
+        <v>14</v>
+      </c>
+      <c r="D609">
+        <v>20</v>
+      </c>
+      <c r="E609">
+        <v>24</v>
+      </c>
+      <c r="F609">
         <v>30</v>
       </c>
       <c r="G609">
@@ -74882,17 +74866,17 @@
       <c r="B611" t="s">
         <v>779</v>
       </c>
-      <c r="C611" t="s">
-        <v>30</v>
-      </c>
-      <c r="D611" t="s">
-        <v>30</v>
-      </c>
-      <c r="E611" t="s">
-        <v>30</v>
-      </c>
-      <c r="F611" t="s">
-        <v>30</v>
+      <c r="C611">
+        <v>14</v>
+      </c>
+      <c r="D611">
+        <v>7</v>
+      </c>
+      <c r="E611">
+        <v>5</v>
+      </c>
+      <c r="F611">
+        <v>3</v>
       </c>
       <c r="G611">
         <v>2</v>
@@ -74982,17 +74966,17 @@
       <c r="B613" t="s">
         <v>781</v>
       </c>
-      <c r="C613" t="s">
-        <v>30</v>
-      </c>
-      <c r="D613" t="s">
-        <v>30</v>
-      </c>
-      <c r="E613" t="s">
-        <v>30</v>
-      </c>
-      <c r="F613" t="s">
-        <v>30</v>
+      <c r="C613">
+        <v>6</v>
+      </c>
+      <c r="D613">
+        <v>14</v>
+      </c>
+      <c r="E613">
+        <v>16</v>
+      </c>
+      <c r="F613">
+        <v>47</v>
       </c>
       <c r="G613">
         <v>2</v>
@@ -75032,17 +75016,17 @@
       <c r="B614" t="s">
         <v>772</v>
       </c>
-      <c r="C614" t="s">
-        <v>30</v>
-      </c>
-      <c r="D614" t="s">
-        <v>30</v>
-      </c>
-      <c r="E614" t="s">
-        <v>30</v>
-      </c>
-      <c r="F614" t="s">
-        <v>30</v>
+      <c r="C614">
+        <v>20</v>
+      </c>
+      <c r="D614">
+        <v>15</v>
+      </c>
+      <c r="E614">
+        <v>32</v>
+      </c>
+      <c r="F614">
+        <v>16</v>
       </c>
       <c r="G614">
         <v>40</v>
@@ -75072,47 +75056,47 @@
         <v>29</v>
       </c>
       <c r="P614" t="e">
-        <f t="shared" ref="P614" si="699">M614*10</f>
+        <f t="shared" ref="P614" si="692">M614*10</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q614">
-        <f t="shared" ref="Q614" si="700">((SUM(C614:F614))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q614" si="693">((SUM(C614:F614))/4)*1.04</f>
+        <v>21.580000000000002</v>
       </c>
       <c r="R614">
-        <f t="shared" ref="R614" si="701">((SUM(C616:F616))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R614" si="694">((SUM(C616:F616))/4)*1.04</f>
+        <v>28.86</v>
       </c>
       <c r="S614">
-        <f t="shared" ref="S614" si="702">((SUM(C618:F618))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S614" si="695">((SUM(C618:F618))/4)*1.04</f>
+        <v>22.880000000000003</v>
       </c>
       <c r="T614">
-        <f t="shared" ref="T614" si="703">((SUM(C620:F620))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T614" si="696">((SUM(C620:F620))/4)*1.04</f>
+        <v>20.28</v>
       </c>
       <c r="U614">
-        <f t="shared" ref="U614" si="704">((SUM(C622:F622))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U614" si="697">((SUM(C622:F622))/4)*1.04</f>
+        <v>21.060000000000002</v>
       </c>
       <c r="V614">
-        <f t="shared" ref="V614" si="705">((SUM(C614:F622))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V614" si="698">((SUM(C614:F622))/20)*1.04</f>
+        <v>22.932000000000002</v>
       </c>
       <c r="W614">
-        <f t="shared" ref="W614" si="706">(SUM(G614:H622))/10</f>
+        <f t="shared" ref="W614" si="699">(SUM(G614:H622))/10</f>
         <v>19.5</v>
       </c>
       <c r="X614">
-        <f t="shared" ref="X614" si="707">(SUM(I614:I622))/5</f>
+        <f t="shared" ref="X614" si="700">(SUM(I614:I622))/5</f>
         <v>2.8</v>
       </c>
       <c r="Y614">
-        <f t="shared" ref="Y614" si="708">SUM(K614:K622)-Z614</f>
+        <f t="shared" ref="Y614" si="701">SUM(K614:K622)-Z614</f>
         <v>2</v>
       </c>
       <c r="Z614">
-        <f t="shared" ref="Z614" si="709">SUM(L614:L622)</f>
+        <f t="shared" ref="Z614" si="702">SUM(L614:L622)</f>
         <v>9</v>
       </c>
       <c r="AA614" t="s">
@@ -75176,17 +75160,17 @@
       <c r="B616" t="s">
         <v>775</v>
       </c>
-      <c r="C616" t="s">
-        <v>30</v>
-      </c>
-      <c r="D616" t="s">
-        <v>30</v>
-      </c>
-      <c r="E616" t="s">
-        <v>30</v>
-      </c>
-      <c r="F616" t="s">
-        <v>30</v>
+      <c r="C616">
+        <v>25</v>
+      </c>
+      <c r="D616">
+        <v>31</v>
+      </c>
+      <c r="E616">
+        <v>33</v>
+      </c>
+      <c r="F616">
+        <v>22</v>
       </c>
       <c r="G616">
         <v>20</v>
@@ -75276,17 +75260,17 @@
       <c r="B618" t="s">
         <v>777</v>
       </c>
-      <c r="C618" t="s">
-        <v>30</v>
-      </c>
-      <c r="D618" t="s">
-        <v>30</v>
-      </c>
-      <c r="E618" t="s">
-        <v>30</v>
-      </c>
-      <c r="F618" t="s">
-        <v>30</v>
+      <c r="C618">
+        <v>27</v>
+      </c>
+      <c r="D618">
+        <v>17</v>
+      </c>
+      <c r="E618">
+        <v>24</v>
+      </c>
+      <c r="F618">
+        <v>20</v>
       </c>
       <c r="G618">
         <v>5</v>
@@ -75376,17 +75360,17 @@
       <c r="B620" t="s">
         <v>779</v>
       </c>
-      <c r="C620" t="s">
-        <v>30</v>
-      </c>
-      <c r="D620" t="s">
-        <v>30</v>
-      </c>
-      <c r="E620" t="s">
-        <v>30</v>
-      </c>
-      <c r="F620" t="s">
-        <v>30</v>
+      <c r="C620">
+        <v>8</v>
+      </c>
+      <c r="D620">
+        <v>9</v>
+      </c>
+      <c r="E620">
+        <v>34</v>
+      </c>
+      <c r="F620">
+        <v>27</v>
       </c>
       <c r="G620">
         <v>15</v>
@@ -75476,17 +75460,17 @@
       <c r="B622" t="s">
         <v>781</v>
       </c>
-      <c r="C622" t="s">
-        <v>30</v>
-      </c>
-      <c r="D622" t="s">
-        <v>30</v>
-      </c>
-      <c r="E622" t="s">
-        <v>30</v>
-      </c>
-      <c r="F622" t="s">
-        <v>30</v>
+      <c r="C622">
+        <v>7</v>
+      </c>
+      <c r="D622">
+        <v>14</v>
+      </c>
+      <c r="E622">
+        <v>44</v>
+      </c>
+      <c r="F622">
+        <v>16</v>
       </c>
       <c r="G622">
         <v>15</v>
@@ -75526,17 +75510,17 @@
       <c r="B623" t="s">
         <v>772</v>
       </c>
-      <c r="C623" t="s">
-        <v>30</v>
-      </c>
-      <c r="D623" t="s">
-        <v>30</v>
-      </c>
-      <c r="E623" t="s">
-        <v>30</v>
-      </c>
-      <c r="F623" t="s">
-        <v>30</v>
+      <c r="C623">
+        <v>29</v>
+      </c>
+      <c r="D623">
+        <v>38</v>
+      </c>
+      <c r="E623">
+        <v>20</v>
+      </c>
+      <c r="F623">
+        <v>93</v>
       </c>
       <c r="G623">
         <v>15</v>
@@ -75566,47 +75550,47 @@
         <v>29</v>
       </c>
       <c r="P623">
-        <f t="shared" ref="P623" si="710">M623*10</f>
+        <f t="shared" ref="P623" si="703">M623*10</f>
         <v>50</v>
       </c>
       <c r="Q623">
-        <f t="shared" ref="Q623" si="711">((SUM(C623:F623))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q623" si="704">((SUM(C623:F623))/4)*1.04</f>
+        <v>46.800000000000004</v>
       </c>
       <c r="R623">
-        <f t="shared" ref="R623" si="712">((SUM(C625:F625))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R623" si="705">((SUM(C625:F625))/4)*1.04</f>
+        <v>37.44</v>
       </c>
       <c r="S623">
-        <f t="shared" ref="S623" si="713">((SUM(C627:F627))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S623" si="706">((SUM(C627:F627))/4)*1.04</f>
+        <v>23.66</v>
       </c>
       <c r="T623">
-        <f t="shared" ref="T623" si="714">((SUM(C629:F629))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T623" si="707">((SUM(C629:F629))/4)*1.04</f>
+        <v>21.060000000000002</v>
       </c>
       <c r="U623">
-        <f t="shared" ref="U623" si="715">((SUM(C631:F631))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U623" si="708">((SUM(C631:F631))/4)*1.04</f>
+        <v>15.34</v>
       </c>
       <c r="V623">
-        <f t="shared" ref="V623" si="716">((SUM(C623:F631))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V623" si="709">((SUM(C623:F631))/20)*1.04</f>
+        <v>28.86</v>
       </c>
       <c r="W623">
-        <f t="shared" ref="W623" si="717">(SUM(G623:H631))/10</f>
+        <f t="shared" ref="W623" si="710">(SUM(G623:H631))/10</f>
         <v>25.6</v>
       </c>
       <c r="X623">
-        <f t="shared" ref="X623" si="718">(SUM(I623:I631))/5</f>
+        <f t="shared" ref="X623" si="711">(SUM(I623:I631))/5</f>
         <v>1.6</v>
       </c>
       <c r="Y623">
-        <f t="shared" ref="Y623" si="719">SUM(K623:K631)-Z623</f>
+        <f t="shared" ref="Y623" si="712">SUM(K623:K631)-Z623</f>
         <v>12</v>
       </c>
       <c r="Z623">
-        <f t="shared" ref="Z623" si="720">SUM(L623:L631)</f>
+        <f t="shared" ref="Z623" si="713">SUM(L623:L631)</f>
         <v>4</v>
       </c>
       <c r="AA623" t="s">
@@ -75670,17 +75654,17 @@
       <c r="B625" t="s">
         <v>775</v>
       </c>
-      <c r="C625" t="s">
-        <v>30</v>
-      </c>
-      <c r="D625" t="s">
-        <v>30</v>
-      </c>
-      <c r="E625" t="s">
-        <v>30</v>
-      </c>
-      <c r="F625" t="s">
-        <v>30</v>
+      <c r="C625">
+        <v>25</v>
+      </c>
+      <c r="D625">
+        <v>23</v>
+      </c>
+      <c r="E625">
+        <v>48</v>
+      </c>
+      <c r="F625">
+        <v>48</v>
       </c>
       <c r="G625">
         <v>1</v>
@@ -75770,17 +75754,17 @@
       <c r="B627" t="s">
         <v>777</v>
       </c>
-      <c r="C627" t="s">
-        <v>30</v>
-      </c>
-      <c r="D627" t="s">
-        <v>30</v>
-      </c>
-      <c r="E627" t="s">
-        <v>30</v>
-      </c>
-      <c r="F627" t="s">
-        <v>30</v>
+      <c r="C627">
+        <v>4</v>
+      </c>
+      <c r="D627">
+        <v>8</v>
+      </c>
+      <c r="E627">
+        <v>29</v>
+      </c>
+      <c r="F627">
+        <v>50</v>
       </c>
       <c r="G627">
         <v>5</v>
@@ -75870,17 +75854,17 @@
       <c r="B629" t="s">
         <v>779</v>
       </c>
-      <c r="C629" t="s">
-        <v>30</v>
-      </c>
-      <c r="D629" t="s">
-        <v>30</v>
-      </c>
-      <c r="E629" t="s">
-        <v>30</v>
-      </c>
-      <c r="F629" t="s">
-        <v>30</v>
+      <c r="C629">
+        <v>11</v>
+      </c>
+      <c r="D629">
+        <v>18</v>
+      </c>
+      <c r="E629">
+        <v>15</v>
+      </c>
+      <c r="F629">
+        <v>37</v>
       </c>
       <c r="G629">
         <v>15</v>
@@ -75970,17 +75954,17 @@
       <c r="B631" t="s">
         <v>781</v>
       </c>
-      <c r="C631" t="s">
-        <v>30</v>
-      </c>
-      <c r="D631" t="s">
-        <v>30</v>
-      </c>
-      <c r="E631" t="s">
-        <v>30</v>
-      </c>
-      <c r="F631" t="s">
-        <v>30</v>
+      <c r="C631">
+        <v>14</v>
+      </c>
+      <c r="D631">
+        <v>13</v>
+      </c>
+      <c r="E631">
+        <v>12</v>
+      </c>
+      <c r="F631">
+        <v>20</v>
       </c>
       <c r="G631">
         <v>65</v>
@@ -76020,17 +76004,17 @@
       <c r="B632" t="s">
         <v>772</v>
       </c>
-      <c r="C632" t="s">
-        <v>30</v>
-      </c>
-      <c r="D632" t="s">
-        <v>30</v>
-      </c>
-      <c r="E632" t="s">
-        <v>30</v>
-      </c>
-      <c r="F632" t="s">
-        <v>30</v>
+      <c r="C632">
+        <v>35</v>
+      </c>
+      <c r="D632">
+        <v>11</v>
+      </c>
+      <c r="E632">
+        <v>24</v>
+      </c>
+      <c r="F632">
+        <v>44</v>
       </c>
       <c r="G632">
         <v>25</v>
@@ -76060,47 +76044,47 @@
         <v>29</v>
       </c>
       <c r="P632">
-        <f t="shared" ref="P632" si="721">M632*10</f>
+        <f t="shared" ref="P632" si="714">M632*10</f>
         <v>70</v>
       </c>
       <c r="Q632">
-        <f t="shared" ref="Q632" si="722">((SUM(C632:F632))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q632" si="715">((SUM(C632:F632))/4)*1.04</f>
+        <v>29.64</v>
       </c>
       <c r="R632">
-        <f t="shared" ref="R632" si="723">((SUM(C634:F634))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R632" si="716">((SUM(C634:F634))/4)*1.04</f>
+        <v>25.220000000000002</v>
       </c>
       <c r="S632">
-        <f t="shared" ref="S632" si="724">((SUM(C636:F636))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S632" si="717">((SUM(C636:F636))/4)*1.04</f>
+        <v>44.980000000000004</v>
       </c>
       <c r="T632">
-        <f t="shared" ref="T632" si="725">((SUM(C638:F638))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T632" si="718">((SUM(C638:F638))/4)*1.04</f>
+        <v>21.84</v>
       </c>
       <c r="U632">
-        <f t="shared" ref="U632" si="726">((SUM(C640:F640))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U632" si="719">((SUM(C640:F640))/4)*1.04</f>
+        <v>13.780000000000001</v>
       </c>
       <c r="V632">
-        <f t="shared" ref="V632" si="727">((SUM(C632:F640))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V632" si="720">((SUM(C632:F640))/20)*1.04</f>
+        <v>27.092000000000002</v>
       </c>
       <c r="W632">
-        <f t="shared" ref="W632" si="728">(SUM(G632:H640))/10</f>
+        <f t="shared" ref="W632" si="721">(SUM(G632:H640))/10</f>
         <v>50</v>
       </c>
       <c r="X632">
-        <f t="shared" ref="X632" si="729">(SUM(I632:I640))/5</f>
+        <f t="shared" ref="X632" si="722">(SUM(I632:I640))/5</f>
         <v>1.4</v>
       </c>
       <c r="Y632">
-        <f t="shared" ref="Y632" si="730">SUM(K632:K640)-Z632</f>
+        <f t="shared" ref="Y632" si="723">SUM(K632:K640)-Z632</f>
         <v>-2</v>
       </c>
       <c r="Z632">
-        <f t="shared" ref="Z632" si="731">SUM(L632:L640)</f>
+        <f t="shared" ref="Z632" si="724">SUM(L632:L640)</f>
         <v>6</v>
       </c>
       <c r="AA632" t="s">
@@ -76164,17 +76148,17 @@
       <c r="B634" t="s">
         <v>775</v>
       </c>
-      <c r="C634" t="s">
-        <v>30</v>
-      </c>
-      <c r="D634" t="s">
-        <v>30</v>
-      </c>
-      <c r="E634" t="s">
-        <v>30</v>
-      </c>
-      <c r="F634" t="s">
-        <v>30</v>
+      <c r="C634">
+        <v>7</v>
+      </c>
+      <c r="D634">
+        <v>37</v>
+      </c>
+      <c r="E634">
+        <v>16</v>
+      </c>
+      <c r="F634">
+        <v>37</v>
       </c>
       <c r="G634">
         <v>45</v>
@@ -76264,17 +76248,17 @@
       <c r="B636" t="s">
         <v>777</v>
       </c>
-      <c r="C636" t="s">
-        <v>30</v>
-      </c>
-      <c r="D636" t="s">
-        <v>30</v>
-      </c>
-      <c r="E636" t="s">
-        <v>30</v>
-      </c>
-      <c r="F636" t="s">
-        <v>30</v>
+      <c r="C636">
+        <v>43</v>
+      </c>
+      <c r="D636">
+        <v>51</v>
+      </c>
+      <c r="E636">
+        <v>41</v>
+      </c>
+      <c r="F636">
+        <v>38</v>
       </c>
       <c r="G636">
         <v>35</v>
@@ -76364,17 +76348,17 @@
       <c r="B638" t="s">
         <v>779</v>
       </c>
-      <c r="C638" t="s">
-        <v>30</v>
-      </c>
-      <c r="D638" t="s">
-        <v>30</v>
-      </c>
-      <c r="E638" t="s">
-        <v>30</v>
-      </c>
-      <c r="F638" t="s">
-        <v>30</v>
+      <c r="C638">
+        <v>24</v>
+      </c>
+      <c r="D638">
+        <v>24</v>
+      </c>
+      <c r="E638">
+        <v>16</v>
+      </c>
+      <c r="F638">
+        <v>20</v>
       </c>
       <c r="G638">
         <v>80</v>
@@ -76464,17 +76448,17 @@
       <c r="B640" t="s">
         <v>781</v>
       </c>
-      <c r="C640" t="s">
-        <v>30</v>
-      </c>
-      <c r="D640" t="s">
-        <v>30</v>
-      </c>
-      <c r="E640" t="s">
-        <v>30</v>
-      </c>
-      <c r="F640" t="s">
-        <v>30</v>
+      <c r="C640">
+        <v>14</v>
+      </c>
+      <c r="D640">
+        <v>27</v>
+      </c>
+      <c r="E640">
+        <v>9</v>
+      </c>
+      <c r="F640">
+        <v>3</v>
       </c>
       <c r="G640">
         <v>90</v>
@@ -76514,17 +76498,17 @@
       <c r="B641" t="s">
         <v>772</v>
       </c>
-      <c r="C641" t="s">
-        <v>30</v>
-      </c>
-      <c r="D641" t="s">
-        <v>30</v>
-      </c>
-      <c r="E641" t="s">
-        <v>30</v>
-      </c>
-      <c r="F641" t="s">
-        <v>30</v>
+      <c r="C641">
+        <v>21</v>
+      </c>
+      <c r="D641">
+        <v>17</v>
+      </c>
+      <c r="E641">
+        <v>21</v>
+      </c>
+      <c r="F641">
+        <v>5</v>
       </c>
       <c r="G641">
         <v>20</v>
@@ -76554,35 +76538,35 @@
         <v>29</v>
       </c>
       <c r="P641">
-        <f t="shared" ref="P641" si="732">M641*10</f>
+        <f t="shared" ref="P641" si="725">M641*10</f>
         <v>40</v>
       </c>
       <c r="Q641">
-        <f t="shared" ref="Q641" si="733">((SUM(C641:F641))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="Q641" si="726">((SUM(C641:F641))/4)*1.04</f>
+        <v>16.64</v>
       </c>
       <c r="R641">
-        <f t="shared" ref="R641" si="734">((SUM(C643:F643))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="R641" si="727">((SUM(C643:F643))/4)*1.04</f>
+        <v>27.04</v>
       </c>
       <c r="S641">
-        <f t="shared" ref="S641" si="735">((SUM(C645:F645))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="S641" si="728">((SUM(C645:F645))/4)*1.04</f>
+        <v>25.220000000000002</v>
       </c>
       <c r="T641">
-        <f t="shared" ref="T641" si="736">((SUM(C647:F647))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="T641" si="729">((SUM(C647:F647))/4)*1.04</f>
+        <v>15.600000000000001</v>
       </c>
       <c r="U641">
-        <f t="shared" ref="U641" si="737">((SUM(C649:F649))/4)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="U641" si="730">((SUM(C649:F649))/4)*1.04</f>
+        <v>16.38</v>
       </c>
       <c r="V641">
-        <f t="shared" ref="V641" si="738">((SUM(C641:F649))/20)*1.04</f>
-        <v>0</v>
+        <f t="shared" ref="V641" si="731">((SUM(C641:F649))/20)*1.04</f>
+        <v>20.175999999999998</v>
       </c>
       <c r="W641">
-        <f t="shared" ref="W641" si="739">(SUM(G641:H649))/10</f>
+        <f t="shared" ref="W641" si="732">(SUM(G641:H649))/10</f>
         <v>10.5</v>
       </c>
       <c r="X641">
@@ -76590,11 +76574,11 @@
         <v>1.8</v>
       </c>
       <c r="Y641">
-        <f t="shared" ref="Y641" si="740">SUM(K641:K649)-Z641</f>
+        <f t="shared" ref="Y641" si="733">SUM(K641:K649)-Z641</f>
         <v>6</v>
       </c>
       <c r="Z641">
-        <f t="shared" ref="Z641" si="741">SUM(L641:L649)</f>
+        <f t="shared" ref="Z641" si="734">SUM(L641:L649)</f>
         <v>6</v>
       </c>
       <c r="AA641" t="s">
@@ -76658,17 +76642,17 @@
       <c r="B643" t="s">
         <v>775</v>
       </c>
-      <c r="C643" t="s">
-        <v>30</v>
-      </c>
-      <c r="D643" t="s">
-        <v>30</v>
-      </c>
-      <c r="E643" t="s">
-        <v>30</v>
-      </c>
-      <c r="F643" t="s">
-        <v>30</v>
+      <c r="C643">
+        <v>27</v>
+      </c>
+      <c r="D643">
+        <v>51</v>
+      </c>
+      <c r="E643">
+        <v>6</v>
+      </c>
+      <c r="F643">
+        <v>20</v>
       </c>
       <c r="G643">
         <v>5</v>
@@ -76758,17 +76742,17 @@
       <c r="B645" t="s">
         <v>777</v>
       </c>
-      <c r="C645" t="s">
-        <v>30</v>
-      </c>
-      <c r="D645" t="s">
-        <v>30</v>
-      </c>
-      <c r="E645" t="s">
-        <v>30</v>
-      </c>
-      <c r="F645" t="s">
-        <v>30</v>
+      <c r="C645">
+        <v>28</v>
+      </c>
+      <c r="D645">
+        <v>36</v>
+      </c>
+      <c r="E645">
+        <v>6</v>
+      </c>
+      <c r="F645">
+        <v>27</v>
       </c>
       <c r="G645">
         <v>5</v>
@@ -76858,17 +76842,17 @@
       <c r="B647" t="s">
         <v>779</v>
       </c>
-      <c r="C647" t="s">
-        <v>30</v>
-      </c>
-      <c r="D647" t="s">
-        <v>30</v>
-      </c>
-      <c r="E647" t="s">
-        <v>30</v>
-      </c>
-      <c r="F647" t="s">
-        <v>30</v>
+      <c r="C647">
+        <v>0</v>
+      </c>
+      <c r="D647">
+        <v>11</v>
+      </c>
+      <c r="E647">
+        <v>23</v>
+      </c>
+      <c r="F647">
+        <v>26</v>
       </c>
       <c r="G647">
         <v>15</v>
@@ -76958,17 +76942,17 @@
       <c r="B649" t="s">
         <v>781</v>
       </c>
-      <c r="C649" t="s">
-        <v>30</v>
-      </c>
-      <c r="D649" t="s">
-        <v>30</v>
-      </c>
-      <c r="E649" t="s">
-        <v>30</v>
-      </c>
-      <c r="F649" t="s">
-        <v>30</v>
+      <c r="C649">
+        <v>11</v>
+      </c>
+      <c r="D649">
+        <v>18</v>
+      </c>
+      <c r="E649">
+        <v>31</v>
+      </c>
+      <c r="F649">
+        <v>3</v>
       </c>
       <c r="G649">
         <v>5</v>

--- a/raw_data/arabuko_sokoke_11.xlsx
+++ b/raw_data/arabuko_sokoke_11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/SCIENCE/RESEARCH/arabuko_sokoke/ASF/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseborden/Dropbox/SCIENCE/RESEARCH/arabuko_sokoke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0232ACDF-A706-FA40-884C-EE8578D1D369}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{712C598B-95EF-BD42-8167-2862719269D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="540" windowWidth="27800" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="540" windowWidth="27800" windowHeight="16600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Herps" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2697,6 +2699,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3174,10 +3180,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -27502,16 +27510,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="6" max="9" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>641</v>
       </c>
       <c r="C1" t="s">
@@ -27523,16 +27535,16 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>647</v>
       </c>
       <c r="J1" t="s">
@@ -27564,7 +27576,7 @@
       <c r="A2" t="s">
         <v>655</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>43246</v>
       </c>
       <c r="C2" t="s">
@@ -27576,16 +27588,16 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>0.45</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>0.46736111111111101</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>0.47777777777777802</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>0.49236111111111103</v>
       </c>
       <c r="J2">
@@ -27617,7 +27629,7 @@
       <c r="A3" t="s">
         <v>655</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>43246</v>
       </c>
       <c r="C3" t="s">
@@ -27629,16 +27641,16 @@
       <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.86458333333333304</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>0.88472222222222197</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>0.89444444444444404</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>0.90902777777777799</v>
       </c>
       <c r="J3">
@@ -27670,7 +27682,7 @@
       <c r="A4" t="s">
         <v>148</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>43251</v>
       </c>
       <c r="C4" t="s">
@@ -27682,16 +27694,16 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.45763888888888898</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.47638888888888897</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>0.484722222222222</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>0.499305555555556</v>
       </c>
       <c r="J4">
@@ -27723,7 +27735,7 @@
       <c r="A5" t="s">
         <v>148</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>43251</v>
       </c>
       <c r="C5" t="s">
@@ -27735,16 +27747,16 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.87013888888888902</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>0.89027777777777795</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>0.90138888888888902</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0.91180555555555598</v>
       </c>
       <c r="J5">
@@ -27776,7 +27788,7 @@
       <c r="A6" t="s">
         <v>264</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>43257</v>
       </c>
       <c r="C6" t="s">
@@ -27788,16 +27800,16 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.36875000000000002</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>0.38819444444444401</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0.41041666666666698</v>
       </c>
       <c r="J6">
@@ -27829,7 +27841,7 @@
       <c r="A7" t="s">
         <v>264</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>43257</v>
       </c>
       <c r="C7" t="s">
@@ -27841,16 +27853,16 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.80208333333333304</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>0.82013888888888897</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>0.84097222222222201</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>0.844444444444444</v>
       </c>
       <c r="J7">
@@ -27882,7 +27894,7 @@
       <c r="A8" t="s">
         <v>327</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>43257</v>
       </c>
       <c r="C8" t="s">
@@ -27894,16 +27906,16 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.36111111111111099</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>0.38819444444444401</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>0.39652777777777798</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.40277777777777801</v>
       </c>
       <c r="J8">
@@ -27935,7 +27947,7 @@
       <c r="A9" t="s">
         <v>327</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>43257</v>
       </c>
       <c r="C9" t="s">
@@ -27947,16 +27959,16 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0.86319444444444404</v>
       </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J9">
@@ -27988,7 +28000,7 @@
       <c r="A10" t="s">
         <v>335</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>43257</v>
       </c>
       <c r="C10" t="s">
@@ -28000,16 +28012,16 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -28041,7 +28053,7 @@
       <c r="A11" t="s">
         <v>335</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>43257</v>
       </c>
       <c r="C11" t="s">
@@ -28053,16 +28065,16 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J11">
@@ -28094,7 +28106,7 @@
       <c r="A12" t="s">
         <v>367</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>43257</v>
       </c>
       <c r="C12" t="s">
@@ -28106,16 +28118,16 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0.42013888888888901</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>0.44166666666666698</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>0.453472222222222</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>0.46180555555555602</v>
       </c>
       <c r="J12">
@@ -28147,7 +28159,7 @@
       <c r="A13" t="s">
         <v>367</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>43257</v>
       </c>
       <c r="C13" t="s">
@@ -28159,16 +28171,16 @@
       <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.79513888888888895</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>0.81805555555555598</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>0.82708333333333295</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>0.83680555555555602</v>
       </c>
       <c r="J13">
@@ -28200,7 +28212,7 @@
       <c r="A14" t="s">
         <v>369</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>43257</v>
       </c>
       <c r="C14" t="s">
@@ -28212,16 +28224,16 @@
       <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J14">
@@ -28253,7 +28265,7 @@
       <c r="A15" t="s">
         <v>369</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>43257</v>
       </c>
       <c r="C15" t="s">
@@ -28265,16 +28277,16 @@
       <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J15">
@@ -28306,7 +28318,7 @@
       <c r="A16" t="s">
         <v>665</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>43257</v>
       </c>
       <c r="C16" t="s">
@@ -28318,16 +28330,16 @@
       <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0.44166666666666698</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>0.46041666666666697</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>0.468055555555556</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>0.48263888888888901</v>
       </c>
       <c r="J16">
@@ -28359,7 +28371,7 @@
       <c r="A17" t="s">
         <v>666</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>43257</v>
       </c>
       <c r="C17" t="s">
@@ -28371,16 +28383,16 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>0.47777777777777802</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>0.49861111111111101</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>0.50624999999999998</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>0.51944444444444404</v>
       </c>
       <c r="J17">
@@ -28412,7 +28424,7 @@
       <c r="A18" t="s">
         <v>350</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>43258</v>
       </c>
       <c r="C18" t="s">
@@ -28424,16 +28436,16 @@
       <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>0.38680555555555601</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>0.40902777777777799</v>
       </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J18">
@@ -28465,7 +28477,7 @@
       <c r="A19" t="s">
         <v>350</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>43258</v>
       </c>
       <c r="C19" t="s">
@@ -28477,16 +28489,16 @@
       <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>0.80416666666666703</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>0.82569444444444395</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>0.83402777777777803</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.84583333333333299</v>
       </c>
       <c r="J19">
@@ -28518,7 +28530,7 @@
       <c r="A20" t="s">
         <v>400</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>43258</v>
       </c>
       <c r="C20" t="s">
@@ -28530,16 +28542,16 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="F20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J20">
@@ -28571,7 +28583,7 @@
       <c r="A21" t="s">
         <v>400</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>43258</v>
       </c>
       <c r="C21" t="s">
@@ -28583,16 +28595,16 @@
       <c r="E21" t="s">
         <v>39</v>
       </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="F21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J21">
@@ -28624,7 +28636,7 @@
       <c r="A22" t="s">
         <v>362</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>43258</v>
       </c>
       <c r="C22" t="s">
@@ -28636,16 +28648,16 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>0.38680555555555601</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>0.40486111111111101</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>0.41458333333333303</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>0.42847222222222198</v>
       </c>
       <c r="J22">
@@ -28677,7 +28689,7 @@
       <c r="A23" t="s">
         <v>362</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>43258</v>
       </c>
       <c r="C23" t="s">
@@ -28689,16 +28701,16 @@
       <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>0.80972222222222201</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>0.83680555555555602</v>
       </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="4">
         <v>0.84722222222222199</v>
       </c>
       <c r="J23">
@@ -28730,7 +28742,7 @@
       <c r="A24" t="s">
         <v>346</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>43258</v>
       </c>
       <c r="C24" t="s">
@@ -28742,16 +28754,16 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>0.44861111111111102</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>0.46666666666666701</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>0.47569444444444398</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>0.49027777777777798</v>
       </c>
       <c r="J24">
@@ -28783,7 +28795,7 @@
       <c r="A25" t="s">
         <v>346</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>43258</v>
       </c>
       <c r="C25" t="s">
@@ -28795,16 +28807,16 @@
       <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>0.85902777777777795</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>0.87777777777777799</v>
       </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J25">
@@ -28836,7 +28848,7 @@
       <c r="A26" t="s">
         <v>669</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>43258</v>
       </c>
       <c r="C26" t="s">
@@ -28848,16 +28860,16 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J26">
@@ -28889,7 +28901,7 @@
       <c r="A27" t="s">
         <v>669</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>43258</v>
       </c>
       <c r="C27" t="s">
@@ -28901,16 +28913,16 @@
       <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="F27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J27">
@@ -28942,7 +28954,7 @@
       <c r="A28" t="s">
         <v>364</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>43258</v>
       </c>
       <c r="C28" t="s">
@@ -28954,16 +28966,16 @@
       <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>0.46388888888888902</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>0.484722222222222</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>0.49791666666666701</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>0.50555555555555598</v>
       </c>
       <c r="J28">
@@ -28995,7 +29007,7 @@
       <c r="A29" t="s">
         <v>364</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>43258</v>
       </c>
       <c r="C29" t="s">
@@ -29007,16 +29019,16 @@
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>0.86597222222222203</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>0.88333333333333297</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>0.85347222222222197</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>0.86180555555555605</v>
       </c>
       <c r="J29">
@@ -29048,7 +29060,7 @@
       <c r="A30" t="s">
         <v>105</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>43246</v>
       </c>
       <c r="C30" t="s">
@@ -29060,16 +29072,16 @@
       <c r="E30" t="s">
         <v>27</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>0.43263888888888902</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>0.44930555555555601</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>0.46319444444444402</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>0.47430555555555598</v>
       </c>
       <c r="J30">
@@ -29101,7 +29113,7 @@
       <c r="A31" t="s">
         <v>105</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>43246</v>
       </c>
       <c r="C31" t="s">
@@ -29113,16 +29125,16 @@
       <c r="E31" t="s">
         <v>39</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>0.86805555555555602</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>0.88749999999999996</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>0.89861111111111103</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>0.90972222222222199</v>
       </c>
       <c r="J31">
@@ -29154,7 +29166,7 @@
       <c r="A32" t="s">
         <v>109</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>43246</v>
       </c>
       <c r="C32" t="s">
@@ -29166,16 +29178,16 @@
       <c r="E32" t="s">
         <v>27</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>0.53888888888888897</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
         <v>0.55902777777777801</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>0.56944444444444398</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>0.58055555555555505</v>
       </c>
       <c r="J32">
@@ -29207,7 +29219,7 @@
       <c r="A33" t="s">
         <v>441</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>43250</v>
       </c>
       <c r="C33" t="s">
@@ -29219,16 +29231,16 @@
       <c r="E33" t="s">
         <v>27</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>0.46875</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>0.48611111111111099</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>0.49791666666666701</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>0.51041666666666696</v>
       </c>
       <c r="J33">
@@ -29260,7 +29272,7 @@
       <c r="A34" t="s">
         <v>441</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>43250</v>
       </c>
       <c r="C34" t="s">
@@ -29272,16 +29284,16 @@
       <c r="E34" t="s">
         <v>39</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>0.82777777777777795</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="4">
         <v>0.84722222222222199</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <v>0.85833333333333295</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>0.86944444444444402</v>
       </c>
       <c r="J34">
@@ -29313,7 +29325,7 @@
       <c r="A35" t="s">
         <v>224</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>43250</v>
       </c>
       <c r="C35" t="s">
@@ -29325,16 +29337,16 @@
       <c r="E35" t="s">
         <v>27</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>0.499305555555556</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>0.51180555555555496</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>0.52152777777777803</v>
       </c>
       <c r="J35">
@@ -29366,7 +29378,7 @@
       <c r="A36" t="s">
         <v>224</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>43250</v>
       </c>
       <c r="C36" t="s">
@@ -29378,16 +29390,16 @@
       <c r="E36" t="s">
         <v>39</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>0.85347222222222197</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <v>0.86250000000000004</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>0.875</v>
       </c>
       <c r="J36">
@@ -29419,7 +29431,7 @@
       <c r="A37" t="s">
         <v>221</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>43250</v>
       </c>
       <c r="C37" t="s">
@@ -29431,16 +29443,16 @@
       <c r="E37" t="s">
         <v>39</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>0.83680555555555602</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>0.85347222222222197</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>0.86319444444444404</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>0.46180555555555602</v>
       </c>
       <c r="J37">
@@ -29472,7 +29484,7 @@
       <c r="A38" t="s">
         <v>221</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>43250</v>
       </c>
       <c r="C38" t="s">
@@ -29484,16 +29496,16 @@
       <c r="E38" t="s">
         <v>27</v>
       </c>
-      <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="F38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J38">
@@ -29525,7 +29537,7 @@
       <c r="A39" t="s">
         <v>170</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>43251</v>
       </c>
       <c r="C39" t="s">
@@ -29537,16 +29549,16 @@
       <c r="E39" t="s">
         <v>27</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>0.36458333333333298</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <v>0.38124999999999998</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <v>0.39513888888888898</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>0.40625</v>
       </c>
       <c r="J39">
@@ -29578,7 +29590,7 @@
       <c r="A40" t="s">
         <v>170</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>43251</v>
       </c>
       <c r="C40" t="s">
@@ -29590,16 +29602,16 @@
       <c r="E40" t="s">
         <v>39</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>0.811805555555556</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>0.82986111111111105</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <v>0.84027777777777801</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>0.85347222222222197</v>
       </c>
       <c r="J40">
@@ -29631,7 +29643,7 @@
       <c r="A41" t="s">
         <v>155</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>43250</v>
       </c>
       <c r="C41" t="s">
@@ -29643,16 +29655,16 @@
       <c r="E41" t="s">
         <v>27</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>0.37361111111111101</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>0.406944444444444</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>0.41597222222222202</v>
       </c>
       <c r="J41">
@@ -29684,7 +29696,7 @@
       <c r="A42" t="s">
         <v>155</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>43251</v>
       </c>
       <c r="C42" t="s">
@@ -29696,16 +29708,16 @@
       <c r="E42" t="s">
         <v>39</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>0.80763888888888902</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>0.82916666666666705</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>0.83680555555555602</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <v>0.84930555555555598</v>
       </c>
       <c r="J42">
@@ -29737,7 +29749,7 @@
       <c r="A43" t="s">
         <v>158</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C43" t="s">
@@ -29749,16 +29761,16 @@
       <c r="E43" t="s">
         <v>27</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>0.45</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>0.46597222222222201</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <v>0.47847222222222202</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>0.49166666666666697</v>
       </c>
       <c r="J43">
@@ -29790,7 +29802,7 @@
       <c r="A44" t="s">
         <v>158</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>43251</v>
       </c>
       <c r="C44" t="s">
@@ -29802,16 +29814,16 @@
       <c r="E44" t="s">
         <v>39</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>0.87847222222222199</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>0.89652777777777803</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>0.906944444444444</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>0.92013888888888895</v>
       </c>
       <c r="J44">
@@ -29843,7 +29855,7 @@
       <c r="A45" t="s">
         <v>674</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>43266</v>
       </c>
       <c r="C45" t="s">
@@ -29855,16 +29867,16 @@
       <c r="E45" t="s">
         <v>27</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>0.35763888888888901</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>0.37361111111111101</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>0.38541666666666702</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>0.39236111111111099</v>
       </c>
       <c r="J45">
@@ -29896,7 +29908,7 @@
       <c r="A46" t="s">
         <v>674</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>43263</v>
       </c>
       <c r="C46" t="s">
@@ -29908,16 +29920,16 @@
       <c r="E46" t="s">
         <v>39</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>0.79374999999999996</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>0.81458333333333299</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>0.82430555555555596</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>0.83541666666666703</v>
       </c>
       <c r="J46">
@@ -29949,7 +29961,7 @@
       <c r="A47" t="s">
         <v>444</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>43264</v>
       </c>
       <c r="C47" t="s">
@@ -29961,16 +29973,16 @@
       <c r="E47" t="s">
         <v>27</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>0.51736111111111105</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>0.52638888888888902</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>0.54305555555555496</v>
       </c>
       <c r="J47">
@@ -30002,7 +30014,7 @@
       <c r="A48" t="s">
         <v>444</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>43264</v>
       </c>
       <c r="C48" t="s">
@@ -30014,16 +30026,16 @@
       <c r="E48" t="s">
         <v>39</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>0.88194444444444398</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>0.89861111111111103</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>0.906944444444444</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>0.92361111111111105</v>
       </c>
       <c r="J48">
@@ -30055,7 +30067,7 @@
       <c r="A49" t="s">
         <v>678</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>43265</v>
       </c>
       <c r="C49" t="s">
@@ -30067,16 +30079,16 @@
       <c r="E49" t="s">
         <v>27</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>0.37777777777777799</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>0.39444444444444399</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>0.40416666666666701</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>0.41805555555555601</v>
       </c>
       <c r="J49">
@@ -30108,7 +30120,7 @@
       <c r="A50" t="s">
         <v>678</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>43265</v>
       </c>
       <c r="C50" t="s">
@@ -30120,16 +30132,16 @@
       <c r="E50" t="s">
         <v>39</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>0.80694444444444402</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>0.82430555555555596</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>0.83263888888888904</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>0.84861111111111098</v>
       </c>
       <c r="J50">
@@ -30161,7 +30173,7 @@
       <c r="A51" t="s">
         <v>425</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>43265</v>
       </c>
       <c r="C51" t="s">
@@ -30173,16 +30185,16 @@
       <c r="E51" t="s">
         <v>27</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>0.43958333333333299</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>0.45694444444444399</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>0.46527777777777801</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>0.47847222222222202</v>
       </c>
       <c r="J51">
@@ -30214,7 +30226,7 @@
       <c r="A52" t="s">
         <v>425</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>43265</v>
       </c>
       <c r="C52" t="s">
@@ -30226,16 +30238,16 @@
       <c r="E52" t="s">
         <v>39</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>0.85347222222222197</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>0.87222222222222201</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>0.88194444444444398</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <v>0.89027777777777795</v>
       </c>
       <c r="J52">
@@ -30267,7 +30279,7 @@
       <c r="A53" t="s">
         <v>490</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>43265</v>
       </c>
       <c r="C53" t="s">
@@ -30279,16 +30291,16 @@
       <c r="E53" t="s">
         <v>27</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>0.38680555555555601</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>0.40486111111111101</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>0.41458333333333303</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <v>0.42361111111111099</v>
       </c>
       <c r="J53">
@@ -30320,7 +30332,7 @@
       <c r="A54" t="s">
         <v>490</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>43265</v>
       </c>
       <c r="C54" t="s">
@@ -30332,16 +30344,16 @@
       <c r="E54" t="s">
         <v>39</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>0.8125</v>
       </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54">
+      <c r="G54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="4">
         <v>0.83333333333333304</v>
       </c>
       <c r="J54">
@@ -30373,7 +30385,7 @@
       <c r="A55" t="s">
         <v>495</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>43265</v>
       </c>
       <c r="C55" t="s">
@@ -30385,16 +30397,16 @@
       <c r="E55" t="s">
         <v>27</v>
       </c>
-      <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="F55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J55">
@@ -30426,7 +30438,7 @@
       <c r="A56" t="s">
         <v>495</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>43265</v>
       </c>
       <c r="C56" t="s">
@@ -30438,16 +30450,16 @@
       <c r="E56" t="s">
         <v>39</v>
       </c>
-      <c r="F56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="F56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J56">
@@ -30479,7 +30491,7 @@
       <c r="A57" t="s">
         <v>422</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>43266</v>
       </c>
       <c r="C57" t="s">
@@ -30491,16 +30503,16 @@
       <c r="E57" t="s">
         <v>27</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>0.41319444444444398</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>0.42361111111111099</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="4">
         <v>0.43055555555555602</v>
       </c>
       <c r="J57">
@@ -30532,7 +30544,7 @@
       <c r="A58" t="s">
         <v>422</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>43263</v>
       </c>
       <c r="C58" t="s">
@@ -30544,16 +30556,16 @@
       <c r="E58" t="s">
         <v>39</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>0.83680555555555602</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>0.85208333333333297</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>0.86180555555555605</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>0.875</v>
       </c>
       <c r="J58">
@@ -30585,7 +30597,7 @@
       <c r="A59" t="s">
         <v>682</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>43266</v>
       </c>
       <c r="C59" t="s">
@@ -30597,16 +30609,16 @@
       <c r="E59" t="s">
         <v>27</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <v>0.43055555555555602</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>0.44861111111111102</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>0.45694444444444399</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="4">
         <v>0.46597222222222201</v>
       </c>
       <c r="J59">
@@ -30638,7 +30650,7 @@
       <c r="A60" t="s">
         <v>682</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>43263</v>
       </c>
       <c r="C60" t="s">
@@ -30650,16 +30662,16 @@
       <c r="E60" t="s">
         <v>39</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <v>0.87847222222222199</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <v>0.89583333333333304</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="4">
         <v>0.90347222222222201</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>0.91319444444444398</v>
       </c>
       <c r="J60">
@@ -30691,7 +30703,7 @@
       <c r="A61" t="s">
         <v>465</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>43266</v>
       </c>
       <c r="C61" t="s">
@@ -30703,16 +30715,16 @@
       <c r="E61" t="s">
         <v>27</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <v>0.41111111111111098</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <v>0.43263888888888902</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <v>0.44027777777777799</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <v>0.45138888888888901</v>
       </c>
       <c r="J61">
@@ -30744,7 +30756,7 @@
       <c r="A62" t="s">
         <v>465</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>43263</v>
       </c>
       <c r="C62" t="s">
@@ -30756,16 +30768,16 @@
       <c r="E62" t="s">
         <v>39</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <v>0.85486111111111096</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>0.87222222222222201</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>0.87916666666666698</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>0.89583333333333304</v>
       </c>
       <c r="J62">
@@ -30797,7 +30809,7 @@
       <c r="A63" t="s">
         <v>683</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>43266</v>
       </c>
       <c r="C63" t="s">
@@ -30809,16 +30821,16 @@
       <c r="E63" t="s">
         <v>27</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>0.36458333333333298</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>0.38055555555555598</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>0.389583333333333</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="4">
         <v>0.36111111111111099</v>
       </c>
       <c r="J63">
@@ -30850,7 +30862,7 @@
       <c r="A64" t="s">
         <v>683</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>43263</v>
       </c>
       <c r="C64" t="s">
@@ -30862,16 +30874,16 @@
       <c r="E64" t="s">
         <v>39</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="4">
         <v>0.80069444444444404</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>0.81805555555555598</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="4">
         <v>0.82777777777777795</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="4">
         <v>0.84236111111111101</v>
       </c>
       <c r="J64">
@@ -30903,7 +30915,7 @@
       <c r="A65" t="s">
         <v>685</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>43264</v>
       </c>
       <c r="C65" t="s">
@@ -30915,16 +30927,16 @@
       <c r="E65" t="s">
         <v>27</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="4">
         <v>0.37152777777777801</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>0.38750000000000001</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="4">
         <v>0.41180555555555598</v>
       </c>
       <c r="J65">
@@ -30956,7 +30968,7 @@
       <c r="A66" t="s">
         <v>685</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>43264</v>
       </c>
       <c r="C66" t="s">
@@ -30968,16 +30980,16 @@
       <c r="E66" t="s">
         <v>39</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>0.79791666666666705</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="4">
         <v>0.81666666666666698</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="4">
         <v>0.83819444444444402</v>
       </c>
       <c r="J66">
@@ -31009,7 +31021,7 @@
       <c r="A67" t="s">
         <v>468</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>43264</v>
       </c>
       <c r="C67" t="s">
@@ -31021,16 +31033,16 @@
       <c r="E67" t="s">
         <v>27</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <v>0.43125000000000002</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="4">
         <v>0.45</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="4">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="4">
         <v>0.47569444444444398</v>
       </c>
       <c r="J67">
@@ -31062,7 +31074,7 @@
       <c r="A68" t="s">
         <v>468</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>43264</v>
       </c>
       <c r="C68" t="s">
@@ -31074,16 +31086,16 @@
       <c r="E68" t="s">
         <v>39</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>0.843055555555556</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>0.86319444444444404</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <v>0.87152777777777801</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <v>0.88472222222222197</v>
       </c>
       <c r="J68">
@@ -31115,7 +31127,7 @@
       <c r="A69" t="s">
         <v>458</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>43264</v>
       </c>
       <c r="C69" t="s">
@@ -31127,16 +31139,16 @@
       <c r="E69" t="s">
         <v>27</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <v>0.37291666666666701</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <v>0.390277777777778</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>0.4</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="4">
         <v>0.41458333333333303</v>
       </c>
       <c r="J69">
@@ -31168,7 +31180,7 @@
       <c r="A70" t="s">
         <v>458</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>43264</v>
       </c>
       <c r="C70" t="s">
@@ -31180,16 +31192,16 @@
       <c r="E70" t="s">
         <v>39</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="4">
         <v>0.79583333333333295</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>0.8125</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="4">
         <v>0.82291666666666696</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="4">
         <v>0.83750000000000002</v>
       </c>
       <c r="J70">
@@ -31221,7 +31233,7 @@
       <c r="A71" t="s">
         <v>452</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>43264</v>
       </c>
       <c r="C71" t="s">
@@ -31233,16 +31245,16 @@
       <c r="E71" t="s">
         <v>27</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="4">
         <v>0.43263888888888902</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <v>0.45069444444444401</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="4">
         <v>0.46041666666666697</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="4">
         <v>0.47430555555555598</v>
       </c>
       <c r="J71">
@@ -31274,7 +31286,7 @@
       <c r="A72" t="s">
         <v>452</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>43264</v>
       </c>
       <c r="C72" t="s">
@@ -31286,16 +31298,16 @@
       <c r="E72" t="s">
         <v>39</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="4">
         <v>0.84027777777777801</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <v>0.85763888888888895</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="4">
         <v>0.86597222222222203</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="4">
         <v>0.88194444444444398</v>
       </c>
       <c r="J72">
@@ -31327,7 +31339,7 @@
       <c r="A73" t="s">
         <v>687</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>43265</v>
       </c>
       <c r="C73" t="s">
@@ -31339,16 +31351,16 @@
       <c r="E73" t="s">
         <v>39</v>
       </c>
-      <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="F73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J73">
@@ -31380,7 +31392,7 @@
       <c r="A74" t="s">
         <v>25</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>43244</v>
       </c>
       <c r="C74" t="s">
@@ -31392,16 +31404,16 @@
       <c r="E74" t="s">
         <v>27</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="4">
         <v>0.49861111111111101</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <v>0.51527777777777795</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="4">
         <v>0.52569444444444402</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="4">
         <v>0.53958333333333297</v>
       </c>
       <c r="J74" t="s">
@@ -31433,7 +31445,7 @@
       <c r="A75" t="s">
         <v>25</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>43244</v>
       </c>
       <c r="C75" t="s">
@@ -31445,16 +31457,16 @@
       <c r="E75" t="s">
         <v>39</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="4">
         <v>0.86111111111111105</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <v>0.87986111111111098</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="4">
         <v>0.88888888888888895</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="4">
         <v>0.90277777777777801</v>
       </c>
       <c r="J75" t="s">
@@ -31486,7 +31498,7 @@
       <c r="A76" t="s">
         <v>277</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>43255</v>
       </c>
       <c r="C76" t="s">
@@ -31498,16 +31510,16 @@
       <c r="E76" t="s">
         <v>27</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="4">
         <v>0.48055555555555501</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="4">
         <v>0.49722222222222201</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="4">
         <v>0.51111111111111096</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="4">
         <v>0.52361111111111103</v>
       </c>
       <c r="J76">
@@ -31539,7 +31551,7 @@
       <c r="A77" t="s">
         <v>277</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>43255</v>
       </c>
       <c r="C77" t="s">
@@ -31551,16 +31563,16 @@
       <c r="E77" t="s">
         <v>39</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="4">
         <v>0.80416666666666703</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="4">
         <v>0.82361111111111096</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="4">
         <v>0.83402777777777803</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="4">
         <v>0.84652777777777799</v>
       </c>
       <c r="J77">
@@ -31592,7 +31604,7 @@
       <c r="A78" t="s">
         <v>690</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>43255</v>
       </c>
       <c r="C78" t="s">
@@ -31604,16 +31616,16 @@
       <c r="E78" t="s">
         <v>39</v>
       </c>
-      <c r="F78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
-      <c r="H78" t="s">
-        <v>30</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="F78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J78">
@@ -31645,7 +31657,7 @@
       <c r="A79" t="s">
         <v>282</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>43255</v>
       </c>
       <c r="C79" t="s">
@@ -31657,16 +31669,16 @@
       <c r="E79" t="s">
         <v>39</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="4">
         <v>0.80347222222222203</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="4">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="4">
         <v>0.82986111111111105</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="4">
         <v>0.84513888888888899</v>
       </c>
       <c r="J79">
@@ -31698,7 +31710,7 @@
       <c r="A80" t="s">
         <v>282</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>43255</v>
       </c>
       <c r="C80" t="s">
@@ -31710,16 +31722,16 @@
       <c r="E80" t="s">
         <v>27</v>
       </c>
-      <c r="F80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="F80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J80">
@@ -31751,7 +31763,7 @@
       <c r="A81" t="s">
         <v>357</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>43255</v>
       </c>
       <c r="C81" t="s">
@@ -31763,16 +31775,16 @@
       <c r="E81" t="s">
         <v>39</v>
       </c>
-      <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="F81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J81">
@@ -31804,7 +31816,7 @@
       <c r="A82" t="s">
         <v>273</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>43255</v>
       </c>
       <c r="C82" t="s">
@@ -31816,16 +31828,16 @@
       <c r="E82" t="s">
         <v>27</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="4">
         <v>0.65069444444444402</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="4">
         <v>0.67013888888888895</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="4">
         <v>0.68194444444444402</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="4">
         <v>0.69097222222222199</v>
       </c>
       <c r="J82" t="s">
@@ -31857,7 +31869,7 @@
       <c r="A83" t="s">
         <v>273</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>43255</v>
       </c>
       <c r="C83" t="s">
@@ -31869,16 +31881,16 @@
       <c r="E83" t="s">
         <v>39</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>0.86041666666666705</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>0.87777777777777799</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="4">
         <v>0.88749999999999996</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="4">
         <v>0.90138888888888902</v>
       </c>
       <c r="J83">
@@ -31910,7 +31922,7 @@
       <c r="A84" t="s">
         <v>691</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>43255</v>
       </c>
       <c r="C84" t="s">
@@ -31922,16 +31934,16 @@
       <c r="E84" t="s">
         <v>39</v>
       </c>
-      <c r="F84" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" t="s">
-        <v>30</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="F84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J84">
@@ -31963,7 +31975,7 @@
       <c r="A85" t="s">
         <v>316</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>43256</v>
       </c>
       <c r="C85" t="s">
@@ -31975,16 +31987,16 @@
       <c r="E85" t="s">
         <v>27</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="4">
         <v>0.35416666666666702</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <v>0.37361111111111101</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="4">
         <v>0.38611111111111102</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="4">
         <v>0.40277777777777801</v>
       </c>
       <c r="J85">
@@ -32016,7 +32028,7 @@
       <c r="A86" t="s">
         <v>316</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>43256</v>
       </c>
       <c r="C86" t="s">
@@ -32028,16 +32040,16 @@
       <c r="E86" t="s">
         <v>39</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="4">
         <v>0.81944444444444398</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="4">
         <v>0.844444444444444</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="4">
         <v>0.85277777777777797</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="4">
         <v>0.86180555555555605</v>
       </c>
       <c r="J86">
@@ -32069,7 +32081,7 @@
       <c r="A87" t="s">
         <v>285</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>43256</v>
       </c>
       <c r="C87" t="s">
@@ -32081,16 +32093,16 @@
       <c r="E87" t="s">
         <v>27</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="4">
         <v>0.35416666666666702</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="4">
         <v>0.37361111111111101</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="4">
         <v>0.38333333333333303</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="4">
         <v>0.39583333333333298</v>
       </c>
       <c r="J87">
@@ -32122,7 +32134,7 @@
       <c r="A88" t="s">
         <v>285</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>43256</v>
       </c>
       <c r="C88" t="s">
@@ -32134,16 +32146,16 @@
       <c r="E88" t="s">
         <v>39</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="4">
         <v>0.90347222222222201</v>
       </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="G88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J88">
@@ -32175,7 +32187,7 @@
       <c r="A89" t="s">
         <v>694</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>43256</v>
       </c>
       <c r="C89" t="s">
@@ -32187,16 +32199,16 @@
       <c r="E89" t="s">
         <v>39</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="4">
         <v>0.82430555555555596</v>
       </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89">
+      <c r="G89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="4">
         <v>0.84513888888888899</v>
       </c>
       <c r="J89">
@@ -32228,7 +32240,7 @@
       <c r="A90" t="s">
         <v>694</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>43256</v>
       </c>
       <c r="C90" t="s">
@@ -32240,16 +32252,16 @@
       <c r="E90" t="s">
         <v>27</v>
       </c>
-      <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
-      <c r="H90" t="s">
-        <v>30</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="F90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J90">
@@ -32281,7 +32293,7 @@
       <c r="A91" t="s">
         <v>304</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>43256</v>
       </c>
       <c r="C91" t="s">
@@ -32293,16 +32305,16 @@
       <c r="E91" t="s">
         <v>27</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="4">
         <v>0.40902777777777799</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="4">
         <v>0.42916666666666697</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="4">
         <v>0.44097222222222199</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="4">
         <v>0.45069444444444401</v>
       </c>
       <c r="J91">
@@ -32334,7 +32346,7 @@
       <c r="A92" t="s">
         <v>304</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>43255</v>
       </c>
       <c r="C92" t="s">
@@ -32346,16 +32358,16 @@
       <c r="E92" t="s">
         <v>39</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="4">
         <v>0.85555555555555596</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="4">
         <v>0.87361111111111101</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="4">
         <v>0.88194444444444398</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="4">
         <v>0.89722222222222203</v>
       </c>
       <c r="J92">
@@ -32387,7 +32399,7 @@
       <c r="A93" t="s">
         <v>306</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>43255</v>
       </c>
       <c r="C93" t="s">
@@ -32399,16 +32411,16 @@
       <c r="E93" t="s">
         <v>39</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="4">
         <v>0.80277777777777803</v>
       </c>
-      <c r="G93" t="s">
-        <v>30</v>
-      </c>
-      <c r="H93" t="s">
-        <v>30</v>
-      </c>
-      <c r="I93">
+      <c r="G93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I93" s="4">
         <v>0.82361111111111096</v>
       </c>
       <c r="J93">
@@ -32440,7 +32452,7 @@
       <c r="A94" t="s">
         <v>306</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>43256</v>
       </c>
       <c r="C94" t="s">
@@ -32452,16 +32464,16 @@
       <c r="E94" t="s">
         <v>27</v>
       </c>
-      <c r="F94" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" t="s">
-        <v>30</v>
-      </c>
-      <c r="H94" t="s">
-        <v>30</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="F94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J94">
@@ -32493,7 +32505,7 @@
       <c r="A95" t="s">
         <v>312</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>43256</v>
       </c>
       <c r="C95" t="s">
@@ -32505,16 +32517,16 @@
       <c r="E95" t="s">
         <v>27</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="4">
         <v>0.43541666666666701</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <v>0.452777777777778</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="4">
         <v>0.46597222222222201</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="4">
         <v>0.47916666666666702</v>
       </c>
       <c r="J95">
@@ -32546,7 +32558,7 @@
       <c r="A96" t="s">
         <v>312</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>43256</v>
       </c>
       <c r="C96" t="s">
@@ -32558,16 +32570,16 @@
       <c r="E96" t="s">
         <v>39</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="4">
         <v>0.86944444444444402</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="4">
         <v>0.89027777777777795</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="4">
         <v>0.9</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="4">
         <v>0.91111111111111098</v>
       </c>
       <c r="J96">
@@ -32599,7 +32611,7 @@
       <c r="A97" t="s">
         <v>324</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>43256</v>
       </c>
       <c r="C97" t="s">
@@ -32611,16 +32623,16 @@
       <c r="E97" t="s">
         <v>27</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="4">
         <v>0.47083333333333299</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="4">
         <v>0.49166666666666697</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="4">
         <v>0.500694444444444</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="4">
         <v>0.51249999999999996</v>
       </c>
       <c r="J97">
@@ -32652,7 +32664,7 @@
       <c r="A98" t="s">
         <v>324</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>43256</v>
       </c>
       <c r="C98" t="s">
@@ -32664,16 +32676,16 @@
       <c r="E98" t="s">
         <v>39</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="4">
         <v>0.79861111111111105</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="4">
         <v>0.82083333333333297</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="4">
         <v>0.83055555555555505</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="4">
         <v>0.84027777777777801</v>
       </c>
       <c r="J98">
@@ -32705,7 +32717,7 @@
       <c r="A99" t="s">
         <v>249</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>43259</v>
       </c>
       <c r="C99" t="s">
@@ -32717,16 +32729,16 @@
       <c r="E99" t="s">
         <v>27</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="4">
         <v>0.35208333333333303</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="4">
         <v>0.37638888888888899</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="4">
         <v>0.38541666666666702</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="4">
         <v>0.39374999999999999</v>
       </c>
       <c r="J99">
@@ -32758,7 +32770,7 @@
       <c r="A100" t="s">
         <v>249</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>43259</v>
       </c>
       <c r="C100" t="s">
@@ -32770,16 +32782,16 @@
       <c r="E100" t="s">
         <v>39</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="4">
         <v>0.78541666666666698</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="4">
         <v>0.80555555555555503</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="4">
         <v>0.81388888888888899</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="4">
         <v>0.82708333333333295</v>
       </c>
       <c r="J100">
@@ -32811,7 +32823,7 @@
       <c r="A101" t="s">
         <v>485</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>43259</v>
       </c>
       <c r="C101" t="s">
@@ -32823,16 +32835,16 @@
       <c r="E101" t="s">
         <v>27</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="4">
         <v>0.38819444444444401</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="4">
         <v>0.40763888888888899</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="4">
         <v>0.41875000000000001</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="4">
         <v>0.42916666666666697</v>
       </c>
       <c r="J101">
@@ -32864,7 +32876,7 @@
       <c r="A102" t="s">
         <v>485</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>43259</v>
       </c>
       <c r="C102" t="s">
@@ -32876,16 +32888,16 @@
       <c r="E102" t="s">
         <v>39</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="4">
         <v>0.79305555555555496</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <v>0.8125</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="4">
         <v>0.82152777777777797</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="4">
         <v>0.83472222222222203</v>
       </c>
       <c r="J102">
@@ -32917,7 +32929,7 @@
       <c r="A103" t="s">
         <v>57</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>43244</v>
       </c>
       <c r="C103" t="s">
@@ -32929,16 +32941,16 @@
       <c r="E103" t="s">
         <v>27</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="4">
         <v>0.59166666666666701</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="4">
         <v>0.60763888888888895</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="4">
         <v>0.62222222222222201</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="4">
         <v>0.63333333333333297</v>
       </c>
       <c r="J103" t="s">
@@ -32970,7 +32982,7 @@
       <c r="A104" t="s">
         <v>57</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>43244</v>
       </c>
       <c r="C104" t="s">
@@ -32982,16 +32994,16 @@
       <c r="E104" t="s">
         <v>39</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="4">
         <v>0.906944444444444</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <v>0.92569444444444404</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="4">
         <v>0.9375</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="4">
         <v>0.94861111111111096</v>
       </c>
       <c r="J104" t="s">
@@ -33023,7 +33035,7 @@
       <c r="A105" t="s">
         <v>242</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>76131</v>
       </c>
       <c r="C105" t="s">
@@ -33035,16 +33047,16 @@
       <c r="E105" t="s">
         <v>27</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="4">
         <v>0.41319444444444398</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="4">
         <v>0.43263888888888902</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="4">
         <v>0.44236111111111098</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="4">
         <v>0.45486111111111099</v>
       </c>
       <c r="J105">
@@ -33076,7 +33088,7 @@
       <c r="A106" t="s">
         <v>242</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>43259</v>
       </c>
       <c r="C106" t="s">
@@ -33088,16 +33100,16 @@
       <c r="E106" t="s">
         <v>39</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <v>0.85</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="4">
         <v>0.85833333333333295</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="4">
         <v>0.875</v>
       </c>
       <c r="J106">
@@ -33129,7 +33141,7 @@
       <c r="A107" t="s">
         <v>481</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>43259</v>
       </c>
       <c r="C107" t="s">
@@ -33141,16 +33153,16 @@
       <c r="E107" t="s">
         <v>27</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="4">
         <v>0.46666666666666701</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <v>0.484027777777778</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="4">
         <v>0.49097222222222198</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="4">
         <v>0.50833333333333297</v>
       </c>
       <c r="J107">
@@ -33182,7 +33194,7 @@
       <c r="A108" t="s">
         <v>481</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>43259</v>
       </c>
       <c r="C108" t="s">
@@ -33194,16 +33206,16 @@
       <c r="E108" t="s">
         <v>39</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="4">
         <v>0.85069444444444398</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <v>0.87083333333333302</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="4">
         <v>0.87916666666666698</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="4">
         <v>0.89166666666666705</v>
       </c>
       <c r="J108">
@@ -33235,7 +33247,7 @@
       <c r="A109" t="s">
         <v>234</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>43259</v>
       </c>
       <c r="C109" t="s">
@@ -33247,16 +33259,16 @@
       <c r="E109" t="s">
         <v>27</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="4">
         <v>0.46111111111111103</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <v>0.48055555555555501</v>
       </c>
-      <c r="H109" t="s">
-        <v>30</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="H109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J109">
@@ -33288,7 +33300,7 @@
       <c r="A110" t="s">
         <v>234</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>43259</v>
       </c>
       <c r="C110" t="s">
@@ -33300,16 +33312,16 @@
       <c r="E110" t="s">
         <v>39</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="4">
         <v>0.875694444444444</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="4">
         <v>0.89444444444444404</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="4">
         <v>0.90416666666666701</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="4">
         <v>0.91736111111111096</v>
       </c>
       <c r="J110">
@@ -33341,7 +33353,7 @@
       <c r="A111" t="s">
         <v>540</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>43269</v>
       </c>
       <c r="C111" t="s">
@@ -33353,16 +33365,16 @@
       <c r="E111" t="s">
         <v>27</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="4">
         <v>0.41527777777777802</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <v>0.44444444444444398</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="4">
         <v>0.45138888888888901</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="4">
         <v>0.46319444444444402</v>
       </c>
       <c r="J111">
@@ -33394,7 +33406,7 @@
       <c r="A112" t="s">
         <v>534</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>43269</v>
       </c>
       <c r="C112" t="s">
@@ -33406,16 +33418,16 @@
       <c r="E112" t="s">
         <v>27</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="4">
         <v>0.49652777777777801</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <v>0.51736111111111105</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="4">
         <v>0.52638888888888902</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="4">
         <v>0.53749999999999998</v>
       </c>
       <c r="J112">
@@ -33447,7 +33459,7 @@
       <c r="A113" t="s">
         <v>534</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>43269</v>
       </c>
       <c r="C113" t="s">
@@ -33459,16 +33471,16 @@
       <c r="E113" t="s">
         <v>39</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="4">
         <v>0.87986111111111098</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <v>0.90138888888888902</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="4">
         <v>0.91388888888888897</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="4">
         <v>0.92569444444444404</v>
       </c>
       <c r="J113">
@@ -33500,7 +33512,7 @@
       <c r="A114" t="s">
         <v>506</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>43269</v>
       </c>
       <c r="C114" t="s">
@@ -33512,16 +33524,16 @@
       <c r="E114" t="s">
         <v>27</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="4">
         <v>0.42013888888888901</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <v>0.44027777777777799</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="4">
         <v>0.44930555555555601</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="4">
         <v>0.46180555555555602</v>
       </c>
       <c r="J114">
@@ -33553,7 +33565,7 @@
       <c r="A115" t="s">
         <v>550</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>43269</v>
       </c>
       <c r="C115" t="s">
@@ -33565,16 +33577,16 @@
       <c r="E115" t="s">
         <v>27</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="4">
         <v>0.41805555555555601</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <v>0.44861111111111102</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="4">
         <v>0.46041666666666697</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="4">
         <v>0.47152777777777799</v>
       </c>
       <c r="J115">
@@ -33606,7 +33618,7 @@
       <c r="A116" t="s">
         <v>550</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>43269</v>
       </c>
       <c r="C116" t="s">
@@ -33618,16 +33630,16 @@
       <c r="E116" t="s">
         <v>39</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <v>0.85208333333333297</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="4">
         <v>0.86111111111111105</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="4">
         <v>0.87291666666666701</v>
       </c>
       <c r="J116">
@@ -33659,7 +33671,7 @@
       <c r="A117" t="s">
         <v>524</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>43272</v>
       </c>
       <c r="C117" t="s">
@@ -33671,16 +33683,16 @@
       <c r="E117" t="s">
         <v>39</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="4">
         <v>0.90347222222222201</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <v>0.92152777777777795</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="4">
         <v>0.92916666666666703</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="4">
         <v>0.94652777777777797</v>
       </c>
       <c r="J117">
@@ -33712,7 +33724,7 @@
       <c r="A118" t="s">
         <v>524</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>43272</v>
       </c>
       <c r="C118" t="s">
@@ -33724,16 +33736,16 @@
       <c r="E118" t="s">
         <v>27</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="4">
         <v>0.40138888888888902</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="4">
         <v>0.44097222222222199</v>
       </c>
       <c r="J118">
@@ -33765,7 +33777,7 @@
       <c r="A119" t="s">
         <v>532</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>43270</v>
       </c>
       <c r="C119" t="s">
@@ -33777,16 +33789,16 @@
       <c r="E119" t="s">
         <v>27</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>0.44583333333333303</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="4">
         <v>0.45555555555555599</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="4">
         <v>0.46666666666666701</v>
       </c>
       <c r="J119">
@@ -33818,7 +33830,7 @@
       <c r="A120" t="s">
         <v>532</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>43270</v>
       </c>
       <c r="C120" t="s">
@@ -33830,16 +33842,16 @@
       <c r="E120" t="s">
         <v>39</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="4">
         <v>0.82986111111111105</v>
       </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" t="s">
-        <v>30</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="G120" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I120" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J120">
@@ -33871,7 +33883,7 @@
       <c r="A121" t="s">
         <v>521</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>43272</v>
       </c>
       <c r="C121" t="s">
@@ -33883,16 +33895,16 @@
       <c r="E121" t="s">
         <v>27</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="4">
         <v>0.46597222222222201</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="4">
         <v>0.483333333333333</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="4">
         <v>0.49652777777777801</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="4">
         <v>0.50694444444444398</v>
       </c>
       <c r="J121">
@@ -33924,7 +33936,7 @@
       <c r="A122" t="s">
         <v>521</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>43272</v>
       </c>
       <c r="C122" t="s">
@@ -33936,16 +33948,16 @@
       <c r="E122" t="s">
         <v>39</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="4">
         <v>0.84722222222222199</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="4">
         <v>0.86458333333333304</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="4">
         <v>0.87916666666666698</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="4">
         <v>0.89097222222222205</v>
       </c>
       <c r="J122">
@@ -33977,7 +33989,7 @@
       <c r="A123" t="s">
         <v>76</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>43245</v>
       </c>
       <c r="C123" t="s">
@@ -33989,16 +34001,16 @@
       <c r="E123" t="s">
         <v>27</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="4">
         <v>0.40902777777777799</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="4">
         <v>0.42777777777777798</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="4">
         <v>0.43958333333333299</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="4">
         <v>0.45069444444444401</v>
       </c>
       <c r="J123">
@@ -34030,7 +34042,7 @@
       <c r="A124" t="s">
         <v>76</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>43245</v>
       </c>
       <c r="C124" t="s">
@@ -34042,16 +34054,16 @@
       <c r="E124" t="s">
         <v>39</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="4">
         <v>0.85277777777777797</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="4">
         <v>0.87291666666666701</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="4">
         <v>0.88333333333333297</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="4">
         <v>0.89444444444444404</v>
       </c>
       <c r="J124">
@@ -34083,7 +34095,7 @@
       <c r="A125" t="s">
         <v>557</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>43272</v>
       </c>
       <c r="C125" t="s">
@@ -34095,16 +34107,16 @@
       <c r="E125" t="s">
         <v>27</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="4">
         <v>0.39444444444444399</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="4">
         <v>0.41111111111111098</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="4">
         <v>0.420833333333333</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="4">
         <v>0.43611111111111101</v>
       </c>
       <c r="J125">
@@ -34136,7 +34148,7 @@
       <c r="A126" t="s">
         <v>557</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>43272</v>
       </c>
       <c r="C126" t="s">
@@ -34148,16 +34160,16 @@
       <c r="E126" t="s">
         <v>39</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="4">
         <v>0.89305555555555605</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="4">
         <v>0.91111111111111098</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="4">
         <v>0.92152777777777795</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="4">
         <v>0.93472222222222201</v>
       </c>
       <c r="J126">
@@ -34189,7 +34201,7 @@
       <c r="A127" t="s">
         <v>517</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>43272</v>
       </c>
       <c r="C127" t="s">
@@ -34201,16 +34213,16 @@
       <c r="E127" t="s">
         <v>27</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="4">
         <v>0.46875</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="4">
         <v>0.48749999999999999</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="4">
         <v>0.49652777777777801</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="4">
         <v>0.50833333333333297</v>
       </c>
       <c r="J127">
@@ -34242,7 +34254,7 @@
       <c r="A128" t="s">
         <v>517</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>43272</v>
       </c>
       <c r="C128" t="s">
@@ -34254,16 +34266,16 @@
       <c r="E128" t="s">
         <v>39</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="4">
         <v>0.84652777777777799</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="4">
         <v>0.86388888888888904</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="4">
         <v>0.875694444444444</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="4">
         <v>0.88819444444444395</v>
       </c>
       <c r="J128">
@@ -34295,7 +34307,7 @@
       <c r="A129" t="s">
         <v>82</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>43245</v>
       </c>
       <c r="C129" t="s">
@@ -34307,16 +34319,16 @@
       <c r="E129" t="s">
         <v>27</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="4">
         <v>0.50416666666666698</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="4">
         <v>0.52222222222222203</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="4">
         <v>0.53333333333333299</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="4">
         <v>0.54652777777777795</v>
       </c>
       <c r="J129">
@@ -34348,7 +34360,7 @@
       <c r="A130" t="s">
         <v>82</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>43245</v>
       </c>
       <c r="C130" t="s">
@@ -34360,16 +34372,16 @@
       <c r="E130" t="s">
         <v>39</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="4">
         <v>0.85</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="4">
         <v>0.86944444444444402</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="4">
         <v>0.88124999999999998</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="4">
         <v>0.89236111111111105</v>
       </c>
       <c r="J130">
@@ -34401,7 +34413,7 @@
       <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>43248</v>
       </c>
       <c r="C131" t="s">
@@ -34413,16 +34425,16 @@
       <c r="E131" t="s">
         <v>27</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="4">
         <v>0.35625000000000001</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="4">
         <v>0.375</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="4">
         <v>0.38472222222222202</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="4">
         <v>0.39861111111111103</v>
       </c>
       <c r="J131">
@@ -34454,7 +34466,7 @@
       <c r="A132" t="s">
         <v>134</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>43249</v>
       </c>
       <c r="C132" t="s">
@@ -34466,16 +34478,16 @@
       <c r="E132" t="s">
         <v>39</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="4">
         <v>0.84861111111111098</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="4">
         <v>0.86527777777777803</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="4">
         <v>0.875694444444444</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="4">
         <v>0.89027777777777795</v>
       </c>
       <c r="J132">
@@ -34507,7 +34519,7 @@
       <c r="A133" t="s">
         <v>123</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>43248</v>
       </c>
       <c r="C133" t="s">
@@ -34519,16 +34531,16 @@
       <c r="E133" t="s">
         <v>27</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="4">
         <v>0.40625</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="4">
         <v>0.421527777777778</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="4">
         <v>0.43472222222222201</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="4">
         <v>0.44791666666666702</v>
       </c>
       <c r="J133">
@@ -34560,7 +34572,7 @@
       <c r="A134" t="s">
         <v>123</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <v>43249</v>
       </c>
       <c r="C134" t="s">
@@ -34572,16 +34584,16 @@
       <c r="E134" t="s">
         <v>39</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="4">
         <v>0.84791666666666698</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="4">
         <v>0.86875000000000002</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="4">
         <v>0.87916666666666698</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="4">
         <v>0.89027777777777795</v>
       </c>
       <c r="J134">
@@ -34613,7 +34625,7 @@
       <c r="A135" t="s">
         <v>178</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>43252</v>
       </c>
       <c r="C135" t="s">
@@ -34625,16 +34637,16 @@
       <c r="E135" t="s">
         <v>27</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="4">
         <v>0.36249999999999999</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="4">
         <v>0.37777777777777799</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="4">
         <v>0.39236111111111099</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="4">
         <v>0.40416666666666701</v>
       </c>
       <c r="J135">
@@ -34666,7 +34678,7 @@
       <c r="A136" t="s">
         <v>178</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>43252</v>
       </c>
       <c r="C136" t="s">
@@ -34678,16 +34690,16 @@
       <c r="E136" t="s">
         <v>39</v>
       </c>
-      <c r="F136" t="s">
-        <v>30</v>
-      </c>
-      <c r="G136" t="s">
-        <v>30</v>
-      </c>
-      <c r="H136" t="s">
-        <v>30</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="F136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I136" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J136">
@@ -34719,7 +34731,7 @@
       <c r="A137" t="s">
         <v>185</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>43252</v>
       </c>
       <c r="C137" t="s">
@@ -34731,16 +34743,16 @@
       <c r="E137" t="s">
         <v>27</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="4">
         <v>0.42361111111111099</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="4">
         <v>0.44097222222222199</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="4">
         <v>0.45069444444444401</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="4">
         <v>0.46527777777777801</v>
       </c>
       <c r="J137">
@@ -34772,7 +34784,7 @@
       <c r="A138" t="s">
         <v>185</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>43252</v>
       </c>
       <c r="C138" t="s">
@@ -34784,16 +34796,16 @@
       <c r="E138" t="s">
         <v>39</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="4">
         <v>0.82222222222222197</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="4">
         <v>0.84375</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="4">
         <v>0.85277777777777797</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="4">
         <v>0.86388888888888904</v>
       </c>
       <c r="J138">
@@ -34825,7 +34837,7 @@
       <c r="A139" t="s">
         <v>254</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>43252</v>
       </c>
       <c r="C139" t="s">
@@ -34837,16 +34849,16 @@
       <c r="E139" t="s">
         <v>27</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="4">
         <v>0.499305555555556</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="4">
         <v>0.51875000000000004</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="4">
         <v>0.53263888888888899</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="4">
         <v>0.54097222222222197</v>
       </c>
       <c r="J139">
@@ -34878,7 +34890,7 @@
       <c r="A140" t="s">
         <v>371</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>43257</v>
       </c>
       <c r="C140" t="s">
@@ -34890,16 +34902,16 @@
       <c r="E140" t="s">
         <v>27</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="4">
         <v>0.43541666666666701</v>
       </c>
-      <c r="G140" t="s">
-        <v>30</v>
-      </c>
-      <c r="H140" t="s">
-        <v>30</v>
-      </c>
-      <c r="I140">
+      <c r="G140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I140" s="4">
         <v>0.45624999999999999</v>
       </c>
       <c r="J140">
@@ -34931,7 +34943,7 @@
       <c r="A141" t="s">
         <v>371</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>43257</v>
       </c>
       <c r="C141" t="s">
@@ -34943,16 +34955,16 @@
       <c r="E141" t="s">
         <v>39</v>
       </c>
-      <c r="F141" t="s">
-        <v>30</v>
-      </c>
-      <c r="G141" t="s">
-        <v>30</v>
-      </c>
-      <c r="H141" t="s">
-        <v>30</v>
-      </c>
-      <c r="I141" t="s">
+      <c r="F141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I141" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J141">
@@ -34984,7 +34996,7 @@
       <c r="A142" t="s">
         <v>705</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>43257</v>
       </c>
       <c r="C142" t="s">
@@ -34996,16 +35008,16 @@
       <c r="E142" t="s">
         <v>27</v>
       </c>
-      <c r="F142" t="s">
-        <v>30</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
-      <c r="H142" t="s">
-        <v>30</v>
-      </c>
-      <c r="I142" t="s">
+      <c r="F142" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I142" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J142">
@@ -35037,7 +35049,7 @@
       <c r="A143" t="s">
         <v>173</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>43251</v>
       </c>
       <c r="C143" t="s">
@@ -35049,16 +35061,16 @@
       <c r="E143" t="s">
         <v>27</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="4">
         <v>0.53125</v>
       </c>
-      <c r="G143" t="s">
-        <v>30</v>
-      </c>
-      <c r="H143" t="s">
-        <v>30</v>
-      </c>
-      <c r="I143">
+      <c r="G143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I143" s="4">
         <v>0.55208333333333304</v>
       </c>
       <c r="J143">
@@ -35090,7 +35102,7 @@
       <c r="A144" t="s">
         <v>173</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <v>43251</v>
       </c>
       <c r="C144" t="s">
@@ -35102,16 +35114,16 @@
       <c r="E144" t="s">
         <v>39</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="4">
         <v>0.92361111111111105</v>
       </c>
-      <c r="G144" t="s">
-        <v>30</v>
-      </c>
-      <c r="H144" t="s">
-        <v>30</v>
-      </c>
-      <c r="I144">
+      <c r="G144" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I144" s="4">
         <v>0.94444444444444398</v>
       </c>
       <c r="J144">
@@ -35143,7 +35155,7 @@
       <c r="A145" t="s">
         <v>204</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <v>43251</v>
       </c>
       <c r="C145" t="s">
@@ -35155,16 +35167,16 @@
       <c r="E145" t="s">
         <v>27</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="4">
         <v>0.53125</v>
       </c>
-      <c r="G145" t="s">
-        <v>30</v>
-      </c>
-      <c r="H145" t="s">
-        <v>30</v>
-      </c>
-      <c r="I145">
+      <c r="G145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" s="4">
         <v>0.55208333333333304</v>
       </c>
       <c r="J145">
@@ -35196,7 +35208,7 @@
       <c r="A146" t="s">
         <v>204</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="3">
         <v>43251</v>
       </c>
       <c r="C146" t="s">
@@ -35208,16 +35220,16 @@
       <c r="E146" t="s">
         <v>39</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="4">
         <v>0.92013888888888895</v>
       </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
-      <c r="H146" t="s">
-        <v>30</v>
-      </c>
-      <c r="I146">
+      <c r="G146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" s="4">
         <v>0.94097222222222199</v>
       </c>
       <c r="J146">
@@ -35249,7 +35261,7 @@
       <c r="A147" t="s">
         <v>446</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <v>43264</v>
       </c>
       <c r="C147" t="s">
@@ -35261,16 +35273,16 @@
       <c r="E147" t="s">
         <v>27</v>
       </c>
-      <c r="F147" t="s">
-        <v>30</v>
-      </c>
-      <c r="G147" t="s">
-        <v>30</v>
-      </c>
-      <c r="H147" t="s">
-        <v>30</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="F147" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I147" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J147">
@@ -35302,7 +35314,7 @@
       <c r="A148" t="s">
         <v>446</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="3">
         <v>43264</v>
       </c>
       <c r="C148" t="s">
@@ -35314,16 +35326,16 @@
       <c r="E148" t="s">
         <v>39</v>
       </c>
-      <c r="F148" t="s">
-        <v>30</v>
-      </c>
-      <c r="G148" t="s">
-        <v>30</v>
-      </c>
-      <c r="H148" t="s">
-        <v>30</v>
-      </c>
-      <c r="I148" t="s">
+      <c r="F148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I148" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J148">
@@ -35355,7 +35367,7 @@
       <c r="A149" t="s">
         <v>475</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>43264</v>
       </c>
       <c r="C149" t="s">
@@ -35367,16 +35379,16 @@
       <c r="E149" t="s">
         <v>27</v>
       </c>
-      <c r="F149" t="s">
-        <v>30</v>
-      </c>
-      <c r="G149" t="s">
-        <v>30</v>
-      </c>
-      <c r="H149" t="s">
-        <v>30</v>
-      </c>
-      <c r="I149" t="s">
+      <c r="F149" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I149" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J149">
@@ -35408,7 +35420,7 @@
       <c r="A150" t="s">
         <v>475</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <v>43264</v>
       </c>
       <c r="C150" t="s">
@@ -35420,16 +35432,16 @@
       <c r="E150" t="s">
         <v>39</v>
       </c>
-      <c r="F150" t="s">
-        <v>30</v>
-      </c>
-      <c r="G150" t="s">
-        <v>30</v>
-      </c>
-      <c r="H150" t="s">
-        <v>30</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="F150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I150" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J150">
@@ -35461,7 +35473,7 @@
       <c r="A151" t="s">
         <v>470</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <v>43264</v>
       </c>
       <c r="C151" t="s">
@@ -35473,16 +35485,16 @@
       <c r="E151" t="s">
         <v>27</v>
       </c>
-      <c r="F151" t="s">
-        <v>30</v>
-      </c>
-      <c r="G151" t="s">
-        <v>30</v>
-      </c>
-      <c r="H151" t="s">
-        <v>30</v>
-      </c>
-      <c r="I151" t="s">
+      <c r="F151" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I151" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J151">
@@ -35514,7 +35526,7 @@
       <c r="A152" t="s">
         <v>461</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>43264</v>
       </c>
       <c r="C152" t="s">
@@ -35526,16 +35538,16 @@
       <c r="E152" t="s">
         <v>27</v>
       </c>
-      <c r="F152" t="s">
-        <v>30</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
-      </c>
-      <c r="H152" t="s">
-        <v>30</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="F152" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I152" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J152">
@@ -35567,7 +35579,7 @@
       <c r="A153" t="s">
         <v>461</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <v>43264</v>
       </c>
       <c r="C153" t="s">
@@ -35579,16 +35591,16 @@
       <c r="E153" t="s">
         <v>39</v>
       </c>
-      <c r="F153" t="s">
-        <v>30</v>
-      </c>
-      <c r="G153" t="s">
-        <v>30</v>
-      </c>
-      <c r="H153" t="s">
-        <v>30</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="F153" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I153" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J153">
@@ -35620,7 +35632,7 @@
       <c r="A154" t="s">
         <v>456</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="3">
         <v>43264</v>
       </c>
       <c r="C154" t="s">
@@ -35632,16 +35644,16 @@
       <c r="E154" t="s">
         <v>27</v>
       </c>
-      <c r="F154" t="s">
-        <v>30</v>
-      </c>
-      <c r="G154" t="s">
-        <v>30</v>
-      </c>
-      <c r="H154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="F154" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I154" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J154">
@@ -35673,7 +35685,7 @@
       <c r="A155" t="s">
         <v>456</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="3">
         <v>43264</v>
       </c>
       <c r="C155" t="s">
@@ -35685,16 +35697,16 @@
       <c r="E155" t="s">
         <v>39</v>
       </c>
-      <c r="F155" t="s">
-        <v>30</v>
-      </c>
-      <c r="G155" t="s">
-        <v>30</v>
-      </c>
-      <c r="H155" t="s">
-        <v>30</v>
-      </c>
-      <c r="I155" t="s">
+      <c r="F155" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I155" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J155">
@@ -35726,7 +35738,7 @@
       <c r="A156" t="s">
         <v>308</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <v>43256</v>
       </c>
       <c r="C156" t="s">
@@ -35738,16 +35750,16 @@
       <c r="E156" t="s">
         <v>39</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="4">
         <v>0.87152777777777801</v>
       </c>
-      <c r="G156" t="s">
-        <v>30</v>
-      </c>
-      <c r="H156" t="s">
-        <v>30</v>
-      </c>
-      <c r="I156">
+      <c r="G156" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I156" s="4">
         <v>0.89236111111111105</v>
       </c>
       <c r="J156">
@@ -35779,7 +35791,7 @@
       <c r="A157" t="s">
         <v>308</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>43256</v>
       </c>
       <c r="C157" t="s">
@@ -35791,16 +35803,16 @@
       <c r="E157" t="s">
         <v>27</v>
       </c>
-      <c r="F157" t="s">
-        <v>30</v>
-      </c>
-      <c r="G157" t="s">
-        <v>30</v>
-      </c>
-      <c r="H157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I157" t="s">
+      <c r="F157" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I157" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J157">
@@ -35832,7 +35844,7 @@
       <c r="A158" t="s">
         <v>287</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="3">
         <v>43256</v>
       </c>
       <c r="C158" t="s">
@@ -35844,16 +35856,16 @@
       <c r="E158" t="s">
         <v>27</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="4">
         <v>0.406944444444444</v>
       </c>
-      <c r="G158" t="s">
-        <v>30</v>
-      </c>
-      <c r="H158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I158">
+      <c r="G158" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I158" s="4">
         <v>0.42777777777777798</v>
       </c>
       <c r="J158">
@@ -35885,7 +35897,7 @@
       <c r="A159" t="s">
         <v>287</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="3">
         <v>43256</v>
       </c>
       <c r="C159" t="s">
@@ -35897,16 +35909,16 @@
       <c r="E159" t="s">
         <v>27</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="4">
         <v>0.49444444444444402</v>
       </c>
-      <c r="G159" t="s">
-        <v>30</v>
-      </c>
-      <c r="H159" t="s">
-        <v>30</v>
-      </c>
-      <c r="I159">
+      <c r="G159" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I159" s="4">
         <v>0.51527777777777795</v>
       </c>
       <c r="J159">
@@ -35938,7 +35950,7 @@
       <c r="A160" t="s">
         <v>287</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="3">
         <v>43256</v>
       </c>
       <c r="C160" t="s">
@@ -35950,16 +35962,16 @@
       <c r="E160" t="s">
         <v>39</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="4">
         <v>0.89375000000000004</v>
       </c>
-      <c r="G160" t="s">
-        <v>30</v>
-      </c>
-      <c r="H160" t="s">
-        <v>30</v>
-      </c>
-      <c r="I160">
+      <c r="G160" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I160" s="4">
         <v>0.91458333333333297</v>
       </c>
       <c r="J160">
@@ -35991,7 +36003,7 @@
       <c r="A161" t="s">
         <v>419</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="3">
         <v>43259</v>
       </c>
       <c r="C161" t="s">
@@ -36003,16 +36015,16 @@
       <c r="E161" t="s">
         <v>39</v>
       </c>
-      <c r="F161" t="s">
-        <v>30</v>
-      </c>
-      <c r="G161" t="s">
-        <v>30</v>
-      </c>
-      <c r="H161" t="s">
-        <v>30</v>
-      </c>
-      <c r="I161" t="s">
+      <c r="F161" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I161" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J161">
@@ -36044,7 +36056,7 @@
       <c r="A162" t="s">
         <v>413</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="3">
         <v>43259</v>
       </c>
       <c r="C162" t="s">
@@ -36056,16 +36068,16 @@
       <c r="E162" t="s">
         <v>39</v>
       </c>
-      <c r="F162" t="s">
-        <v>30</v>
-      </c>
-      <c r="G162" t="s">
-        <v>30</v>
-      </c>
-      <c r="H162" t="s">
-        <v>30</v>
-      </c>
-      <c r="I162" t="s">
+      <c r="F162" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J162">
@@ -36097,7 +36109,7 @@
       <c r="A163" t="s">
         <v>552</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <v>43269</v>
       </c>
       <c r="C163" t="s">
@@ -36109,16 +36121,16 @@
       <c r="E163" t="s">
         <v>39</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="4">
         <v>0.89930555555555602</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="4">
         <v>0.91874999999999996</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="4">
         <v>0.92777777777777803</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="4">
         <v>0.94097222222222199</v>
       </c>
       <c r="J163">
@@ -36150,7 +36162,7 @@
       <c r="A164" t="s">
         <v>518</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <v>43272</v>
       </c>
       <c r="C164" t="s">
@@ -36162,16 +36174,16 @@
       <c r="E164" t="s">
         <v>27</v>
       </c>
-      <c r="F164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G164" t="s">
-        <v>30</v>
-      </c>
-      <c r="H164" t="s">
-        <v>30</v>
-      </c>
-      <c r="I164" t="s">
+      <c r="F164" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I164" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J164">
@@ -36203,7 +36215,7 @@
       <c r="A165" t="s">
         <v>137</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="3">
         <v>43248</v>
       </c>
       <c r="C165" t="s">
@@ -36215,16 +36227,16 @@
       <c r="E165" t="s">
         <v>27</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="4">
         <v>0.44097222222222199</v>
       </c>
-      <c r="G165" t="s">
-        <v>30</v>
-      </c>
-      <c r="H165" t="s">
-        <v>30</v>
-      </c>
-      <c r="I165">
+      <c r="G165" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I165" s="4">
         <v>0.46180555555555602</v>
       </c>
       <c r="J165">
@@ -36256,7 +36268,7 @@
       <c r="A166" t="s">
         <v>540</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="3">
         <v>43269</v>
       </c>
       <c r="C166" t="s">
@@ -36268,16 +36280,16 @@
       <c r="E166" t="s">
         <v>39</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="4">
         <v>0.93194444444444402</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="4">
         <v>0.95138888888888895</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="4">
         <v>0.95833333333333304</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="4">
         <v>0.97152777777777799</v>
       </c>
       <c r="J166">
@@ -36309,7 +36321,7 @@
       <c r="A167" t="s">
         <v>577</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="3">
         <v>43279</v>
       </c>
       <c r="C167" t="s">
@@ -36321,16 +36333,16 @@
       <c r="E167" t="s">
         <v>27</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="4">
         <v>0.36319444444444399</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="4">
         <v>0.38194444444444398</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="4">
         <v>0.39305555555555599</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="4">
         <v>0.40277777777777801</v>
       </c>
       <c r="J167">
@@ -36362,7 +36374,7 @@
       <c r="A168" t="s">
         <v>708</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="3">
         <v>43279</v>
       </c>
       <c r="C168" t="s">
@@ -36374,16 +36386,16 @@
       <c r="E168" t="s">
         <v>27</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="4">
         <v>0.42361111111111099</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="4">
         <v>0.44444444444444398</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="4">
         <v>0.45486111111111099</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="4">
         <v>0.46597222222222201</v>
       </c>
       <c r="J168">
@@ -36415,7 +36427,7 @@
       <c r="A169" t="s">
         <v>580</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="3">
         <v>43279</v>
       </c>
       <c r="C169" t="s">
@@ -36427,16 +36439,16 @@
       <c r="E169" t="s">
         <v>27</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="4">
         <v>0.35138888888888897</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="4">
         <v>0.37222222222222201</v>
       </c>
-      <c r="H169" t="s">
-        <v>30</v>
-      </c>
-      <c r="I169" t="s">
+      <c r="H169" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J169">
@@ -36468,7 +36480,7 @@
       <c r="A170" t="s">
         <v>585</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="3">
         <v>43279</v>
       </c>
       <c r="C170" t="s">
@@ -36480,16 +36492,16 @@
       <c r="E170" t="s">
         <v>27</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="4">
         <v>0.422222222222222</v>
       </c>
-      <c r="G170" t="s">
-        <v>30</v>
-      </c>
-      <c r="H170" t="s">
-        <v>30</v>
-      </c>
-      <c r="I170" t="s">
+      <c r="G170" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I170" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J170">
@@ -36521,7 +36533,7 @@
       <c r="A171" t="s">
         <v>634</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="3">
         <v>43279</v>
       </c>
       <c r="C171" t="s">
@@ -36533,16 +36545,16 @@
       <c r="E171" t="s">
         <v>27</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="4">
         <v>0.5</v>
       </c>
-      <c r="G171" t="s">
-        <v>30</v>
-      </c>
-      <c r="H171" t="s">
-        <v>30</v>
-      </c>
-      <c r="I171">
+      <c r="G171" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I171" s="4">
         <v>0.52083333333333304</v>
       </c>
       <c r="J171">
@@ -36574,7 +36586,7 @@
       <c r="A172" t="s">
         <v>588</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="3">
         <v>43277</v>
       </c>
       <c r="C172" t="s">
@@ -36586,16 +36598,16 @@
       <c r="E172" t="s">
         <v>27</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="4">
         <v>0.49652777777777801</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="4">
         <v>0.51944444444444404</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="4">
         <v>0.52986111111111101</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="4">
         <v>0.54027777777777797</v>
       </c>
       <c r="J172">
@@ -36627,7 +36639,7 @@
       <c r="A173" t="s">
         <v>608</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="3">
         <v>43277</v>
       </c>
       <c r="C173" t="s">
@@ -36639,16 +36651,16 @@
       <c r="E173" t="s">
         <v>27</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="4">
         <v>0.44097222222222199</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="4">
         <v>0.46597222222222201</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="4">
         <v>0.47986111111111102</v>
       </c>
       <c r="J173">
@@ -36680,7 +36692,7 @@
       <c r="A174" t="s">
         <v>590</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="3">
         <v>43278</v>
       </c>
       <c r="C174" t="s">
@@ -36692,16 +36704,16 @@
       <c r="E174" t="s">
         <v>27</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="4">
         <v>0.44374999999999998</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="4">
         <v>0.46111111111111103</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="4">
         <v>0.47291666666666698</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="4">
         <v>0.485416666666667</v>
       </c>
       <c r="J174">
@@ -36733,7 +36745,7 @@
       <c r="A175" t="s">
         <v>616</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="3">
         <v>43278</v>
       </c>
       <c r="C175" t="s">
@@ -36745,16 +36757,16 @@
       <c r="E175" t="s">
         <v>27</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="4">
         <v>0.5</v>
       </c>
-      <c r="G175" t="s">
-        <v>30</v>
-      </c>
-      <c r="H175" t="s">
-        <v>30</v>
-      </c>
-      <c r="I175">
+      <c r="G175" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I175" s="4">
         <v>0.52083333333333304</v>
       </c>
       <c r="J175">
@@ -36786,7 +36798,7 @@
       <c r="A176" t="s">
         <v>592</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <v>43278</v>
       </c>
       <c r="C176" t="s">
@@ -36798,16 +36810,16 @@
       <c r="E176" t="s">
         <v>27</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="4">
         <v>0.36458333333333298</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="4">
         <v>0.38680555555555601</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="4">
         <v>0.39722222222222198</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="4">
         <v>0.40625</v>
       </c>
       <c r="J176">
@@ -36839,7 +36851,7 @@
       <c r="A177" t="s">
         <v>595</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="3">
         <v>43278</v>
       </c>
       <c r="C177" t="s">
@@ -36851,16 +36863,16 @@
       <c r="E177" t="s">
         <v>27</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="4">
         <v>0.4</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="4">
         <v>0.42013888888888901</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="4">
         <v>0.42847222222222198</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="4">
         <v>0.44027777777777799</v>
       </c>
       <c r="J177">
@@ -36892,7 +36904,7 @@
       <c r="A178" t="s">
         <v>597</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>43278</v>
       </c>
       <c r="C178" t="s">
@@ -36904,16 +36916,16 @@
       <c r="E178" t="s">
         <v>27</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="4">
         <v>0.48194444444444401</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="4">
         <v>0.5</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="4">
         <v>0.51111111111111096</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="4">
         <v>0.52222222222222203</v>
       </c>
       <c r="J178">
@@ -36945,7 +36957,7 @@
       <c r="A179" t="s">
         <v>599</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="3">
         <v>43277</v>
       </c>
       <c r="C179" t="s">
@@ -36957,16 +36969,16 @@
       <c r="E179" t="s">
         <v>27</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="4">
         <v>0.45555555555555599</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="4">
         <v>0.47361111111111098</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="4">
         <v>0.48611111111111099</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="4">
         <v>0.49722222222222201</v>
       </c>
       <c r="J179">
@@ -36998,7 +37010,7 @@
       <c r="A180" t="s">
         <v>599</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="3">
         <v>43277</v>
       </c>
       <c r="C180" t="s">
@@ -37010,16 +37022,16 @@
       <c r="E180" t="s">
         <v>39</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="4">
         <v>0.80694444444444402</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="4">
         <v>0.82847222222222205</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="4">
         <v>0.84097222222222201</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="4">
         <v>0.84861111111111098</v>
       </c>
       <c r="J180">
@@ -37051,7 +37063,7 @@
       <c r="A181" t="s">
         <v>588</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="3">
         <v>43277</v>
       </c>
       <c r="C181" t="s">
@@ -37063,16 +37075,16 @@
       <c r="E181" t="s">
         <v>39</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="4">
         <v>0.84652777777777799</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="4">
         <v>0.86597222222222203</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="4">
         <v>0.87847222222222199</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="4">
         <v>0.88958333333333295</v>
       </c>
       <c r="J181">
@@ -37104,7 +37116,7 @@
       <c r="A182" t="s">
         <v>608</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <v>43277</v>
       </c>
       <c r="C182" t="s">
@@ -37116,16 +37128,16 @@
       <c r="E182" t="s">
         <v>39</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="4">
         <v>0.79444444444444395</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="4">
         <v>0.81458333333333299</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="4">
         <v>0.82847222222222205</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="4">
         <v>0.83888888888888902</v>
       </c>
       <c r="J182">
@@ -37157,7 +37169,7 @@
       <c r="A183" t="s">
         <v>590</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="3">
         <v>43278</v>
       </c>
       <c r="C183" t="s">
@@ -37169,16 +37181,16 @@
       <c r="E183" t="s">
         <v>39</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="4">
         <v>0.85208333333333297</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="4">
         <v>0.86944444444444402</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="4">
         <v>0.88124999999999998</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="4">
         <v>0.89375000000000004</v>
       </c>
       <c r="J183">
@@ -37210,7 +37222,7 @@
       <c r="A184" t="s">
         <v>616</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="3">
         <v>43278</v>
       </c>
       <c r="C184" t="s">
@@ -37222,16 +37234,16 @@
       <c r="E184" t="s">
         <v>39</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="4">
         <v>0.92708333333333304</v>
       </c>
-      <c r="G184" t="s">
-        <v>30</v>
-      </c>
-      <c r="H184" t="s">
-        <v>30</v>
-      </c>
-      <c r="I184">
+      <c r="G184" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I184" s="4">
         <v>0.94791666666666696</v>
       </c>
       <c r="J184">
@@ -37263,7 +37275,7 @@
       <c r="A185" t="s">
         <v>592</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <v>43278</v>
       </c>
       <c r="C185" t="s">
@@ -37275,16 +37287,16 @@
       <c r="E185" t="s">
         <v>39</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="4">
         <v>0.79861111111111105</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="4">
         <v>0.81666666666666698</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="4">
         <v>0.82986111111111105</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="4">
         <v>0.84027777777777801</v>
       </c>
       <c r="J185">
@@ -37316,7 +37328,7 @@
       <c r="A186" t="s">
         <v>595</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="3">
         <v>43278</v>
       </c>
       <c r="C186" t="s">
@@ -37328,16 +37340,16 @@
       <c r="E186" t="s">
         <v>39</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="4">
         <v>0.82291666666666696</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="4">
         <v>0.84722222222222199</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="4">
         <v>0.85624999999999996</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="4">
         <v>0.87013888888888902</v>
       </c>
       <c r="J186">
@@ -37369,7 +37381,7 @@
       <c r="A187" t="s">
         <v>597</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <v>43278</v>
       </c>
       <c r="C187" t="s">
@@ -37381,16 +37393,16 @@
       <c r="E187" t="s">
         <v>39</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="4">
         <v>0.87986111111111098</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="4">
         <v>0.90069444444444402</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="4">
         <v>0.91111111111111098</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="4">
         <v>0.92291666666666705</v>
       </c>
       <c r="J187">
@@ -37422,7 +37434,7 @@
       <c r="A188" t="s">
         <v>585</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="3">
         <v>43279</v>
       </c>
       <c r="C188" t="s">
@@ -37434,16 +37446,16 @@
       <c r="E188" t="s">
         <v>39</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="4">
         <v>0.85069444444444398</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="4">
         <v>0.87083333333333302</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="4">
         <v>0.87847222222222199</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="4">
         <v>0.89236111111111105</v>
       </c>
       <c r="J188">
@@ -37475,7 +37487,7 @@
       <c r="A189" t="s">
         <v>634</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="3">
         <v>43279</v>
       </c>
       <c r="C189" t="s">
@@ -37487,16 +37499,16 @@
       <c r="E189" t="s">
         <v>39</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="4">
         <v>0.91666666666666696</v>
       </c>
-      <c r="G189" t="s">
-        <v>30</v>
-      </c>
-      <c r="H189" t="s">
-        <v>30</v>
-      </c>
-      <c r="I189">
+      <c r="G189" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I189" s="4">
         <v>0.9375</v>
       </c>
       <c r="J189">
@@ -37528,7 +37540,7 @@
       <c r="A190" t="s">
         <v>580</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="3">
         <v>43279</v>
       </c>
       <c r="C190" t="s">
@@ -37540,16 +37552,16 @@
       <c r="E190" t="s">
         <v>39</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="4">
         <v>0.88194444444444398</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="4">
         <v>0.90138888888888902</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="4">
         <v>0.91041666666666698</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="4">
         <v>0.92361111111111105</v>
       </c>
       <c r="J190">
@@ -37581,7 +37593,7 @@
       <c r="A191" t="s">
         <v>577</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="3">
         <v>43279</v>
       </c>
       <c r="C191" t="s">
@@ -37593,16 +37605,16 @@
       <c r="E191" t="s">
         <v>39</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="4">
         <v>0.80555555555555602</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="4">
         <v>0.83055555555555605</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="4">
         <v>0.84027777777777801</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="4">
         <v>0.85</v>
       </c>
       <c r="J191">
@@ -37634,7 +37646,7 @@
       <c r="A192" t="s">
         <v>708</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <v>43279</v>
       </c>
       <c r="C192" t="s">
@@ -37646,16 +37658,16 @@
       <c r="E192" t="s">
         <v>39</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="4">
         <v>0.86041666666666705</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="4">
         <v>0.87847222222222199</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="4">
         <v>0.89583333333333304</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="4">
         <v>0.90486111111111101</v>
       </c>
       <c r="J192">
@@ -41348,7 +41360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V506" sqref="V506"/>
     </sheetView>
@@ -77291,7 +77303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
